--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/PycharmProjects/cc/invest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687CBCD9-60B4-F746-B929-CAC7FD9462F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
     <sheet name="zz500" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,24 +29,174 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office 用户</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="11"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">持有
-售出
-被合并
+          <t>持有</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>售出</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>被合并</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{95F8A39A-B293-F049-AAEF-A896CE5BC9C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="DengXian"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>未确认也算份数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{1AD33B25-3976-C649-ABCC-2D3C7D01CA64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="DengXian"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>未确认也算份数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -55,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -466,6 +617,454 @@
   </si>
   <si>
     <t>20190118首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190121</t>
+  </si>
+  <si>
+    <t>20190121首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190122</t>
+  </si>
+  <si>
+    <t>20190122首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190123</t>
+  </si>
+  <si>
+    <t>20190123首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190124</t>
+  </si>
+  <si>
+    <t>20190124首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190125</t>
+  </si>
+  <si>
+    <t>20190125首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190121</t>
+  </si>
+  <si>
+    <t>10290121首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190122</t>
+  </si>
+  <si>
+    <t>10290122首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190123</t>
+  </si>
+  <si>
+    <t>10290123首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190124</t>
+  </si>
+  <si>
+    <t>10290124首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190125</t>
+  </si>
+  <si>
+    <t>10290125首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190128</t>
+  </si>
+  <si>
+    <t>10290128首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190129</t>
+  </si>
+  <si>
+    <t>10290129首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190130</t>
+  </si>
+  <si>
+    <t>10290130首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190131</t>
+  </si>
+  <si>
+    <t>10290131首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190128</t>
+  </si>
+  <si>
+    <t>20190128首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190129</t>
+  </si>
+  <si>
+    <t>20190129首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190130</t>
+  </si>
+  <si>
+    <t>20190130首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190131</t>
+  </si>
+  <si>
+    <t>20190131首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290201首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190201首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亏损测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亏损测试</t>
+    <rPh sb="0" eb="4">
+      <t>shou'cigou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利测试</t>
+    <rPh sb="0" eb="4">
+      <t>shou'cigou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日份数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日资产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计投入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190212</t>
+  </si>
+  <si>
+    <t>hs300_20190213</t>
+  </si>
+  <si>
+    <t>hs300_20190214</t>
+  </si>
+  <si>
+    <t>hs300_20190215</t>
+  </si>
+  <si>
+    <t>zz500_20190211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190212</t>
+  </si>
+  <si>
+    <t>zz500_20190213</t>
+  </si>
+  <si>
+    <t>zz500_20190214</t>
+  </si>
+  <si>
+    <t>zz500_20190215</t>
+  </si>
+  <si>
+    <t>10290211首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290212首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290213首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290214首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290215首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190211首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190212首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190213首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190214首次购入</t>
+    <rPh sb="8" eb="9">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190215首次购入</t>
     <rPh sb="8" eb="9">
       <t>shou'ci</t>
     </rPh>
@@ -478,11 +1077,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,9 +1127,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -555,13 +1182,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -569,7 +1197,17 @@
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -600,11 +1238,44 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -872,21 +1543,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -903,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>0.94899999999999995</v>
+        <v>1.048</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -917,454 +1602,1878 @@
       <c r="J1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="K1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2" s="2">
+        <v>560.11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2" si="0">20%*M2</f>
+        <v>0.41074733333333341</v>
+      </c>
+      <c r="F2" s="4">
+        <f>($F$1*C2-B2)/B2</f>
+        <v>1.3019422745098044</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H25" si="1">$F$1*C2-B2</f>
+        <v>331.99528000000009</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K25" si="2">D2*C2</f>
+        <v>308.06050000000005</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2" si="3">K2/150</f>
+        <v>2.053736666666667</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>P2+O2</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B2">
-        <v>150</v>
-      </c>
-      <c r="C2" s="2">
-        <v>166.39</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.90059999999999996</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="F2" s="4">
-        <f>($F$1-D2)*C2/B2</f>
-        <v>5.3688506666666656E-2</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <f>D2*C2</f>
-        <v>149.85083399999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="B3">
         <v>150</v>
       </c>
       <c r="C3" s="2">
-        <v>166.63</v>
+        <v>166.39</v>
       </c>
       <c r="D3" s="3">
-        <v>0.89929999999999999</v>
+        <v>0.90059999999999996</v>
       </c>
       <c r="E3" s="1">
         <v>0.23</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F13" si="0">($F$1-D3)*C3/B3</f>
-        <v>5.5210073333333297E-2</v>
+        <f t="shared" ref="F3:F25" si="4">($F$1*C3-B3)/B3</f>
+        <v>0.16251146666666672</v>
       </c>
       <c r="G3" s="4"/>
+      <c r="H3" s="2">
+        <f t="shared" si="1"/>
+        <v>24.376720000000006</v>
+      </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K9" si="1">D3*C3</f>
-        <v>149.850359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>149.85083399999999</v>
+      </c>
+      <c r="L3">
+        <f>B3-K3</f>
+        <v>0.14916600000000813</v>
+      </c>
+      <c r="M3" s="1">
+        <f>K3/150</f>
+        <v>0.99900555999999996</v>
+      </c>
+      <c r="N3" s="2">
+        <v>166.39</v>
+      </c>
+      <c r="O3" s="2">
+        <f>N3*D3</f>
+        <v>149.85083399999999</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q25" si="5">P3+O3</f>
+        <v>149.85083399999999</v>
+      </c>
+      <c r="R3">
+        <f>B3</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>150</v>
       </c>
       <c r="C4" s="2">
-        <v>163</v>
+        <v>166.63</v>
       </c>
       <c r="D4" s="3">
-        <v>0.91930000000000001</v>
+        <v>0.89929999999999999</v>
       </c>
       <c r="E4" s="1">
         <v>0.23</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2273999999999949E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.16418826666666669</v>
       </c>
       <c r="G4" s="4"/>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>24.628240000000005</v>
+      </c>
       <c r="I4" t="s">
         <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
-        <v>149.8459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>149.850359</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L25" si="6">B4-K4</f>
+        <v>0.14964100000000258</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M24" si="7">K4/150</f>
+        <v>0.99900239333333329</v>
+      </c>
+      <c r="N4" s="6">
+        <f>N3+C4</f>
+        <v>333.02</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O25" si="8">N4*D4</f>
+        <v>299.48488599999996</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" si="5"/>
+        <v>299.48488599999996</v>
+      </c>
+      <c r="R4">
+        <f>R3+B4</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>150</v>
       </c>
       <c r="C5" s="2">
-        <v>160.84</v>
+        <v>163</v>
       </c>
       <c r="D5" s="3">
-        <v>0.93169999999999997</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="E5" s="1">
         <v>0.23</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>1.8550213333333315E-2</v>
-      </c>
-      <c r="H5" s="1"/>
+        <f t="shared" si="4"/>
+        <v>0.13882666666666674</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>20.824000000000012</v>
+      </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
-        <v>149.85462799999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>149.8459</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>0.15409999999999968</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99897266666666662</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" ref="N5:N30" si="9">N4+C5</f>
+        <v>496.02</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="8"/>
+        <v>455.99118599999997</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="5"/>
+        <v>455.99118599999997</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R25" si="10">R4+B5</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>150</v>
       </c>
       <c r="C6" s="2">
-        <v>162.41999999999999</v>
+        <v>160.84</v>
       </c>
       <c r="D6" s="3">
-        <v>0.92259999999999998</v>
+        <v>0.93169999999999997</v>
       </c>
       <c r="E6" s="1">
         <v>0.23</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>2.8585919999999973E-2</v>
-      </c>
-      <c r="H6" s="1"/>
+        <f t="shared" si="4"/>
+        <v>0.12373546666666679</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>18.560320000000019</v>
+      </c>
       <c r="I6" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
-        <v>149.84869199999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>149.85462799999999</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>0.14537200000000894</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.9990308533333333</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="9"/>
+        <v>656.86</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="8"/>
+        <v>611.99646199999995</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="5"/>
+        <v>611.99646199999995</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="10"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>150</v>
       </c>
       <c r="C7" s="2">
-        <v>162.09</v>
+        <v>162.41999999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>0.92449999999999999</v>
+        <v>0.92259999999999998</v>
       </c>
       <c r="E7" s="1">
         <v>0.23</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6474699999999962E-2</v>
-      </c>
-      <c r="G7" s="4"/>
+        <f t="shared" si="4"/>
+        <v>0.13477440000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>20.216160000000002</v>
+      </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
-        <v>149.852205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>149.84869199999997</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>0.15130800000002864</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99899127999999981</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="9"/>
+        <v>819.28</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="8"/>
+        <v>755.86772799999994</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="5"/>
+        <v>755.86772799999994</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="10"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>150</v>
       </c>
       <c r="C8" s="2">
-        <v>161.16</v>
+        <v>162.09</v>
       </c>
       <c r="D8" s="3">
-        <v>0.92979999999999996</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="E8" s="1">
         <v>0.23</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0628479999999994E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.13246880000000014</v>
       </c>
       <c r="G8" s="4"/>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>19.870320000000021</v>
+      </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
-        <v>149.84656799999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>149.852205</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>0.14779500000000212</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99901470000000003</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="9"/>
+        <v>981.37</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="8"/>
+        <v>907.27656500000001</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="5"/>
+        <v>907.27656500000001</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="10"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>150</v>
       </c>
       <c r="C9" s="2">
-        <v>160.08000000000001</v>
+        <v>161.16</v>
       </c>
       <c r="D9" s="3">
-        <v>0.93610000000000004</v>
+        <v>0.92979999999999996</v>
       </c>
       <c r="E9" s="1">
         <v>0.23</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.3766879999999908E-2</v>
-      </c>
-      <c r="G9" s="1"/>
+        <f t="shared" si="4"/>
+        <v>0.12597119999999998</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>18.895679999999999</v>
+      </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
-        <v>149.85088800000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>149.84656799999999</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>0.15343200000000934</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99897711999999994</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="9"/>
+        <v>1142.53</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="8"/>
+        <v>1062.324394</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="5"/>
+        <v>1062.324394</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="10"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>150</v>
       </c>
       <c r="C10" s="2">
-        <v>161.41999999999999</v>
+        <v>160.08000000000001</v>
       </c>
       <c r="D10" s="3">
-        <v>0.92830000000000001</v>
+        <v>0.93610000000000004</v>
       </c>
       <c r="E10" s="1">
         <v>0.23</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>2.2275959999999932E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.1184256000000001</v>
       </c>
       <c r="G10" s="1"/>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>17.763840000000016</v>
+      </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K13" si="2">D10*C10</f>
-        <v>149.84618599999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>149.85088800000003</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>0.14911199999997393</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99900592000000021</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="9"/>
+        <v>1302.6099999999999</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="8"/>
+        <v>1219.3732210000001</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="5"/>
+        <v>1219.3732210000001</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="10"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>150</v>
       </c>
       <c r="C11" s="2">
-        <v>158.5</v>
+        <v>161.41999999999999</v>
       </c>
       <c r="D11" s="3">
-        <v>0.94540000000000002</v>
+        <v>0.92830000000000001</v>
       </c>
       <c r="E11" s="1">
         <v>0.23</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.8039999999999333E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.12778773333333335</v>
       </c>
       <c r="G11" s="1"/>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>19.16816</v>
+      </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>149.8459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>149.84618599999999</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>0.15381400000001122</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99897457333333328</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="9"/>
+        <v>1464.03</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="8"/>
+        <v>1359.059049</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="5"/>
+        <v>1359.059049</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="10"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>150</v>
       </c>
       <c r="C12" s="2">
-        <v>158.47</v>
+        <v>158.5</v>
       </c>
       <c r="D12" s="3">
-        <v>0.9456</v>
+        <v>0.94540000000000002</v>
       </c>
       <c r="E12" s="1">
         <v>0.23</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5919866666666231E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.1073866666666667</v>
       </c>
       <c r="G12" s="1"/>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>16.108000000000004</v>
+      </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>149.849232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>149.8459</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>0.15409999999999968</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99897266666666662</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="9"/>
+        <v>1622.53</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="8"/>
+        <v>1533.9398619999999</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="5"/>
+        <v>1533.9398619999999</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>150</v>
       </c>
       <c r="C13" s="2">
-        <v>159.30000000000001</v>
+        <v>158.47</v>
       </c>
       <c r="D13" s="3">
-        <v>0.94069999999999998</v>
+        <v>0.9456</v>
       </c>
       <c r="E13" s="1">
         <v>0.23</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.8145999999999728E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.10717706666666667</v>
       </c>
       <c r="G13" s="1"/>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>16.076560000000001</v>
+      </c>
       <c r="I13" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>149.85351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>149.849232</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>0.15076799999999935</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99899488000000003</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="9"/>
+        <v>1781</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="8"/>
+        <v>1684.1135999999999</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="5"/>
+        <v>1684.1135999999999</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="10"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>150</v>
       </c>
       <c r="C14" s="2">
-        <v>156.62</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="D14" s="3">
-        <v>0.95679999999999998</v>
+        <v>0.94069999999999998</v>
       </c>
       <c r="E14" s="1">
         <v>0.23</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" ref="F14" si="3">($F$1-D14)*C14/B14</f>
-        <v>-8.14424000000003E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.11297600000000008</v>
       </c>
       <c r="G14" s="1"/>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>16.946400000000011</v>
+      </c>
       <c r="I14" t="s">
         <v>21</v>
       </c>
       <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>149.85351</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>0.14649000000000001</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99902340000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="9"/>
+        <v>1940.3</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="8"/>
+        <v>1825.2402099999999</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="5"/>
+        <v>1825.2402099999999</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="10"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2">
+        <v>156.62</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="4"/>
+        <v>9.4251733333333435E-2</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>14.137760000000014</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
         <v>61</v>
       </c>
-      <c r="K14">
-        <f t="shared" ref="K14:K15" si="4">D14*C14</f>
+      <c r="K15">
+        <f t="shared" si="2"/>
         <v>149.854016</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>0.14598399999999856</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99902677333333334</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="9"/>
+        <v>2096.92</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="8"/>
+        <v>2006.3330559999999</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" si="5"/>
+        <v>2006.3330559999999</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="10"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16" s="2">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="4"/>
+        <v>8.8522666666666694E-2</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>13.278400000000005</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>149.84844000000001</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>0.15155999999998926</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99898960000000003</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="9"/>
+        <v>2252.7200000000003</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="8"/>
+        <v>2166.6660960000004</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="5"/>
+        <v>2166.6660960000004</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="10"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
+      </c>
+      <c r="C17" s="2">
+        <v>157.77000000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.10228640000000003</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>15.342960000000005</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>149.84994600000002</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>0.15005399999998303</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99899964000000008</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="9"/>
+        <v>2410.4900000000002</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="8"/>
+        <v>2289.4834020000003</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="5"/>
+        <v>2289.4834020000003</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="10"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18">
+        <v>150</v>
+      </c>
+      <c r="C18" s="2">
+        <v>157.85</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.10284533333333343</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>15.426800000000014</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>149.847005</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>0.15299500000000421</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99898003333333329</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="9"/>
+        <v>2568.34</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="8"/>
+        <v>2438.1251620000003</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" si="5"/>
+        <v>2438.1251620000003</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="10"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <v>150</v>
+      </c>
+      <c r="C19" s="2">
+        <v>157.03</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="4"/>
+        <v>9.7116266666666701E-2</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>14.567440000000005</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>149.85372900000002</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>0.1462709999999845</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99902486000000013</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="9"/>
+        <v>2725.3700000000003</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="8"/>
+        <v>2600.8205910000006</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="5"/>
+        <v>2600.8205910000006</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="10"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>150</v>
+      </c>
+      <c r="C20" s="2">
+        <v>155.83000000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="4"/>
+        <v>8.8732266666666726E-2</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>13.309840000000008</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>149.84612800000002</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>0.15387199999997847</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99897418666666682</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="9"/>
+        <v>2881.2000000000003</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="8"/>
+        <v>2770.5619200000001</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="5"/>
+        <v>2770.5619200000001</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="10"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>270</v>
+      </c>
+      <c r="C21" s="2">
+        <v>280.56</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ref="E21:E24" si="11">20%*M21</f>
+        <v>0.35964051200000002</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="4"/>
+        <v>8.8988444444444467E-2</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>24.026880000000006</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>269.73038400000002</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>0.26961599999998498</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="7"/>
+        <v>1.79820256</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="9"/>
+        <v>3161.76</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="8"/>
+        <v>3039.7160640000002</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="5"/>
+        <v>3039.7160640000002</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="10"/>
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22">
+        <v>270</v>
+      </c>
+      <c r="C22" s="2">
+        <v>279.69</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="11"/>
+        <v>0.35964404800000005</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="4"/>
+        <v>8.5611555555555524E-2</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>23.11511999999999</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>269.73303600000003</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>0.26696399999997311</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="7"/>
+        <v>1.7982202400000002</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="9"/>
+        <v>3441.4500000000003</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="8"/>
+        <v>3318.9343800000006</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="5"/>
+        <v>3318.9343800000006</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="10"/>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23">
+        <v>255</v>
+      </c>
+      <c r="C23" s="2">
+        <v>266.14</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.95720000000000005</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="11"/>
+        <v>0.33966561066666667</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="4"/>
+        <v>9.3783215686274471E-2</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>23.914719999999988</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>254.74920800000001</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>0.25079199999998991</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="7"/>
+        <v>1.6983280533333334</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="9"/>
+        <v>3707.59</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="8"/>
+        <v>3548.9051480000003</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <f t="shared" si="5"/>
+        <v>3548.9051480000003</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="10"/>
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24">
+        <v>270</v>
+      </c>
+      <c r="C24" s="2">
+        <v>279.05</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="11"/>
+        <v>0.35963964000000004</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="4"/>
+        <v>8.3127407407407525E-2</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>22.44440000000003</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>269.72973000000002</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>0.27026999999998225</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="7"/>
+        <v>1.7981982000000001</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="9"/>
+        <v>3986.6400000000003</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="8"/>
+        <v>3853.4862240000002</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="5"/>
+        <v>3853.4862240000002</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="10"/>
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>255</v>
+      </c>
+      <c r="C25" s="2">
+        <v>260.11</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ref="E25" si="12">20%*M25</f>
+        <v>0.33966897866666673</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="4"/>
+        <v>6.9001098039215697E-2</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>17.595280000000002</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>254.75173400000003</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>0.24826599999997256</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ref="M25" si="13">K25/150</f>
+        <v>1.6983448933333336</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="9"/>
+        <v>4246.75</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="8"/>
+        <v>4159.2669500000002</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <f t="shared" si="5"/>
+        <v>4159.2669500000002</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="10"/>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26">
+        <v>255</v>
+      </c>
+      <c r="C26" s="2">
+        <v>255.77</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26" si="14">20%*M26</f>
+        <v>0.33966256000000006</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" ref="F26" si="15">($F$1*C26-B26)/B26</f>
+        <v>5.1164549019607895E-2</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2">
+        <f t="shared" ref="H26" si="16">$F$1*C26-B26</f>
+        <v>13.046960000000013</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26" si="17">D26*C26</f>
+        <v>254.74692000000002</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26" si="18">B26-K26</f>
+        <v>0.25307999999998287</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26" si="19">K26/150</f>
+        <v>1.6983128000000001</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="9"/>
+        <v>4502.5200000000004</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" ref="O26" si="20">N26*D26</f>
+        <v>4484.5099200000004</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" ref="Q26" si="21">P26+O26</f>
+        <v>4484.5099200000004</v>
+      </c>
+      <c r="R26">
+        <f t="shared" ref="R26" si="22">R25+B26</f>
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2">
+        <v>104.62</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.0026999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27:E30" si="23">20%*M27</f>
+        <v>0.13986996533333335</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" ref="F27:F30" si="24">($F$1*C27-B27)/B27</f>
+        <v>4.420723809523814E-2</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2">
+        <f t="shared" ref="H27:H30" si="25">$F$1*C27-B27</f>
+        <v>4.641760000000005</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K30" si="26">D27*C27</f>
+        <v>104.902474</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27:L30" si="27">B27-K27</f>
+        <v>9.7526000000002E-2</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" ref="M27:M30" si="28">K27/150</f>
+        <v>0.69934982666666667</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="9"/>
+        <v>4607.1400000000003</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" ref="O27:O30" si="29">N27*D27</f>
+        <v>4619.5792780000002</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" ref="Q27:Q30" si="30">P27+O27</f>
+        <v>4619.5792780000002</v>
+      </c>
+      <c r="R27">
+        <f t="shared" ref="R27:R30" si="31">R26+B27</f>
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28">
+        <v>105</v>
+      </c>
+      <c r="C28" s="2">
+        <v>102.68</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.0216000000000001</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="23"/>
+        <v>0.13986385066666671</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="24"/>
+        <v>2.4844190476190554E-2</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2">
+        <f t="shared" si="25"/>
+        <v>2.6086400000000083</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="26"/>
+        <v>104.89788800000001</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="27"/>
+        <v>0.1021119999999911</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="28"/>
+        <v>0.69931925333333345</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="9"/>
+        <v>4709.8200000000006</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="29"/>
+        <v>4811.5521120000012</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="30"/>
+        <v>4811.5521120000012</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="31"/>
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2">
+        <v>87.89</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="23"/>
+        <v>0.11988196000000001</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="24"/>
+        <v>2.3430222222222279E-2</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2">
+        <f t="shared" si="25"/>
+        <v>2.1087200000000053</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="26"/>
+        <v>89.911469999999994</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="27"/>
+        <v>8.8530000000005771E-2</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="28"/>
+        <v>0.59940979999999999</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="9"/>
+        <v>4797.7100000000009</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="29"/>
+        <v>4908.0573300000005</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="30"/>
+        <v>4908.0573300000005</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="31"/>
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2">
+        <v>89.46</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="23"/>
+        <v>0.11987639999999998</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="24"/>
+        <v>4.171200000000002E-2</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2">
+        <f t="shared" si="25"/>
+        <v>3.7540800000000019</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="26"/>
+        <v>89.907299999999978</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="27"/>
+        <v>9.2700000000021987E-2</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="28"/>
+        <v>0.59938199999999986</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="9"/>
+        <v>4887.170000000001</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="29"/>
+        <v>4911.6058500000008</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="30"/>
+        <v>4911.6058500000008</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="31"/>
+        <v>4665</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F8:G8 G7 F9:F14">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>$E$2</formula>
+  <conditionalFormatting sqref="G8:G9">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+      <formula>-0.45</formula>
+      <formula>0.45</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1374,20 +3483,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1404,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>0.75460000000000005</v>
+        <v>0.8256</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -1418,435 +3540,1886 @@
       <c r="J1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2">
+        <v>270</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2" si="0">20%*M2</f>
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="4">
+        <f>(($F$1)*C2-B2)/B2</f>
+        <v>-0.94495999999999991</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2">
+        <f>$F$1*C2-B2</f>
+        <v>-255.13919999999999</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2" si="1">D2*C2</f>
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B2">
-        <v>150</v>
-      </c>
-      <c r="C2">
-        <v>206.73</v>
-      </c>
-      <c r="D2">
-        <v>0.72560000000000002</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="F2" s="4">
-        <f>($F$1-D2)*C2/B2</f>
-        <v>3.9967800000000032E-2</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <f>D2*C2</f>
-        <v>150.003288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B3">
         <v>150</v>
       </c>
       <c r="C3">
-        <v>207.61</v>
+        <v>206.73</v>
       </c>
       <c r="D3">
-        <v>0.72250000000000003</v>
+        <v>0.72560000000000002</v>
       </c>
       <c r="E3" s="1">
         <v>0.23</v>
       </c>
       <c r="F3" s="4">
-        <f>($F$1-D3)*C3/B3</f>
-        <v>4.442854000000003E-2</v>
+        <f t="shared" ref="F3:F25" si="2">(($F$1)*C3-B3)/B3</f>
+        <v>0.13784192000000001</v>
       </c>
       <c r="G3" s="4"/>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H25" si="3">$F$1*C3-B3</f>
+        <v>20.676288</v>
+      </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K7" si="0">D3*C3</f>
-        <v>149.99822500000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <f>D3*C3</f>
+        <v>150.003288</v>
+      </c>
+      <c r="L3" s="2">
+        <f>K3-B3</f>
+        <v>3.2879999999977372E-3</v>
+      </c>
+      <c r="M3" s="1">
+        <f>K3/150</f>
+        <v>1.00002192</v>
+      </c>
+      <c r="N3">
+        <v>206.73</v>
+      </c>
+      <c r="O3" s="2">
+        <f>N3*D3</f>
+        <v>150.003288</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>O3+P3</f>
+        <v>150.003288</v>
+      </c>
+      <c r="R3">
+        <f>R2+B3</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>150</v>
       </c>
       <c r="C4">
-        <v>203.09</v>
+        <v>207.61</v>
       </c>
       <c r="D4">
-        <v>0.73860000000000003</v>
+        <v>0.72250000000000003</v>
       </c>
       <c r="E4" s="1">
         <v>0.23</v>
       </c>
       <c r="F4" s="4">
-        <f>($F$1-D4)*C4/B4</f>
-        <v>2.1662933333333353E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.14268544</v>
       </c>
       <c r="G4" s="4"/>
+      <c r="H4" s="2">
+        <f t="shared" si="3"/>
+        <v>21.402816000000001</v>
+      </c>
       <c r="I4" t="s">
         <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>150.002274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K8" si="4">D4*C4</f>
+        <v>149.99822500000002</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L25" si="5">K4-B4</f>
+        <v>-1.7749999999807642E-3</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M24" si="6">K4/150</f>
+        <v>0.99998816666666679</v>
+      </c>
+      <c r="N4">
+        <f>N3+C4</f>
+        <v>414.34000000000003</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O25" si="7">N4*D4</f>
+        <v>299.36065000000002</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" ref="Q4:Q25" si="8">O4+P4</f>
+        <v>299.36065000000002</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R25" si="9">R3+B4</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>150</v>
       </c>
       <c r="C5">
-        <v>199.68</v>
+        <v>203.09</v>
       </c>
       <c r="D5">
-        <v>0.75119999999999998</v>
+        <v>0.73860000000000003</v>
       </c>
       <c r="E5" s="1">
         <v>0.23</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F7" si="1">($F$1-D5)*C5/B5</f>
-        <v>4.5260800000000928E-3</v>
-      </c>
-      <c r="G5" s="1"/>
+        <f t="shared" si="2"/>
+        <v>0.1178073600000001</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2">
+        <f t="shared" si="3"/>
+        <v>17.671104000000014</v>
+      </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>149.999616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="4"/>
+        <v>150.002274</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2739999999998872E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="6"/>
+        <v>1.00001516</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N30" si="10">N4+C5</f>
+        <v>617.43000000000006</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="7"/>
+        <v>456.03379800000005</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="8"/>
+        <v>456.03379800000005</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="9"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>150</v>
       </c>
       <c r="C6">
-        <v>200.16</v>
+        <v>199.68</v>
       </c>
       <c r="D6">
-        <v>0.74939999999999996</v>
+        <v>0.75119999999999998</v>
       </c>
       <c r="E6" s="1">
         <v>0.23</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="1"/>
-        <v>6.9388800000001246E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.9038719999999969E-2</v>
       </c>
       <c r="G6" s="1"/>
+      <c r="H6" s="2">
+        <f t="shared" si="3"/>
+        <v>14.855807999999996</v>
+      </c>
       <c r="I6" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>149.99990399999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="4"/>
+        <v>149.999616</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="5"/>
+        <v>-3.8399999999683132E-4</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99999744000000002</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="10"/>
+        <v>817.11000000000013</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="7"/>
+        <v>613.81303200000013</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="8"/>
+        <v>613.81303200000013</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="9"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>150</v>
       </c>
       <c r="C7">
-        <v>199.63</v>
+        <v>200.16</v>
       </c>
       <c r="D7">
-        <v>0.75139999999999996</v>
+        <v>0.74939999999999996</v>
       </c>
       <c r="E7" s="1">
         <v>0.23</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>4.258773333333455E-3</v>
-      </c>
-      <c r="G7" s="4"/>
+        <f t="shared" si="2"/>
+        <v>0.10168063999999996</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2">
+        <f t="shared" si="3"/>
+        <v>15.252095999999995</v>
+      </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>150.001982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="4"/>
+        <v>149.99990399999999</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="5"/>
+        <v>-9.6000000013418685E-5</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99999935999999989</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="10"/>
+        <v>1017.2700000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="7"/>
+        <v>762.34213799999998</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="8"/>
+        <v>762.34213799999998</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>150</v>
       </c>
       <c r="C8">
-        <v>199.95</v>
+        <v>199.63</v>
       </c>
       <c r="D8">
-        <v>0.75019999999999998</v>
+        <v>0.75139999999999996</v>
       </c>
       <c r="E8" s="1">
         <v>0.23</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" ref="F8:F9" si="2">($F$1-D8)*C8/B8</f>
-        <v>5.8652000000000929E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.8763519999999966E-2</v>
       </c>
       <c r="G8" s="4"/>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>14.814527999999996</v>
+      </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ref="K8:K9" si="3">D8*C8</f>
-        <v>150.00248999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="4"/>
+        <v>150.001982</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9819999999981519E-3</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0000132133333333</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="10"/>
+        <v>1216.9000000000001</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="7"/>
+        <v>914.37865999999997</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="8"/>
+        <v>914.37865999999997</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="9"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>150</v>
       </c>
       <c r="C9">
-        <v>198.49</v>
+        <v>199.95</v>
       </c>
       <c r="D9">
-        <v>0.75570000000000004</v>
+        <v>0.75019999999999998</v>
       </c>
       <c r="E9" s="1">
         <v>0.23</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>-1.45559333333332E-3</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>0.10052480000000003</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
+        <v>15.078720000000004</v>
+      </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>149.99889300000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" ref="K9:K10" si="11">D9*C9</f>
+        <v>150.00248999999999</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="5"/>
+        <v>2.4899999999945521E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0000165999999999</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="10"/>
+        <v>1416.8500000000001</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="7"/>
+        <v>1062.9208700000001</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="8"/>
+        <v>1062.9208700000001</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="9"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>150</v>
       </c>
       <c r="C10">
-        <v>199.76</v>
+        <v>198.49</v>
       </c>
       <c r="D10">
-        <v>0.75090000000000001</v>
+        <v>0.75570000000000004</v>
       </c>
       <c r="E10" s="1">
         <v>0.23</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" ref="F10:F13" si="4">($F$1-D10)*C10/B10</f>
-        <v>4.927413333333382E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.2488960000000023E-2</v>
       </c>
       <c r="G10" s="1"/>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>13.873344000000003</v>
+      </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ref="K10:K13" si="5">D10*C10</f>
-        <v>149.99978400000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="11"/>
+        <v>149.99889300000001</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="5"/>
+        <v>-1.1069999999904212E-3</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99999262000000011</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="10"/>
+        <v>1615.3400000000001</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="7"/>
+        <v>1220.7124380000002</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="8"/>
+        <v>1220.7124380000002</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>150</v>
       </c>
       <c r="C11">
-        <v>197.11</v>
+        <v>199.76</v>
       </c>
       <c r="D11">
-        <v>0.76100000000000001</v>
+        <v>0.75090000000000001</v>
       </c>
       <c r="E11" s="1">
         <v>0.23</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="4"/>
-        <v>-8.4100266666666153E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.9479039999999935E-2</v>
       </c>
       <c r="G11" s="1"/>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>14.921855999999991</v>
+      </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11">
+        <v>43</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ref="K11:K14" si="12">D11*C11</f>
+        <v>149.99978400000001</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="5"/>
-        <v>150.00071000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-2.159999999946649E-4</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99999855999999998</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="10"/>
+        <v>1815.1000000000001</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="7"/>
+        <v>1362.9585900000002</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="8"/>
+        <v>1362.9585900000002</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="9"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>150</v>
       </c>
       <c r="C12">
-        <v>197.58</v>
+        <v>197.11</v>
       </c>
       <c r="D12">
-        <v>0.75919999999999999</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="E12" s="1">
         <v>0.23</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="4"/>
-        <v>-6.0591199999999179E-3</v>
+        <f t="shared" si="2"/>
+        <v>8.4893440000000167E-2</v>
       </c>
       <c r="G12" s="1"/>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>12.734016000000025</v>
+      </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="12"/>
+        <v>150.00071000000003</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="5"/>
-        <v>150.002736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7.1000000002641173E-4</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0000047333333335</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="10"/>
+        <v>2012.21</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="7"/>
+        <v>1531.2918099999999</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="8"/>
+        <v>1531.2918099999999</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="9"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>150</v>
       </c>
       <c r="C13">
-        <v>198.99</v>
+        <v>197.58</v>
       </c>
       <c r="D13">
-        <v>0.75380000000000003</v>
+        <v>0.75919999999999999</v>
       </c>
       <c r="E13" s="1">
         <v>0.23</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="4"/>
-        <v>1.0612800000000305E-3</v>
+        <f t="shared" si="2"/>
+        <v>8.7480320000000042E-2</v>
       </c>
       <c r="G13" s="1"/>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>13.122048000000007</v>
+      </c>
       <c r="I13" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13">
+        <v>47</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="12"/>
+        <v>150.002736</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="5"/>
-        <v>149.99866200000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2.7359999999987394E-3</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0000182399999999</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="10"/>
+        <v>2209.79</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="7"/>
+        <v>1677.672568</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="8"/>
+        <v>1677.672568</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="9"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>150</v>
       </c>
       <c r="C14">
-        <v>197.08</v>
+        <v>198.99</v>
       </c>
       <c r="D14">
-        <v>0.7611</v>
+        <v>0.75380000000000003</v>
       </c>
       <c r="E14" s="1">
         <v>0.23</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" ref="F14" si="6">($F$1-D14)*C14/B14</f>
-        <v>-8.5401333333332691E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.5240960000000055E-2</v>
       </c>
       <c r="G14" s="1"/>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
+        <v>14.286144000000007</v>
+      </c>
       <c r="I14" t="s">
         <v>21</v>
       </c>
       <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="12"/>
+        <v>149.99866200000002</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="5"/>
+        <v>-1.3379999999756365E-3</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99999108000000014</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="10"/>
+        <v>2408.7799999999997</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="7"/>
+        <v>1815.7383639999998</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="8"/>
+        <v>1815.7383639999998</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="9"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15">
+        <v>197.08</v>
+      </c>
+      <c r="D15">
+        <v>0.7611</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>8.472832000000001E-2</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2">
+        <f t="shared" si="3"/>
+        <v>12.709248000000002</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
         <v>59</v>
       </c>
-      <c r="K14">
-        <f t="shared" ref="K14" si="7">D14*C14</f>
+      <c r="K15" s="2">
+        <f t="shared" ref="K15" si="13">D15*C15</f>
         <v>149.99758800000001</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="5"/>
+        <v>-2.4119999999925312E-3</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99998392000000003</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="10"/>
+        <v>2605.8599999999997</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="7"/>
+        <v>1983.3200459999998</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" si="8"/>
+        <v>1983.3200459999998</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="9"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>195.98</v>
+      </c>
+      <c r="D16">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>7.8673919999999953E-2</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2">
+        <f t="shared" si="3"/>
+        <v>11.801087999999993</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" ref="K16:K20" si="14">D16*C16</f>
+        <v>150.00309199999998</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="5"/>
+        <v>3.0919999999809988E-3</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0000206133333331</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="10"/>
+        <v>2801.8399999999997</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="7"/>
+        <v>2144.5283359999999</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="8"/>
+        <v>2144.5283359999999</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="9"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <v>198.78</v>
+      </c>
+      <c r="D17">
+        <v>0.75460000000000005</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>9.4085119999999925E-2</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2">
+        <f t="shared" si="3"/>
+        <v>14.112767999999988</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="14"/>
+        <v>149.99938800000001</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="5"/>
+        <v>-6.1199999998962085E-4</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99999592000000004</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="10"/>
+        <v>3000.62</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="7"/>
+        <v>2264.2678519999999</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="8"/>
+        <v>2264.2678519999999</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="9"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>198.44</v>
+      </c>
+      <c r="D18">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>9.221376000000002E-2</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2">
+        <f t="shared" si="3"/>
+        <v>13.832064000000003</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="14"/>
+        <v>150.00079600000001</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="5"/>
+        <v>7.9600000000823457E-4</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0000053066666668</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="10"/>
+        <v>3199.06</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="7"/>
+        <v>2418.1694539999999</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" si="8"/>
+        <v>2418.1694539999999</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="9"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>150</v>
+      </c>
+      <c r="C19">
+        <v>197.45</v>
+      </c>
+      <c r="D19">
+        <v>0.75970000000000004</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6764799999999878E-2</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2">
+        <f t="shared" si="3"/>
+        <v>13.014719999999983</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="14"/>
+        <v>150.00276500000001</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="5"/>
+        <v>2.7650000000107866E-3</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0000184333333335</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="10"/>
+        <v>3396.5099999999998</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="7"/>
+        <v>2580.3286469999998</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="8"/>
+        <v>2580.3286469999998</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="9"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <v>150</v>
+      </c>
+      <c r="C20">
+        <v>198.26</v>
+      </c>
+      <c r="D20">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="2"/>
+        <v>9.1223040000000047E-2</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2">
+        <f t="shared" si="3"/>
+        <v>13.683456000000007</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="14"/>
+        <v>150.00351599999999</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="5"/>
+        <v>3.5159999999905267E-3</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0000234399999999</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="10"/>
+        <v>3594.7699999999995</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="7"/>
+        <v>2719.8029819999997</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="8"/>
+        <v>2719.8029819999997</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="9"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21">
+        <v>270</v>
+      </c>
+      <c r="C21">
+        <v>357.76</v>
+      </c>
+      <c r="D21">
+        <v>0.75470000000000004</v>
+      </c>
+      <c r="E21" s="1">
+        <f>20%*M21</f>
+        <v>0.36000196266666662</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="2"/>
+        <v>9.3950577777777697E-2</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2">
+        <f t="shared" si="3"/>
+        <v>25.366655999999978</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" ref="K21:K24" si="15">D21*C21</f>
+        <v>270.00147199999998</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4719999999783795E-3</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8000098133333331</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="10"/>
+        <v>3952.5299999999997</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="7"/>
+        <v>2982.9743909999997</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="8"/>
+        <v>2982.9743909999997</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="9"/>
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22">
+        <v>270</v>
+      </c>
+      <c r="C22">
+        <v>361.93</v>
+      </c>
+      <c r="D22">
+        <v>0.746</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22:E24" si="16">20%*M22</f>
+        <v>0.3599997066666667</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10670151111111117</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2">
+        <f t="shared" si="3"/>
+        <v>28.809408000000019</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="15"/>
+        <v>269.99977999999999</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="5"/>
+        <v>-2.2000000001298758E-4</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7999985333333333</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="10"/>
+        <v>4314.46</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="7"/>
+        <v>3218.58716</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="8"/>
+        <v>3218.58716</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="9"/>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23">
+        <v>270</v>
+      </c>
+      <c r="C23">
+        <v>365.31</v>
+      </c>
+      <c r="D23">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="16"/>
+        <v>0.36000082799999999</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11703680000000005</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2">
+        <f t="shared" si="3"/>
+        <v>31.599936000000014</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="15"/>
+        <v>270.00062099999997</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="5"/>
+        <v>6.2099999996689803E-4</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8000041399999998</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="10"/>
+        <v>4679.7700000000004</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="7"/>
+        <v>3458.8180070000003</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <f t="shared" si="8"/>
+        <v>3458.8180070000003</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="9"/>
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24">
+        <v>270</v>
+      </c>
+      <c r="C24">
+        <v>368.2</v>
+      </c>
+      <c r="D24">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="16"/>
+        <v>0.36000141333333335</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12587377777777764</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2">
+        <f t="shared" si="3"/>
+        <v>33.985919999999965</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="15"/>
+        <v>270.00106</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="5"/>
+        <v>1.059999999995398E-3</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8000070666666665</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="10"/>
+        <v>5047.97</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="7"/>
+        <v>3701.6764010000002</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="8"/>
+        <v>3701.6764010000002</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="9"/>
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25">
+        <v>270</v>
+      </c>
+      <c r="C25">
+        <v>358.76</v>
+      </c>
+      <c r="D25">
+        <v>0.75260000000000005</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ref="E25" si="17">20%*M25</f>
+        <v>0.36000370133333331</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="2"/>
+        <v>9.7008355555555509E-2</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>26.192255999999986</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" ref="K25" si="18">D25*C25</f>
+        <v>270.00277599999998</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="5"/>
+        <v>2.7759999999830143E-3</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ref="M25" si="19">K25/150</f>
+        <v>1.8000185066666665</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="10"/>
+        <v>5406.7300000000005</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="7"/>
+        <v>4069.1049980000007</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <f t="shared" si="8"/>
+        <v>4069.1049980000007</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="9"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26">
+        <v>270</v>
+      </c>
+      <c r="C26">
+        <v>350.56</v>
+      </c>
+      <c r="D26">
+        <v>0.7702</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26" si="20">20%*M26</f>
+        <v>0.36000174933333334</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" ref="F26" si="21">(($F$1)*C26-B26)/B26</f>
+        <v>7.1934577777777883E-2</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2">
+        <f t="shared" ref="H26" si="22">$F$1*C26-B26</f>
+        <v>19.42233600000003</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" ref="K26" si="23">D26*C26</f>
+        <v>270.00131199999998</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" ref="L26" si="24">K26-B26</f>
+        <v>1.3119999999844367E-3</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26" si="25">K26/150</f>
+        <v>1.8000087466666665</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="10"/>
+        <v>5757.2900000000009</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" ref="O26" si="26">N26*D26</f>
+        <v>4434.2647580000003</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" ref="Q26" si="27">O26+P26</f>
+        <v>4434.2647580000003</v>
+      </c>
+      <c r="R26">
+        <f t="shared" ref="R26" si="28">R25+B26</f>
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>154.58000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.77629999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27:E30" si="29">20%*M27</f>
+        <v>0.16000060533333335</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" ref="F27:F30" si="30">(($F$1)*C27-B27)/B27</f>
+        <v>6.3510400000000064E-2</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2">
+        <f t="shared" ref="H27:H30" si="31">$F$1*C27-B27</f>
+        <v>7.6212480000000085</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" ref="K27:K30" si="32">D27*C27</f>
+        <v>120.000454</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" ref="L27:L30" si="33">K27-B27</f>
+        <v>4.5400000000483942E-4</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" ref="M27:M30" si="34">K27/150</f>
+        <v>0.80000302666666667</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="10"/>
+        <v>5911.8700000000008</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" ref="O27:O30" si="35">N27*D27</f>
+        <v>4589.3846810000005</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" ref="Q27:Q30" si="36">O27+P27</f>
+        <v>4589.3846810000005</v>
+      </c>
+      <c r="R27">
+        <f t="shared" ref="R27:R30" si="37">R26+B27</f>
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28">
+        <v>120</v>
+      </c>
+      <c r="C28">
+        <v>152.22999999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.7883</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="29"/>
+        <v>0.16000387866666665</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="30"/>
+        <v>4.7342399999999903E-2</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2">
+        <f t="shared" si="31"/>
+        <v>5.6810879999999884</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="32"/>
+        <v>120.00290899999999</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="33"/>
+        <v>2.9089999999882821E-3</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="34"/>
+        <v>0.80001939333333327</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="10"/>
+        <v>6064.1</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="35"/>
+        <v>4780.3300300000001</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="36"/>
+        <v>4780.3300300000001</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="37"/>
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29">
+        <v>120</v>
+      </c>
+      <c r="C29">
+        <v>151.59</v>
+      </c>
+      <c r="D29">
+        <v>0.79159999999999997</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="29"/>
+        <v>0.15999819200000001</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="30"/>
+        <v>4.2939199999999997E-2</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2">
+        <f t="shared" si="31"/>
+        <v>5.152704</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="32"/>
+        <v>119.998644</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="33"/>
+        <v>-1.3560000000012451E-3</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="34"/>
+        <v>0.79999096000000003</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="10"/>
+        <v>6215.6900000000005</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="35"/>
+        <v>4920.3402040000001</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="36"/>
+        <v>4920.3402040000001</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="37"/>
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30">
+        <v>120</v>
+      </c>
+      <c r="C30">
+        <v>152.56</v>
+      </c>
+      <c r="D30">
+        <v>0.78659999999999997</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="29"/>
+        <v>0.16000492799999999</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="30"/>
+        <v>4.9612799999999999E-2</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2">
+        <f t="shared" si="31"/>
+        <v>5.9535359999999997</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="32"/>
+        <v>120.00369599999999</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="33"/>
+        <v>3.6959999999908177E-3</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="34"/>
+        <v>0.80002463999999995</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="10"/>
+        <v>6368.2500000000009</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="35"/>
+        <v>5009.2654500000008</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="36"/>
+        <v>5009.2654500000008</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="37"/>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F2:G4 F5:F14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>$E$2</formula>
+  <conditionalFormatting sqref="G3:G5">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+      <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>$E$2</formula>
+  <conditionalFormatting sqref="G8:G9">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>-0.01</formula>
+      <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F36CCB6-6930-9A42-8F5E-A4E0BF8A9F5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5C9694-7985-6843-A95B-92E423AE72D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
     <sheet name="zz500" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -59,7 +59,9 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <rFont val="DengXian"/>
+            <family val="4"/>
+            <charset val="134"/>
           </rPr>
           <t>已售出将以透底红字标识</t>
         </r>
@@ -360,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="178">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -372,13 +374,6 @@
     <t>目标</t>
     <rPh sb="0" eb="1">
       <t>mu'biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈利</t>
-    <rPh sb="0" eb="1">
-      <t>ying'li</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1011,6 +1006,51 @@
     <rPh sb="1" eb="2">
       <t>dan'jia</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计
+投入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190227</t>
+  </si>
+  <si>
+    <t>20190227购入</t>
+  </si>
+  <si>
+    <t>hs300_20190228</t>
+  </si>
+  <si>
+    <t>20190228购入</t>
+  </si>
+  <si>
+    <t>hs300_20190301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190301购入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190227</t>
+  </si>
+  <si>
+    <t>10290227购入</t>
+  </si>
+  <si>
+    <t>zz500_20190228</t>
+  </si>
+  <si>
+    <t>10290228购入</t>
+  </si>
+  <si>
+    <t>zz500_20190301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290301购入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1171,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1148,7 +1188,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1159,6 +1198,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1494,13 +1548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:T15"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1508,89 +1562,92 @@
     <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="13" width="6" customWidth="1"/>
     <col min="14" max="15" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
-    <col min="18" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1">
-        <v>1.1155999999999999</v>
+        <v>1.0962000000000001</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="19" t="str">
+        <f>"盈利"&amp;ROUND(SUM(H2:H20000),2)</f>
+        <v>盈利715.32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="T1" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="T1" t="s">
-        <v>62</v>
-      </c>
       <c r="U1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11">
         <v>150</v>
@@ -1601,14 +1658,14 @@
       <c r="D2" s="13">
         <v>0.90059999999999996</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="23">
         <v>0.23</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <f>IF(G2="",($F$1*C2-B2)/B2,H2/B2)</f>
         <v>0.23680000000000007</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>185.52</v>
       </c>
       <c r="H2" s="12">
@@ -1616,10 +1673,10 @@
         <v>35.52000000000001</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K34" si="0">D2*C2</f>
@@ -1642,7 +1699,7 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2">
+      <c r="R2" s="6">
         <v>0</v>
       </c>
       <c r="S2" s="6">
@@ -1660,7 +1717,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="11">
         <v>150</v>
@@ -1671,14 +1728,14 @@
       <c r="D3" s="13">
         <v>0.89929999999999999</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="23">
         <v>0.23</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F35" si="4">IF(G3="",($F$1*C3-B3)/B3,H3/B3)</f>
         <v>0.23859999999999995</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>185.79</v>
       </c>
       <c r="H3" s="12">
@@ -1686,10 +1743,10 @@
         <v>35.789999999999992</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
@@ -1713,7 +1770,8 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3">
+      <c r="R3" s="6">
+        <f t="shared" ref="R3:R34" si="8">R2+Q3</f>
         <v>0</v>
       </c>
       <c r="S3" s="6">
@@ -1721,17 +1779,17 @@
         <v>299.48488599999996</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T34" si="8">T2+B3</f>
+        <f t="shared" ref="T3:T34" si="9">T2+B3</f>
         <v>300</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" ref="U3:U34" si="9">S3/T3-1</f>
+        <f t="shared" ref="U3:U34" si="10">S3/T3-1</f>
         <v>-1.7170466666668327E-3</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>150</v>
@@ -1742,22 +1800,22 @@
       <c r="D4" s="3">
         <v>0.91930000000000001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="24">
         <v>0.23</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="4"/>
-        <v>0.21228533333333321</v>
+        <v>0.19120399999999999</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="5"/>
-        <v>31.842799999999983</v>
+        <v>28.680599999999998</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
@@ -1772,7 +1830,7 @@
         <v>0.99897266666666662</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" ref="N4:N33" si="10">N3+C4-P4</f>
+        <f t="shared" ref="N4:N33" si="11">N3+C4-P4</f>
         <v>496.02</v>
       </c>
       <c r="O4" s="2">
@@ -1781,22 +1839,26 @@
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
+      <c r="R4" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S4" s="6">
         <f t="shared" si="3"/>
         <v>455.99118599999997</v>
       </c>
       <c r="T4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3313746666666626E-2</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -1807,22 +1869,22 @@
       <c r="D5" s="3">
         <v>0.93169999999999997</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="24">
         <v>0.23</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="4"/>
-        <v>0.19622069333333325</v>
+        <v>0.17541872000000011</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="5"/>
-        <v>29.433103999999986</v>
+        <v>26.312808000000018</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
@@ -1837,7 +1899,7 @@
         <v>0.9990308533333333</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>656.86</v>
       </c>
       <c r="O5" s="2">
@@ -1846,22 +1908,26 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
+      <c r="R5" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S5" s="6">
         <f t="shared" si="3"/>
         <v>611.99646199999995</v>
       </c>
       <c r="T5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.9994103333333291E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>150</v>
@@ -1872,22 +1938,22 @@
       <c r="D6" s="3">
         <v>0.92259999999999998</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="24">
         <v>0.23</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="4"/>
-        <v>0.2079716799999998</v>
+        <v>0.18696536</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="5"/>
-        <v>31.19575199999997</v>
+        <v>28.044803999999999</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
@@ -1902,7 +1968,7 @@
         <v>0.99899127999999981</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>819.28</v>
       </c>
       <c r="O6" s="2">
@@ -1911,22 +1977,26 @@
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
+      <c r="R6" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S6" s="6">
         <f t="shared" si="3"/>
         <v>755.86772799999994</v>
       </c>
       <c r="T6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>750</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.8236373333333553E-3</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>150</v>
@@ -1937,22 +2007,22 @@
       <c r="D7" s="3">
         <v>0.92449999999999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="24">
         <v>0.23</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="4"/>
-        <v>0.20551735999999987</v>
+        <v>0.18455372000000012</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="5"/>
-        <v>30.82760399999998</v>
+        <v>27.683058000000017</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
@@ -1967,7 +2037,7 @@
         <v>0.99901470000000003</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>981.37</v>
       </c>
       <c r="O7" s="2">
@@ -1976,22 +2046,26 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
+      <c r="R7" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S7" s="6">
         <f t="shared" si="3"/>
         <v>907.27656500000001</v>
       </c>
       <c r="T7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>900</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.0850722222223226E-3</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>150</v>
@@ -2002,22 +2076,22 @@
       <c r="D8" s="3">
         <v>0.92979999999999996</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="24">
         <v>0.23</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="4"/>
-        <v>0.19860063999999986</v>
+        <v>0.17775727999999996</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="5"/>
-        <v>29.790095999999977</v>
+        <v>26.663591999999994</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
@@ -2032,7 +2106,7 @@
         <v>0.99897711999999994</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1142.53</v>
       </c>
       <c r="O8" s="2">
@@ -2041,22 +2115,26 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
+      <c r="R8" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S8" s="6">
         <f t="shared" si="3"/>
         <v>1062.324394</v>
       </c>
       <c r="T8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1050</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1737518095238153E-2</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>150</v>
@@ -2067,22 +2145,22 @@
       <c r="D9" s="3">
         <v>0.93610000000000004</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="24">
         <v>0.23</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="4"/>
-        <v>0.19056832000000004</v>
+        <v>0.16986464000000012</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="5"/>
-        <v>28.585248000000007</v>
+        <v>25.479696000000018</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -2097,7 +2175,7 @@
         <v>0.99900592000000021</v>
       </c>
       <c r="N9" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1302.6099999999999</v>
       </c>
       <c r="O9" s="2">
@@ -2106,22 +2184,26 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
+      <c r="R9" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S9" s="6">
         <f t="shared" si="3"/>
         <v>1219.3732210000001</v>
       </c>
       <c r="T9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1200</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6144350833333432E-2</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -2132,22 +2214,22 @@
       <c r="D10" s="3">
         <v>0.92830000000000001</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="24">
         <v>0.23</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="4"/>
-        <v>0.20053434666666647</v>
+        <v>0.17965735999999993</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="5"/>
-        <v>30.08015199999997</v>
+        <v>26.948603999999989</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -2162,7 +2244,7 @@
         <v>0.99897457333333328</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1464.03</v>
       </c>
       <c r="O10" s="2">
@@ -2171,22 +2253,26 @@
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
+      <c r="R10" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S10" s="6">
         <f t="shared" si="3"/>
         <v>1359.059049</v>
       </c>
       <c r="T10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1350</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.7104066666665574E-3</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>150</v>
@@ -2197,22 +2283,22 @@
       <c r="D11" s="3">
         <v>0.94540000000000002</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="24">
         <v>0.23</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="4"/>
-        <v>0.1788173333333333</v>
+        <v>0.15831800000000007</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="5"/>
-        <v>26.822599999999994</v>
+        <v>23.747700000000009</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
@@ -2227,7 +2313,7 @@
         <v>0.99897266666666662</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1622.53</v>
       </c>
       <c r="O11" s="2">
@@ -2236,22 +2322,26 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
+      <c r="R11" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S11" s="6">
         <f t="shared" si="3"/>
         <v>1533.9398619999999</v>
       </c>
       <c r="T11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1500</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2626574666666732E-2</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>150</v>
@@ -2262,22 +2352,22 @@
       <c r="D12" s="3">
         <v>0.9456</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="24">
         <v>0.23</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="4"/>
-        <v>0.17859421333333331</v>
+        <v>0.15809876000000012</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="5"/>
-        <v>26.789131999999995</v>
+        <v>23.714814000000018</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
@@ -2292,7 +2382,7 @@
         <v>0.99899488000000003</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1781</v>
       </c>
       <c r="O12" s="2">
@@ -2301,22 +2391,26 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
+      <c r="R12" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S12" s="6">
         <f t="shared" si="3"/>
         <v>1684.1135999999999</v>
       </c>
       <c r="T12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1650</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0674909090909077E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>150</v>
@@ -2327,22 +2421,22 @@
       <c r="D13" s="3">
         <v>0.94069999999999998</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="24">
         <v>0.23</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="4"/>
-        <v>0.18476719999999999</v>
+        <v>0.16416440000000024</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="5"/>
-        <v>27.71508</v>
+        <v>24.624660000000034</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
@@ -2357,7 +2451,7 @@
         <v>0.99902340000000001</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1940.3</v>
       </c>
       <c r="O13" s="2">
@@ -2366,22 +2460,26 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
+      <c r="R13" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S13" s="6">
         <f t="shared" si="3"/>
         <v>1825.2402099999999</v>
       </c>
       <c r="T13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1800</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.402233888888893E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>150</v>
@@ -2392,22 +2490,22 @@
       <c r="D14" s="3">
         <v>0.95679999999999998</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="24">
         <v>0.23</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="4"/>
-        <v>0.1648351466666666</v>
+        <v>0.14457896000000006</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="5"/>
-        <v>24.72527199999999</v>
+        <v>21.686844000000008</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
@@ -2422,7 +2520,7 @@
         <v>0.99902677333333334</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2096.92</v>
       </c>
       <c r="O14" s="2">
@@ -2431,22 +2529,26 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
+      <c r="R14" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S14" s="6">
         <f t="shared" si="3"/>
         <v>2006.3330559999999</v>
       </c>
       <c r="T14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1950</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.8888746666666743E-2</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>150</v>
@@ -2457,22 +2559,22 @@
       <c r="D15" s="3">
         <v>0.96179999999999999</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="24">
         <v>0.23</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="4"/>
-        <v>0.15873653333333343</v>
+        <v>0.13858640000000017</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="5"/>
-        <v>23.810480000000013</v>
+        <v>20.787960000000027</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
@@ -2487,7 +2589,7 @@
         <v>0.99898960000000003</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2252.7200000000003</v>
       </c>
       <c r="O15" s="2">
@@ -2496,22 +2598,26 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
+      <c r="R15" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S15" s="6">
         <f t="shared" si="3"/>
         <v>2166.6660960000004</v>
       </c>
       <c r="T15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2100</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1745760000000178E-2</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>150</v>
@@ -2522,22 +2628,22 @@
       <c r="D16" s="3">
         <v>0.94979999999999998</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="24">
         <v>0.23</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="4"/>
-        <v>0.17338807999999992</v>
+        <v>0.1529831600000002</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="5"/>
-        <v>26.008211999999986</v>
+        <v>22.947474000000028</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
@@ -2552,7 +2658,7 @@
         <v>0.99899964000000008</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2410.4900000000002</v>
       </c>
       <c r="O16" s="2">
@@ -2561,22 +2667,26 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
+      <c r="R16" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S16" s="6">
         <f t="shared" si="3"/>
         <v>2289.4834020000003</v>
       </c>
       <c r="T16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2250</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7548178666666692E-2</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>150</v>
@@ -2587,22 +2697,22 @@
       <c r="D17" s="3">
         <v>0.94930000000000003</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="24">
         <v>0.23</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
-        <v>0.17398306666666655</v>
+        <v>0.15356779999999995</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="5"/>
-        <v>26.097459999999984</v>
+        <v>23.035169999999994</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
@@ -2617,7 +2727,7 @@
         <v>0.99898003333333329</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2568.34</v>
       </c>
       <c r="O17" s="2">
@@ -2626,22 +2736,26 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
+      <c r="R17" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S17" s="6">
         <f t="shared" si="3"/>
         <v>2438.1251620000003</v>
       </c>
       <c r="T17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2400</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5885484166666686E-2</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>150</v>
@@ -2652,22 +2766,22 @@
       <c r="D18" s="3">
         <v>0.95430000000000004</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="24">
         <v>0.23</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="4"/>
-        <v>0.16788445333333318</v>
+        <v>0.14757524000000008</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="5"/>
-        <v>25.182667999999978</v>
+        <v>22.136286000000013</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="0"/>
@@ -2682,7 +2796,7 @@
         <v>0.99902486000000013</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2725.3700000000003</v>
       </c>
       <c r="O18" s="2">
@@ -2691,22 +2805,26 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
+      <c r="R18" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S18" s="6">
         <f t="shared" si="3"/>
         <v>2600.8205910000006</v>
       </c>
       <c r="T18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2550</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.9929643529412067E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>150</v>
@@ -2717,22 +2835,22 @@
       <c r="D19" s="3">
         <v>0.96160000000000001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="24">
         <v>0.23</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="4"/>
-        <v>0.15895965333333342</v>
+        <v>0.13880564000000012</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="5"/>
-        <v>23.843948000000012</v>
+        <v>20.820846000000017</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
@@ -2747,7 +2865,7 @@
         <v>0.99897418666666682</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2881.2000000000003</v>
       </c>
       <c r="O19" s="2">
@@ -2756,22 +2874,26 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
+      <c r="R19" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S19" s="6">
         <f t="shared" si="3"/>
         <v>2770.5619200000001</v>
       </c>
       <c r="T19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2700</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.6134044444444449E-2</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>270</v>
@@ -2782,23 +2904,23 @@
       <c r="D20" s="3">
         <v>0.96140000000000003</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="24">
         <f>10%*M20+13%</f>
         <v>0.30982025600000002</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="4"/>
-        <v>0.15923235555555548</v>
+        <v>0.13907359999999996</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="5"/>
-        <v>42.992735999999979</v>
+        <v>37.549871999999993</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
@@ -2813,7 +2935,7 @@
         <v>1.79820256</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3161.76</v>
       </c>
       <c r="O20" s="2">
@@ -2822,22 +2944,26 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
+      <c r="R20" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S20" s="6">
         <f t="shared" si="3"/>
         <v>3039.7160640000002</v>
       </c>
       <c r="T20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2970</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3473422222222373E-2</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>270</v>
@@ -2848,23 +2974,23 @@
       <c r="D21" s="3">
         <v>0.96440000000000003</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" ref="E21:E34" si="11">10%*M21+13%</f>
+      <c r="E21" s="24">
+        <f t="shared" ref="E21:E34" si="12">10%*M21+13%</f>
         <v>0.30982202400000003</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="4"/>
-        <v>0.15563764444444436</v>
+        <v>0.13554140000000003</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>42.022163999999975</v>
+        <v>36.596178000000009</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
@@ -2879,7 +3005,7 @@
         <v>1.7982202400000002</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3441.4500000000003</v>
       </c>
       <c r="O21" s="2">
@@ -2888,22 +3014,26 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
+      <c r="R21" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S21" s="6">
         <f t="shared" si="3"/>
         <v>3318.9343800000006</v>
       </c>
       <c r="T21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3240</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.4362462962963072E-2</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>255</v>
@@ -2914,23 +3044,23 @@
       <c r="D22" s="3">
         <v>0.95720000000000005</v>
       </c>
-      <c r="E22" s="1">
-        <f t="shared" si="11"/>
+      <c r="E22" s="24">
+        <f t="shared" si="12"/>
         <v>0.29983280533333334</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="4"/>
-        <v>0.16433640784313719</v>
+        <v>0.14408889411764697</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="5"/>
-        <v>41.905783999999983</v>
+        <v>36.742667999999981</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="0"/>
@@ -2945,7 +3075,7 @@
         <v>1.6983280533333334</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3707.59</v>
       </c>
       <c r="O22" s="2">
@@ -2954,22 +3084,26 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
+      <c r="R22" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S22" s="6">
         <f t="shared" si="3"/>
         <v>3548.9051480000003</v>
       </c>
       <c r="T22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3495</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5423504434907143E-2</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>270</v>
@@ -2980,23 +3114,23 @@
       <c r="D23" s="3">
         <v>0.96660000000000001</v>
       </c>
-      <c r="E23" s="1">
-        <f t="shared" si="11"/>
+      <c r="E23" s="24">
+        <f t="shared" si="12"/>
         <v>0.30981982000000002</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="4"/>
-        <v>0.15299325925925925</v>
+        <v>0.1329430000000002</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="5"/>
-        <v>41.308179999999993</v>
+        <v>35.894610000000057</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="0"/>
@@ -3011,7 +3145,7 @@
         <v>1.7981982000000001</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3986.6400000000003</v>
       </c>
       <c r="O23" s="2">
@@ -3020,22 +3154,26 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
+      <c r="R23" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S23" s="6">
         <f t="shared" si="3"/>
         <v>3853.4862240000002</v>
       </c>
       <c r="T23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3765</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3502317131474104E-2</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>255</v>
@@ -3046,23 +3184,23 @@
       <c r="D24" s="3">
         <v>0.97940000000000005</v>
       </c>
-      <c r="E24" s="1">
-        <f t="shared" si="11"/>
+      <c r="E24" s="24">
+        <f t="shared" si="12"/>
         <v>0.29983448933333334</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="4"/>
-        <v>0.13795574901960789</v>
+        <v>0.11816698823529417</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="5"/>
-        <v>35.178716000000009</v>
+        <v>30.132582000000014</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="0"/>
@@ -3073,11 +3211,11 @@
         <v>0.24826599999997256</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" ref="M24" si="12">K24/150</f>
+        <f t="shared" ref="M24" si="13">K24/150</f>
         <v>1.6983448933333336</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4246.75</v>
       </c>
       <c r="O24" s="2">
@@ -3086,22 +3224,26 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
+      <c r="R24" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S24" s="6">
         <f t="shared" si="3"/>
         <v>4159.2669500000002</v>
       </c>
       <c r="T24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4020</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.4643519900497521E-2</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>255</v>
@@ -3112,23 +3254,23 @@
       <c r="D25" s="3">
         <v>0.996</v>
       </c>
-      <c r="E25" s="1">
-        <f t="shared" si="11"/>
+      <c r="E25" s="24">
+        <f t="shared" si="12"/>
         <v>0.29983128000000003</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="4"/>
-        <v>0.11896867450980399</v>
+        <v>9.9510094117647219E-2</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="5"/>
-        <v>30.337012000000016</v>
+        <v>25.375074000000041</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="0"/>
@@ -3139,11 +3281,11 @@
         <v>0.25307999999998287</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" ref="M25" si="13">K25/150</f>
+        <f t="shared" ref="M25" si="14">K25/150</f>
         <v>1.6983128000000001</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4502.5200000000004</v>
       </c>
       <c r="O25" s="2">
@@ -3152,22 +3294,26 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
+      <c r="R25" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S25" s="6">
-        <f t="shared" ref="S25" si="14">R25+O25</f>
+        <f t="shared" ref="S25" si="15">R25+O25</f>
         <v>4484.5099200000004</v>
       </c>
       <c r="T25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4275</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.9008168421052822E-2</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>105</v>
@@ -3178,23 +3324,23 @@
       <c r="D26" s="3">
         <v>1.0026999999999999</v>
       </c>
-      <c r="E26" s="1">
-        <f t="shared" si="11"/>
+      <c r="E26" s="24">
+        <f t="shared" si="12"/>
         <v>0.19993498266666668</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="4"/>
-        <v>0.11156259047619049</v>
+        <v>9.2232800000000129E-2</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="5"/>
-        <v>11.714072000000002</v>
+        <v>9.6844440000000134</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
@@ -3205,11 +3351,11 @@
         <v>9.7526000000002E-2</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" ref="M26:M29" si="15">K26/150</f>
+        <f t="shared" ref="M26:M29" si="16">K26/150</f>
         <v>0.69934982666666667</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4607.1400000000003</v>
       </c>
       <c r="O26" s="2">
@@ -3218,22 +3364,26 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
+      <c r="R26" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S26" s="6">
-        <f t="shared" ref="S26:S29" si="16">R26+O26</f>
+        <f t="shared" ref="S26:S29" si="17">R26+O26</f>
         <v>4619.5792780000002</v>
       </c>
       <c r="T26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4380</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4698465296803667E-2</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>105</v>
@@ -3244,23 +3394,23 @@
       <c r="D27" s="3">
         <v>1.0216000000000001</v>
       </c>
-      <c r="E27" s="1">
-        <f t="shared" si="11"/>
+      <c r="E27" s="24">
+        <f t="shared" si="12"/>
         <v>0.19993192533333337</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="4"/>
-        <v>9.0950552380952371E-2</v>
+        <v>7.197920000000016E-2</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="5"/>
-        <v>9.5498079999999987</v>
+        <v>7.5578160000000167</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="0"/>
@@ -3271,11 +3421,11 @@
         <v>0.1021119999999911</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.69931925333333345</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4709.8200000000006</v>
       </c>
       <c r="O27" s="2">
@@ -3284,22 +3434,26 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
+      <c r="R27" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S27" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4811.5521120000012</v>
       </c>
       <c r="T27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4485</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.2809835451505212E-2</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>90</v>
@@ -3310,23 +3464,23 @@
       <c r="D28" s="3">
         <v>1.0229999999999999</v>
       </c>
-      <c r="E28" s="1">
-        <f t="shared" si="11"/>
+      <c r="E28" s="24">
+        <f t="shared" si="12"/>
         <v>0.18994098000000001</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="4"/>
-        <v>8.9445377777777751E-2</v>
+        <v>7.050020000000011E-2</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="5"/>
-        <v>8.0500839999999982</v>
+        <v>6.3450180000000103</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="0"/>
@@ -3337,11 +3491,11 @@
         <v>8.8530000000005771E-2</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.59940979999999999</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4797.7100000000009</v>
       </c>
       <c r="O28" s="2">
@@ -3350,22 +3504,26 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
+      <c r="R28" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S28" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4908.0573300000005</v>
       </c>
       <c r="T28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4575</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.2799416393442673E-2</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>90</v>
@@ -3376,23 +3534,23 @@
       <c r="D29" s="3">
         <v>1.0049999999999999</v>
       </c>
-      <c r="E29" s="1">
-        <f t="shared" si="11"/>
+      <c r="E29" s="24">
+        <f t="shared" si="12"/>
         <v>0.1899382</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="4"/>
-        <v>0.10890639999999981</v>
+        <v>8.9622799999999989E-2</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="5"/>
-        <v>9.801575999999983</v>
+        <v>8.0660519999999991</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="0"/>
@@ -3403,11 +3561,11 @@
         <v>9.2700000000021987E-2</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.59938199999999986</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4887.170000000001</v>
       </c>
       <c r="O29" s="2">
@@ -3416,22 +3574,26 @@
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
+      <c r="R29" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S29" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4911.6058500000008</v>
       </c>
       <c r="T29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4665</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2862990353697903E-2</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30">
         <v>90</v>
@@ -3442,23 +3604,23 @@
       <c r="D30" s="3">
         <v>1.0350999999999999</v>
       </c>
-      <c r="E30" s="1">
-        <f t="shared" si="11"/>
+      <c r="E30" s="24">
+        <f t="shared" si="12"/>
         <v>0.18993919066666667</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="4"/>
-        <v>7.6677955555555538E-2</v>
+        <v>5.7954800000000105E-2</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="5"/>
-        <v>6.9010159999999985</v>
+        <v>5.2159320000000093</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="0"/>
@@ -3469,11 +3631,11 @@
         <v>9.12140000000079E-2</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" ref="M30" si="17">K30/150</f>
+        <f t="shared" ref="M30" si="18">K30/150</f>
         <v>0.59939190666666664</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4974.0300000000007</v>
       </c>
       <c r="O30" s="2">
@@ -3482,22 +3644,26 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
+      <c r="R30" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S30" s="6">
-        <f t="shared" ref="S30" si="18">R30+O30</f>
+        <f t="shared" ref="S30" si="19">R30+O30</f>
         <v>5148.618453</v>
       </c>
       <c r="T30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4755</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.2779905993690894E-2</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31">
         <v>90</v>
@@ -3508,23 +3674,23 @@
       <c r="D31" s="3">
         <v>1.0331999999999999</v>
       </c>
-      <c r="E31" s="1">
-        <f t="shared" si="11"/>
+      <c r="E31" s="24">
+        <f t="shared" si="12"/>
         <v>0.18993937599999999</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="4"/>
-        <v>7.8661244444444375E-2</v>
+        <v>5.9903599999999974E-2</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="5"/>
-        <v>7.079511999999994</v>
+        <v>5.3913239999999973</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="0"/>
@@ -3535,11 +3701,11 @@
         <v>9.0936000000013451E-2</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" ref="M31:M34" si="19">K31/150</f>
+        <f t="shared" ref="M31:M34" si="20">K31/150</f>
         <v>0.59939375999999989</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5061.0500000000011</v>
       </c>
       <c r="O31" s="2">
@@ -3548,22 +3714,26 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
+      <c r="R31" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S31" s="6">
-        <f t="shared" ref="S31:S34" si="20">R31+O31</f>
+        <f t="shared" ref="S31:S34" si="21">R31+O31</f>
         <v>5229.076860000001</v>
       </c>
       <c r="T31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4845</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.9272829721362514E-2</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32">
         <v>90</v>
@@ -3574,23 +3744,23 @@
       <c r="D32" s="3">
         <v>1.0366</v>
       </c>
-      <c r="E32" s="1">
-        <f t="shared" si="11"/>
+      <c r="E32" s="24">
+        <f t="shared" si="12"/>
         <v>0.18994312266666666</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="4"/>
-        <v>7.5190488888888754E-2</v>
+        <v>5.6493200000000049E-2</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="5"/>
-        <v>6.7671439999999876</v>
+        <v>5.0843880000000041</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="0"/>
@@ -3601,11 +3771,11 @@
         <v>8.5316000000005943E-2</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.59943122666666659</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5147.7900000000009</v>
       </c>
       <c r="O32" s="2">
@@ -3614,22 +3784,26 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
+      <c r="R32" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S32" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5336.1991140000009</v>
       </c>
       <c r="T32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4935</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.1296679635258551E-2</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33">
         <v>90</v>
@@ -3640,23 +3814,23 @@
       <c r="D33" s="3">
         <v>1.0341</v>
       </c>
-      <c r="E33" s="1">
-        <f t="shared" si="11"/>
+      <c r="E33" s="24">
+        <f t="shared" si="12"/>
         <v>0.18994333000000002</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="4"/>
-        <v>7.7793555555555505E-2</v>
+        <v>5.905100000000011E-2</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="5"/>
-        <v>7.001419999999996</v>
+        <v>5.3145900000000097</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="0"/>
@@ -3667,11 +3841,11 @@
         <v>8.5004999999995334E-2</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.59943330000000006</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5234.7400000000007</v>
       </c>
       <c r="O33" s="2">
@@ -3680,22 +3854,26 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
+      <c r="R33" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S33" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5413.2446340000006</v>
       </c>
       <c r="T33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5025</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.7262613731343466E-2</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34">
         <v>90</v>
@@ -3706,23 +3884,23 @@
       <c r="D34" s="3">
         <v>1.0559000000000001</v>
       </c>
-      <c r="E34" s="1">
-        <f t="shared" si="11"/>
+      <c r="E34" s="24">
+        <f t="shared" si="12"/>
         <v>0.18993992333333334</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="4"/>
-        <v>5.5481555555555596E-2</v>
+        <v>3.7127000000000188E-2</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="5"/>
-        <v>4.9933400000000034</v>
+        <v>3.3414300000000168</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="0"/>
@@ -3733,7 +3911,7 @@
         <v>9.011499999998307E-2</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.59939923333333345</v>
       </c>
       <c r="N34" s="6">
@@ -3746,22 +3924,26 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
+      <c r="R34" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S34" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5617.2718510000004</v>
       </c>
       <c r="T34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5115</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.8195865298142726E-2</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35">
         <v>135</v>
@@ -3772,34 +3954,34 @@
       <c r="D35" s="3">
         <v>1.1154999999999999</v>
       </c>
-      <c r="E35" s="1">
-        <f t="shared" ref="E35" si="21">10%*M35+13%</f>
+      <c r="E35" s="24">
+        <f t="shared" ref="E35" si="22">10%*M35+13%</f>
         <v>0.21991673666666667</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="4"/>
-        <v>-8.355851851852684E-4</v>
+        <v>-1.8210800000000055E-2</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="5"/>
-        <v>-0.11280400000001123</v>
+        <v>-2.4584580000000074</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" ref="K35" si="22">D35*C35</f>
+        <f t="shared" ref="K35" si="23">D35*C35</f>
         <v>134.87510499999999</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" ref="L35" si="23">B35-K35</f>
+        <f t="shared" ref="L35" si="24">B35-K35</f>
         <v>0.1248950000000093</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" ref="M35" si="24">K35/150</f>
+        <f t="shared" ref="M35" si="25">K35/150</f>
         <v>0.89916736666666663</v>
       </c>
       <c r="N35" s="6">
@@ -3807,7 +3989,7 @@
         <v>5107.7800000000007</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" ref="O35" si="25">N35*D35</f>
+        <f t="shared" ref="O35" si="26">N35*D35</f>
         <v>5697.7285900000006</v>
       </c>
       <c r="P35" s="2">
@@ -3821,21 +4003,21 @@
         <v>371.31</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" ref="S35" si="26">R35+O35</f>
+        <f t="shared" ref="S35" si="27">R35+O35</f>
         <v>6069.038590000001</v>
       </c>
       <c r="T35">
-        <f t="shared" ref="T35" si="27">T34+B35</f>
+        <f t="shared" ref="T35" si="28">T34+B35</f>
         <v>5250</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" ref="U35" si="28">S35/T35-1</f>
+        <f t="shared" ref="U35" si="29">S35/T35-1</f>
         <v>0.15600735047619074</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B36">
         <v>135</v>
@@ -3846,66 +4028,276 @@
       <c r="D36" s="3">
         <v>1.1029</v>
       </c>
-      <c r="E36" s="1">
-        <f t="shared" ref="E36" si="29">10%*M36+13%</f>
+      <c r="E36" s="24">
+        <f t="shared" ref="E36" si="30">10%*M36+13%</f>
         <v>0.21991576066666668</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" ref="F36" si="30">IF(G36="",($F$1*C36-B36)/B36,H36/B36)</f>
-        <v>1.056832592592598E-2</v>
+        <f t="shared" ref="F36" si="31">IF(G36="",($F$1*C36-B36)/B36,H36/B36)</f>
+        <v>-7.0051999999998739E-3</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" ref="H36" si="31">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>1.4267240000000072</v>
+        <f t="shared" ref="H36" si="32">IF(G36="",$F$1*C36-B36,G36-B36)</f>
+        <v>-0.94570199999998295</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" ref="K36" si="32">D36*C36</f>
+        <f t="shared" ref="K36" si="33">D36*C36</f>
         <v>134.87364099999999</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" ref="L36" si="33">B36-K36</f>
+        <f t="shared" ref="L36" si="34">B36-K36</f>
         <v>0.12635900000000788</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" ref="M36" si="34">K36/150</f>
+        <f t="shared" ref="M36" si="35">K36/150</f>
         <v>0.89915760666666666</v>
       </c>
       <c r="N36" s="6">
-        <f>N35+C36-P36</f>
+        <f t="shared" ref="N36:N39" si="36">N35+C36-P36</f>
         <v>5230.0700000000006</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" ref="O36" si="35">N36*D36</f>
+        <f t="shared" ref="O36:O39" si="37">N36*D36</f>
         <v>5768.2442030000002</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="6">
-        <f>R35+Q36</f>
+        <f t="shared" ref="R36:R39" si="38">R35+Q36</f>
         <v>371.31</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" ref="S36" si="36">R36+O36</f>
+        <f t="shared" ref="S36:S39" si="39">R36+O36</f>
         <v>6139.5542030000006</v>
       </c>
       <c r="T36">
-        <f t="shared" ref="T36" si="37">T35+B36</f>
+        <f t="shared" ref="T36:T39" si="40">T35+B36</f>
         <v>5385</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" ref="U36" si="38">S36/T36-1</f>
+        <f t="shared" ref="U36:U39" si="41">S36/T36-1</f>
         <v>0.14012148616527398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37">
+        <v>135</v>
+      </c>
+      <c r="C37" s="2">
+        <v>122.51</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1.1009</v>
+      </c>
+      <c r="E37" s="24">
+        <f t="shared" ref="E37:E39" si="42">10%*M37+13%</f>
+        <v>0.21991417266666669</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" ref="F37:F39" si="43">IF(G37="",($F$1*C37-B37)/B37,H37/B37)</f>
+        <v>-5.2187999999998907E-3</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" ref="H37:H39" si="44">IF(G37="",$F$1*C37-B37,G37-B37)</f>
+        <v>-0.70453799999998523</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" ref="K37:K39" si="45">D37*C37</f>
+        <v>134.87125900000001</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" ref="L37:L39" si="46">B37-K37</f>
+        <v>0.12874099999999089</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" ref="M37:M39" si="47">K37/150</f>
+        <v>0.8991417266666667</v>
+      </c>
+      <c r="N37" s="6">
+        <f t="shared" si="36"/>
+        <v>5352.5800000000008</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="37"/>
+        <v>5892.6553220000005</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="6">
+        <f t="shared" si="38"/>
+        <v>371.31</v>
+      </c>
+      <c r="S37" s="6">
+        <f t="shared" si="39"/>
+        <v>6263.9653220000009</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="40"/>
+        <v>5520</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="41"/>
+        <v>0.13477632644927562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38">
+        <v>135</v>
+      </c>
+      <c r="C38" s="2">
+        <v>122.81</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.0982000000000001</v>
+      </c>
+      <c r="E38" s="24">
+        <f t="shared" si="42"/>
+        <v>0.2199132946666667</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="43"/>
+        <v>-2.7827999999999521E-3</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="44"/>
+        <v>-0.37567799999999352</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="45"/>
+        <v>134.86994200000001</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="46"/>
+        <v>0.13005799999999113</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="47"/>
+        <v>0.89913294666666677</v>
+      </c>
+      <c r="N38" s="6">
+        <f t="shared" si="36"/>
+        <v>5475.3900000000012</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="37"/>
+        <v>6013.0732980000021</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="6">
+        <f t="shared" si="38"/>
+        <v>371.31</v>
+      </c>
+      <c r="S38" s="6">
+        <f t="shared" si="39"/>
+        <v>6384.3832980000025</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="40"/>
+        <v>5655</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="41"/>
+        <v>0.12898024721485446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39">
+        <v>135</v>
+      </c>
+      <c r="C39" s="2">
+        <v>120.31</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.121</v>
+      </c>
+      <c r="E39" s="24">
+        <f t="shared" si="42"/>
+        <v>0.21991167333333334</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="43"/>
+        <v>-2.3082799999999931E-2</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="44"/>
+        <v>-3.1161779999999908</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="45"/>
+        <v>134.86751000000001</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="46"/>
+        <v>0.13248999999999</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="47"/>
+        <v>0.89911673333333342</v>
+      </c>
+      <c r="N39" s="6">
+        <f t="shared" si="36"/>
+        <v>5595.7000000000016</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="37"/>
+        <v>6272.7797000000019</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="6">
+        <f t="shared" si="38"/>
+        <v>371.31</v>
+      </c>
+      <c r="S39" s="6">
+        <f t="shared" si="39"/>
+        <v>6644.0897000000023</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="40"/>
+        <v>5790</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="41"/>
+        <v>0.14751117443868789</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G7:G8 F4:F36">
+  <conditionalFormatting sqref="G7:G8 F4:F39">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>$E$2</formula>
     </cfRule>
@@ -3975,13 +4367,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3990,88 +4382,88 @@
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" customWidth="1"/>
+    <col min="6" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10" style="18" customWidth="1"/>
+    <col min="17" max="17" width="10" style="17" customWidth="1"/>
     <col min="18" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1">
-        <v>0.87870000000000004</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="22" t="str">
+        <f>"盈利"&amp;ROUND(SUM(H2:H20000),2)</f>
+        <v>盈利960.84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>85</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="R1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -4087,18 +4479,18 @@
       </c>
       <c r="F2" s="4">
         <f t="shared" ref="F2:F24" si="0">(($F$1)*C2-B2)/B2</f>
-        <v>0.21102433999999998</v>
+        <v>0.23321335999999993</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="2">
+      <c r="H2" s="20">
         <f t="shared" ref="H2:H24" si="1">$F$1*C2-B2</f>
-        <v>31.653650999999996</v>
+        <v>34.982003999999989</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K2" s="2">
         <f>D2*C2</f>
@@ -4120,7 +4512,7 @@
         <v>150.003288</v>
       </c>
       <c r="P2" s="2"/>
-      <c r="Q2" s="17"/>
+      <c r="Q2" s="16"/>
       <c r="R2">
         <v>0</v>
       </c>
@@ -4139,7 +4531,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>150</v>
@@ -4155,18 +4547,18 @@
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>0.2161793800000002</v>
+        <v>0.23846285333333356</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2">
         <f t="shared" si="1"/>
-        <v>32.426907000000028</v>
+        <v>35.769428000000033</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K7" si="3">D3*C3</f>
@@ -4189,7 +4581,7 @@
         <v>299.36065000000002</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="17"/>
+      <c r="Q3" s="16"/>
       <c r="R3">
         <v>0</v>
       </c>
@@ -4208,7 +4600,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>150</v>
@@ -4224,18 +4616,18 @@
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>0.18970122000000003</v>
+        <v>0.21149954666666682</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2">
         <f t="shared" si="1"/>
-        <v>28.455183000000005</v>
+        <v>31.724932000000024</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="3"/>
@@ -4258,7 +4650,7 @@
         <v>456.03379800000005</v>
       </c>
       <c r="P4" s="2"/>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="16"/>
       <c r="R4">
         <v>0</v>
       </c>
@@ -4277,7 +4669,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -4293,18 +4685,18 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>0.16972544000000009</v>
+        <v>0.19115776000000001</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
-        <v>25.458816000000013</v>
+        <v>28.673664000000002</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="3"/>
@@ -4327,7 +4719,7 @@
         <v>613.81303200000013</v>
       </c>
       <c r="P5" s="2"/>
-      <c r="Q5" s="17"/>
+      <c r="Q5" s="16"/>
       <c r="R5">
         <v>0</v>
       </c>
@@ -4346,7 +4738,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>150</v>
@@ -4362,18 +4754,18 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>0.17253728000000004</v>
+        <v>0.19402112000000007</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2">
         <f t="shared" si="1"/>
-        <v>25.880592000000007</v>
+        <v>29.103168000000011</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
@@ -4396,7 +4788,7 @@
         <v>762.34213799999998</v>
       </c>
       <c r="P6" s="2"/>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="16"/>
       <c r="R6">
         <v>0</v>
       </c>
@@ -4415,7 +4807,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>150</v>
@@ -4431,18 +4823,18 @@
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0.16943254000000005</v>
+        <v>0.19085949333333341</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="2">
         <f t="shared" si="1"/>
-        <v>25.414881000000008</v>
+        <v>28.628924000000012</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
@@ -4465,7 +4857,7 @@
         <v>914.37865999999997</v>
       </c>
       <c r="P7" s="2"/>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="16"/>
       <c r="R7">
         <v>0</v>
       </c>
@@ -4484,7 +4876,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>150</v>
@@ -4500,18 +4892,18 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.17130710000000002</v>
+        <v>0.19276839999999992</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2">
         <f t="shared" si="1"/>
-        <v>25.696065000000004</v>
+        <v>28.915259999999989</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:K9" si="10">D8*C8</f>
@@ -4534,7 +4926,7 @@
         <v>1062.9208700000001</v>
       </c>
       <c r="P8" s="2"/>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="16"/>
       <c r="R8">
         <v>0</v>
       </c>
@@ -4553,7 +4945,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>150</v>
@@ -4569,18 +4961,18 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>0.16275442000000018</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>0.18405901333333341</v>
+      </c>
+      <c r="G9" s="21"/>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
-        <v>24.413163000000026</v>
+        <v>27.608852000000013</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="10"/>
@@ -4603,7 +4995,7 @@
         <v>1220.7124380000002</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="Q9" s="17"/>
+      <c r="Q9" s="16"/>
       <c r="R9">
         <v>0</v>
       </c>
@@ -4622,7 +5014,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -4638,18 +5030,18 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>0.17019408</v>
+        <v>0.1916349866666667</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2">
         <f t="shared" si="1"/>
-        <v>25.529111999999998</v>
+        <v>28.745248000000004</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" ref="K10:K13" si="11">D10*C10</f>
@@ -4672,7 +5064,7 @@
         <v>1362.9585900000002</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="16"/>
       <c r="R10">
         <v>0</v>
       </c>
@@ -4691,7 +5083,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>150</v>
@@ -4707,18 +5099,18 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>0.15467038000000022</v>
+        <v>0.17582685333333339</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2">
         <f t="shared" si="1"/>
-        <v>23.200557000000032</v>
+        <v>26.37402800000001</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="11"/>
@@ -4741,7 +5133,7 @@
         <v>1531.2918099999999</v>
       </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="17"/>
+      <c r="Q11" s="16"/>
       <c r="R11">
         <v>0</v>
       </c>
@@ -4760,7 +5152,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>150</v>
@@ -4776,18 +5168,18 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.15742364000000009</v>
+        <v>0.1786305600000001</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2">
         <f t="shared" si="1"/>
-        <v>23.613546000000014</v>
+        <v>26.794584000000015</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="11"/>
@@ -4810,7 +5202,7 @@
         <v>1677.672568</v>
       </c>
       <c r="P12" s="2"/>
-      <c r="Q12" s="17"/>
+      <c r="Q12" s="16"/>
       <c r="R12">
         <v>0</v>
       </c>
@@ -4829,7 +5221,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>150</v>
@@ -4845,18 +5237,18 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>0.16568342000000011</v>
+        <v>0.18704168000000018</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2">
         <f t="shared" si="1"/>
-        <v>24.852513000000016</v>
+        <v>28.056252000000029</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="11"/>
@@ -4879,7 +5271,7 @@
         <v>1815.7383639999998</v>
       </c>
       <c r="P13" s="2"/>
-      <c r="Q13" s="17"/>
+      <c r="Q13" s="16"/>
       <c r="R13">
         <v>0</v>
       </c>
@@ -4898,7 +5290,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>150</v>
@@ -4914,18 +5306,18 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0.15449464000000016</v>
+        <v>0.17564789333333353</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
-        <v>23.174196000000023</v>
+        <v>26.347184000000027</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" ref="K14" si="13">D14*C14</f>
@@ -4948,7 +5340,7 @@
         <v>1983.3200459999998</v>
       </c>
       <c r="P14" s="2"/>
-      <c r="Q14" s="17"/>
+      <c r="Q14" s="16"/>
       <c r="R14">
         <v>0</v>
       </c>
@@ -4967,7 +5359,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>150</v>
@@ -4983,18 +5375,18 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>0.14805084000000004</v>
+        <v>0.16908602666666658</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>22.207626000000005</v>
+        <v>25.362903999999986</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ref="K15:K19" si="14">D15*C15</f>
@@ -5017,7 +5409,7 @@
         <v>2144.5283359999999</v>
       </c>
       <c r="P15" s="2"/>
-      <c r="Q15" s="17"/>
+      <c r="Q15" s="16"/>
       <c r="R15">
         <v>0</v>
       </c>
@@ -5036,7 +5428,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>150</v>
@@ -5052,18 +5444,18 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
-        <v>0.16445324000000008</v>
+        <v>0.18578896000000006</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="2">
         <f t="shared" si="1"/>
-        <v>24.667986000000013</v>
+        <v>27.868344000000008</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="14"/>
@@ -5086,7 +5478,7 @@
         <v>2264.2678519999999</v>
       </c>
       <c r="P16" s="2"/>
-      <c r="Q16" s="17"/>
+      <c r="Q16" s="16"/>
       <c r="R16">
         <v>0</v>
       </c>
@@ -5105,7 +5497,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>150</v>
@@ -5121,18 +5513,18 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>0.16246151999999994</v>
+        <v>0.18376074666666664</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="2">
         <f t="shared" si="1"/>
-        <v>24.369227999999993</v>
+        <v>27.564111999999994</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="14"/>
@@ -5155,7 +5547,7 @@
         <v>2418.1694539999999</v>
       </c>
       <c r="P17" s="2"/>
-      <c r="Q17" s="17"/>
+      <c r="Q17" s="16"/>
       <c r="R17">
         <v>0</v>
       </c>
@@ -5174,7 +5566,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>150</v>
@@ -5190,18 +5582,18 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>0.15666209999999997</v>
+        <v>0.17785506666666662</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="2">
         <f t="shared" si="1"/>
-        <v>23.499314999999996</v>
+        <v>26.678259999999995</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="14"/>
@@ -5224,7 +5616,7 @@
         <v>2580.3286469999998</v>
       </c>
       <c r="P18" s="2"/>
-      <c r="Q18" s="17"/>
+      <c r="Q18" s="16"/>
       <c r="R18">
         <v>0</v>
       </c>
@@ -5243,7 +5635,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>150</v>
@@ -5259,18 +5651,18 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>0.16140707999999998</v>
+        <v>0.18268698666666675</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2">
         <f t="shared" si="1"/>
-        <v>24.211061999999998</v>
+        <v>27.403048000000013</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="14"/>
@@ -5293,7 +5685,7 @@
         <v>2719.8029819999997</v>
       </c>
       <c r="P19" s="2"/>
-      <c r="Q19" s="17"/>
+      <c r="Q19" s="16"/>
       <c r="R19">
         <v>0</v>
       </c>
@@ -5312,7 +5704,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>270</v>
@@ -5329,18 +5721,18 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" si="0"/>
-        <v>0.16431004444444453</v>
+        <v>0.18564314074074076</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="2">
         <f t="shared" si="1"/>
-        <v>44.363712000000021</v>
+        <v>50.123648000000003</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ref="K20:K23" si="15">D20*C20</f>
@@ -5363,7 +5755,7 @@
         <v>2982.9743909999997</v>
       </c>
       <c r="P20" s="2"/>
-      <c r="Q20" s="17"/>
+      <c r="Q20" s="16"/>
       <c r="R20">
         <v>0</v>
       </c>
@@ -5382,7 +5774,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>270</v>
@@ -5399,18 +5791,18 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="0"/>
-        <v>0.17788107777777781</v>
+        <v>0.19946282962962961</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>48.027891000000011</v>
+        <v>53.854963999999995</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="15"/>
@@ -5433,7 +5825,7 @@
         <v>3218.58716</v>
       </c>
       <c r="P21" s="2"/>
-      <c r="Q21" s="17"/>
+      <c r="Q21" s="16"/>
       <c r="R21">
         <v>0</v>
       </c>
@@ -5452,7 +5844,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>270</v>
@@ -5469,18 +5861,18 @@
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.18888110000000008</v>
+        <v>0.21066440000000003</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="2">
         <f t="shared" si="1"/>
-        <v>50.997897000000023</v>
+        <v>56.879388000000006</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="15"/>
@@ -5503,7 +5895,7 @@
         <v>3458.8180070000003</v>
       </c>
       <c r="P22" s="2"/>
-      <c r="Q22" s="17"/>
+      <c r="Q22" s="16"/>
       <c r="R22">
         <v>0</v>
       </c>
@@ -5522,7 +5914,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>270</v>
@@ -5539,18 +5931,18 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>0.19828644444444454</v>
+        <v>0.2202420740740742</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="2">
         <f t="shared" si="1"/>
-        <v>53.537340000000029</v>
+        <v>59.465360000000032</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="15"/>
@@ -5573,7 +5965,7 @@
         <v>3701.6764010000002</v>
       </c>
       <c r="P23" s="2"/>
-      <c r="Q23" s="17"/>
+      <c r="Q23" s="16"/>
       <c r="R23">
         <v>0</v>
       </c>
@@ -5592,7 +5984,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>270</v>
@@ -5609,18 +6001,18 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="0"/>
-        <v>0.16756448888888889</v>
+        <v>0.18895721481481473</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="2">
         <f t="shared" si="1"/>
-        <v>45.242412000000002</v>
+        <v>51.018447999999978</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" ref="K24" si="17">D24*C24</f>
@@ -5643,7 +6035,7 @@
         <v>4069.1049980000007</v>
       </c>
       <c r="P24" s="2"/>
-      <c r="Q24" s="17"/>
+      <c r="Q24" s="16"/>
       <c r="R24">
         <v>0</v>
       </c>
@@ -5662,7 +6054,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25">
         <v>270</v>
@@ -5679,18 +6071,18 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" ref="F25" si="19">(($F$1)*C25-B25)/B25</f>
-        <v>0.14087804444444454</v>
+        <v>0.16178180740740736</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="2">
         <f t="shared" ref="H25" si="20">$F$1*C25-B25</f>
-        <v>38.037072000000023</v>
+        <v>43.681087999999988</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" ref="K25" si="21">D25*C25</f>
@@ -5713,7 +6105,7 @@
         <v>4434.2647580000003</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="Q25" s="17"/>
+      <c r="Q25" s="16"/>
       <c r="R25">
         <v>0</v>
       </c>
@@ -5732,7 +6124,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26">
         <v>120</v>
@@ -5749,18 +6141,18 @@
       </c>
       <c r="F26" s="4">
         <f t="shared" ref="F26:F29" si="25">(($F$1)*C26-B26)/B26</f>
-        <v>0.13191205000000014</v>
+        <v>0.15265153333333359</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="2">
         <f t="shared" ref="H26:H29" si="26">$F$1*C26-B26</f>
-        <v>15.829446000000019</v>
+        <v>18.318184000000031</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" ref="K26:K29" si="27">D26*C26</f>
@@ -5783,7 +6175,7 @@
         <v>4589.3846810000005</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="17"/>
+      <c r="Q26" s="16"/>
       <c r="R26">
         <v>0</v>
       </c>
@@ -5802,7 +6194,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>120</v>
@@ -5819,18 +6211,18 @@
       </c>
       <c r="F27" s="4">
         <f t="shared" si="25"/>
-        <v>0.11470417499999996</v>
+        <v>0.13512836666666672</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2">
         <f t="shared" si="26"/>
-        <v>13.764500999999996</v>
+        <v>16.215404000000007</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="27"/>
@@ -5853,7 +6245,7 @@
         <v>4780.3300300000001</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="17"/>
+      <c r="Q27" s="16"/>
       <c r="R27">
         <v>0</v>
       </c>
@@ -5872,7 +6264,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28">
         <v>120</v>
@@ -5889,18 +6281,18 @@
       </c>
       <c r="F28" s="4">
         <f t="shared" si="25"/>
-        <v>0.11001777500000003</v>
+        <v>0.13035609999999995</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="2">
         <f t="shared" si="26"/>
-        <v>13.202133000000003</v>
+        <v>15.642731999999995</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="27"/>
@@ -5923,7 +6315,7 @@
         <v>4920.3402040000001</v>
       </c>
       <c r="P28" s="2"/>
-      <c r="Q28" s="17"/>
+      <c r="Q28" s="16"/>
       <c r="R28">
         <v>0</v>
       </c>
@@ -5942,7 +6334,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29">
         <v>120</v>
@@ -5959,18 +6351,18 @@
       </c>
       <c r="F29" s="4">
         <f t="shared" si="25"/>
-        <v>0.11712060000000003</v>
+        <v>0.13758906666666679</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="2">
         <f t="shared" si="26"/>
-        <v>14.054472000000004</v>
+        <v>16.510688000000016</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="27"/>
@@ -5993,7 +6385,7 @@
         <v>5009.2654500000008</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="17"/>
+      <c r="Q29" s="16"/>
       <c r="R29">
         <v>0</v>
       </c>
@@ -6012,7 +6404,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>120</v>
@@ -6029,18 +6421,18 @@
       </c>
       <c r="F30" s="4">
         <f t="shared" ref="F30" si="31">(($F$1)*C30-B30)/B30</f>
-        <v>8.1093899999999997E-2</v>
+        <v>0.10090226666666666</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="2">
         <f t="shared" ref="H30" si="32">$F$1*C30-B30</f>
-        <v>9.731268</v>
+        <v>12.108271999999999</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" ref="K30" si="33">D30*C30</f>
@@ -6063,7 +6455,7 @@
         <v>5296.1153920000006</v>
       </c>
       <c r="P30" s="2"/>
-      <c r="Q30" s="17"/>
+      <c r="Q30" s="16"/>
       <c r="R30">
         <v>0</v>
       </c>
@@ -6082,7 +6474,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31">
         <v>105</v>
@@ -6099,18 +6491,18 @@
       </c>
       <c r="F31" s="4">
         <f t="shared" ref="F31:F34" si="37">(($F$1)*C31-B31)/B31</f>
-        <v>8.00478285714286E-2</v>
+        <v>9.9837028571428593E-2</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="2">
         <f t="shared" ref="H31:H34" si="38">$F$1*C31-B31</f>
-        <v>8.4050220000000024</v>
+        <v>10.482888000000003</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" ref="K31:K34" si="39">D31*C31</f>
@@ -6133,7 +6525,7 @@
         <v>5406.3313200000011</v>
       </c>
       <c r="P31" s="2"/>
-      <c r="Q31" s="17"/>
+      <c r="Q31" s="16"/>
       <c r="R31">
         <v>0</v>
       </c>
@@ -6152,7 +6544,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32">
         <v>105</v>
@@ -6169,18 +6561,18 @@
       </c>
       <c r="F32" s="4">
         <f t="shared" si="37"/>
-        <v>7.9880457142857061E-2</v>
+        <v>9.9666590476190434E-2</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="2">
         <f t="shared" si="38"/>
-        <v>8.387447999999992</v>
+        <v>10.464991999999995</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="39"/>
@@ -6203,7 +6595,7 @@
         <v>5511.9956630000015</v>
       </c>
       <c r="P32" s="2"/>
-      <c r="Q32" s="17"/>
+      <c r="Q32" s="16"/>
       <c r="R32">
         <v>0</v>
       </c>
@@ -6222,7 +6614,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>105</v>
@@ -6239,18 +6631,18 @@
       </c>
       <c r="F33" s="4">
         <f t="shared" si="37"/>
-        <v>8.1721542857142795E-2</v>
+        <v>0.10154140952380945</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="2">
         <f t="shared" si="38"/>
-        <v>8.5807619999999929</v>
+        <v>10.661847999999992</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="39"/>
@@ -6273,7 +6665,7 @@
         <v>5607.5099750000018</v>
       </c>
       <c r="P33" s="2"/>
-      <c r="Q33" s="17"/>
+      <c r="Q33" s="16"/>
       <c r="R33">
         <v>0</v>
       </c>
@@ -6292,7 +6684,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34">
         <v>105</v>
@@ -6309,18 +6701,18 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" si="37"/>
-        <v>5.6615828571428647E-2</v>
+        <v>7.5975695238095331E-2</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="2">
         <f t="shared" si="38"/>
-        <v>5.9446620000000081</v>
+        <v>7.9774480000000096</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="39"/>
@@ -6343,7 +6735,7 @@
         <v>5845.7405160000017</v>
       </c>
       <c r="P34" s="2"/>
-      <c r="Q34" s="17"/>
+      <c r="Q34" s="16"/>
       <c r="R34" s="6">
         <f>Q34+R33</f>
         <v>0</v>
@@ -6363,7 +6755,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35">
         <v>105</v>
@@ -6380,18 +6772,18 @@
       </c>
       <c r="F35" s="4">
         <f t="shared" ref="F35:F36" si="44">(($F$1)*C35-B35)/B35</f>
-        <v>3.6427714285715801E-3</v>
+        <v>2.2032038095238161E-2</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="2">
         <f t="shared" ref="H35:H36" si="45">$F$1*C35-B35</f>
-        <v>0.3824910000000159</v>
+        <v>2.3133640000000071</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" ref="K35:K36" si="46">D35*C35</f>
@@ -6414,7 +6806,7 @@
         <v>6259.3347200000017</v>
       </c>
       <c r="P35" s="2"/>
-      <c r="Q35" s="17"/>
+      <c r="Q35" s="16"/>
       <c r="R35" s="6">
         <f t="shared" ref="R35:R36" si="50">Q35+R34</f>
         <v>0</v>
@@ -6434,7 +6826,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36">
         <v>90</v>
@@ -6451,18 +6843,18 @@
       </c>
       <c r="F36" s="4">
         <f t="shared" si="44"/>
-        <v>4.8422666666667171E-3</v>
+        <v>2.3253511111111101E-2</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="2">
         <f t="shared" si="45"/>
-        <v>0.43580400000000452</v>
+        <v>2.0928159999999991</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="46"/>
@@ -6485,7 +6877,7 @@
         <v>6342.1888200000021</v>
       </c>
       <c r="P36" s="2"/>
-      <c r="Q36" s="17"/>
+      <c r="Q36" s="16"/>
       <c r="R36" s="6">
         <f t="shared" si="50"/>
         <v>0</v>
@@ -6503,9 +6895,222 @@
         <v>0.14583357181571843</v>
       </c>
     </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37">
+        <v>90</v>
+      </c>
+      <c r="C37">
+        <v>103.33</v>
+      </c>
+      <c r="D37">
+        <v>0.871</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ref="E37:E39" si="54">10%*M37+13%</f>
+        <v>0.19000028666666666</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" ref="F37:F39" si="55">(($F$1)*C37-B37)/B37</f>
+        <v>2.7329822222222175E-2</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="2">
+        <f t="shared" ref="H37:H39" si="56">$F$1*C37-B37</f>
+        <v>2.4596839999999958</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" ref="K37:K39" si="57">D37*C37</f>
+        <v>90.000429999999994</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" ref="L37:L39" si="58">K37-B37</f>
+        <v>4.2999999999437932E-4</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" ref="M37:M39" si="59">K37/150</f>
+        <v>0.60000286666666658</v>
+      </c>
+      <c r="N37" s="6">
+        <f t="shared" ref="N37:N39" si="60">N36+C37-P37</f>
+        <v>7355.6900000000023</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" ref="O37:O39" si="61">N37*D37</f>
+        <v>6406.8059900000017</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="6">
+        <f t="shared" ref="R37:R39" si="62">Q37+R36</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
+        <f t="shared" ref="S37:S39" si="63">O37+R37</f>
+        <v>6406.8059900000017</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ref="T37:T39" si="64">T36+B37</f>
+        <v>5625</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" ref="U37:U39" si="65">S37/T37-1</f>
+        <v>0.13898773155555588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38">
+        <v>90</v>
+      </c>
+      <c r="C38">
+        <v>103.2</v>
+      </c>
+      <c r="D38">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="54"/>
+        <v>0.19000048</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="55"/>
+        <v>2.6037333333333378E-2</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="2">
+        <f t="shared" si="56"/>
+        <v>2.3433600000000041</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>175</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="57"/>
+        <v>90.000720000000001</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="58"/>
+        <v>7.2000000000116415E-4</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="59"/>
+        <v>0.6000048</v>
+      </c>
+      <c r="N38" s="6">
+        <f t="shared" si="60"/>
+        <v>7458.8900000000021</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="61"/>
+        <v>6504.8979690000015</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="6">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="6">
+        <f t="shared" si="63"/>
+        <v>6504.8979690000015</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="64"/>
+        <v>5715</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="65"/>
+        <v>0.13821486771653579</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39">
+        <v>90</v>
+      </c>
+      <c r="C39">
+        <v>102.4</v>
+      </c>
+      <c r="D39">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="54"/>
+        <v>0.18999957333333334</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="55"/>
+        <v>1.8083555555555599E-2</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2">
+        <f t="shared" si="56"/>
+        <v>1.6275200000000041</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>177</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="57"/>
+        <v>89.99936000000001</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="58"/>
+        <v>-6.3999999998998192E-4</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="59"/>
+        <v>0.59999573333333345</v>
+      </c>
+      <c r="N39" s="6">
+        <f t="shared" si="60"/>
+        <v>7561.2900000000018</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="61"/>
+        <v>6645.6177810000017</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="6">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="6">
+        <f t="shared" si="63"/>
+        <v>6645.6177810000017</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="64"/>
+        <v>5805</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="65"/>
+        <v>0.1448092645994834</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G4 F2:F36">
+  <conditionalFormatting sqref="G2:G4 F2:F39">
     <cfRule type="cellIs" dxfId="2" priority="8" operator="greaterThan">
       <formula>$E$2</formula>
     </cfRule>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7421AD0-D354-1F49-A640-C8ABA08BDA39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E292815-2FA3-2A4E-A9ED-6D5F0DDFCA39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
@@ -1416,100 +1416,7 @@
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1822,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
@@ -5227,7 +5134,7 @@
   <autoFilter ref="A1:W1" xr:uid="{97C2E941-0B08-D04E-A558-71A6284C31B0}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="between">
       <formula>-0.45</formula>
       <formula>0.45</formula>
     </cfRule>
@@ -5273,7 +5180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F11:F43">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>E9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5323,8 +5230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
@@ -8745,7 +8652,7 @@
   <autoFilter ref="A1:W1" xr:uid="{EBD5E519-1AC8-D646-A624-501481F39CB6}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
       <formula>-0.01</formula>
       <formula>0.01</formula>
     </cfRule>
@@ -8791,7 +8698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F25 F27:F43">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>E20</formula>
     </cfRule>
   </conditionalFormatting>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E292815-2FA3-2A4E-A9ED-6D5F0DDFCA39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB910E4-1E12-0E40-9ECD-AFD190A3DE91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="197">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -1206,6 +1206,18 @@
   </si>
   <si>
     <t>20190307购入</t>
+  </si>
+  <si>
+    <t>zz500_20190308</t>
+  </si>
+  <si>
+    <t>10290308购入</t>
+  </si>
+  <si>
+    <t>hs300_20190308</t>
+  </si>
+  <si>
+    <t>20190308购入</t>
   </si>
 </sst>
 </file>
@@ -1730,10 +1742,10 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1777,14 +1789,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>1.107</v>
+        <v>1.0948</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>182</v>
       </c>
       <c r="H1" s="19" t="str">
         <f>"盈利"&amp;ROUND(SUM(H2:H20000),2)</f>
-        <v>盈利794.36</v>
+        <v>盈利732.04</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -2407,11 +2419,11 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" si="4"/>
-        <v>0.18139040000000003</v>
+        <v>0.16837056</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="5"/>
-        <v>27.208560000000006</v>
+        <v>25.255583999999999</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -2564,11 +2576,11 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="4"/>
-        <v>0.16972999999999994</v>
+        <v>0.15683866666666668</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="5"/>
-        <v>25.459499999999991</v>
+        <v>23.525800000000004</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -2641,11 +2653,11 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" si="4"/>
-        <v>0.16950859999999995</v>
+        <v>0.15661970666666661</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="5"/>
-        <v>25.426289999999995</v>
+        <v>23.492955999999992</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -2718,11 +2730,11 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="4"/>
-        <v>0.17563400000000001</v>
+        <v>0.16267760000000009</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="5"/>
-        <v>26.345100000000002</v>
+        <v>24.401640000000015</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -2795,11 +2807,11 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="4"/>
-        <v>0.15585560000000007</v>
+        <v>0.14311717333333338</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="5"/>
-        <v>23.378340000000009</v>
+        <v>21.467576000000008</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -2872,11 +2884,11 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="4"/>
-        <v>0.14980400000000013</v>
+        <v>0.13713226666666667</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="5"/>
-        <v>22.470600000000019</v>
+        <v>20.569839999999999</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -2949,11 +2961,11 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="4"/>
-        <v>0.16434260000000014</v>
+        <v>0.15151064</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="5"/>
-        <v>24.651390000000021</v>
+        <v>22.726596000000001</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -3026,11 +3038,11 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
-        <v>0.16493299999999997</v>
+        <v>0.15209453333333328</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="5"/>
-        <v>24.739949999999993</v>
+        <v>22.814179999999993</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -3103,11 +3115,11 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="4"/>
-        <v>0.15888140000000003</v>
+        <v>0.14610962666666674</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="5"/>
-        <v>23.832210000000003</v>
+        <v>21.916444000000013</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
@@ -3180,11 +3192,11 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" si="4"/>
-        <v>0.15002540000000011</v>
+        <v>0.13735122666666674</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="5"/>
-        <v>22.503810000000016</v>
+        <v>20.602684000000011</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
@@ -3258,11 +3270,11 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" si="4"/>
-        <v>0.15029600000000007</v>
+        <v>0.13761884444444439</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="5"/>
-        <v>40.579920000000016</v>
+        <v>37.157087999999987</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -3336,11 +3348,11 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="4"/>
-        <v>0.14672899999999997</v>
+        <v>0.13409115555555554</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>39.616829999999993</v>
+        <v>36.204611999999997</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -3414,11 +3426,11 @@
       </c>
       <c r="F22" s="4">
         <f t="shared" si="4"/>
-        <v>0.15536070588235276</v>
+        <v>0.14262773333333331</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="5"/>
-        <v>39.616979999999955</v>
+        <v>36.370071999999993</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
@@ -3492,11 +3504,11 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="4"/>
-        <v>0.14410499999999996</v>
+        <v>0.13149607407407407</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="5"/>
-        <v>38.908349999999984</v>
+        <v>35.50394</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -3570,11 +3582,11 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="4"/>
-        <v>0.12918341176470596</v>
+        <v>0.11673893333333345</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="5"/>
-        <v>32.94177000000002</v>
+        <v>29.768428000000029</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -3648,11 +3660,11 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="4"/>
-        <v>0.11034270588235287</v>
+        <v>9.8105866666666694E-2</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="5"/>
-        <v>28.137389999999982</v>
+        <v>25.016996000000006</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -3726,11 +3738,11 @@
       </c>
       <c r="F26" s="4">
         <f t="shared" si="4"/>
-        <v>0.1029937142857143</v>
+        <v>9.083786666666667E-2</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="5"/>
-        <v>10.814340000000001</v>
+        <v>9.5379760000000005</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -3804,11 +3816,11 @@
       </c>
       <c r="F27" s="4">
         <f t="shared" si="4"/>
-        <v>8.2540571428571533E-2</v>
+        <v>7.0610133333333436E-2</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="5"/>
-        <v>8.6667600000000107</v>
+        <v>7.4140640000000104</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -3882,11 +3894,11 @@
       </c>
       <c r="F28" s="4">
         <f t="shared" si="4"/>
-        <v>8.1046999999999994E-2</v>
+        <v>6.913302222222216E-2</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="5"/>
-        <v>7.2942299999999989</v>
+        <v>6.2219719999999938</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -3960,11 +3972,11 @@
       </c>
       <c r="F29" s="4">
         <f t="shared" si="4"/>
-        <v>0.10035799999999995</v>
+        <v>8.8231199999999885E-2</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="5"/>
-        <v>9.0322199999999953</v>
+        <v>7.9408079999999899</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -4038,11 +4050,11 @@
       </c>
       <c r="F30" s="4">
         <f t="shared" si="4"/>
-        <v>6.8378000000000036E-2</v>
+        <v>5.6603644444444497E-2</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="5"/>
-        <v>6.1540200000000027</v>
+        <v>5.0943280000000044</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -4116,11 +4128,11 @@
       </c>
       <c r="F31" s="4">
         <f t="shared" si="4"/>
-        <v>7.0345999999999895E-2</v>
+        <v>5.8549955555555436E-2</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="5"/>
-        <v>6.3311399999999907</v>
+        <v>5.2694959999999895</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -4194,11 +4206,11 @@
       </c>
       <c r="F32" s="4">
         <f t="shared" si="4"/>
-        <v>6.690199999999985E-2</v>
+        <v>5.5143911111110971E-2</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="5"/>
-        <v>6.0211799999999869</v>
+        <v>4.9629519999999872</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -4272,11 +4284,11 @@
       </c>
       <c r="F33" s="4">
         <f t="shared" si="4"/>
-        <v>6.9485000000000088E-2</v>
+        <v>5.7698444444444399E-2</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="5"/>
-        <v>6.2536500000000075</v>
+        <v>5.192859999999996</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
@@ -4350,11 +4362,11 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" si="4"/>
-        <v>4.734500000000013E-2</v>
+        <v>3.5802444444444526E-2</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="5"/>
-        <v>4.2610500000000116</v>
+        <v>3.2222200000000072</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -4428,11 +4440,11 @@
       </c>
       <c r="F35" s="4">
         <f t="shared" si="4"/>
-        <v>-8.5380000000001201E-3</v>
+        <v>-1.9464681481481547E-2</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="5"/>
-        <v>-1.1526300000000163</v>
+        <v>-2.6277320000000088</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -4510,11 +4522,11 @@
       </c>
       <c r="F36" s="4">
         <f t="shared" si="4"/>
-        <v>2.7780000000000703E-3</v>
+        <v>-8.2733925925925558E-3</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ref="H36" si="33">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>0.37503000000000952</v>
+        <v>-1.1169079999999951</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -4588,11 +4600,11 @@
       </c>
       <c r="F37" s="4">
         <f t="shared" si="4"/>
-        <v>4.58200000000004E-3</v>
+        <v>-6.4892740740739793E-3</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:H39" si="44">IF(G37="",$F$1*C37-B37,G37-B37)</f>
-        <v>0.61857000000000539</v>
+        <v>-0.87605199999998717</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -4666,11 +4678,11 @@
       </c>
       <c r="F38" s="4">
         <f t="shared" si="4"/>
-        <v>7.042000000000017E-3</v>
+        <v>-4.056385185185086E-3</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="44"/>
-        <v>0.95067000000000235</v>
+        <v>-0.54761199999998666</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -4744,11 +4756,11 @@
       </c>
       <c r="F39" s="4">
         <f t="shared" si="4"/>
-        <v>-1.3458000000000076E-2</v>
+        <v>-2.4330459259259331E-2</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="44"/>
-        <v>-1.8168300000000102</v>
+        <v>-3.2846120000000099</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -4822,11 +4834,11 @@
       </c>
       <c r="F40" s="4">
         <f t="shared" si="4"/>
-        <v>-2.4282000000000102E-2</v>
+        <v>-3.5035170370370378E-2</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40" si="49">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>-3.2780700000000138</v>
+        <v>-4.7297480000000007</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -4904,11 +4916,11 @@
       </c>
       <c r="F41" s="4">
         <f t="shared" si="4"/>
-        <v>-2.9694000000000012E-2</v>
+        <v>-4.0387525925925899E-2</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ref="H41" si="61">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-4.0086900000000014</v>
+        <v>-5.4523159999999962</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -4986,11 +4998,11 @@
       </c>
       <c r="F42" s="4">
         <f t="shared" ref="F42" si="73">IF(G42="",($F$1*C42-B42)/B42,H42/B42)</f>
-        <v>-3.7565999999999898E-2</v>
+        <v>-4.8172770370370314E-2</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" ref="H42" si="74">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-5.071409999999986</v>
+        <v>-6.5033239999999921</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -5068,11 +5080,11 @@
       </c>
       <c r="F43" s="4">
         <f t="shared" ref="F43" si="87">IF(G43="",($F$1*C43-B43)/B43,H43/B43)</f>
-        <v>-2.8217999999999941E-2</v>
+        <v>-3.8927792592592478E-2</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" ref="H43" si="88">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-3.8094299999999919</v>
+        <v>-5.2552519999999845</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -5128,19 +5140,94 @@
       </c>
     </row>
     <row r="44" spans="1:23">
-      <c r="S44" s="6"/>
+      <c r="A44" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44">
+        <v>135</v>
+      </c>
+      <c r="C44" s="2">
+        <v>123.19</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.0948</v>
+      </c>
+      <c r="E44" s="23">
+        <f t="shared" ref="E44" si="100">10%*M44+13%</f>
+        <v>0.21991227466666668</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" ref="F44" si="101">IF(G44="",($F$1*C44-B44)/B44,H44/B44)</f>
+        <v>-9.7472592592587847E-4</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" ref="H44" si="102">IF(G44="",$F$1*C44-B44,G44-B44)</f>
+        <v>-0.1315879999999936</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>196</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" ref="K44" si="103">D44*C44</f>
+        <v>134.86841200000001</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" ref="L44" si="104">B44-K44</f>
+        <v>0.1315879999999936</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" ref="M44" si="105">K44/150</f>
+        <v>0.89912274666666669</v>
+      </c>
+      <c r="N44" s="6">
+        <f t="shared" ref="N44" si="106">N43+C44-P44</f>
+        <v>5221.1600000000008</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" ref="O44" si="107">N44*D44</f>
+        <v>5716.1259680000012</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="6">
+        <f t="shared" ref="R44" si="108">R43+Q44</f>
+        <v>1480.91</v>
+      </c>
+      <c r="S44" s="6">
+        <f t="shared" ref="S44" si="109">R44+O44</f>
+        <v>7197.035968000001</v>
+      </c>
+      <c r="T44">
+        <f t="shared" ref="T44" si="110">T43+B44</f>
+        <v>6465</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" ref="U44" si="111">S44/T44-1</f>
+        <v>0.11323062150038687</v>
+      </c>
+      <c r="V44" s="4">
+        <f t="shared" ref="V44" si="112">O44/(T44-R44)-1</f>
+        <v>0.14687454841305048</v>
+      </c>
+      <c r="W44" s="1">
+        <f t="shared" ref="W44" si="113">R44/S44</f>
+        <v>0.20576665263096264</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{97C2E941-0B08-D04E-A558-71A6284C31B0}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="between">
       <formula>-0.45</formula>
       <formula>0.45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5152,7 +5239,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5166,7 +5253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5179,9 +5266,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9 F11:F43">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="F9 F11:F44">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C88D5F72-975B-5542-AAB3-16725ABF7833}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5220,6 +5321,17 @@
           </x14:cfRule>
           <xm:sqref>V1:V1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C88D5F72-975B-5542-AAB3-16725ABF7833}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FF00B050"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -5228,20 +5340,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="38" customWidth="1"/>
@@ -5276,14 +5389,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>0.92689999999999995</v>
+        <v>0.9103</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>182</v>
       </c>
       <c r="H1" s="21" t="str">
         <f>"盈利"&amp;ROUND(SUM(H2:H20000),2)</f>
-        <v>盈利1227.22</v>
+        <v>盈利1154.2</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -5338,7 +5451,7 @@
       <c r="B2" s="26">
         <v>150</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <v>206.73</v>
       </c>
       <c r="D2" s="26">
@@ -5416,7 +5529,7 @@
       <c r="B3" s="26">
         <v>150</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="27">
         <v>207.61</v>
       </c>
       <c r="D3" s="26">
@@ -5495,7 +5608,7 @@
       <c r="B4" s="26">
         <v>150</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="27">
         <v>203.09</v>
       </c>
       <c r="D4" s="26">
@@ -5574,7 +5687,7 @@
       <c r="B5" s="26">
         <v>150</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="27">
         <v>199.68</v>
       </c>
       <c r="D5" s="26">
@@ -5653,7 +5766,7 @@
       <c r="B6" s="26">
         <v>150</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="27">
         <v>200.16</v>
       </c>
       <c r="D6" s="26">
@@ -5732,7 +5845,7 @@
       <c r="B7" s="26">
         <v>150</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="27">
         <v>199.63</v>
       </c>
       <c r="D7" s="26">
@@ -5811,7 +5924,7 @@
       <c r="B8" s="26">
         <v>150</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="27">
         <v>199.95</v>
       </c>
       <c r="D8" s="26">
@@ -5890,7 +6003,7 @@
       <c r="B9" s="26">
         <v>150</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="27">
         <v>198.49</v>
       </c>
       <c r="D9" s="26">
@@ -5969,7 +6082,7 @@
       <c r="B10" s="26">
         <v>150</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="27">
         <v>199.76</v>
       </c>
       <c r="D10" s="26">
@@ -6048,7 +6161,7 @@
       <c r="B11" s="26">
         <v>150</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="27">
         <v>197.11</v>
       </c>
       <c r="D11" s="26">
@@ -6127,7 +6240,7 @@
       <c r="B12" s="26">
         <v>150</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="27">
         <v>197.58</v>
       </c>
       <c r="D12" s="26">
@@ -6206,7 +6319,7 @@
       <c r="B13" s="26">
         <v>150</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="27">
         <v>198.99</v>
       </c>
       <c r="D13" s="26">
@@ -6285,7 +6398,7 @@
       <c r="B14" s="26">
         <v>150</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="27">
         <v>197.08</v>
       </c>
       <c r="D14" s="26">
@@ -6364,7 +6477,7 @@
       <c r="B15" s="26">
         <v>150</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="27">
         <v>195.98</v>
       </c>
       <c r="D15" s="26">
@@ -6443,7 +6556,7 @@
       <c r="B16" s="26">
         <v>150</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="27">
         <v>198.78</v>
       </c>
       <c r="D16" s="26">
@@ -6522,7 +6635,7 @@
       <c r="B17" s="26">
         <v>150</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="27">
         <v>198.44</v>
       </c>
       <c r="D17" s="26">
@@ -6601,7 +6714,7 @@
       <c r="B18" s="26">
         <v>150</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="27">
         <v>197.45</v>
       </c>
       <c r="D18" s="26">
@@ -6680,7 +6793,7 @@
       <c r="B19" s="26">
         <v>150</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="27">
         <v>198.26</v>
       </c>
       <c r="D19" s="26">
@@ -6759,7 +6872,7 @@
       <c r="B20">
         <v>270</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>357.76</v>
       </c>
       <c r="D20">
@@ -6771,12 +6884,12 @@
       </c>
       <c r="F20" s="39">
         <f t="shared" si="1"/>
-        <v>0.22817682962962951</v>
+        <v>0.2061812148148148</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="20">
         <f t="shared" si="2"/>
-        <v>61.607743999999968</v>
+        <v>55.668927999999994</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -6837,7 +6950,7 @@
       <c r="B21">
         <v>270</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>361.93</v>
       </c>
       <c r="D21">
@@ -6849,12 +6962,12 @@
       </c>
       <c r="F21" s="39">
         <f t="shared" si="1"/>
-        <v>0.24249228518518517</v>
+        <v>0.22024029259259259</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="20">
         <f t="shared" si="2"/>
-        <v>65.472916999999995</v>
+        <v>59.464878999999996</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -6915,7 +7028,7 @@
       <c r="B22">
         <v>270</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>365.31</v>
       </c>
       <c r="D22">
@@ -6927,12 +7040,12 @@
       </c>
       <c r="F22" s="39">
         <f t="shared" si="1"/>
-        <v>0.25409570000000004</v>
+        <v>0.23163590000000003</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="20">
         <f t="shared" si="2"/>
-        <v>68.605839000000003</v>
+        <v>62.541693000000009</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
@@ -6993,7 +7106,7 @@
       <c r="B23">
         <v>270</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>368.2</v>
       </c>
       <c r="D23">
@@ -7005,12 +7118,12 @@
       </c>
       <c r="F23" s="39">
         <f t="shared" si="1"/>
-        <v>0.26401696296296279</v>
+        <v>0.24137948148148147</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="20">
         <f t="shared" si="2"/>
-        <v>71.284579999999949</v>
+        <v>65.172460000000001</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -7071,7 +7184,7 @@
       <c r="B24">
         <v>270</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>358.76</v>
       </c>
       <c r="D24">
@@ -7083,12 +7196,12 @@
       </c>
       <c r="F24" s="39">
         <f t="shared" si="1"/>
-        <v>0.23160979259259243</v>
+        <v>0.2095526962962963</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="20">
         <f t="shared" si="2"/>
-        <v>62.534643999999957</v>
+        <v>56.579228000000001</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -7149,7 +7262,7 @@
       <c r="B25">
         <v>270</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>350.56</v>
       </c>
       <c r="D25">
@@ -7161,12 +7274,12 @@
       </c>
       <c r="F25" s="39">
         <f t="shared" si="1"/>
-        <v>0.20345949629629623</v>
+        <v>0.18190654814814824</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="20">
         <f t="shared" si="2"/>
-        <v>54.934063999999978</v>
+        <v>49.114768000000026</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -7227,7 +7340,7 @@
       <c r="B26" s="26">
         <v>120</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="27">
         <v>154.58000000000001</v>
       </c>
       <c r="D26" s="26">
@@ -7307,7 +7420,7 @@
       <c r="B27">
         <v>120</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>152.22999999999999</v>
       </c>
       <c r="D27">
@@ -7319,12 +7432,12 @@
       </c>
       <c r="F27" s="39">
         <f t="shared" si="1"/>
-        <v>0.17584989166666651</v>
+        <v>0.15479140833333319</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="20">
         <f t="shared" si="2"/>
-        <v>21.10198699999998</v>
+        <v>18.574968999999982</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -7385,7 +7498,7 @@
       <c r="B28">
         <v>120</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>151.59</v>
       </c>
       <c r="D28">
@@ -7397,12 +7510,12 @@
       </c>
       <c r="F28" s="39">
         <f t="shared" si="1"/>
-        <v>0.17090642499999997</v>
+        <v>0.14993647500000004</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="20">
         <f t="shared" si="2"/>
-        <v>20.508770999999996</v>
+        <v>17.992377000000005</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -7463,7 +7576,7 @@
       <c r="B29">
         <v>120</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>152.56</v>
       </c>
       <c r="D29">
@@ -7475,12 +7588,12 @@
       </c>
       <c r="F29" s="39">
         <f t="shared" si="1"/>
-        <v>0.17839886666666657</v>
+        <v>0.15729473333333341</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="20">
         <f t="shared" si="2"/>
-        <v>21.407863999999989</v>
+        <v>18.875368000000009</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -7541,7 +7654,7 @@
       <c r="B30">
         <v>120</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>147.63999999999999</v>
       </c>
       <c r="D30">
@@ -7553,12 +7666,12 @@
       </c>
       <c r="F30" s="39">
         <f t="shared" si="1"/>
-        <v>0.14039596666666654</v>
+        <v>0.11997243333333311</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="20">
         <f t="shared" si="2"/>
-        <v>16.847515999999985</v>
+        <v>14.396691999999973</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -7619,7 +7732,7 @@
       <c r="B31">
         <v>105</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>129.06</v>
       </c>
       <c r="D31">
@@ -7631,12 +7744,12 @@
       </c>
       <c r="F31" s="39">
         <f t="shared" si="1"/>
-        <v>0.13929251428571432</v>
+        <v>0.11888874285714283</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="20">
         <f t="shared" si="2"/>
-        <v>14.625714000000002</v>
+        <v>12.483317999999997</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -7697,7 +7810,7 @@
       <c r="B32">
         <v>105</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>129.04</v>
       </c>
       <c r="D32">
@@ -7709,12 +7822,12 @@
       </c>
       <c r="F32" s="39">
         <f t="shared" si="1"/>
-        <v>0.13911596190476172</v>
+        <v>0.11871535238095229</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="20">
         <f t="shared" si="2"/>
-        <v>14.607175999999981</v>
+        <v>12.465111999999991</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -7775,7 +7888,7 @@
       <c r="B33">
         <v>105</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>129.26</v>
       </c>
       <c r="D33">
@@ -7787,12 +7900,12 @@
       </c>
       <c r="F33" s="39">
         <f t="shared" si="1"/>
-        <v>0.14105803809523793</v>
+        <v>0.12062264761904752</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="20">
         <f t="shared" si="2"/>
-        <v>14.811093999999983</v>
+        <v>12.66537799999999</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
@@ -7853,7 +7966,7 @@
       <c r="B34">
         <v>105</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>126.26</v>
       </c>
       <c r="D34">
@@ -7865,12 +7978,12 @@
       </c>
       <c r="F34" s="39">
         <f t="shared" si="1"/>
-        <v>0.11457518095238096</v>
+        <v>9.4614076190476182E-2</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="20">
         <f t="shared" si="2"/>
-        <v>12.030394000000001</v>
+        <v>9.9344779999999986</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -7932,7 +8045,7 @@
       <c r="B35">
         <v>105</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>119.93</v>
       </c>
       <c r="D35">
@@ -7944,12 +8057,12 @@
       </c>
       <c r="F35" s="39">
         <f t="shared" si="1"/>
-        <v>5.8696352380952381E-2</v>
+        <v>3.9735990476190509E-2</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="20">
         <f t="shared" si="2"/>
-        <v>6.1631169999999997</v>
+        <v>4.1722790000000032</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -8011,7 +8124,7 @@
       <c r="B36">
         <v>90</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>102.92</v>
       </c>
       <c r="D36">
@@ -8023,12 +8136,12 @@
       </c>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>5.9961644444444399E-2</v>
+        <v>4.097862222222217E-2</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="20">
         <f t="shared" si="2"/>
-        <v>5.3965479999999957</v>
+        <v>3.6880759999999952</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -8090,7 +8203,7 @@
       <c r="B37">
         <v>90</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>103.33</v>
       </c>
       <c r="D37">
@@ -8102,12 +8215,12 @@
       </c>
       <c r="F37" s="39">
         <f t="shared" si="1"/>
-        <v>6.4184188888888771E-2</v>
+        <v>4.5125544444444506E-2</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="20">
         <f t="shared" si="2"/>
-        <v>5.776576999999989</v>
+        <v>4.0612990000000053</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -8169,7 +8282,7 @@
       <c r="B38">
         <v>90</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>103.2</v>
       </c>
       <c r="D38">
@@ -8181,12 +8294,12 @@
       </c>
       <c r="F38" s="39">
         <f t="shared" si="1"/>
-        <v>6.2845333333333364E-2</v>
+        <v>4.3810666666666657E-2</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="20">
         <f t="shared" si="2"/>
-        <v>5.6560800000000029</v>
+        <v>3.9429599999999994</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -8248,7 +8361,7 @@
       <c r="B39">
         <v>90</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>102.4</v>
       </c>
       <c r="D39">
@@ -8260,12 +8373,12 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" si="1"/>
-        <v>5.460622222222216E-2</v>
+        <v>3.5719111111111111E-2</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="20">
         <f t="shared" si="2"/>
-        <v>4.9145599999999945</v>
+        <v>3.2147199999999998</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -8327,7 +8440,7 @@
       <c r="B40">
         <v>135</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>151.04</v>
       </c>
       <c r="D40">
@@ -8339,12 +8452,12 @@
       </c>
       <c r="F40" s="39">
         <f t="shared" si="1"/>
-        <v>3.7029451851851636E-2</v>
+        <v>1.8457125925925764E-2</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="20">
         <f t="shared" ref="H40" si="57">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>4.9989759999999706</v>
+        <v>2.4917119999999784</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -8406,7 +8519,7 @@
       <c r="B41">
         <v>135</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>147.35</v>
       </c>
       <c r="D41">
@@ -8418,12 +8531,12 @@
       </c>
       <c r="F41" s="39">
         <f t="shared" si="1"/>
-        <v>1.1694185185185099E-2</v>
+        <v>-6.4244074074075019E-3</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="20">
         <f t="shared" ref="H41" si="69">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>1.5787149999999883</v>
+        <v>-0.86729500000001281</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -8489,7 +8602,7 @@
       <c r="B42">
         <v>135</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>144.97</v>
       </c>
       <c r="D42">
@@ -8501,12 +8614,12 @@
       </c>
       <c r="F42" s="39">
         <f t="shared" si="1"/>
-        <v>-4.6467185185185321E-3</v>
+        <v>-2.2472659259259193E-2</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="20">
         <f t="shared" ref="H42" si="81">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-0.62730700000000184</v>
+        <v>-3.0338089999999909</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -8572,7 +8685,7 @@
       <c r="B43">
         <v>135</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>143.21</v>
       </c>
       <c r="D43">
@@ -8584,12 +8697,12 @@
       </c>
       <c r="F43" s="39">
         <f t="shared" si="1"/>
-        <v>-1.6730748148148046E-2</v>
+        <v>-3.4340274074073959E-2</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="20">
         <f t="shared" ref="H43" si="94">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-2.2586509999999862</v>
+        <v>-4.6359369999999842</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -8646,19 +8759,98 @@
       <c r="W43" s="1">
         <f t="shared" ref="W43" si="105">R43/S43</f>
         <v>0.45738945087119531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44">
+        <v>135</v>
+      </c>
+      <c r="C44" s="2">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.9103</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" ref="E44" si="106">10%*M44+13%</f>
+        <v>0.21999832666666669</v>
+      </c>
+      <c r="F44" s="39">
+        <f t="shared" ref="F44" si="107">IF(G44="",($F$1*C44-B44)/B44,H44/B44)</f>
+        <v>-1.8592592592599263E-5</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="20">
+        <f t="shared" ref="H44" si="108">IF(G44="",$F$1*C44-B44,G44-B44)</f>
+        <v>-2.5100000000009004E-3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" ref="K44" si="109">D44*C44</f>
+        <v>134.99749</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" ref="L44" si="110">K44-B44</f>
+        <v>-2.5100000000009004E-3</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" ref="M44" si="111">K44/150</f>
+        <v>0.89998326666666661</v>
+      </c>
+      <c r="N44" s="6">
+        <f t="shared" ref="N44" si="112">N43+C44-P44</f>
+        <v>4546.8100000000022</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" ref="O44" si="113">N44*D44</f>
+        <v>4138.9611430000023</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="6">
+        <f t="shared" ref="R44" si="114">Q44+R43</f>
+        <v>3495.24</v>
+      </c>
+      <c r="S44" s="6">
+        <f t="shared" ref="S44" si="115">O44+R44</f>
+        <v>7634.201143000002</v>
+      </c>
+      <c r="T44">
+        <f t="shared" ref="T44" si="116">T43+B44</f>
+        <v>6480</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" ref="U44" si="117">S44/T44-1</f>
+        <v>0.17811746033950659</v>
+      </c>
+      <c r="V44" s="4">
+        <f t="shared" ref="V44" si="118">O44/(T44-R44)-1</f>
+        <v>0.38669814088905041</v>
+      </c>
+      <c r="W44" s="1">
+        <f t="shared" ref="W44" si="119">R44/S44</f>
+        <v>0.45783965270614807</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{EBD5E519-1AC8-D646-A624-501481F39CB6}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="between">
       <formula>-0.01</formula>
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576 W1">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8670,7 +8862,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8684,7 +8876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8697,9 +8889,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25 F27:F43">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="F20:F25 F27:F44">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>E20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{959877BA-201F-8046-BE97-D3F610C2BCCB}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8737,6 +8943,17 @@
           </x14:cfRule>
           <xm:sqref>V1:V1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{959877BA-201F-8046-BE97-D3F610C2BCCB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FF00B050"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB910E4-1E12-0E40-9ECD-AFD190A3DE91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AC7A8B-5200-114F-9F14-A8FC1C4A2E59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1742,10 +1742,10 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1789,14 +1789,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>1.0948</v>
+        <v>1.1153999999999999</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>182</v>
       </c>
       <c r="H1" s="19" t="str">
         <f>"盈利"&amp;ROUND(SUM(H2:H20000),2)</f>
-        <v>盈利732.04</v>
+        <v>盈利839.59</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -2419,11 +2419,11 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" si="4"/>
-        <v>0.16837056</v>
+        <v>0.19035488000000006</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="5"/>
-        <v>25.255583999999999</v>
+        <v>28.553232000000008</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -2576,11 +2576,11 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="4"/>
-        <v>0.15683866666666668</v>
+        <v>0.17860599999999996</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="5"/>
-        <v>23.525800000000004</v>
+        <v>26.790899999999993</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -2653,11 +2653,11 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" si="4"/>
-        <v>0.15661970666666661</v>
+        <v>0.17838291999999986</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="5"/>
-        <v>23.492955999999992</v>
+        <v>26.757437999999979</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -2730,11 +2730,11 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="4"/>
-        <v>0.16267760000000009</v>
+        <v>0.18455480000000005</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="5"/>
-        <v>24.401640000000015</v>
+        <v>27.683220000000006</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -2807,11 +2807,11 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="4"/>
-        <v>0.14311717333333338</v>
+        <v>0.16462632000000005</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="5"/>
-        <v>21.467576000000008</v>
+        <v>24.693948000000006</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -2884,11 +2884,11 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="4"/>
-        <v>0.13713226666666667</v>
+        <v>0.15852880000000008</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="5"/>
-        <v>20.569839999999999</v>
+        <v>23.779320000000013</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -2961,11 +2961,11 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="4"/>
-        <v>0.15151064</v>
+        <v>0.17317772000000009</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="5"/>
-        <v>22.726596000000001</v>
+        <v>25.976658000000015</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -3038,11 +3038,11 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
-        <v>0.15209453333333328</v>
+        <v>0.17377259999999997</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="5"/>
-        <v>22.814179999999993</v>
+        <v>26.065889999999996</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -3115,11 +3115,11 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="4"/>
-        <v>0.14610962666666674</v>
+        <v>0.16767508</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="5"/>
-        <v>21.916444000000013</v>
+        <v>25.151262000000003</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
@@ -3192,11 +3192,11 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" si="4"/>
-        <v>0.13735122666666674</v>
+        <v>0.15875187999999998</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="5"/>
-        <v>20.602684000000011</v>
+        <v>23.812781999999999</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
@@ -3270,11 +3270,11 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" si="4"/>
-        <v>0.13761884444444439</v>
+        <v>0.1590245333333333</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="5"/>
-        <v>37.157087999999987</v>
+        <v>42.936623999999995</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -3348,11 +3348,11 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="4"/>
-        <v>0.13409115555555554</v>
+        <v>0.15543046666666668</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>36.204611999999997</v>
+        <v>41.966226000000006</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -3426,11 +3426,11 @@
       </c>
       <c r="F22" s="4">
         <f t="shared" si="4"/>
-        <v>0.14262773333333331</v>
+        <v>0.16412767058823527</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="5"/>
-        <v>36.370071999999993</v>
+        <v>41.852555999999993</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
@@ -3504,11 +3504,11 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="4"/>
-        <v>0.13149607407407407</v>
+        <v>0.15278655555555551</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="5"/>
-        <v>35.50394</v>
+        <v>41.252369999999985</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="4"/>
-        <v>0.11673893333333345</v>
+        <v>0.13775174117647054</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="5"/>
-        <v>29.768428000000029</v>
+        <v>35.126693999999986</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -3660,11 +3660,11 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="4"/>
-        <v>9.8105866666666694E-2</v>
+        <v>0.11876807058823537</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="5"/>
-        <v>25.016996000000006</v>
+        <v>30.285858000000019</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -3738,11 +3738,11 @@
       </c>
       <c r="F26" s="4">
         <f t="shared" si="4"/>
-        <v>9.083786666666667E-2</v>
+        <v>0.11136331428571422</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="5"/>
-        <v>9.5379760000000005</v>
+        <v>11.693147999999994</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -3816,11 +3816,11 @@
       </c>
       <c r="F27" s="4">
         <f t="shared" si="4"/>
-        <v>7.0610133333333436E-2</v>
+        <v>9.0754971428571488E-2</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="5"/>
-        <v>7.4140640000000104</v>
+        <v>9.529272000000006</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -3894,11 +3894,11 @@
       </c>
       <c r="F28" s="4">
         <f t="shared" si="4"/>
-        <v>6.913302222222216E-2</v>
+        <v>8.9250066666666641E-2</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="5"/>
-        <v>6.2219719999999938</v>
+        <v>8.0325059999999979</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -3972,11 +3972,11 @@
       </c>
       <c r="F29" s="4">
         <f t="shared" si="4"/>
-        <v>8.8231199999999885E-2</v>
+        <v>0.10870759999999993</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="5"/>
-        <v>7.9408079999999899</v>
+        <v>9.7836839999999938</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -4050,11 +4050,11 @@
       </c>
       <c r="F30" s="4">
         <f t="shared" si="4"/>
-        <v>5.6603644444444497E-2</v>
+        <v>7.6484933333333213E-2</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="5"/>
-        <v>5.0943280000000044</v>
+        <v>6.8836439999999897</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -4128,11 +4128,11 @@
       </c>
       <c r="F31" s="4">
         <f t="shared" si="4"/>
-        <v>5.8549955555555436E-2</v>
+        <v>7.8467866666666608E-2</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="5"/>
-        <v>5.2694959999999895</v>
+        <v>7.0621079999999949</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -4206,11 +4206,11 @@
       </c>
       <c r="F32" s="4">
         <f t="shared" si="4"/>
-        <v>5.5143911111110971E-2</v>
+        <v>7.4997733333333219E-2</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="5"/>
-        <v>4.9629519999999872</v>
+        <v>6.7497959999999892</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -4284,11 +4284,11 @@
       </c>
       <c r="F33" s="4">
         <f t="shared" si="4"/>
-        <v>5.7698444444444399E-2</v>
+        <v>7.7600333333333382E-2</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="5"/>
-        <v>5.192859999999996</v>
+        <v>6.9840300000000042</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
@@ -4362,11 +4362,11 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" si="4"/>
-        <v>3.5802444444444526E-2</v>
+        <v>5.5292333333333311E-2</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="5"/>
-        <v>3.2222200000000072</v>
+        <v>4.976309999999998</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -4440,11 +4440,11 @@
       </c>
       <c r="F35" s="4">
         <f t="shared" si="4"/>
-        <v>-1.9464681481481547E-2</v>
+        <v>-1.0147111111111658E-3</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="5"/>
-        <v>-2.6277320000000088</v>
+        <v>-0.13698600000000738</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -4522,11 +4522,11 @@
       </c>
       <c r="F36" s="4">
         <f t="shared" si="4"/>
-        <v>-8.2733925925925558E-3</v>
+        <v>1.0387155555555536E-2</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ref="H36" si="33">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>-1.1169079999999951</v>
+        <v>1.4022659999999973</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -4600,11 +4600,11 @@
       </c>
       <c r="F37" s="4">
         <f t="shared" si="4"/>
-        <v>-6.4892740740739793E-3</v>
+        <v>1.2204844444444361E-2</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:H39" si="44">IF(G37="",$F$1*C37-B37,G37-B37)</f>
-        <v>-0.87605199999998717</v>
+        <v>1.6476539999999886</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -4678,11 +4678,11 @@
       </c>
       <c r="F38" s="4">
         <f t="shared" si="4"/>
-        <v>-4.056385185185086E-3</v>
+        <v>1.4683511111111035E-2</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="44"/>
-        <v>-0.54761199999998666</v>
+        <v>1.9822739999999897</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -4756,11 +4756,11 @@
       </c>
       <c r="F39" s="4">
         <f t="shared" si="4"/>
-        <v>-2.4330459259259331E-2</v>
+        <v>-5.9720444444445143E-3</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="44"/>
-        <v>-3.2846120000000099</v>
+        <v>-0.80622600000000944</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -4834,11 +4834,11 @@
       </c>
       <c r="F40" s="4">
         <f t="shared" si="4"/>
-        <v>-3.5035170370370378E-2</v>
+        <v>-1.6878177777777881E-2</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40" si="49">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>-4.7297480000000007</v>
+        <v>-2.278554000000014</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -4916,11 +4916,11 @@
       </c>
       <c r="F41" s="4">
         <f t="shared" si="4"/>
-        <v>-4.0387525925925899E-2</v>
+        <v>-2.2331244444444565E-2</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ref="H41" si="61">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-5.4523159999999962</v>
+        <v>-3.0147180000000162</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -4998,11 +4998,11 @@
       </c>
       <c r="F42" s="4">
         <f t="shared" ref="F42" si="73">IF(G42="",($F$1*C42-B42)/B42,H42/B42)</f>
-        <v>-4.8172770370370314E-2</v>
+        <v>-3.026297777777771E-2</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" ref="H42" si="74">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-6.5033239999999921</v>
+        <v>-4.0855019999999911</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -5080,11 +5080,11 @@
       </c>
       <c r="F43" s="4">
         <f t="shared" ref="F43" si="87">IF(G43="",($F$1*C43-B43)/B43,H43/B43)</f>
-        <v>-3.8927792592592478E-2</v>
+        <v>-2.0844044444444348E-2</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" ref="H43" si="88">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-5.2552519999999845</v>
+        <v>-2.8139459999999872</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -5158,11 +5158,11 @@
       </c>
       <c r="F44" s="4">
         <f t="shared" ref="F44" si="101">IF(G44="",($F$1*C44-B44)/B44,H44/B44)</f>
-        <v>-9.7472592592587847E-4</v>
+        <v>1.782315555555556E-2</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" ref="H44" si="102">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>-0.1315879999999936</v>
+        <v>2.4061260000000004</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
@@ -5343,10 +5343,10 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5389,14 +5389,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>0.9103</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>182</v>
       </c>
       <c r="H1" s="21" t="str">
         <f>"盈利"&amp;ROUND(SUM(H2:H20000),2)</f>
-        <v>盈利1154.2</v>
+        <v>盈利1311.98</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="F20" s="39">
         <f t="shared" si="1"/>
-        <v>0.2061812148148148</v>
+        <v>0.25215999999999994</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="20">
         <f t="shared" si="2"/>
-        <v>55.668927999999994</v>
+        <v>68.083199999999977</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -6962,12 +6962,12 @@
       </c>
       <c r="F21" s="39">
         <f t="shared" si="1"/>
-        <v>0.22024029259259259</v>
+        <v>0.26675499999999991</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="20">
         <f t="shared" si="2"/>
-        <v>59.464878999999996</v>
+        <v>72.023849999999982</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -7040,12 +7040,12 @@
       </c>
       <c r="F22" s="39">
         <f t="shared" si="1"/>
-        <v>0.23163590000000003</v>
+        <v>0.27858499999999992</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="20">
         <f t="shared" si="2"/>
-        <v>62.541693000000009</v>
+        <v>75.217949999999973</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
@@ -7118,12 +7118,12 @@
       </c>
       <c r="F23" s="39">
         <f t="shared" si="1"/>
-        <v>0.24137948148148147</v>
+        <v>0.28869999999999985</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="20">
         <f t="shared" si="2"/>
-        <v>65.172460000000001</v>
+        <v>77.948999999999955</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -7196,12 +7196,12 @@
       </c>
       <c r="F24" s="39">
         <f t="shared" si="1"/>
-        <v>0.2095526962962963</v>
+        <v>0.25565999999999989</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="20">
         <f t="shared" si="2"/>
-        <v>56.579228000000001</v>
+        <v>69.02819999999997</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -7274,12 +7274,12 @@
       </c>
       <c r="F25" s="39">
         <f t="shared" si="1"/>
-        <v>0.18190654814814824</v>
+        <v>0.22696000000000002</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="20">
         <f t="shared" si="2"/>
-        <v>49.114768000000026</v>
+        <v>61.279200000000003</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -7432,12 +7432,12 @@
       </c>
       <c r="F27" s="39">
         <f t="shared" si="1"/>
-        <v>0.15479140833333319</v>
+        <v>0.19881124999999997</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="20">
         <f t="shared" si="2"/>
-        <v>18.574968999999982</v>
+        <v>23.857349999999997</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -7510,12 +7510,12 @@
       </c>
       <c r="F28" s="39">
         <f t="shared" si="1"/>
-        <v>0.14993647500000004</v>
+        <v>0.19377124999999987</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="20">
         <f t="shared" si="2"/>
-        <v>17.992377000000005</v>
+        <v>23.252549999999985</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -7588,12 +7588,12 @@
       </c>
       <c r="F29" s="39">
         <f t="shared" si="1"/>
-        <v>0.15729473333333341</v>
+        <v>0.20140999999999992</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="20">
         <f t="shared" si="2"/>
-        <v>18.875368000000009</v>
+        <v>24.169199999999989</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -7666,12 +7666,12 @@
       </c>
       <c r="F30" s="39">
         <f t="shared" si="1"/>
-        <v>0.11997243333333311</v>
+        <v>0.16266499999999978</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="20">
         <f t="shared" si="2"/>
-        <v>14.396691999999973</v>
+        <v>19.519799999999975</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -7744,12 +7744,12 @@
       </c>
       <c r="F31" s="39">
         <f t="shared" si="1"/>
-        <v>0.11888874285714283</v>
+        <v>0.16153999999999993</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="20">
         <f t="shared" si="2"/>
-        <v>12.483317999999997</v>
+        <v>16.961699999999993</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -7822,12 +7822,12 @@
       </c>
       <c r="F32" s="39">
         <f t="shared" si="1"/>
-        <v>0.11871535238095229</v>
+        <v>0.16135999999999992</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="20">
         <f t="shared" si="2"/>
-        <v>12.465111999999991</v>
+        <v>16.942799999999991</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -7900,12 +7900,12 @@
       </c>
       <c r="F33" s="39">
         <f t="shared" si="1"/>
-        <v>0.12062264761904752</v>
+        <v>0.16333999999999987</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="20">
         <f t="shared" si="2"/>
-        <v>12.66537799999999</v>
+        <v>17.150699999999986</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
@@ -7978,12 +7978,12 @@
       </c>
       <c r="F34" s="39">
         <f t="shared" si="1"/>
-        <v>9.4614076190476182E-2</v>
+        <v>0.13633999999999993</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="20">
         <f t="shared" si="2"/>
-        <v>9.9344779999999986</v>
+        <v>14.315699999999993</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -8057,12 +8057,12 @@
       </c>
       <c r="F35" s="39">
         <f t="shared" si="1"/>
-        <v>3.9735990476190509E-2</v>
+        <v>7.9369999999999982E-2</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="20">
         <f t="shared" si="2"/>
-        <v>4.1722790000000032</v>
+        <v>8.3338499999999982</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -8136,12 +8136,12 @@
       </c>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>4.097862222222217E-2</v>
+        <v>8.0659999999999996E-2</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="20">
         <f t="shared" si="2"/>
-        <v>3.6880759999999952</v>
+        <v>7.2593999999999994</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -8215,12 +8215,12 @@
       </c>
       <c r="F37" s="39">
         <f t="shared" si="1"/>
-        <v>4.5125544444444506E-2</v>
+        <v>8.4964999999999846E-2</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="20">
         <f t="shared" si="2"/>
-        <v>4.0612990000000053</v>
+        <v>7.6468499999999864</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -8294,12 +8294,12 @@
       </c>
       <c r="F38" s="39">
         <f t="shared" si="1"/>
-        <v>4.3810666666666657E-2</v>
+        <v>8.3600000000000008E-2</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="20">
         <f t="shared" si="2"/>
-        <v>3.9429599999999994</v>
+        <v>7.5240000000000009</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -8373,12 +8373,12 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" si="1"/>
-        <v>3.5719111111111111E-2</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="20">
         <f t="shared" si="2"/>
-        <v>3.2147199999999998</v>
+        <v>6.7680000000000007</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -8452,12 +8452,12 @@
       </c>
       <c r="F40" s="39">
         <f t="shared" si="1"/>
-        <v>1.8457125925925764E-2</v>
+        <v>5.7279999999999984E-2</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="20">
         <f t="shared" ref="H40" si="57">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>2.4917119999999784</v>
+        <v>7.7327999999999975</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -8531,12 +8531,12 @@
       </c>
       <c r="F41" s="39">
         <f t="shared" si="1"/>
-        <v>-6.4244074074075019E-3</v>
+        <v>3.1449999999999902E-2</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="20">
         <f t="shared" ref="H41" si="69">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-0.86729500000001281</v>
+        <v>4.2457499999999868</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -8614,12 +8614,12 @@
       </c>
       <c r="F42" s="39">
         <f t="shared" si="1"/>
-        <v>-2.2472659259259193E-2</v>
+        <v>1.4789999999999913E-2</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="20">
         <f t="shared" ref="H42" si="81">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-3.0338089999999909</v>
+        <v>1.9966499999999883</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -8697,12 +8697,12 @@
       </c>
       <c r="F43" s="39">
         <f t="shared" si="1"/>
-        <v>-3.4340274074073959E-2</v>
+        <v>2.4699999999999935E-3</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="20">
         <f t="shared" ref="H43" si="94">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-4.6359369999999842</v>
+        <v>0.33344999999999914</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -8780,12 +8780,12 @@
       </c>
       <c r="F44" s="39">
         <f t="shared" ref="F44" si="107">IF(G44="",($F$1*C44-B44)/B44,H44/B44)</f>
-        <v>-1.8592592592599263E-5</v>
+        <v>3.8100000000000127E-2</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="20">
         <f t="shared" ref="H44" si="108">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>-2.5100000000009004E-3</v>
+        <v>5.1435000000000173</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AC7A8B-5200-114F-9F14-A8FC1C4A2E59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A8E904-3191-0048-AAF5-F6D1E3D94418}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="238">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -714,9 +714,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zz500_20190212</t>
-  </si>
-  <si>
     <t>zz500_20190213</t>
   </si>
   <si>
@@ -889,27 +886,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10290131购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10290201购入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10290211购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290213购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290214购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290215购入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1218,6 +1199,153 @@
   </si>
   <si>
     <t>20190308购入</t>
+  </si>
+  <si>
+    <t>zz500_20190311</t>
+  </si>
+  <si>
+    <t>10290311购入</t>
+  </si>
+  <si>
+    <t>zz500_20190312</t>
+  </si>
+  <si>
+    <t>10290312购入</t>
+  </si>
+  <si>
+    <t>zz500_20190313</t>
+  </si>
+  <si>
+    <t>10290313购入</t>
+  </si>
+  <si>
+    <t>zz500_20190314</t>
+  </si>
+  <si>
+    <t>10290314购入</t>
+  </si>
+  <si>
+    <t>zz500_20190315</t>
+  </si>
+  <si>
+    <t>10290315购入</t>
+  </si>
+  <si>
+    <t>hs300_20190311</t>
+  </si>
+  <si>
+    <t>20190311购入</t>
+  </si>
+  <si>
+    <t>hs300_20190312</t>
+  </si>
+  <si>
+    <t>20190312购入</t>
+  </si>
+  <si>
+    <t>hs300_20190313</t>
+  </si>
+  <si>
+    <t>20190313购入</t>
+  </si>
+  <si>
+    <t>hs300_20190314</t>
+  </si>
+  <si>
+    <t>20190314购入</t>
+  </si>
+  <si>
+    <t>hs300_20190315</t>
+  </si>
+  <si>
+    <t>20190315购入</t>
+  </si>
+  <si>
+    <t>10290213购入,20190319售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290215购入,20190319售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售</t>
+    <rPh sb="0" eb="1">
+      <t>ci'you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290131购入,20190321售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290214购入,20190321售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190318</t>
+  </si>
+  <si>
+    <t>20190318购入</t>
+  </si>
+  <si>
+    <t>hs300_20190319</t>
+  </si>
+  <si>
+    <t>20190319购入</t>
+  </si>
+  <si>
+    <t>hs300_20190320</t>
+  </si>
+  <si>
+    <t>20190320购入</t>
+  </si>
+  <si>
+    <t>hs300_20190321</t>
+  </si>
+  <si>
+    <t>20190321购入</t>
+  </si>
+  <si>
+    <t>hs300_20190322</t>
+  </si>
+  <si>
+    <t>20190322购入</t>
+  </si>
+  <si>
+    <t>zz500_20190318</t>
+  </si>
+  <si>
+    <t>10290318购入</t>
+  </si>
+  <si>
+    <t>zz500_20190319</t>
+  </si>
+  <si>
+    <t>10290319购入</t>
+  </si>
+  <si>
+    <t>zz500_20190320</t>
+  </si>
+  <si>
+    <t>10290320购入</t>
+  </si>
+  <si>
+    <t>zz500_20190321</t>
+  </si>
+  <si>
+    <t>10290321购入</t>
+  </si>
+  <si>
+    <t>zz500_20190322</t>
+  </si>
+  <si>
+    <t>10290322购入</t>
+  </si>
+  <si>
+    <t>zz500_20190212</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1428,7 +1556,24 @@
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1739,13 +1884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1789,14 +1934,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>1.1153999999999999</v>
+        <v>1.1503000000000001</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H1" s="19" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H20000),2)</f>
-        <v>盈利839.59</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19995),2)</f>
+        <v>盈利1043.65</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -1811,37 +1956,37 @@
         <v>54</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O1" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>147</v>
-      </c>
       <c r="T1" s="24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="U1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1872,10 +2017,10 @@
         <v>35.52000000000001</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K34" si="0">D2*C2</f>
@@ -1950,10 +2095,10 @@
         <v>35.789999999999992</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
@@ -2030,10 +2175,10 @@
         <v>34.669999999999987</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
@@ -2109,10 +2254,10 @@
         <v>34.72999999999999</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
@@ -2189,10 +2334,10 @@
         <v>35.039999999999992</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
@@ -2269,10 +2414,10 @@
         <v>34.659999999999997</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
@@ -2349,10 +2494,10 @@
         <v>35.099999999999994</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
@@ -2419,17 +2564,17 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" si="4"/>
-        <v>0.19035488000000006</v>
+        <v>0.22760016000000027</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="5"/>
-        <v>28.553232000000008</v>
+        <v>34.140024000000039</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -2506,10 +2651,10 @@
         <v>35.400000000000006</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -2576,17 +2721,17 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="4"/>
-        <v>0.17860599999999996</v>
+        <v>0.21548366666666671</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="5"/>
-        <v>26.790899999999993</v>
+        <v>32.322550000000007</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
@@ -2653,17 +2798,17 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" si="4"/>
-        <v>0.17838291999999986</v>
+        <v>0.21525360666666682</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="5"/>
-        <v>26.757437999999979</v>
+        <v>32.288041000000021</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
@@ -2730,17 +2875,17 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="4"/>
-        <v>0.18455480000000005</v>
+        <v>0.22161860000000028</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="5"/>
-        <v>27.683220000000006</v>
+        <v>33.242790000000042</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
@@ -2807,17 +2952,17 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="4"/>
-        <v>0.16462632000000005</v>
+        <v>0.20106657333333355</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="5"/>
-        <v>24.693948000000006</v>
+        <v>30.159986000000032</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
@@ -2884,17 +3029,17 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="4"/>
-        <v>0.15852880000000008</v>
+        <v>0.19477826666666678</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="5"/>
-        <v>23.779320000000013</v>
+        <v>29.216740000000016</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
@@ -2961,17 +3106,17 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="4"/>
-        <v>0.17317772000000009</v>
+        <v>0.20988554000000023</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="5"/>
-        <v>25.976658000000015</v>
+        <v>31.482831000000033</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
@@ -3038,17 +3183,17 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
-        <v>0.17377259999999997</v>
+        <v>0.21049903333333342</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="5"/>
-        <v>26.065889999999996</v>
+        <v>31.574855000000014</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
@@ -3115,17 +3260,17 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="4"/>
-        <v>0.16767508</v>
+        <v>0.20421072666666684</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="5"/>
-        <v>25.151262000000003</v>
+        <v>30.631609000000026</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="0"/>
@@ -3192,17 +3337,17 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" si="4"/>
-        <v>0.15875187999999998</v>
+        <v>0.19500832666666687</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="5"/>
-        <v>23.812781999999999</v>
+        <v>29.25124900000003</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
@@ -3270,17 +3415,17 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" si="4"/>
-        <v>0.1590245333333333</v>
+        <v>0.19528951111111126</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="5"/>
-        <v>42.936623999999995</v>
+        <v>52.728168000000039</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
@@ -3348,17 +3493,17 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="4"/>
-        <v>0.15543046666666668</v>
+        <v>0.191582988888889</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>41.966226000000006</v>
+        <v>51.727407000000028</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
@@ -3426,17 +3571,17 @@
       </c>
       <c r="F22" s="4">
         <f t="shared" si="4"/>
-        <v>0.16412767058823527</v>
+        <v>0.20055232156862754</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="5"/>
-        <v>41.852555999999993</v>
+        <v>51.140842000000021</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="0"/>
@@ -3504,17 +3649,17 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="4"/>
-        <v>0.15278655555555551</v>
+        <v>0.18885635185185209</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="5"/>
-        <v>41.252369999999985</v>
+        <v>50.991215000000068</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="0"/>
@@ -3582,17 +3727,17 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="4"/>
-        <v>0.13775174117647054</v>
+        <v>0.17335110980392168</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="5"/>
-        <v>35.126693999999986</v>
+        <v>44.204533000000026</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="0"/>
@@ -3660,17 +3805,17 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="4"/>
-        <v>0.11876807058823537</v>
+        <v>0.1537734549019609</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="5"/>
-        <v>30.285858000000019</v>
+        <v>39.212231000000031</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="0"/>
@@ -3738,17 +3883,17 @@
       </c>
       <c r="F26" s="4">
         <f t="shared" si="4"/>
-        <v>0.11136331428571422</v>
+        <v>0.14613700952380965</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="5"/>
-        <v>11.693147999999994</v>
+        <v>15.344386000000014</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
@@ -3816,17 +3961,17 @@
       </c>
       <c r="F27" s="4">
         <f t="shared" si="4"/>
-        <v>9.0754971428571488E-2</v>
+        <v>0.12488384761904772</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="5"/>
-        <v>9.529272000000006</v>
+        <v>13.112804000000011</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="0"/>
@@ -3894,17 +4039,17 @@
       </c>
       <c r="F28" s="4">
         <f t="shared" si="4"/>
-        <v>8.9250066666666641E-2</v>
+        <v>0.12333185555555559</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="5"/>
-        <v>8.0325059999999979</v>
+        <v>11.099867000000003</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="0"/>
@@ -3972,17 +4117,17 @@
       </c>
       <c r="F29" s="4">
         <f t="shared" si="4"/>
-        <v>0.10870759999999993</v>
+        <v>0.14339820000000003</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="5"/>
-        <v>9.7836839999999938</v>
+        <v>12.905838000000003</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="0"/>
@@ -4033,7 +4178,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>90</v>
@@ -4050,17 +4195,17 @@
       </c>
       <c r="F30" s="4">
         <f t="shared" si="4"/>
-        <v>7.6484933333333213E-2</v>
+        <v>0.11016731111111114</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="5"/>
-        <v>6.8836439999999897</v>
+        <v>9.9150580000000019</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="0"/>
@@ -4111,7 +4256,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31">
         <v>90</v>
@@ -4128,17 +4273,17 @@
       </c>
       <c r="F31" s="4">
         <f t="shared" si="4"/>
-        <v>7.8467866666666608E-2</v>
+        <v>0.11221228888888896</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="5"/>
-        <v>7.0621079999999949</v>
+        <v>10.099106000000006</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="0"/>
@@ -4189,7 +4334,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32">
         <v>90</v>
@@ -4206,17 +4351,17 @@
       </c>
       <c r="F32" s="4">
         <f t="shared" si="4"/>
-        <v>7.4997733333333219E-2</v>
+        <v>0.10863357777777781</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="5"/>
-        <v>6.7497959999999892</v>
+        <v>9.7770220000000023</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="0"/>
@@ -4267,7 +4412,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <v>90</v>
@@ -4284,17 +4429,17 @@
       </c>
       <c r="F33" s="4">
         <f t="shared" si="4"/>
-        <v>7.7600333333333382E-2</v>
+        <v>0.11131761111111128</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="5"/>
-        <v>6.9840300000000042</v>
+        <v>10.018585000000016</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="0"/>
@@ -4345,7 +4490,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34">
         <v>90</v>
@@ -4362,17 +4507,17 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" si="4"/>
-        <v>5.5292333333333311E-2</v>
+        <v>8.8311611111111354E-2</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="5"/>
-        <v>4.976309999999998</v>
+        <v>7.9480450000000218</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="0"/>
@@ -4423,7 +4568,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B35">
         <v>135</v>
@@ -4440,17 +4585,17 @@
       </c>
       <c r="F35" s="4">
         <f t="shared" si="4"/>
-        <v>-1.0147111111111658E-3</v>
+        <v>3.0242762962962987E-2</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="5"/>
-        <v>-0.13698600000000738</v>
+        <v>4.0827730000000031</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" ref="K35" si="25">D35*C35</f>
@@ -4505,7 +4650,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B36">
         <v>135</v>
@@ -4522,17 +4667,17 @@
       </c>
       <c r="F36" s="4">
         <f t="shared" si="4"/>
-        <v>1.0387155555555536E-2</v>
+        <v>4.2001385185185383E-2</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ref="H36" si="33">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>1.4022659999999973</v>
+        <v>5.670187000000027</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" ref="K36" si="34">D36*C36</f>
@@ -4583,7 +4728,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B37">
         <v>135</v>
@@ -4600,17 +4745,17 @@
       </c>
       <c r="F37" s="4">
         <f t="shared" si="4"/>
-        <v>1.2204844444444361E-2</v>
+        <v>4.3875948148148269E-2</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:H39" si="44">IF(G37="",$F$1*C37-B37,G37-B37)</f>
-        <v>1.6476539999999886</v>
+        <v>5.9232530000000168</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" ref="K37:K39" si="45">D37*C37</f>
@@ -4661,7 +4806,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B38">
         <v>135</v>
@@ -4678,17 +4823,17 @@
       </c>
       <c r="F38" s="4">
         <f t="shared" si="4"/>
-        <v>1.4683511111111035E-2</v>
+        <v>4.6432170370370486E-2</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="44"/>
-        <v>1.9822739999999897</v>
+        <v>6.2683430000000158</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="45"/>
@@ -4739,7 +4884,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B39">
         <v>135</v>
@@ -4756,17 +4901,17 @@
       </c>
       <c r="F39" s="4">
         <f t="shared" si="4"/>
-        <v>-5.9720444444445143E-3</v>
+        <v>2.5130318518518557E-2</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="44"/>
-        <v>-0.80622600000000944</v>
+        <v>3.3925930000000051</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="45"/>
@@ -4817,7 +4962,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B40">
         <v>135</v>
@@ -4834,17 +4979,17 @@
       </c>
       <c r="F40" s="4">
         <f t="shared" si="4"/>
-        <v>-1.6878177777777881E-2</v>
+        <v>1.3882940740740811E-2</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40" si="49">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>-2.278554000000014</v>
+        <v>1.8741970000000094</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" ref="K40" si="50">D40*C40</f>
@@ -4899,7 +5044,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B41">
         <v>135</v>
@@ -4916,17 +5061,17 @@
       </c>
       <c r="F41" s="4">
         <f t="shared" si="4"/>
-        <v>-2.2331244444444565E-2</v>
+        <v>8.2592518518519384E-3</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ref="H41" si="61">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-3.0147180000000162</v>
+        <v>1.1149990000000116</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" ref="K41" si="62">D41*C41</f>
@@ -4981,7 +5126,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B42">
         <v>135</v>
@@ -4998,17 +5143,17 @@
       </c>
       <c r="F42" s="4">
         <f t="shared" ref="F42" si="73">IF(G42="",($F$1*C42-B42)/B42,H42/B42)</f>
-        <v>-3.026297777777771E-2</v>
+        <v>7.9340740740850313E-5</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" ref="H42" si="74">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-4.0855019999999911</v>
+        <v>1.0711000000014792E-2</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" ref="K42" si="75">D42*C42</f>
@@ -5063,7 +5208,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B43">
         <v>135</v>
@@ -5080,17 +5225,17 @@
       </c>
       <c r="F43" s="4">
         <f t="shared" ref="F43" si="87">IF(G43="",($F$1*C43-B43)/B43,H43/B43)</f>
-        <v>-2.0844044444444348E-2</v>
+        <v>9.792985185185267E-3</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" ref="H43" si="88">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-2.8139459999999872</v>
+        <v>1.322053000000011</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" ref="K43" si="89">D43*C43</f>
@@ -5141,7 +5286,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B44">
         <v>135</v>
@@ -5158,17 +5303,17 @@
       </c>
       <c r="F44" s="4">
         <f t="shared" ref="F44" si="101">IF(G44="",($F$1*C44-B44)/B44,H44/B44)</f>
-        <v>1.782315555555556E-2</v>
+        <v>4.9670051851851818E-2</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" ref="H44" si="102">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>2.4061260000000004</v>
+        <v>6.7054569999999956</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" ref="K44" si="103">D44*C44</f>
@@ -5217,11 +5362,791 @@
         <v>0.20576665263096264</v>
       </c>
     </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45">
+        <v>135</v>
+      </c>
+      <c r="C45" s="2">
+        <v>120.88</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.1156999999999999</v>
+      </c>
+      <c r="E45" s="23">
+        <f t="shared" ref="E45:E49" si="114">10%*M45+13%</f>
+        <v>0.21991054399999999</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" ref="F45:F49" si="115">IF(G45="",($F$1*C45-B45)/B45,H45/B45)</f>
+        <v>2.998714074074087E-2</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" ref="H45:H49" si="116">IF(G45="",$F$1*C45-B45,G45-B45)</f>
+        <v>4.0482640000000174</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>203</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" ref="K45:K49" si="117">D45*C45</f>
+        <v>134.865816</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" ref="L45:L49" si="118">B45-K45</f>
+        <v>0.13418400000000474</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" ref="M45:M49" si="119">K45/150</f>
+        <v>0.89910543999999992</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" ref="N45:N49" si="120">N44+C45-P45</f>
+        <v>5342.0400000000009</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" ref="O45:O49" si="121">N45*D45</f>
+        <v>5960.1140280000009</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="6">
+        <f t="shared" ref="R45:R49" si="122">R44+Q45</f>
+        <v>1480.91</v>
+      </c>
+      <c r="S45" s="6">
+        <f t="shared" ref="S45:S49" si="123">R45+O45</f>
+        <v>7441.0240280000007</v>
+      </c>
+      <c r="T45">
+        <f t="shared" ref="T45:T49" si="124">T44+B45</f>
+        <v>6600</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" ref="U45:U49" si="125">S45/T45-1</f>
+        <v>0.12742788303030306</v>
+      </c>
+      <c r="V45" s="4">
+        <f t="shared" ref="V45:V49" si="126">O45/(T45-R45)-1</f>
+        <v>0.16429170575238983</v>
+      </c>
+      <c r="W45" s="1">
+        <f t="shared" ref="W45:W49" si="127">R45/S45</f>
+        <v>0.19901965030988339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46">
+        <v>135</v>
+      </c>
+      <c r="C46" s="2">
+        <v>120.11</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1.1229</v>
+      </c>
+      <c r="E46" s="23">
+        <f t="shared" si="114"/>
+        <v>0.21991434600000001</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="115"/>
+        <v>2.3426170370370553E-2</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="116"/>
+        <v>3.1625330000000247</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" t="s">
+        <v>205</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="117"/>
+        <v>134.87151900000001</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="118"/>
+        <v>0.12848099999999363</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="119"/>
+        <v>0.89914346000000001</v>
+      </c>
+      <c r="N46" s="6">
+        <f t="shared" si="120"/>
+        <v>5462.1500000000005</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="121"/>
+        <v>6133.4482350000008</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="6">
+        <f t="shared" si="122"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S46" s="6">
+        <f t="shared" si="123"/>
+        <v>7614.3582350000006</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="124"/>
+        <v>6735</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="125"/>
+        <v>0.13056543949517452</v>
+      </c>
+      <c r="V46" s="4">
+        <f t="shared" si="126"/>
+        <v>0.16736642025545834</v>
+      </c>
+      <c r="W46" s="1">
+        <f t="shared" si="127"/>
+        <v>0.19448914199924033</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47">
+        <v>135</v>
+      </c>
+      <c r="C47" s="2">
+        <v>121.07</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="E47" s="23">
+        <f t="shared" si="114"/>
+        <v>0.21991465333333335</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="115"/>
+        <v>3.1606081481481432E-2</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="116"/>
+        <v>4.2668209999999931</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>207</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="117"/>
+        <v>134.87198000000001</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="118"/>
+        <v>0.12801999999999225</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="119"/>
+        <v>0.89914653333333339</v>
+      </c>
+      <c r="N47" s="6">
+        <f t="shared" si="120"/>
+        <v>5583.22</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="121"/>
+        <v>6219.707080000001</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="6">
+        <f t="shared" si="122"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S47" s="6">
+        <f t="shared" si="123"/>
+        <v>7700.6170800000009</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="124"/>
+        <v>6870</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="125"/>
+        <v>0.12090496069869006</v>
+      </c>
+      <c r="V47" s="4">
+        <f t="shared" si="126"/>
+        <v>0.15412937620266143</v>
+      </c>
+      <c r="W47" s="1">
+        <f t="shared" si="127"/>
+        <v>0.1923105622075679</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48">
+        <v>135</v>
+      </c>
+      <c r="C48" s="2">
+        <v>121.87</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1.1067</v>
+      </c>
+      <c r="E48" s="23">
+        <f t="shared" si="114"/>
+        <v>0.21991568600000003</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="115"/>
+        <v>3.8422674074074285E-2</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="116"/>
+        <v>5.1870610000000283</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>209</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="117"/>
+        <v>134.87352900000002</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="118"/>
+        <v>0.1264709999999809</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="119"/>
+        <v>0.89915686000000017</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="120"/>
+        <v>5705.09</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="121"/>
+        <v>6313.8231030000006</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="6">
+        <f t="shared" si="122"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S48" s="6">
+        <f t="shared" si="123"/>
+        <v>7794.7331030000005</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="124"/>
+        <v>7005</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="125"/>
+        <v>0.11273848722341184</v>
+      </c>
+      <c r="V48" s="4">
+        <f t="shared" si="126"/>
+        <v>0.14296166481719164</v>
+      </c>
+      <c r="W48" s="1">
+        <f t="shared" si="127"/>
+        <v>0.18998854488424169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49">
+        <v>135</v>
+      </c>
+      <c r="C49" s="2">
+        <v>120.42</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E49" s="23">
+        <f t="shared" si="114"/>
+        <v>0.21991360000000004</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="115"/>
+        <v>2.60676E-2</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="116"/>
+        <v>3.519126</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>211</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="117"/>
+        <v>134.87040000000002</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="118"/>
+        <v>0.12959999999998217</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="119"/>
+        <v>0.89913600000000016</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" si="120"/>
+        <v>5825.51</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="121"/>
+        <v>6524.5712000000012</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="6">
+        <f t="shared" si="122"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S49" s="6">
+        <f t="shared" si="123"/>
+        <v>8005.4812000000011</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="124"/>
+        <v>7140</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="125"/>
+        <v>0.12121585434173676</v>
+      </c>
+      <c r="V49" s="4">
+        <f t="shared" si="126"/>
+        <v>0.15293646151589768</v>
+      </c>
+      <c r="W49" s="1">
+        <f t="shared" si="127"/>
+        <v>0.18498700615273445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50">
+        <v>135</v>
+      </c>
+      <c r="C50" s="2">
+        <v>117.24</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1.1504000000000001</v>
+      </c>
+      <c r="E50" s="23">
+        <f t="shared" ref="E50:E54" si="128">10%*M50+13%</f>
+        <v>0.219915264</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" ref="F50:F54" si="129">IF(G50="",($F$1*C50-B50)/B50,H50/B50)</f>
+        <v>-1.0283555555554778E-3</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" ref="H50:H54" si="130">IF(G50="",$F$1*C50-B50,G50-B50)</f>
+        <v>-0.13882799999998952</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" t="s">
+        <v>218</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" ref="K50:K54" si="131">D50*C50</f>
+        <v>134.872896</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" ref="L50:L54" si="132">B50-K50</f>
+        <v>0.12710400000000277</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" ref="M50:M54" si="133">K50/150</f>
+        <v>0.89915263999999995</v>
+      </c>
+      <c r="N50" s="6">
+        <f t="shared" ref="N50:N54" si="134">N49+C50-P50</f>
+        <v>5942.75</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" ref="O50:O54" si="135">N50*D50</f>
+        <v>6836.539600000001</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="6">
+        <f t="shared" ref="R50:R54" si="136">R49+Q50</f>
+        <v>1480.91</v>
+      </c>
+      <c r="S50" s="6">
+        <f t="shared" ref="S50:S54" si="137">R50+O50</f>
+        <v>8317.4496000000017</v>
+      </c>
+      <c r="T50">
+        <f t="shared" ref="T50:T54" si="138">T49+B50</f>
+        <v>7275</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" ref="U50:U54" si="139">S50/T50-1</f>
+        <v>0.1432920412371137</v>
+      </c>
+      <c r="V50" s="4">
+        <f t="shared" ref="V50:V54" si="140">O50/(T50-R50)-1</f>
+        <v>0.17991601787338496</v>
+      </c>
+      <c r="W50" s="1">
+        <f t="shared" ref="W50:W54" si="141">R50/S50</f>
+        <v>0.17804856911907224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51">
+        <v>135</v>
+      </c>
+      <c r="C51" s="2">
+        <v>117.78</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1.1451</v>
+      </c>
+      <c r="E51" s="23">
+        <f t="shared" si="128"/>
+        <v>0.219913252</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="129"/>
+        <v>3.5728444444445089E-3</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="130"/>
+        <v>0.4823340000000087</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" t="s">
+        <v>220</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="131"/>
+        <v>134.869878</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="132"/>
+        <v>0.13012200000000007</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="133"/>
+        <v>0.89913251999999999</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="134"/>
+        <v>6060.53</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="135"/>
+        <v>6939.9129029999995</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="6">
+        <f t="shared" si="136"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S51" s="6">
+        <f t="shared" si="137"/>
+        <v>8420.8229030000002</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="138"/>
+        <v>7410</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="139"/>
+        <v>0.13641334723346832</v>
+      </c>
+      <c r="V51" s="4">
+        <f t="shared" si="140"/>
+        <v>0.17048533636696339</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="141"/>
+        <v>0.17586286008608629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52">
+        <v>135</v>
+      </c>
+      <c r="C52" s="2">
+        <v>117.74</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1.1455</v>
+      </c>
+      <c r="E52" s="23">
+        <f t="shared" si="128"/>
+        <v>0.21991411333333333</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" si="129"/>
+        <v>3.2320148148149504E-3</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="130"/>
+        <v>0.43632200000001831</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" t="s">
+        <v>222</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="131"/>
+        <v>134.87116999999998</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="132"/>
+        <v>0.12883000000002198</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="133"/>
+        <v>0.89914113333333323</v>
+      </c>
+      <c r="N52" s="6">
+        <f t="shared" si="134"/>
+        <v>6178.2699999999995</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="135"/>
+        <v>7077.2082849999988</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="6">
+        <f t="shared" si="136"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S52" s="6">
+        <f t="shared" si="137"/>
+        <v>8558.1182849999987</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="138"/>
+        <v>7545</v>
+      </c>
+      <c r="U52" s="4">
+        <f t="shared" si="139"/>
+        <v>0.13427677733598387</v>
+      </c>
+      <c r="V52" s="4">
+        <f t="shared" si="140"/>
+        <v>0.16706847771058775</v>
+      </c>
+      <c r="W52" s="1">
+        <f t="shared" si="141"/>
+        <v>0.17304154379305828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53">
+        <v>135</v>
+      </c>
+      <c r="C53" s="2">
+        <v>117.7</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1.1458999999999999</v>
+      </c>
+      <c r="E53" s="23">
+        <f t="shared" si="128"/>
+        <v>0.21991495333333333</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="129"/>
+        <v>2.8911851851853919E-3</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="130"/>
+        <v>0.39031000000002791</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" t="s">
+        <v>224</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="131"/>
+        <v>134.87242999999998</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="132"/>
+        <v>0.12757000000001995</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="133"/>
+        <v>0.89914953333333325</v>
+      </c>
+      <c r="N53" s="6">
+        <f t="shared" si="134"/>
+        <v>6295.9699999999993</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="135"/>
+        <v>7214.5520229999984</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="6">
+        <f t="shared" si="136"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S53" s="6">
+        <f t="shared" si="137"/>
+        <v>8695.4620229999982</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="138"/>
+        <v>7680</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="139"/>
+        <v>0.13222161757812478</v>
+      </c>
+      <c r="V53" s="4">
+        <f t="shared" si="140"/>
+        <v>0.16380824008039863</v>
+      </c>
+      <c r="W53" s="1">
+        <f t="shared" si="141"/>
+        <v>0.170308374193678</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54">
+        <v>135</v>
+      </c>
+      <c r="C54" s="2">
+        <v>117.78</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1.1451</v>
+      </c>
+      <c r="E54" s="23">
+        <f t="shared" si="128"/>
+        <v>0.219913252</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="129"/>
+        <v>3.5728444444445089E-3</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="130"/>
+        <v>0.4823340000000087</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="131"/>
+        <v>134.869878</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="132"/>
+        <v>0.13012200000000007</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="133"/>
+        <v>0.89913251999999999</v>
+      </c>
+      <c r="N54" s="6">
+        <f t="shared" si="134"/>
+        <v>6413.7499999999991</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="135"/>
+        <v>7344.3851249999989</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="6">
+        <f t="shared" si="136"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S54" s="6">
+        <f t="shared" si="137"/>
+        <v>8825.2951249999987</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="138"/>
+        <v>7815</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="139"/>
+        <v>0.12927640754958403</v>
+      </c>
+      <c r="V54" s="4">
+        <f t="shared" si="140"/>
+        <v>0.15950122669554712</v>
+      </c>
+      <c r="W54" s="1">
+        <f t="shared" si="141"/>
+        <v>0.16780288693178408</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{97C2E941-0B08-D04E-A558-71A6284C31B0}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
       <formula>-0.45</formula>
       <formula>0.45</formula>
     </cfRule>
@@ -5266,8 +6191,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9 F11:F44">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="F9 F11:F54">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>E9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5340,21 +6265,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="38" customWidth="1"/>
@@ -5389,14 +6313,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>0.94499999999999995</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H1" s="21" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H20000),2)</f>
-        <v>盈利1311.98</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19996),2)</f>
+        <v>盈利1439.82</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -5411,37 +6335,37 @@
         <v>54</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O1" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="T1" t="s">
         <v>55</v>
       </c>
       <c r="U1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="W1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -5454,7 +6378,7 @@
       <c r="C2" s="27">
         <v>206.73</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="28">
         <v>0.72560000000000002</v>
       </c>
       <c r="E2" s="32">
@@ -5472,10 +6396,10 @@
         <v>39.409999999999997</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K2" s="2">
         <f>D2*C2</f>
@@ -5532,7 +6456,7 @@
       <c r="C3" s="27">
         <v>207.61</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="28">
         <v>0.72250000000000003</v>
       </c>
       <c r="E3" s="32">
@@ -5550,10 +6474,10 @@
         <v>40.210000000000008</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K7" si="3">D3*C3</f>
@@ -5611,7 +6535,7 @@
       <c r="C4" s="27">
         <v>203.09</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="28">
         <v>0.73860000000000003</v>
       </c>
       <c r="E4" s="32">
@@ -5629,10 +6553,10 @@
         <v>36.069999999999993</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="3"/>
@@ -5690,7 +6614,7 @@
       <c r="C5" s="27">
         <v>199.68</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="28">
         <v>0.75119999999999998</v>
       </c>
       <c r="E5" s="32">
@@ -5708,10 +6632,10 @@
         <v>35.930000000000007</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="3"/>
@@ -5769,7 +6693,7 @@
       <c r="C6" s="27">
         <v>200.16</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="28">
         <v>0.74939999999999996</v>
       </c>
       <c r="E6" s="32">
@@ -5787,10 +6711,10 @@
         <v>36.379999999999995</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
@@ -5848,7 +6772,7 @@
       <c r="C7" s="27">
         <v>199.63</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="28">
         <v>0.75139999999999996</v>
       </c>
       <c r="E7" s="32">
@@ -5866,10 +6790,10 @@
         <v>35.879999999999995</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
@@ -5927,7 +6851,7 @@
       <c r="C8" s="27">
         <v>199.95</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="28">
         <v>0.75019999999999998</v>
       </c>
       <c r="E8" s="32">
@@ -5945,10 +6869,10 @@
         <v>36.28</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:K9" si="12">D8*C8</f>
@@ -6006,7 +6930,7 @@
       <c r="C9" s="27">
         <v>198.49</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="28">
         <v>0.75570000000000004</v>
       </c>
       <c r="E9" s="32">
@@ -6024,10 +6948,10 @@
         <v>34.819999999999993</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="12"/>
@@ -6085,7 +7009,7 @@
       <c r="C10" s="27">
         <v>199.76</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="28">
         <v>0.75090000000000001</v>
       </c>
       <c r="E10" s="32">
@@ -6103,10 +7027,10 @@
         <v>36.009999999999991</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" ref="K10:K13" si="13">D10*C10</f>
@@ -6164,7 +7088,7 @@
       <c r="C11" s="27">
         <v>197.11</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="28">
         <v>0.76100000000000001</v>
       </c>
       <c r="E11" s="32">
@@ -6182,10 +7106,10 @@
         <v>35.819999999999993</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="13"/>
@@ -6243,7 +7167,7 @@
       <c r="C12" s="27">
         <v>197.58</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="28">
         <v>0.75919999999999999</v>
       </c>
       <c r="E12" s="32">
@@ -6261,10 +7185,10 @@
         <v>36.259999999999991</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="13"/>
@@ -6322,7 +7246,7 @@
       <c r="C13" s="27">
         <v>198.99</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="28">
         <v>0.75380000000000003</v>
       </c>
       <c r="E13" s="32">
@@ -6340,10 +7264,10 @@
         <v>35.289999999999992</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="13"/>
@@ -6401,7 +7325,7 @@
       <c r="C14" s="27">
         <v>197.08</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="28">
         <v>0.7611</v>
       </c>
       <c r="E14" s="32">
@@ -6419,10 +7343,10 @@
         <v>35.78</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" ref="K14" si="15">D14*C14</f>
@@ -6480,7 +7404,7 @@
       <c r="C15" s="27">
         <v>195.98</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="28">
         <v>0.76539999999999997</v>
       </c>
       <c r="E15" s="32">
@@ -6498,10 +7422,10 @@
         <v>34.75</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ref="K15:K19" si="16">D15*C15</f>
@@ -6559,7 +7483,7 @@
       <c r="C16" s="27">
         <v>198.78</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="28">
         <v>0.75460000000000005</v>
       </c>
       <c r="E16" s="32">
@@ -6577,10 +7501,10 @@
         <v>35.090000000000003</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="16"/>
@@ -6638,7 +7562,7 @@
       <c r="C17" s="27">
         <v>198.44</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="28">
         <v>0.75590000000000002</v>
       </c>
       <c r="E17" s="32">
@@ -6656,10 +7580,10 @@
         <v>34.789999999999992</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="16"/>
@@ -6717,7 +7641,7 @@
       <c r="C18" s="27">
         <v>197.45</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="28">
         <v>0.75970000000000004</v>
       </c>
       <c r="E18" s="32">
@@ -6735,10 +7659,10 @@
         <v>36.139999999999986</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="16"/>
@@ -6796,7 +7720,7 @@
       <c r="C19" s="27">
         <v>198.26</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="28">
         <v>0.75660000000000005</v>
       </c>
       <c r="E19" s="32">
@@ -6814,10 +7738,10 @@
         <v>34.610000000000014</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="16"/>
@@ -6875,7 +7799,7 @@
       <c r="C20" s="2">
         <v>357.76</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>0.75470000000000004</v>
       </c>
       <c r="E20" s="1">
@@ -6884,18 +7808,18 @@
       </c>
       <c r="F20" s="39">
         <f t="shared" si="1"/>
-        <v>0.25215999999999994</v>
+        <v>0.28263585185185175</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="20">
         <f t="shared" si="2"/>
-        <v>68.083199999999977</v>
+        <v>76.311679999999967</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ref="K20:K23" si="17">D20*C20</f>
@@ -6953,7 +7877,7 @@
       <c r="C21" s="2">
         <v>361.93</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>0.746</v>
       </c>
       <c r="E21" s="1">
@@ -6962,18 +7886,18 @@
       </c>
       <c r="F21" s="39">
         <f t="shared" si="1"/>
-        <v>0.26675499999999991</v>
+        <v>0.297586074074074</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="20">
         <f t="shared" si="2"/>
-        <v>72.023849999999982</v>
+        <v>80.348239999999976</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="17"/>
@@ -7031,7 +7955,7 @@
       <c r="C22" s="2">
         <v>365.31</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>0.73909999999999998</v>
       </c>
       <c r="E22" s="1">
@@ -7040,18 +7964,18 @@
       </c>
       <c r="F22" s="39">
         <f t="shared" si="1"/>
-        <v>0.27858499999999992</v>
+        <v>0.30970399999999992</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="20">
         <f t="shared" si="2"/>
-        <v>75.217949999999973</v>
+        <v>83.620079999999973</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="17"/>
@@ -7100,36 +8024,38 @@
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="26">
         <v>270</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="27">
         <v>368.2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="28">
         <v>0.73329999999999995</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="32">
         <f t="shared" si="18"/>
         <v>0.31000070666666668</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="30">
         <f t="shared" si="1"/>
-        <v>0.28869999999999985</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="20">
+        <v>0.31607407407407401</v>
+      </c>
+      <c r="G23" s="31">
+        <v>355.34</v>
+      </c>
+      <c r="H23" s="33">
         <f t="shared" si="2"/>
-        <v>77.948999999999955</v>
-      </c>
-      <c r="I23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" t="s">
-        <v>109</v>
+        <v>85.339999999999975</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>215</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="17"/>
@@ -7187,7 +8113,7 @@
       <c r="C24" s="2">
         <v>358.76</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>0.75260000000000005</v>
       </c>
       <c r="E24" s="1">
@@ -7196,18 +8122,18 @@
       </c>
       <c r="F24" s="39">
         <f t="shared" si="1"/>
-        <v>0.25565999999999989</v>
+        <v>0.286221037037037</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="20">
         <f t="shared" si="2"/>
-        <v>69.02819999999997</v>
+        <v>77.279679999999985</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" ref="K24" si="19">D24*C24</f>
@@ -7265,7 +8191,7 @@
       <c r="C25" s="2">
         <v>350.56</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>0.7702</v>
       </c>
       <c r="E25" s="1">
@@ -7274,18 +8200,18 @@
       </c>
       <c r="F25" s="39">
         <f t="shared" si="1"/>
-        <v>0.22696000000000002</v>
+        <v>0.25682251851851856</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="20">
         <f t="shared" si="2"/>
-        <v>61.279200000000003</v>
+        <v>69.34208000000001</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" ref="K25" si="21">D25*C25</f>
@@ -7335,7 +8261,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="34" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="B26" s="26">
         <v>120</v>
@@ -7343,7 +8269,7 @@
       <c r="C26" s="27">
         <v>154.58000000000001</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="28">
         <v>0.77629999999999999</v>
       </c>
       <c r="E26" s="32">
@@ -7362,10 +8288,10 @@
         <v>25.72</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" ref="K26:K29" si="25">D26*C26</f>
@@ -7414,36 +8340,38 @@
       </c>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="26">
         <v>120</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="27">
         <v>152.22999999999999</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="28">
         <v>0.7883</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="32">
         <f t="shared" si="18"/>
         <v>0.21000193933333333</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="30">
         <f t="shared" si="1"/>
-        <v>0.19881124999999997</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="20">
+        <v>0.21024999999999991</v>
+      </c>
+      <c r="G27" s="31">
+        <v>145.22999999999999</v>
+      </c>
+      <c r="H27" s="33">
         <f t="shared" si="2"/>
-        <v>23.857349999999997</v>
-      </c>
-      <c r="I27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" t="s">
-        <v>112</v>
+        <v>25.22999999999999</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="25"/>
@@ -7492,36 +8420,38 @@
       </c>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28">
+      <c r="A28" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="26">
         <v>120</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="27">
         <v>151.59</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="28">
         <v>0.79159999999999997</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="32">
         <f t="shared" si="18"/>
         <v>0.209999096</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="30">
         <f t="shared" si="1"/>
-        <v>0.19377124999999987</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="20">
+        <v>0.21916666666666676</v>
+      </c>
+      <c r="G28" s="31">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="H28" s="33">
         <f t="shared" si="2"/>
-        <v>23.252549999999985</v>
-      </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" t="s">
-        <v>113</v>
+        <v>26.300000000000011</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>216</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="25"/>
@@ -7570,36 +8500,38 @@
       </c>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="26">
         <v>120</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="27">
         <v>152.56</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="28">
         <v>0.78659999999999997</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="32">
         <f t="shared" si="18"/>
         <v>0.210002464</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="30">
         <f t="shared" si="1"/>
-        <v>0.20140999999999992</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="20">
+        <v>0.21283333333333326</v>
+      </c>
+      <c r="G29" s="31">
+        <v>145.54</v>
+      </c>
+      <c r="H29" s="33">
         <f t="shared" si="2"/>
-        <v>24.169199999999989</v>
-      </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" t="s">
-        <v>114</v>
+        <v>25.539999999999992</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="25"/>
@@ -7649,7 +8581,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>120</v>
@@ -7657,7 +8589,7 @@
       <c r="C30" s="2">
         <v>147.63999999999999</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>0.81279999999999997</v>
       </c>
       <c r="E30" s="1">
@@ -7666,18 +8598,18 @@
       </c>
       <c r="F30" s="39">
         <f t="shared" si="1"/>
-        <v>0.16266499999999978</v>
+        <v>0.19096266666666656</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="20">
         <f t="shared" si="2"/>
-        <v>19.519799999999975</v>
+        <v>22.915519999999987</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" ref="K30" si="29">D30*C30</f>
@@ -7727,7 +8659,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>105</v>
@@ -7735,7 +8667,7 @@
       <c r="C31" s="2">
         <v>129.06</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0.81359999999999999</v>
       </c>
       <c r="E31" s="1">
@@ -7744,18 +8676,18 @@
       </c>
       <c r="F31" s="39">
         <f t="shared" si="1"/>
-        <v>0.16153999999999993</v>
+        <v>0.18981028571428574</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="20">
         <f t="shared" si="2"/>
-        <v>16.961699999999993</v>
+        <v>19.930080000000004</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" ref="K31:K34" si="33">D31*C31</f>
@@ -7805,7 +8737,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <v>105</v>
@@ -7813,7 +8745,7 @@
       <c r="C32" s="2">
         <v>129.04</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>0.81369999999999998</v>
       </c>
       <c r="E32" s="1">
@@ -7822,18 +8754,18 @@
       </c>
       <c r="F32" s="39">
         <f t="shared" si="1"/>
-        <v>0.16135999999999992</v>
+        <v>0.18962590476190461</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="20">
         <f t="shared" si="2"/>
-        <v>16.942799999999991</v>
+        <v>19.910719999999984</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="33"/>
@@ -7883,7 +8815,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>105</v>
@@ -7891,7 +8823,7 @@
       <c r="C33" s="2">
         <v>129.26</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>0.81230000000000002</v>
       </c>
       <c r="E33" s="1">
@@ -7900,18 +8832,18 @@
       </c>
       <c r="F33" s="39">
         <f t="shared" si="1"/>
-        <v>0.16333999999999987</v>
+        <v>0.19165409523809518</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="20">
         <f t="shared" si="2"/>
-        <v>17.150699999999986</v>
+        <v>20.123679999999993</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="33"/>
@@ -7961,7 +8893,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>105</v>
@@ -7969,7 +8901,7 @@
       <c r="C34" s="2">
         <v>126.26</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>0.83160000000000001</v>
       </c>
       <c r="E34" s="1">
@@ -7978,18 +8910,18 @@
       </c>
       <c r="F34" s="39">
         <f t="shared" si="1"/>
-        <v>0.13633999999999993</v>
+        <v>0.16399695238095235</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="20">
         <f t="shared" si="2"/>
-        <v>14.315699999999993</v>
+        <v>17.219679999999997</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="33"/>
@@ -8040,7 +8972,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B35">
         <v>105</v>
@@ -8048,7 +8980,7 @@
       <c r="C35" s="2">
         <v>119.93</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>0.87549999999999994</v>
       </c>
       <c r="E35" s="1">
@@ -8057,18 +8989,18 @@
       </c>
       <c r="F35" s="39">
         <f t="shared" si="1"/>
-        <v>7.9369999999999982E-2</v>
+        <v>0.10564038095238099</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="20">
         <f t="shared" si="2"/>
-        <v>8.3338499999999982</v>
+        <v>11.092240000000004</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" ref="K35:K36" si="38">D35*C35</f>
@@ -8119,7 +9051,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B36">
         <v>90</v>
@@ -8127,7 +9059,7 @@
       <c r="C36" s="2">
         <v>102.92</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>0.87450000000000006</v>
       </c>
       <c r="E36" s="1">
@@ -8136,18 +9068,18 @@
       </c>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>8.0659999999999996E-2</v>
+        <v>0.10696177777777775</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="20">
         <f t="shared" si="2"/>
-        <v>7.2593999999999994</v>
+        <v>9.6265599999999978</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="38"/>
@@ -8198,7 +9130,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B37">
         <v>90</v>
@@ -8206,7 +9138,7 @@
       <c r="C37" s="2">
         <v>103.33</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>0.871</v>
       </c>
       <c r="E37" s="1">
@@ -8215,18 +9147,18 @@
       </c>
       <c r="F37" s="39">
         <f t="shared" si="1"/>
-        <v>8.4964999999999846E-2</v>
+        <v>0.11137155555555549</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="20">
         <f t="shared" si="2"/>
-        <v>7.6468499999999864</v>
+        <v>10.023439999999994</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" ref="K37:K39" si="47">D37*C37</f>
@@ -8277,7 +9209,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B38">
         <v>90</v>
@@ -8285,7 +9217,7 @@
       <c r="C38" s="2">
         <v>103.2</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>0.87209999999999999</v>
       </c>
       <c r="E38" s="1">
@@ -8294,18 +9226,18 @@
       </c>
       <c r="F38" s="39">
         <f t="shared" si="1"/>
-        <v>8.3600000000000008E-2</v>
+        <v>0.1099733333333333</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="20">
         <f t="shared" si="2"/>
-        <v>7.5240000000000009</v>
+        <v>9.8975999999999971</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="47"/>
@@ -8356,7 +9288,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B39">
         <v>90</v>
@@ -8364,7 +9296,7 @@
       <c r="C39" s="2">
         <v>102.4</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>0.87890000000000001</v>
       </c>
       <c r="E39" s="1">
@@ -8373,18 +9305,18 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" si="1"/>
-        <v>7.5200000000000003E-2</v>
+        <v>0.10136888888888886</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="20">
         <f t="shared" si="2"/>
-        <v>6.7680000000000007</v>
+        <v>9.1231999999999971</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="47"/>
@@ -8435,7 +9367,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B40">
         <v>135</v>
@@ -8443,7 +9375,7 @@
       <c r="C40" s="2">
         <v>151.04</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>0.89380000000000004</v>
       </c>
       <c r="E40" s="1">
@@ -8452,18 +9384,18 @@
       </c>
       <c r="F40" s="39">
         <f t="shared" si="1"/>
-        <v>5.7279999999999984E-2</v>
+        <v>8.3012740740740665E-2</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="20">
         <f t="shared" ref="H40" si="57">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>7.7327999999999975</v>
+        <v>11.20671999999999</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" ref="K40" si="58">D40*C40</f>
@@ -8514,7 +9446,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B41">
         <v>135</v>
@@ -8522,7 +9454,7 @@
       <c r="C41" s="2">
         <v>147.35</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>0.91620000000000001</v>
       </c>
       <c r="E41" s="1">
@@ -8531,18 +9463,18 @@
       </c>
       <c r="F41" s="39">
         <f t="shared" si="1"/>
-        <v>3.1449999999999902E-2</v>
+        <v>5.6554074074073958E-2</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="20">
         <f t="shared" ref="H41" si="69">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>4.2457499999999868</v>
+        <v>7.6347999999999843</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" ref="K41" si="70">D41*C41</f>
@@ -8597,7 +9529,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="36" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B42">
         <v>135</v>
@@ -8605,7 +9537,7 @@
       <c r="C42" s="2">
         <v>144.97</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>0.93120000000000003</v>
       </c>
       <c r="E42" s="1">
@@ -8614,18 +9546,18 @@
       </c>
       <c r="F42" s="39">
         <f t="shared" si="1"/>
-        <v>1.4789999999999913E-2</v>
+        <v>3.9488592592592624E-2</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="20">
         <f t="shared" ref="H42" si="81">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>1.9966499999999883</v>
+        <v>5.3309600000000046</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" ref="K42" si="82">D42*C42</f>
@@ -8680,7 +9612,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B43">
         <v>135</v>
@@ -8688,7 +9620,7 @@
       <c r="C43" s="2">
         <v>143.21</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>0.94269999999999998</v>
       </c>
       <c r="E43" s="1">
@@ -8697,18 +9629,18 @@
       </c>
       <c r="F43" s="39">
         <f t="shared" si="1"/>
-        <v>2.4699999999999935E-3</v>
+        <v>2.6868740740740839E-2</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="20">
         <f t="shared" ref="H43" si="94">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>0.33344999999999914</v>
+        <v>3.6272800000000132</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" ref="K43" si="95">D43*C43</f>
@@ -8763,7 +9695,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="36" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B44">
         <v>135</v>
@@ -8771,7 +9703,7 @@
       <c r="C44" s="2">
         <v>148.30000000000001</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>0.9103</v>
       </c>
       <c r="E44" s="1">
@@ -8780,18 +9712,18 @@
       </c>
       <c r="F44" s="39">
         <f t="shared" ref="F44" si="107">IF(G44="",($F$1*C44-B44)/B44,H44/B44)</f>
-        <v>3.8100000000000127E-2</v>
+        <v>6.3365925925926034E-2</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="20">
         <f t="shared" ref="H44" si="108">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>5.1435000000000173</v>
+        <v>8.5544000000000153</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" ref="K44" si="109">D44*C44</f>
@@ -8840,11 +9772,809 @@
         <v>0.45783965270614807</v>
       </c>
     </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45">
+        <v>135</v>
+      </c>
+      <c r="C45" s="2">
+        <v>143.05000000000001</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" ref="E45:E49" si="120">10%*M45+13%</f>
+        <v>0.21999752333333333</v>
+      </c>
+      <c r="F45" s="39">
+        <f t="shared" ref="F45:F49" si="121">IF(G45="",($F$1*C45-B45)/B45,H45/B45)</f>
+        <v>2.5721481481481432E-2</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="20">
+        <f t="shared" ref="H45:H49" si="122">IF(G45="",$F$1*C45-B45,G45-B45)</f>
+        <v>3.4723999999999933</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>193</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" ref="K45:K49" si="123">D45*C45</f>
+        <v>134.996285</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" ref="L45:L49" si="124">K45-B45</f>
+        <v>-3.7149999999996908E-3</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" ref="M45:M49" si="125">K45/150</f>
+        <v>0.89997523333333329</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" ref="N45:N49" si="126">N44+C45-P45</f>
+        <v>4689.8600000000024</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" ref="O45:O49" si="127">N45*D45</f>
+        <v>4425.8208820000018</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="6">
+        <f t="shared" ref="R45:R49" si="128">Q45+R44</f>
+        <v>3495.24</v>
+      </c>
+      <c r="S45" s="6">
+        <f t="shared" ref="S45:S49" si="129">O45+R45</f>
+        <v>7921.0608820000016</v>
+      </c>
+      <c r="T45">
+        <f t="shared" ref="T45:T49" si="130">T44+B45</f>
+        <v>6615</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" ref="U45:U49" si="131">S45/T45-1</f>
+        <v>0.19743928677248701</v>
+      </c>
+      <c r="V45" s="4">
+        <f t="shared" ref="V45:V49" si="132">O45/(T45-R45)-1</f>
+        <v>0.41864146024053173</v>
+      </c>
+      <c r="W45" s="1">
+        <f t="shared" ref="W45:W49" si="133">R45/S45</f>
+        <v>0.44125907527647745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46">
+        <v>135</v>
+      </c>
+      <c r="C46" s="2">
+        <v>140.77000000000001</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="120"/>
+        <v>0.21999895333333336</v>
+      </c>
+      <c r="F46" s="39">
+        <f t="shared" si="121"/>
+        <v>9.3730370370371501E-3</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="20">
+        <f t="shared" si="122"/>
+        <v>1.2653600000000154</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" t="s">
+        <v>195</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="123"/>
+        <v>134.99843000000001</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="124"/>
+        <v>-1.5699999999867487E-3</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="125"/>
+        <v>0.89998953333333342</v>
+      </c>
+      <c r="N46" s="6">
+        <f t="shared" si="126"/>
+        <v>4830.6300000000028</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="127"/>
+        <v>4632.5741700000026</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="6">
+        <f t="shared" si="128"/>
+        <v>3495.24</v>
+      </c>
+      <c r="S46" s="6">
+        <f t="shared" si="129"/>
+        <v>8127.8141700000024</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="130"/>
+        <v>6750</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="131"/>
+        <v>0.20412061777777812</v>
+      </c>
+      <c r="V46" s="4">
+        <f t="shared" si="132"/>
+        <v>0.42332281642886183</v>
+      </c>
+      <c r="W46" s="1">
+        <f t="shared" si="133"/>
+        <v>0.43003443815202269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47">
+        <v>135</v>
+      </c>
+      <c r="C47" s="2">
+        <v>143.88999999999999</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="120"/>
+        <v>0.21999839866666665</v>
+      </c>
+      <c r="F47" s="39">
+        <f t="shared" si="121"/>
+        <v>3.1744592592592526E-2</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="20">
+        <f t="shared" si="122"/>
+        <v>4.2855199999999911</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>197</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="123"/>
+        <v>134.99759799999998</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="124"/>
+        <v>-2.4020000000177788E-3</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="125"/>
+        <v>0.89998398666666657</v>
+      </c>
+      <c r="N47" s="6">
+        <f t="shared" si="126"/>
+        <v>4974.5200000000032</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="127"/>
+        <v>4667.0946640000029</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="6">
+        <f t="shared" si="128"/>
+        <v>3495.24</v>
+      </c>
+      <c r="S47" s="6">
+        <f t="shared" si="129"/>
+        <v>8162.3346640000027</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="130"/>
+        <v>6885</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="131"/>
+        <v>0.18552427944807581</v>
+      </c>
+      <c r="V47" s="4">
+        <f t="shared" si="132"/>
+        <v>0.37682156376852727</v>
+      </c>
+      <c r="W47" s="1">
+        <f t="shared" si="133"/>
+        <v>0.4282157181591395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48">
+        <v>135</v>
+      </c>
+      <c r="C48" s="2">
+        <v>147.12</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="120"/>
+        <v>0.219998208</v>
+      </c>
+      <c r="F48" s="39">
+        <f t="shared" si="121"/>
+        <v>5.4904888888888892E-2</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="20">
+        <f t="shared" si="122"/>
+        <v>7.4121600000000001</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>199</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="123"/>
+        <v>134.99731199999999</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="124"/>
+        <v>-2.688000000006241E-3</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="125"/>
+        <v>0.89998207999999991</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="126"/>
+        <v>5121.6400000000031</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="127"/>
+        <v>4699.6168640000024</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="6">
+        <f t="shared" si="128"/>
+        <v>3495.24</v>
+      </c>
+      <c r="S48" s="6">
+        <f t="shared" si="129"/>
+        <v>8194.8568640000012</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="130"/>
+        <v>7020</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="131"/>
+        <v>0.16735852763532777</v>
+      </c>
+      <c r="V48" s="4">
+        <f t="shared" si="132"/>
+        <v>0.33331542119179813</v>
+      </c>
+      <c r="W48" s="1">
+        <f t="shared" si="133"/>
+        <v>0.42651629650233258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49">
+        <v>135</v>
+      </c>
+      <c r="C49" s="2">
+        <v>145.58000000000001</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="120"/>
+        <v>0.21999755600000004</v>
+      </c>
+      <c r="F49" s="39">
+        <f t="shared" si="121"/>
+        <v>4.3862518518518655E-2</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="20">
+        <f t="shared" si="122"/>
+        <v>5.9214400000000182</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>201</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="123"/>
+        <v>134.99633400000002</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="124"/>
+        <v>-3.6659999999812953E-3</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="125"/>
+        <v>0.89997556000000012</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" si="126"/>
+        <v>5267.220000000003</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="127"/>
+        <v>4884.2931060000028</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="6">
+        <f t="shared" si="128"/>
+        <v>3495.24</v>
+      </c>
+      <c r="S49" s="6">
+        <f t="shared" si="129"/>
+        <v>8379.5331060000026</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="130"/>
+        <v>7155</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="131"/>
+        <v>0.17114369056603818</v>
+      </c>
+      <c r="V49" s="4">
+        <f t="shared" si="132"/>
+        <v>0.33459382746409672</v>
+      </c>
+      <c r="W49" s="1">
+        <f t="shared" si="133"/>
+        <v>0.41711631850911846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50">
+        <v>135</v>
+      </c>
+      <c r="C50" s="2">
+        <v>142.02000000000001</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.9506</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" ref="E50:E54" si="134">10%*M50+13%</f>
+        <v>0.22000280800000002</v>
+      </c>
+      <c r="F50" s="39">
+        <f t="shared" ref="F50:F54" si="135">IF(G50="",($F$1*C50-B50)/B50,H50/B50)</f>
+        <v>1.8335999999999963E-2</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="20">
+        <f t="shared" ref="H50:H54" si="136">IF(G50="",$F$1*C50-B50,G50-B50)</f>
+        <v>2.4753599999999949</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" t="s">
+        <v>228</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" ref="K50:K54" si="137">D50*C50</f>
+        <v>135.00421200000002</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" ref="L50:L54" si="138">K50-B50</f>
+        <v>4.2120000000238633E-3</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" ref="M50:M54" si="139">K50/150</f>
+        <v>0.90002808000000012</v>
+      </c>
+      <c r="N50" s="6">
+        <f t="shared" ref="N50:N54" si="140">N49+C50-P50</f>
+        <v>5409.2400000000034</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" ref="O50:O54" si="141">N50*D50</f>
+        <v>5142.0235440000033</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="6">
+        <f t="shared" ref="R50:R54" si="142">Q50+R49</f>
+        <v>3495.24</v>
+      </c>
+      <c r="S50" s="6">
+        <f t="shared" ref="S50:S54" si="143">O50+R50</f>
+        <v>8637.2635440000031</v>
+      </c>
+      <c r="T50">
+        <f t="shared" ref="T50:T54" si="144">T49+B50</f>
+        <v>7290</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" ref="U50:U54" si="145">S50/T50-1</f>
+        <v>0.18480981399176999</v>
+      </c>
+      <c r="V50" s="4">
+        <f t="shared" ref="V50:V54" si="146">O50/(T50-R50)-1</f>
+        <v>0.35503260917686563</v>
+      </c>
+      <c r="W50" s="1">
+        <f t="shared" ref="W50:W54" si="147">R50/S50</f>
+        <v>0.40466983347150703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51">
+        <v>135</v>
+      </c>
+      <c r="C51" s="2">
+        <v>141.51</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="134"/>
+        <v>0.22000036000000001</v>
+      </c>
+      <c r="F51" s="39">
+        <f t="shared" si="135"/>
+        <v>1.4679111111110985E-2</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="20">
+        <f t="shared" si="136"/>
+        <v>1.981679999999983</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" t="s">
+        <v>230</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="137"/>
+        <v>135.00053999999997</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="138"/>
+        <v>5.3999999997245141E-4</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="139"/>
+        <v>0.90000359999999979</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="140"/>
+        <v>5245.9600000000037</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="141"/>
+        <v>5004.6458400000029</v>
+      </c>
+      <c r="P51" s="2">
+        <v>304.79000000000002</v>
+      </c>
+      <c r="Q51" s="16">
+        <v>290.77</v>
+      </c>
+      <c r="R51" s="6">
+        <f t="shared" si="142"/>
+        <v>3786.0099999999998</v>
+      </c>
+      <c r="S51" s="6">
+        <f t="shared" si="143"/>
+        <v>8790.6558400000031</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="144"/>
+        <v>7425</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="145"/>
+        <v>0.18392671245791292</v>
+      </c>
+      <c r="V51" s="4">
+        <f t="shared" si="146"/>
+        <v>0.37528430690933545</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="147"/>
+        <v>0.43068572685698481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52">
+        <v>135</v>
+      </c>
+      <c r="C52" s="2">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="134"/>
+        <v>0.21999839333333332</v>
+      </c>
+      <c r="F52" s="39">
+        <f t="shared" si="135"/>
+        <v>1.6041481481481358E-2</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="20">
+        <f t="shared" si="136"/>
+        <v>2.1655999999999835</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" t="s">
+        <v>232</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="137"/>
+        <v>134.99758999999997</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="138"/>
+        <v>-2.4100000000260025E-3</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="139"/>
+        <v>0.89998393333333315</v>
+      </c>
+      <c r="N52" s="6">
+        <f t="shared" si="140"/>
+        <v>5387.6600000000035</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="141"/>
+        <v>5132.8236820000029</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="6">
+        <f t="shared" si="142"/>
+        <v>3786.0099999999998</v>
+      </c>
+      <c r="S52" s="6">
+        <f t="shared" si="143"/>
+        <v>8918.8336820000022</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="144"/>
+        <v>7560</v>
+      </c>
+      <c r="U52" s="4">
+        <f t="shared" si="145"/>
+        <v>0.17973990502645543</v>
+      </c>
+      <c r="V52" s="4">
+        <f t="shared" si="146"/>
+        <v>0.36005227411837404</v>
+      </c>
+      <c r="W52" s="1">
+        <f t="shared" si="147"/>
+        <v>0.42449608715553566</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53">
+        <v>135</v>
+      </c>
+      <c r="C53" s="2">
+        <v>139.88</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="134"/>
+        <v>0.219998792</v>
+      </c>
+      <c r="F53" s="39">
+        <f t="shared" si="135"/>
+        <v>2.9914074074074253E-3</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="20">
+        <f t="shared" si="136"/>
+        <v>0.40384000000000242</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" t="s">
+        <v>234</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="137"/>
+        <v>134.998188</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="138"/>
+        <v>-1.812000000001035E-3</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="139"/>
+        <v>0.89998791999999994</v>
+      </c>
+      <c r="N53" s="6">
+        <f t="shared" si="140"/>
+        <v>5007.7500000000036</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="141"/>
+        <v>4832.9795250000034</v>
+      </c>
+      <c r="P53" s="2">
+        <v>519.79</v>
+      </c>
+      <c r="Q53" s="16">
+        <v>501.64</v>
+      </c>
+      <c r="R53" s="6">
+        <f t="shared" si="142"/>
+        <v>4287.6499999999996</v>
+      </c>
+      <c r="S53" s="6">
+        <f t="shared" si="143"/>
+        <v>9120.6295250000039</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="144"/>
+        <v>7695</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="145"/>
+        <v>0.18526699480181996</v>
+      </c>
+      <c r="V53" s="4">
+        <f t="shared" si="146"/>
+        <v>0.41839832274348177</v>
+      </c>
+      <c r="W53" s="1">
+        <f t="shared" si="147"/>
+        <v>0.47010461155640437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54">
+        <v>135</v>
+      </c>
+      <c r="C54" s="2">
+        <v>139.12</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="134"/>
+        <v>0.22000136533333337</v>
+      </c>
+      <c r="F54" s="39">
+        <f t="shared" si="135"/>
+        <v>-2.4580740740740717E-3</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="20">
+        <f t="shared" si="136"/>
+        <v>-0.33183999999999969</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" t="s">
+        <v>236</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="137"/>
+        <v>135.002048</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="138"/>
+        <v>2.0480000000020482E-3</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="139"/>
+        <v>0.90001365333333339</v>
+      </c>
+      <c r="N54" s="6">
+        <f t="shared" si="140"/>
+        <v>5146.8700000000035</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="141"/>
+        <v>4994.5226480000038</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="6">
+        <f t="shared" si="142"/>
+        <v>4287.6499999999996</v>
+      </c>
+      <c r="S54" s="6">
+        <f t="shared" si="143"/>
+        <v>9282.1726480000034</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="144"/>
+        <v>7830</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="145"/>
+        <v>0.18546266257982169</v>
+      </c>
+      <c r="V54" s="4">
+        <f t="shared" si="146"/>
+        <v>0.40994612277160725</v>
+      </c>
+      <c r="W54" s="1">
+        <f t="shared" si="147"/>
+        <v>0.4619231038461501</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{EBD5E519-1AC8-D646-A624-501481F39CB6}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="between">
       <formula>-0.01</formula>
       <formula>0.01</formula>
     </cfRule>
@@ -8889,12 +10619,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25 F27:F44">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="F20:F22 F30:F54 F24:F25">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>E20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F1048576">
+  <conditionalFormatting sqref="F2:F22 F30:F1048576 F24:F26">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -8952,7 +10682,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>F2:F22 F30:F1048576 F24:F26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A8E904-3191-0048-AAF5-F6D1E3D94418}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F503FC99-9EBD-9C4A-8D65-4D2E9BB1E18E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
     <sheet name="zz500" sheetId="2" r:id="rId2"/>
+    <sheet name="ZZ500多0.42份" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hs300'!$A$1:$W$1</definedName>
@@ -477,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="274">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -774,46 +775,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20190111购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190115购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190116购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190117购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190118购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190121购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190122购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190123购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190124购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190125购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20190128购入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -838,10 +799,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20190212购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20190213购入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -850,10 +807,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20190215购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20190218购入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -871,46 +824,6 @@
   </si>
   <si>
     <t>20190222购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290128购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290129购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290130购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290201购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290211购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290218购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290219购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290220购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290221购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290222购入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1269,6 +1182,274 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>10290131购入,20190321售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290214购入,20190321售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190318</t>
+  </si>
+  <si>
+    <t>20190318购入</t>
+  </si>
+  <si>
+    <t>hs300_20190319</t>
+  </si>
+  <si>
+    <t>20190319购入</t>
+  </si>
+  <si>
+    <t>hs300_20190320</t>
+  </si>
+  <si>
+    <t>20190320购入</t>
+  </si>
+  <si>
+    <t>hs300_20190321</t>
+  </si>
+  <si>
+    <t>20190321购入</t>
+  </si>
+  <si>
+    <t>hs300_20190322</t>
+  </si>
+  <si>
+    <t>20190322购入</t>
+  </si>
+  <si>
+    <t>zz500_20190318</t>
+  </si>
+  <si>
+    <t>10290318购入</t>
+  </si>
+  <si>
+    <t>zz500_20190319</t>
+  </si>
+  <si>
+    <t>10290319购入</t>
+  </si>
+  <si>
+    <t>zz500_20190320</t>
+  </si>
+  <si>
+    <t>10290320购入</t>
+  </si>
+  <si>
+    <t>zz500_20190321</t>
+  </si>
+  <si>
+    <t>10290321购入</t>
+  </si>
+  <si>
+    <t>zz500_20190322</t>
+  </si>
+  <si>
+    <t>10290322购入</t>
+  </si>
+  <si>
+    <t>zz500_20190212</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190111购入,20190329售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190325</t>
+  </si>
+  <si>
+    <t>20190325购入</t>
+  </si>
+  <si>
+    <t>hs300_20190326</t>
+  </si>
+  <si>
+    <t>20190326购入</t>
+  </si>
+  <si>
+    <t>hs300_20190327</t>
+  </si>
+  <si>
+    <t>20190327购入</t>
+  </si>
+  <si>
+    <t>hs300_20190328</t>
+  </si>
+  <si>
+    <t>20190328购入</t>
+  </si>
+  <si>
+    <t>hs300_20190329</t>
+  </si>
+  <si>
+    <t>20190329购入</t>
+  </si>
+  <si>
+    <t>zz500_20190325</t>
+  </si>
+  <si>
+    <t>10290325购入</t>
+  </si>
+  <si>
+    <t>zz500_20190326</t>
+  </si>
+  <si>
+    <t>10290326购入</t>
+  </si>
+  <si>
+    <t>zz500_20190327</t>
+  </si>
+  <si>
+    <t>10290327购入</t>
+  </si>
+  <si>
+    <t>zz500_20190328</t>
+  </si>
+  <si>
+    <t>10290328购入</t>
+  </si>
+  <si>
+    <t>zz500_20190329</t>
+  </si>
+  <si>
+    <t>10290329购入</t>
+  </si>
+  <si>
+    <t>zz500_20190401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290401购入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190401购入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190115购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190116购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190117购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190118购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190121购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190122购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190123购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190124购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190125购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290128购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290129购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290130购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290201购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290218购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290219购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290221购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290220购入,20190401售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190402</t>
+  </si>
+  <si>
+    <t>20190402购入</t>
+  </si>
+  <si>
+    <t>hs300_20190403</t>
+  </si>
+  <si>
+    <t>20190403购入</t>
+  </si>
+  <si>
+    <t>hs300_20190404</t>
+  </si>
+  <si>
+    <t>20190404购入</t>
+  </si>
+  <si>
+    <t>20190215购入,20190403售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz500_20190402</t>
+  </si>
+  <si>
+    <t>10290402购入</t>
+  </si>
+  <si>
+    <t>zz500_20190403</t>
+  </si>
+  <si>
+    <t>10290403购入</t>
+  </si>
+  <si>
+    <t>zz500_20190404</t>
+  </si>
+  <si>
+    <t>10290404购入</t>
+  </si>
+  <si>
+    <t>10290222购入,20190403售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10290211购入,20190404售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>出售</t>
     <rPh sb="0" eb="1">
       <t>ci'you</t>
@@ -1276,75 +1457,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10290131购入,20190321售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290214购入,20190321售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs300_20190318</t>
-  </si>
-  <si>
-    <t>20190318购入</t>
-  </si>
-  <si>
-    <t>hs300_20190319</t>
-  </si>
-  <si>
-    <t>20190319购入</t>
-  </si>
-  <si>
-    <t>hs300_20190320</t>
-  </si>
-  <si>
-    <t>20190320购入</t>
-  </si>
-  <si>
-    <t>hs300_20190321</t>
-  </si>
-  <si>
-    <t>20190321购入</t>
-  </si>
-  <si>
-    <t>hs300_20190322</t>
-  </si>
-  <si>
-    <t>20190322购入</t>
-  </si>
-  <si>
-    <t>zz500_20190318</t>
-  </si>
-  <si>
-    <t>10290318购入</t>
-  </si>
-  <si>
-    <t>zz500_20190319</t>
-  </si>
-  <si>
-    <t>10290319购入</t>
-  </si>
-  <si>
-    <t>zz500_20190320</t>
-  </si>
-  <si>
-    <t>10290320购入</t>
-  </si>
-  <si>
-    <t>zz500_20190321</t>
-  </si>
-  <si>
-    <t>10290321购入</t>
-  </si>
-  <si>
-    <t>zz500_20190322</t>
-  </si>
-  <si>
-    <t>10290322购入</t>
-  </si>
-  <si>
-    <t>zz500_20190212</t>
+    <t>20190212购入,20190408售出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1458,7 +1571,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF7030A0"/>
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
@@ -1488,7 +1601,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1548,7 +1661,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1558,11 +1679,18 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1575,28 +1703,18 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1884,13 +2002,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1906,7 +2024,7 @@
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
     <col min="13" max="13" width="8.6640625" customWidth="1"/>
     <col min="14" max="15" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
@@ -1934,14 +2052,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>1.1503000000000001</v>
+        <v>1.2183999999999999</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="H1" s="19" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19995),2)</f>
-        <v>盈利1043.65</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19993),2)</f>
+        <v>盈利1487.32</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -1956,37 +2074,37 @@
         <v>54</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="U1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2084,7 +2202,7 @@
         <v>0.23</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" ref="F3:F41" si="4">IF(G3="",($F$1*C3-B3)/B3,H3/B3)</f>
+        <f t="shared" ref="F3:F60" si="4">IF(G3="",($F$1*C3-B3)/B3,H3/B3)</f>
         <v>0.23859999999999995</v>
       </c>
       <c r="G3" s="15">
@@ -2163,7 +2281,7 @@
       <c r="E4" s="29">
         <v>0.23</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="14">
         <f t="shared" si="4"/>
         <v>0.23113333333333325</v>
       </c>
@@ -2178,7 +2296,7 @@
         <v>76</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
@@ -2242,7 +2360,7 @@
       <c r="E5" s="29">
         <v>0.23</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="14">
         <f t="shared" si="4"/>
         <v>0.23153333333333326</v>
       </c>
@@ -2257,7 +2375,7 @@
         <v>76</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
@@ -2322,7 +2440,7 @@
       <c r="E6" s="29">
         <v>0.23</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="14">
         <f t="shared" si="4"/>
         <v>0.23359999999999995</v>
       </c>
@@ -2337,7 +2455,7 @@
         <v>76</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
@@ -2402,7 +2520,7 @@
       <c r="E7" s="29">
         <v>0.23</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="14">
         <f t="shared" si="4"/>
         <v>0.23106666666666664</v>
       </c>
@@ -2417,7 +2535,7 @@
         <v>76</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
@@ -2482,7 +2600,7 @@
       <c r="E8" s="29">
         <v>0.23</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="14">
         <f t="shared" si="4"/>
         <v>0.23399999999999996</v>
       </c>
@@ -2497,7 +2615,7 @@
         <v>76</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
@@ -2547,34 +2665,37 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="26">
         <v>150</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="27">
         <v>160.08000000000001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="28">
         <v>0.93610000000000004</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="29">
         <v>0.23</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="14">
         <f t="shared" si="4"/>
-        <v>0.22760016000000027</v>
-      </c>
-      <c r="H9" s="2">
+        <v>0.23299999999999993</v>
+      </c>
+      <c r="G9" s="31">
+        <v>184.95</v>
+      </c>
+      <c r="H9" s="27">
         <f t="shared" si="5"/>
-        <v>34.140024000000039</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
+        <v>34.949999999999989</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>215</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -2639,7 +2760,7 @@
       <c r="E10" s="29">
         <v>0.23</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="14">
         <f t="shared" si="4"/>
         <v>0.23600000000000004</v>
       </c>
@@ -2654,7 +2775,7 @@
         <v>76</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -2704,34 +2825,37 @@
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="26">
         <v>150</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="27">
         <v>158.5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="28">
         <v>0.94540000000000002</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="29">
         <v>0.23</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="14">
         <f t="shared" si="4"/>
-        <v>0.21548366666666671</v>
-      </c>
-      <c r="H11" s="2">
+        <v>0.25173333333333325</v>
+      </c>
+      <c r="G11" s="31">
+        <v>187.76</v>
+      </c>
+      <c r="H11" s="27">
         <f t="shared" si="5"/>
-        <v>32.322550000000007</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>81</v>
+        <v>37.759999999999991</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>240</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
@@ -2781,34 +2905,37 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="26">
         <v>150</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="27">
         <v>158.47</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="28">
         <v>0.9456</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="29">
         <v>0.23</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="14">
         <f t="shared" si="4"/>
-        <v>0.21525360666666682</v>
-      </c>
-      <c r="H12" s="2">
+        <v>0.25146666666666667</v>
+      </c>
+      <c r="G12" s="31">
+        <v>187.72</v>
+      </c>
+      <c r="H12" s="27">
         <f t="shared" si="5"/>
-        <v>32.288041000000021</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>82</v>
+        <v>37.72</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>241</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
@@ -2858,34 +2985,37 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="26">
         <v>150</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="27">
         <v>159.30000000000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="28">
         <v>0.94069999999999998</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="29">
         <v>0.23</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="14">
         <f t="shared" si="4"/>
-        <v>0.22161860000000028</v>
-      </c>
-      <c r="H13" s="2">
+        <v>0.25813333333333333</v>
+      </c>
+      <c r="G13" s="31">
+        <v>188.72</v>
+      </c>
+      <c r="H13" s="27">
         <f t="shared" si="5"/>
-        <v>33.242790000000042</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>83</v>
+        <v>38.72</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>242</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
@@ -2935,34 +3065,37 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="26">
         <v>150</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="27">
         <v>156.62</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="28">
         <v>0.95679999999999998</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="29">
         <v>0.23</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="14">
         <f t="shared" si="4"/>
-        <v>0.20106657333333355</v>
-      </c>
-      <c r="H14" s="2">
+        <v>0.23686666666666667</v>
+      </c>
+      <c r="G14" s="31">
+        <v>185.53</v>
+      </c>
+      <c r="H14" s="27">
         <f t="shared" si="5"/>
-        <v>30.159986000000032</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" t="s">
-        <v>84</v>
+        <v>35.53</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>243</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
@@ -3012,34 +3145,37 @@
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="26">
         <v>150</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="27">
         <v>155.80000000000001</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="28">
         <v>0.96179999999999999</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="29">
         <v>0.23</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="14">
         <f t="shared" si="4"/>
-        <v>0.19477826666666678</v>
-      </c>
-      <c r="H15" s="2">
+        <v>0.23046666666666663</v>
+      </c>
+      <c r="G15" s="31">
+        <v>184.57</v>
+      </c>
+      <c r="H15" s="27">
         <f t="shared" si="5"/>
-        <v>29.216740000000016</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" t="s">
-        <v>85</v>
+        <v>34.569999999999993</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>244</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
@@ -3089,34 +3225,37 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="26">
         <v>150</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="27">
         <v>157.77000000000001</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="28">
         <v>0.94979999999999998</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="29">
         <v>0.23</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="14">
         <f t="shared" si="4"/>
-        <v>0.20988554000000023</v>
-      </c>
-      <c r="H16" s="2">
+        <v>0.24593333333333325</v>
+      </c>
+      <c r="G16" s="31">
+        <v>186.89</v>
+      </c>
+      <c r="H16" s="27">
         <f t="shared" si="5"/>
-        <v>31.482831000000033</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>86</v>
+        <v>36.889999999999986</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>245</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
@@ -3166,34 +3305,37 @@
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="26">
         <v>150</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="27">
         <v>157.85</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="28">
         <v>0.94930000000000003</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="29">
         <v>0.23</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="14">
         <f t="shared" si="4"/>
-        <v>0.21049903333333342</v>
-      </c>
-      <c r="H17" s="2">
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="G17" s="31">
+        <v>187</v>
+      </c>
+      <c r="H17" s="27">
         <f t="shared" si="5"/>
-        <v>31.574855000000014</v>
-      </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" t="s">
-        <v>87</v>
+        <v>37</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>246</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
@@ -3243,34 +3385,37 @@
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="26">
         <v>150</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="27">
         <v>157.03</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="28">
         <v>0.95430000000000004</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="29">
         <v>0.23</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="14">
         <f t="shared" si="4"/>
-        <v>0.20421072666666684</v>
-      </c>
-      <c r="H18" s="2">
+        <v>0.24013333333333339</v>
+      </c>
+      <c r="G18" s="31">
+        <v>186.02</v>
+      </c>
+      <c r="H18" s="27">
         <f t="shared" si="5"/>
-        <v>30.631609000000026</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" t="s">
-        <v>88</v>
+        <v>36.02000000000001</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>247</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="0"/>
@@ -3320,34 +3465,37 @@
       </c>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="26">
         <v>150</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="27">
         <v>155.83000000000001</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="28">
         <v>0.96160000000000001</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="29">
         <v>0.23</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="14">
         <f t="shared" si="4"/>
-        <v>0.19500832666666687</v>
-      </c>
-      <c r="H19" s="2">
+        <v>0.23066666666666663</v>
+      </c>
+      <c r="G19" s="31">
+        <v>184.6</v>
+      </c>
+      <c r="H19" s="27">
         <f t="shared" si="5"/>
-        <v>29.25124900000003</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" t="s">
-        <v>89</v>
+        <v>34.599999999999994</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>248</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
@@ -3413,19 +3561,19 @@
         <f>10%*M20+13%</f>
         <v>0.30982025600000002</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="14">
         <f t="shared" si="4"/>
-        <v>0.19528951111111126</v>
+        <v>0.2660529777777777</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="5"/>
-        <v>52.728168000000039</v>
+        <v>71.834303999999975</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
@@ -3491,19 +3639,19 @@
         <f t="shared" ref="E21:E34" si="14">10%*M21+13%</f>
         <v>0.30982202400000003</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="14">
         <f t="shared" si="4"/>
-        <v>0.191582988888889</v>
+        <v>0.26212702222222217</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>51.727407000000028</v>
+        <v>70.774295999999993</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
@@ -3569,19 +3717,19 @@
         <f t="shared" si="14"/>
         <v>0.29983280533333334</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="14">
         <f t="shared" si="4"/>
-        <v>0.20055232156862754</v>
+        <v>0.27162735686274508</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="5"/>
-        <v>51.140842000000021</v>
+        <v>69.26497599999999</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="0"/>
@@ -3647,19 +3795,19 @@
         <f t="shared" si="14"/>
         <v>0.30981982000000002</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="14">
         <f t="shared" si="4"/>
-        <v>0.18885635185185209</v>
+        <v>0.25923896296296284</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="5"/>
-        <v>50.991215000000068</v>
+        <v>69.994519999999966</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="0"/>
@@ -3725,19 +3873,19 @@
         <f t="shared" si="14"/>
         <v>0.29983448933333334</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="14">
         <f t="shared" si="4"/>
-        <v>0.17335110980392168</v>
+        <v>0.24281578039215687</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="5"/>
-        <v>44.204533000000026</v>
+        <v>61.918024000000003</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="0"/>
@@ -3803,19 +3951,19 @@
         <f t="shared" si="14"/>
         <v>0.29983128000000003</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="14">
         <f t="shared" si="4"/>
-        <v>0.1537734549019609</v>
+        <v>0.2220790901960783</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="5"/>
-        <v>39.212231000000031</v>
+        <v>56.630167999999969</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="0"/>
@@ -3865,35 +4013,36 @@
       </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="42">
         <v>105</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="43">
         <v>104.62</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="44">
         <v>1.0026999999999999</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="45">
         <f t="shared" si="14"/>
         <v>0.19993498266666668</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="46">
         <f t="shared" si="4"/>
-        <v>0.14613700952380965</v>
-      </c>
-      <c r="H26" s="2">
+        <v>0.21399055238095241</v>
+      </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="43">
         <f t="shared" si="5"/>
-        <v>15.344386000000014</v>
-      </c>
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" t="s">
-        <v>96</v>
+        <v>22.469008000000002</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>273</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
@@ -3959,19 +4108,19 @@
         <f t="shared" si="14"/>
         <v>0.19993192533333337</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="14">
         <f t="shared" si="4"/>
-        <v>0.12488384761904772</v>
+        <v>0.19147916190476189</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="5"/>
-        <v>13.112804000000011</v>
+        <v>20.105311999999998</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="0"/>
@@ -4037,19 +4186,19 @@
         <f t="shared" si="14"/>
         <v>0.18994098000000001</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="14">
         <f t="shared" si="4"/>
-        <v>0.12333185555555559</v>
+        <v>0.18983528888888879</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="5"/>
-        <v>11.099867000000003</v>
+        <v>17.08517599999999</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="0"/>
@@ -4099,35 +4248,38 @@
       </c>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="26">
         <v>90</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="27">
         <v>89.46</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="28">
         <v>1.0049999999999999</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="29">
         <f t="shared" si="14"/>
         <v>0.1899382</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="14">
         <f t="shared" si="4"/>
-        <v>0.14339820000000003</v>
-      </c>
-      <c r="H29" s="2">
+        <v>0.19111111111111115</v>
+      </c>
+      <c r="G29" s="31">
+        <v>107.2</v>
+      </c>
+      <c r="H29" s="27">
         <f t="shared" si="5"/>
-        <v>12.905838000000003</v>
-      </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" t="s">
-        <v>99</v>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>263</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="0"/>
@@ -4193,19 +4345,19 @@
         <f t="shared" si="14"/>
         <v>0.18993919066666667</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="14">
         <f t="shared" si="4"/>
-        <v>0.11016731111111114</v>
+        <v>0.17589137777777764</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="5"/>
-        <v>9.9150580000000019</v>
+        <v>15.830223999999987</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="0"/>
@@ -4271,19 +4423,19 @@
         <f t="shared" si="14"/>
         <v>0.18993937599999999</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="14">
         <f t="shared" si="4"/>
-        <v>0.11221228888888896</v>
+        <v>0.17805742222222215</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="5"/>
-        <v>10.099106000000006</v>
+        <v>16.025167999999994</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="0"/>
@@ -4349,19 +4501,19 @@
         <f t="shared" si="14"/>
         <v>0.18994312266666666</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="14">
         <f t="shared" si="4"/>
-        <v>0.10863357777777781</v>
+        <v>0.17426684444444429</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="5"/>
-        <v>9.7770220000000023</v>
+        <v>15.684015999999986</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="0"/>
@@ -4427,19 +4579,19 @@
         <f t="shared" si="14"/>
         <v>0.18994333000000002</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="14">
         <f t="shared" si="4"/>
-        <v>0.11131761111111128</v>
+        <v>0.17710977777777781</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="5"/>
-        <v>10.018585000000016</v>
+        <v>15.939880000000002</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="0"/>
@@ -4505,19 +4657,19 @@
         <f t="shared" si="14"/>
         <v>0.18993992333333334</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="14">
         <f t="shared" si="4"/>
-        <v>8.8311611111111354E-2</v>
+        <v>0.15274177777777773</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="5"/>
-        <v>7.9480450000000218</v>
+        <v>13.746759999999995</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="0"/>
@@ -4568,7 +4720,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="7" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>135</v>
@@ -4583,19 +4735,19 @@
         <f t="shared" ref="E35" si="24">10%*M35+13%</f>
         <v>0.21991673666666667</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="14">
         <f t="shared" si="4"/>
-        <v>3.0242762962962987E-2</v>
+        <v>9.1235140740740739E-2</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="5"/>
-        <v>4.0827730000000031</v>
+        <v>12.316744</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" ref="K35" si="25">D35*C35</f>
@@ -4650,7 +4802,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B36">
         <v>135</v>
@@ -4665,19 +4817,19 @@
         <f t="shared" ref="E36" si="32">10%*M36+13%</f>
         <v>0.21991576066666668</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="14">
         <f t="shared" si="4"/>
-        <v>4.2001385185185383E-2</v>
+        <v>0.10368989629629621</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ref="H36" si="33">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>5.670187000000027</v>
+        <v>13.998135999999988</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" ref="K36" si="34">D36*C36</f>
@@ -4728,7 +4880,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="7" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B37">
         <v>135</v>
@@ -4743,19 +4895,19 @@
         <f t="shared" ref="E37:E39" si="43">10%*M37+13%</f>
         <v>0.21991417266666669</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="14">
         <f t="shared" si="4"/>
-        <v>4.3875948148148269E-2</v>
+        <v>0.10567543703703711</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:H39" si="44">IF(G37="",$F$1*C37-B37,G37-B37)</f>
-        <v>5.9232530000000168</v>
+        <v>14.26618400000001</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" ref="K37:K39" si="45">D37*C37</f>
@@ -4806,7 +4958,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B38">
         <v>135</v>
@@ -4821,19 +4973,19 @@
         <f t="shared" si="43"/>
         <v>0.2199132946666667</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="14">
         <f t="shared" si="4"/>
-        <v>4.6432170370370486E-2</v>
+        <v>0.10838299259259249</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="44"/>
-        <v>6.2683430000000158</v>
+        <v>14.631703999999985</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="45"/>
@@ -4884,7 +5036,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="7" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B39">
         <v>135</v>
@@ -4899,19 +5051,19 @@
         <f t="shared" si="43"/>
         <v>0.21991167333333334</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="14">
         <f t="shared" si="4"/>
-        <v>2.5130318518518557E-2</v>
+        <v>8.5820029629629577E-2</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="44"/>
-        <v>3.3925930000000051</v>
+        <v>11.585703999999993</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="45"/>
@@ -4962,7 +5114,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="7" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B40">
         <v>135</v>
@@ -4977,19 +5129,19 @@
         <f t="shared" ref="E40" si="48">10%*M40+13%</f>
         <v>0.21991677666666665</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="14">
         <f t="shared" si="4"/>
-        <v>1.3882940740740811E-2</v>
+        <v>7.3906785185185009E-2</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40" si="49">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>1.8741970000000094</v>
+        <v>9.9774159999999767</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" ref="K40" si="50">D40*C40</f>
@@ -5044,7 +5196,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B41">
         <v>135</v>
@@ -5059,19 +5211,19 @@
         <f t="shared" ref="E41" si="60">10%*M41+13%</f>
         <v>0.21991502266666668</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="14">
         <f t="shared" si="4"/>
-        <v>8.2592518518519384E-3</v>
+        <v>6.795016296296294E-2</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ref="H41" si="61">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>1.1149990000000116</v>
+        <v>9.1732719999999972</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" ref="K41" si="62">D41*C41</f>
@@ -5126,7 +5278,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B42">
         <v>135</v>
@@ -5141,38 +5293,38 @@
         <f t="shared" ref="E42" si="72">10%*M42+13%</f>
         <v>0.21991324466666667</v>
       </c>
-      <c r="F42" s="4">
-        <f t="shared" ref="F42" si="73">IF(G42="",($F$1*C42-B42)/B42,H42/B42)</f>
-        <v>7.9340740740850313E-5</v>
+      <c r="F42" s="14">
+        <f t="shared" si="4"/>
+        <v>5.9285985185185082E-2</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" ref="H42" si="74">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>1.0711000000014792E-2</v>
+        <f t="shared" ref="H42" si="73">IF(G42="",$F$1*C42-B42,G42-B42)</f>
+        <v>8.0036079999999856</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" ref="K42" si="75">D42*C42</f>
+        <f t="shared" ref="K42" si="74">D42*C42</f>
         <v>134.869867</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" ref="L42" si="76">B42-K42</f>
+        <f t="shared" ref="L42" si="75">B42-K42</f>
         <v>0.13013300000000072</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" ref="M42" si="77">K42/150</f>
+        <f t="shared" ref="M42" si="76">K42/150</f>
         <v>0.8991324466666667</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" ref="N42" si="78">N41+C42-P42</f>
+        <f t="shared" ref="N42" si="77">N41+C42-P42</f>
         <v>4979.4600000000009</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" ref="O42" si="79">N42*D42</f>
+        <f t="shared" ref="O42" si="78">N42*D42</f>
         <v>5721.8974860000008</v>
       </c>
       <c r="P42" s="2">
@@ -5182,33 +5334,33 @@
         <v>555.23</v>
       </c>
       <c r="R42" s="6">
-        <f t="shared" ref="R42" si="80">R41+Q42</f>
+        <f t="shared" ref="R42" si="79">R41+Q42</f>
         <v>1480.91</v>
       </c>
       <c r="S42" s="6">
-        <f t="shared" ref="S42" si="81">R42+O42</f>
+        <f t="shared" ref="S42" si="80">R42+O42</f>
         <v>7202.8074860000006</v>
       </c>
       <c r="T42">
-        <f t="shared" ref="T42" si="82">T41+B42</f>
+        <f t="shared" ref="T42" si="81">T41+B42</f>
         <v>6195</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" ref="U42" si="83">S42/T42-1</f>
+        <f t="shared" ref="U42" si="82">S42/T42-1</f>
         <v>0.16268078870056502</v>
       </c>
       <c r="V42" s="4">
-        <f t="shared" ref="V42" si="84">O42/(T42-R42)-1</f>
+        <f t="shared" ref="V42" si="83">O42/(T42-R42)-1</f>
         <v>0.21378622088250343</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" ref="W42" si="85">R42/S42</f>
+        <f t="shared" ref="W42" si="84">R42/S42</f>
         <v>0.20560177443009894</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B43">
         <v>135</v>
@@ -5220,73 +5372,73 @@
         <v>1.1379999999999999</v>
       </c>
       <c r="E43" s="23">
-        <f t="shared" ref="E43" si="86">10%*M43+13%</f>
+        <f t="shared" ref="E43" si="85">10%*M43+13%</f>
         <v>0.21990958666666666</v>
       </c>
-      <c r="F43" s="4">
-        <f t="shared" ref="F43" si="87">IF(G43="",($F$1*C43-B43)/B43,H43/B43)</f>
-        <v>9.792985185185267E-3</v>
+      <c r="F43" s="14">
+        <f t="shared" si="4"/>
+        <v>6.9574696296296298E-2</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" ref="H43" si="88">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>1.322053000000011</v>
+        <f t="shared" ref="H43" si="86">IF(G43="",$F$1*C43-B43,G43-B43)</f>
+        <v>9.3925839999999994</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" ref="K43" si="89">D43*C43</f>
+        <f t="shared" ref="K43" si="87">D43*C43</f>
         <v>134.86437999999998</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" ref="L43" si="90">B43-K43</f>
+        <f t="shared" ref="L43" si="88">B43-K43</f>
         <v>0.13562000000001717</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" ref="M43" si="91">K43/150</f>
+        <f t="shared" ref="M43" si="89">K43/150</f>
         <v>0.89909586666666652</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" ref="N43" si="92">N42+C43-P43</f>
+        <f t="shared" ref="N43" si="90">N42+C43-P43</f>
         <v>5097.9700000000012</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" ref="O43" si="93">N43*D43</f>
+        <f t="shared" ref="O43" si="91">N43*D43</f>
         <v>5801.4898600000006</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="6">
-        <f t="shared" ref="R43" si="94">R42+Q43</f>
+        <f t="shared" ref="R43" si="92">R42+Q43</f>
         <v>1480.91</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" ref="S43" si="95">R43+O43</f>
+        <f t="shared" ref="S43" si="93">R43+O43</f>
         <v>7282.3998600000004</v>
       </c>
       <c r="T43">
-        <f t="shared" ref="T43" si="96">T42+B43</f>
+        <f t="shared" ref="T43" si="94">T42+B43</f>
         <v>6330</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" ref="U43" si="97">S43/T43-1</f>
+        <f t="shared" ref="U43" si="95">S43/T43-1</f>
         <v>0.15045811374407592</v>
       </c>
       <c r="V43" s="4">
-        <f t="shared" ref="V43" si="98">O43/(T43-R43)-1</f>
+        <f t="shared" ref="V43" si="96">O43/(T43-R43)-1</f>
         <v>0.19640795695687241</v>
       </c>
       <c r="W43" s="1">
-        <f t="shared" ref="W43" si="99">R43/S43</f>
+        <f t="shared" ref="W43" si="97">R43/S43</f>
         <v>0.20335466720719178</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B44">
         <v>135</v>
@@ -5298,73 +5450,73 @@
         <v>1.0948</v>
       </c>
       <c r="E44" s="23">
-        <f t="shared" ref="E44" si="100">10%*M44+13%</f>
+        <f t="shared" ref="E44" si="98">10%*M44+13%</f>
         <v>0.21991227466666668</v>
       </c>
-      <c r="F44" s="4">
-        <f t="shared" ref="F44" si="101">IF(G44="",($F$1*C44-B44)/B44,H44/B44)</f>
-        <v>4.9670051851851818E-2</v>
+      <c r="F44" s="14">
+        <f t="shared" si="4"/>
+        <v>0.11181256296296295</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" ref="H44" si="102">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>6.7054569999999956</v>
+        <f t="shared" ref="H44" si="99">IF(G44="",$F$1*C44-B44,G44-B44)</f>
+        <v>15.094695999999999</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" ref="K44" si="103">D44*C44</f>
+        <f t="shared" ref="K44" si="100">D44*C44</f>
         <v>134.86841200000001</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" ref="L44" si="104">B44-K44</f>
+        <f t="shared" ref="L44" si="101">B44-K44</f>
         <v>0.1315879999999936</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" ref="M44" si="105">K44/150</f>
+        <f t="shared" ref="M44" si="102">K44/150</f>
         <v>0.89912274666666669</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" ref="N44" si="106">N43+C44-P44</f>
+        <f t="shared" ref="N44" si="103">N43+C44-P44</f>
         <v>5221.1600000000008</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" ref="O44" si="107">N44*D44</f>
+        <f t="shared" ref="O44" si="104">N44*D44</f>
         <v>5716.1259680000012</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="6">
-        <f t="shared" ref="R44" si="108">R43+Q44</f>
+        <f t="shared" ref="R44" si="105">R43+Q44</f>
         <v>1480.91</v>
       </c>
       <c r="S44" s="6">
-        <f t="shared" ref="S44" si="109">R44+O44</f>
+        <f t="shared" ref="S44" si="106">R44+O44</f>
         <v>7197.035968000001</v>
       </c>
       <c r="T44">
-        <f t="shared" ref="T44" si="110">T43+B44</f>
+        <f t="shared" ref="T44" si="107">T43+B44</f>
         <v>6465</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" ref="U44" si="111">S44/T44-1</f>
+        <f t="shared" ref="U44" si="108">S44/T44-1</f>
         <v>0.11323062150038687</v>
       </c>
       <c r="V44" s="4">
-        <f t="shared" ref="V44" si="112">O44/(T44-R44)-1</f>
+        <f t="shared" ref="V44" si="109">O44/(T44-R44)-1</f>
         <v>0.14687454841305048</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" ref="W44" si="113">R44/S44</f>
+        <f t="shared" ref="W44" si="110">R44/S44</f>
         <v>0.20576665263096264</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B45">
         <v>135</v>
@@ -5376,73 +5528,73 @@
         <v>1.1156999999999999</v>
       </c>
       <c r="E45" s="23">
-        <f t="shared" ref="E45:E49" si="114">10%*M45+13%</f>
+        <f t="shared" ref="E45:E49" si="111">10%*M45+13%</f>
         <v>0.21991054399999999</v>
       </c>
-      <c r="F45" s="4">
-        <f t="shared" ref="F45:F49" si="115">IF(G45="",($F$1*C45-B45)/B45,H45/B45)</f>
-        <v>2.998714074074087E-2</v>
+      <c r="F45" s="14">
+        <f t="shared" si="4"/>
+        <v>9.0964385185185181E-2</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" ref="H45:H49" si="116">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>4.0482640000000174</v>
+        <f t="shared" ref="H45:H49" si="112">IF(G45="",$F$1*C45-B45,G45-B45)</f>
+        <v>12.280192</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" ref="K45:K49" si="117">D45*C45</f>
+        <f t="shared" ref="K45:K49" si="113">D45*C45</f>
         <v>134.865816</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" ref="L45:L49" si="118">B45-K45</f>
+        <f t="shared" ref="L45:L49" si="114">B45-K45</f>
         <v>0.13418400000000474</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" ref="M45:M49" si="119">K45/150</f>
+        <f t="shared" ref="M45:M49" si="115">K45/150</f>
         <v>0.89910543999999992</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" ref="N45:N49" si="120">N44+C45-P45</f>
+        <f t="shared" ref="N45:N49" si="116">N44+C45-P45</f>
         <v>5342.0400000000009</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" ref="O45:O49" si="121">N45*D45</f>
+        <f t="shared" ref="O45:O49" si="117">N45*D45</f>
         <v>5960.1140280000009</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="6">
-        <f t="shared" ref="R45:R49" si="122">R44+Q45</f>
+        <f t="shared" ref="R45:R49" si="118">R44+Q45</f>
         <v>1480.91</v>
       </c>
       <c r="S45" s="6">
-        <f t="shared" ref="S45:S49" si="123">R45+O45</f>
+        <f t="shared" ref="S45:S49" si="119">R45+O45</f>
         <v>7441.0240280000007</v>
       </c>
       <c r="T45">
-        <f t="shared" ref="T45:T49" si="124">T44+B45</f>
+        <f t="shared" ref="T45:T49" si="120">T44+B45</f>
         <v>6600</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" ref="U45:U49" si="125">S45/T45-1</f>
+        <f t="shared" ref="U45:U49" si="121">S45/T45-1</f>
         <v>0.12742788303030306</v>
       </c>
       <c r="V45" s="4">
-        <f t="shared" ref="V45:V49" si="126">O45/(T45-R45)-1</f>
+        <f t="shared" ref="V45:V49" si="122">O45/(T45-R45)-1</f>
         <v>0.16429170575238983</v>
       </c>
       <c r="W45" s="1">
-        <f t="shared" ref="W45:W49" si="127">R45/S45</f>
+        <f t="shared" ref="W45:W49" si="123">R45/S45</f>
         <v>0.19901965030988339</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B46">
         <v>135</v>
@@ -5454,73 +5606,73 @@
         <v>1.1229</v>
       </c>
       <c r="E46" s="23">
-        <f t="shared" si="114"/>
+        <f t="shared" si="111"/>
         <v>0.21991434600000001</v>
       </c>
-      <c r="F46" s="4">
-        <f t="shared" si="115"/>
-        <v>2.3426170370370553E-2</v>
+      <c r="F46" s="14">
+        <f t="shared" si="4"/>
+        <v>8.4014992592592444E-2</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="116"/>
-        <v>3.1625330000000247</v>
+        <f t="shared" si="112"/>
+        <v>11.342023999999981</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="K46" s="2">
+        <f t="shared" si="113"/>
+        <v>134.87151900000001</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="114"/>
+        <v>0.12848099999999363</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="115"/>
+        <v>0.89914346000000001</v>
+      </c>
+      <c r="N46" s="6">
+        <f t="shared" si="116"/>
+        <v>5462.1500000000005</v>
+      </c>
+      <c r="O46" s="2">
         <f t="shared" si="117"/>
-        <v>134.87151900000001</v>
-      </c>
-      <c r="L46" s="2">
-        <f t="shared" si="118"/>
-        <v>0.12848099999999363</v>
-      </c>
-      <c r="M46" s="1">
-        <f t="shared" si="119"/>
-        <v>0.89914346000000001</v>
-      </c>
-      <c r="N46" s="6">
-        <f t="shared" si="120"/>
-        <v>5462.1500000000005</v>
-      </c>
-      <c r="O46" s="2">
-        <f t="shared" si="121"/>
         <v>6133.4482350000008</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="6">
+        <f t="shared" si="118"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S46" s="6">
+        <f t="shared" si="119"/>
+        <v>7614.3582350000006</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="120"/>
+        <v>6735</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="121"/>
+        <v>0.13056543949517452</v>
+      </c>
+      <c r="V46" s="4">
         <f t="shared" si="122"/>
-        <v>1480.91</v>
-      </c>
-      <c r="S46" s="6">
+        <v>0.16736642025545834</v>
+      </c>
+      <c r="W46" s="1">
         <f t="shared" si="123"/>
-        <v>7614.3582350000006</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="124"/>
-        <v>6735</v>
-      </c>
-      <c r="U46" s="4">
-        <f t="shared" si="125"/>
-        <v>0.13056543949517452</v>
-      </c>
-      <c r="V46" s="4">
-        <f t="shared" si="126"/>
-        <v>0.16736642025545834</v>
-      </c>
-      <c r="W46" s="1">
-        <f t="shared" si="127"/>
         <v>0.19448914199924033</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B47">
         <v>135</v>
@@ -5532,73 +5684,73 @@
         <v>1.1140000000000001</v>
       </c>
       <c r="E47" s="23">
-        <f t="shared" si="114"/>
+        <f t="shared" si="111"/>
         <v>0.21991465333333335</v>
       </c>
-      <c r="F47" s="4">
-        <f t="shared" si="115"/>
-        <v>3.1606081481481432E-2</v>
+      <c r="F47" s="14">
+        <f t="shared" si="4"/>
+        <v>9.2679170370370309E-2</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="116"/>
-        <v>4.2668209999999931</v>
+        <f t="shared" si="112"/>
+        <v>12.511687999999992</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="K47" s="2">
+        <f t="shared" si="113"/>
+        <v>134.87198000000001</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="114"/>
+        <v>0.12801999999999225</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="115"/>
+        <v>0.89914653333333339</v>
+      </c>
+      <c r="N47" s="6">
+        <f t="shared" si="116"/>
+        <v>5583.22</v>
+      </c>
+      <c r="O47" s="2">
         <f t="shared" si="117"/>
-        <v>134.87198000000001</v>
-      </c>
-      <c r="L47" s="2">
-        <f t="shared" si="118"/>
-        <v>0.12801999999999225</v>
-      </c>
-      <c r="M47" s="1">
-        <f t="shared" si="119"/>
-        <v>0.89914653333333339</v>
-      </c>
-      <c r="N47" s="6">
-        <f t="shared" si="120"/>
-        <v>5583.22</v>
-      </c>
-      <c r="O47" s="2">
-        <f t="shared" si="121"/>
         <v>6219.707080000001</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="6">
+        <f t="shared" si="118"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S47" s="6">
+        <f t="shared" si="119"/>
+        <v>7700.6170800000009</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="120"/>
+        <v>6870</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="121"/>
+        <v>0.12090496069869006</v>
+      </c>
+      <c r="V47" s="4">
         <f t="shared" si="122"/>
-        <v>1480.91</v>
-      </c>
-      <c r="S47" s="6">
+        <v>0.15412937620266143</v>
+      </c>
+      <c r="W47" s="1">
         <f t="shared" si="123"/>
-        <v>7700.6170800000009</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="124"/>
-        <v>6870</v>
-      </c>
-      <c r="U47" s="4">
-        <f t="shared" si="125"/>
-        <v>0.12090496069869006</v>
-      </c>
-      <c r="V47" s="4">
-        <f t="shared" si="126"/>
-        <v>0.15412937620266143</v>
-      </c>
-      <c r="W47" s="1">
-        <f t="shared" si="127"/>
         <v>0.1923105622075679</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B48">
         <v>135</v>
@@ -5610,73 +5762,73 @@
         <v>1.1067</v>
       </c>
       <c r="E48" s="23">
-        <f t="shared" si="114"/>
+        <f t="shared" si="111"/>
         <v>0.21991568600000003</v>
       </c>
-      <c r="F48" s="4">
-        <f t="shared" si="115"/>
-        <v>3.8422674074074285E-2</v>
+      <c r="F48" s="14">
+        <f t="shared" si="4"/>
+        <v>9.9899318518518396E-2</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="116"/>
-        <v>5.1870610000000283</v>
+        <f t="shared" si="112"/>
+        <v>13.486407999999983</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="K48" s="2">
+        <f t="shared" si="113"/>
+        <v>134.87352900000002</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="114"/>
+        <v>0.1264709999999809</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="115"/>
+        <v>0.89915686000000017</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="116"/>
+        <v>5705.09</v>
+      </c>
+      <c r="O48" s="2">
         <f t="shared" si="117"/>
-        <v>134.87352900000002</v>
-      </c>
-      <c r="L48" s="2">
-        <f t="shared" si="118"/>
-        <v>0.1264709999999809</v>
-      </c>
-      <c r="M48" s="1">
-        <f t="shared" si="119"/>
-        <v>0.89915686000000017</v>
-      </c>
-      <c r="N48" s="6">
-        <f t="shared" si="120"/>
-        <v>5705.09</v>
-      </c>
-      <c r="O48" s="2">
-        <f t="shared" si="121"/>
         <v>6313.8231030000006</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="6">
+        <f t="shared" si="118"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S48" s="6">
+        <f t="shared" si="119"/>
+        <v>7794.7331030000005</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="120"/>
+        <v>7005</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="121"/>
+        <v>0.11273848722341184</v>
+      </c>
+      <c r="V48" s="4">
         <f t="shared" si="122"/>
-        <v>1480.91</v>
-      </c>
-      <c r="S48" s="6">
+        <v>0.14296166481719164</v>
+      </c>
+      <c r="W48" s="1">
         <f t="shared" si="123"/>
-        <v>7794.7331030000005</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="124"/>
-        <v>7005</v>
-      </c>
-      <c r="U48" s="4">
-        <f t="shared" si="125"/>
-        <v>0.11273848722341184</v>
-      </c>
-      <c r="V48" s="4">
-        <f t="shared" si="126"/>
-        <v>0.14296166481719164</v>
-      </c>
-      <c r="W48" s="1">
-        <f t="shared" si="127"/>
         <v>0.18998854488424169</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B49">
         <v>135</v>
@@ -5688,73 +5840,73 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E49" s="23">
-        <f t="shared" si="114"/>
+        <f t="shared" si="111"/>
         <v>0.21991360000000004</v>
       </c>
-      <c r="F49" s="4">
-        <f t="shared" si="115"/>
-        <v>2.60676E-2</v>
+      <c r="F49" s="14">
+        <f t="shared" si="4"/>
+        <v>8.6812800000000023E-2</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="116"/>
-        <v>3.519126</v>
+        <f t="shared" si="112"/>
+        <v>11.719728000000003</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K49" s="2">
+        <f t="shared" si="113"/>
+        <v>134.87040000000002</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="114"/>
+        <v>0.12959999999998217</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="115"/>
+        <v>0.89913600000000016</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" si="116"/>
+        <v>5825.51</v>
+      </c>
+      <c r="O49" s="2">
         <f t="shared" si="117"/>
-        <v>134.87040000000002</v>
-      </c>
-      <c r="L49" s="2">
-        <f t="shared" si="118"/>
-        <v>0.12959999999998217</v>
-      </c>
-      <c r="M49" s="1">
-        <f t="shared" si="119"/>
-        <v>0.89913600000000016</v>
-      </c>
-      <c r="N49" s="6">
-        <f t="shared" si="120"/>
-        <v>5825.51</v>
-      </c>
-      <c r="O49" s="2">
-        <f t="shared" si="121"/>
         <v>6524.5712000000012</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="6">
+        <f t="shared" si="118"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S49" s="6">
+        <f t="shared" si="119"/>
+        <v>8005.4812000000011</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="120"/>
+        <v>7140</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="121"/>
+        <v>0.12121585434173676</v>
+      </c>
+      <c r="V49" s="4">
         <f t="shared" si="122"/>
-        <v>1480.91</v>
-      </c>
-      <c r="S49" s="6">
+        <v>0.15293646151589768</v>
+      </c>
+      <c r="W49" s="1">
         <f t="shared" si="123"/>
-        <v>8005.4812000000011</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="124"/>
-        <v>7140</v>
-      </c>
-      <c r="U49" s="4">
-        <f t="shared" si="125"/>
-        <v>0.12121585434173676</v>
-      </c>
-      <c r="V49" s="4">
-        <f t="shared" si="126"/>
-        <v>0.15293646151589768</v>
-      </c>
-      <c r="W49" s="1">
-        <f t="shared" si="127"/>
         <v>0.18498700615273445</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" s="7" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B50">
         <v>135</v>
@@ -5766,73 +5918,73 @@
         <v>1.1504000000000001</v>
       </c>
       <c r="E50" s="23">
-        <f t="shared" ref="E50:E54" si="128">10%*M50+13%</f>
+        <f t="shared" ref="E50:E54" si="124">10%*M50+13%</f>
         <v>0.219915264</v>
       </c>
-      <c r="F50" s="4">
-        <f t="shared" ref="F50:F54" si="129">IF(G50="",($F$1*C50-B50)/B50,H50/B50)</f>
-        <v>-1.0283555555554778E-3</v>
+      <c r="F50" s="14">
+        <f t="shared" si="4"/>
+        <v>5.8112711111111062E-2</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" ref="H50:H54" si="130">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>-0.13882799999998952</v>
+        <f t="shared" ref="H50:H54" si="125">IF(G50="",$F$1*C50-B50,G50-B50)</f>
+        <v>7.8452159999999935</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" ref="K50:K54" si="131">D50*C50</f>
+        <f t="shared" ref="K50:K54" si="126">D50*C50</f>
         <v>134.872896</v>
       </c>
       <c r="L50" s="2">
-        <f t="shared" ref="L50:L54" si="132">B50-K50</f>
+        <f t="shared" ref="L50:L54" si="127">B50-K50</f>
         <v>0.12710400000000277</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" ref="M50:M54" si="133">K50/150</f>
+        <f t="shared" ref="M50:M54" si="128">K50/150</f>
         <v>0.89915263999999995</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" ref="N50:N54" si="134">N49+C50-P50</f>
+        <f t="shared" ref="N50:N54" si="129">N49+C50-P50</f>
         <v>5942.75</v>
       </c>
       <c r="O50" s="2">
-        <f t="shared" ref="O50:O54" si="135">N50*D50</f>
+        <f t="shared" ref="O50:O54" si="130">N50*D50</f>
         <v>6836.539600000001</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="6">
-        <f t="shared" ref="R50:R54" si="136">R49+Q50</f>
+        <f t="shared" ref="R50:R54" si="131">R49+Q50</f>
         <v>1480.91</v>
       </c>
       <c r="S50" s="6">
-        <f t="shared" ref="S50:S54" si="137">R50+O50</f>
+        <f t="shared" ref="S50:S54" si="132">R50+O50</f>
         <v>8317.4496000000017</v>
       </c>
       <c r="T50">
-        <f t="shared" ref="T50:T54" si="138">T49+B50</f>
+        <f t="shared" ref="T50:T54" si="133">T49+B50</f>
         <v>7275</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" ref="U50:U54" si="139">S50/T50-1</f>
+        <f t="shared" ref="U50:U54" si="134">S50/T50-1</f>
         <v>0.1432920412371137</v>
       </c>
       <c r="V50" s="4">
-        <f t="shared" ref="V50:V54" si="140">O50/(T50-R50)-1</f>
+        <f t="shared" ref="V50:V54" si="135">O50/(T50-R50)-1</f>
         <v>0.17991601787338496</v>
       </c>
       <c r="W50" s="1">
-        <f t="shared" ref="W50:W54" si="141">R50/S50</f>
+        <f t="shared" ref="W50:W54" si="136">R50/S50</f>
         <v>0.17804856911907224</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" s="7" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B51">
         <v>135</v>
@@ -5844,73 +5996,73 @@
         <v>1.1451</v>
       </c>
       <c r="E51" s="23">
-        <f t="shared" si="128"/>
+        <f t="shared" si="124"/>
         <v>0.219913252</v>
       </c>
-      <c r="F51" s="4">
-        <f t="shared" si="129"/>
-        <v>3.5728444444445089E-3</v>
+      <c r="F51" s="14">
+        <f t="shared" si="4"/>
+        <v>6.298631111111111E-2</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="130"/>
-        <v>0.4823340000000087</v>
+        <f t="shared" si="125"/>
+        <v>8.503152</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>134.869878</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>0.13012200000000007</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>0.89913251999999999</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>6060.53</v>
       </c>
       <c r="O51" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>6939.9129029999995</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="6">
+        <f t="shared" si="131"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S51" s="6">
+        <f t="shared" si="132"/>
+        <v>8420.8229030000002</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="133"/>
+        <v>7410</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="134"/>
+        <v>0.13641334723346832</v>
+      </c>
+      <c r="V51" s="4">
+        <f t="shared" si="135"/>
+        <v>0.17048533636696339</v>
+      </c>
+      <c r="W51" s="1">
         <f t="shared" si="136"/>
-        <v>1480.91</v>
-      </c>
-      <c r="S51" s="6">
-        <f t="shared" si="137"/>
-        <v>8420.8229030000002</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="138"/>
-        <v>7410</v>
-      </c>
-      <c r="U51" s="4">
-        <f t="shared" si="139"/>
-        <v>0.13641334723346832</v>
-      </c>
-      <c r="V51" s="4">
-        <f t="shared" si="140"/>
-        <v>0.17048533636696339</v>
-      </c>
-      <c r="W51" s="1">
-        <f t="shared" si="141"/>
         <v>0.17586286008608629</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B52">
         <v>135</v>
@@ -5922,73 +6074,73 @@
         <v>1.1455</v>
       </c>
       <c r="E52" s="23">
-        <f t="shared" si="128"/>
+        <f t="shared" si="124"/>
         <v>0.21991411333333333</v>
       </c>
-      <c r="F52" s="4">
-        <f t="shared" si="129"/>
-        <v>3.2320148148149504E-3</v>
+      <c r="F52" s="14">
+        <f t="shared" si="4"/>
+        <v>6.2625303703703561E-2</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="130"/>
-        <v>0.43632200000001831</v>
+        <f t="shared" si="125"/>
+        <v>8.4544159999999806</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>134.87116999999998</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>0.12883000000002198</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>0.89914113333333323</v>
       </c>
       <c r="N52" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>6178.2699999999995</v>
       </c>
       <c r="O52" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>7077.2082849999988</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="6">
+        <f t="shared" si="131"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S52" s="6">
+        <f t="shared" si="132"/>
+        <v>8558.1182849999987</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="133"/>
+        <v>7545</v>
+      </c>
+      <c r="U52" s="4">
+        <f t="shared" si="134"/>
+        <v>0.13427677733598387</v>
+      </c>
+      <c r="V52" s="4">
+        <f t="shared" si="135"/>
+        <v>0.16706847771058775</v>
+      </c>
+      <c r="W52" s="1">
         <f t="shared" si="136"/>
-        <v>1480.91</v>
-      </c>
-      <c r="S52" s="6">
-        <f t="shared" si="137"/>
-        <v>8558.1182849999987</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="138"/>
-        <v>7545</v>
-      </c>
-      <c r="U52" s="4">
-        <f t="shared" si="139"/>
-        <v>0.13427677733598387</v>
-      </c>
-      <c r="V52" s="4">
-        <f t="shared" si="140"/>
-        <v>0.16706847771058775</v>
-      </c>
-      <c r="W52" s="1">
-        <f t="shared" si="141"/>
         <v>0.17304154379305828</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B53">
         <v>135</v>
@@ -6000,73 +6152,73 @@
         <v>1.1458999999999999</v>
       </c>
       <c r="E53" s="23">
-        <f t="shared" si="128"/>
+        <f t="shared" si="124"/>
         <v>0.21991495333333333</v>
       </c>
-      <c r="F53" s="4">
-        <f t="shared" si="129"/>
-        <v>2.8911851851853919E-3</v>
+      <c r="F53" s="14">
+        <f t="shared" si="4"/>
+        <v>6.226429629629622E-2</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="130"/>
-        <v>0.39031000000002791</v>
+        <f t="shared" si="125"/>
+        <v>8.4056799999999896</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>134.87242999999998</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>0.12757000000001995</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>0.89914953333333325</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>6295.9699999999993</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>7214.5520229999984</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="6">
+        <f t="shared" si="131"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S53" s="6">
+        <f t="shared" si="132"/>
+        <v>8695.4620229999982</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="133"/>
+        <v>7680</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="134"/>
+        <v>0.13222161757812478</v>
+      </c>
+      <c r="V53" s="4">
+        <f t="shared" si="135"/>
+        <v>0.16380824008039863</v>
+      </c>
+      <c r="W53" s="1">
         <f t="shared" si="136"/>
-        <v>1480.91</v>
-      </c>
-      <c r="S53" s="6">
-        <f t="shared" si="137"/>
-        <v>8695.4620229999982</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="138"/>
-        <v>7680</v>
-      </c>
-      <c r="U53" s="4">
-        <f t="shared" si="139"/>
-        <v>0.13222161757812478</v>
-      </c>
-      <c r="V53" s="4">
-        <f t="shared" si="140"/>
-        <v>0.16380824008039863</v>
-      </c>
-      <c r="W53" s="1">
-        <f t="shared" si="141"/>
         <v>0.170308374193678</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B54">
         <v>135</v>
@@ -6078,81 +6230,796 @@
         <v>1.1451</v>
       </c>
       <c r="E54" s="23">
-        <f t="shared" si="128"/>
+        <f t="shared" si="124"/>
         <v>0.219913252</v>
       </c>
-      <c r="F54" s="4">
-        <f t="shared" si="129"/>
-        <v>3.5728444444445089E-3</v>
+      <c r="F54" s="14">
+        <f t="shared" si="4"/>
+        <v>6.298631111111111E-2</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="130"/>
-        <v>0.4823340000000087</v>
+        <f t="shared" si="125"/>
+        <v>8.503152</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>134.869878</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>0.13012200000000007</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>0.89913251999999999</v>
       </c>
       <c r="N54" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>6413.7499999999991</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>7344.3851249999989</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="6">
+        <f t="shared" si="131"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S54" s="6">
+        <f t="shared" si="132"/>
+        <v>8825.2951249999987</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="133"/>
+        <v>7815</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="134"/>
+        <v>0.12927640754958403</v>
+      </c>
+      <c r="V54" s="4">
+        <f t="shared" si="135"/>
+        <v>0.15950122669554712</v>
+      </c>
+      <c r="W54" s="1">
         <f t="shared" si="136"/>
+        <v>0.16780288693178408</v>
+      </c>
+      <c r="X54" s="6"/>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55">
+        <v>135</v>
+      </c>
+      <c r="C55" s="2">
+        <v>120.49</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.1193</v>
+      </c>
+      <c r="E55" s="23">
+        <f t="shared" ref="E55:E59" si="137">10%*M55+13%</f>
+        <v>0.21990963800000002</v>
+      </c>
+      <c r="F55" s="14">
+        <f t="shared" si="4"/>
+        <v>8.7444562962962921E-2</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" ref="H55:H59" si="138">IF(G55="",$F$1*C55-B55,G55-B55)</f>
+        <v>11.805015999999995</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" t="s">
+        <v>217</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" ref="K55:K59" si="139">D55*C55</f>
+        <v>134.86445699999999</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" ref="L55:L59" si="140">B55-K55</f>
+        <v>0.13554300000001263</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" ref="M55:M59" si="141">K55/150</f>
+        <v>0.89909637999999992</v>
+      </c>
+      <c r="N55" s="6">
+        <f t="shared" ref="N55:N59" si="142">N54+C55-P55</f>
+        <v>6534.2399999999989</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" ref="O55:O59" si="143">N55*D55</f>
+        <v>7313.7748319999982</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="6">
+        <f t="shared" ref="R55:R59" si="144">R54+Q55</f>
         <v>1480.91</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S55" s="6">
+        <f t="shared" ref="S55:S59" si="145">R55+O55</f>
+        <v>8794.684831999999</v>
+      </c>
+      <c r="T55">
+        <f t="shared" ref="T55:T59" si="146">T54+B55</f>
+        <v>7950</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" ref="U55:U59" si="147">S55/T55-1</f>
+        <v>0.10624966440251571</v>
+      </c>
+      <c r="V55" s="4">
+        <f t="shared" ref="V55:V59" si="148">O55/(T55-R55)-1</f>
+        <v>0.13057243476284897</v>
+      </c>
+      <c r="W55" s="1">
+        <f t="shared" ref="W55:W59" si="149">R55/S55</f>
+        <v>0.16838693236756119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56">
+        <v>135</v>
+      </c>
+      <c r="C56" s="2">
+        <v>121.8</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1.1073</v>
+      </c>
+      <c r="E56" s="23">
         <f t="shared" si="137"/>
-        <v>8825.2951249999987</v>
-      </c>
-      <c r="T54">
+        <v>0.21991275999999998</v>
+      </c>
+      <c r="F56" s="14">
+        <f t="shared" si="4"/>
+        <v>9.9267555555555498E-2</v>
+      </c>
+      <c r="H56" s="2">
         <f t="shared" si="138"/>
-        <v>7815</v>
-      </c>
-      <c r="U54" s="4">
+        <v>13.401119999999992</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" t="s">
+        <v>219</v>
+      </c>
+      <c r="K56" s="2">
         <f t="shared" si="139"/>
-        <v>0.12927640754958403</v>
-      </c>
-      <c r="V54" s="4">
+        <v>134.86913999999999</v>
+      </c>
+      <c r="L56" s="2">
         <f t="shared" si="140"/>
-        <v>0.15950122669554712</v>
-      </c>
-      <c r="W54" s="1">
+        <v>0.13086000000001263</v>
+      </c>
+      <c r="M56" s="1">
         <f t="shared" si="141"/>
-        <v>0.16780288693178408</v>
+        <v>0.89912759999999992</v>
+      </c>
+      <c r="N56" s="6">
+        <f t="shared" si="142"/>
+        <v>6656.0399999999991</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="143"/>
+        <v>7370.2330919999986</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="6">
+        <f t="shared" si="144"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S56" s="6">
+        <f t="shared" si="145"/>
+        <v>8851.1430919999984</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="146"/>
+        <v>8085</v>
+      </c>
+      <c r="U56" s="4">
+        <f t="shared" si="147"/>
+        <v>9.4761050340135933E-2</v>
+      </c>
+      <c r="V56" s="4">
+        <f t="shared" si="148"/>
+        <v>0.11601039537619839</v>
+      </c>
+      <c r="W56" s="1">
+        <f t="shared" si="149"/>
+        <v>0.16731285265724641</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57">
+        <v>135</v>
+      </c>
+      <c r="C57" s="2">
+        <v>120.51</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1.1192</v>
+      </c>
+      <c r="E57" s="23">
+        <f t="shared" si="137"/>
+        <v>0.219916528</v>
+      </c>
+      <c r="F57" s="14">
+        <f t="shared" si="4"/>
+        <v>8.7625066666666696E-2</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="138"/>
+        <v>11.829384000000005</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
+        <v>221</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="139"/>
+        <v>134.87479200000001</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="140"/>
+        <v>0.12520799999998644</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="141"/>
+        <v>0.89916528000000007</v>
+      </c>
+      <c r="N57" s="6">
+        <f t="shared" si="142"/>
+        <v>6776.5499999999993</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="143"/>
+        <v>7584.3147599999993</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="6">
+        <f t="shared" si="144"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S57" s="6">
+        <f t="shared" si="145"/>
+        <v>9065.2247599999992</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="146"/>
+        <v>8220</v>
+      </c>
+      <c r="U57" s="4">
+        <f t="shared" si="147"/>
+        <v>0.10282539659367385</v>
+      </c>
+      <c r="V57" s="4">
+        <f t="shared" si="148"/>
+        <v>0.12542120078526908</v>
+      </c>
+      <c r="W57" s="1">
+        <f t="shared" si="149"/>
+        <v>0.16336164179121801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58">
+        <v>135</v>
+      </c>
+      <c r="C58" s="2">
+        <v>120.94</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1.1152</v>
+      </c>
+      <c r="E58" s="23">
+        <f t="shared" si="137"/>
+        <v>0.21991485866666666</v>
+      </c>
+      <c r="F58" s="14">
+        <f t="shared" si="4"/>
+        <v>9.1505896296296296E-2</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="138"/>
+        <v>12.353296</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" t="s">
+        <v>223</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="139"/>
+        <v>134.872288</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="140"/>
+        <v>0.12771200000000249</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" si="141"/>
+        <v>0.89914858666666664</v>
+      </c>
+      <c r="N58" s="6">
+        <f t="shared" si="142"/>
+        <v>6897.4899999999989</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="143"/>
+        <v>7692.0808479999987</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="6">
+        <f t="shared" si="144"/>
+        <v>1480.91</v>
+      </c>
+      <c r="S58" s="6">
+        <f t="shared" si="145"/>
+        <v>9172.9908479999995</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="146"/>
+        <v>8355</v>
+      </c>
+      <c r="U58" s="4">
+        <f t="shared" si="147"/>
+        <v>9.7904350448833055E-2</v>
+      </c>
+      <c r="V58" s="4">
+        <f t="shared" si="148"/>
+        <v>0.11899623775656099</v>
+      </c>
+      <c r="W58" s="1">
+        <f t="shared" si="149"/>
+        <v>0.16144243731834584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59">
+        <v>135</v>
+      </c>
+      <c r="C59" s="39">
+        <v>116.68</v>
+      </c>
+      <c r="D59" s="40">
+        <v>1.1558999999999999</v>
+      </c>
+      <c r="E59" s="23">
+        <f t="shared" si="137"/>
+        <v>0.21991360799999998</v>
+      </c>
+      <c r="F59" s="14">
+        <f t="shared" si="4"/>
+        <v>5.3058607407407449E-2</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="138"/>
+        <v>7.1629120000000057</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" t="s">
+        <v>225</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="139"/>
+        <v>134.87041199999999</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" si="140"/>
+        <v>0.12958800000001247</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" si="141"/>
+        <v>0.89913607999999989</v>
+      </c>
+      <c r="N59" s="6">
+        <f t="shared" si="142"/>
+        <v>6854.0899999999992</v>
+      </c>
+      <c r="O59" s="2">
+        <f t="shared" si="143"/>
+        <v>7922.6426309999988</v>
+      </c>
+      <c r="P59" s="2">
+        <v>160.08000000000001</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>184.95</v>
+      </c>
+      <c r="R59" s="6">
+        <f t="shared" si="144"/>
+        <v>1665.8600000000001</v>
+      </c>
+      <c r="S59" s="6">
+        <f t="shared" si="145"/>
+        <v>9588.5026309999994</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="146"/>
+        <v>8490</v>
+      </c>
+      <c r="U59" s="4">
+        <f t="shared" si="147"/>
+        <v>0.12938782461719667</v>
+      </c>
+      <c r="V59" s="4">
+        <f t="shared" si="148"/>
+        <v>0.16097305023050512</v>
+      </c>
+      <c r="W59" s="1">
+        <f t="shared" si="149"/>
+        <v>0.17373515595795014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60">
+        <v>135</v>
+      </c>
+      <c r="C60" s="39">
+        <v>113.8</v>
+      </c>
+      <c r="D60" s="40">
+        <v>1.1852</v>
+      </c>
+      <c r="E60" s="23">
+        <f t="shared" ref="E60" si="150">10%*M60+13%</f>
+        <v>0.21991717333333335</v>
+      </c>
+      <c r="F60" s="14">
+        <f t="shared" si="4"/>
+        <v>2.7066074074074069E-2</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" ref="H60" si="151">IF(G60="",$F$1*C60-B60,G60-B60)</f>
+        <v>3.6539199999999994</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
+        <v>239</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" ref="K60" si="152">D60*C60</f>
+        <v>134.87576000000001</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" ref="L60" si="153">B60-K60</f>
+        <v>0.12423999999998614</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" ref="M60" si="154">K60/150</f>
+        <v>0.89917173333333344</v>
+      </c>
+      <c r="N60" s="6">
+        <f t="shared" ref="N60" si="155">N59+C60-P60</f>
+        <v>5550.7199999999993</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" ref="O60" si="156">N60*D60</f>
+        <v>6578.7133439999998</v>
+      </c>
+      <c r="P60" s="2">
+        <v>1417.17</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>1678.81</v>
+      </c>
+      <c r="R60" s="6">
+        <f t="shared" ref="R60" si="157">R59+Q60</f>
+        <v>3344.67</v>
+      </c>
+      <c r="S60" s="6">
+        <f t="shared" ref="S60" si="158">R60+O60</f>
+        <v>9923.3833439999999</v>
+      </c>
+      <c r="T60">
+        <f t="shared" ref="T60" si="159">T59+B60</f>
+        <v>8625</v>
+      </c>
+      <c r="U60" s="4">
+        <f t="shared" ref="U60" si="160">S60/T60-1</f>
+        <v>0.15053719930434784</v>
+      </c>
+      <c r="V60" s="4">
+        <f t="shared" ref="V60" si="161">O60/(T60-R60)-1</f>
+        <v>0.24589056820312361</v>
+      </c>
+      <c r="W60" s="1">
+        <f t="shared" ref="W60" si="162">R60/S60</f>
+        <v>0.33704935948305337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61">
+        <v>135</v>
+      </c>
+      <c r="C61" s="39">
+        <v>113.86</v>
+      </c>
+      <c r="D61" s="40">
+        <v>1.1845000000000001</v>
+      </c>
+      <c r="E61" s="23">
+        <f t="shared" ref="E61:E63" si="163">10%*M61+13%</f>
+        <v>0.21991144666666668</v>
+      </c>
+      <c r="F61" s="14">
+        <f t="shared" ref="F61:F63" si="164">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
+        <v>2.7607585185185187E-2</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" ref="H61:H63" si="165">IF(G61="",$F$1*C61-B61,G61-B61)</f>
+        <v>3.7270240000000001</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" t="s">
+        <v>258</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" ref="K61:K63" si="166">D61*C61</f>
+        <v>134.86717000000002</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" ref="L61:L63" si="167">B61-K61</f>
+        <v>0.13282999999998424</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" ref="M61:M63" si="168">K61/150</f>
+        <v>0.89911446666666672</v>
+      </c>
+      <c r="N61" s="6">
+        <f t="shared" ref="N61:N63" si="169">N60+C61-P61</f>
+        <v>5664.579999999999</v>
+      </c>
+      <c r="O61" s="2">
+        <f t="shared" ref="O61:O63" si="170">N61*D61</f>
+        <v>6709.6950099999995</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="6">
+        <f t="shared" ref="R61:R63" si="171">R60+Q61</f>
+        <v>3344.67</v>
+      </c>
+      <c r="S61" s="6">
+        <f t="shared" ref="S61:S63" si="172">R61+O61</f>
+        <v>10054.36501</v>
+      </c>
+      <c r="T61">
+        <f t="shared" ref="T61:T63" si="173">T60+B61</f>
+        <v>8760</v>
+      </c>
+      <c r="U61" s="4">
+        <f t="shared" ref="U61:U63" si="174">S61/T61-1</f>
+        <v>0.14775856278538813</v>
+      </c>
+      <c r="V61" s="4">
+        <f t="shared" ref="V61:V63" si="175">O61/(T61-R61)-1</f>
+        <v>0.23901867660881226</v>
+      </c>
+      <c r="W61" s="1">
+        <f t="shared" ref="W61:W63" si="176">R61/S61</f>
+        <v>0.33265850172272593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62">
+        <v>135</v>
+      </c>
+      <c r="C62" s="39">
+        <v>112.49</v>
+      </c>
+      <c r="D62" s="40">
+        <v>1.1989000000000001</v>
+      </c>
+      <c r="E62" s="23">
+        <f t="shared" si="163"/>
+        <v>0.21990950733333334</v>
+      </c>
+      <c r="F62" s="14">
+        <f t="shared" si="164"/>
+        <v>1.5243081481481289E-2</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="165"/>
+        <v>2.0578159999999741</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" t="s">
+        <v>260</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="166"/>
+        <v>134.864261</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" si="167"/>
+        <v>0.13573900000000094</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="168"/>
+        <v>0.89909507333333327</v>
+      </c>
+      <c r="N62" s="6">
+        <f t="shared" si="169"/>
+        <v>5687.6099999999988</v>
+      </c>
+      <c r="O62" s="2">
+        <f t="shared" si="170"/>
+        <v>6818.8756289999992</v>
+      </c>
+      <c r="P62" s="2">
+        <v>89.46</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>107.2</v>
+      </c>
+      <c r="R62" s="6">
+        <f t="shared" si="171"/>
+        <v>3451.87</v>
+      </c>
+      <c r="S62" s="6">
+        <f t="shared" si="172"/>
+        <v>10270.745628999999</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="173"/>
+        <v>8895</v>
+      </c>
+      <c r="U62" s="4">
+        <f t="shared" si="174"/>
+        <v>0.15466505103990991</v>
+      </c>
+      <c r="V62" s="4">
+        <f t="shared" si="175"/>
+        <v>0.2527489935019005</v>
+      </c>
+      <c r="W62" s="1">
+        <f t="shared" si="176"/>
+        <v>0.33608757578938186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63">
+        <v>120</v>
+      </c>
+      <c r="C63" s="39">
+        <v>99.04</v>
+      </c>
+      <c r="D63" s="40">
+        <v>1.2103999999999999</v>
+      </c>
+      <c r="E63" s="23">
+        <f t="shared" si="163"/>
+        <v>0.20991867733333336</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="164"/>
+        <v>5.5861333333333835E-3</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="165"/>
+        <v>0.67033600000000604</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" t="s">
+        <v>262</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="166"/>
+        <v>119.878016</v>
+      </c>
+      <c r="L63" s="2">
+        <f t="shared" si="167"/>
+        <v>0.12198399999999765</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" si="168"/>
+        <v>0.79918677333333332</v>
+      </c>
+      <c r="N63" s="6">
+        <f t="shared" si="169"/>
+        <v>5786.6499999999987</v>
+      </c>
+      <c r="O63" s="2">
+        <f t="shared" si="170"/>
+        <v>7004.1611599999978</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="6">
+        <f t="shared" si="171"/>
+        <v>3451.87</v>
+      </c>
+      <c r="S63" s="6">
+        <f t="shared" si="172"/>
+        <v>10456.031159999999</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="173"/>
+        <v>9015</v>
+      </c>
+      <c r="U63" s="4">
+        <f t="shared" si="174"/>
+        <v>0.15984815973377686</v>
+      </c>
+      <c r="V63" s="4">
+        <f t="shared" si="175"/>
+        <v>0.25903244396589642</v>
+      </c>
+      <c r="W63" s="1">
+        <f t="shared" si="176"/>
+        <v>0.33013195419742802</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{97C2E941-0B08-D04E-A558-71A6284C31B0}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="between">
       <formula>-0.45</formula>
       <formula>0.45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6164,7 +7031,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6178,7 +7045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6191,13 +7058,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9 F11:F54">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
-      <formula>E9</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6208,6 +7070,14 @@
           <x14:id>{C88D5F72-975B-5542-AAB3-16725ABF7833}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F63">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6265,13 +7135,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6313,14 +7183,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>0.96799999999999997</v>
+        <v>1.0152000000000001</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="H1" s="21" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19996),2)</f>
-        <v>盈利1439.82</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19994),2)</f>
+        <v>盈利1693.86</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -6335,25 +7205,25 @@
         <v>54</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="T1" t="s">
         <v>55</v>
@@ -6362,10 +7232,10 @@
         <v>77</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="W1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -6399,7 +7269,7 @@
         <v>76</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="K2" s="2">
         <f>D2*C2</f>
@@ -6463,7 +7333,7 @@
         <v>0.23</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" ref="F3:F43" si="1">IF(G3="",($F$1*C3-B3)/B3,H3/B3)</f>
+        <f t="shared" ref="F3:F60" si="1">IF(G3="",($F$1*C3-B3)/B3,H3/B3)</f>
         <v>0.26806666666666673</v>
       </c>
       <c r="G3" s="31">
@@ -6477,7 +7347,7 @@
         <v>76</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K7" si="3">D3*C3</f>
@@ -6556,7 +7426,7 @@
         <v>76</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="3"/>
@@ -6635,7 +7505,7 @@
         <v>76</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="3"/>
@@ -6714,7 +7584,7 @@
         <v>76</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
@@ -6793,7 +7663,7 @@
         <v>76</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
@@ -6872,7 +7742,7 @@
         <v>76</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:K9" si="12">D8*C8</f>
@@ -6951,7 +7821,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="12"/>
@@ -7030,7 +7900,7 @@
         <v>76</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" ref="K10:K13" si="13">D10*C10</f>
@@ -7109,7 +7979,7 @@
         <v>76</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="13"/>
@@ -7188,7 +8058,7 @@
         <v>76</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="13"/>
@@ -7267,7 +8137,7 @@
         <v>76</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="13"/>
@@ -7346,7 +8216,7 @@
         <v>76</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" ref="K14" si="15">D14*C14</f>
@@ -7425,7 +8295,7 @@
         <v>76</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ref="K15:K19" si="16">D15*C15</f>
@@ -7504,7 +8374,7 @@
         <v>76</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="16"/>
@@ -7583,7 +8453,7 @@
         <v>76</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="16"/>
@@ -7662,7 +8532,7 @@
         <v>76</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="16"/>
@@ -7741,7 +8611,7 @@
         <v>76</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="16"/>
@@ -7790,36 +8660,38 @@
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="26">
         <v>270</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="27">
         <v>357.76</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="28">
         <v>0.75470000000000004</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="32">
         <f>10%*M20+13%</f>
         <v>0.31000098133333331</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="30">
         <f t="shared" si="1"/>
-        <v>0.28263585185185175</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="20">
+        <v>0.3153703703703703</v>
+      </c>
+      <c r="G20" s="31">
+        <v>355.15</v>
+      </c>
+      <c r="H20" s="33">
         <f t="shared" si="2"/>
-        <v>76.311679999999967</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" t="s">
-        <v>105</v>
+        <v>85.149999999999977</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>249</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ref="K20:K23" si="17">D20*C20</f>
@@ -7868,36 +8740,38 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="26">
         <v>270</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="27">
         <v>361.93</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="28">
         <v>0.746</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="32">
         <f>10%*M21+13%</f>
         <v>0.30999985333333335</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="30">
         <f t="shared" si="1"/>
-        <v>0.297586074074074</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="20">
+        <v>0.33070370370370378</v>
+      </c>
+      <c r="G21" s="31">
+        <v>359.29</v>
+      </c>
+      <c r="H21" s="33">
         <f t="shared" si="2"/>
-        <v>80.348239999999976</v>
-      </c>
-      <c r="I21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" t="s">
-        <v>106</v>
+        <v>89.29000000000002</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="17"/>
@@ -7946,36 +8820,38 @@
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="26">
         <v>270</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="27">
         <v>365.31</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="28">
         <v>0.73909999999999998</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="32">
         <f t="shared" ref="E22:E34" si="18">10%*M22+13%</f>
         <v>0.310000414</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="30">
         <f t="shared" si="1"/>
-        <v>0.30970399999999992</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="20">
+        <v>0.34311111111111103</v>
+      </c>
+      <c r="G22" s="31">
+        <v>362.64</v>
+      </c>
+      <c r="H22" s="33">
         <f t="shared" si="2"/>
-        <v>83.620079999999973</v>
-      </c>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" t="s">
-        <v>107</v>
+        <v>92.639999999999986</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>251</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="17"/>
@@ -8055,7 +8931,7 @@
         <v>76</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="17"/>
@@ -8104,36 +8980,38 @@
       </c>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="26">
         <v>270</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="27">
         <v>358.76</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="28">
         <v>0.75260000000000005</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="32">
         <f t="shared" si="18"/>
         <v>0.31000185066666663</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="30">
         <f t="shared" si="1"/>
-        <v>0.286221037037037</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="20">
+        <v>0.31903703703703701</v>
+      </c>
+      <c r="G24" s="31">
+        <v>356.14</v>
+      </c>
+      <c r="H24" s="33">
         <f t="shared" si="2"/>
-        <v>77.279679999999985</v>
-      </c>
-      <c r="I24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" t="s">
-        <v>108</v>
+        <v>86.139999999999986</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>252</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" ref="K24" si="19">D24*C24</f>
@@ -8182,36 +9060,38 @@
       </c>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="26">
         <v>270</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="27">
         <v>350.56</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="28">
         <v>0.7702</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="32">
         <f t="shared" si="18"/>
         <v>0.3100008746666667</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="30">
         <f t="shared" si="1"/>
-        <v>0.25682251851851856</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="20">
+        <v>0.31329629629629618</v>
+      </c>
+      <c r="G25" s="31">
+        <v>354.59</v>
+      </c>
+      <c r="H25" s="33">
         <f t="shared" si="2"/>
-        <v>69.34208000000001</v>
-      </c>
-      <c r="I25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" t="s">
-        <v>109</v>
+        <v>84.589999999999975</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>271</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" ref="K25" si="21">D25*C25</f>
@@ -8261,7 +9141,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="34" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B26" s="26">
         <v>120</v>
@@ -8291,7 +9171,7 @@
         <v>76</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" ref="K26:K29" si="25">D26*C26</f>
@@ -8368,10 +9248,10 @@
         <v>25.22999999999999</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="25"/>
@@ -8451,7 +9331,7 @@
         <v>76</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="25"/>
@@ -8528,10 +9408,10 @@
         <v>25.539999999999992</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="25"/>
@@ -8580,36 +9460,38 @@
       </c>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="26">
         <v>120</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="27">
         <v>147.63999999999999</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="28">
         <v>0.81279999999999997</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="32">
         <f t="shared" si="18"/>
         <v>0.21000119466666667</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="30">
         <f t="shared" si="1"/>
-        <v>0.19096266666666656</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="20">
+        <v>0.22125000000000009</v>
+      </c>
+      <c r="G30" s="31">
+        <v>146.55000000000001</v>
+      </c>
+      <c r="H30" s="33">
         <f t="shared" si="2"/>
-        <v>22.915519999999987</v>
-      </c>
-      <c r="I30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" t="s">
-        <v>110</v>
+        <v>26.550000000000011</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>253</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" ref="K30" si="29">D30*C30</f>
@@ -8658,36 +9540,38 @@
       </c>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="26">
         <v>105</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="27">
         <v>129.06</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="28">
         <v>0.81359999999999999</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="32">
         <f t="shared" si="18"/>
         <v>0.20000214399999999</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="30">
         <f t="shared" si="1"/>
-        <v>0.18981028571428574</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="20">
+        <v>0.22019047619047624</v>
+      </c>
+      <c r="G31" s="31">
+        <v>128.12</v>
+      </c>
+      <c r="H31" s="33">
         <f t="shared" si="2"/>
-        <v>19.930080000000004</v>
-      </c>
-      <c r="I31" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" t="s">
-        <v>111</v>
+        <v>23.120000000000005</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>254</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" ref="K31:K34" si="33">D31*C31</f>
@@ -8736,36 +9620,38 @@
       </c>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="26">
         <v>105</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="27">
         <v>129.04</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="28">
         <v>0.81369999999999998</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="32">
         <f t="shared" si="18"/>
         <v>0.19999989866666668</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="30">
         <f t="shared" si="1"/>
-        <v>0.18962590476190461</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="20">
+        <v>0.21999999999999995</v>
+      </c>
+      <c r="G32" s="31">
+        <v>128.1</v>
+      </c>
+      <c r="H32" s="33">
         <f t="shared" si="2"/>
-        <v>19.910719999999984</v>
-      </c>
-      <c r="I32" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" t="s">
-        <v>112</v>
+        <v>23.099999999999994</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>256</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="33"/>
@@ -8814,36 +9700,38 @@
       </c>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="26">
         <v>105</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="27">
         <v>129.26</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="28">
         <v>0.81230000000000002</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="32">
         <f t="shared" si="18"/>
         <v>0.19999859866666667</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="30">
         <f t="shared" si="1"/>
-        <v>0.19165409523809518</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="20">
+        <v>0.22209523809523804</v>
+      </c>
+      <c r="G33" s="31">
+        <v>128.32</v>
+      </c>
+      <c r="H33" s="33">
         <f t="shared" si="2"/>
-        <v>20.123679999999993</v>
-      </c>
-      <c r="I33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" t="s">
-        <v>113</v>
+        <v>23.319999999999993</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>255</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="33"/>
@@ -8892,36 +9780,38 @@
       </c>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="26">
         <v>105</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="27">
         <v>126.26</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="28">
         <v>0.83160000000000001</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="32">
         <f t="shared" si="18"/>
         <v>0.199998544</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="30">
         <f t="shared" si="1"/>
-        <v>0.16399695238095235</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="20">
+        <v>0.20923809523809522</v>
+      </c>
+      <c r="G34" s="31">
+        <v>126.97</v>
+      </c>
+      <c r="H34" s="33">
         <f t="shared" si="2"/>
-        <v>17.219679999999997</v>
-      </c>
-      <c r="I34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" t="s">
-        <v>114</v>
+        <v>21.97</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>270</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="33"/>
@@ -8972,7 +9862,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="7" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B35">
         <v>105</v>
@@ -8987,20 +9877,20 @@
         <f t="shared" ref="E35:E36" si="37">10%*M35+13%</f>
         <v>0.19999914333333335</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="30">
         <f t="shared" si="1"/>
-        <v>0.10564038095238099</v>
+        <v>0.1595517714285716</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="20">
         <f t="shared" si="2"/>
-        <v>11.092240000000004</v>
+        <v>16.75293600000002</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" ref="K35:K36" si="38">D35*C35</f>
@@ -9051,7 +9941,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B36">
         <v>90</v>
@@ -9066,20 +9956,20 @@
         <f t="shared" si="37"/>
         <v>0.19000236000000001</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="30">
         <f t="shared" si="1"/>
-        <v>0.10696177777777775</v>
+        <v>0.16093760000000007</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="20">
         <f t="shared" si="2"/>
-        <v>9.6265599999999978</v>
+        <v>14.484384000000006</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="38"/>
@@ -9130,7 +10020,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="7" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B37">
         <v>90</v>
@@ -9145,20 +10035,20 @@
         <f t="shared" ref="E37:E39" si="46">10%*M37+13%</f>
         <v>0.19000028666666666</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="30">
         <f t="shared" si="1"/>
-        <v>0.11137155555555549</v>
+        <v>0.16556240000000016</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="20">
         <f t="shared" si="2"/>
-        <v>10.023439999999994</v>
+        <v>14.900616000000014</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" ref="K37:K39" si="47">D37*C37</f>
@@ -9209,7 +10099,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B38">
         <v>90</v>
@@ -9224,20 +10114,20 @@
         <f t="shared" si="46"/>
         <v>0.19000048</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="30">
         <f t="shared" si="1"/>
-        <v>0.1099733333333333</v>
+        <v>0.16409600000000021</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="20">
         <f t="shared" si="2"/>
-        <v>9.8975999999999971</v>
+        <v>14.768640000000019</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="47"/>
@@ -9288,7 +10178,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="7" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B39">
         <v>90</v>
@@ -9303,20 +10193,20 @@
         <f t="shared" si="46"/>
         <v>0.18999957333333334</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="30">
         <f t="shared" si="1"/>
-        <v>0.10136888888888886</v>
+        <v>0.15507200000000015</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="20">
         <f t="shared" si="2"/>
-        <v>9.1231999999999971</v>
+        <v>13.956480000000013</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="47"/>
@@ -9367,7 +10257,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B40">
         <v>135</v>
@@ -9382,20 +10272,20 @@
         <f t="shared" ref="E40" si="56">10%*M40+13%</f>
         <v>0.21999970133333335</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F40" s="30">
         <f t="shared" si="1"/>
-        <v>8.3012740740740665E-2</v>
+        <v>0.1358208000000001</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="20">
         <f t="shared" ref="H40" si="57">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>11.20671999999999</v>
+        <v>18.335808000000014</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" ref="K40" si="58">D40*C40</f>
@@ -9446,7 +10336,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B41">
         <v>135</v>
@@ -9461,20 +10351,20 @@
         <f t="shared" ref="E41" si="68">10%*M41+13%</f>
         <v>0.22000138000000002</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F41" s="30">
         <f t="shared" si="1"/>
-        <v>5.6554074074073958E-2</v>
+        <v>0.108072</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="20">
         <f t="shared" ref="H41" si="69">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>7.6347999999999843</v>
+        <v>14.58972</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" ref="K41" si="70">D41*C41</f>
@@ -9529,7 +10419,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="36" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B42">
         <v>135</v>
@@ -9544,20 +10434,20 @@
         <f t="shared" ref="E42" si="80">10%*M42+13%</f>
         <v>0.21999737600000002</v>
       </c>
-      <c r="F42" s="39">
+      <c r="F42" s="30">
         <f t="shared" si="1"/>
-        <v>3.9488592592592624E-2</v>
+        <v>9.0174400000000154E-2</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="20">
         <f t="shared" ref="H42" si="81">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>5.3309600000000046</v>
+        <v>12.173544000000021</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" ref="K42" si="82">D42*C42</f>
@@ -9612,7 +10502,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="36" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B43">
         <v>135</v>
@@ -9627,20 +10517,20 @@
         <f t="shared" ref="E43" si="93">10%*M43+13%</f>
         <v>0.22000271133333332</v>
       </c>
-      <c r="F43" s="39">
+      <c r="F43" s="30">
         <f t="shared" si="1"/>
-        <v>2.6868740740740839E-2</v>
+        <v>7.693920000000011E-2</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="20">
         <f t="shared" ref="H43" si="94">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>3.6272800000000132</v>
+        <v>10.386792000000014</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" ref="K43" si="95">D43*C43</f>
@@ -9695,7 +10585,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="36" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B44">
         <v>135</v>
@@ -9710,71 +10600,71 @@
         <f t="shared" ref="E44" si="106">10%*M44+13%</f>
         <v>0.21999832666666669</v>
       </c>
-      <c r="F44" s="39">
-        <f t="shared" ref="F44" si="107">IF(G44="",($F$1*C44-B44)/B44,H44/B44)</f>
-        <v>6.3365925925926034E-2</v>
+      <c r="F44" s="30">
+        <f t="shared" si="1"/>
+        <v>0.11521600000000018</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="20">
-        <f t="shared" ref="H44" si="108">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>8.5544000000000153</v>
+        <f t="shared" ref="H44" si="107">IF(G44="",$F$1*C44-B44,G44-B44)</f>
+        <v>15.554160000000024</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" ref="K44" si="109">D44*C44</f>
+        <f t="shared" ref="K44" si="108">D44*C44</f>
         <v>134.99749</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" ref="L44" si="110">K44-B44</f>
+        <f t="shared" ref="L44" si="109">K44-B44</f>
         <v>-2.5100000000009004E-3</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" ref="M44" si="111">K44/150</f>
+        <f t="shared" ref="M44" si="110">K44/150</f>
         <v>0.89998326666666661</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" ref="N44" si="112">N43+C44-P44</f>
+        <f t="shared" ref="N44" si="111">N43+C44-P44</f>
         <v>4546.8100000000022</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" ref="O44" si="113">N44*D44</f>
+        <f t="shared" ref="O44" si="112">N44*D44</f>
         <v>4138.9611430000023</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="6">
-        <f t="shared" ref="R44" si="114">Q44+R43</f>
+        <f t="shared" ref="R44" si="113">Q44+R43</f>
         <v>3495.24</v>
       </c>
       <c r="S44" s="6">
-        <f t="shared" ref="S44" si="115">O44+R44</f>
+        <f t="shared" ref="S44" si="114">O44+R44</f>
         <v>7634.201143000002</v>
       </c>
       <c r="T44">
-        <f t="shared" ref="T44" si="116">T43+B44</f>
+        <f t="shared" ref="T44" si="115">T43+B44</f>
         <v>6480</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" ref="U44" si="117">S44/T44-1</f>
+        <f t="shared" ref="U44" si="116">S44/T44-1</f>
         <v>0.17811746033950659</v>
       </c>
       <c r="V44" s="4">
-        <f t="shared" ref="V44" si="118">O44/(T44-R44)-1</f>
+        <f t="shared" ref="V44" si="117">O44/(T44-R44)-1</f>
         <v>0.38669814088905041</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" ref="W44" si="119">R44/S44</f>
+        <f t="shared" ref="W44" si="118">R44/S44</f>
         <v>0.45783965270614807</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="36" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B45">
         <v>135</v>
@@ -9786,74 +10676,74 @@
         <v>0.94369999999999998</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" ref="E45:E49" si="120">10%*M45+13%</f>
+        <f t="shared" ref="E45:E49" si="119">10%*M45+13%</f>
         <v>0.21999752333333333</v>
       </c>
-      <c r="F45" s="39">
-        <f t="shared" ref="F45:F49" si="121">IF(G45="",($F$1*C45-B45)/B45,H45/B45)</f>
-        <v>2.5721481481481432E-2</v>
+      <c r="F45" s="30">
+        <f t="shared" si="1"/>
+        <v>7.5736000000000137E-2</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="20">
-        <f t="shared" ref="H45:H49" si="122">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>3.4723999999999933</v>
+        <f t="shared" ref="H45:H49" si="120">IF(G45="",$F$1*C45-B45,G45-B45)</f>
+        <v>10.224360000000019</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" ref="K45:K49" si="123">D45*C45</f>
+        <f t="shared" ref="K45:K49" si="121">D45*C45</f>
         <v>134.996285</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" ref="L45:L49" si="124">K45-B45</f>
+        <f t="shared" ref="L45:L49" si="122">K45-B45</f>
         <v>-3.7149999999996908E-3</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" ref="M45:M49" si="125">K45/150</f>
+        <f t="shared" ref="M45:M49" si="123">K45/150</f>
         <v>0.89997523333333329</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" ref="N45:N49" si="126">N44+C45-P45</f>
+        <f t="shared" ref="N45:N49" si="124">N44+C45-P45</f>
         <v>4689.8600000000024</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" ref="O45:O49" si="127">N45*D45</f>
+        <f t="shared" ref="O45:O49" si="125">N45*D45</f>
         <v>4425.8208820000018</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="6">
-        <f t="shared" ref="R45:R49" si="128">Q45+R44</f>
+        <f t="shared" ref="R45:R49" si="126">Q45+R44</f>
         <v>3495.24</v>
       </c>
       <c r="S45" s="6">
-        <f t="shared" ref="S45:S49" si="129">O45+R45</f>
+        <f t="shared" ref="S45:S49" si="127">O45+R45</f>
         <v>7921.0608820000016</v>
       </c>
       <c r="T45">
-        <f t="shared" ref="T45:T49" si="130">T44+B45</f>
+        <f t="shared" ref="T45:T49" si="128">T44+B45</f>
         <v>6615</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" ref="U45:U49" si="131">S45/T45-1</f>
+        <f t="shared" ref="U45:U49" si="129">S45/T45-1</f>
         <v>0.19743928677248701</v>
       </c>
       <c r="V45" s="4">
-        <f t="shared" ref="V45:V49" si="132">O45/(T45-R45)-1</f>
+        <f t="shared" ref="V45:V49" si="130">O45/(T45-R45)-1</f>
         <v>0.41864146024053173</v>
       </c>
       <c r="W45" s="1">
-        <f t="shared" ref="W45:W49" si="133">R45/S45</f>
+        <f t="shared" ref="W45:W49" si="131">R45/S45</f>
         <v>0.44125907527647745</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="36" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B46">
         <v>135</v>
@@ -9865,74 +10755,74 @@
         <v>0.95899999999999996</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>0.21999895333333336</v>
       </c>
-      <c r="F46" s="39">
-        <f t="shared" si="121"/>
-        <v>9.3730370370371501E-3</v>
+      <c r="F46" s="30">
+        <f t="shared" si="1"/>
+        <v>5.8590400000000251E-2</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="20">
-        <f t="shared" si="122"/>
-        <v>1.2653600000000154</v>
+        <f t="shared" si="120"/>
+        <v>7.9097040000000334</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="K46" s="2">
+        <f t="shared" si="121"/>
+        <v>134.99843000000001</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="122"/>
+        <v>-1.5699999999867487E-3</v>
+      </c>
+      <c r="M46" s="1">
         <f t="shared" si="123"/>
-        <v>134.99843000000001</v>
-      </c>
-      <c r="L46" s="2">
+        <v>0.89998953333333342</v>
+      </c>
+      <c r="N46" s="6">
         <f t="shared" si="124"/>
-        <v>-1.5699999999867487E-3</v>
-      </c>
-      <c r="M46" s="1">
+        <v>4830.6300000000028</v>
+      </c>
+      <c r="O46" s="2">
         <f t="shared" si="125"/>
-        <v>0.89998953333333342</v>
-      </c>
-      <c r="N46" s="6">
-        <f t="shared" si="126"/>
-        <v>4830.6300000000028</v>
-      </c>
-      <c r="O46" s="2">
-        <f t="shared" si="127"/>
         <v>4632.5741700000026</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="6">
+        <f t="shared" si="126"/>
+        <v>3495.24</v>
+      </c>
+      <c r="S46" s="6">
+        <f t="shared" si="127"/>
+        <v>8127.8141700000024</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="128"/>
-        <v>3495.24</v>
-      </c>
-      <c r="S46" s="6">
+        <v>6750</v>
+      </c>
+      <c r="U46" s="4">
         <f t="shared" si="129"/>
-        <v>8127.8141700000024</v>
-      </c>
-      <c r="T46">
+        <v>0.20412061777777812</v>
+      </c>
+      <c r="V46" s="4">
         <f t="shared" si="130"/>
-        <v>6750</v>
-      </c>
-      <c r="U46" s="4">
+        <v>0.42332281642886183</v>
+      </c>
+      <c r="W46" s="1">
         <f t="shared" si="131"/>
-        <v>0.20412061777777812</v>
-      </c>
-      <c r="V46" s="4">
-        <f t="shared" si="132"/>
-        <v>0.42332281642886183</v>
-      </c>
-      <c r="W46" s="1">
-        <f t="shared" si="133"/>
         <v>0.43003443815202269</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="36" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B47">
         <v>135</v>
@@ -9944,74 +10834,74 @@
         <v>0.93820000000000003</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>0.21999839866666665</v>
       </c>
-      <c r="F47" s="39">
-        <f t="shared" si="121"/>
-        <v>3.1744592592592526E-2</v>
+      <c r="F47" s="30">
+        <f t="shared" si="1"/>
+        <v>8.2052799999999912E-2</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="20">
-        <f t="shared" si="122"/>
-        <v>4.2855199999999911</v>
+        <f t="shared" si="120"/>
+        <v>11.077127999999988</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="K47" s="2">
+        <f t="shared" si="121"/>
+        <v>134.99759799999998</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="122"/>
+        <v>-2.4020000000177788E-3</v>
+      </c>
+      <c r="M47" s="1">
         <f t="shared" si="123"/>
-        <v>134.99759799999998</v>
-      </c>
-      <c r="L47" s="2">
+        <v>0.89998398666666657</v>
+      </c>
+      <c r="N47" s="6">
         <f t="shared" si="124"/>
-        <v>-2.4020000000177788E-3</v>
-      </c>
-      <c r="M47" s="1">
+        <v>4974.5200000000032</v>
+      </c>
+      <c r="O47" s="2">
         <f t="shared" si="125"/>
-        <v>0.89998398666666657</v>
-      </c>
-      <c r="N47" s="6">
-        <f t="shared" si="126"/>
-        <v>4974.5200000000032</v>
-      </c>
-      <c r="O47" s="2">
-        <f t="shared" si="127"/>
         <v>4667.0946640000029</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="16"/>
       <c r="R47" s="6">
+        <f t="shared" si="126"/>
+        <v>3495.24</v>
+      </c>
+      <c r="S47" s="6">
+        <f t="shared" si="127"/>
+        <v>8162.3346640000027</v>
+      </c>
+      <c r="T47">
         <f t="shared" si="128"/>
-        <v>3495.24</v>
-      </c>
-      <c r="S47" s="6">
+        <v>6885</v>
+      </c>
+      <c r="U47" s="4">
         <f t="shared" si="129"/>
-        <v>8162.3346640000027</v>
-      </c>
-      <c r="T47">
+        <v>0.18552427944807581</v>
+      </c>
+      <c r="V47" s="4">
         <f t="shared" si="130"/>
-        <v>6885</v>
-      </c>
-      <c r="U47" s="4">
+        <v>0.37682156376852727</v>
+      </c>
+      <c r="W47" s="1">
         <f t="shared" si="131"/>
-        <v>0.18552427944807581</v>
-      </c>
-      <c r="V47" s="4">
-        <f t="shared" si="132"/>
-        <v>0.37682156376852727</v>
-      </c>
-      <c r="W47" s="1">
-        <f t="shared" si="133"/>
         <v>0.4282157181591395</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="36" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B48">
         <v>135</v>
@@ -10023,74 +10913,74 @@
         <v>0.91759999999999997</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>0.219998208</v>
       </c>
-      <c r="F48" s="39">
-        <f t="shared" si="121"/>
-        <v>5.4904888888888892E-2</v>
+      <c r="F48" s="30">
+        <f t="shared" si="1"/>
+        <v>0.1063424000000002</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="20">
-        <f t="shared" si="122"/>
-        <v>7.4121600000000001</v>
+        <f t="shared" si="120"/>
+        <v>14.356224000000026</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="K48" s="2">
+        <f t="shared" si="121"/>
+        <v>134.99731199999999</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="122"/>
+        <v>-2.688000000006241E-3</v>
+      </c>
+      <c r="M48" s="1">
         <f t="shared" si="123"/>
-        <v>134.99731199999999</v>
-      </c>
-      <c r="L48" s="2">
+        <v>0.89998207999999991</v>
+      </c>
+      <c r="N48" s="6">
         <f t="shared" si="124"/>
-        <v>-2.688000000006241E-3</v>
-      </c>
-      <c r="M48" s="1">
+        <v>5121.6400000000031</v>
+      </c>
+      <c r="O48" s="2">
         <f t="shared" si="125"/>
-        <v>0.89998207999999991</v>
-      </c>
-      <c r="N48" s="6">
-        <f t="shared" si="126"/>
-        <v>5121.6400000000031</v>
-      </c>
-      <c r="O48" s="2">
-        <f t="shared" si="127"/>
         <v>4699.6168640000024</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="6">
+        <f t="shared" si="126"/>
+        <v>3495.24</v>
+      </c>
+      <c r="S48" s="6">
+        <f t="shared" si="127"/>
+        <v>8194.8568640000012</v>
+      </c>
+      <c r="T48">
         <f t="shared" si="128"/>
-        <v>3495.24</v>
-      </c>
-      <c r="S48" s="6">
+        <v>7020</v>
+      </c>
+      <c r="U48" s="4">
         <f t="shared" si="129"/>
-        <v>8194.8568640000012</v>
-      </c>
-      <c r="T48">
+        <v>0.16735852763532777</v>
+      </c>
+      <c r="V48" s="4">
         <f t="shared" si="130"/>
-        <v>7020</v>
-      </c>
-      <c r="U48" s="4">
+        <v>0.33331542119179813</v>
+      </c>
+      <c r="W48" s="1">
         <f t="shared" si="131"/>
-        <v>0.16735852763532777</v>
-      </c>
-      <c r="V48" s="4">
-        <f t="shared" si="132"/>
-        <v>0.33331542119179813</v>
-      </c>
-      <c r="W48" s="1">
-        <f t="shared" si="133"/>
         <v>0.42651629650233258</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" s="36" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B49">
         <v>135</v>
@@ -10102,74 +10992,74 @@
         <v>0.92730000000000001</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>0.21999755600000004</v>
       </c>
-      <c r="F49" s="39">
-        <f t="shared" si="121"/>
-        <v>4.3862518518518655E-2</v>
+      <c r="F49" s="30">
+        <f t="shared" si="1"/>
+        <v>9.4761600000000126E-2</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="20">
-        <f t="shared" si="122"/>
-        <v>5.9214400000000182</v>
+        <f t="shared" si="120"/>
+        <v>12.792816000000016</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="K49" s="2">
+        <f t="shared" si="121"/>
+        <v>134.99633400000002</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="122"/>
+        <v>-3.6659999999812953E-3</v>
+      </c>
+      <c r="M49" s="1">
         <f t="shared" si="123"/>
-        <v>134.99633400000002</v>
-      </c>
-      <c r="L49" s="2">
+        <v>0.89997556000000012</v>
+      </c>
+      <c r="N49" s="6">
         <f t="shared" si="124"/>
-        <v>-3.6659999999812953E-3</v>
-      </c>
-      <c r="M49" s="1">
+        <v>5267.220000000003</v>
+      </c>
+      <c r="O49" s="2">
         <f t="shared" si="125"/>
-        <v>0.89997556000000012</v>
-      </c>
-      <c r="N49" s="6">
-        <f t="shared" si="126"/>
-        <v>5267.220000000003</v>
-      </c>
-      <c r="O49" s="2">
-        <f t="shared" si="127"/>
         <v>4884.2931060000028</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="6">
+        <f t="shared" si="126"/>
+        <v>3495.24</v>
+      </c>
+      <c r="S49" s="6">
+        <f t="shared" si="127"/>
+        <v>8379.5331060000026</v>
+      </c>
+      <c r="T49">
         <f t="shared" si="128"/>
-        <v>3495.24</v>
-      </c>
-      <c r="S49" s="6">
+        <v>7155</v>
+      </c>
+      <c r="U49" s="4">
         <f t="shared" si="129"/>
-        <v>8379.5331060000026</v>
-      </c>
-      <c r="T49">
+        <v>0.17114369056603818</v>
+      </c>
+      <c r="V49" s="4">
         <f t="shared" si="130"/>
-        <v>7155</v>
-      </c>
-      <c r="U49" s="4">
+        <v>0.33459382746409672</v>
+      </c>
+      <c r="W49" s="1">
         <f t="shared" si="131"/>
-        <v>0.17114369056603818</v>
-      </c>
-      <c r="V49" s="4">
-        <f t="shared" si="132"/>
-        <v>0.33459382746409672</v>
-      </c>
-      <c r="W49" s="1">
-        <f t="shared" si="133"/>
         <v>0.41711631850911846</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" s="36" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B50">
         <v>135</v>
@@ -10181,74 +11071,74 @@
         <v>0.9506</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" ref="E50:E54" si="134">10%*M50+13%</f>
+        <f t="shared" ref="E50:E54" si="132">10%*M50+13%</f>
         <v>0.22000280800000002</v>
       </c>
-      <c r="F50" s="39">
-        <f t="shared" ref="F50:F54" si="135">IF(G50="",($F$1*C50-B50)/B50,H50/B50)</f>
-        <v>1.8335999999999963E-2</v>
+      <c r="F50" s="30">
+        <f t="shared" si="1"/>
+        <v>6.7990400000000284E-2</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="20">
-        <f t="shared" ref="H50:H54" si="136">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>2.4753599999999949</v>
+        <f t="shared" ref="H50:H54" si="133">IF(G50="",$F$1*C50-B50,G50-B50)</f>
+        <v>9.1787040000000388</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" ref="K50:K54" si="137">D50*C50</f>
+        <f t="shared" ref="K50:K54" si="134">D50*C50</f>
         <v>135.00421200000002</v>
       </c>
       <c r="L50" s="2">
-        <f t="shared" ref="L50:L54" si="138">K50-B50</f>
+        <f t="shared" ref="L50:L54" si="135">K50-B50</f>
         <v>4.2120000000238633E-3</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" ref="M50:M54" si="139">K50/150</f>
+        <f t="shared" ref="M50:M54" si="136">K50/150</f>
         <v>0.90002808000000012</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" ref="N50:N54" si="140">N49+C50-P50</f>
+        <f t="shared" ref="N50:N54" si="137">N49+C50-P50</f>
         <v>5409.2400000000034</v>
       </c>
       <c r="O50" s="2">
-        <f t="shared" ref="O50:O54" si="141">N50*D50</f>
+        <f t="shared" ref="O50:O54" si="138">N50*D50</f>
         <v>5142.0235440000033</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="16"/>
       <c r="R50" s="6">
-        <f t="shared" ref="R50:R54" si="142">Q50+R49</f>
+        <f t="shared" ref="R50:R54" si="139">Q50+R49</f>
         <v>3495.24</v>
       </c>
       <c r="S50" s="6">
-        <f t="shared" ref="S50:S54" si="143">O50+R50</f>
+        <f t="shared" ref="S50:S54" si="140">O50+R50</f>
         <v>8637.2635440000031</v>
       </c>
       <c r="T50">
-        <f t="shared" ref="T50:T54" si="144">T49+B50</f>
+        <f t="shared" ref="T50:T54" si="141">T49+B50</f>
         <v>7290</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" ref="U50:U54" si="145">S50/T50-1</f>
+        <f t="shared" ref="U50:U54" si="142">S50/T50-1</f>
         <v>0.18480981399176999</v>
       </c>
       <c r="V50" s="4">
-        <f t="shared" ref="V50:V54" si="146">O50/(T50-R50)-1</f>
+        <f t="shared" ref="V50:V54" si="143">O50/(T50-R50)-1</f>
         <v>0.35503260917686563</v>
       </c>
       <c r="W50" s="1">
-        <f t="shared" ref="W50:W54" si="147">R50/S50</f>
+        <f t="shared" ref="W50:W54" si="144">R50/S50</f>
         <v>0.40466983347150703</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" s="36" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B51">
         <v>135</v>
@@ -10260,42 +11150,42 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>0.22000036000000001</v>
       </c>
-      <c r="F51" s="39">
-        <f t="shared" si="135"/>
-        <v>1.4679111111110985E-2</v>
+      <c r="F51" s="30">
+        <f t="shared" si="1"/>
+        <v>6.4155200000000065E-2</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="20">
-        <f t="shared" si="136"/>
-        <v>1.981679999999983</v>
+        <f t="shared" si="133"/>
+        <v>8.6609520000000089</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="K51" s="2">
+        <f t="shared" si="134"/>
+        <v>135.00053999999997</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="135"/>
+        <v>5.3999999997245141E-4</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="136"/>
+        <v>0.90000359999999979</v>
+      </c>
+      <c r="N51" s="6">
         <f t="shared" si="137"/>
-        <v>135.00053999999997</v>
-      </c>
-      <c r="L51" s="2">
+        <v>5245.9600000000037</v>
+      </c>
+      <c r="O51" s="2">
         <f t="shared" si="138"/>
-        <v>5.3999999997245141E-4</v>
-      </c>
-      <c r="M51" s="1">
-        <f t="shared" si="139"/>
-        <v>0.90000359999999979</v>
-      </c>
-      <c r="N51" s="6">
-        <f t="shared" si="140"/>
-        <v>5245.9600000000037</v>
-      </c>
-      <c r="O51" s="2">
-        <f t="shared" si="141"/>
         <v>5004.6458400000029</v>
       </c>
       <c r="P51" s="2">
@@ -10305,33 +11195,33 @@
         <v>290.77</v>
       </c>
       <c r="R51" s="6">
+        <f t="shared" si="139"/>
+        <v>3786.0099999999998</v>
+      </c>
+      <c r="S51" s="6">
+        <f t="shared" si="140"/>
+        <v>8790.6558400000031</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="141"/>
+        <v>7425</v>
+      </c>
+      <c r="U51" s="4">
         <f t="shared" si="142"/>
-        <v>3786.0099999999998</v>
-      </c>
-      <c r="S51" s="6">
+        <v>0.18392671245791292</v>
+      </c>
+      <c r="V51" s="4">
         <f t="shared" si="143"/>
-        <v>8790.6558400000031</v>
-      </c>
-      <c r="T51">
+        <v>0.37528430690933545</v>
+      </c>
+      <c r="W51" s="1">
         <f t="shared" si="144"/>
-        <v>7425</v>
-      </c>
-      <c r="U51" s="4">
-        <f t="shared" si="145"/>
-        <v>0.18392671245791292</v>
-      </c>
-      <c r="V51" s="4">
-        <f t="shared" si="146"/>
-        <v>0.37528430690933545</v>
-      </c>
-      <c r="W51" s="1">
-        <f t="shared" si="147"/>
         <v>0.43068572685698481</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" s="36" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="B52">
         <v>135</v>
@@ -10343,74 +11233,74 @@
         <v>0.95269999999999999</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>0.21999839333333332</v>
       </c>
-      <c r="F52" s="39">
-        <f t="shared" si="135"/>
-        <v>1.6041481481481358E-2</v>
+      <c r="F52" s="30">
+        <f t="shared" si="1"/>
+        <v>6.5583999999999934E-2</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="20">
-        <f t="shared" si="136"/>
-        <v>2.1655999999999835</v>
+        <f t="shared" si="133"/>
+        <v>8.8538399999999911</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="K52" s="2">
+        <f t="shared" si="134"/>
+        <v>134.99758999999997</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="135"/>
+        <v>-2.4100000000260025E-3</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="136"/>
+        <v>0.89998393333333315</v>
+      </c>
+      <c r="N52" s="6">
         <f t="shared" si="137"/>
-        <v>134.99758999999997</v>
-      </c>
-      <c r="L52" s="2">
+        <v>5387.6600000000035</v>
+      </c>
+      <c r="O52" s="2">
         <f t="shared" si="138"/>
-        <v>-2.4100000000260025E-3</v>
-      </c>
-      <c r="M52" s="1">
-        <f t="shared" si="139"/>
-        <v>0.89998393333333315</v>
-      </c>
-      <c r="N52" s="6">
-        <f t="shared" si="140"/>
-        <v>5387.6600000000035</v>
-      </c>
-      <c r="O52" s="2">
-        <f t="shared" si="141"/>
         <v>5132.8236820000029</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="16"/>
       <c r="R52" s="6">
+        <f t="shared" si="139"/>
+        <v>3786.0099999999998</v>
+      </c>
+      <c r="S52" s="6">
+        <f t="shared" si="140"/>
+        <v>8918.8336820000022</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="141"/>
+        <v>7560</v>
+      </c>
+      <c r="U52" s="4">
         <f t="shared" si="142"/>
-        <v>3786.0099999999998</v>
-      </c>
-      <c r="S52" s="6">
+        <v>0.17973990502645543</v>
+      </c>
+      <c r="V52" s="4">
         <f t="shared" si="143"/>
-        <v>8918.8336820000022</v>
-      </c>
-      <c r="T52">
+        <v>0.36005227411837404</v>
+      </c>
+      <c r="W52" s="1">
         <f t="shared" si="144"/>
-        <v>7560</v>
-      </c>
-      <c r="U52" s="4">
-        <f t="shared" si="145"/>
-        <v>0.17973990502645543</v>
-      </c>
-      <c r="V52" s="4">
-        <f t="shared" si="146"/>
-        <v>0.36005227411837404</v>
-      </c>
-      <c r="W52" s="1">
-        <f t="shared" si="147"/>
         <v>0.42449608715553566</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" s="36" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="B53">
         <v>135</v>
@@ -10422,42 +11312,42 @@
         <v>0.96509999999999996</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>0.219998792</v>
       </c>
-      <c r="F53" s="39">
-        <f t="shared" si="135"/>
-        <v>2.9914074074074253E-3</v>
+      <c r="F53" s="30">
+        <f t="shared" si="1"/>
+        <v>5.1897600000000078E-2</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="20">
-        <f t="shared" si="136"/>
-        <v>0.40384000000000242</v>
+        <f t="shared" si="133"/>
+        <v>7.0061760000000106</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="K53" s="2">
+        <f t="shared" si="134"/>
+        <v>134.998188</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="135"/>
+        <v>-1.812000000001035E-3</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="136"/>
+        <v>0.89998791999999994</v>
+      </c>
+      <c r="N53" s="6">
         <f t="shared" si="137"/>
-        <v>134.998188</v>
-      </c>
-      <c r="L53" s="2">
+        <v>5007.7500000000036</v>
+      </c>
+      <c r="O53" s="2">
         <f t="shared" si="138"/>
-        <v>-1.812000000001035E-3</v>
-      </c>
-      <c r="M53" s="1">
-        <f t="shared" si="139"/>
-        <v>0.89998791999999994</v>
-      </c>
-      <c r="N53" s="6">
-        <f t="shared" si="140"/>
-        <v>5007.7500000000036</v>
-      </c>
-      <c r="O53" s="2">
-        <f t="shared" si="141"/>
         <v>4832.9795250000034</v>
       </c>
       <c r="P53" s="2">
@@ -10467,33 +11357,33 @@
         <v>501.64</v>
       </c>
       <c r="R53" s="6">
+        <f t="shared" si="139"/>
+        <v>4287.6499999999996</v>
+      </c>
+      <c r="S53" s="6">
+        <f t="shared" si="140"/>
+        <v>9120.6295250000039</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="141"/>
+        <v>7695</v>
+      </c>
+      <c r="U53" s="4">
         <f t="shared" si="142"/>
-        <v>4287.6499999999996</v>
-      </c>
-      <c r="S53" s="6">
+        <v>0.18526699480181996</v>
+      </c>
+      <c r="V53" s="4">
         <f t="shared" si="143"/>
-        <v>9120.6295250000039</v>
-      </c>
-      <c r="T53">
+        <v>0.41839832274348177</v>
+      </c>
+      <c r="W53" s="1">
         <f t="shared" si="144"/>
-        <v>7695</v>
-      </c>
-      <c r="U53" s="4">
-        <f t="shared" si="145"/>
-        <v>0.18526699480181996</v>
-      </c>
-      <c r="V53" s="4">
-        <f t="shared" si="146"/>
-        <v>0.41839832274348177</v>
-      </c>
-      <c r="W53" s="1">
-        <f t="shared" si="147"/>
         <v>0.47010461155640437</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" s="36" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B54">
         <v>135</v>
@@ -10505,82 +11395,812 @@
         <v>0.97040000000000004</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>0.22000136533333337</v>
       </c>
-      <c r="F54" s="39">
-        <f t="shared" si="135"/>
-        <v>-2.4580740740740717E-3</v>
+      <c r="F54" s="30">
+        <f t="shared" si="1"/>
+        <v>4.6182400000000186E-2</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="20">
-        <f t="shared" si="136"/>
-        <v>-0.33183999999999969</v>
+        <f t="shared" si="133"/>
+        <v>6.234624000000025</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="K54" s="2">
+        <f t="shared" si="134"/>
+        <v>135.002048</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="135"/>
+        <v>2.0480000000020482E-3</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="136"/>
+        <v>0.90001365333333339</v>
+      </c>
+      <c r="N54" s="6">
         <f t="shared" si="137"/>
-        <v>135.002048</v>
-      </c>
-      <c r="L54" s="2">
+        <v>5146.8700000000035</v>
+      </c>
+      <c r="O54" s="2">
         <f t="shared" si="138"/>
-        <v>2.0480000000020482E-3</v>
-      </c>
-      <c r="M54" s="1">
-        <f t="shared" si="139"/>
-        <v>0.90001365333333339</v>
-      </c>
-      <c r="N54" s="6">
-        <f t="shared" si="140"/>
-        <v>5146.8700000000035</v>
-      </c>
-      <c r="O54" s="2">
-        <f t="shared" si="141"/>
         <v>4994.5226480000038</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="6">
+        <f t="shared" si="139"/>
+        <v>4287.6499999999996</v>
+      </c>
+      <c r="S54" s="6">
+        <f t="shared" si="140"/>
+        <v>9282.1726480000034</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="141"/>
+        <v>7830</v>
+      </c>
+      <c r="U54" s="4">
         <f t="shared" si="142"/>
+        <v>0.18546266257982169</v>
+      </c>
+      <c r="V54" s="4">
+        <f t="shared" si="143"/>
+        <v>0.40994612277160725</v>
+      </c>
+      <c r="W54" s="1">
+        <f t="shared" si="144"/>
+        <v>0.4619231038461501</v>
+      </c>
+      <c r="X54" s="6"/>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55">
+        <v>135</v>
+      </c>
+      <c r="C55" s="2">
+        <v>140.82</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.9587</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" ref="E55:E59" si="145">10%*M55+13%</f>
+        <v>0.22000275600000002</v>
+      </c>
+      <c r="F55" s="30">
+        <f t="shared" si="1"/>
+        <v>5.8966400000000016E-2</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="20">
+        <f t="shared" ref="H55:H59" si="146">IF(G55="",$F$1*C55-B55,G55-B55)</f>
+        <v>7.9604640000000018</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" t="s">
+        <v>227</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" ref="K55:K59" si="147">D55*C55</f>
+        <v>135.00413399999999</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" ref="L55:L59" si="148">K55-B55</f>
+        <v>4.1339999999934207E-3</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" ref="M55:M59" si="149">K55/150</f>
+        <v>0.90002755999999995</v>
+      </c>
+      <c r="N55" s="6">
+        <f t="shared" ref="N55:N59" si="150">N54+C55-P55</f>
+        <v>5287.6900000000032</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" ref="O55:O59" si="151">N55*D55</f>
+        <v>5069.3084030000027</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="6">
+        <f t="shared" ref="R55:R59" si="152">Q55+R54</f>
         <v>4287.6499999999996</v>
       </c>
-      <c r="S54" s="6">
-        <f t="shared" si="143"/>
-        <v>9282.1726480000034</v>
-      </c>
-      <c r="T54">
-        <f t="shared" si="144"/>
-        <v>7830</v>
-      </c>
-      <c r="U54" s="4">
+      <c r="S55" s="6">
+        <f t="shared" ref="S55:S59" si="153">O55+R55</f>
+        <v>9356.9584030000024</v>
+      </c>
+      <c r="T55">
+        <f t="shared" ref="T55:T59" si="154">T54+B55</f>
+        <v>7965</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" ref="U55:U59" si="155">S55/T55-1</f>
+        <v>0.17475937263025765</v>
+      </c>
+      <c r="V55" s="4">
+        <f t="shared" ref="V55:V59" si="156">O55/(T55-R55)-1</f>
+        <v>0.37852214311936638</v>
+      </c>
+      <c r="W55" s="1">
+        <f t="shared" ref="W55:W59" si="157">R55/S55</f>
+        <v>0.45823117035823363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56">
+        <v>135</v>
+      </c>
+      <c r="C56" s="2">
+        <v>144.65</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="E56" s="1">
         <f t="shared" si="145"/>
-        <v>0.18546266257982169</v>
-      </c>
-      <c r="V54" s="4">
+        <v>0.22000122999999999</v>
+      </c>
+      <c r="F56" s="30">
+        <f t="shared" si="1"/>
+        <v>8.7768000000000221E-2</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="20">
         <f t="shared" si="146"/>
-        <v>0.40994612277160725</v>
-      </c>
-      <c r="W54" s="1">
+        <v>11.84868000000003</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" t="s">
+        <v>229</v>
+      </c>
+      <c r="K56" s="2">
         <f t="shared" si="147"/>
-        <v>0.4619231038461501</v>
-      </c>
+        <v>135.001845</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="148"/>
+        <v>1.8450000000029831E-3</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="149"/>
+        <v>0.90001229999999999</v>
+      </c>
+      <c r="N56" s="6">
+        <f t="shared" si="150"/>
+        <v>5432.3400000000029</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="151"/>
+        <v>5070.0029220000024</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="6">
+        <f t="shared" si="152"/>
+        <v>4287.6499999999996</v>
+      </c>
+      <c r="S56" s="6">
+        <f t="shared" si="153"/>
+        <v>9357.6529220000011</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="154"/>
+        <v>8100</v>
+      </c>
+      <c r="U56" s="4">
+        <f t="shared" si="155"/>
+        <v>0.15526579283950626</v>
+      </c>
+      <c r="V56" s="4">
+        <f t="shared" si="156"/>
+        <v>0.3298891555077581</v>
+      </c>
+      <c r="W56" s="1">
+        <f t="shared" si="157"/>
+        <v>0.45819716073457495</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57">
+        <v>135</v>
+      </c>
+      <c r="C57" s="2">
+        <v>143.36000000000001</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="145"/>
+        <v>0.22000140800000001</v>
+      </c>
+      <c r="F57" s="30">
+        <f t="shared" si="1"/>
+        <v>7.8067200000000239E-2</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="20">
+        <f t="shared" si="146"/>
+        <v>10.539072000000033</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
+        <v>231</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="147"/>
+        <v>135.00211200000001</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="148"/>
+        <v>2.112000000010994E-3</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="149"/>
+        <v>0.90001408000000005</v>
+      </c>
+      <c r="N57" s="6">
+        <f t="shared" si="150"/>
+        <v>5575.7000000000025</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="151"/>
+        <v>5250.6366900000021</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="6">
+        <f t="shared" si="152"/>
+        <v>4287.6499999999996</v>
+      </c>
+      <c r="S57" s="6">
+        <f t="shared" si="153"/>
+        <v>9538.2866900000008</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="154"/>
+        <v>8235</v>
+      </c>
+      <c r="U57" s="4">
+        <f t="shared" si="155"/>
+        <v>0.15826189313904071</v>
+      </c>
+      <c r="V57" s="4">
+        <f t="shared" si="156"/>
+        <v>0.33016750224834412</v>
+      </c>
+      <c r="W57" s="1">
+        <f t="shared" si="157"/>
+        <v>0.44951993364753845</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58">
+        <v>135</v>
+      </c>
+      <c r="C58" s="2">
+        <v>145.29</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="145"/>
+        <v>0.22000231200000001</v>
+      </c>
+      <c r="F58" s="30">
+        <f t="shared" si="1"/>
+        <v>9.2580800000000088E-2</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="20">
+        <f t="shared" si="146"/>
+        <v>12.498408000000012</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" t="s">
+        <v>233</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="147"/>
+        <v>135.003468</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="148"/>
+        <v>3.4679999999980282E-3</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" si="149"/>
+        <v>0.90002311999999995</v>
+      </c>
+      <c r="N58" s="6">
+        <f t="shared" si="150"/>
+        <v>5720.9900000000025</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="151"/>
+        <v>5315.9439080000029</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="6">
+        <f t="shared" si="152"/>
+        <v>4287.6499999999996</v>
+      </c>
+      <c r="S58" s="6">
+        <f t="shared" si="153"/>
+        <v>9603.5939080000026</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="154"/>
+        <v>8370</v>
+      </c>
+      <c r="U58" s="4">
+        <f t="shared" si="155"/>
+        <v>0.14738278470728816</v>
+      </c>
+      <c r="V58" s="4">
+        <f t="shared" si="156"/>
+        <v>0.30217739978198899</v>
+      </c>
+      <c r="W58" s="1">
+        <f t="shared" si="157"/>
+        <v>0.44646306800085478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59">
+        <v>135</v>
+      </c>
+      <c r="C59" s="2">
+        <v>140.87</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="145"/>
+        <v>0.21999714733333336</v>
+      </c>
+      <c r="F59" s="30">
+        <f t="shared" si="1"/>
+        <v>5.9342400000000198E-2</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="20">
+        <f t="shared" si="146"/>
+        <v>8.011224000000027</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" t="s">
+        <v>235</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="147"/>
+        <v>134.995721</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" si="148"/>
+        <v>-4.2789999999968131E-3</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" si="149"/>
+        <v>0.89997147333333338</v>
+      </c>
+      <c r="N59" s="6">
+        <f t="shared" si="150"/>
+        <v>5861.8600000000024</v>
+      </c>
+      <c r="O59" s="2">
+        <f t="shared" si="151"/>
+        <v>5617.4204380000028</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="6">
+        <f t="shared" si="152"/>
+        <v>4287.6499999999996</v>
+      </c>
+      <c r="S59" s="6">
+        <f t="shared" si="153"/>
+        <v>9905.0704380000025</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="154"/>
+        <v>8505</v>
+      </c>
+      <c r="U59" s="4">
+        <f t="shared" si="155"/>
+        <v>0.16461733544973578</v>
+      </c>
+      <c r="V59" s="4">
+        <f t="shared" si="156"/>
+        <v>0.33197871601835338</v>
+      </c>
+      <c r="W59" s="1">
+        <f t="shared" si="157"/>
+        <v>0.43287425635569199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60">
+        <v>135</v>
+      </c>
+      <c r="C60" s="2">
+        <v>135.99</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" ref="E60" si="158">10%*M60+13%</f>
+        <v>0.21999818200000001</v>
+      </c>
+      <c r="F60" s="30">
+        <f t="shared" si="1"/>
+        <v>2.2644800000000277E-2</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="20">
+        <f t="shared" ref="H60" si="159">IF(G60="",$F$1*C60-B60,G60-B60)</f>
+        <v>3.0570480000000373</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
+        <v>237</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" ref="K60" si="160">D60*C60</f>
+        <v>134.99727300000001</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" ref="L60" si="161">K60-B60</f>
+        <v>-2.7269999999930405E-3</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" ref="M60" si="162">K60/150</f>
+        <v>0.89998182000000004</v>
+      </c>
+      <c r="N60" s="6">
+        <f t="shared" ref="N60" si="163">N59+C60-P60</f>
+        <v>4019.090000000002</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" ref="O60" si="164">N60*D60</f>
+        <v>3989.7506430000021</v>
+      </c>
+      <c r="P60" s="2">
+        <v>1978.76</v>
+      </c>
+      <c r="Q60" s="16">
+        <v>1961.31</v>
+      </c>
+      <c r="R60" s="6">
+        <f t="shared" ref="R60" si="165">Q60+R59</f>
+        <v>6248.9599999999991</v>
+      </c>
+      <c r="S60" s="6">
+        <f t="shared" ref="S60" si="166">O60+R60</f>
+        <v>10238.710643000002</v>
+      </c>
+      <c r="T60">
+        <f t="shared" ref="T60" si="167">T59+B60</f>
+        <v>8640</v>
+      </c>
+      <c r="U60" s="4">
+        <f t="shared" ref="U60" si="168">S60/T60-1</f>
+        <v>0.1850359540509261</v>
+      </c>
+      <c r="V60" s="4">
+        <f t="shared" ref="V60" si="169">O60/(T60-R60)-1</f>
+        <v>0.6686256369613226</v>
+      </c>
+      <c r="W60" s="1">
+        <f t="shared" ref="W60" si="170">R60/S60</f>
+        <v>0.61032684855414732</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61">
+        <v>135</v>
+      </c>
+      <c r="C61" s="2">
+        <v>135.58000000000001</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" ref="E61:E63" si="171">10%*M61+13%</f>
+        <v>0.21999800400000002</v>
+      </c>
+      <c r="F61" s="30">
+        <f t="shared" ref="F61:F63" si="172">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
+        <v>1.9561600000000217E-2</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="20">
+        <f t="shared" ref="H61:H63" si="173">IF(G61="",$F$1*C61-B61,G61-B61)</f>
+        <v>2.6408160000000294</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" t="s">
+        <v>265</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" ref="K61:K63" si="174">D61*C61</f>
+        <v>134.99700600000003</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" ref="L61:L63" si="175">K61-B61</f>
+        <v>-2.9939999999726297E-3</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" ref="M61:M63" si="176">K61/150</f>
+        <v>0.8999800400000002</v>
+      </c>
+      <c r="N61" s="6">
+        <f t="shared" ref="N61:N63" si="177">N60+C61-P61</f>
+        <v>4154.6700000000019</v>
+      </c>
+      <c r="O61" s="2">
+        <f t="shared" ref="O61:O63" si="178">N61*D61</f>
+        <v>4136.804919000002</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="6">
+        <f t="shared" ref="R61:R63" si="179">Q61+R60</f>
+        <v>6248.9599999999991</v>
+      </c>
+      <c r="S61" s="6">
+        <f t="shared" ref="S61:S63" si="180">O61+R61</f>
+        <v>10385.764919000001</v>
+      </c>
+      <c r="T61">
+        <f t="shared" ref="T61:T63" si="181">T60+B61</f>
+        <v>8775</v>
+      </c>
+      <c r="U61" s="4">
+        <f t="shared" ref="U61:U63" si="182">S61/T61-1</f>
+        <v>0.18356295373219389</v>
+      </c>
+      <c r="V61" s="4">
+        <f t="shared" ref="V61:V63" si="183">O61/(T61-R61)-1</f>
+        <v>0.6376640587639153</v>
+      </c>
+      <c r="W61" s="1">
+        <f t="shared" ref="W61:W63" si="184">R61/S61</f>
+        <v>0.60168509962785521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B62">
+        <v>120</v>
+      </c>
+      <c r="C62" s="2">
+        <v>119.33</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1.0056</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="171"/>
+        <v>0.20999883200000002</v>
+      </c>
+      <c r="F62" s="30">
+        <f t="shared" si="172"/>
+        <v>9.5318000000001266E-3</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="20">
+        <f t="shared" si="173"/>
+        <v>1.1438160000000153</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" t="s">
+        <v>267</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="174"/>
+        <v>119.998248</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" si="175"/>
+        <v>-1.751999999996201E-3</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="176"/>
+        <v>0.79998831999999997</v>
+      </c>
+      <c r="N62" s="6">
+        <f t="shared" si="177"/>
+        <v>4147.7400000000016</v>
+      </c>
+      <c r="O62" s="2">
+        <f t="shared" si="178"/>
+        <v>4170.9673440000015</v>
+      </c>
+      <c r="P62" s="2">
+        <v>126.26</v>
+      </c>
+      <c r="Q62" s="16">
+        <v>126.97</v>
+      </c>
+      <c r="R62" s="6">
+        <f t="shared" si="179"/>
+        <v>6375.9299999999994</v>
+      </c>
+      <c r="S62" s="6">
+        <f t="shared" si="180"/>
+        <v>10546.897344000001</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="181"/>
+        <v>8895</v>
+      </c>
+      <c r="U62" s="4">
+        <f t="shared" si="182"/>
+        <v>0.18571077504215872</v>
+      </c>
+      <c r="V62" s="4">
+        <f t="shared" si="183"/>
+        <v>0.65575682454239081</v>
+      </c>
+      <c r="W62" s="1">
+        <f t="shared" si="184"/>
+        <v>0.60453134149705046</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63">
+        <v>120</v>
+      </c>
+      <c r="C63" s="2">
+        <v>118.64</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1.0115000000000001</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="171"/>
+        <v>0.21000290666666668</v>
+      </c>
+      <c r="F63" s="30">
+        <f t="shared" si="172"/>
+        <v>3.6944000000000681E-3</v>
+      </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="20">
+        <f t="shared" si="173"/>
+        <v>0.44332800000000816</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" t="s">
+        <v>269</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="174"/>
+        <v>120.00436000000001</v>
+      </c>
+      <c r="L63" s="2">
+        <f t="shared" si="175"/>
+        <v>4.3600000000054706E-3</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" si="176"/>
+        <v>0.80002906666666673</v>
+      </c>
+      <c r="N63" s="6">
+        <f t="shared" si="177"/>
+        <v>3915.820000000002</v>
+      </c>
+      <c r="O63" s="2">
+        <f t="shared" si="178"/>
+        <v>3960.8519300000021</v>
+      </c>
+      <c r="P63" s="2">
+        <v>350.56</v>
+      </c>
+      <c r="Q63" s="16">
+        <v>354.59</v>
+      </c>
+      <c r="R63" s="6">
+        <f t="shared" si="179"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S63" s="6">
+        <f t="shared" si="180"/>
+        <v>10691.371930000001</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="181"/>
+        <v>9015</v>
+      </c>
+      <c r="U63" s="4">
+        <f t="shared" si="182"/>
+        <v>0.185953625069329</v>
+      </c>
+      <c r="V63" s="4">
+        <f t="shared" si="183"/>
+        <v>0.73380897622216046</v>
+      </c>
+      <c r="W63" s="1">
+        <f t="shared" si="184"/>
+        <v>0.6295281881564847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="N64" s="6"/>
+    </row>
+    <row r="65" spans="14:14">
+      <c r="N65" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{EBD5E519-1AC8-D646-A624-501481F39CB6}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="between">
       <formula>-0.01</formula>
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576 W1">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10592,7 +12212,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10606,7 +12226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10619,13 +12239,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F22 F30:F54 F24:F25">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>E20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F22 F30:F1048576 F24:F26">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10636,6 +12251,14 @@
           <x14:id>{959877BA-201F-8046-BE97-D3F610C2BCCB}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F63">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10682,10 +12305,23 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F2:F22 F30:F1048576 F24:F26</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A540EBE3-67A8-CD40-8963-AF22FF3D45E0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F503FC99-9EBD-9C4A-8D65-4D2E9BB1E18E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3670217-9D14-C14C-B4FD-4DBD18DD6901}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="294">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -1459,6 +1459,66 @@
   <si>
     <t>20190212购入,20190408售出</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190408</t>
+  </si>
+  <si>
+    <t>20190408购入</t>
+  </si>
+  <si>
+    <t>hs300_20190409</t>
+  </si>
+  <si>
+    <t>20190409购入</t>
+  </si>
+  <si>
+    <t>hs300_20190410</t>
+  </si>
+  <si>
+    <t>20190410购入</t>
+  </si>
+  <si>
+    <t>hs300_20190411</t>
+  </si>
+  <si>
+    <t>20190411购入</t>
+  </si>
+  <si>
+    <t>hs300_20190412</t>
+  </si>
+  <si>
+    <t>20190412购入</t>
+  </si>
+  <si>
+    <t>zz500_20190408</t>
+  </si>
+  <si>
+    <t>10290408购入</t>
+  </si>
+  <si>
+    <t>zz500_20190409</t>
+  </si>
+  <si>
+    <t>10290409购入</t>
+  </si>
+  <si>
+    <t>zz500_20190410</t>
+  </si>
+  <si>
+    <t>10290410购入</t>
+  </si>
+  <si>
+    <t>zz500_20190411</t>
+  </si>
+  <si>
+    <t>10290411购入</t>
+  </si>
+  <si>
+    <t>zz500_20190412</t>
+  </si>
+  <si>
+    <t>10290412购入</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1530,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1569,14 +1629,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF7030A0"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1601,7 +1653,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1663,13 +1715,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1682,14 +1727,14 @@
       <font>
         <b val="0"/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -1706,14 +1751,14 @@
       <font>
         <b val="0"/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -2002,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
@@ -2052,14 +2097,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>1.2183999999999999</v>
+        <v>1.2121</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>155</v>
       </c>
       <c r="H1" s="19" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19993),2)</f>
-        <v>盈利1487.32</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19990),2)</f>
+        <v>盈利1453.62</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -3563,11 +3608,11 @@
       </c>
       <c r="F20" s="14">
         <f t="shared" si="4"/>
-        <v>0.2660529777777777</v>
+        <v>0.2595065777777778</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="5"/>
-        <v>71.834303999999975</v>
+        <v>70.066776000000004</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -3641,11 +3686,11 @@
       </c>
       <c r="F21" s="14">
         <f t="shared" si="4"/>
-        <v>0.26212702222222217</v>
+        <v>0.25560092222222219</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>70.774295999999993</v>
+        <v>69.012248999999997</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -3719,11 +3764,11 @@
       </c>
       <c r="F22" s="14">
         <f t="shared" si="4"/>
-        <v>0.27162735686274508</v>
+        <v>0.26505213333333316</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="5"/>
-        <v>69.26497599999999</v>
+        <v>67.588293999999962</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
@@ -3797,11 +3842,11 @@
       </c>
       <c r="F23" s="14">
         <f t="shared" si="4"/>
-        <v>0.25923896296296284</v>
+        <v>0.25272779629629638</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="5"/>
-        <v>69.994519999999966</v>
+        <v>68.236505000000022</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -3875,11 +3920,11 @@
       </c>
       <c r="F24" s="14">
         <f t="shared" si="4"/>
-        <v>0.24281578039215687</v>
+        <v>0.23638953333333337</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="5"/>
-        <v>61.918024000000003</v>
+        <v>60.279331000000013</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -3953,11 +3998,11 @@
       </c>
       <c r="F25" s="14">
         <f t="shared" si="4"/>
-        <v>0.2220790901960783</v>
+        <v>0.21576006666666672</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="5"/>
-        <v>56.630167999999969</v>
+        <v>55.018817000000013</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -4013,35 +4058,37 @@
       </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="26">
         <v>105</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="27">
         <v>104.62</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="28">
         <v>1.0026999999999999</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="29">
         <f t="shared" si="14"/>
         <v>0.19993498266666668</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="14">
         <f t="shared" si="4"/>
-        <v>0.21399055238095241</v>
-      </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="43">
+        <v>0.20447619047619048</v>
+      </c>
+      <c r="G26" s="31">
+        <v>126.47</v>
+      </c>
+      <c r="H26" s="27">
         <f t="shared" si="5"/>
-        <v>22.469008000000002</v>
-      </c>
-      <c r="I26" s="42" t="s">
+        <v>21.47</v>
+      </c>
+      <c r="I26" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="26" t="s">
         <v>273</v>
       </c>
       <c r="K26" s="2">
@@ -4110,11 +4157,11 @@
       </c>
       <c r="F27" s="14">
         <f t="shared" si="4"/>
-        <v>0.19147916190476189</v>
+        <v>0.18531836190476189</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="5"/>
-        <v>20.105311999999998</v>
+        <v>19.458427999999998</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -4188,11 +4235,11 @@
       </c>
       <c r="F28" s="14">
         <f t="shared" si="4"/>
-        <v>0.18983528888888879</v>
+        <v>0.1836829888888889</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="5"/>
-        <v>17.08517599999999</v>
+        <v>16.531469000000001</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -4347,11 +4394,11 @@
       </c>
       <c r="F30" s="14">
         <f t="shared" si="4"/>
-        <v>0.17589137777777764</v>
+        <v>0.16981117777777779</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="5"/>
-        <v>15.830223999999987</v>
+        <v>15.283006</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -4425,11 +4472,11 @@
       </c>
       <c r="F31" s="14">
         <f t="shared" si="4"/>
-        <v>0.17805742222222215</v>
+        <v>0.17196602222222215</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="5"/>
-        <v>16.025167999999994</v>
+        <v>15.476941999999994</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -4503,11 +4550,11 @@
       </c>
       <c r="F32" s="14">
         <f t="shared" si="4"/>
-        <v>0.17426684444444429</v>
+        <v>0.16819504444444439</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="5"/>
-        <v>15.684015999999986</v>
+        <v>15.137553999999994</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -4581,11 +4628,11 @@
       </c>
       <c r="F33" s="14">
         <f t="shared" si="4"/>
-        <v>0.17710977777777781</v>
+        <v>0.17102327777777776</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="5"/>
-        <v>15.939880000000002</v>
+        <v>15.392094999999998</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
@@ -4659,11 +4706,11 @@
       </c>
       <c r="F34" s="14">
         <f t="shared" si="4"/>
-        <v>0.15274177777777773</v>
+        <v>0.14678127777777789</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="5"/>
-        <v>13.746759999999995</v>
+        <v>13.210315000000008</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -4737,11 +4784,11 @@
       </c>
       <c r="F35" s="14">
         <f t="shared" si="4"/>
-        <v>9.1235140740740739E-2</v>
+        <v>8.5592674074073921E-2</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="5"/>
-        <v>12.316744</v>
+        <v>11.555010999999979</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -4819,11 +4866,11 @@
       </c>
       <c r="F36" s="14">
         <f t="shared" si="4"/>
-        <v>0.10368989629629621</v>
+        <v>9.7983029629629667E-2</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ref="H36" si="33">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>13.998135999999988</v>
+        <v>13.227709000000004</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -4897,11 +4944,11 @@
       </c>
       <c r="F37" s="14">
         <f t="shared" si="4"/>
-        <v>0.10567543703703711</v>
+        <v>9.9958303703703705E-2</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:H39" si="44">IF(G37="",$F$1*C37-B37,G37-B37)</f>
-        <v>14.26618400000001</v>
+        <v>13.494371000000001</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -4975,11 +5022,11 @@
       </c>
       <c r="F38" s="14">
         <f t="shared" si="4"/>
-        <v>0.10838299259259249</v>
+        <v>0.10265185925925926</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="44"/>
-        <v>14.631703999999985</v>
+        <v>13.858001000000002</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -5053,11 +5100,11 @@
       </c>
       <c r="F39" s="14">
         <f t="shared" si="4"/>
-        <v>8.5820029629629577E-2</v>
+        <v>8.0205562962963009E-2</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="44"/>
-        <v>11.585703999999993</v>
+        <v>10.827751000000006</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -5131,11 +5178,11 @@
       </c>
       <c r="F40" s="14">
         <f t="shared" si="4"/>
-        <v>7.3906785185185009E-2</v>
+        <v>6.8353918518518506E-2</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40" si="49">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>9.9774159999999767</v>
+        <v>9.2277789999999982</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -5213,11 +5260,11 @@
       </c>
       <c r="F41" s="14">
         <f t="shared" si="4"/>
-        <v>6.795016296296294E-2</v>
+        <v>6.242809629629615E-2</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ref="H41" si="61">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>9.1732719999999972</v>
+        <v>8.4277929999999799</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -5295,11 +5342,11 @@
       </c>
       <c r="F42" s="14">
         <f t="shared" si="4"/>
-        <v>5.9285985185185082E-2</v>
+        <v>5.3808718518518442E-2</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" ref="H42" si="73">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>8.0036079999999856</v>
+        <v>7.2641769999999894</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -5377,11 +5424,11 @@
       </c>
       <c r="F43" s="14">
         <f t="shared" si="4"/>
-        <v>6.9574696296296298E-2</v>
+        <v>6.4044229629629648E-2</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" ref="H43" si="86">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>9.3925839999999994</v>
+        <v>8.645971000000003</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -5455,11 +5502,11 @@
       </c>
       <c r="F44" s="14">
         <f t="shared" si="4"/>
-        <v>0.11181256296296295</v>
+        <v>0.10606369629629613</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" ref="H44" si="99">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>15.094695999999999</v>
+        <v>14.318598999999978</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
@@ -5533,11 +5580,11 @@
       </c>
       <c r="F45" s="14">
         <f t="shared" si="4"/>
-        <v>9.0964385185185181E-2</v>
+        <v>8.5323318518518404E-2</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" ref="H45:H49" si="112">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>12.280192</v>
+        <v>11.518647999999985</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
@@ -5611,11 +5658,11 @@
       </c>
       <c r="F46" s="14">
         <f t="shared" si="4"/>
-        <v>8.4014992592592444E-2</v>
+        <v>7.8409859259259237E-2</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="112"/>
-        <v>11.342023999999981</v>
+        <v>10.585330999999996</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
@@ -5689,11 +5736,11 @@
       </c>
       <c r="F47" s="14">
         <f t="shared" si="4"/>
-        <v>9.2679170370370309E-2</v>
+        <v>8.7029237037036938E-2</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="112"/>
-        <v>12.511687999999992</v>
+        <v>11.748946999999987</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
@@ -5767,11 +5814,11 @@
       </c>
       <c r="F48" s="14">
         <f t="shared" si="4"/>
-        <v>9.9899318518518396E-2</v>
+        <v>9.421205185185183E-2</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="112"/>
-        <v>13.486407999999983</v>
+        <v>12.718626999999998</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
@@ -5845,11 +5892,11 @@
       </c>
       <c r="F49" s="14">
         <f t="shared" si="4"/>
-        <v>8.6812800000000023E-2</v>
+        <v>8.1193200000000035E-2</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="112"/>
-        <v>11.719728000000003</v>
+        <v>10.961082000000005</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
@@ -5923,11 +5970,11 @@
       </c>
       <c r="F50" s="14">
         <f t="shared" si="4"/>
-        <v>5.8112711111111062E-2</v>
+        <v>5.2641511111110935E-2</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ref="H50:H54" si="125">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>7.8452159999999935</v>
+        <v>7.1066039999999759</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
@@ -6001,11 +6048,11 @@
       </c>
       <c r="F51" s="14">
         <f t="shared" si="4"/>
-        <v>6.298631111111111E-2</v>
+        <v>5.7489911111111028E-2</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="125"/>
-        <v>8.503152</v>
+        <v>7.7611379999999883</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
@@ -6079,11 +6126,11 @@
       </c>
       <c r="F52" s="14">
         <f t="shared" si="4"/>
-        <v>6.2625303703703561E-2</v>
+        <v>5.7130770370370267E-2</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="125"/>
-        <v>8.4544159999999806</v>
+        <v>7.7126539999999864</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
@@ -6157,11 +6204,11 @@
       </c>
       <c r="F53" s="14">
         <f t="shared" si="4"/>
-        <v>6.226429629629622E-2</v>
+        <v>5.6771629629629512E-2</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="125"/>
-        <v>8.4056799999999896</v>
+        <v>7.6641699999999844</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
@@ -6235,11 +6282,11 @@
       </c>
       <c r="F54" s="14">
         <f t="shared" si="4"/>
-        <v>6.298631111111111E-2</v>
+        <v>5.7489911111111028E-2</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="125"/>
-        <v>8.503152</v>
+        <v>7.7611379999999883</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
@@ -6314,11 +6361,11 @@
       </c>
       <c r="F55" s="14">
         <f t="shared" si="4"/>
-        <v>8.7444562962962921E-2</v>
+        <v>8.1821696296296306E-2</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ref="H55:H59" si="138">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>11.805015999999995</v>
+        <v>11.045929000000001</v>
       </c>
       <c r="I55" t="s">
         <v>13</v>
@@ -6392,11 +6439,11 @@
       </c>
       <c r="F56" s="14">
         <f t="shared" si="4"/>
-        <v>9.9267555555555498E-2</v>
+        <v>9.3583555555555573E-2</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="138"/>
-        <v>13.401119999999992</v>
+        <v>12.633780000000002</v>
       </c>
       <c r="I56" t="s">
         <v>13</v>
@@ -6470,11 +6517,11 @@
       </c>
       <c r="F57" s="14">
         <f t="shared" si="4"/>
-        <v>8.7625066666666696E-2</v>
+        <v>8.2001266666666572E-2</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="138"/>
-        <v>11.829384000000005</v>
+        <v>11.070170999999988</v>
       </c>
       <c r="I57" t="s">
         <v>13</v>
@@ -6548,11 +6595,11 @@
       </c>
       <c r="F58" s="14">
         <f t="shared" si="4"/>
-        <v>9.1505896296296296E-2</v>
+        <v>8.5862029629629646E-2</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="138"/>
-        <v>12.353296</v>
+        <v>11.591374000000002</v>
       </c>
       <c r="I58" t="s">
         <v>13</v>
@@ -6626,11 +6673,11 @@
       </c>
       <c r="F59" s="14">
         <f t="shared" si="4"/>
-        <v>5.3058607407407449E-2</v>
+        <v>4.7613540740740777E-2</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="138"/>
-        <v>7.1629120000000057</v>
+        <v>6.4278280000000052</v>
       </c>
       <c r="I59" t="s">
         <v>13</v>
@@ -6708,11 +6755,11 @@
       </c>
       <c r="F60" s="14">
         <f t="shared" si="4"/>
-        <v>2.7066074074074069E-2</v>
+        <v>2.1755407407407449E-2</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ref="H60" si="151">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>3.6539199999999994</v>
+        <v>2.9369800000000055</v>
       </c>
       <c r="I60" t="s">
         <v>13</v>
@@ -6790,11 +6837,11 @@
       </c>
       <c r="F61" s="14">
         <f t="shared" ref="F61:F63" si="164">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>2.7607585185185187E-2</v>
+        <v>2.2294118518518476E-2</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:H63" si="165">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>3.7270240000000001</v>
+        <v>3.0097059999999942</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
@@ -6868,11 +6915,11 @@
       </c>
       <c r="F62" s="14">
         <f t="shared" si="164"/>
-        <v>1.5243081481481289E-2</v>
+        <v>9.9935481481479745E-3</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="165"/>
-        <v>2.0578159999999741</v>
+        <v>1.3491289999999765</v>
       </c>
       <c r="I62" t="s">
         <v>13</v>
@@ -6950,11 +6997,11 @@
       </c>
       <c r="F63" s="14">
         <f t="shared" si="164"/>
-        <v>5.5861333333333835E-3</v>
+        <v>3.8653333333336091E-4</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="165"/>
-        <v>0.67033600000000604</v>
+        <v>4.6384000000003311E-2</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
@@ -7007,6 +7054,400 @@
       <c r="W63" s="1">
         <f t="shared" si="176"/>
         <v>0.33013195419742802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B64">
+        <v>120</v>
+      </c>
+      <c r="C64" s="39">
+        <v>99.12</v>
+      </c>
+      <c r="D64" s="40">
+        <v>1.2094</v>
+      </c>
+      <c r="E64" s="23">
+        <f t="shared" ref="E64:E68" si="177">10%*M64+13%</f>
+        <v>0.209917152</v>
+      </c>
+      <c r="F64" s="14">
+        <f t="shared" ref="F64:F68" si="178">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
+        <v>1.1946000000000604E-3</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" ref="H64:H68" si="179">IF(G64="",$F$1*C64-B64,G64-B64)</f>
+        <v>0.14335200000000725</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" t="s">
+        <v>275</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" ref="K64:K68" si="180">D64*C64</f>
+        <v>119.87572800000001</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" ref="L64:L68" si="181">B64-K64</f>
+        <v>0.12427199999999061</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" ref="M64:M68" si="182">K64/150</f>
+        <v>0.79917152000000002</v>
+      </c>
+      <c r="N64" s="6">
+        <f t="shared" ref="N64:N68" si="183">N63+C64-P64</f>
+        <v>5781.1499999999987</v>
+      </c>
+      <c r="O64" s="2">
+        <f t="shared" ref="O64:O68" si="184">N64*D64</f>
+        <v>6991.7228099999984</v>
+      </c>
+      <c r="P64" s="2">
+        <v>104.62</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>126.47</v>
+      </c>
+      <c r="R64" s="6">
+        <f t="shared" ref="R64:R68" si="185">R63+Q64</f>
+        <v>3578.3399999999997</v>
+      </c>
+      <c r="S64" s="6">
+        <f t="shared" ref="S64:S68" si="186">R64+O64</f>
+        <v>10570.062809999998</v>
+      </c>
+      <c r="T64">
+        <f t="shared" ref="T64:T68" si="187">T63+B64</f>
+        <v>9135</v>
+      </c>
+      <c r="U64" s="4">
+        <f t="shared" ref="U64:U68" si="188">S64/T64-1</f>
+        <v>0.1570949983579637</v>
+      </c>
+      <c r="V64" s="4">
+        <f t="shared" ref="V64:V68" si="189">O64/(T64-R64)-1</f>
+        <v>0.25825996371921245</v>
+      </c>
+      <c r="W64" s="1">
+        <f t="shared" ref="W64:W68" si="190">R64/S64</f>
+        <v>0.33853535823974923</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65">
+        <v>120</v>
+      </c>
+      <c r="C65" s="39">
+        <v>98.71</v>
+      </c>
+      <c r="D65" s="40">
+        <v>1.2144999999999999</v>
+      </c>
+      <c r="E65" s="23">
+        <f t="shared" si="177"/>
+        <v>0.20992219666666667</v>
+      </c>
+      <c r="F65" s="14">
+        <f t="shared" si="178"/>
+        <v>-2.9467416666667154E-3</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="179"/>
+        <v>-0.35360900000000584</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" t="s">
+        <v>277</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="180"/>
+        <v>119.88329499999999</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" si="181"/>
+        <v>0.11670500000001027</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" si="182"/>
+        <v>0.79922196666666656</v>
+      </c>
+      <c r="N65" s="6">
+        <f t="shared" si="183"/>
+        <v>5879.8599999999988</v>
+      </c>
+      <c r="O65" s="2">
+        <f t="shared" si="184"/>
+        <v>7141.0899699999982</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="6">
+        <f t="shared" si="185"/>
+        <v>3578.3399999999997</v>
+      </c>
+      <c r="S65" s="6">
+        <f t="shared" si="186"/>
+        <v>10719.429969999997</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="187"/>
+        <v>9255</v>
+      </c>
+      <c r="U65" s="4">
+        <f t="shared" si="188"/>
+        <v>0.15823122312263616</v>
+      </c>
+      <c r="V65" s="4">
+        <f t="shared" si="189"/>
+        <v>0.25797387372151914</v>
+      </c>
+      <c r="W65" s="1">
+        <f t="shared" si="190"/>
+        <v>0.33381812372621905</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66">
+        <v>120</v>
+      </c>
+      <c r="C66" s="39">
+        <v>98.47</v>
+      </c>
+      <c r="D66" s="40">
+        <v>1.2174</v>
+      </c>
+      <c r="E66" s="23">
+        <f t="shared" si="177"/>
+        <v>0.20991825200000003</v>
+      </c>
+      <c r="F66" s="14">
+        <f t="shared" si="178"/>
+        <v>-5.3709416666666955E-3</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="179"/>
+        <v>-0.64451300000000344</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" t="s">
+        <v>279</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="180"/>
+        <v>119.87737800000001</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="181"/>
+        <v>0.12262199999999268</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" si="182"/>
+        <v>0.79918252000000001</v>
+      </c>
+      <c r="N66" s="6">
+        <f t="shared" si="183"/>
+        <v>5978.329999999999</v>
+      </c>
+      <c r="O66" s="2">
+        <f t="shared" si="184"/>
+        <v>7278.0189419999988</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="6">
+        <f t="shared" si="185"/>
+        <v>3578.3399999999997</v>
+      </c>
+      <c r="S66" s="6">
+        <f t="shared" si="186"/>
+        <v>10856.358941999999</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="187"/>
+        <v>9375</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" si="188"/>
+        <v>0.15801162047999995</v>
+      </c>
+      <c r="V66" s="4">
+        <f t="shared" si="189"/>
+        <v>0.25555387792280371</v>
+      </c>
+      <c r="W66" s="1">
+        <f t="shared" si="190"/>
+        <v>0.32960774594108849</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67">
+        <v>120</v>
+      </c>
+      <c r="C67" s="39">
+        <v>100.52</v>
+      </c>
+      <c r="D67" s="40">
+        <v>1.1926000000000001</v>
+      </c>
+      <c r="E67" s="23">
+        <f t="shared" si="177"/>
+        <v>0.20992010133333333</v>
+      </c>
+      <c r="F67" s="14">
+        <f t="shared" si="178"/>
+        <v>1.5335766666666591E-2</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="179"/>
+        <v>1.8402919999999909</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" t="s">
+        <v>281</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" si="180"/>
+        <v>119.88015200000001</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" si="181"/>
+        <v>0.11984799999999041</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="182"/>
+        <v>0.79920101333333338</v>
+      </c>
+      <c r="N67" s="6">
+        <f t="shared" si="183"/>
+        <v>6078.8499999999995</v>
+      </c>
+      <c r="O67" s="2">
+        <f t="shared" si="184"/>
+        <v>7249.6365100000003</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="6">
+        <f t="shared" si="185"/>
+        <v>3578.3399999999997</v>
+      </c>
+      <c r="S67" s="6">
+        <f t="shared" si="186"/>
+        <v>10827.97651</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="187"/>
+        <v>9495</v>
+      </c>
+      <c r="U67" s="4">
+        <f t="shared" si="188"/>
+        <v>0.14038720484465506</v>
+      </c>
+      <c r="V67" s="4">
+        <f t="shared" si="189"/>
+        <v>0.22529205835724886</v>
+      </c>
+      <c r="W67" s="1">
+        <f t="shared" si="190"/>
+        <v>0.33047171802555003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68">
+        <v>120</v>
+      </c>
+      <c r="C68" s="39">
+        <v>100.74</v>
+      </c>
+      <c r="D68" s="40">
+        <v>1.19</v>
+      </c>
+      <c r="E68" s="23">
+        <f t="shared" si="177"/>
+        <v>0.20992040000000001</v>
+      </c>
+      <c r="F68" s="14">
+        <f t="shared" si="178"/>
+        <v>1.7557949999999895E-2</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="179"/>
+        <v>2.1069539999999876</v>
+      </c>
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" t="s">
+        <v>283</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="180"/>
+        <v>119.88059999999999</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" si="181"/>
+        <v>0.11940000000001305</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" si="182"/>
+        <v>0.79920399999999991</v>
+      </c>
+      <c r="N68" s="6">
+        <f t="shared" si="183"/>
+        <v>6179.5899999999992</v>
+      </c>
+      <c r="O68" s="2">
+        <f t="shared" si="184"/>
+        <v>7353.7120999999988</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="6">
+        <f t="shared" si="185"/>
+        <v>3578.3399999999997</v>
+      </c>
+      <c r="S68" s="6">
+        <f t="shared" si="186"/>
+        <v>10932.052099999999</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="187"/>
+        <v>9615</v>
+      </c>
+      <c r="U68" s="4">
+        <f t="shared" si="188"/>
+        <v>0.13697889755590209</v>
+      </c>
+      <c r="V68" s="4">
+        <f t="shared" si="189"/>
+        <v>0.21817563023261188</v>
+      </c>
+      <c r="W68" s="1">
+        <f t="shared" si="190"/>
+        <v>0.32732555308623162</v>
       </c>
     </row>
   </sheetData>
@@ -7072,11 +7513,11 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F63">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="F2:F68">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7135,13 +7576,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X65"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7183,14 +7624,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>1.0152000000000001</v>
+        <v>0.99660000000000004</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>155</v>
       </c>
       <c r="H1" s="21" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19994),2)</f>
-        <v>盈利1693.86</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19991),2)</f>
+        <v>盈利1619.5</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -9879,12 +10320,12 @@
       </c>
       <c r="F35" s="30">
         <f t="shared" si="1"/>
-        <v>0.1595517714285716</v>
+        <v>0.13830702857142871</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="20">
         <f t="shared" si="2"/>
-        <v>16.75293600000002</v>
+        <v>14.522238000000016</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -9958,12 +10399,12 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" si="1"/>
-        <v>0.16093760000000007</v>
+        <v>0.1396674666666668</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="20">
         <f t="shared" si="2"/>
-        <v>14.484384000000006</v>
+        <v>12.57007200000001</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -10037,12 +10478,12 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" si="1"/>
-        <v>0.16556240000000016</v>
+        <v>0.14420753333333336</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="20">
         <f t="shared" si="2"/>
-        <v>14.900616000000014</v>
+        <v>12.978678000000002</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -10116,12 +10557,12 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" si="1"/>
-        <v>0.16409600000000021</v>
+        <v>0.14276800000000014</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="20">
         <f t="shared" si="2"/>
-        <v>14.768640000000019</v>
+        <v>12.849120000000013</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -10195,12 +10636,12 @@
       </c>
       <c r="F39" s="30">
         <f t="shared" si="1"/>
-        <v>0.15507200000000015</v>
+        <v>0.13390933333333346</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="20">
         <f t="shared" si="2"/>
-        <v>13.956480000000013</v>
+        <v>12.051840000000013</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -10274,12 +10715,12 @@
       </c>
       <c r="F40" s="30">
         <f t="shared" si="1"/>
-        <v>0.1358208000000001</v>
+        <v>0.11501084444444448</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="20">
         <f t="shared" ref="H40" si="57">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>18.335808000000014</v>
+        <v>15.526464000000004</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -10353,12 +10794,12 @@
       </c>
       <c r="F41" s="30">
         <f t="shared" si="1"/>
-        <v>0.108072</v>
+        <v>8.7770444444444387E-2</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="20">
         <f t="shared" ref="H41" si="69">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>14.58972</v>
+        <v>11.849009999999993</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -10436,12 +10877,12 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="1"/>
-        <v>9.0174400000000154E-2</v>
+        <v>7.0200755555555577E-2</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="20">
         <f t="shared" ref="H42" si="81">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>12.173544000000021</v>
+        <v>9.4771020000000021</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -10519,12 +10960,12 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="1"/>
-        <v>7.693920000000011E-2</v>
+        <v>5.720804444444462E-2</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="20">
         <f t="shared" ref="H43" si="94">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>10.386792000000014</v>
+        <v>7.7230860000000234</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -10602,12 +11043,12 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="1"/>
-        <v>0.11521600000000018</v>
+        <v>9.4783555555555607E-2</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="20">
         <f t="shared" ref="H44" si="107">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>15.554160000000024</v>
+        <v>12.795780000000008</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
@@ -10681,12 +11122,12 @@
       </c>
       <c r="F45" s="30">
         <f t="shared" si="1"/>
-        <v>7.5736000000000137E-2</v>
+        <v>5.6026888888889022E-2</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="20">
         <f t="shared" ref="H45:H49" si="120">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>10.224360000000019</v>
+        <v>7.5636300000000176</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
@@ -10760,12 +11201,12 @@
       </c>
       <c r="F46" s="30">
         <f t="shared" si="1"/>
-        <v>5.8590400000000251E-2</v>
+        <v>3.9195422222222422E-2</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="20">
         <f t="shared" si="120"/>
-        <v>7.9097040000000334</v>
+        <v>5.2913820000000271</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
@@ -10839,12 +11280,12 @@
       </c>
       <c r="F47" s="30">
         <f t="shared" si="1"/>
-        <v>8.2052799999999912E-2</v>
+        <v>6.2227955555555436E-2</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="20">
         <f t="shared" si="120"/>
-        <v>11.077127999999988</v>
+        <v>8.4007739999999842</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
@@ -10918,12 +11359,12 @@
       </c>
       <c r="F48" s="30">
         <f t="shared" si="1"/>
-        <v>0.1063424000000002</v>
+        <v>8.6072533333333465E-2</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="20">
         <f t="shared" si="120"/>
-        <v>14.356224000000026</v>
+        <v>11.619792000000018</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
@@ -10997,12 +11438,12 @@
       </c>
       <c r="F49" s="30">
         <f t="shared" si="1"/>
-        <v>9.4761600000000126E-2</v>
+        <v>7.4703911111111285E-2</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="20">
         <f t="shared" si="120"/>
-        <v>12.792816000000016</v>
+        <v>10.085028000000023</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
@@ -11076,12 +11517,12 @@
       </c>
       <c r="F50" s="30">
         <f t="shared" si="1"/>
-        <v>6.7990400000000284E-2</v>
+        <v>4.8423200000000104E-2</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="20">
         <f t="shared" ref="H50:H54" si="133">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>9.1787040000000388</v>
+        <v>6.5371320000000139</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
@@ -11155,12 +11596,12 @@
       </c>
       <c r="F51" s="30">
         <f t="shared" si="1"/>
-        <v>6.4155200000000065E-2</v>
+        <v>4.465826666666662E-2</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="20">
         <f t="shared" si="133"/>
-        <v>8.6609520000000089</v>
+        <v>6.0288659999999936</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
@@ -11238,12 +11679,12 @@
       </c>
       <c r="F52" s="30">
         <f t="shared" si="1"/>
-        <v>6.5583999999999934E-2</v>
+        <v>4.6060888888888908E-2</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="20">
         <f t="shared" si="133"/>
-        <v>8.8538399999999911</v>
+        <v>6.2182200000000023</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
@@ -11317,12 +11758,12 @@
       </c>
       <c r="F53" s="30">
         <f t="shared" si="1"/>
-        <v>5.1897600000000078E-2</v>
+        <v>3.2625244444444368E-2</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="20">
         <f t="shared" si="133"/>
-        <v>7.0061760000000106</v>
+        <v>4.4044079999999894</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
@@ -11400,12 +11841,12 @@
       </c>
       <c r="F54" s="30">
         <f t="shared" si="1"/>
-        <v>4.6182400000000186E-2</v>
+        <v>2.7014755555555641E-2</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="20">
         <f t="shared" si="133"/>
-        <v>6.234624000000025</v>
+        <v>3.6469920000000116</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
@@ -11480,12 +11921,12 @@
       </c>
       <c r="F55" s="30">
         <f t="shared" si="1"/>
-        <v>5.8966400000000016E-2</v>
+        <v>3.9564533333333429E-2</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="20">
         <f t="shared" ref="H55:H59" si="146">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>7.9604640000000018</v>
+        <v>5.3412120000000129</v>
       </c>
       <c r="I55" t="s">
         <v>13</v>
@@ -11559,12 +12000,12 @@
       </c>
       <c r="F56" s="30">
         <f t="shared" si="1"/>
-        <v>8.7768000000000221E-2</v>
+        <v>6.783844444444459E-2</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="20">
         <f t="shared" si="146"/>
-        <v>11.84868000000003</v>
+        <v>9.1581900000000189</v>
       </c>
       <c r="I56" t="s">
         <v>13</v>
@@ -11638,12 +12079,12 @@
       </c>
       <c r="F57" s="30">
         <f t="shared" si="1"/>
-        <v>7.8067200000000239E-2</v>
+        <v>5.8315377777777844E-2</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="20">
         <f t="shared" si="146"/>
-        <v>10.539072000000033</v>
+        <v>7.8725760000000093</v>
       </c>
       <c r="I57" t="s">
         <v>13</v>
@@ -11717,12 +12158,12 @@
       </c>
       <c r="F58" s="30">
         <f t="shared" si="1"/>
-        <v>9.2580800000000088E-2</v>
+        <v>7.2563066666666565E-2</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="20">
         <f t="shared" si="146"/>
-        <v>12.498408000000012</v>
+        <v>9.7960139999999853</v>
       </c>
       <c r="I58" t="s">
         <v>13</v>
@@ -11796,12 +12237,12 @@
       </c>
       <c r="F59" s="30">
         <f t="shared" si="1"/>
-        <v>5.9342400000000198E-2</v>
+        <v>3.9933644444444437E-2</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="20">
         <f t="shared" si="146"/>
-        <v>8.011224000000027</v>
+        <v>5.3910419999999988</v>
       </c>
       <c r="I59" t="s">
         <v>13</v>
@@ -11875,12 +12316,12 @@
       </c>
       <c r="F60" s="30">
         <f t="shared" si="1"/>
-        <v>2.2644800000000277E-2</v>
+        <v>3.9084000000000453E-3</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="20">
         <f t="shared" ref="H60" si="159">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>3.0570480000000373</v>
+        <v>0.52763400000000615</v>
       </c>
       <c r="I60" t="s">
         <v>13</v>
@@ -11958,12 +12399,12 @@
       </c>
       <c r="F61" s="30">
         <f t="shared" ref="F61:F63" si="172">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>1.9561600000000217E-2</v>
+        <v>8.8168888888899512E-4</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="20">
         <f t="shared" ref="H61:H63" si="173">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>2.6408160000000294</v>
+        <v>0.11902800000001434</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
@@ -12037,12 +12478,12 @@
       </c>
       <c r="F62" s="30">
         <f t="shared" si="172"/>
-        <v>9.5318000000001266E-3</v>
+        <v>-8.9643499999999907E-3</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="20">
         <f t="shared" si="173"/>
-        <v>1.1438160000000153</v>
+        <v>-1.075721999999999</v>
       </c>
       <c r="I62" t="s">
         <v>13</v>
@@ -12120,12 +12561,12 @@
       </c>
       <c r="F63" s="30">
         <f t="shared" si="172"/>
-        <v>3.6944000000000681E-3</v>
+        <v>-1.4694799999999949E-2</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="20">
         <f t="shared" si="173"/>
-        <v>0.44332800000000816</v>
+        <v>-1.7633759999999938</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
@@ -12185,10 +12626,399 @@
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="N64" s="6"/>
-    </row>
-    <row r="65" spans="14:14">
-      <c r="N65" s="6"/>
+      <c r="A64" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B64">
+        <v>120</v>
+      </c>
+      <c r="C64" s="2">
+        <v>119.12</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1.0074000000000001</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" ref="E64:E68" si="185">10%*M64+13%</f>
+        <v>0.210000992</v>
+      </c>
+      <c r="F64" s="30">
+        <f t="shared" ref="F64:F68" si="186">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
+        <v>-1.0708399999999922E-2</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="20">
+        <f t="shared" ref="H64:H68" si="187">IF(G64="",$F$1*C64-B64,G64-B64)</f>
+        <v>-1.2850079999999906</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" t="s">
+        <v>285</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" ref="K64:K68" si="188">D64*C64</f>
+        <v>120.00148800000001</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" ref="L64:L68" si="189">K64-B64</f>
+        <v>1.4880000000090376E-3</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" ref="M64:M68" si="190">K64/150</f>
+        <v>0.80000992000000004</v>
+      </c>
+      <c r="N64" s="6">
+        <f t="shared" ref="N64:N68" si="191">N63+C64-P64</f>
+        <v>4034.9400000000019</v>
+      </c>
+      <c r="O64" s="2">
+        <f t="shared" ref="O64:O68" si="192">N64*D64</f>
+        <v>4064.798556000002</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="6">
+        <f t="shared" ref="R64:R68" si="193">Q64+R63</f>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S64" s="6">
+        <f t="shared" ref="S64:S68" si="194">O64+R64</f>
+        <v>10795.318556000002</v>
+      </c>
+      <c r="T64">
+        <f t="shared" ref="T64:T68" si="195">T63+B64</f>
+        <v>9135</v>
+      </c>
+      <c r="U64" s="4">
+        <f t="shared" ref="U64:U68" si="196">S64/T64-1</f>
+        <v>0.1817535365079368</v>
+      </c>
+      <c r="V64" s="4">
+        <f t="shared" ref="V64:V68" si="197">O64/(T64-R64)-1</f>
+        <v>0.69051044550173057</v>
+      </c>
+      <c r="W64" s="1">
+        <f t="shared" ref="W64:W68" si="198">R64/S64</f>
+        <v>0.62346654849376348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65">
+        <v>120</v>
+      </c>
+      <c r="C65" s="2">
+        <v>118.92</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1.0091000000000001</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="185"/>
+        <v>0.21000144800000003</v>
+      </c>
+      <c r="F65" s="30">
+        <f t="shared" si="186"/>
+        <v>-1.2369399999999923E-2</v>
+      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="20">
+        <f t="shared" si="187"/>
+        <v>-1.4843279999999908</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" t="s">
+        <v>287</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="188"/>
+        <v>120.00217200000002</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" si="189"/>
+        <v>2.1720000000158279E-3</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" si="190"/>
+        <v>0.80001448000000008</v>
+      </c>
+      <c r="N65" s="6">
+        <f t="shared" si="191"/>
+        <v>4153.8600000000015</v>
+      </c>
+      <c r="O65" s="2">
+        <f t="shared" si="192"/>
+        <v>4191.6601260000016</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="6">
+        <f t="shared" si="193"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S65" s="6">
+        <f t="shared" si="194"/>
+        <v>10922.180126000001</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="195"/>
+        <v>9255</v>
+      </c>
+      <c r="U65" s="4">
+        <f t="shared" si="196"/>
+        <v>0.1801383172339277</v>
+      </c>
+      <c r="V65" s="4">
+        <f t="shared" si="197"/>
+        <v>0.66040536110406922</v>
+      </c>
+      <c r="W65" s="1">
+        <f t="shared" si="198"/>
+        <v>0.6162249589693316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B66">
+        <v>120</v>
+      </c>
+      <c r="C66" s="2">
+        <v>119.05</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1.008</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="185"/>
+        <v>0.21000160000000001</v>
+      </c>
+      <c r="F66" s="30">
+        <f t="shared" si="186"/>
+        <v>-1.1289750000000017E-2</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="20">
+        <f t="shared" si="187"/>
+        <v>-1.354770000000002</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" t="s">
+        <v>289</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="188"/>
+        <v>120.00239999999999</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="189"/>
+        <v>2.3999999999944066E-3</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" si="190"/>
+        <v>0.80001599999999995</v>
+      </c>
+      <c r="N66" s="6">
+        <f t="shared" si="191"/>
+        <v>4272.9100000000017</v>
+      </c>
+      <c r="O66" s="2">
+        <f t="shared" si="192"/>
+        <v>4307.0932800000019</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="6">
+        <f t="shared" si="193"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S66" s="6">
+        <f t="shared" si="194"/>
+        <v>11037.613280000001</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="195"/>
+        <v>9375</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" si="196"/>
+        <v>0.17734541653333347</v>
+      </c>
+      <c r="V66" s="4">
+        <f t="shared" si="197"/>
+        <v>0.62871085430784168</v>
+      </c>
+      <c r="W66" s="1">
+        <f t="shared" si="198"/>
+        <v>0.60978037817248099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B67">
+        <v>120</v>
+      </c>
+      <c r="C67" s="2">
+        <v>121.49</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="185"/>
+        <v>0.20999711533333335</v>
+      </c>
+      <c r="F67" s="30">
+        <f t="shared" si="186"/>
+        <v>8.9744499999999516E-3</v>
+      </c>
+      <c r="G67" s="9"/>
+      <c r="H67" s="20">
+        <f t="shared" si="187"/>
+        <v>1.0769339999999943</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" t="s">
+        <v>291</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" si="188"/>
+        <v>119.995673</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" si="189"/>
+        <v>-4.3270000000035225E-3</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="190"/>
+        <v>0.79997115333333335</v>
+      </c>
+      <c r="N67" s="6">
+        <f t="shared" si="191"/>
+        <v>4394.4000000000015</v>
+      </c>
+      <c r="O67" s="2">
+        <f t="shared" si="192"/>
+        <v>4340.3488800000014</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="6">
+        <f t="shared" si="193"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S67" s="6">
+        <f t="shared" si="194"/>
+        <v>11070.868880000002</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="195"/>
+        <v>9495</v>
+      </c>
+      <c r="U67" s="4">
+        <f t="shared" si="196"/>
+        <v>0.16596828646656148</v>
+      </c>
+      <c r="V67" s="4">
+        <f t="shared" si="197"/>
+        <v>0.5700417004282905</v>
+      </c>
+      <c r="W67" s="1">
+        <f t="shared" si="198"/>
+        <v>0.6079486689756548</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68">
+        <v>135</v>
+      </c>
+      <c r="C68" s="2">
+        <v>136.99</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="185"/>
+        <v>0.22000243000000003</v>
+      </c>
+      <c r="F68" s="30">
+        <f t="shared" si="186"/>
+        <v>1.1290622222222274E-2</v>
+      </c>
+      <c r="G68" s="9"/>
+      <c r="H68" s="20">
+        <f t="shared" si="187"/>
+        <v>1.524234000000007</v>
+      </c>
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" t="s">
+        <v>293</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="188"/>
+        <v>135.00364500000001</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" si="189"/>
+        <v>3.6450000000058935E-3</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" si="190"/>
+        <v>0.9000243</v>
+      </c>
+      <c r="N68" s="6">
+        <f t="shared" si="191"/>
+        <v>4531.3900000000012</v>
+      </c>
+      <c r="O68" s="2">
+        <f t="shared" si="192"/>
+        <v>4465.6848450000016</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="6">
+        <f t="shared" si="193"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S68" s="6">
+        <f t="shared" si="194"/>
+        <v>11196.204845</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="195"/>
+        <v>9630</v>
+      </c>
+      <c r="U68" s="4">
+        <f t="shared" si="196"/>
+        <v>0.16263809397715479</v>
+      </c>
+      <c r="V68" s="4">
+        <f t="shared" si="197"/>
+        <v>0.54016749382647955</v>
+      </c>
+      <c r="W68" s="1">
+        <f t="shared" si="198"/>
+        <v>0.60114298489328855</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{EBD5E519-1AC8-D646-A624-501481F39CB6}"/>
@@ -12253,11 +13083,11 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F63">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="F2:F68">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3670217-9D14-C14C-B4FD-4DBD18DD6901}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474286AA-649E-5E47-A026-6B3D51A31CED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="313">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -803,10 +803,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20190214购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20190218购入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1450,13 +1446,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>出售</t>
-    <rPh sb="0" eb="1">
-      <t>ci'you</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20190212购入,20190408售出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1519,6 +1508,70 @@
   </si>
   <si>
     <t>10290412购入</t>
+  </si>
+  <si>
+    <t>hs300_20190415</t>
+  </si>
+  <si>
+    <t>20190415购入</t>
+  </si>
+  <si>
+    <t>hs300_20190416</t>
+  </si>
+  <si>
+    <t>20190416购入</t>
+  </si>
+  <si>
+    <t>hs300_20190417</t>
+  </si>
+  <si>
+    <t>20190417购入</t>
+  </si>
+  <si>
+    <t>hs300_20190418</t>
+  </si>
+  <si>
+    <t>20190418购入</t>
+  </si>
+  <si>
+    <t>hs300_20190419</t>
+  </si>
+  <si>
+    <t>20190419购入</t>
+  </si>
+  <si>
+    <t>zz500_20190415</t>
+  </si>
+  <si>
+    <t>10290415购入</t>
+  </si>
+  <si>
+    <t>zz500_20190416</t>
+  </si>
+  <si>
+    <t>10290416购入</t>
+  </si>
+  <si>
+    <t>zz500_20190417</t>
+  </si>
+  <si>
+    <t>10290417购入</t>
+  </si>
+  <si>
+    <t>zz500_20190418</t>
+  </si>
+  <si>
+    <t>10290418购入</t>
+  </si>
+  <si>
+    <t>zz500_20190419</t>
+  </si>
+  <si>
+    <t>10290419购入</t>
+  </si>
+  <si>
+    <t>20190214购入,20190419售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2047,13 +2100,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X68"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2097,14 +2150,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>1.2121</v>
+        <v>1.2034</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H1" s="19" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19990),2)</f>
-        <v>盈利1453.62</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19988),2)</f>
+        <v>盈利1396.79</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -2119,40 +2172,40 @@
         <v>54</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="18" t="s">
-        <v>120</v>
-      </c>
       <c r="T1" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V1" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="V1" s="18" t="s">
-        <v>135</v>
-      </c>
       <c r="W1" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -2230,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2310,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
@@ -2341,7 +2394,7 @@
         <v>76</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
@@ -2389,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" hidden="1">
       <c r="A5" s="25" t="s">
         <v>17</v>
       </c>
@@ -2420,7 +2473,7 @@
         <v>76</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
@@ -2469,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
@@ -2500,7 +2553,7 @@
         <v>76</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
@@ -2549,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="34" t="s">
         <v>19</v>
       </c>
@@ -2580,7 +2633,7 @@
         <v>76</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
@@ -2629,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
@@ -2660,7 +2713,7 @@
         <v>76</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
@@ -2709,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="34" t="s">
         <v>21</v>
       </c>
@@ -2740,7 +2793,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -2789,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="25" t="s">
         <v>28</v>
       </c>
@@ -2820,7 +2873,7 @@
         <v>76</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -2869,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
@@ -2900,7 +2953,7 @@
         <v>76</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
@@ -2949,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="34" t="s">
         <v>30</v>
       </c>
@@ -2980,7 +3033,7 @@
         <v>76</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
@@ -3029,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" s="34" t="s">
         <v>31</v>
       </c>
@@ -3060,7 +3113,7 @@
         <v>76</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
@@ -3109,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" s="34" t="s">
         <v>33</v>
       </c>
@@ -3140,7 +3193,7 @@
         <v>76</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
@@ -3189,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" s="34" t="s">
         <v>34</v>
       </c>
@@ -3220,7 +3273,7 @@
         <v>76</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
@@ -3269,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" s="34" t="s">
         <v>35</v>
       </c>
@@ -3300,7 +3353,7 @@
         <v>76</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
@@ -3349,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" hidden="1">
       <c r="A17" s="34" t="s">
         <v>36</v>
       </c>
@@ -3380,7 +3433,7 @@
         <v>76</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
@@ -3429,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" hidden="1">
       <c r="A18" s="34" t="s">
         <v>37</v>
       </c>
@@ -3460,7 +3513,7 @@
         <v>76</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="0"/>
@@ -3509,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" hidden="1">
       <c r="A19" s="34" t="s">
         <v>38</v>
       </c>
@@ -3540,7 +3593,7 @@
         <v>76</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
@@ -3608,11 +3661,11 @@
       </c>
       <c r="F20" s="14">
         <f t="shared" si="4"/>
-        <v>0.2595065777777778</v>
+        <v>0.25046631111111106</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="5"/>
-        <v>70.066776000000004</v>
+        <v>67.625903999999991</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -3686,11 +3739,11 @@
       </c>
       <c r="F21" s="14">
         <f t="shared" si="4"/>
-        <v>0.25560092222222219</v>
+        <v>0.24658868888888899</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>69.012248999999997</v>
+        <v>66.57894600000003</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -3764,11 +3817,11 @@
       </c>
       <c r="F22" s="14">
         <f t="shared" si="4"/>
-        <v>0.26505213333333316</v>
+        <v>0.25597206274509804</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="5"/>
-        <v>67.588293999999962</v>
+        <v>65.272875999999997</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
@@ -3842,11 +3895,11 @@
       </c>
       <c r="F23" s="14">
         <f t="shared" si="4"/>
-        <v>0.25272779629629638</v>
+        <v>0.24373618518518533</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="5"/>
-        <v>68.236505000000022</v>
+        <v>65.808770000000038</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -3920,11 +3973,11 @@
       </c>
       <c r="F24" s="14">
         <f t="shared" si="4"/>
-        <v>0.23638953333333337</v>
+        <v>0.22751519215686292</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="5"/>
-        <v>60.279331000000013</v>
+        <v>58.016374000000042</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -3998,11 +4051,11 @@
       </c>
       <c r="F25" s="14">
         <f t="shared" si="4"/>
-        <v>0.21576006666666672</v>
+        <v>0.20703379607843153</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="5"/>
-        <v>55.018817000000013</v>
+        <v>52.793618000000038</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -4086,10 +4139,10 @@
         <v>21.47</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
@@ -4157,11 +4210,11 @@
       </c>
       <c r="F27" s="14">
         <f t="shared" si="4"/>
-        <v>0.18531836190476189</v>
+        <v>0.1768105904761906</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="5"/>
-        <v>19.458427999999998</v>
+        <v>18.565112000000013</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -4217,35 +4270,38 @@
       </c>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="26">
         <v>90</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="27">
         <v>87.89</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="28">
         <v>1.0229999999999999</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="29">
         <f t="shared" si="14"/>
         <v>0.18994098000000001</v>
       </c>
       <c r="F28" s="14">
         <f t="shared" si="4"/>
-        <v>0.1836829888888889</v>
-      </c>
-      <c r="H28" s="2">
+        <v>0.19766666666666674</v>
+      </c>
+      <c r="G28" s="31">
+        <v>107.79</v>
+      </c>
+      <c r="H28" s="27">
         <f t="shared" si="5"/>
-        <v>16.531469000000001</v>
-      </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" t="s">
-        <v>87</v>
+        <v>17.790000000000006</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>312</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="0"/>
@@ -4326,7 +4382,7 @@
         <v>76</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="0"/>
@@ -4394,17 +4450,17 @@
       </c>
       <c r="F30" s="14">
         <f t="shared" si="4"/>
-        <v>0.16981117777777779</v>
+        <v>0.16141471111111119</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="5"/>
-        <v>15.283006</v>
+        <v>14.527324000000007</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="0"/>
@@ -4472,17 +4528,17 @@
       </c>
       <c r="F31" s="14">
         <f t="shared" si="4"/>
-        <v>0.17196602222222215</v>
+        <v>0.16355408888888878</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="5"/>
-        <v>15.476941999999994</v>
+        <v>14.719867999999991</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="0"/>
@@ -4550,17 +4606,17 @@
       </c>
       <c r="F32" s="14">
         <f t="shared" si="4"/>
-        <v>0.16819504444444439</v>
+        <v>0.15981017777777773</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="5"/>
-        <v>15.137553999999994</v>
+        <v>14.382915999999994</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="0"/>
@@ -4628,17 +4684,17 @@
       </c>
       <c r="F33" s="14">
         <f t="shared" si="4"/>
-        <v>0.17102327777777776</v>
+        <v>0.16261811111111119</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="5"/>
-        <v>15.392094999999998</v>
+        <v>14.635630000000006</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="0"/>
@@ -4706,17 +4762,17 @@
       </c>
       <c r="F34" s="14">
         <f t="shared" si="4"/>
-        <v>0.14678127777777789</v>
+        <v>0.13855011111111126</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="5"/>
-        <v>13.210315000000008</v>
+        <v>12.469510000000014</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="0"/>
@@ -4767,7 +4823,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35">
         <v>135</v>
@@ -4784,17 +4840,17 @@
       </c>
       <c r="F35" s="14">
         <f t="shared" si="4"/>
-        <v>8.5592674074073921E-2</v>
+        <v>7.7800696296296323E-2</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="5"/>
-        <v>11.555010999999979</v>
+        <v>10.503094000000004</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" ref="K35" si="25">D35*C35</f>
@@ -4849,7 +4905,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36">
         <v>135</v>
@@ -4866,17 +4922,17 @@
       </c>
       <c r="F36" s="14">
         <f t="shared" si="4"/>
-        <v>9.7983029629629667E-2</v>
+        <v>9.010211851851864E-2</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ref="H36" si="33">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>13.227709000000004</v>
+        <v>12.163786000000016</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" ref="K36" si="34">D36*C36</f>
@@ -4927,7 +4983,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37">
         <v>135</v>
@@ -4944,17 +5000,17 @@
       </c>
       <c r="F37" s="14">
         <f t="shared" si="4"/>
-        <v>9.9958303703703705E-2</v>
+        <v>9.2063214814814914E-2</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:H39" si="44">IF(G37="",$F$1*C37-B37,G37-B37)</f>
-        <v>13.494371000000001</v>
+        <v>12.428534000000013</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" ref="K37:K39" si="45">D37*C37</f>
@@ -5005,7 +5061,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38">
         <v>135</v>
@@ -5022,17 +5078,17 @@
       </c>
       <c r="F38" s="14">
         <f t="shared" si="4"/>
-        <v>0.10265185925925926</v>
+        <v>9.4737437037037103E-2</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="44"/>
-        <v>13.858001000000002</v>
+        <v>12.78955400000001</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="45"/>
@@ -5083,7 +5139,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39">
         <v>135</v>
@@ -5100,17 +5156,17 @@
       </c>
       <c r="F39" s="14">
         <f t="shared" si="4"/>
-        <v>8.0205562962963009E-2</v>
+        <v>7.2452251851851932E-2</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="44"/>
-        <v>10.827751000000006</v>
+        <v>9.7810540000000117</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="45"/>
@@ -5161,7 +5217,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40">
         <v>135</v>
@@ -5178,17 +5234,17 @@
       </c>
       <c r="F40" s="14">
         <f t="shared" si="4"/>
-        <v>6.8353918518518506E-2</v>
+        <v>6.0685674074074068E-2</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40" si="49">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>9.2277789999999982</v>
+        <v>8.1925659999999993</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" ref="K40" si="50">D40*C40</f>
@@ -5243,7 +5299,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B41">
         <v>135</v>
@@ -5260,17 +5316,17 @@
       </c>
       <c r="F41" s="14">
         <f t="shared" si="4"/>
-        <v>6.242809629629615E-2</v>
+        <v>5.4802385185185237E-2</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ref="H41" si="61">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>8.4277929999999799</v>
+        <v>7.3983220000000074</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" ref="K41" si="62">D41*C41</f>
@@ -5325,7 +5381,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42">
         <v>135</v>
@@ -5342,17 +5398,17 @@
       </c>
       <c r="F42" s="14">
         <f t="shared" si="4"/>
-        <v>5.3808718518518442E-2</v>
+        <v>4.6244874074074217E-2</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" ref="H42" si="73">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>7.2641769999999894</v>
+        <v>6.2430580000000191</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" ref="K42" si="74">D42*C42</f>
@@ -5407,7 +5463,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B43">
         <v>135</v>
@@ -5424,17 +5480,17 @@
       </c>
       <c r="F43" s="14">
         <f t="shared" si="4"/>
-        <v>6.4044229629629648E-2</v>
+        <v>5.6406918518518555E-2</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" ref="H43" si="86">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>8.645971000000003</v>
+        <v>7.6149340000000052</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" ref="K43" si="87">D43*C43</f>
@@ -5485,7 +5541,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B44">
         <v>135</v>
@@ -5502,17 +5558,17 @@
       </c>
       <c r="F44" s="14">
         <f t="shared" si="4"/>
-        <v>0.10606369629629613</v>
+        <v>9.812478518518522E-2</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" ref="H44" si="99">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>14.318598999999978</v>
+        <v>13.246846000000005</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" ref="K44" si="100">D44*C44</f>
@@ -5563,7 +5619,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B45">
         <v>135</v>
@@ -5580,17 +5636,17 @@
       </c>
       <c r="F45" s="14">
         <f t="shared" si="4"/>
-        <v>8.5323318518518404E-2</v>
+        <v>7.7533274074074107E-2</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" ref="H45:H49" si="112">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>11.518647999999985</v>
+        <v>10.466992000000005</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" ref="K45:K49" si="113">D45*C45</f>
@@ -5641,7 +5697,7 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B46">
         <v>135</v>
@@ -5658,17 +5714,17 @@
       </c>
       <c r="F46" s="14">
         <f t="shared" si="4"/>
-        <v>7.8409859259259237E-2</v>
+        <v>7.0669437037037139E-2</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="112"/>
-        <v>10.585330999999996</v>
+        <v>9.5403740000000141</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="113"/>
@@ -5719,7 +5775,7 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B47">
         <v>135</v>
@@ -5736,17 +5792,17 @@
       </c>
       <c r="F47" s="14">
         <f t="shared" si="4"/>
-        <v>8.7029237037036938E-2</v>
+        <v>7.9226948148148166E-2</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="112"/>
-        <v>11.748946999999987</v>
+        <v>10.695638000000002</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="113"/>
@@ -5797,7 +5853,7 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B48">
         <v>135</v>
@@ -5814,17 +5870,17 @@
       </c>
       <c r="F48" s="14">
         <f t="shared" si="4"/>
-        <v>9.421205185185183E-2</v>
+        <v>8.6358207407407558E-2</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="112"/>
-        <v>12.718626999999998</v>
+        <v>11.658358000000021</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="113"/>
@@ -5875,7 +5931,7 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B49">
         <v>135</v>
@@ -5892,17 +5948,17 @@
       </c>
       <c r="F49" s="14">
         <f t="shared" si="4"/>
-        <v>8.1193200000000035E-2</v>
+        <v>7.3432800000000076E-2</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="112"/>
-        <v>10.961082000000005</v>
+        <v>9.9134280000000103</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="113"/>
@@ -5953,7 +6009,7 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B50">
         <v>135</v>
@@ -5970,17 +6026,17 @@
       </c>
       <c r="F50" s="14">
         <f t="shared" si="4"/>
-        <v>5.2641511111110935E-2</v>
+        <v>4.508604444444439E-2</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ref="H50:H54" si="125">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>7.1066039999999759</v>
+        <v>6.0866159999999923</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" ref="K50:K54" si="126">D50*C50</f>
@@ -6031,7 +6087,7 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51">
         <v>135</v>
@@ -6048,17 +6104,17 @@
       </c>
       <c r="F51" s="14">
         <f t="shared" si="4"/>
-        <v>5.7489911111111028E-2</v>
+        <v>4.9899644444444551E-2</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="125"/>
-        <v>7.7611379999999883</v>
+        <v>6.7364520000000141</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="126"/>
@@ -6109,7 +6165,7 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B52">
         <v>135</v>
@@ -6126,17 +6182,17 @@
       </c>
       <c r="F52" s="14">
         <f t="shared" si="4"/>
-        <v>5.7130770370370267E-2</v>
+        <v>4.9543081481481378E-2</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="125"/>
-        <v>7.7126539999999864</v>
+        <v>6.6883159999999862</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="126"/>
@@ -6187,7 +6243,7 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B53">
         <v>135</v>
@@ -6204,17 +6260,17 @@
       </c>
       <c r="F53" s="14">
         <f t="shared" si="4"/>
-        <v>5.6771629629629512E-2</v>
+        <v>4.9186518518518629E-2</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="125"/>
-        <v>7.6641699999999844</v>
+        <v>6.6401800000000151</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="126"/>
@@ -6265,7 +6321,7 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54">
         <v>135</v>
@@ -6282,17 +6338,17 @@
       </c>
       <c r="F54" s="14">
         <f t="shared" si="4"/>
-        <v>5.7489911111111028E-2</v>
+        <v>4.9899644444444551E-2</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="125"/>
-        <v>7.7611379999999883</v>
+        <v>6.7364520000000141</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="126"/>
@@ -6344,7 +6400,7 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B55">
         <v>135</v>
@@ -6361,17 +6417,17 @@
       </c>
       <c r="F55" s="14">
         <f t="shared" si="4"/>
-        <v>8.1821696296296306E-2</v>
+        <v>7.4056785185185256E-2</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ref="H55:H59" si="138">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>11.045929000000001</v>
+        <v>9.9976660000000095</v>
       </c>
       <c r="I55" t="s">
         <v>13</v>
       </c>
       <c r="J55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" ref="K55:K59" si="139">D55*C55</f>
@@ -6422,7 +6478,7 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B56">
         <v>135</v>
@@ -6439,17 +6495,17 @@
       </c>
       <c r="F56" s="14">
         <f t="shared" si="4"/>
-        <v>9.3583555555555573E-2</v>
+        <v>8.573422222222217E-2</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="138"/>
-        <v>12.633780000000002</v>
+        <v>11.574119999999994</v>
       </c>
       <c r="I56" t="s">
         <v>13</v>
       </c>
       <c r="J56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="139"/>
@@ -6500,7 +6556,7 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B57">
         <v>135</v>
@@ -6517,17 +6573,17 @@
       </c>
       <c r="F57" s="14">
         <f t="shared" si="4"/>
-        <v>8.2001266666666572E-2</v>
+        <v>7.4235066666666738E-2</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="138"/>
-        <v>11.070170999999988</v>
+        <v>10.021734000000009</v>
       </c>
       <c r="I57" t="s">
         <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="139"/>
@@ -6578,7 +6634,7 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B58">
         <v>135</v>
@@ -6595,17 +6651,17 @@
       </c>
       <c r="F58" s="14">
         <f t="shared" si="4"/>
-        <v>8.5862029629629646E-2</v>
+        <v>7.8068118518518553E-2</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="138"/>
-        <v>11.591374000000002</v>
+        <v>10.539196000000004</v>
       </c>
       <c r="I58" t="s">
         <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="139"/>
@@ -6656,7 +6712,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B59">
         <v>135</v>
@@ -6673,17 +6729,17 @@
       </c>
       <c r="F59" s="14">
         <f t="shared" si="4"/>
-        <v>4.7613540740740777E-2</v>
+        <v>4.0094162962962955E-2</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="138"/>
-        <v>6.4278280000000052</v>
+        <v>5.4127119999999991</v>
       </c>
       <c r="I59" t="s">
         <v>13</v>
       </c>
       <c r="J59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="139"/>
@@ -6738,7 +6794,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B60">
         <v>135</v>
@@ -6755,17 +6811,17 @@
       </c>
       <c r="F60" s="14">
         <f t="shared" si="4"/>
-        <v>2.1755407407407449E-2</v>
+        <v>1.4421629629629673E-2</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ref="H60" si="151">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>2.9369800000000055</v>
+        <v>1.9469200000000058</v>
       </c>
       <c r="I60" t="s">
         <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" ref="K60" si="152">D60*C60</f>
@@ -6820,7 +6876,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B61">
         <v>135</v>
@@ -6837,17 +6893,17 @@
       </c>
       <c r="F61" s="14">
         <f t="shared" ref="F61:F63" si="164">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>2.2294118518518476E-2</v>
+        <v>1.4956474074074111E-2</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:H63" si="165">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>3.0097059999999942</v>
+        <v>2.019124000000005</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" ref="K61:K63" si="166">D61*C61</f>
@@ -6898,7 +6954,7 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B62">
         <v>135</v>
@@ -6915,17 +6971,17 @@
       </c>
       <c r="F62" s="14">
         <f t="shared" si="164"/>
-        <v>9.9935481481479745E-3</v>
+        <v>2.7441925925925431E-3</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="165"/>
-        <v>1.3491289999999765</v>
+        <v>0.3704659999999933</v>
       </c>
       <c r="I62" t="s">
         <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="166"/>
@@ -6980,7 +7036,7 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63">
         <v>120</v>
@@ -6997,17 +7053,17 @@
       </c>
       <c r="F63" s="14">
         <f t="shared" si="164"/>
-        <v>3.8653333333336091E-4</v>
+        <v>-6.7938666666665405E-3</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="165"/>
-        <v>4.6384000000003311E-2</v>
+        <v>-0.81526399999998489</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
       </c>
       <c r="J63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="166"/>
@@ -7058,7 +7114,7 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B64">
         <v>120</v>
@@ -7075,17 +7131,17 @@
       </c>
       <c r="F64" s="14">
         <f t="shared" ref="F64:F68" si="178">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>1.1946000000000604E-3</v>
+        <v>-5.9915999999998826E-3</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" ref="H64:H68" si="179">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>0.14335200000000725</v>
+        <v>-0.71899199999998586</v>
       </c>
       <c r="I64" t="s">
         <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" ref="K64:K68" si="180">D64*C64</f>
@@ -7140,7 +7196,7 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B65">
         <v>120</v>
@@ -7157,17 +7213,17 @@
       </c>
       <c r="F65" s="14">
         <f t="shared" si="178"/>
-        <v>-2.9467416666667154E-3</v>
+        <v>-1.0103216666666744E-2</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="179"/>
-        <v>-0.35360900000000584</v>
+        <v>-1.2123860000000093</v>
       </c>
       <c r="I65" t="s">
         <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="180"/>
@@ -7218,7 +7274,7 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B66">
         <v>120</v>
@@ -7235,17 +7291,17 @@
       </c>
       <c r="F66" s="14">
         <f t="shared" si="178"/>
-        <v>-5.3709416666666955E-3</v>
+        <v>-1.2510016666666601E-2</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="179"/>
-        <v>-0.64451300000000344</v>
+        <v>-1.5012019999999922</v>
       </c>
       <c r="I66" t="s">
         <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="180"/>
@@ -7296,7 +7352,7 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B67">
         <v>120</v>
@@ -7313,17 +7369,17 @@
       </c>
       <c r="F67" s="14">
         <f t="shared" si="178"/>
-        <v>1.5335766666666591E-2</v>
+        <v>8.0480666666666416E-3</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" si="179"/>
-        <v>1.8402919999999909</v>
+        <v>0.96576799999999707</v>
       </c>
       <c r="I67" t="s">
         <v>13</v>
       </c>
       <c r="J67" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="180"/>
@@ -7374,7 +7430,7 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B68">
         <v>120</v>
@@ -7391,17 +7447,17 @@
       </c>
       <c r="F68" s="14">
         <f t="shared" si="178"/>
-        <v>1.7557949999999895E-2</v>
+        <v>1.0254299999999954E-2</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" si="179"/>
-        <v>2.1069539999999876</v>
+        <v>1.2305159999999944</v>
       </c>
       <c r="I68" t="s">
         <v>13</v>
       </c>
       <c r="J68" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="180"/>
@@ -7448,6 +7504,400 @@
       <c r="W68" s="1">
         <f t="shared" si="190"/>
         <v>0.32732555308623162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B69">
+        <v>120</v>
+      </c>
+      <c r="C69" s="39">
+        <v>101.05</v>
+      </c>
+      <c r="D69" s="40">
+        <v>1.1862999999999999</v>
+      </c>
+      <c r="E69" s="23">
+        <f t="shared" ref="E69:E73" si="191">10%*M69+13%</f>
+        <v>0.20991707666666665</v>
+      </c>
+      <c r="F69" s="14">
+        <f t="shared" ref="F69:F73" si="192">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
+        <v>1.3363083333333374E-2</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" ref="H69:H73" si="193">IF(G69="",$F$1*C69-B69,G69-B69)</f>
+        <v>1.6035700000000048</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" t="s">
+        <v>293</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" ref="K69:K73" si="194">D69*C69</f>
+        <v>119.87561499999998</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" ref="L69:L73" si="195">B69-K69</f>
+        <v>0.12438500000001795</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" ref="M69:M73" si="196">K69/150</f>
+        <v>0.79917076666666653</v>
+      </c>
+      <c r="N69" s="6">
+        <f t="shared" ref="N69:N73" si="197">N68+C69-P69</f>
+        <v>6280.6399999999994</v>
+      </c>
+      <c r="O69" s="2">
+        <f t="shared" ref="O69:O73" si="198">N69*D69</f>
+        <v>7450.7232319999985</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="6">
+        <f t="shared" ref="R69:R73" si="199">R68+Q69</f>
+        <v>3578.3399999999997</v>
+      </c>
+      <c r="S69" s="6">
+        <f t="shared" ref="S69:S73" si="200">R69+O69</f>
+        <v>11029.063231999999</v>
+      </c>
+      <c r="T69">
+        <f t="shared" ref="T69:T73" si="201">T68+B69</f>
+        <v>9735</v>
+      </c>
+      <c r="U69" s="4">
+        <f t="shared" ref="U69:U73" si="202">S69/T69-1</f>
+        <v>0.13292894011299428</v>
+      </c>
+      <c r="V69" s="4">
+        <f t="shared" ref="V69:V73" si="203">O69/(T69-R69)-1</f>
+        <v>0.21018916620375316</v>
+      </c>
+      <c r="W69" s="1">
+        <f t="shared" ref="W69:W73" si="204">R69/S69</f>
+        <v>0.32444641260353962</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B70">
+        <v>135</v>
+      </c>
+      <c r="C70" s="39">
+        <v>110.81</v>
+      </c>
+      <c r="D70" s="40">
+        <v>1.2171000000000001</v>
+      </c>
+      <c r="E70" s="23">
+        <f t="shared" si="191"/>
+        <v>0.21991123400000001</v>
+      </c>
+      <c r="F70" s="14">
+        <f t="shared" si="192"/>
+        <v>-1.223145185185175E-2</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="193"/>
+        <v>-1.6512459999999862</v>
+      </c>
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" t="s">
+        <v>295</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="194"/>
+        <v>134.866851</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="195"/>
+        <v>0.13314900000000307</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" si="196"/>
+        <v>0.89911233999999995</v>
+      </c>
+      <c r="N70" s="6">
+        <f t="shared" si="197"/>
+        <v>6391.45</v>
+      </c>
+      <c r="O70" s="2">
+        <f t="shared" si="198"/>
+        <v>7779.0337950000003</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="6">
+        <f t="shared" si="199"/>
+        <v>3578.3399999999997</v>
+      </c>
+      <c r="S70" s="6">
+        <f t="shared" si="200"/>
+        <v>11357.373795</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="201"/>
+        <v>9870</v>
+      </c>
+      <c r="U70" s="4">
+        <f t="shared" si="202"/>
+        <v>0.15069643313069903</v>
+      </c>
+      <c r="V70" s="4">
+        <f t="shared" si="203"/>
+        <v>0.2364040324810941</v>
+      </c>
+      <c r="W70" s="1">
+        <f t="shared" si="204"/>
+        <v>0.31506755563291733</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B71">
+        <v>120</v>
+      </c>
+      <c r="C71" s="39">
+        <v>98.46</v>
+      </c>
+      <c r="D71" s="40">
+        <v>1.2175</v>
+      </c>
+      <c r="E71" s="23">
+        <f t="shared" si="191"/>
+        <v>0.20991670000000001</v>
+      </c>
+      <c r="F71" s="14">
+        <f t="shared" si="192"/>
+        <v>-1.2610300000000052E-2</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="193"/>
+        <v>-1.5132360000000062</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" t="s">
+        <v>297</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="194"/>
+        <v>119.87505</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="195"/>
+        <v>0.12494999999999834</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="196"/>
+        <v>0.79916699999999996</v>
+      </c>
+      <c r="N71" s="6">
+        <f t="shared" si="197"/>
+        <v>6489.91</v>
+      </c>
+      <c r="O71" s="2">
+        <f t="shared" si="198"/>
+        <v>7901.4654250000003</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="6">
+        <f t="shared" si="199"/>
+        <v>3578.3399999999997</v>
+      </c>
+      <c r="S71" s="6">
+        <f t="shared" si="200"/>
+        <v>11479.805425</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="201"/>
+        <v>9990</v>
+      </c>
+      <c r="U71" s="4">
+        <f t="shared" si="202"/>
+        <v>0.14912967217217221</v>
+      </c>
+      <c r="V71" s="4">
+        <f t="shared" si="203"/>
+        <v>0.2323587690239346</v>
+      </c>
+      <c r="W71" s="1">
+        <f t="shared" si="204"/>
+        <v>0.31170737373364493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B72">
+        <v>120</v>
+      </c>
+      <c r="C72" s="39">
+        <v>98.8</v>
+      </c>
+      <c r="D72" s="40">
+        <v>1.2133</v>
+      </c>
+      <c r="E72" s="23">
+        <f t="shared" si="191"/>
+        <v>0.2099160266666667</v>
+      </c>
+      <c r="F72" s="14">
+        <f t="shared" si="192"/>
+        <v>-9.2006666666666348E-3</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="193"/>
+        <v>-1.1040799999999962</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" t="s">
+        <v>299</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="194"/>
+        <v>119.87404000000001</v>
+      </c>
+      <c r="L72" s="2">
+        <f t="shared" si="195"/>
+        <v>0.12595999999999208</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" si="196"/>
+        <v>0.79916026666666673</v>
+      </c>
+      <c r="N72" s="6">
+        <f t="shared" si="197"/>
+        <v>6588.71</v>
+      </c>
+      <c r="O72" s="2">
+        <f t="shared" si="198"/>
+        <v>7994.0818429999999</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="6">
+        <f t="shared" si="199"/>
+        <v>3578.3399999999997</v>
+      </c>
+      <c r="S72" s="6">
+        <f t="shared" si="200"/>
+        <v>11572.421843</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="201"/>
+        <v>10110</v>
+      </c>
+      <c r="U72" s="4">
+        <f t="shared" si="202"/>
+        <v>0.14465102304648858</v>
+      </c>
+      <c r="V72" s="4">
+        <f t="shared" si="203"/>
+        <v>0.22389742316654582</v>
+      </c>
+      <c r="W72" s="1">
+        <f t="shared" si="204"/>
+        <v>0.30921271697025882</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B73">
+        <v>120</v>
+      </c>
+      <c r="C73" s="39">
+        <v>97.7</v>
+      </c>
+      <c r="D73" s="40">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="E73" s="23">
+        <f t="shared" si="191"/>
+        <v>0.20991860000000001</v>
+      </c>
+      <c r="F73" s="14">
+        <f t="shared" si="192"/>
+        <v>-2.0231833333333307E-2</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="193"/>
+        <v>-2.427819999999997</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" t="s">
+        <v>301</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="194"/>
+        <v>119.87790000000001</v>
+      </c>
+      <c r="L73" s="2">
+        <f t="shared" si="195"/>
+        <v>0.122099999999989</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" si="196"/>
+        <v>0.79918600000000006</v>
+      </c>
+      <c r="N73" s="6">
+        <f t="shared" si="197"/>
+        <v>6598.5199999999995</v>
+      </c>
+      <c r="O73" s="2">
+        <f t="shared" si="198"/>
+        <v>8096.3840399999999</v>
+      </c>
+      <c r="P73" s="2">
+        <v>87.89</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>107.79</v>
+      </c>
+      <c r="R73" s="6">
+        <f t="shared" si="199"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S73" s="6">
+        <f t="shared" si="200"/>
+        <v>11782.51404</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="201"/>
+        <v>10230</v>
+      </c>
+      <c r="U73" s="4">
+        <f t="shared" si="202"/>
+        <v>0.15176090322580649</v>
+      </c>
+      <c r="V73" s="4">
+        <f t="shared" si="203"/>
+        <v>0.23724707856360205</v>
+      </c>
+      <c r="W73" s="1">
+        <f t="shared" si="204"/>
+        <v>0.31284749481189666</v>
       </c>
     </row>
   </sheetData>
@@ -7513,7 +7963,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F68">
+  <conditionalFormatting sqref="F2:F73">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7576,13 +8026,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X68"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7624,14 +8074,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>0.99660000000000004</v>
+        <v>0.98919999999999997</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H1" s="21" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19991),2)</f>
-        <v>盈利1619.5</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19989),2)</f>
+        <v>盈利1583.71</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -7646,25 +8096,25 @@
         <v>54</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="T1" t="s">
         <v>55</v>
@@ -7673,13 +8123,13 @@
         <v>77</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
@@ -7710,7 +8160,7 @@
         <v>76</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K2" s="2">
         <f>D2*C2</f>
@@ -7757,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
@@ -7788,7 +8238,7 @@
         <v>76</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K7" si="3">D3*C3</f>
@@ -7836,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
@@ -7867,7 +8317,7 @@
         <v>76</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="3"/>
@@ -7915,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" hidden="1">
       <c r="A5" s="25" t="s">
         <v>14</v>
       </c>
@@ -7946,7 +8396,7 @@
         <v>76</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="3"/>
@@ -7994,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="25" t="s">
         <v>15</v>
       </c>
@@ -8025,7 +8475,7 @@
         <v>76</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
@@ -8073,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="25" t="s">
         <v>16</v>
       </c>
@@ -8104,7 +8554,7 @@
         <v>76</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
@@ -8152,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="25" t="s">
         <v>22</v>
       </c>
@@ -8183,7 +8633,7 @@
         <v>76</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:K9" si="12">D8*C8</f>
@@ -8231,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="25" t="s">
         <v>23</v>
       </c>
@@ -8262,7 +8712,7 @@
         <v>76</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="12"/>
@@ -8310,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="25" t="s">
         <v>24</v>
       </c>
@@ -8341,7 +8791,7 @@
         <v>76</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" ref="K10:K13" si="13">D10*C10</f>
@@ -8389,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="34" t="s">
         <v>25</v>
       </c>
@@ -8420,7 +8870,7 @@
         <v>76</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="13"/>
@@ -8468,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="34" t="s">
         <v>26</v>
       </c>
@@ -8499,7 +8949,7 @@
         <v>76</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="13"/>
@@ -8547,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" s="25" t="s">
         <v>27</v>
       </c>
@@ -8578,7 +9028,7 @@
         <v>76</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="13"/>
@@ -8626,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" s="34" t="s">
         <v>32</v>
       </c>
@@ -8657,7 +9107,7 @@
         <v>76</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" ref="K14" si="15">D14*C14</f>
@@ -8705,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" s="34" t="s">
         <v>39</v>
       </c>
@@ -8736,7 +9186,7 @@
         <v>76</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ref="K15:K19" si="16">D15*C15</f>
@@ -8784,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" s="25" t="s">
         <v>40</v>
       </c>
@@ -8815,7 +9265,7 @@
         <v>76</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="16"/>
@@ -8863,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" hidden="1">
       <c r="A17" s="25" t="s">
         <v>41</v>
       </c>
@@ -8894,7 +9344,7 @@
         <v>76</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="16"/>
@@ -8942,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" hidden="1">
       <c r="A18" s="34" t="s">
         <v>42</v>
       </c>
@@ -8973,7 +9423,7 @@
         <v>76</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="16"/>
@@ -9021,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" hidden="1">
       <c r="A19" s="25" t="s">
         <v>43</v>
       </c>
@@ -9052,7 +9502,7 @@
         <v>76</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="16"/>
@@ -9100,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" hidden="1">
       <c r="A20" s="34" t="s">
         <v>44</v>
       </c>
@@ -9132,7 +9582,7 @@
         <v>76</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ref="K20:K23" si="17">D20*C20</f>
@@ -9180,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" hidden="1">
       <c r="A21" s="34" t="s">
         <v>45</v>
       </c>
@@ -9212,7 +9662,7 @@
         <v>76</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="17"/>
@@ -9260,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" hidden="1">
       <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
@@ -9292,7 +9742,7 @@
         <v>76</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="17"/>
@@ -9340,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" hidden="1">
       <c r="A23" s="34" t="s">
         <v>47</v>
       </c>
@@ -9372,7 +9822,7 @@
         <v>76</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="17"/>
@@ -9420,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" hidden="1">
       <c r="A24" s="34" t="s">
         <v>53</v>
       </c>
@@ -9452,7 +9902,7 @@
         <v>76</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" ref="K24" si="19">D24*C24</f>
@@ -9500,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" hidden="1">
       <c r="A25" s="34" t="s">
         <v>62</v>
       </c>
@@ -9532,7 +9982,7 @@
         <v>76</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" ref="K25" si="21">D25*C25</f>
@@ -9580,9 +10030,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" hidden="1">
       <c r="A26" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="26">
         <v>120</v>
@@ -9612,7 +10062,7 @@
         <v>76</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" ref="K26:K29" si="25">D26*C26</f>
@@ -9660,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" hidden="1">
       <c r="A27" s="34" t="s">
         <v>63</v>
       </c>
@@ -9692,7 +10142,7 @@
         <v>76</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="25"/>
@@ -9740,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" hidden="1">
       <c r="A28" s="34" t="s">
         <v>64</v>
       </c>
@@ -9772,7 +10222,7 @@
         <v>76</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="25"/>
@@ -9820,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" hidden="1">
       <c r="A29" s="34" t="s">
         <v>65</v>
       </c>
@@ -9852,7 +10302,7 @@
         <v>76</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="25"/>
@@ -9900,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" hidden="1">
       <c r="A30" s="34" t="s">
         <v>71</v>
       </c>
@@ -9932,7 +10382,7 @@
         <v>76</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" ref="K30" si="29">D30*C30</f>
@@ -9980,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" hidden="1">
       <c r="A31" s="34" t="s">
         <v>72</v>
       </c>
@@ -10012,7 +10462,7 @@
         <v>76</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" ref="K31:K34" si="33">D31*C31</f>
@@ -10060,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" hidden="1">
       <c r="A32" s="34" t="s">
         <v>73</v>
       </c>
@@ -10092,7 +10542,7 @@
         <v>76</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="33"/>
@@ -10140,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" hidden="1">
       <c r="A33" s="34" t="s">
         <v>74</v>
       </c>
@@ -10172,7 +10622,7 @@
         <v>76</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="33"/>
@@ -10220,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" hidden="1">
       <c r="A34" s="10" t="s">
         <v>75</v>
       </c>
@@ -10252,7 +10702,7 @@
         <v>76</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="33"/>
@@ -10303,7 +10753,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35">
         <v>105</v>
@@ -10320,18 +10770,18 @@
       </c>
       <c r="F35" s="30">
         <f t="shared" si="1"/>
-        <v>0.13830702857142871</v>
+        <v>0.129854819047619</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="20">
         <f t="shared" si="2"/>
-        <v>14.522238000000016</v>
+        <v>13.634755999999996</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" ref="K35:K36" si="38">D35*C35</f>
@@ -10382,7 +10832,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36">
         <v>90</v>
@@ -10399,18 +10849,18 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" si="1"/>
-        <v>0.1396674666666668</v>
+        <v>0.13120515555555556</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="20">
         <f t="shared" si="2"/>
-        <v>12.57007200000001</v>
+        <v>11.808464000000001</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="38"/>
@@ -10461,7 +10911,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37">
         <v>90</v>
@@ -10478,18 +10928,18 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" si="1"/>
-        <v>0.14420753333333336</v>
+        <v>0.13571151111111104</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="20">
         <f t="shared" si="2"/>
-        <v>12.978678000000002</v>
+        <v>12.214035999999993</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" ref="K37:K39" si="47">D37*C37</f>
@@ -10540,7 +10990,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>90</v>
@@ -10557,18 +11007,18 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" si="1"/>
-        <v>0.14276800000000014</v>
+        <v>0.13428266666666672</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="20">
         <f t="shared" si="2"/>
-        <v>12.849120000000013</v>
+        <v>12.085440000000006</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="47"/>
@@ -10619,7 +11069,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39">
         <v>90</v>
@@ -10636,18 +11086,18 @@
       </c>
       <c r="F39" s="30">
         <f t="shared" si="1"/>
-        <v>0.13390933333333346</v>
+        <v>0.12548977777777787</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="20">
         <f t="shared" si="2"/>
-        <v>12.051840000000013</v>
+        <v>11.294080000000008</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="47"/>
@@ -10698,7 +11148,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40">
         <v>135</v>
@@ -10715,18 +11165,18 @@
       </c>
       <c r="F40" s="30">
         <f t="shared" si="1"/>
-        <v>0.11501084444444448</v>
+        <v>0.10673161481481468</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="20">
         <f t="shared" ref="H40" si="57">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>15.526464000000004</v>
+        <v>14.408767999999981</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" ref="K40" si="58">D40*C40</f>
@@ -10777,7 +11227,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41">
         <v>135</v>
@@ -10794,18 +11244,18 @@
       </c>
       <c r="F41" s="30">
         <f t="shared" si="1"/>
-        <v>8.7770444444444387E-2</v>
+        <v>7.9693481481481324E-2</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="20">
         <f t="shared" ref="H41" si="69">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>11.849009999999993</v>
+        <v>10.758619999999979</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" ref="K41" si="70">D41*C41</f>
@@ -10860,7 +11310,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42">
         <v>135</v>
@@ -10877,18 +11327,18 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="1"/>
-        <v>7.0200755555555577E-2</v>
+        <v>6.225425185185187E-2</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="20">
         <f t="shared" ref="H42" si="81">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>9.4771020000000021</v>
+        <v>8.4043240000000026</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" ref="K42" si="82">D42*C42</f>
@@ -10943,7 +11393,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43">
         <v>135</v>
@@ -10960,18 +11410,18 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="1"/>
-        <v>5.720804444444462E-2</v>
+        <v>4.9358014814814791E-2</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="20">
         <f t="shared" ref="H43" si="94">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>7.7230860000000234</v>
+        <v>6.6633319999999969</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" ref="K43" si="95">D43*C43</f>
@@ -11026,7 +11476,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B44">
         <v>135</v>
@@ -11043,18 +11493,18 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="1"/>
-        <v>9.4783555555555607E-2</v>
+        <v>8.6654518518518575E-2</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="20">
         <f t="shared" ref="H44" si="107">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>12.795780000000008</v>
+        <v>11.698360000000008</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" ref="K44" si="108">D44*C44</f>
@@ -11105,7 +11555,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B45">
         <v>135</v>
@@ -11122,18 +11572,18 @@
       </c>
       <c r="F45" s="30">
         <f t="shared" si="1"/>
-        <v>5.6026888888889022E-2</v>
+        <v>4.8185629629629738E-2</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="20">
         <f t="shared" ref="H45:H49" si="120">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>7.5636300000000176</v>
+        <v>6.5050600000000145</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" ref="K45:K49" si="121">D45*C45</f>
@@ -11184,7 +11634,7 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B46">
         <v>135</v>
@@ -11201,18 +11651,18 @@
       </c>
       <c r="F46" s="30">
         <f t="shared" si="1"/>
-        <v>3.9195422222222422E-2</v>
+        <v>3.1479140740740756E-2</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="20">
         <f t="shared" si="120"/>
-        <v>5.2913820000000271</v>
+        <v>4.249684000000002</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="121"/>
@@ -11263,7 +11713,7 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47">
         <v>135</v>
@@ -11280,18 +11730,18 @@
       </c>
       <c r="F47" s="30">
         <f t="shared" si="1"/>
-        <v>6.2227955555555436E-2</v>
+        <v>5.4340651851851753E-2</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="20">
         <f t="shared" si="120"/>
-        <v>8.4007739999999842</v>
+        <v>7.3359879999999862</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="121"/>
@@ -11342,7 +11792,7 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48">
         <v>135</v>
@@ -11359,18 +11809,18 @@
       </c>
       <c r="F48" s="30">
         <f t="shared" si="1"/>
-        <v>8.6072533333333465E-2</v>
+        <v>7.8008177777777771E-2</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="20">
         <f t="shared" si="120"/>
-        <v>11.619792000000018</v>
+        <v>10.531103999999999</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="121"/>
@@ -11421,7 +11871,7 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B49">
         <v>135</v>
@@ -11438,18 +11888,18 @@
       </c>
       <c r="F49" s="30">
         <f t="shared" si="1"/>
-        <v>7.4703911111111285E-2</v>
+        <v>6.6723970370370325E-2</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="20">
         <f t="shared" si="120"/>
-        <v>10.085028000000023</v>
+        <v>9.0077359999999942</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="121"/>
@@ -11500,7 +11950,7 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B50">
         <v>135</v>
@@ -11517,18 +11967,18 @@
       </c>
       <c r="F50" s="30">
         <f t="shared" si="1"/>
-        <v>4.8423200000000104E-2</v>
+        <v>4.0638400000000061E-2</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="20">
         <f t="shared" ref="H50:H54" si="133">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>6.5371320000000139</v>
+        <v>5.4861840000000086</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" ref="K50:K54" si="134">D50*C50</f>
@@ -11579,7 +12029,7 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51">
         <v>135</v>
@@ -11596,18 +12046,18 @@
       </c>
       <c r="F51" s="30">
         <f t="shared" si="1"/>
-        <v>4.465826666666662E-2</v>
+        <v>3.6901422222222084E-2</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="20">
         <f t="shared" si="133"/>
-        <v>6.0288659999999936</v>
+        <v>4.9816919999999811</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="134"/>
@@ -11662,7 +12112,7 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B52">
         <v>135</v>
@@ -11679,18 +12129,18 @@
       </c>
       <c r="F52" s="30">
         <f t="shared" si="1"/>
-        <v>4.6060888888888908E-2</v>
+        <v>3.8293629629629532E-2</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="20">
         <f t="shared" si="133"/>
-        <v>6.2182200000000023</v>
+        <v>5.1696399999999869</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="134"/>
@@ -11741,7 +12191,7 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B53">
         <v>135</v>
@@ -11758,18 +12208,18 @@
       </c>
       <c r="F53" s="30">
         <f t="shared" si="1"/>
-        <v>3.2625244444444368E-2</v>
+        <v>2.4957748148148086E-2</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="20">
         <f t="shared" si="133"/>
-        <v>4.4044079999999894</v>
+        <v>3.3692959999999914</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="134"/>
@@ -11824,7 +12274,7 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54">
         <v>135</v>
@@ -11841,18 +12291,18 @@
       </c>
       <c r="F54" s="30">
         <f t="shared" si="1"/>
-        <v>2.7014755555555641E-2</v>
+        <v>1.9388918518518494E-2</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="20">
         <f t="shared" si="133"/>
-        <v>3.6469920000000116</v>
+        <v>2.6175039999999967</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="134"/>
@@ -11904,7 +12354,7 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B55">
         <v>135</v>
@@ -11921,18 +12371,18 @@
       </c>
       <c r="F55" s="30">
         <f t="shared" si="1"/>
-        <v>3.9564533333333429E-2</v>
+        <v>3.1845511111110995E-2</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="20">
         <f t="shared" ref="H55:H59" si="146">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>5.3412120000000129</v>
+        <v>4.2991439999999841</v>
       </c>
       <c r="I55" t="s">
         <v>13</v>
       </c>
       <c r="J55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" ref="K55:K59" si="147">D55*C55</f>
@@ -11983,7 +12433,7 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B56">
         <v>135</v>
@@ -12000,18 +12450,18 @@
       </c>
       <c r="F56" s="30">
         <f t="shared" si="1"/>
-        <v>6.783844444444459E-2</v>
+        <v>5.990948148148155E-2</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="20">
         <f t="shared" si="146"/>
-        <v>9.1581900000000189</v>
+        <v>8.0877800000000093</v>
       </c>
       <c r="I56" t="s">
         <v>13</v>
       </c>
       <c r="J56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="147"/>
@@ -12062,7 +12512,7 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57">
         <v>135</v>
@@ -12079,18 +12529,18 @@
       </c>
       <c r="F57" s="30">
         <f t="shared" si="1"/>
-        <v>5.8315377777777844E-2</v>
+        <v>5.0457125925925925E-2</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="20">
         <f t="shared" si="146"/>
-        <v>7.8725760000000093</v>
+        <v>6.811712</v>
       </c>
       <c r="I57" t="s">
         <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="147"/>
@@ -12141,7 +12591,7 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B58">
         <v>135</v>
@@ -12158,18 +12608,18 @@
       </c>
       <c r="F58" s="30">
         <f t="shared" si="1"/>
-        <v>7.2563066666666565E-2</v>
+        <v>6.4599022222222191E-2</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="20">
         <f t="shared" si="146"/>
-        <v>9.7960139999999853</v>
+        <v>8.7208679999999958</v>
       </c>
       <c r="I58" t="s">
         <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="147"/>
@@ -12220,7 +12670,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B59">
         <v>135</v>
@@ -12237,18 +12687,18 @@
       </c>
       <c r="F59" s="30">
         <f t="shared" si="1"/>
-        <v>3.9933644444444437E-2</v>
+        <v>3.2211881481481443E-2</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="20">
         <f t="shared" si="146"/>
-        <v>5.3910419999999988</v>
+        <v>4.3486039999999946</v>
       </c>
       <c r="I59" t="s">
         <v>13</v>
       </c>
       <c r="J59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="147"/>
@@ -12299,7 +12749,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B60">
         <v>135</v>
@@ -12316,18 +12766,18 @@
       </c>
       <c r="F60" s="30">
         <f t="shared" si="1"/>
-        <v>3.9084000000000453E-3</v>
+        <v>-3.5458666666666311E-3</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="20">
         <f t="shared" ref="H60" si="159">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>0.52763400000000615</v>
+        <v>-0.47869199999999523</v>
       </c>
       <c r="I60" t="s">
         <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" ref="K60" si="160">D60*C60</f>
@@ -12382,7 +12832,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B61">
         <v>135</v>
@@ -12399,18 +12849,18 @@
       </c>
       <c r="F61" s="30">
         <f t="shared" ref="F61:F63" si="172">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>8.8168888888899512E-4</v>
+        <v>-6.5501037037037167E-3</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="20">
         <f t="shared" ref="H61:H63" si="173">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>0.11902800000001434</v>
+        <v>-0.88426400000000172</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" ref="K61:K63" si="174">D61*C61</f>
@@ -12461,7 +12911,7 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B62">
         <v>120</v>
@@ -12478,18 +12928,18 @@
       </c>
       <c r="F62" s="30">
         <f t="shared" si="172"/>
-        <v>-8.9643499999999907E-3</v>
+        <v>-1.6323033333333351E-2</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="20">
         <f t="shared" si="173"/>
-        <v>-1.075721999999999</v>
+        <v>-1.9587640000000022</v>
       </c>
       <c r="I62" t="s">
         <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="174"/>
@@ -12544,7 +12994,7 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B63">
         <v>120</v>
@@ -12561,18 +13011,18 @@
       </c>
       <c r="F63" s="30">
         <f t="shared" si="172"/>
-        <v>-1.4694799999999949E-2</v>
+        <v>-2.2010933333333326E-2</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="20">
         <f t="shared" si="173"/>
-        <v>-1.7633759999999938</v>
+        <v>-2.6413119999999992</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
       </c>
       <c r="J63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="174"/>
@@ -12627,7 +13077,7 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B64">
         <v>120</v>
@@ -12644,18 +13094,18 @@
       </c>
       <c r="F64" s="30">
         <f t="shared" ref="F64:F68" si="186">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-1.0708399999999922E-2</v>
+        <v>-1.8054133333333292E-2</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="20">
         <f t="shared" ref="H64:H68" si="187">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-1.2850079999999906</v>
+        <v>-2.1664959999999951</v>
       </c>
       <c r="I64" t="s">
         <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" ref="K64:K68" si="188">D64*C64</f>
@@ -12706,7 +13156,7 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B65">
         <v>120</v>
@@ -12723,18 +13173,18 @@
       </c>
       <c r="F65" s="30">
         <f t="shared" si="186"/>
-        <v>-1.2369399999999923E-2</v>
+        <v>-1.9702800000000072E-2</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="20">
         <f t="shared" si="187"/>
-        <v>-1.4843279999999908</v>
+        <v>-2.3643360000000087</v>
       </c>
       <c r="I65" t="s">
         <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="188"/>
@@ -12785,7 +13235,7 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B66">
         <v>120</v>
@@ -12802,18 +13252,18 @@
       </c>
       <c r="F66" s="30">
         <f t="shared" si="186"/>
-        <v>-1.1289750000000017E-2</v>
+        <v>-1.8631166666666723E-2</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="20">
         <f t="shared" si="187"/>
-        <v>-1.354770000000002</v>
+        <v>-2.2357400000000069</v>
       </c>
       <c r="I66" t="s">
         <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="188"/>
@@ -12864,7 +13314,7 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B67">
         <v>120</v>
@@ -12881,18 +13331,18 @@
       </c>
       <c r="F67" s="30">
         <f t="shared" si="186"/>
-        <v>8.9744499999999516E-3</v>
+        <v>1.4825666666665664E-3</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="20">
         <f t="shared" si="187"/>
-        <v>1.0769339999999943</v>
+        <v>0.17790799999998796</v>
       </c>
       <c r="I67" t="s">
         <v>13</v>
       </c>
       <c r="J67" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="188"/>
@@ -12943,7 +13393,7 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B68">
         <v>135</v>
@@ -12960,18 +13410,18 @@
       </c>
       <c r="F68" s="30">
         <f t="shared" si="186"/>
-        <v>1.1290622222222274E-2</v>
+        <v>3.7815407407408574E-3</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="20">
         <f t="shared" si="187"/>
-        <v>1.524234000000007</v>
+        <v>0.51050800000001573</v>
       </c>
       <c r="I68" t="s">
         <v>13</v>
       </c>
       <c r="J68" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="188"/>
@@ -13018,6 +13468,401 @@
       <c r="W68" s="1">
         <f t="shared" si="198"/>
         <v>0.60114298489328855</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69">
+        <v>135</v>
+      </c>
+      <c r="C69" s="2">
+        <v>138.38999999999999</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" ref="E69:E73" si="199">10%*M69+13%</f>
+        <v>0.21999963</v>
+      </c>
+      <c r="F69" s="30">
+        <f t="shared" ref="F69:F73" si="200">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
+        <v>1.4039911111110878E-2</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="20">
+        <f t="shared" ref="H69:H73" si="201">IF(G69="",$F$1*C69-B69,G69-B69)</f>
+        <v>1.8953879999999685</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" t="s">
+        <v>303</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" ref="K69:K73" si="202">D69*C69</f>
+        <v>134.99944499999998</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" ref="L69:L73" si="203">K69-B69</f>
+        <v>-5.5500000001984517E-4</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" ref="M69:M73" si="204">K69/150</f>
+        <v>0.89999629999999986</v>
+      </c>
+      <c r="N69" s="6">
+        <f t="shared" ref="N69:N73" si="205">N68+C69-P69</f>
+        <v>4669.7800000000016</v>
+      </c>
+      <c r="O69" s="2">
+        <f t="shared" ref="O69:O73" si="206">N69*D69</f>
+        <v>4555.3703900000019</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="6">
+        <f t="shared" ref="R69:R73" si="207">Q69+R68</f>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S69" s="6">
+        <f t="shared" ref="S69:S73" si="208">O69+R69</f>
+        <v>11285.89039</v>
+      </c>
+      <c r="T69">
+        <f t="shared" ref="T69:T73" si="209">T68+B69</f>
+        <v>9765</v>
+      </c>
+      <c r="U69" s="4">
+        <f t="shared" ref="U69:U73" si="210">S69/T69-1</f>
+        <v>0.15574914388120842</v>
+      </c>
+      <c r="V69" s="4">
+        <f t="shared" ref="V69:V73" si="211">O69/(T69-R69)-1</f>
+        <v>0.50120297052542817</v>
+      </c>
+      <c r="W69" s="1">
+        <f t="shared" ref="W69:W73" si="212">R69/S69</f>
+        <v>0.59636588407447744</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="B70">
+        <v>135</v>
+      </c>
+      <c r="C70" s="2">
+        <v>135.65</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="199"/>
+        <v>0.21999925333333337</v>
+      </c>
+      <c r="F70" s="30">
+        <f t="shared" si="200"/>
+        <v>-6.0371851851852157E-3</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="20">
+        <f t="shared" si="201"/>
+        <v>-0.81502000000000407</v>
+      </c>
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" t="s">
+        <v>305</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="202"/>
+        <v>134.99888000000001</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="203"/>
+        <v>-1.1199999999860211E-3</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" si="204"/>
+        <v>0.8999925333333334</v>
+      </c>
+      <c r="N70" s="6">
+        <f t="shared" si="205"/>
+        <v>4805.4300000000012</v>
+      </c>
+      <c r="O70" s="2">
+        <f t="shared" si="206"/>
+        <v>4782.3639360000006</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="6">
+        <f t="shared" si="207"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S70" s="6">
+        <f t="shared" si="208"/>
+        <v>11512.883936</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="209"/>
+        <v>9900</v>
+      </c>
+      <c r="U70" s="4">
+        <f t="shared" si="210"/>
+        <v>0.16291756929292922</v>
+      </c>
+      <c r="V70" s="4">
+        <f t="shared" si="211"/>
+        <v>0.50887966985120592</v>
+      </c>
+      <c r="W70" s="1">
+        <f t="shared" si="212"/>
+        <v>0.58460764804152365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B71">
+        <v>120</v>
+      </c>
+      <c r="C71" s="2">
+        <v>119.99</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1.0001</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="199"/>
+        <v>0.21000133266666668</v>
+      </c>
+      <c r="F71" s="30">
+        <f t="shared" si="200"/>
+        <v>-1.0882433333333452E-2</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="20">
+        <f t="shared" si="201"/>
+        <v>-1.3058920000000143</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" t="s">
+        <v>307</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="202"/>
+        <v>120.001999</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="203"/>
+        <v>1.9989999999978636E-3</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="204"/>
+        <v>0.80001332666666669</v>
+      </c>
+      <c r="N71" s="6">
+        <f t="shared" si="205"/>
+        <v>4925.420000000001</v>
+      </c>
+      <c r="O71" s="2">
+        <f t="shared" si="206"/>
+        <v>4925.9125420000009</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="6">
+        <f t="shared" si="207"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S71" s="6">
+        <f t="shared" si="208"/>
+        <v>11656.432542</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="209"/>
+        <v>10020</v>
+      </c>
+      <c r="U71" s="4">
+        <f t="shared" si="210"/>
+        <v>0.16331662095808386</v>
+      </c>
+      <c r="V71" s="4">
+        <f t="shared" si="211"/>
+        <v>0.49747453761688787</v>
+      </c>
+      <c r="W71" s="1">
+        <f t="shared" si="212"/>
+        <v>0.57740822294890426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="B72">
+        <v>120</v>
+      </c>
+      <c r="C72" s="2">
+        <v>120.63</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="199"/>
+        <v>0.21000181600000001</v>
+      </c>
+      <c r="F72" s="30">
+        <f t="shared" si="200"/>
+        <v>-5.6067000000001128E-3</v>
+      </c>
+      <c r="G72" s="9"/>
+      <c r="H72" s="20">
+        <f t="shared" si="201"/>
+        <v>-0.6728040000000135</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" t="s">
+        <v>309</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="202"/>
+        <v>120.002724</v>
+      </c>
+      <c r="L72" s="2">
+        <f t="shared" si="203"/>
+        <v>2.7240000000006148E-3</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" si="204"/>
+        <v>0.80001816000000003</v>
+      </c>
+      <c r="N72" s="6">
+        <f t="shared" si="205"/>
+        <v>5046.0500000000011</v>
+      </c>
+      <c r="O72" s="2">
+        <f t="shared" si="206"/>
+        <v>5019.8105400000013</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="6">
+        <f t="shared" si="207"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S72" s="6">
+        <f t="shared" si="208"/>
+        <v>11750.330540000001</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="209"/>
+        <v>10140</v>
+      </c>
+      <c r="U72" s="4">
+        <f t="shared" si="210"/>
+        <v>0.15880971794871801</v>
+      </c>
+      <c r="V72" s="4">
+        <f t="shared" si="211"/>
+        <v>0.47230971878409633</v>
+      </c>
+      <c r="W72" s="1">
+        <f t="shared" si="212"/>
+        <v>0.57279409945858417</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B73">
+        <v>120</v>
+      </c>
+      <c r="C73" s="2">
+        <v>119.93</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1.0005999999999999</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="199"/>
+        <v>0.21000130533333333</v>
+      </c>
+      <c r="F73" s="30">
+        <f t="shared" si="200"/>
+        <v>-1.1377033333333368E-2</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="20">
+        <f t="shared" si="201"/>
+        <v>-1.3652440000000041</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" t="s">
+        <v>311</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="202"/>
+        <v>120.001958</v>
+      </c>
+      <c r="L73" s="2">
+        <f t="shared" si="203"/>
+        <v>1.9580000000019027E-3</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" si="204"/>
+        <v>0.80001305333333339</v>
+      </c>
+      <c r="N73" s="6">
+        <f t="shared" si="205"/>
+        <v>5165.9800000000014</v>
+      </c>
+      <c r="O73" s="2">
+        <f t="shared" si="206"/>
+        <v>5169.0795880000014</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="6">
+        <f t="shared" si="207"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S73" s="6">
+        <f t="shared" si="208"/>
+        <v>11899.599588000001</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="209"/>
+        <v>10260</v>
+      </c>
+      <c r="U73" s="4">
+        <f t="shared" si="210"/>
+        <v>0.15980502807017549</v>
+      </c>
+      <c r="V73" s="4">
+        <f t="shared" si="211"/>
+        <v>0.46454423541144885</v>
+      </c>
+      <c r="W73" s="1">
+        <f t="shared" si="212"/>
+        <v>0.56560894761427993</v>
       </c>
     </row>
   </sheetData>
@@ -13083,7 +13928,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F68">
+  <conditionalFormatting sqref="F2:F73">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474286AA-649E-5E47-A026-6B3D51A31CED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ACB3E5-39DB-7D4E-96BF-A479965301DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="341">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -1572,6 +1572,90 @@
   <si>
     <t>20190214购入,20190419售出</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs300_20190422</t>
+  </si>
+  <si>
+    <t>20190422购入</t>
+  </si>
+  <si>
+    <t>hs300_20190423</t>
+  </si>
+  <si>
+    <t>20190423购入</t>
+  </si>
+  <si>
+    <t>hs300_20190424</t>
+  </si>
+  <si>
+    <t>20190424购入</t>
+  </si>
+  <si>
+    <t>hs300_20190425</t>
+  </si>
+  <si>
+    <t>20190425购入</t>
+  </si>
+  <si>
+    <t>hs300_20190426</t>
+  </si>
+  <si>
+    <t>20190426购入</t>
+  </si>
+  <si>
+    <t>zz500_20190422</t>
+  </si>
+  <si>
+    <t>10290422购入</t>
+  </si>
+  <si>
+    <t>zz500_20190423</t>
+  </si>
+  <si>
+    <t>10290423购入</t>
+  </si>
+  <si>
+    <t>zz500_20190424</t>
+  </si>
+  <si>
+    <t>10290424购入</t>
+  </si>
+  <si>
+    <t>zz500_20190425</t>
+  </si>
+  <si>
+    <t>10290425购入</t>
+  </si>
+  <si>
+    <t>zz500_20190426</t>
+  </si>
+  <si>
+    <t>10290426购入</t>
+  </si>
+  <si>
+    <t>zz500_20190429</t>
+  </si>
+  <si>
+    <t>10290429购入</t>
+  </si>
+  <si>
+    <t>zz500_20190430</t>
+  </si>
+  <si>
+    <t>10290430购入</t>
+  </si>
+  <si>
+    <t>hs300_20190429</t>
+  </si>
+  <si>
+    <t>20190429购入</t>
+  </si>
+  <si>
+    <t>hs300_20190430</t>
+  </si>
+  <si>
+    <t>20190430购入</t>
   </si>
 </sst>
 </file>
@@ -2100,13 +2184,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2150,14 +2234,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>1.2034</v>
+        <v>1.0999000000000001</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>154</v>
       </c>
       <c r="H1" s="19" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19988),2)</f>
-        <v>盈利1396.79</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19984),2)</f>
+        <v>盈利652.49</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -3661,11 +3745,11 @@
       </c>
       <c r="F20" s="14">
         <f t="shared" si="4"/>
-        <v>0.25046631111111106</v>
+        <v>0.14291831111111131</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="5"/>
-        <v>67.625903999999991</v>
+        <v>38.58794400000005</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -3739,11 +3823,11 @@
       </c>
       <c r="F21" s="14">
         <f t="shared" si="4"/>
-        <v>0.24658868888888899</v>
+        <v>0.13937418888888892</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>66.57894600000003</v>
+        <v>37.631031000000007</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -3817,11 +3901,11 @@
       </c>
       <c r="F22" s="14">
         <f t="shared" si="4"/>
-        <v>0.25597206274509804</v>
+        <v>0.14795053333333344</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="5"/>
-        <v>65.272875999999997</v>
+        <v>37.727386000000024</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
@@ -3895,11 +3979,11 @@
       </c>
       <c r="F23" s="14">
         <f t="shared" si="4"/>
-        <v>0.24373618518518533</v>
+        <v>0.13676701851851877</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="5"/>
-        <v>65.808770000000038</v>
+        <v>36.927095000000065</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -3973,11 +4057,11 @@
       </c>
       <c r="F24" s="14">
         <f t="shared" si="4"/>
-        <v>0.22751519215686292</v>
+        <v>0.12194113333333355</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="5"/>
-        <v>58.016374000000042</v>
+        <v>31.094989000000055</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -4051,11 +4135,11 @@
       </c>
       <c r="F25" s="14">
         <f t="shared" si="4"/>
-        <v>0.20703379607843153</v>
+        <v>0.10322126666666681</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="5"/>
-        <v>52.793618000000038</v>
+        <v>26.321423000000038</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -4210,11 +4294,11 @@
       </c>
       <c r="F27" s="14">
         <f t="shared" si="4"/>
-        <v>0.1768105904761906</v>
+        <v>7.5597447619047728E-2</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="5"/>
-        <v>18.565112000000013</v>
+        <v>7.9377320000000111</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -4450,11 +4534,11 @@
       </c>
       <c r="F30" s="14">
         <f t="shared" si="4"/>
-        <v>0.16141471111111119</v>
+        <v>6.1525711111111214E-2</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="5"/>
-        <v>14.527324000000007</v>
+        <v>5.5373140000000092</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -4528,11 +4612,11 @@
       </c>
       <c r="F31" s="14">
         <f t="shared" si="4"/>
-        <v>0.16355408888888878</v>
+        <v>6.3481088888888981E-2</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="5"/>
-        <v>14.719867999999991</v>
+        <v>5.7132980000000089</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -4606,11 +4690,11 @@
       </c>
       <c r="F32" s="14">
         <f t="shared" si="4"/>
-        <v>0.15981017777777773</v>
+        <v>6.0059177777777806E-2</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="5"/>
-        <v>14.382915999999994</v>
+        <v>5.4053260000000023</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -4684,11 +4768,11 @@
       </c>
       <c r="F33" s="14">
         <f t="shared" si="4"/>
-        <v>0.16261811111111119</v>
+        <v>6.2625611111111187E-2</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="5"/>
-        <v>14.635630000000006</v>
+        <v>5.6363050000000072</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
@@ -4762,11 +4846,11 @@
       </c>
       <c r="F34" s="14">
         <f t="shared" si="4"/>
-        <v>0.13855011111111126</v>
+        <v>4.0627611111111309E-2</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="5"/>
-        <v>12.469510000000014</v>
+        <v>3.6564850000000177</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -4840,11 +4924,11 @@
       </c>
       <c r="F35" s="14">
         <f t="shared" si="4"/>
-        <v>7.7800696296296323E-2</v>
+        <v>-1.489697037037032E-2</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="5"/>
-        <v>10.503094000000004</v>
+        <v>-2.0110909999999933</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -4922,11 +5006,11 @@
       </c>
       <c r="F36" s="14">
         <f t="shared" si="4"/>
-        <v>9.010211851851864E-2</v>
+        <v>-3.6535481481480389E-3</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ref="H36" si="33">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>12.163786000000016</v>
+        <v>-0.49322899999998526</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -5000,11 +5084,11 @@
       </c>
       <c r="F37" s="14">
         <f t="shared" si="4"/>
-        <v>9.2063214814814914E-2</v>
+        <v>-1.8611185185184913E-3</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:H39" si="44">IF(G37="",$F$1*C37-B37,G37-B37)</f>
-        <v>12.428534000000013</v>
+        <v>-0.25125099999999634</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -5078,11 +5162,11 @@
       </c>
       <c r="F38" s="14">
         <f t="shared" si="4"/>
-        <v>9.4737437037037103E-2</v>
+        <v>5.8310370370375289E-4</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="44"/>
-        <v>12.78955400000001</v>
+        <v>7.8719000000006645E-2</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -5156,11 +5240,11 @@
       </c>
       <c r="F39" s="14">
         <f t="shared" si="4"/>
-        <v>7.2452251851851932E-2</v>
+        <v>-1.9785414814814811E-2</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="44"/>
-        <v>9.7810540000000117</v>
+        <v>-2.6710309999999993</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -5234,11 +5318,11 @@
       </c>
       <c r="F40" s="14">
         <f t="shared" si="4"/>
-        <v>6.0685674074074068E-2</v>
+        <v>-3.0539992592592515E-2</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40" si="49">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>8.1925659999999993</v>
+        <v>-4.1228989999999897</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -5316,11 +5400,11 @@
       </c>
       <c r="F41" s="14">
         <f t="shared" si="4"/>
-        <v>5.4802385185185237E-2</v>
+        <v>-3.5917281481481371E-2</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ref="H41" si="61">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>7.3983220000000074</v>
+        <v>-4.8488329999999848</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -5398,11 +5482,11 @@
       </c>
       <c r="F42" s="14">
         <f t="shared" si="4"/>
-        <v>4.6244874074074217E-2</v>
+        <v>-4.3738792592592467E-2</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" ref="H42" si="73">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>6.2430580000000191</v>
+        <v>-5.904736999999983</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -5480,11 +5564,11 @@
       </c>
       <c r="F43" s="14">
         <f t="shared" si="4"/>
-        <v>5.6406918518518555E-2</v>
+        <v>-3.4450748148148067E-2</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" ref="H43" si="86">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>7.6149340000000052</v>
+        <v>-4.6508509999999887</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -5558,11 +5642,11 @@
       </c>
       <c r="F44" s="14">
         <f t="shared" si="4"/>
-        <v>9.812478518518522E-2</v>
+        <v>3.679118518518694E-3</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" ref="H44" si="99">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>13.246846000000005</v>
+        <v>0.49668100000002369</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
@@ -5636,11 +5720,11 @@
       </c>
       <c r="F45" s="14">
         <f t="shared" si="4"/>
-        <v>7.7533274074074107E-2</v>
+        <v>-1.5141392592592503E-2</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" ref="H45:H49" si="112">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>10.466992000000005</v>
+        <v>-2.0440879999999879</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
@@ -5714,11 +5798,11 @@
       </c>
       <c r="F46" s="14">
         <f t="shared" si="4"/>
-        <v>7.0669437037037139E-2</v>
+        <v>-2.1414896296296237E-2</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="112"/>
-        <v>9.5403740000000141</v>
+        <v>-2.8910109999999918</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
@@ -5792,11 +5876,11 @@
       </c>
       <c r="F47" s="14">
         <f t="shared" si="4"/>
-        <v>7.9226948148148166E-2</v>
+        <v>-1.3593385185185138E-2</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="112"/>
-        <v>10.695638000000002</v>
+        <v>-1.8351069999999936</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
@@ -5870,11 +5954,11 @@
       </c>
       <c r="F48" s="14">
         <f t="shared" si="4"/>
-        <v>8.6358207407407558E-2</v>
+        <v>-7.0754592592592236E-3</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="112"/>
-        <v>11.658358000000021</v>
+        <v>-0.95518699999999512</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
@@ -5948,11 +6032,11 @@
       </c>
       <c r="F49" s="14">
         <f t="shared" si="4"/>
-        <v>7.3432800000000076E-2</v>
+        <v>-1.8889199999999929E-2</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="112"/>
-        <v>9.9134280000000103</v>
+        <v>-2.5500419999999906</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
@@ -6026,11 +6110,11 @@
       </c>
       <c r="F50" s="14">
         <f t="shared" si="4"/>
-        <v>4.508604444444439E-2</v>
+        <v>-4.479795555555547E-2</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ref="H50:H54" si="125">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>6.0866159999999923</v>
+        <v>-6.0477239999999881</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
@@ -6104,11 +6188,11 @@
       </c>
       <c r="F51" s="14">
         <f t="shared" si="4"/>
-        <v>4.9899644444444551E-2</v>
+        <v>-4.0398355555555557E-2</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="125"/>
-        <v>6.7364520000000141</v>
+        <v>-5.4537779999999998</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
@@ -6182,11 +6266,11 @@
       </c>
       <c r="F52" s="14">
         <f t="shared" si="4"/>
-        <v>4.9543081481481378E-2</v>
+        <v>-4.07242518518518E-2</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="125"/>
-        <v>6.6883159999999862</v>
+        <v>-5.4977739999999926</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
@@ -6260,11 +6344,11 @@
       </c>
       <c r="F53" s="14">
         <f t="shared" si="4"/>
-        <v>4.9186518518518629E-2</v>
+        <v>-4.1050148148148037E-2</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="125"/>
-        <v>6.6401800000000151</v>
+        <v>-5.5417699999999854</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
@@ -6338,11 +6422,11 @@
       </c>
       <c r="F54" s="14">
         <f t="shared" si="4"/>
-        <v>4.9899644444444551E-2</v>
+        <v>-4.0398355555555557E-2</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="125"/>
-        <v>6.7364520000000141</v>
+        <v>-5.4537779999999998</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
@@ -6417,11 +6501,11 @@
       </c>
       <c r="F55" s="14">
         <f t="shared" si="4"/>
-        <v>7.4056785185185256E-2</v>
+        <v>-1.8318881481481506E-2</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ref="H55:H59" si="138">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>9.9976660000000095</v>
+        <v>-2.4730490000000032</v>
       </c>
       <c r="I55" t="s">
         <v>13</v>
@@ -6495,11 +6579,11 @@
       </c>
       <c r="F56" s="14">
         <f t="shared" si="4"/>
-        <v>8.573422222222217E-2</v>
+        <v>-7.6457777777776481E-3</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="138"/>
-        <v>11.574119999999994</v>
+        <v>-1.0321799999999826</v>
       </c>
       <c r="I56" t="s">
         <v>13</v>
@@ -6573,11 +6657,11 @@
       </c>
       <c r="F57" s="14">
         <f t="shared" si="4"/>
-        <v>7.4235066666666738E-2</v>
+        <v>-1.8155933333333173E-2</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="138"/>
-        <v>10.021734000000009</v>
+        <v>-2.4510509999999783</v>
       </c>
       <c r="I57" t="s">
         <v>13</v>
@@ -6651,11 +6735,11 @@
       </c>
       <c r="F58" s="14">
         <f t="shared" si="4"/>
-        <v>7.8068118518518553E-2</v>
+        <v>-1.4652548148148139E-2</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="138"/>
-        <v>10.539196000000004</v>
+        <v>-1.9780939999999987</v>
       </c>
       <c r="I58" t="s">
         <v>13</v>
@@ -6729,11 +6813,11 @@
       </c>
       <c r="F59" s="14">
         <f t="shared" si="4"/>
-        <v>4.0094162962962955E-2</v>
+        <v>-4.9360503703703505E-2</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="138"/>
-        <v>5.4127119999999991</v>
+        <v>-6.6636679999999728</v>
       </c>
       <c r="I59" t="s">
         <v>13</v>
@@ -6811,11 +6895,11 @@
       </c>
       <c r="F60" s="14">
         <f t="shared" si="4"/>
-        <v>1.4421629629629673E-2</v>
+        <v>-7.2825037037037008E-2</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ref="H60" si="151">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>1.9469200000000058</v>
+        <v>-9.8313799999999958</v>
       </c>
       <c r="I60" t="s">
         <v>13</v>
@@ -6893,11 +6977,11 @@
       </c>
       <c r="F61" s="14">
         <f t="shared" ref="F61:F63" si="164">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>1.4956474074074111E-2</v>
+        <v>-7.2336192592592538E-2</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:H63" si="165">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>2.019124000000005</v>
+        <v>-9.7653859999999924</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
@@ -6971,11 +7055,11 @@
       </c>
       <c r="F62" s="14">
         <f t="shared" si="164"/>
-        <v>2.7441925925925431E-3</v>
+        <v>-8.3498140740740648E-2</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="165"/>
-        <v>0.3704659999999933</v>
+        <v>-11.272248999999988</v>
       </c>
       <c r="I62" t="s">
         <v>13</v>
@@ -7053,11 +7137,11 @@
       </c>
       <c r="F63" s="14">
         <f t="shared" si="164"/>
-        <v>-6.7938666666665405E-3</v>
+        <v>-9.2215866666666577E-2</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="165"/>
-        <v>-0.81526399999998489</v>
+        <v>-11.065903999999989</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
@@ -7131,11 +7215,11 @@
       </c>
       <c r="F64" s="14">
         <f t="shared" ref="F64:F68" si="178">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-5.9915999999998826E-3</v>
+        <v>-9.1482599999999914E-2</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" ref="H64:H68" si="179">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-0.71899199999998586</v>
+        <v>-10.977911999999989</v>
       </c>
       <c r="I64" t="s">
         <v>13</v>
@@ -7213,11 +7297,11 @@
       </c>
       <c r="F65" s="14">
         <f t="shared" si="178"/>
-        <v>-1.0103216666666744E-2</v>
+        <v>-9.524059166666668E-2</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="179"/>
-        <v>-1.2123860000000093</v>
+        <v>-11.428871000000001</v>
       </c>
       <c r="I65" t="s">
         <v>13</v>
@@ -7291,11 +7375,11 @@
       </c>
       <c r="F66" s="14">
         <f t="shared" si="178"/>
-        <v>-1.2510016666666601E-2</v>
+        <v>-9.7440391666666556E-2</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="179"/>
-        <v>-1.5012019999999922</v>
+        <v>-11.692846999999986</v>
       </c>
       <c r="I66" t="s">
         <v>13</v>
@@ -7369,11 +7453,11 @@
       </c>
       <c r="F67" s="14">
         <f t="shared" si="178"/>
-        <v>8.0480666666666416E-3</v>
+        <v>-7.8650433333333325E-2</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" si="179"/>
-        <v>0.96576799999999707</v>
+        <v>-9.438051999999999</v>
       </c>
       <c r="I67" t="s">
         <v>13</v>
@@ -7447,11 +7531,11 @@
       </c>
       <c r="F68" s="14">
         <f t="shared" si="178"/>
-        <v>1.0254299999999954E-2</v>
+        <v>-7.6633949999999965E-2</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" si="179"/>
-        <v>1.2305159999999944</v>
+        <v>-9.1960739999999959</v>
       </c>
       <c r="I68" t="s">
         <v>13</v>
@@ -7525,11 +7609,11 @@
       </c>
       <c r="F69" s="14">
         <f t="shared" ref="F69:F73" si="192">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>1.3363083333333374E-2</v>
+        <v>-7.3792541666666628E-2</v>
       </c>
       <c r="H69" s="2">
         <f t="shared" ref="H69:H73" si="193">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>1.6035700000000048</v>
+        <v>-8.8551049999999947</v>
       </c>
       <c r="I69" t="s">
         <v>13</v>
@@ -7603,11 +7687,11 @@
       </c>
       <c r="F70" s="14">
         <f t="shared" si="192"/>
-        <v>-1.223145185185175E-2</v>
+        <v>-9.7185785185185072E-2</v>
       </c>
       <c r="H70" s="2">
         <f t="shared" si="193"/>
-        <v>-1.6512459999999862</v>
+        <v>-13.120080999999985</v>
       </c>
       <c r="I70" t="s">
         <v>13</v>
@@ -7681,11 +7765,11 @@
       </c>
       <c r="F71" s="14">
         <f t="shared" si="192"/>
-        <v>-1.2610300000000052E-2</v>
+        <v>-9.7532049999999995E-2</v>
       </c>
       <c r="H71" s="2">
         <f t="shared" si="193"/>
-        <v>-1.5132360000000062</v>
+        <v>-11.703845999999999</v>
       </c>
       <c r="I71" t="s">
         <v>13</v>
@@ -7759,11 +7843,11 @@
       </c>
       <c r="F72" s="14">
         <f t="shared" si="192"/>
-        <v>-9.2006666666666348E-3</v>
+        <v>-9.4415666666666578E-2</v>
       </c>
       <c r="H72" s="2">
         <f t="shared" si="193"/>
-        <v>-1.1040799999999962</v>
+        <v>-11.329879999999989</v>
       </c>
       <c r="I72" t="s">
         <v>13</v>
@@ -7837,11 +7921,11 @@
       </c>
       <c r="F73" s="14">
         <f t="shared" si="192"/>
-        <v>-2.0231833333333307E-2</v>
+        <v>-0.10449808333333326</v>
       </c>
       <c r="H73" s="2">
         <f t="shared" si="193"/>
-        <v>-2.427819999999997</v>
+        <v>-12.53976999999999</v>
       </c>
       <c r="I73" t="s">
         <v>13</v>
@@ -7898,6 +7982,552 @@
       <c r="W73" s="1">
         <f t="shared" si="204"/>
         <v>0.31284749481189666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B74">
+        <v>120</v>
+      </c>
+      <c r="C74" s="39">
+        <v>99.88</v>
+      </c>
+      <c r="D74" s="40">
+        <v>1.2001999999999999</v>
+      </c>
+      <c r="E74" s="23">
+        <f t="shared" ref="E74:E78" si="205">10%*M74+13%</f>
+        <v>0.20991731733333335</v>
+      </c>
+      <c r="F74" s="14">
+        <f t="shared" ref="F74:F78" si="206">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
+        <v>-8.4516566666666654E-2</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" ref="H74:H78" si="207">IF(G74="",$F$1*C74-B74,G74-B74)</f>
+        <v>-10.141987999999998</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" t="s">
+        <v>314</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" ref="K74:K78" si="208">D74*C74</f>
+        <v>119.87597599999999</v>
+      </c>
+      <c r="L74" s="2">
+        <f t="shared" ref="L74:L78" si="209">B74-K74</f>
+        <v>0.12402400000000569</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" ref="M74:M78" si="210">K74/150</f>
+        <v>0.79917317333333326</v>
+      </c>
+      <c r="N74" s="6">
+        <f t="shared" ref="N74:N78" si="211">N73+C74-P74</f>
+        <v>6698.4</v>
+      </c>
+      <c r="O74" s="2">
+        <f t="shared" ref="O74:O78" si="212">N74*D74</f>
+        <v>8039.4196799999991</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="6">
+        <f t="shared" ref="R74:R78" si="213">R73+Q74</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S74" s="6">
+        <f t="shared" ref="S74:S78" si="214">R74+O74</f>
+        <v>11725.549679999998</v>
+      </c>
+      <c r="T74">
+        <f t="shared" ref="T74:T78" si="215">T73+B74</f>
+        <v>10350</v>
+      </c>
+      <c r="U74" s="4">
+        <f t="shared" ref="U74:U78" si="216">S74/T74-1</f>
+        <v>0.13290335072463755</v>
+      </c>
+      <c r="V74" s="4">
+        <f t="shared" ref="V74:V78" si="217">O74/(T74-R74)-1</f>
+        <v>0.20641904478928885</v>
+      </c>
+      <c r="W74" s="1">
+        <f t="shared" ref="W74:W78" si="218">R74/S74</f>
+        <v>0.31436735168905106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B75">
+        <v>120</v>
+      </c>
+      <c r="C75" s="39">
+        <v>100.03</v>
+      </c>
+      <c r="D75" s="40">
+        <v>1.1984999999999999</v>
+      </c>
+      <c r="E75" s="23">
+        <f t="shared" si="205"/>
+        <v>0.20992397000000002</v>
+      </c>
+      <c r="F75" s="14">
+        <f t="shared" si="206"/>
+        <v>-8.3141691666666517E-2</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="207"/>
+        <v>-9.9770029999999821</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" t="s">
+        <v>316</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="208"/>
+        <v>119.885955</v>
+      </c>
+      <c r="L75" s="2">
+        <f t="shared" si="209"/>
+        <v>0.11404500000000439</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="210"/>
+        <v>0.7992397</v>
+      </c>
+      <c r="N75" s="6">
+        <f t="shared" si="211"/>
+        <v>6798.4299999999994</v>
+      </c>
+      <c r="O75" s="2">
+        <f t="shared" si="212"/>
+        <v>8147.9183549999989</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="6">
+        <f t="shared" si="213"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S75" s="6">
+        <f t="shared" si="214"/>
+        <v>11834.048354999999</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="215"/>
+        <v>10470</v>
+      </c>
+      <c r="U75" s="4">
+        <f t="shared" si="216"/>
+        <v>0.13028160028653279</v>
+      </c>
+      <c r="V75" s="4">
+        <f t="shared" si="217"/>
+        <v>0.20107230165082735</v>
+      </c>
+      <c r="W75" s="1">
+        <f t="shared" si="218"/>
+        <v>0.31148512237087272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B76">
+        <v>120</v>
+      </c>
+      <c r="C76" s="39">
+        <v>99.78</v>
+      </c>
+      <c r="D76" s="40">
+        <v>1.2015</v>
+      </c>
+      <c r="E76" s="23">
+        <f t="shared" si="205"/>
+        <v>0.20992378</v>
+      </c>
+      <c r="F76" s="14">
+        <f t="shared" si="206"/>
+        <v>-8.5433149999999944E-2</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="207"/>
+        <v>-10.251977999999994</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" t="s">
+        <v>318</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="208"/>
+        <v>119.88567</v>
+      </c>
+      <c r="L76" s="2">
+        <f t="shared" si="209"/>
+        <v>0.11432999999999538</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="210"/>
+        <v>0.7992378</v>
+      </c>
+      <c r="N76" s="6">
+        <f t="shared" si="211"/>
+        <v>6898.2099999999991</v>
+      </c>
+      <c r="O76" s="2">
+        <f t="shared" si="212"/>
+        <v>8288.1993149999998</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="6">
+        <f t="shared" si="213"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S76" s="6">
+        <f t="shared" si="214"/>
+        <v>11974.329314999999</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="215"/>
+        <v>10590</v>
+      </c>
+      <c r="U76" s="4">
+        <f t="shared" si="216"/>
+        <v>0.13072042634560899</v>
+      </c>
+      <c r="V76" s="4">
+        <f t="shared" si="217"/>
+        <v>0.20051497421011688</v>
+      </c>
+      <c r="W76" s="1">
+        <f t="shared" si="218"/>
+        <v>0.30783603014679572</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B77">
+        <v>120</v>
+      </c>
+      <c r="C77" s="39">
+        <v>101.89</v>
+      </c>
+      <c r="D77" s="40">
+        <v>1.1766000000000001</v>
+      </c>
+      <c r="E77" s="23">
+        <f t="shared" si="205"/>
+        <v>0.209922516</v>
+      </c>
+      <c r="F77" s="14">
+        <f t="shared" si="206"/>
+        <v>-6.609324166666658E-2</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="207"/>
+        <v>-7.9311889999999892</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" t="s">
+        <v>320</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="208"/>
+        <v>119.88377400000002</v>
+      </c>
+      <c r="L77" s="2">
+        <f t="shared" si="209"/>
+        <v>0.11622599999998329</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" si="210"/>
+        <v>0.7992251600000001</v>
+      </c>
+      <c r="N77" s="6">
+        <f t="shared" si="211"/>
+        <v>7000.0999999999995</v>
+      </c>
+      <c r="O77" s="2">
+        <f t="shared" si="212"/>
+        <v>8236.3176600000006</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="6">
+        <f t="shared" si="213"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S77" s="6">
+        <f t="shared" si="214"/>
+        <v>11922.44766</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="215"/>
+        <v>10710</v>
+      </c>
+      <c r="U77" s="4">
+        <f t="shared" si="216"/>
+        <v>0.11320706442577033</v>
+      </c>
+      <c r="V77" s="4">
+        <f t="shared" si="217"/>
+        <v>0.17261818057566547</v>
+      </c>
+      <c r="W77" s="1">
+        <f t="shared" si="218"/>
+        <v>0.30917560765370555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B78">
+        <v>135</v>
+      </c>
+      <c r="C78" s="39">
+        <v>116.08</v>
+      </c>
+      <c r="D78" s="40">
+        <v>1.1618999999999999</v>
+      </c>
+      <c r="E78" s="23">
+        <f t="shared" si="205"/>
+        <v>0.21991556800000001</v>
+      </c>
+      <c r="F78" s="14">
+        <f t="shared" si="206"/>
+        <v>-5.4248948148148096E-2</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" si="207"/>
+        <v>-7.323607999999993</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" t="s">
+        <v>322</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="208"/>
+        <v>134.87335199999998</v>
+      </c>
+      <c r="L78" s="2">
+        <f t="shared" si="209"/>
+        <v>0.12664800000001719</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" si="210"/>
+        <v>0.8991556799999999</v>
+      </c>
+      <c r="N78" s="6">
+        <f t="shared" si="211"/>
+        <v>7116.1799999999994</v>
+      </c>
+      <c r="O78" s="2">
+        <f t="shared" si="212"/>
+        <v>8268.2895419999986</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="6">
+        <f t="shared" si="213"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S78" s="6">
+        <f t="shared" si="214"/>
+        <v>11954.419541999998</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="215"/>
+        <v>10845</v>
+      </c>
+      <c r="U78" s="4">
+        <f t="shared" si="216"/>
+        <v>0.10229779087136914</v>
+      </c>
+      <c r="V78" s="4">
+        <f t="shared" si="217"/>
+        <v>0.15497132117219592</v>
+      </c>
+      <c r="W78" s="1">
+        <f t="shared" si="218"/>
+        <v>0.30834872300151034</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B79">
+        <v>135</v>
+      </c>
+      <c r="C79" s="39">
+        <v>115.77</v>
+      </c>
+      <c r="D79" s="40">
+        <v>1.165</v>
+      </c>
+      <c r="E79" s="23">
+        <f t="shared" ref="E79:E80" si="219">10%*M79+13%</f>
+        <v>0.21991470000000002</v>
+      </c>
+      <c r="F79" s="14">
+        <f t="shared" ref="F79:F80" si="220">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
+        <v>-5.6774644444444404E-2</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" ref="H79:H80" si="221">IF(G79="",$F$1*C79-B79,G79-B79)</f>
+        <v>-7.6645769999999942</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" t="s">
+        <v>338</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" ref="K79:K80" si="222">D79*C79</f>
+        <v>134.87205</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" ref="L79:L80" si="223">B79-K79</f>
+        <v>0.12794999999999845</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" ref="M79:M80" si="224">K79/150</f>
+        <v>0.89914700000000003</v>
+      </c>
+      <c r="N79" s="6">
+        <f t="shared" ref="N79:N80" si="225">N78+C79-P79</f>
+        <v>7231.95</v>
+      </c>
+      <c r="O79" s="2">
+        <f t="shared" ref="O79:O80" si="226">N79*D79</f>
+        <v>8425.2217500000006</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="6">
+        <f t="shared" ref="R79:R80" si="227">R78+Q79</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S79" s="6">
+        <f t="shared" ref="S79:S80" si="228">R79+O79</f>
+        <v>12111.35175</v>
+      </c>
+      <c r="T79">
+        <f t="shared" ref="T79:T80" si="229">T78+B79</f>
+        <v>10980</v>
+      </c>
+      <c r="U79" s="4">
+        <f t="shared" ref="U79:U80" si="230">S79/T79-1</f>
+        <v>0.10303749999999989</v>
+      </c>
+      <c r="V79" s="4">
+        <f t="shared" ref="V79:V80" si="231">O79/(T79-R79)-1</f>
+        <v>0.15510994163592162</v>
+      </c>
+      <c r="W79" s="1">
+        <f t="shared" ref="W79:W80" si="232">R79/S79</f>
+        <v>0.30435331052126363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B80">
+        <v>135</v>
+      </c>
+      <c r="C80" s="39">
+        <v>115.41</v>
+      </c>
+      <c r="D80" s="40">
+        <v>1.1686000000000001</v>
+      </c>
+      <c r="E80" s="23">
+        <f t="shared" si="219"/>
+        <v>0.21991208400000001</v>
+      </c>
+      <c r="F80" s="14">
+        <f t="shared" si="220"/>
+        <v>-5.9707711111111013E-2</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="221"/>
+        <v>-8.0605409999999864</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" t="s">
+        <v>340</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="222"/>
+        <v>134.86812600000002</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="223"/>
+        <v>0.13187399999998206</v>
+      </c>
+      <c r="M80" s="1">
+        <f t="shared" si="224"/>
+        <v>0.89912084000000014</v>
+      </c>
+      <c r="N80" s="6">
+        <f t="shared" si="225"/>
+        <v>7347.36</v>
+      </c>
+      <c r="O80" s="2">
+        <f t="shared" si="226"/>
+        <v>8586.1248959999994</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="6">
+        <f t="shared" si="227"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S80" s="6">
+        <f t="shared" si="228"/>
+        <v>12272.254895999999</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="229"/>
+        <v>11115</v>
+      </c>
+      <c r="U80" s="4">
+        <f t="shared" si="230"/>
+        <v>0.10411649986504701</v>
+      </c>
+      <c r="V80" s="4">
+        <f t="shared" si="231"/>
+        <v>0.15577805184368532</v>
+      </c>
+      <c r="W80" s="1">
+        <f t="shared" si="232"/>
+        <v>0.30036289428778501</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +8593,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F73">
+  <conditionalFormatting sqref="F2:F80">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8026,13 +8656,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8074,14 +8704,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>0.98919999999999997</v>
+        <v>0.85780000000000001</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>154</v>
       </c>
       <c r="H1" s="21" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19989),2)</f>
-        <v>盈利1583.71</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19985),2)</f>
+        <v>盈利816.5</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -10770,12 +11400,12 @@
       </c>
       <c r="F35" s="30">
         <f t="shared" si="1"/>
-        <v>0.129854819047619</v>
+        <v>-2.0229009523809453E-2</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="20">
         <f t="shared" si="2"/>
-        <v>13.634755999999996</v>
+        <v>-2.1240459999999928</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -10849,12 +11479,12 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" si="1"/>
-        <v>0.13120515555555556</v>
+        <v>-1.9058044444444356E-2</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="20">
         <f t="shared" si="2"/>
-        <v>11.808464000000001</v>
+        <v>-1.7152239999999921</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -10928,12 +11558,12 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" si="1"/>
-        <v>0.13571151111111104</v>
+        <v>-1.5150288888888971E-2</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="20">
         <f t="shared" si="2"/>
-        <v>12.214035999999993</v>
+        <v>-1.3635260000000073</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -11007,12 +11637,12 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" si="1"/>
-        <v>0.13428266666666672</v>
+        <v>-1.6389333333333252E-2</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="20">
         <f t="shared" si="2"/>
-        <v>12.085440000000006</v>
+        <v>-1.4750399999999928</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -11086,12 +11716,12 @@
       </c>
       <c r="F39" s="30">
         <f t="shared" si="1"/>
-        <v>0.12548977777777787</v>
+        <v>-2.4014222222222121E-2</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="20">
         <f t="shared" si="2"/>
-        <v>11.294080000000008</v>
+        <v>-2.1612799999999908</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -11165,12 +11795,12 @@
       </c>
       <c r="F40" s="30">
         <f t="shared" si="1"/>
-        <v>0.10673161481481468</v>
+        <v>-4.0280651851851965E-2</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="20">
         <f t="shared" ref="H40" si="57">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>14.408767999999981</v>
+        <v>-5.4378880000000152</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -11244,12 +11874,12 @@
       </c>
       <c r="F41" s="30">
         <f t="shared" si="1"/>
-        <v>7.9693481481481324E-2</v>
+        <v>-6.3727185185185234E-2</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="20">
         <f t="shared" ref="H41" si="69">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>10.758619999999979</v>
+        <v>-8.6031700000000058</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -11327,12 +11957,12 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="1"/>
-        <v>6.225425185185187E-2</v>
+        <v>-7.8849881481481476E-2</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="20">
         <f t="shared" ref="H42" si="81">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>8.4043240000000026</v>
+        <v>-10.644734</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -11410,12 +12040,12 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="1"/>
-        <v>4.9358014814814791E-2</v>
+        <v>-9.0033051851851814E-2</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="20">
         <f t="shared" ref="H43" si="94">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>6.6633319999999969</v>
+        <v>-12.154461999999995</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -11493,12 +12123,12 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="1"/>
-        <v>8.6654518518518575E-2</v>
+        <v>-5.7690814814814771E-2</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="20">
         <f t="shared" ref="H44" si="107">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>11.698360000000008</v>
+        <v>-7.788259999999994</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
@@ -11572,12 +12202,12 @@
       </c>
       <c r="F45" s="30">
         <f t="shared" si="1"/>
-        <v>4.8185629629629738E-2</v>
+        <v>-9.1049703703703661E-2</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="20">
         <f t="shared" ref="H45:H49" si="120">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>6.5050600000000145</v>
+        <v>-12.291709999999995</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
@@ -11651,12 +12281,12 @@
       </c>
       <c r="F46" s="30">
         <f t="shared" si="1"/>
-        <v>3.1479140740740756E-2</v>
+        <v>-0.10553699259259251</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="20">
         <f t="shared" si="120"/>
-        <v>4.249684000000002</v>
+        <v>-14.247493999999989</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
@@ -11730,12 +12360,12 @@
       </c>
       <c r="F47" s="30">
         <f t="shared" si="1"/>
-        <v>5.4340651851851753E-2</v>
+        <v>-8.5712281481481564E-2</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="20">
         <f t="shared" si="120"/>
-        <v>7.3359879999999862</v>
+        <v>-11.571158000000011</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
@@ -11809,12 +12439,12 @@
       </c>
       <c r="F48" s="30">
         <f t="shared" si="1"/>
-        <v>7.8008177777777771E-2</v>
+        <v>-6.5188622222222159E-2</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="20">
         <f t="shared" si="120"/>
-        <v>10.531103999999999</v>
+        <v>-8.800463999999991</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
@@ -11888,12 +12518,12 @@
       </c>
       <c r="F49" s="30">
         <f t="shared" si="1"/>
-        <v>6.6723970370370325E-2</v>
+        <v>-7.4973896296296194E-2</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="20">
         <f t="shared" si="120"/>
-        <v>9.0077359999999942</v>
+        <v>-10.121475999999987</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
@@ -11967,12 +12597,12 @@
       </c>
       <c r="F50" s="30">
         <f t="shared" si="1"/>
-        <v>4.0638400000000061E-2</v>
+        <v>-9.7594399999999942E-2</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="20">
         <f t="shared" ref="H50:H54" si="133">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>5.4861840000000086</v>
+        <v>-13.175243999999992</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
@@ -12046,12 +12676,12 @@
       </c>
       <c r="F51" s="30">
         <f t="shared" si="1"/>
-        <v>3.6901422222222084E-2</v>
+        <v>-0.10083497777777782</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="20">
         <f t="shared" si="133"/>
-        <v>4.9816919999999811</v>
+        <v>-13.612722000000005</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
@@ -12129,12 +12759,12 @@
       </c>
       <c r="F52" s="30">
         <f t="shared" si="1"/>
-        <v>3.8293629629629532E-2</v>
+        <v>-9.9627703703703746E-2</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="20">
         <f t="shared" si="133"/>
-        <v>5.1696399999999869</v>
+        <v>-13.449740000000006</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
@@ -12208,12 +12838,12 @@
       </c>
       <c r="F53" s="30">
         <f t="shared" si="1"/>
-        <v>2.4957748148148086E-2</v>
+        <v>-0.11119211851851853</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="20">
         <f t="shared" si="133"/>
-        <v>3.3692959999999914</v>
+        <v>-15.010936000000001</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
@@ -12291,12 +12921,12 @@
       </c>
       <c r="F54" s="30">
         <f t="shared" si="1"/>
-        <v>1.9388918518518494E-2</v>
+        <v>-0.11602121481481481</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="20">
         <f t="shared" si="133"/>
-        <v>2.6175039999999967</v>
+        <v>-15.662863999999999</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
@@ -12371,12 +13001,12 @@
       </c>
       <c r="F55" s="30">
         <f t="shared" si="1"/>
-        <v>3.1845511111110995E-2</v>
+        <v>-0.10521928888888891</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="20">
         <f t="shared" ref="H55:H59" si="146">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>4.2991439999999841</v>
+        <v>-14.204604000000003</v>
       </c>
       <c r="I55" t="s">
         <v>13</v>
@@ -12450,12 +13080,12 @@
       </c>
       <c r="F56" s="30">
         <f t="shared" si="1"/>
-        <v>5.990948148148155E-2</v>
+        <v>-8.0883185185185183E-2</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="20">
         <f t="shared" si="146"/>
-        <v>8.0877800000000093</v>
+        <v>-10.919229999999999</v>
       </c>
       <c r="I56" t="s">
         <v>13</v>
@@ -12529,12 +13159,12 @@
       </c>
       <c r="F57" s="30">
         <f t="shared" si="1"/>
-        <v>5.0457125925925925E-2</v>
+        <v>-8.9079940740740604E-2</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="20">
         <f t="shared" si="146"/>
-        <v>6.811712</v>
+        <v>-12.025791999999981</v>
       </c>
       <c r="I57" t="s">
         <v>13</v>
@@ -12608,12 +13238,12 @@
       </c>
       <c r="F58" s="30">
         <f t="shared" si="1"/>
-        <v>6.4599022222222191E-2</v>
+        <v>-7.6816577777777784E-2</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="20">
         <f t="shared" si="146"/>
-        <v>8.7208679999999958</v>
+        <v>-10.370238000000001</v>
       </c>
       <c r="I58" t="s">
         <v>13</v>
@@ -12687,12 +13317,12 @@
       </c>
       <c r="F59" s="30">
         <f t="shared" si="1"/>
-        <v>3.2211881481481443E-2</v>
+        <v>-0.10490158518518511</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="20">
         <f t="shared" si="146"/>
-        <v>4.3486039999999946</v>
+        <v>-14.161713999999989</v>
       </c>
       <c r="I59" t="s">
         <v>13</v>
@@ -12766,12 +13396,12 @@
       </c>
       <c r="F60" s="30">
         <f t="shared" si="1"/>
-        <v>-3.5458666666666311E-3</v>
+        <v>-0.13590946666666659</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="20">
         <f t="shared" ref="H60" si="159">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>-0.47869199999999523</v>
+        <v>-18.347777999999991</v>
       </c>
       <c r="I60" t="s">
         <v>13</v>
@@ -12849,12 +13479,12 @@
       </c>
       <c r="F61" s="30">
         <f t="shared" ref="F61:F63" si="172">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>-6.5501037037037167E-3</v>
+        <v>-0.13851463703703695</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="20">
         <f t="shared" ref="H61:H63" si="173">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>-0.88426400000000172</v>
+        <v>-18.69947599999999</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
@@ -12928,12 +13558,12 @@
       </c>
       <c r="F62" s="30">
         <f t="shared" si="172"/>
-        <v>-1.6323033333333351E-2</v>
+        <v>-0.14698938333333339</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="20">
         <f t="shared" si="173"/>
-        <v>-1.9587640000000022</v>
+        <v>-17.638726000000005</v>
       </c>
       <c r="I62" t="s">
         <v>13</v>
@@ -13011,12 +13641,12 @@
       </c>
       <c r="F63" s="30">
         <f t="shared" si="172"/>
-        <v>-2.2010933333333326E-2</v>
+        <v>-0.15192173333333336</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="20">
         <f t="shared" si="173"/>
-        <v>-2.6413119999999992</v>
+        <v>-18.230608000000004</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
@@ -13094,12 +13724,12 @@
       </c>
       <c r="F64" s="30">
         <f t="shared" ref="F64:F68" si="186">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-1.8054133333333292E-2</v>
+        <v>-0.14849053333333326</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="20">
         <f t="shared" ref="H64:H68" si="187">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-2.1664959999999951</v>
+        <v>-17.818863999999991</v>
       </c>
       <c r="I64" t="s">
         <v>13</v>
@@ -13173,12 +13803,12 @@
       </c>
       <c r="F65" s="30">
         <f t="shared" si="186"/>
-        <v>-1.9702800000000072E-2</v>
+        <v>-0.14992020000000003</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="20">
         <f t="shared" si="187"/>
-        <v>-2.3643360000000087</v>
+        <v>-17.990424000000004</v>
       </c>
       <c r="I65" t="s">
         <v>13</v>
@@ -13252,12 +13882,12 @@
       </c>
       <c r="F66" s="30">
         <f t="shared" si="186"/>
-        <v>-1.8631166666666723E-2</v>
+        <v>-0.1489909166666667</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="20">
         <f t="shared" si="187"/>
-        <v>-2.2357400000000069</v>
+        <v>-17.878910000000005</v>
       </c>
       <c r="I66" t="s">
         <v>13</v>
@@ -13331,12 +13961,12 @@
       </c>
       <c r="F67" s="30">
         <f t="shared" si="186"/>
-        <v>1.4825666666665664E-3</v>
+        <v>-0.13154898333333331</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="20">
         <f t="shared" si="187"/>
-        <v>0.17790799999998796</v>
+        <v>-15.785877999999997</v>
       </c>
       <c r="I67" t="s">
         <v>13</v>
@@ -13410,12 +14040,12 @@
       </c>
       <c r="F68" s="30">
         <f t="shared" si="186"/>
-        <v>3.7815407407408574E-3</v>
+        <v>-0.12955539259259255</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="20">
         <f t="shared" si="187"/>
-        <v>0.51050800000001573</v>
+        <v>-17.489977999999994</v>
       </c>
       <c r="I68" t="s">
         <v>13</v>
@@ -13489,12 +14119,12 @@
       </c>
       <c r="F69" s="30">
         <f t="shared" ref="F69:F73" si="200">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>1.4039911111110878E-2</v>
+        <v>-0.12065968888888898</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="20">
         <f t="shared" ref="H69:H73" si="201">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>1.8953879999999685</v>
+        <v>-16.289058000000011</v>
       </c>
       <c r="I69" t="s">
         <v>13</v>
@@ -13568,12 +14198,12 @@
       </c>
       <c r="F70" s="30">
         <f t="shared" si="200"/>
-        <v>-6.0371851851852157E-3</v>
+        <v>-0.13806985185185178</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="20">
         <f t="shared" si="201"/>
-        <v>-0.81502000000000407</v>
+        <v>-18.63942999999999</v>
       </c>
       <c r="I70" t="s">
         <v>13</v>
@@ -13647,12 +14277,12 @@
       </c>
       <c r="F71" s="30">
         <f t="shared" si="200"/>
-        <v>-1.0882433333333452E-2</v>
+        <v>-0.14227148333333339</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="20">
         <f t="shared" si="201"/>
-        <v>-1.3058920000000143</v>
+        <v>-17.072578000000007</v>
       </c>
       <c r="I71" t="s">
         <v>13</v>
@@ -13726,12 +14356,12 @@
       </c>
       <c r="F72" s="30">
         <f t="shared" si="200"/>
-        <v>-5.6067000000001128E-3</v>
+        <v>-0.13769655000000008</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="20">
         <f t="shared" si="201"/>
-        <v>-0.6728040000000135</v>
+        <v>-16.523586000000009</v>
       </c>
       <c r="I72" t="s">
         <v>13</v>
@@ -13805,12 +14435,12 @@
       </c>
       <c r="F73" s="30">
         <f t="shared" si="200"/>
-        <v>-1.1377033333333368E-2</v>
+        <v>-0.14270038333333326</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="20">
         <f t="shared" si="201"/>
-        <v>-1.3652440000000041</v>
+        <v>-17.124045999999993</v>
       </c>
       <c r="I73" t="s">
         <v>13</v>
@@ -13863,6 +14493,559 @@
       <c r="W73" s="1">
         <f t="shared" si="212"/>
         <v>0.56560894761427993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74">
+        <v>120</v>
+      </c>
+      <c r="C74" s="2">
+        <v>121.67</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" ref="E74:E78" si="213">10%*M74+13%</f>
+        <v>0.21000208066666667</v>
+      </c>
+      <c r="F74" s="30">
+        <f t="shared" ref="F74:F78" si="214">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
+        <v>-0.13026228333333331</v>
+      </c>
+      <c r="G74" s="9"/>
+      <c r="H74" s="20">
+        <f t="shared" ref="H74:H78" si="215">IF(G74="",$F$1*C74-B74,G74-B74)</f>
+        <v>-15.631473999999997</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" t="s">
+        <v>324</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" ref="K74:K78" si="216">D74*C74</f>
+        <v>120.00312099999999</v>
+      </c>
+      <c r="L74" s="2">
+        <f t="shared" ref="L74:L78" si="217">K74-B74</f>
+        <v>3.120999999993046E-3</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" ref="M74:M78" si="218">K74/150</f>
+        <v>0.80002080666666664</v>
+      </c>
+      <c r="N74" s="6">
+        <f t="shared" ref="N74:N78" si="219">N73+C74-P74</f>
+        <v>5287.6500000000015</v>
+      </c>
+      <c r="O74" s="2">
+        <f t="shared" ref="O74:O78" si="220">N74*D74</f>
+        <v>5215.2091950000013</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="6">
+        <f t="shared" ref="R74:R78" si="221">Q74+R73</f>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S74" s="6">
+        <f t="shared" ref="S74:S78" si="222">O74+R74</f>
+        <v>11945.729195</v>
+      </c>
+      <c r="T74">
+        <f t="shared" ref="T74:T78" si="223">T73+B74</f>
+        <v>10380</v>
+      </c>
+      <c r="U74" s="4">
+        <f t="shared" ref="U74:U78" si="224">S74/T74-1</f>
+        <v>0.15084096290944116</v>
+      </c>
+      <c r="V74" s="4">
+        <f t="shared" ref="V74:V78" si="225">O74/(T74-R74)-1</f>
+        <v>0.42902802454048272</v>
+      </c>
+      <c r="W74" s="1">
+        <f t="shared" ref="W74:W78" si="226">R74/S74</f>
+        <v>0.56342479308982862</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="B75">
+        <v>135</v>
+      </c>
+      <c r="C75" s="2">
+        <v>139.02000000000001</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="213"/>
+        <v>0.22000154799999999</v>
+      </c>
+      <c r="F75" s="30">
+        <f t="shared" si="214"/>
+        <v>-0.1166566222222221</v>
+      </c>
+      <c r="G75" s="9"/>
+      <c r="H75" s="20">
+        <f t="shared" si="215"/>
+        <v>-15.748643999999985</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" t="s">
+        <v>326</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="216"/>
+        <v>135.00232199999999</v>
+      </c>
+      <c r="L75" s="2">
+        <f t="shared" si="217"/>
+        <v>2.3219999999923857E-3</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="218"/>
+        <v>0.90001547999999998</v>
+      </c>
+      <c r="N75" s="6">
+        <f t="shared" si="219"/>
+        <v>5426.6700000000019</v>
+      </c>
+      <c r="O75" s="2">
+        <f t="shared" si="220"/>
+        <v>5269.839237000002</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="6">
+        <f t="shared" si="221"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S75" s="6">
+        <f t="shared" si="222"/>
+        <v>12000.359237000001</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="223"/>
+        <v>10515</v>
+      </c>
+      <c r="U75" s="4">
+        <f t="shared" si="224"/>
+        <v>0.14126098307180235</v>
+      </c>
+      <c r="V75" s="4">
+        <f t="shared" si="225"/>
+        <v>0.39248700931171565</v>
+      </c>
+      <c r="W75" s="1">
+        <f t="shared" si="226"/>
+        <v>0.5608598765317111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="B76">
+        <v>135</v>
+      </c>
+      <c r="C76" s="2">
+        <v>137.81</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="213"/>
+        <v>0.21999911733333335</v>
+      </c>
+      <c r="F76" s="30">
+        <f t="shared" si="214"/>
+        <v>-0.12434505185185182</v>
+      </c>
+      <c r="G76" s="9"/>
+      <c r="H76" s="20">
+        <f t="shared" si="215"/>
+        <v>-16.786581999999996</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" t="s">
+        <v>328</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="216"/>
+        <v>134.99867600000002</v>
+      </c>
+      <c r="L76" s="2">
+        <f t="shared" si="217"/>
+        <v>-1.3239999999825613E-3</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="218"/>
+        <v>0.89999117333333345</v>
+      </c>
+      <c r="N76" s="6">
+        <f t="shared" si="219"/>
+        <v>5564.4800000000023</v>
+      </c>
+      <c r="O76" s="2">
+        <f t="shared" si="220"/>
+        <v>5450.964608000002</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="6">
+        <f t="shared" si="221"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S76" s="6">
+        <f t="shared" si="222"/>
+        <v>12181.484608000002</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="223"/>
+        <v>10650</v>
+      </c>
+      <c r="U76" s="4">
+        <f t="shared" si="224"/>
+        <v>0.14380137164319273</v>
+      </c>
+      <c r="V76" s="4">
+        <f t="shared" si="225"/>
+        <v>0.39073668139651208</v>
+      </c>
+      <c r="W76" s="1">
+        <f t="shared" si="226"/>
+        <v>0.55252050276202247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="B77">
+        <v>135</v>
+      </c>
+      <c r="C77" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="213"/>
+        <v>0.21999992000000002</v>
+      </c>
+      <c r="F77" s="30">
+        <f t="shared" si="214"/>
+        <v>-9.0350755555555523E-2</v>
+      </c>
+      <c r="G77" s="9"/>
+      <c r="H77" s="20">
+        <f t="shared" si="215"/>
+        <v>-12.197351999999995</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" t="s">
+        <v>330</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="216"/>
+        <v>134.99987999999999</v>
+      </c>
+      <c r="L77" s="2">
+        <f t="shared" si="217"/>
+        <v>-1.2000000000966793E-4</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" si="218"/>
+        <v>0.89999919999999989</v>
+      </c>
+      <c r="N77" s="6">
+        <f t="shared" si="219"/>
+        <v>5707.6400000000021</v>
+      </c>
+      <c r="O77" s="2">
+        <f t="shared" si="220"/>
+        <v>5382.3045200000015</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="6">
+        <f t="shared" si="221"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S77" s="6">
+        <f t="shared" si="222"/>
+        <v>12112.824520000002</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="223"/>
+        <v>10785</v>
+      </c>
+      <c r="U77" s="4">
+        <f t="shared" si="224"/>
+        <v>0.12311771163653229</v>
+      </c>
+      <c r="V77" s="4">
+        <f t="shared" si="225"/>
+        <v>0.32749563939148807</v>
+      </c>
+      <c r="W77" s="1">
+        <f t="shared" si="226"/>
+        <v>0.55565239873548489</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="B78">
+        <v>135</v>
+      </c>
+      <c r="C78" s="2">
+        <v>144.37</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.93510000000000004</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="213"/>
+        <v>0.220000258</v>
+      </c>
+      <c r="F78" s="30">
+        <f t="shared" si="214"/>
+        <v>-8.2662325925925914E-2</v>
+      </c>
+      <c r="G78" s="9"/>
+      <c r="H78" s="20">
+        <f t="shared" si="215"/>
+        <v>-11.159413999999998</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" t="s">
+        <v>332</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="216"/>
+        <v>135.00038700000002</v>
+      </c>
+      <c r="L78" s="2">
+        <f t="shared" si="217"/>
+        <v>3.8700000001767876E-4</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" si="218"/>
+        <v>0.90000258000000011</v>
+      </c>
+      <c r="N78" s="6">
+        <f t="shared" si="219"/>
+        <v>5852.010000000002</v>
+      </c>
+      <c r="O78" s="2">
+        <f t="shared" si="220"/>
+        <v>5472.2145510000018</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="6">
+        <f t="shared" si="221"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S78" s="6">
+        <f t="shared" si="222"/>
+        <v>12202.734551000001</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="223"/>
+        <v>10920</v>
+      </c>
+      <c r="U78" s="4">
+        <f t="shared" si="224"/>
+        <v>0.11746653397435902</v>
+      </c>
+      <c r="V78" s="4">
+        <f t="shared" si="225"/>
+        <v>0.30617989607302132</v>
+      </c>
+      <c r="W78" s="1">
+        <f t="shared" si="226"/>
+        <v>0.55155833898299789</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="B79">
+        <v>135</v>
+      </c>
+      <c r="C79" s="2">
+        <v>148.08000000000001</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" ref="E79:E80" si="227">10%*M79+13%</f>
+        <v>0.22000302399999999</v>
+      </c>
+      <c r="F79" s="30">
+        <f t="shared" ref="F79:F80" si="228">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
+        <v>-5.908871111111106E-2</v>
+      </c>
+      <c r="G79" s="9"/>
+      <c r="H79" s="20">
+        <f t="shared" ref="H79:H80" si="229">IF(G79="",$F$1*C79-B79,G79-B79)</f>
+        <v>-7.9769759999999934</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" t="s">
+        <v>334</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" ref="K79:K80" si="230">D79*C79</f>
+        <v>135.004536</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" ref="L79:L80" si="231">K79-B79</f>
+        <v>4.5360000000016498E-3</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" ref="M79:M80" si="232">K79/150</f>
+        <v>0.90003023999999998</v>
+      </c>
+      <c r="N79" s="6">
+        <f t="shared" ref="N79:N80" si="233">N78+C79-P79</f>
+        <v>6000.090000000002</v>
+      </c>
+      <c r="O79" s="2">
+        <f t="shared" ref="O79:O80" si="234">N79*D79</f>
+        <v>5470.2820530000017</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="6">
+        <f t="shared" ref="R79:R80" si="235">Q79+R78</f>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S79" s="6">
+        <f t="shared" ref="S79:S80" si="236">O79+R79</f>
+        <v>12200.802053000001</v>
+      </c>
+      <c r="T79">
+        <f t="shared" ref="T79:T80" si="237">T78+B79</f>
+        <v>11055</v>
+      </c>
+      <c r="U79" s="4">
+        <f t="shared" ref="U79:U80" si="238">S79/T79-1</f>
+        <v>0.1036455950248758</v>
+      </c>
+      <c r="V79" s="4">
+        <f t="shared" ref="V79:V80" si="239">O79/(T79-R79)-1</f>
+        <v>0.2649571862975435</v>
+      </c>
+      <c r="W79" s="1">
+        <f t="shared" ref="W79:W80" si="240">R79/S79</f>
+        <v>0.5516457008943163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B80">
+        <v>135</v>
+      </c>
+      <c r="C80" s="2">
+        <v>147.01</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="227"/>
+        <v>0.219999522</v>
+      </c>
+      <c r="F80" s="30">
+        <f t="shared" si="228"/>
+        <v>-6.5887570370370407E-2</v>
+      </c>
+      <c r="G80" s="9"/>
+      <c r="H80" s="20">
+        <f t="shared" si="229"/>
+        <v>-8.8948220000000049</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" t="s">
+        <v>336</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="230"/>
+        <v>134.99928299999999</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="231"/>
+        <v>-7.1700000000873843E-4</v>
+      </c>
+      <c r="M80" s="1">
+        <f t="shared" si="232"/>
+        <v>0.89999521999999998</v>
+      </c>
+      <c r="N80" s="6">
+        <f t="shared" si="233"/>
+        <v>6147.1000000000022</v>
+      </c>
+      <c r="O80" s="2">
+        <f t="shared" si="234"/>
+        <v>5644.8819300000023</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="6">
+        <f t="shared" si="235"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S80" s="6">
+        <f t="shared" si="236"/>
+        <v>12375.401930000002</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="237"/>
+        <v>11190</v>
+      </c>
+      <c r="U80" s="4">
+        <f t="shared" si="238"/>
+        <v>0.10593404200178758</v>
+      </c>
+      <c r="V80" s="4">
+        <f t="shared" si="239"/>
+        <v>0.26581617811942237</v>
+      </c>
+      <c r="W80" s="1">
+        <f t="shared" si="240"/>
+        <v>0.54386273981809963</v>
       </c>
     </row>
   </sheetData>
@@ -13928,7 +15111,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F73">
+  <conditionalFormatting sqref="F2:F80">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ACB3E5-39DB-7D4E-96BF-A479965301DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF93A69B-2904-CA42-B22C-2758AA1FC97F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
     <sheet name="zz500" sheetId="2" r:id="rId2"/>
-    <sheet name="ZZ500多0.42份" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hs300'!$A$1:$W$1</definedName>
@@ -478,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="317">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -532,26 +531,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zz500_20190102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz500_20190103</t>
-  </si>
-  <si>
-    <t>zz500_20190104</t>
-  </si>
-  <si>
-    <t>hs300_20190102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs300_20190103</t>
-  </si>
-  <si>
-    <t>hs300_20190104</t>
-  </si>
-  <si>
     <t>持有</t>
     <rPh sb="0" eb="1">
       <t>ci'you</t>
@@ -559,130 +538,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zz500_20190107</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz500_20190108</t>
-  </si>
-  <si>
-    <t>zz500_20190109</t>
-  </si>
-  <si>
-    <t>hs300_20190107</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs300_20190108</t>
-  </si>
-  <si>
-    <t>hs300_20190109</t>
-  </si>
-  <si>
-    <t>hs300_20190110</t>
-  </si>
-  <si>
-    <t>hs300_20190111</t>
-  </si>
-  <si>
-    <t>zz500_20190110</t>
-  </si>
-  <si>
-    <t>zz500_20190111</t>
-  </si>
-  <si>
-    <t>zz500_20190114</t>
-  </si>
-  <si>
-    <t>zz500_20190115</t>
-  </si>
-  <si>
-    <t>zz500_20190116</t>
-  </si>
-  <si>
-    <t>zz500_20190117</t>
-  </si>
-  <si>
-    <t>hs300_20190114</t>
-  </si>
-  <si>
-    <t>hs300_20190115</t>
-  </si>
-  <si>
-    <t>hs300_20190116</t>
-  </si>
-  <si>
-    <t>hs300_20190117</t>
-  </si>
-  <si>
-    <t>zz500_20190118</t>
-  </si>
-  <si>
-    <t>hs300_20190118</t>
-  </si>
-  <si>
-    <t>hs300_20190121</t>
-  </si>
-  <si>
-    <t>hs300_20190122</t>
-  </si>
-  <si>
-    <t>hs300_20190123</t>
-  </si>
-  <si>
-    <t>hs300_20190124</t>
-  </si>
-  <si>
-    <t>hs300_20190125</t>
-  </si>
-  <si>
-    <t>zz500_20190121</t>
-  </si>
-  <si>
-    <t>zz500_20190122</t>
-  </si>
-  <si>
-    <t>zz500_20190123</t>
-  </si>
-  <si>
-    <t>zz500_20190124</t>
-  </si>
-  <si>
-    <t>zz500_20190125</t>
-  </si>
-  <si>
-    <t>zz500_20190128</t>
-  </si>
-  <si>
-    <t>zz500_20190129</t>
-  </si>
-  <si>
-    <t>zz500_20190130</t>
-  </si>
-  <si>
-    <t>zz500_20190131</t>
-  </si>
-  <si>
-    <t>hs300_20190128</t>
-  </si>
-  <si>
-    <t>hs300_20190129</t>
-  </si>
-  <si>
-    <t>hs300_20190130</t>
-  </si>
-  <si>
-    <t>hs300_20190131</t>
-  </si>
-  <si>
-    <t>hs300_20190201</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz500_20190201</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>校对</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -693,67 +548,6 @@
   <si>
     <t>计算</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs300_20190211</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs300_20190212</t>
-  </si>
-  <si>
-    <t>hs300_20190213</t>
-  </si>
-  <si>
-    <t>hs300_20190214</t>
-  </si>
-  <si>
-    <t>hs300_20190215</t>
-  </si>
-  <si>
-    <t>zz500_20190211</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz500_20190213</t>
-  </si>
-  <si>
-    <t>zz500_20190214</t>
-  </si>
-  <si>
-    <t>zz500_20190215</t>
-  </si>
-  <si>
-    <t>hs300_20190218</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs300_20190219</t>
-  </si>
-  <si>
-    <t>hs300_20190220</t>
-  </si>
-  <si>
-    <t>hs300_20190221</t>
-  </si>
-  <si>
-    <t>hs300_20190222</t>
-  </si>
-  <si>
-    <t>zz500_20190218</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz500_20190219</t>
-  </si>
-  <si>
-    <t>zz500_20190220</t>
-  </si>
-  <si>
-    <t>zz500_20190221</t>
-  </si>
-  <si>
-    <t>zz500_20190222</t>
   </si>
   <si>
     <t>售出</t>
@@ -830,68 +624,18 @@
     <t>20190226购入</t>
   </si>
   <si>
-    <t>hs300_20190225</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs300_20190226</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz500_20190225</t>
-  </si>
-  <si>
-    <t>10290225购入</t>
-  </si>
-  <si>
-    <t>zz500_20190226</t>
-  </si>
-  <si>
-    <t>10290226购入</t>
-  </si>
-  <si>
     <t>累计
 投入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hs300_20190227</t>
-  </si>
-  <si>
     <t>20190227购入</t>
   </si>
   <si>
-    <t>hs300_20190228</t>
-  </si>
-  <si>
     <t>20190228购入</t>
   </si>
   <si>
-    <t>hs300_20190301</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20190301购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz500_20190227</t>
-  </si>
-  <si>
-    <t>10290227购入</t>
-  </si>
-  <si>
-    <t>zz500_20190228</t>
-  </si>
-  <si>
-    <t>10290228购入</t>
-  </si>
-  <si>
-    <t>zz500_20190301</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290301购入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -932,30 +676,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hs300_20190304</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz500_20190304</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290304购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290102购入,20190305售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290103购入,20190305售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290104购入,20190305售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20190108购入,20190305售出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -964,15 +684,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zz500_20190305</t>
-  </si>
-  <si>
-    <t>10290305购入</t>
-  </si>
-  <si>
-    <t>hs300_20190305</t>
-  </si>
-  <si>
     <t>总计盈亏</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -981,46 +692,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10290107购入,20190306售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290108购入,20190306售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290109购入,20190306售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290111购入,20190306售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290110购入,20190306售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290114购入,20190306售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290117购入,20190306售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290123购入,20190306售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290122购入,20190306售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290125购入,20190306售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20190110购入,20190306售出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1031,15 +702,6 @@
   <si>
     <t>20190107购入,20190306售出</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz500_20190306</t>
-  </si>
-  <si>
-    <t>10290306购入</t>
-  </si>
-  <si>
-    <t>hs300_20190306</t>
   </si>
   <si>
     <t>20190304购入</t>
@@ -1062,268 +724,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10290115购入,20190307售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290116购入,20190307售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290118购入,20190307售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290121购入,20190307售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290124购入,20190307售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290212购入,20190307售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz500_20190307</t>
-  </si>
-  <si>
-    <t>10290307购入</t>
-  </si>
-  <si>
-    <t>hs300_20190307</t>
-  </si>
-  <si>
     <t>20190307购入</t>
   </si>
   <si>
-    <t>zz500_20190308</t>
-  </si>
-  <si>
-    <t>10290308购入</t>
-  </si>
-  <si>
-    <t>hs300_20190308</t>
-  </si>
-  <si>
     <t>20190308购入</t>
   </si>
   <si>
-    <t>zz500_20190311</t>
-  </si>
-  <si>
-    <t>10290311购入</t>
-  </si>
-  <si>
-    <t>zz500_20190312</t>
-  </si>
-  <si>
-    <t>10290312购入</t>
-  </si>
-  <si>
-    <t>zz500_20190313</t>
-  </si>
-  <si>
-    <t>10290313购入</t>
-  </si>
-  <si>
-    <t>zz500_20190314</t>
-  </si>
-  <si>
-    <t>10290314购入</t>
-  </si>
-  <si>
-    <t>zz500_20190315</t>
-  </si>
-  <si>
-    <t>10290315购入</t>
-  </si>
-  <si>
-    <t>hs300_20190311</t>
-  </si>
-  <si>
     <t>20190311购入</t>
   </si>
   <si>
-    <t>hs300_20190312</t>
-  </si>
-  <si>
     <t>20190312购入</t>
   </si>
   <si>
-    <t>hs300_20190313</t>
-  </si>
-  <si>
     <t>20190313购入</t>
   </si>
   <si>
-    <t>hs300_20190314</t>
-  </si>
-  <si>
     <t>20190314购入</t>
   </si>
   <si>
-    <t>hs300_20190315</t>
-  </si>
-  <si>
     <t>20190315购入</t>
   </si>
   <si>
-    <t>10290213购入,20190319售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290215购入,20190319售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290131购入,20190321售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290214购入,20190321售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs300_20190318</t>
-  </si>
-  <si>
     <t>20190318购入</t>
   </si>
   <si>
-    <t>hs300_20190319</t>
-  </si>
-  <si>
     <t>20190319购入</t>
   </si>
   <si>
-    <t>hs300_20190320</t>
-  </si>
-  <si>
     <t>20190320购入</t>
   </si>
   <si>
-    <t>hs300_20190321</t>
-  </si>
-  <si>
     <t>20190321购入</t>
   </si>
   <si>
-    <t>hs300_20190322</t>
-  </si>
-  <si>
     <t>20190322购入</t>
-  </si>
-  <si>
-    <t>zz500_20190318</t>
-  </si>
-  <si>
-    <t>10290318购入</t>
-  </si>
-  <si>
-    <t>zz500_20190319</t>
-  </si>
-  <si>
-    <t>10290319购入</t>
-  </si>
-  <si>
-    <t>zz500_20190320</t>
-  </si>
-  <si>
-    <t>10290320购入</t>
-  </si>
-  <si>
-    <t>zz500_20190321</t>
-  </si>
-  <si>
-    <t>10290321购入</t>
-  </si>
-  <si>
-    <t>zz500_20190322</t>
-  </si>
-  <si>
-    <t>10290322购入</t>
-  </si>
-  <si>
-    <t>zz500_20190212</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20190111购入,20190329售出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hs300_20190325</t>
-  </si>
-  <si>
     <t>20190325购入</t>
   </si>
   <si>
-    <t>hs300_20190326</t>
-  </si>
-  <si>
     <t>20190326购入</t>
   </si>
   <si>
-    <t>hs300_20190327</t>
-  </si>
-  <si>
     <t>20190327购入</t>
   </si>
   <si>
-    <t>hs300_20190328</t>
-  </si>
-  <si>
     <t>20190328购入</t>
   </si>
   <si>
-    <t>hs300_20190329</t>
-  </si>
-  <si>
     <t>20190329购入</t>
-  </si>
-  <si>
-    <t>zz500_20190325</t>
-  </si>
-  <si>
-    <t>10290325购入</t>
-  </si>
-  <si>
-    <t>zz500_20190326</t>
-  </si>
-  <si>
-    <t>10290326购入</t>
-  </si>
-  <si>
-    <t>zz500_20190327</t>
-  </si>
-  <si>
-    <t>10290327购入</t>
-  </si>
-  <si>
-    <t>zz500_20190328</t>
-  </si>
-  <si>
-    <t>10290328购入</t>
-  </si>
-  <si>
-    <t>zz500_20190329</t>
-  </si>
-  <si>
-    <t>10290329购入</t>
-  </si>
-  <si>
-    <t>zz500_20190401</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290401购入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs300_20190401</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20190401购入</t>
@@ -1366,51 +819,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10290128购入,20190401售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290129购入,20190401售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290130购入,20190401售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290201购入,20190401售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290218购入,20190401售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290219购入,20190401售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290221购入,20190401售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290220购入,20190401售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hs300_20190402</t>
-  </si>
-  <si>
     <t>20190402购入</t>
   </si>
   <si>
-    <t>hs300_20190403</t>
-  </si>
-  <si>
     <t>20190403购入</t>
-  </si>
-  <si>
-    <t>hs300_20190404</t>
   </si>
   <si>
     <t>20190404购入</t>
@@ -1420,242 +832,707 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zz500_20190402</t>
-  </si>
-  <si>
-    <t>10290402购入</t>
-  </si>
-  <si>
-    <t>zz500_20190403</t>
-  </si>
-  <si>
-    <t>10290403购入</t>
-  </si>
-  <si>
-    <t>zz500_20190404</t>
-  </si>
-  <si>
-    <t>10290404购入</t>
-  </si>
-  <si>
-    <t>10290222购入,20190403售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10290211购入,20190404售出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20190212购入,20190408售出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hs300_20190408</t>
-  </si>
-  <si>
     <t>20190408购入</t>
   </si>
   <si>
-    <t>hs300_20190409</t>
-  </si>
-  <si>
     <t>20190409购入</t>
   </si>
   <si>
-    <t>hs300_20190410</t>
-  </si>
-  <si>
     <t>20190410购入</t>
   </si>
   <si>
-    <t>hs300_20190411</t>
-  </si>
-  <si>
     <t>20190411购入</t>
   </si>
   <si>
-    <t>hs300_20190412</t>
-  </si>
-  <si>
     <t>20190412购入</t>
   </si>
   <si>
-    <t>zz500_20190408</t>
-  </si>
-  <si>
-    <t>10290408购入</t>
-  </si>
-  <si>
-    <t>zz500_20190409</t>
-  </si>
-  <si>
-    <t>10290409购入</t>
-  </si>
-  <si>
-    <t>zz500_20190410</t>
-  </si>
-  <si>
-    <t>10290410购入</t>
-  </si>
-  <si>
-    <t>zz500_20190411</t>
-  </si>
-  <si>
-    <t>10290411购入</t>
-  </si>
-  <si>
-    <t>zz500_20190412</t>
-  </si>
-  <si>
-    <t>10290412购入</t>
-  </si>
-  <si>
-    <t>hs300_20190415</t>
-  </si>
-  <si>
     <t>20190415购入</t>
   </si>
   <si>
-    <t>hs300_20190416</t>
-  </si>
-  <si>
     <t>20190416购入</t>
   </si>
   <si>
-    <t>hs300_20190417</t>
-  </si>
-  <si>
     <t>20190417购入</t>
   </si>
   <si>
-    <t>hs300_20190418</t>
-  </si>
-  <si>
     <t>20190418购入</t>
   </si>
   <si>
-    <t>hs300_20190419</t>
-  </si>
-  <si>
     <t>20190419购入</t>
-  </si>
-  <si>
-    <t>zz500_20190415</t>
-  </si>
-  <si>
-    <t>10290415购入</t>
-  </si>
-  <si>
-    <t>zz500_20190416</t>
-  </si>
-  <si>
-    <t>10290416购入</t>
-  </si>
-  <si>
-    <t>zz500_20190417</t>
-  </si>
-  <si>
-    <t>10290417购入</t>
-  </si>
-  <si>
-    <t>zz500_20190418</t>
-  </si>
-  <si>
-    <t>10290418购入</t>
-  </si>
-  <si>
-    <t>zz500_20190419</t>
-  </si>
-  <si>
-    <t>10290419购入</t>
   </si>
   <si>
     <t>20190214购入,20190419售出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hs300_20190422</t>
-  </si>
-  <si>
     <t>20190422购入</t>
   </si>
   <si>
-    <t>hs300_20190423</t>
-  </si>
-  <si>
     <t>20190423购入</t>
   </si>
   <si>
-    <t>hs300_20190424</t>
-  </si>
-  <si>
     <t>20190424购入</t>
   </si>
   <si>
-    <t>hs300_20190425</t>
-  </si>
-  <si>
     <t>20190425购入</t>
   </si>
   <si>
-    <t>hs300_20190426</t>
-  </si>
-  <si>
     <t>20190426购入</t>
   </si>
   <si>
-    <t>zz500_20190422</t>
-  </si>
-  <si>
-    <t>10290422购入</t>
-  </si>
-  <si>
-    <t>zz500_20190423</t>
-  </si>
-  <si>
-    <t>10290423购入</t>
-  </si>
-  <si>
-    <t>zz500_20190424</t>
-  </si>
-  <si>
-    <t>10290424购入</t>
-  </si>
-  <si>
-    <t>zz500_20190425</t>
-  </si>
-  <si>
-    <t>10290425购入</t>
-  </si>
-  <si>
-    <t>zz500_20190426</t>
-  </si>
-  <si>
-    <t>10290426购入</t>
-  </si>
-  <si>
-    <t>zz500_20190429</t>
-  </si>
-  <si>
-    <t>10290429购入</t>
-  </si>
-  <si>
-    <t>zz500_20190430</t>
-  </si>
-  <si>
-    <t>10290430购入</t>
-  </si>
-  <si>
-    <t>hs300_20190429</t>
-  </si>
-  <si>
     <t>20190429购入</t>
   </si>
   <si>
-    <t>hs300_20190430</t>
-  </si>
-  <si>
     <t>20190430购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190102</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190103</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190104</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190107</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190108</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190109</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190110</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190111</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190114</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190115</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190116</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190117</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190118</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190121</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190122</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190123</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190124</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190125</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190128</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190129</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190130</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190131</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190201</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190211</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190212</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190213</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190214</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190215</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190218</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190219</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190220</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190221</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190222</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190225</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190226</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190227</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190228</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190301</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190304</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190305</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190306</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190307</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190308</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190311</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190312</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190313</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190314</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190315</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190318</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190319</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190320</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190321</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190322</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190325</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190326</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190327</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190328</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190329</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190401</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190402</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190403</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190404</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190408</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190409</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190410</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190411</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190412</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190415</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190416</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190417</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190418</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190419</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190422</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190423</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190424</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190425</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190426</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190429</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190430</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190102</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190103</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190104</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190107</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190108</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190109</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190110</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190111</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190114</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190115</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190116</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190117</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190118</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190121</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190122</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190123</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190124</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190125</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190128</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190129</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190130</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190131</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190201</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190211</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190212</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190213</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190214</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190215</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190218</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190219</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190220</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190221</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190222</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190225</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190226</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190227</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190228</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190301</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190304</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190305</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190306</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190307</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190308</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190311</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190312</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190313</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190314</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190315</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190318</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190319</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190320</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190321</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190322</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190325</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190326</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190327</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190328</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190329</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190401</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190402</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190403</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190404</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190408</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190409</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190410</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190411</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190412</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190415</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190416</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190417</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190418</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190419</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190422</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190423</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190424</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190425</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190426</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190429</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190430</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190506</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190507</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190508</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190509</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190510</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190506</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190506购入</t>
+  </si>
+  <si>
+    <t>20190506购入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_HS300_20190507</t>
+  </si>
+  <si>
+    <t>20190507购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190508</t>
+  </si>
+  <si>
+    <t>20190508购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190509</t>
+  </si>
+  <si>
+    <t>20190509购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190510</t>
+  </si>
+  <si>
+    <t>20190510购入</t>
+  </si>
+  <si>
+    <t>ZX_ZZ500_20190519</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190102购入,20190305售出</t>
+  </si>
+  <si>
+    <t>20190103购入,20190305售出</t>
+  </si>
+  <si>
+    <t>20190104购入,20190305售出</t>
+  </si>
+  <si>
+    <t>20190107购入,20190306售出</t>
+  </si>
+  <si>
+    <t>20190108购入,20190306售出</t>
+  </si>
+  <si>
+    <t>20190109购入,20190306售出</t>
+  </si>
+  <si>
+    <t>20190110购入,20190306售出</t>
+  </si>
+  <si>
+    <t>20190111购入,20190306售出</t>
+  </si>
+  <si>
+    <t>20190114购入,20190306售出</t>
+  </si>
+  <si>
+    <t>20190115购入,20190307售出</t>
+  </si>
+  <si>
+    <t>20190116购入,20190307售出</t>
+  </si>
+  <si>
+    <t>20190117购入,20190306售出</t>
+  </si>
+  <si>
+    <t>20190118购入,20190307售出</t>
+  </si>
+  <si>
+    <t>20190121购入,20190307售出</t>
+  </si>
+  <si>
+    <t>20190122购入,20190306售出</t>
+  </si>
+  <si>
+    <t>20190123购入,20190306售出</t>
+  </si>
+  <si>
+    <t>20190124购入,20190307售出</t>
+  </si>
+  <si>
+    <t>20190125购入,20190306售出</t>
+  </si>
+  <si>
+    <t>20190128购入,20190401售出</t>
+  </si>
+  <si>
+    <t>20190129购入,20190401售出</t>
+  </si>
+  <si>
+    <t>20190130购入,20190401售出</t>
+  </si>
+  <si>
+    <t>20190131购入,20190321售出</t>
+  </si>
+  <si>
+    <t>20190201购入,20190401售出</t>
+  </si>
+  <si>
+    <t>20190211购入,20190404售出</t>
+  </si>
+  <si>
+    <t>20190212购入,20190307售出</t>
+  </si>
+  <si>
+    <t>20190213购入,20190319售出</t>
+  </si>
+  <si>
+    <t>20190214购入,20190321售出</t>
+  </si>
+  <si>
+    <t>20190215购入,20190319售出</t>
+  </si>
+  <si>
+    <t>20190218购入,20190401售出</t>
+  </si>
+  <si>
+    <t>20190219购入,20190401售出</t>
+  </si>
+  <si>
+    <t>20190220购入,20190401售出</t>
+  </si>
+  <si>
+    <t>20190221购入,20190401售出</t>
+  </si>
+  <si>
+    <t>20190222购入,20190403售出</t>
+  </si>
+  <si>
+    <t>20190225购入</t>
+  </si>
+  <si>
+    <t>20190301购入</t>
+  </si>
+  <si>
+    <t>20190304购入</t>
+  </si>
+  <si>
+    <t>20190401购入</t>
+  </si>
+  <si>
+    <t>20190509购入,20190510售出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2184,25 +2061,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X80"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
@@ -2234,14 +2111,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>1.0999000000000001</v>
+        <v>1.1028</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="H1" s="19" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19984),2)</f>
-        <v>盈利652.49</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19983),2)</f>
+        <v>盈利672.92</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -2250,48 +2127,48 @@
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="U1" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:23" hidden="1">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="B2" s="11">
         <v>150</v>
@@ -2317,10 +2194,10 @@
         <v>35.52000000000001</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K34" si="0">D2*C2</f>
@@ -2369,7 +2246,7 @@
     </row>
     <row r="3" spans="1:23" hidden="1">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="B3" s="11">
         <v>150</v>
@@ -2395,10 +2272,10 @@
         <v>35.789999999999992</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
@@ -2449,7 +2326,7 @@
     </row>
     <row r="4" spans="1:23" hidden="1">
       <c r="A4" s="25" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="B4" s="26">
         <v>150</v>
@@ -2475,10 +2352,10 @@
         <v>34.669999999999987</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
@@ -2528,7 +2405,7 @@
     </row>
     <row r="5" spans="1:23" hidden="1">
       <c r="A5" s="25" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="B5" s="26">
         <v>150</v>
@@ -2554,10 +2431,10 @@
         <v>34.72999999999999</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
@@ -2608,7 +2485,7 @@
     </row>
     <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="25" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="B6" s="26">
         <v>150</v>
@@ -2634,10 +2511,10 @@
         <v>35.039999999999992</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
@@ -2688,7 +2565,7 @@
     </row>
     <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="34" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="B7" s="26">
         <v>150</v>
@@ -2714,10 +2591,10 @@
         <v>34.659999999999997</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
@@ -2768,7 +2645,7 @@
     </row>
     <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="25" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="B8" s="26">
         <v>150</v>
@@ -2794,10 +2671,10 @@
         <v>35.099999999999994</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
@@ -2848,7 +2725,7 @@
     </row>
     <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="34" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="B9" s="26">
         <v>150</v>
@@ -2874,10 +2751,10 @@
         <v>34.949999999999989</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -2928,7 +2805,7 @@
     </row>
     <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="25" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="B10" s="26">
         <v>150</v>
@@ -2954,10 +2831,10 @@
         <v>35.400000000000006</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -3008,7 +2885,7 @@
     </row>
     <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="34" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="B11" s="26">
         <v>150</v>
@@ -3034,10 +2911,10 @@
         <v>37.759999999999991</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
@@ -3088,7 +2965,7 @@
     </row>
     <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="34" t="s">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="B12" s="26">
         <v>150</v>
@@ -3114,10 +2991,10 @@
         <v>37.72</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
@@ -3168,7 +3045,7 @@
     </row>
     <row r="13" spans="1:23" hidden="1">
       <c r="A13" s="34" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="B13" s="26">
         <v>150</v>
@@ -3194,10 +3071,10 @@
         <v>38.72</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
@@ -3248,7 +3125,7 @@
     </row>
     <row r="14" spans="1:23" hidden="1">
       <c r="A14" s="34" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="B14" s="26">
         <v>150</v>
@@ -3274,10 +3151,10 @@
         <v>35.53</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
@@ -3328,7 +3205,7 @@
     </row>
     <row r="15" spans="1:23" hidden="1">
       <c r="A15" s="34" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="B15" s="26">
         <v>150</v>
@@ -3354,10 +3231,10 @@
         <v>34.569999999999993</v>
       </c>
       <c r="I15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>243</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
@@ -3408,7 +3285,7 @@
     </row>
     <row r="16" spans="1:23" hidden="1">
       <c r="A16" s="34" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="B16" s="26">
         <v>150</v>
@@ -3434,10 +3311,10 @@
         <v>36.889999999999986</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
@@ -3488,7 +3365,7 @@
     </row>
     <row r="17" spans="1:23" hidden="1">
       <c r="A17" s="34" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="B17" s="26">
         <v>150</v>
@@ -3514,10 +3391,10 @@
         <v>37</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
@@ -3568,7 +3445,7 @@
     </row>
     <row r="18" spans="1:23" hidden="1">
       <c r="A18" s="34" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="B18" s="26">
         <v>150</v>
@@ -3594,10 +3471,10 @@
         <v>36.02000000000001</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="0"/>
@@ -3648,7 +3525,7 @@
     </row>
     <row r="19" spans="1:23" hidden="1">
       <c r="A19" s="34" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="B19" s="26">
         <v>150</v>
@@ -3674,10 +3551,10 @@
         <v>34.599999999999994</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
@@ -3728,7 +3605,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="B20">
         <v>270</v>
@@ -3744,18 +3621,18 @@
         <v>0.30982025600000002</v>
       </c>
       <c r="F20" s="14">
-        <f t="shared" si="4"/>
-        <v>0.14291831111111131</v>
+        <f>IF(G20="",($F$1*C20-B20)/B20,H20/B20)</f>
+        <v>0.14593173333333331</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="5"/>
-        <v>38.58794400000005</v>
+        <v>39.401567999999997</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
@@ -3806,7 +3683,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="5" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="B21">
         <v>270</v>
@@ -3823,17 +3700,17 @@
       </c>
       <c r="F21" s="14">
         <f t="shared" si="4"/>
-        <v>0.13937418888888892</v>
+        <v>0.14237826666666673</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="5"/>
-        <v>37.631031000000007</v>
+        <v>38.442132000000015</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
@@ -3884,7 +3761,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="B22">
         <v>255</v>
@@ -3901,17 +3778,17 @@
       </c>
       <c r="F22" s="14">
         <f t="shared" si="4"/>
-        <v>0.14795053333333344</v>
+        <v>0.15097722352941173</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="5"/>
-        <v>37.727386000000024</v>
+        <v>38.499191999999994</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="0"/>
@@ -3962,7 +3839,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="B23">
         <v>270</v>
@@ -3979,17 +3856,17 @@
       </c>
       <c r="F23" s="14">
         <f t="shared" si="4"/>
-        <v>0.13676701851851877</v>
+        <v>0.13976422222222237</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="5"/>
-        <v>36.927095000000065</v>
+        <v>37.736340000000041</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="0"/>
@@ -4040,7 +3917,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="B24">
         <v>255</v>
@@ -4057,17 +3934,17 @@
       </c>
       <c r="F24" s="14">
         <f t="shared" si="4"/>
-        <v>0.12194113333333355</v>
+        <v>0.12489924705882356</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="5"/>
-        <v>31.094989000000055</v>
+        <v>31.849308000000008</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="0"/>
@@ -4118,7 +3995,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="B25">
         <v>255</v>
@@ -4135,17 +4012,17 @@
       </c>
       <c r="F25" s="14">
         <f t="shared" si="4"/>
-        <v>0.10322126666666681</v>
+        <v>0.10613002352941174</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="5"/>
-        <v>26.321423000000038</v>
+        <v>27.063155999999992</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="0"/>
@@ -4196,7 +4073,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="34" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="B26" s="26">
         <v>105</v>
@@ -4223,10 +4100,10 @@
         <v>21.47</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
@@ -4277,7 +4154,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="5" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="B27">
         <v>105</v>
@@ -4294,17 +4171,17 @@
       </c>
       <c r="F27" s="14">
         <f t="shared" si="4"/>
-        <v>7.5597447619047728E-2</v>
+        <v>7.8433371428571486E-2</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="5"/>
-        <v>7.9377320000000111</v>
+        <v>8.2355040000000059</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="0"/>
@@ -4355,7 +4232,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="34" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="B28" s="26">
         <v>90</v>
@@ -4382,10 +4259,10 @@
         <v>17.790000000000006</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>312</v>
+        <v>96</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="0"/>
@@ -4436,7 +4313,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="34" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="B29" s="26">
         <v>90</v>
@@ -4463,10 +4340,10 @@
         <v>17.200000000000003</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="0"/>
@@ -4517,7 +4394,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="5" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="B30">
         <v>90</v>
@@ -4534,17 +4411,17 @@
       </c>
       <c r="F30" s="14">
         <f t="shared" si="4"/>
-        <v>6.1525711111111214E-2</v>
+        <v>6.432453333333335E-2</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="5"/>
-        <v>5.5373140000000092</v>
+        <v>5.7892080000000021</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="0"/>
@@ -4595,7 +4472,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="B31">
         <v>90</v>
@@ -4612,17 +4489,17 @@
       </c>
       <c r="F31" s="14">
         <f t="shared" si="4"/>
-        <v>6.3481088888888981E-2</v>
+        <v>6.6285066666666614E-2</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="5"/>
-        <v>5.7132980000000089</v>
+        <v>5.9656559999999956</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="0"/>
@@ -4673,7 +4550,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="5" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="B32">
         <v>90</v>
@@ -4690,17 +4567,17 @@
       </c>
       <c r="F32" s="14">
         <f t="shared" si="4"/>
-        <v>6.0059177777777806E-2</v>
+        <v>6.2854133333333256E-2</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="5"/>
-        <v>5.4053260000000023</v>
+        <v>5.6568719999999928</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="0"/>
@@ -4751,7 +4628,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="5" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="B33">
         <v>90</v>
@@ -4768,17 +4645,17 @@
       </c>
       <c r="F33" s="14">
         <f t="shared" si="4"/>
-        <v>6.2625611111111187E-2</v>
+        <v>6.5427333333333434E-2</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="5"/>
-        <v>5.6363050000000072</v>
+        <v>5.8884600000000091</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J33" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="0"/>
@@ -4829,7 +4706,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="7" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="B34">
         <v>90</v>
@@ -4846,17 +4723,17 @@
       </c>
       <c r="F34" s="14">
         <f t="shared" si="4"/>
-        <v>4.0627611111111309E-2</v>
+        <v>4.3371333333333456E-2</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="5"/>
-        <v>3.6564850000000177</v>
+        <v>3.9034200000000112</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J34" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="0"/>
@@ -4907,7 +4784,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="7" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="B35">
         <v>135</v>
@@ -4924,17 +4801,17 @@
       </c>
       <c r="F35" s="14">
         <f t="shared" si="4"/>
-        <v>-1.489697037037032E-2</v>
+        <v>-1.2299644444444388E-2</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="5"/>
-        <v>-2.0110909999999933</v>
+        <v>-1.6604519999999923</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J35" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" ref="K35" si="25">D35*C35</f>
@@ -4989,7 +4866,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="7" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="B36">
         <v>135</v>
@@ -5006,17 +4883,17 @@
       </c>
       <c r="F36" s="14">
         <f t="shared" si="4"/>
-        <v>-3.6535481481480389E-3</v>
+        <v>-1.0265777777777674E-3</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ref="H36" si="33">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>-0.49322899999998526</v>
+        <v>-0.1385879999999986</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" ref="K36" si="34">D36*C36</f>
@@ -5067,7 +4944,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="7" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="B37">
         <v>135</v>
@@ -5084,17 +4961,17 @@
       </c>
       <c r="F37" s="14">
         <f t="shared" si="4"/>
-        <v>-1.8611185185184913E-3</v>
+        <v>7.7057777777777452E-4</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:H39" si="44">IF(G37="",$F$1*C37-B37,G37-B37)</f>
-        <v>-0.25125099999999634</v>
+        <v>0.10402799999999957</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J37" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" ref="K37:K39" si="45">D37*C37</f>
@@ -5145,7 +5022,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="B38">
         <v>135</v>
@@ -5162,17 +5039,17 @@
       </c>
       <c r="F38" s="14">
         <f t="shared" si="4"/>
-        <v>5.8310370370375289E-4</v>
+        <v>3.2212444444444034E-3</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="44"/>
-        <v>7.8719000000006645E-2</v>
+        <v>0.43486799999999448</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J38" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="45"/>
@@ -5223,7 +5100,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="7" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="B39">
         <v>135</v>
@@ -5240,17 +5117,17 @@
       </c>
       <c r="F39" s="14">
         <f t="shared" si="4"/>
-        <v>-1.9785414814814811E-2</v>
+        <v>-1.7200977777777855E-2</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="44"/>
-        <v>-2.6710309999999993</v>
+        <v>-2.3221320000000105</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J39" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="45"/>
@@ -5301,7 +5178,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="7" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="B40">
         <v>135</v>
@@ -5318,17 +5195,17 @@
       </c>
       <c r="F40" s="14">
         <f t="shared" si="4"/>
-        <v>-3.0539992592592515E-2</v>
+        <v>-2.7983911111111107E-2</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40" si="49">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>-4.1228989999999897</v>
+        <v>-3.7778279999999995</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J40" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" ref="K40" si="50">D40*C40</f>
@@ -5383,7 +5260,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="7" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="B41">
         <v>135</v>
@@ -5400,17 +5277,17 @@
       </c>
       <c r="F41" s="14">
         <f t="shared" si="4"/>
-        <v>-3.5917281481481371E-2</v>
+        <v>-3.3375377777777736E-2</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ref="H41" si="61">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-4.8488329999999848</v>
+        <v>-4.505675999999994</v>
       </c>
       <c r="I41" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" ref="K41" si="62">D41*C41</f>
@@ -5465,7 +5342,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="7" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="B42">
         <v>135</v>
@@ -5482,17 +5359,17 @@
       </c>
       <c r="F42" s="14">
         <f t="shared" si="4"/>
-        <v>-4.3738792592592467E-2</v>
+        <v>-4.1217511111110987E-2</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" ref="H42" si="73">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-5.904736999999983</v>
+        <v>-5.5643639999999834</v>
       </c>
       <c r="I42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J42" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" ref="K42" si="74">D42*C42</f>
@@ -5547,7 +5424,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="7" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="B43">
         <v>135</v>
@@ -5564,17 +5441,17 @@
       </c>
       <c r="F43" s="14">
         <f t="shared" si="4"/>
-        <v>-3.4450748148148067E-2</v>
+        <v>-3.1904977777777628E-2</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" ref="H43" si="86">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-4.6508509999999887</v>
+        <v>-4.30717199999998</v>
       </c>
       <c r="I43" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J43" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" ref="K43" si="87">D43*C43</f>
@@ -5625,7 +5502,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="7" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="B44">
         <v>135</v>
@@ -5642,17 +5519,17 @@
       </c>
       <c r="F44" s="14">
         <f t="shared" si="4"/>
-        <v>3.679118518518694E-3</v>
+        <v>6.3254222222221199E-3</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" ref="H44" si="99">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>0.49668100000002369</v>
+        <v>0.85393199999998615</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J44" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" ref="K44" si="100">D44*C44</f>
@@ -5703,7 +5580,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="7" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="B45">
         <v>135</v>
@@ -5720,17 +5597,17 @@
       </c>
       <c r="F45" s="14">
         <f t="shared" si="4"/>
-        <v>-1.5141392592592503E-2</v>
+        <v>-1.2544711111111072E-2</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" ref="H45:H49" si="112">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>-2.0440879999999879</v>
+        <v>-1.6935359999999946</v>
       </c>
       <c r="I45" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" ref="K45:K49" si="113">D45*C45</f>
@@ -5781,7 +5658,7 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="7" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="B46">
         <v>135</v>
@@ -5798,17 +5675,17 @@
       </c>
       <c r="F46" s="14">
         <f t="shared" si="4"/>
-        <v>-2.1414896296296237E-2</v>
+        <v>-1.8834755555555468E-2</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="112"/>
-        <v>-2.8910109999999918</v>
+        <v>-2.5426919999999882</v>
       </c>
       <c r="I46" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="113"/>
@@ -5859,7 +5736,7 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="7" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="B47">
         <v>135</v>
@@ -5876,17 +5753,17 @@
       </c>
       <c r="F47" s="14">
         <f t="shared" si="4"/>
-        <v>-1.3593385185185138E-2</v>
+        <v>-1.0992622222222213E-2</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="112"/>
-        <v>-1.8351069999999936</v>
+        <v>-1.4840039999999988</v>
       </c>
       <c r="I47" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J47" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="113"/>
@@ -5937,7 +5814,7 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="7" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="B48">
         <v>135</v>
@@ -5954,17 +5831,17 @@
       </c>
       <c r="F48" s="14">
         <f t="shared" si="4"/>
-        <v>-7.0754592592592236E-3</v>
+        <v>-4.4575111111111324E-3</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="112"/>
-        <v>-0.95518699999999512</v>
+        <v>-0.60176400000000285</v>
       </c>
       <c r="I48" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J48" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="113"/>
@@ -6015,7 +5892,7 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="7" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="B49">
         <v>135</v>
@@ -6032,17 +5909,17 @@
       </c>
       <c r="F49" s="14">
         <f t="shared" si="4"/>
-        <v>-1.8889199999999929E-2</v>
+        <v>-1.6302400000000085E-2</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="112"/>
-        <v>-2.5500419999999906</v>
+        <v>-2.2008240000000114</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J49" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="113"/>
@@ -6093,7 +5970,7 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="B50">
         <v>135</v>
@@ -6110,17 +5987,17 @@
       </c>
       <c r="F50" s="14">
         <f t="shared" si="4"/>
-        <v>-4.479795555555547E-2</v>
+        <v>-4.2279466666666689E-2</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ref="H50:H54" si="125">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>-6.0477239999999881</v>
+        <v>-5.707728000000003</v>
       </c>
       <c r="I50" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J50" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" ref="K50:K54" si="126">D50*C50</f>
@@ -6171,7 +6048,7 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="7" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="B51">
         <v>135</v>
@@ -6188,17 +6065,17 @@
       </c>
       <c r="F51" s="14">
         <f t="shared" si="4"/>
-        <v>-4.0398355555555557E-2</v>
+        <v>-3.7868266666666588E-2</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="125"/>
-        <v>-5.4537779999999998</v>
+        <v>-5.1122159999999894</v>
       </c>
       <c r="I51" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="126"/>
@@ -6249,7 +6126,7 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="7" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="B52">
         <v>135</v>
@@ -6266,17 +6143,17 @@
       </c>
       <c r="F52" s="14">
         <f t="shared" si="4"/>
-        <v>-4.07242518518518E-2</v>
+        <v>-3.8195022222222236E-2</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="125"/>
-        <v>-5.4977739999999926</v>
+        <v>-5.156328000000002</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J52" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="126"/>
@@ -6327,7 +6204,7 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="7" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="B53">
         <v>135</v>
@@ -6344,17 +6221,17 @@
       </c>
       <c r="F53" s="14">
         <f t="shared" si="4"/>
-        <v>-4.1050148148148037E-2</v>
+        <v>-3.8521777777777676E-2</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="125"/>
-        <v>-5.5417699999999854</v>
+        <v>-5.2004399999999862</v>
       </c>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J53" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="126"/>
@@ -6405,7 +6282,7 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="7" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B54">
         <v>135</v>
@@ -6422,17 +6299,17 @@
       </c>
       <c r="F54" s="14">
         <f t="shared" si="4"/>
-        <v>-4.0398355555555557E-2</v>
+        <v>-3.7868266666666588E-2</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="125"/>
-        <v>-5.4537779999999998</v>
+        <v>-5.1122159999999894</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J54" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="126"/>
@@ -6484,7 +6361,7 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B55">
         <v>135</v>
@@ -6501,17 +6378,17 @@
       </c>
       <c r="F55" s="14">
         <f t="shared" si="4"/>
-        <v>-1.8318881481481506E-2</v>
+        <v>-1.5730577777777751E-2</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ref="H55:H59" si="138">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>-2.4730490000000032</v>
+        <v>-2.1236279999999965</v>
       </c>
       <c r="I55" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J55" t="s">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" ref="K55:K59" si="139">D55*C55</f>
@@ -6562,7 +6439,7 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B56">
         <v>135</v>
@@ -6579,17 +6456,17 @@
       </c>
       <c r="F56" s="14">
         <f t="shared" si="4"/>
-        <v>-7.6457777777776481E-3</v>
+        <v>-5.0293333333332546E-3</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="138"/>
-        <v>-1.0321799999999826</v>
+        <v>-0.67895999999998935</v>
       </c>
       <c r="I56" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J56" t="s">
-        <v>218</v>
+        <v>67</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="139"/>
@@ -6640,7 +6517,7 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B57">
         <v>135</v>
@@ -6657,17 +6534,17 @@
       </c>
       <c r="F57" s="14">
         <f t="shared" si="4"/>
-        <v>-1.8155933333333173E-2</v>
+        <v>-1.5567200000000033E-2</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="138"/>
-        <v>-2.4510509999999783</v>
+        <v>-2.1015720000000044</v>
       </c>
       <c r="I57" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J57" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="139"/>
@@ -6718,7 +6595,7 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B58">
         <v>135</v>
@@ -6735,17 +6612,17 @@
       </c>
       <c r="F58" s="14">
         <f t="shared" si="4"/>
-        <v>-1.4652548148148139E-2</v>
+        <v>-1.2054577777777704E-2</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="138"/>
-        <v>-1.9780939999999987</v>
+        <v>-1.6273679999999899</v>
       </c>
       <c r="I58" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J58" t="s">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="139"/>
@@ -6796,7 +6673,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B59">
         <v>135</v>
@@ -6813,17 +6690,17 @@
       </c>
       <c r="F59" s="14">
         <f t="shared" si="4"/>
-        <v>-4.9360503703703505E-2</v>
+        <v>-4.6854044444444298E-2</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="138"/>
-        <v>-6.6636679999999728</v>
+        <v>-6.3252959999999803</v>
       </c>
       <c r="I59" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J59" t="s">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="139"/>
@@ -6878,7 +6755,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B60">
         <v>135</v>
@@ -6895,17 +6772,17 @@
       </c>
       <c r="F60" s="14">
         <f t="shared" si="4"/>
-        <v>-7.2825037037037008E-2</v>
+        <v>-7.0380444444444482E-2</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ref="H60" si="151">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>-9.8313799999999958</v>
+        <v>-9.5013600000000054</v>
       </c>
       <c r="I60" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J60" t="s">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" ref="K60" si="152">D60*C60</f>
@@ -6960,7 +6837,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B61">
         <v>135</v>
@@ -6977,17 +6854,17 @@
       </c>
       <c r="F61" s="14">
         <f t="shared" ref="F61:F63" si="164">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>-7.2336192592592538E-2</v>
+        <v>-6.9890311111111117E-2</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:H63" si="165">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>-9.7653859999999924</v>
+        <v>-9.4351920000000007</v>
       </c>
       <c r="I61" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J61" t="s">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" ref="K61:K63" si="166">D61*C61</f>
@@ -7038,7 +6915,7 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B62">
         <v>135</v>
@@ -7055,17 +6932,17 @@
       </c>
       <c r="F62" s="14">
         <f t="shared" si="164"/>
-        <v>-8.3498140740740648E-2</v>
+        <v>-8.1081688888888878E-2</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="165"/>
-        <v>-11.272248999999988</v>
+        <v>-10.946027999999998</v>
       </c>
       <c r="I62" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J62" t="s">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="166"/>
@@ -7120,7 +6997,7 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B63">
         <v>120</v>
@@ -7137,17 +7014,17 @@
       </c>
       <c r="F63" s="14">
         <f t="shared" si="164"/>
-        <v>-9.2215866666666577E-2</v>
+        <v>-8.98223999999999E-2</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="165"/>
-        <v>-11.065903999999989</v>
+        <v>-10.778687999999988</v>
       </c>
       <c r="I63" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J63" t="s">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="166"/>
@@ -7198,7 +7075,7 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="7" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B64">
         <v>120</v>
@@ -7215,17 +7092,17 @@
       </c>
       <c r="F64" s="14">
         <f t="shared" ref="F64:F68" si="178">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-9.1482599999999914E-2</v>
+        <v>-8.9087199999999936E-2</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" ref="H64:H68" si="179">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-10.977911999999989</v>
+        <v>-10.690463999999992</v>
       </c>
       <c r="I64" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J64" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" ref="K64:K68" si="180">D64*C64</f>
@@ -7280,7 +7157,7 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="B65">
         <v>120</v>
@@ -7297,17 +7174,17 @@
       </c>
       <c r="F65" s="14">
         <f t="shared" si="178"/>
-        <v>-9.524059166666668E-2</v>
+        <v>-9.2855099999999996E-2</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="179"/>
-        <v>-11.428871000000001</v>
+        <v>-11.142612</v>
       </c>
       <c r="I65" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J65" t="s">
-        <v>275</v>
+        <v>87</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="180"/>
@@ -7358,7 +7235,7 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="7" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B66">
         <v>120</v>
@@ -7375,17 +7252,17 @@
       </c>
       <c r="F66" s="14">
         <f t="shared" si="178"/>
-        <v>-9.7440391666666556E-2</v>
+        <v>-9.506070000000004E-2</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="179"/>
-        <v>-11.692846999999986</v>
+        <v>-11.407284000000004</v>
       </c>
       <c r="I66" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J66" t="s">
-        <v>277</v>
+        <v>88</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="180"/>
@@ -7436,7 +7313,7 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="B67">
         <v>120</v>
@@ -7453,17 +7330,17 @@
       </c>
       <c r="F67" s="14">
         <f t="shared" si="178"/>
-        <v>-7.8650433333333325E-2</v>
+        <v>-7.6221200000000044E-2</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" si="179"/>
-        <v>-9.438051999999999</v>
+        <v>-9.1465440000000058</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J67" t="s">
-        <v>279</v>
+        <v>89</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="180"/>
@@ -7514,7 +7391,7 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B68">
         <v>120</v>
@@ -7531,17 +7408,17 @@
       </c>
       <c r="F68" s="14">
         <f t="shared" si="178"/>
-        <v>-7.6633949999999965E-2</v>
+        <v>-7.4199400000000068E-2</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" si="179"/>
-        <v>-9.1960739999999959</v>
+        <v>-8.9039280000000076</v>
       </c>
       <c r="I68" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J68" t="s">
-        <v>281</v>
+        <v>90</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="180"/>
@@ -7592,7 +7469,7 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="7" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="B69">
         <v>120</v>
@@ -7609,17 +7486,17 @@
       </c>
       <c r="F69" s="14">
         <f t="shared" ref="F69:F73" si="192">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>-7.3792541666666628E-2</v>
+        <v>-7.1350500000000025E-2</v>
       </c>
       <c r="H69" s="2">
         <f t="shared" ref="H69:H73" si="193">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>-8.8551049999999947</v>
+        <v>-8.5620600000000024</v>
       </c>
       <c r="I69" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J69" t="s">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K73" si="194">D69*C69</f>
@@ -7670,7 +7547,7 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="7" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="B70">
         <v>135</v>
@@ -7687,17 +7564,17 @@
       </c>
       <c r="F70" s="14">
         <f t="shared" si="192"/>
-        <v>-9.7185785185185072E-2</v>
+        <v>-9.4805422222222227E-2</v>
       </c>
       <c r="H70" s="2">
         <f t="shared" si="193"/>
-        <v>-13.120080999999985</v>
+        <v>-12.798732000000001</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J70" t="s">
-        <v>295</v>
+        <v>92</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="194"/>
@@ -7748,7 +7625,7 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="7" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="B71">
         <v>120</v>
@@ -7765,17 +7642,17 @@
       </c>
       <c r="F71" s="14">
         <f t="shared" si="192"/>
-        <v>-9.7532049999999995E-2</v>
+        <v>-9.5152600000000004E-2</v>
       </c>
       <c r="H71" s="2">
         <f t="shared" si="193"/>
-        <v>-11.703845999999999</v>
+        <v>-11.418312</v>
       </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J71" t="s">
-        <v>297</v>
+        <v>93</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="194"/>
@@ -7826,7 +7703,7 @@
     </row>
     <row r="72" spans="1:23">
       <c r="A72" s="7" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="B72">
         <v>120</v>
@@ -7843,17 +7720,17 @@
       </c>
       <c r="F72" s="14">
         <f t="shared" si="192"/>
-        <v>-9.4415666666666578E-2</v>
+        <v>-9.2028000000000054E-2</v>
       </c>
       <c r="H72" s="2">
         <f t="shared" si="193"/>
-        <v>-11.329879999999989</v>
+        <v>-11.043360000000007</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J72" t="s">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="194"/>
@@ -7904,7 +7781,7 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="7" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="B73">
         <v>120</v>
@@ -7921,17 +7798,17 @@
       </c>
       <c r="F73" s="14">
         <f t="shared" si="192"/>
-        <v>-0.10449808333333326</v>
+        <v>-0.10213699999999998</v>
       </c>
       <c r="H73" s="2">
         <f t="shared" si="193"/>
-        <v>-12.53976999999999</v>
+        <v>-12.256439999999998</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J73" t="s">
-        <v>301</v>
+        <v>95</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="194"/>
@@ -7986,7 +7863,7 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="7" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="B74">
         <v>120</v>
@@ -8003,17 +7880,17 @@
       </c>
       <c r="F74" s="14">
         <f t="shared" ref="F74:F78" si="206">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
-        <v>-8.4516566666666654E-2</v>
+        <v>-8.2102800000000073E-2</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" ref="H74:H78" si="207">IF(G74="",$F$1*C74-B74,G74-B74)</f>
-        <v>-10.141987999999998</v>
+        <v>-9.8523360000000082</v>
       </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J74" t="s">
-        <v>314</v>
+        <v>97</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" ref="K74:K78" si="208">D74*C74</f>
@@ -8064,7 +7941,7 @@
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="7" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="B75">
         <v>120</v>
@@ -8081,17 +7958,17 @@
       </c>
       <c r="F75" s="14">
         <f t="shared" si="206"/>
-        <v>-8.3141691666666517E-2</v>
+        <v>-8.0724299999999971E-2</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" si="207"/>
-        <v>-9.9770029999999821</v>
+        <v>-9.6869159999999965</v>
       </c>
       <c r="I75" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J75" t="s">
-        <v>316</v>
+        <v>98</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="208"/>
@@ -8142,7 +8019,7 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="7" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="B76">
         <v>120</v>
@@ -8159,17 +8036,17 @@
       </c>
       <c r="F76" s="14">
         <f t="shared" si="206"/>
-        <v>-8.5433149999999944E-2</v>
+        <v>-8.3021799999999979E-2</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" si="207"/>
-        <v>-10.251977999999994</v>
+        <v>-9.962615999999997</v>
       </c>
       <c r="I76" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J76" t="s">
-        <v>318</v>
+        <v>99</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="208"/>
@@ -8220,7 +8097,7 @@
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="7" t="s">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c r="B77">
         <v>120</v>
@@ -8237,17 +8114,17 @@
       </c>
       <c r="F77" s="14">
         <f t="shared" si="206"/>
-        <v>-6.609324166666658E-2</v>
+        <v>-6.3630899999999949E-2</v>
       </c>
       <c r="H77" s="2">
         <f t="shared" si="207"/>
-        <v>-7.9311889999999892</v>
+        <v>-7.6357079999999939</v>
       </c>
       <c r="I77" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J77" t="s">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="208"/>
@@ -8298,7 +8175,7 @@
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="7" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="B78">
         <v>135</v>
@@ -8315,17 +8192,17 @@
       </c>
       <c r="F78" s="14">
         <f t="shared" si="206"/>
-        <v>-5.4248948148148096E-2</v>
+        <v>-5.1755377777777764E-2</v>
       </c>
       <c r="H78" s="2">
         <f t="shared" si="207"/>
-        <v>-7.323607999999993</v>
+        <v>-6.9869759999999985</v>
       </c>
       <c r="I78" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J78" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="208"/>
@@ -8376,7 +8253,7 @@
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="7" t="s">
-        <v>337</v>
+        <v>260</v>
       </c>
       <c r="B79">
         <v>135</v>
@@ -8393,17 +8270,17 @@
       </c>
       <c r="F79" s="14">
         <f t="shared" ref="F79:F80" si="220">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
-        <v>-5.6774644444444404E-2</v>
+        <v>-5.4287733333333359E-2</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" ref="H79:H80" si="221">IF(G79="",$F$1*C79-B79,G79-B79)</f>
-        <v>-7.6645769999999942</v>
+        <v>-7.3288440000000037</v>
       </c>
       <c r="I79" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J79" t="s">
-        <v>338</v>
+        <v>102</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" ref="K79:K80" si="222">D79*C79</f>
@@ -8454,7 +8331,7 @@
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="7" t="s">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="B80">
         <v>135</v>
@@ -8471,17 +8348,17 @@
       </c>
       <c r="F80" s="14">
         <f t="shared" si="220"/>
-        <v>-5.9707711111111013E-2</v>
+        <v>-5.7228533333333359E-2</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="221"/>
-        <v>-8.0605409999999864</v>
+        <v>-7.7258520000000033</v>
       </c>
       <c r="I80" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J80" t="s">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="222"/>
@@ -8528,6 +8405,396 @@
       <c r="W80" s="1">
         <f t="shared" si="232"/>
         <v>0.30036289428778501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B81">
+        <v>135</v>
+      </c>
+      <c r="C81" s="39">
+        <v>122.13</v>
+      </c>
+      <c r="D81" s="40">
+        <v>1.1043000000000001</v>
+      </c>
+      <c r="E81" s="23">
+        <f t="shared" ref="E81" si="233">10%*M81+13%</f>
+        <v>0.219912106</v>
+      </c>
+      <c r="F81" s="14">
+        <f t="shared" ref="F81" si="234">IF(G81="",($F$1*C81-B81)/B81,H81/B81)</f>
+        <v>-2.3335999999999414E-3</v>
+      </c>
+      <c r="H81" s="2">
+        <f t="shared" ref="H81" si="235">IF(G81="",$F$1*C81-B81,G81-B81)</f>
+        <v>-0.3150359999999921</v>
+      </c>
+      <c r="I81" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" t="s">
+        <v>269</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" ref="K81" si="236">D81*C81</f>
+        <v>134.86815899999999</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" ref="L81" si="237">B81-K81</f>
+        <v>0.13184100000000853</v>
+      </c>
+      <c r="M81" s="1">
+        <f t="shared" ref="M81" si="238">K81/150</f>
+        <v>0.89912105999999992</v>
+      </c>
+      <c r="N81" s="6">
+        <f t="shared" ref="N81" si="239">N80+C81-P81</f>
+        <v>7469.49</v>
+      </c>
+      <c r="O81" s="2">
+        <f t="shared" ref="O81" si="240">N81*D81</f>
+        <v>8248.557807000001</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="6">
+        <f t="shared" ref="R81" si="241">R80+Q81</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S81" s="6">
+        <f t="shared" ref="S81" si="242">R81+O81</f>
+        <v>11934.687807</v>
+      </c>
+      <c r="T81">
+        <f t="shared" ref="T81" si="243">T80+B81</f>
+        <v>11250</v>
+      </c>
+      <c r="U81" s="4">
+        <f t="shared" ref="U81" si="244">S81/T81-1</f>
+        <v>6.0861138399999959E-2</v>
+      </c>
+      <c r="V81" s="4">
+        <f t="shared" ref="V81" si="245">O81/(T81-R81)-1</f>
+        <v>9.0520832193043965E-2</v>
+      </c>
+      <c r="W81" s="1">
+        <f t="shared" ref="W81" si="246">R81/S81</f>
+        <v>0.30885851893318816</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B82">
+        <v>135</v>
+      </c>
+      <c r="C82" s="39">
+        <v>121.01</v>
+      </c>
+      <c r="D82" s="40">
+        <v>1.1145</v>
+      </c>
+      <c r="E82" s="23">
+        <f t="shared" ref="E82:E85" si="247">10%*M82+13%</f>
+        <v>0.21991042999999999</v>
+      </c>
+      <c r="F82" s="14">
+        <f t="shared" ref="F82:F85" si="248">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
+        <v>-1.1482755555555581E-2</v>
+      </c>
+      <c r="H82" s="2">
+        <f t="shared" ref="H82:H85" si="249">IF(G82="",$F$1*C82-B82,G82-B82)</f>
+        <v>-1.5501720000000034</v>
+      </c>
+      <c r="I82" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" t="s">
+        <v>271</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" ref="K82:K85" si="250">D82*C82</f>
+        <v>134.865645</v>
+      </c>
+      <c r="L82" s="2">
+        <f t="shared" ref="L82:L85" si="251">B82-K82</f>
+        <v>0.13435499999999934</v>
+      </c>
+      <c r="M82" s="1">
+        <f t="shared" ref="M82:M85" si="252">K82/150</f>
+        <v>0.89910429999999997</v>
+      </c>
+      <c r="N82" s="6">
+        <f t="shared" ref="N82:N85" si="253">N81+C82-P82</f>
+        <v>7590.5</v>
+      </c>
+      <c r="O82" s="2">
+        <f t="shared" ref="O82:O85" si="254">N82*D82</f>
+        <v>8459.6122500000001</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="6">
+        <f t="shared" ref="R82:R85" si="255">R81+Q82</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S82" s="6">
+        <f t="shared" ref="S82:S85" si="256">R82+O82</f>
+        <v>12145.742249999999</v>
+      </c>
+      <c r="T82">
+        <f t="shared" ref="T82:T85" si="257">T81+B82</f>
+        <v>11385</v>
+      </c>
+      <c r="U82" s="4">
+        <f t="shared" ref="U82:U85" si="258">S82/T82-1</f>
+        <v>6.6819696969696807E-2</v>
+      </c>
+      <c r="V82" s="4">
+        <f t="shared" ref="V82:V85" si="259">O82/(T82-R82)-1</f>
+        <v>9.8812195815749515E-2</v>
+      </c>
+      <c r="W82" s="1">
+        <f t="shared" ref="W82:W85" si="260">R82/S82</f>
+        <v>0.30349153836193088</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B83">
+        <v>135</v>
+      </c>
+      <c r="C83" s="39">
+        <v>122.64</v>
+      </c>
+      <c r="D83" s="40">
+        <v>1.0996999999999999</v>
+      </c>
+      <c r="E83" s="23">
+        <f t="shared" si="247"/>
+        <v>0.219911472</v>
+      </c>
+      <c r="F83" s="14">
+        <f t="shared" si="248"/>
+        <v>1.8325333333332648E-3</v>
+      </c>
+      <c r="H83" s="2">
+        <f t="shared" si="249"/>
+        <v>0.24739199999999073</v>
+      </c>
+      <c r="I83" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" t="s">
+        <v>273</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="250"/>
+        <v>134.86720799999998</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" si="251"/>
+        <v>0.13279200000002334</v>
+      </c>
+      <c r="M83" s="1">
+        <f t="shared" si="252"/>
+        <v>0.89911471999999981</v>
+      </c>
+      <c r="N83" s="6">
+        <f t="shared" si="253"/>
+        <v>7713.14</v>
+      </c>
+      <c r="O83" s="2">
+        <f t="shared" si="254"/>
+        <v>8482.140057999999</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="6">
+        <f t="shared" si="255"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S83" s="6">
+        <f t="shared" si="256"/>
+        <v>12168.270057999998</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="257"/>
+        <v>11520</v>
+      </c>
+      <c r="U83" s="4">
+        <f t="shared" si="258"/>
+        <v>5.6273442534721996E-2</v>
+      </c>
+      <c r="V83" s="4">
+        <f t="shared" si="259"/>
+        <v>8.2752210337929899E-2</v>
+      </c>
+      <c r="W83" s="1">
+        <f t="shared" si="260"/>
+        <v>0.30292966727645587</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B84">
+        <v>135</v>
+      </c>
+      <c r="C84" s="39">
+        <v>124.81</v>
+      </c>
+      <c r="D84" s="40">
+        <v>1.0806</v>
+      </c>
+      <c r="E84" s="23">
+        <f t="shared" si="247"/>
+        <v>0.21991312400000002</v>
+      </c>
+      <c r="F84" s="14">
+        <f t="shared" si="248"/>
+        <v>1.9559022222222212E-2</v>
+      </c>
+      <c r="H84" s="2">
+        <f t="shared" si="249"/>
+        <v>2.6404679999999985</v>
+      </c>
+      <c r="I84" t="s">
+        <v>7</v>
+      </c>
+      <c r="J84" t="s">
+        <v>275</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="250"/>
+        <v>134.869686</v>
+      </c>
+      <c r="L84" s="2">
+        <f t="shared" si="251"/>
+        <v>0.13031399999999849</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" si="252"/>
+        <v>0.89913124</v>
+      </c>
+      <c r="N84" s="6">
+        <f t="shared" si="253"/>
+        <v>7837.9500000000007</v>
+      </c>
+      <c r="O84" s="2">
+        <f t="shared" si="254"/>
+        <v>8469.6887700000007</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="6">
+        <f t="shared" si="255"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S84" s="6">
+        <f t="shared" si="256"/>
+        <v>12155.81877</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="257"/>
+        <v>11655</v>
+      </c>
+      <c r="U84" s="4">
+        <f t="shared" si="258"/>
+        <v>4.2970293436293439E-2</v>
+      </c>
+      <c r="V84" s="4">
+        <f t="shared" si="259"/>
+        <v>6.2846899246693733E-2</v>
+      </c>
+      <c r="W84" s="1">
+        <f t="shared" si="260"/>
+        <v>0.30323996019891303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85">
+        <v>135</v>
+      </c>
+      <c r="C85" s="39">
+        <v>120.69</v>
+      </c>
+      <c r="D85" s="40">
+        <v>1.1174999999999999</v>
+      </c>
+      <c r="E85" s="23">
+        <f t="shared" si="247"/>
+        <v>0.21991405</v>
+      </c>
+      <c r="F85" s="14">
+        <f t="shared" si="248"/>
+        <v>-1.4096799999999928E-2</v>
+      </c>
+      <c r="H85" s="2">
+        <f t="shared" si="249"/>
+        <v>-1.9030679999999904</v>
+      </c>
+      <c r="I85" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85" t="s">
+        <v>277</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="250"/>
+        <v>134.87107499999999</v>
+      </c>
+      <c r="L85" s="2">
+        <f t="shared" si="251"/>
+        <v>0.1289250000000095</v>
+      </c>
+      <c r="M85" s="1">
+        <f t="shared" si="252"/>
+        <v>0.8991404999999999</v>
+      </c>
+      <c r="N85" s="6">
+        <f t="shared" si="253"/>
+        <v>7958.64</v>
+      </c>
+      <c r="O85" s="2">
+        <f t="shared" si="254"/>
+        <v>8893.7801999999992</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="6">
+        <f t="shared" si="255"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S85" s="6">
+        <f t="shared" si="256"/>
+        <v>12579.910199999998</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="257"/>
+        <v>11790</v>
+      </c>
+      <c r="U85" s="4">
+        <f t="shared" si="258"/>
+        <v>6.6998320610687001E-2</v>
+      </c>
+      <c r="V85" s="4">
+        <f t="shared" si="259"/>
+        <v>9.7473207245426963E-2</v>
+      </c>
+      <c r="W85" s="1">
+        <f t="shared" si="260"/>
+        <v>0.29301719498760809</v>
       </c>
     </row>
   </sheetData>
@@ -8593,7 +8860,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F80">
+  <conditionalFormatting sqref="F2:F85">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8656,24 +8923,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X80"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
@@ -8704,14 +8971,14 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>0.85780000000000001</v>
+        <v>0.87119999999999997</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="H1" s="21" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19985),2)</f>
-        <v>盈利816.5</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19986),2)</f>
+        <v>盈利922.37</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -8720,48 +8987,48 @@
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="T1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="U1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="W1" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:23" hidden="1">
       <c r="A2" s="25" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="B2" s="26">
         <v>150</v>
@@ -8787,10 +9054,10 @@
         <v>39.409999999999997</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2">
         <f>D2*C2</f>
@@ -8839,7 +9106,7 @@
     </row>
     <row r="3" spans="1:23" hidden="1">
       <c r="A3" s="25" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B3" s="26">
         <v>150</v>
@@ -8865,10 +9132,10 @@
         <v>40.210000000000008</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K7" si="3">D3*C3</f>
@@ -8918,7 +9185,7 @@
     </row>
     <row r="4" spans="1:23" hidden="1">
       <c r="A4" s="25" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B4" s="26">
         <v>150</v>
@@ -8944,10 +9211,10 @@
         <v>36.069999999999993</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="3"/>
@@ -8997,7 +9264,7 @@
     </row>
     <row r="5" spans="1:23" hidden="1">
       <c r="A5" s="25" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="B5" s="26">
         <v>150</v>
@@ -9023,10 +9290,10 @@
         <v>35.930000000000007</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="3"/>
@@ -9076,7 +9343,7 @@
     </row>
     <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="25" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="B6" s="26">
         <v>150</v>
@@ -9102,10 +9369,10 @@
         <v>36.379999999999995</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
@@ -9155,7 +9422,7 @@
     </row>
     <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="25" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B7" s="26">
         <v>150</v>
@@ -9181,10 +9448,10 @@
         <v>35.879999999999995</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
@@ -9234,7 +9501,7 @@
     </row>
     <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="25" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="B8" s="26">
         <v>150</v>
@@ -9260,10 +9527,10 @@
         <v>36.28</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:K9" si="12">D8*C8</f>
@@ -9313,7 +9580,7 @@
     </row>
     <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="25" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="B9" s="26">
         <v>150</v>
@@ -9339,10 +9606,10 @@
         <v>34.819999999999993</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>138</v>
+        <v>286</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="12"/>
@@ -9392,7 +9659,7 @@
     </row>
     <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="25" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="B10" s="26">
         <v>150</v>
@@ -9418,10 +9685,10 @@
         <v>36.009999999999991</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>140</v>
+        <v>287</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" ref="K10:K13" si="13">D10*C10</f>
@@ -9471,7 +9738,7 @@
     </row>
     <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="34" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B11" s="26">
         <v>150</v>
@@ -9497,10 +9764,10 @@
         <v>35.819999999999993</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="13"/>
@@ -9550,7 +9817,7 @@
     </row>
     <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="34" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B12" s="26">
         <v>150</v>
@@ -9576,10 +9843,10 @@
         <v>36.259999999999991</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>156</v>
+        <v>289</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="13"/>
@@ -9629,7 +9896,7 @@
     </row>
     <row r="13" spans="1:23" hidden="1">
       <c r="A13" s="25" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B13" s="26">
         <v>150</v>
@@ -9655,10 +9922,10 @@
         <v>35.289999999999992</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="13"/>
@@ -9708,7 +9975,7 @@
     </row>
     <row r="14" spans="1:23" hidden="1">
       <c r="A14" s="34" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B14" s="26">
         <v>150</v>
@@ -9734,10 +10001,10 @@
         <v>35.78</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>157</v>
+        <v>291</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" ref="K14" si="15">D14*C14</f>
@@ -9787,7 +10054,7 @@
     </row>
     <row r="15" spans="1:23" hidden="1">
       <c r="A15" s="34" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B15" s="26">
         <v>150</v>
@@ -9813,10 +10080,10 @@
         <v>34.75</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ref="K15:K19" si="16">D15*C15</f>
@@ -9866,7 +10133,7 @@
     </row>
     <row r="16" spans="1:23" hidden="1">
       <c r="A16" s="25" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="B16" s="26">
         <v>150</v>
@@ -9892,10 +10159,10 @@
         <v>35.090000000000003</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>143</v>
+        <v>293</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="16"/>
@@ -9945,7 +10212,7 @@
     </row>
     <row r="17" spans="1:23" hidden="1">
       <c r="A17" s="25" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="B17" s="26">
         <v>150</v>
@@ -9971,10 +10238,10 @@
         <v>34.789999999999992</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="16"/>
@@ -10024,7 +10291,7 @@
     </row>
     <row r="18" spans="1:23" hidden="1">
       <c r="A18" s="34" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B18" s="26">
         <v>150</v>
@@ -10050,10 +10317,10 @@
         <v>36.139999999999986</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="16"/>
@@ -10103,7 +10370,7 @@
     </row>
     <row r="19" spans="1:23" hidden="1">
       <c r="A19" s="25" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B19" s="26">
         <v>150</v>
@@ -10129,10 +10396,10 @@
         <v>34.610000000000014</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="16"/>
@@ -10182,7 +10449,7 @@
     </row>
     <row r="20" spans="1:23" hidden="1">
       <c r="A20" s="34" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B20" s="26">
         <v>270</v>
@@ -10209,10 +10476,10 @@
         <v>85.149999999999977</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ref="K20:K23" si="17">D20*C20</f>
@@ -10262,7 +10529,7 @@
     </row>
     <row r="21" spans="1:23" hidden="1">
       <c r="A21" s="34" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B21" s="26">
         <v>270</v>
@@ -10289,10 +10556,10 @@
         <v>89.29000000000002</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="17"/>
@@ -10342,7 +10609,7 @@
     </row>
     <row r="22" spans="1:23" hidden="1">
       <c r="A22" s="34" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B22" s="26">
         <v>270</v>
@@ -10369,10 +10636,10 @@
         <v>92.639999999999986</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="17"/>
@@ -10422,7 +10689,7 @@
     </row>
     <row r="23" spans="1:23" hidden="1">
       <c r="A23" s="34" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B23" s="26">
         <v>270</v>
@@ -10449,10 +10716,10 @@
         <v>85.339999999999975</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="17"/>
@@ -10502,7 +10769,7 @@
     </row>
     <row r="24" spans="1:23" hidden="1">
       <c r="A24" s="34" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="B24" s="26">
         <v>270</v>
@@ -10529,10 +10796,10 @@
         <v>86.139999999999986</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" ref="K24" si="19">D24*C24</f>
@@ -10582,7 +10849,7 @@
     </row>
     <row r="25" spans="1:23" hidden="1">
       <c r="A25" s="34" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="B25" s="26">
         <v>270</v>
@@ -10609,10 +10876,10 @@
         <v>84.589999999999975</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" ref="K25" si="21">D25*C25</f>
@@ -10662,7 +10929,7 @@
     </row>
     <row r="26" spans="1:23" hidden="1">
       <c r="A26" s="34" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="B26" s="26">
         <v>120</v>
@@ -10689,10 +10956,10 @@
         <v>25.72</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>160</v>
+        <v>303</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" ref="K26:K29" si="25">D26*C26</f>
@@ -10742,7 +11009,7 @@
     </row>
     <row r="27" spans="1:23" hidden="1">
       <c r="A27" s="34" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="B27" s="26">
         <v>120</v>
@@ -10769,10 +11036,10 @@
         <v>25.22999999999999</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="25"/>
@@ -10822,7 +11089,7 @@
     </row>
     <row r="28" spans="1:23" hidden="1">
       <c r="A28" s="34" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B28" s="26">
         <v>120</v>
@@ -10849,10 +11116,10 @@
         <v>26.300000000000011</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="25"/>
@@ -10902,7 +11169,7 @@
     </row>
     <row r="29" spans="1:23" hidden="1">
       <c r="A29" s="34" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B29" s="26">
         <v>120</v>
@@ -10929,10 +11196,10 @@
         <v>25.539999999999992</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="25"/>
@@ -10982,7 +11249,7 @@
     </row>
     <row r="30" spans="1:23" hidden="1">
       <c r="A30" s="34" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="B30" s="26">
         <v>120</v>
@@ -11009,10 +11276,10 @@
         <v>26.550000000000011</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" ref="K30" si="29">D30*C30</f>
@@ -11062,7 +11329,7 @@
     </row>
     <row r="31" spans="1:23" hidden="1">
       <c r="A31" s="34" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="B31" s="26">
         <v>105</v>
@@ -11089,10 +11356,10 @@
         <v>23.120000000000005</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" ref="K31:K34" si="33">D31*C31</f>
@@ -11142,7 +11409,7 @@
     </row>
     <row r="32" spans="1:23" hidden="1">
       <c r="A32" s="34" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="B32" s="26">
         <v>105</v>
@@ -11169,10 +11436,10 @@
         <v>23.099999999999994</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="33"/>
@@ -11222,7 +11489,7 @@
     </row>
     <row r="33" spans="1:23" hidden="1">
       <c r="A33" s="34" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="B33" s="26">
         <v>105</v>
@@ -11249,10 +11516,10 @@
         <v>23.319999999999993</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="33"/>
@@ -11302,7 +11569,7 @@
     </row>
     <row r="34" spans="1:23" hidden="1">
       <c r="A34" s="10" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B34" s="26">
         <v>105</v>
@@ -11329,10 +11596,10 @@
         <v>21.97</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="33"/>
@@ -11383,7 +11650,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="7" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="B35">
         <v>105</v>
@@ -11400,18 +11667,18 @@
       </c>
       <c r="F35" s="30">
         <f t="shared" si="1"/>
-        <v>-2.0229009523809453E-2</v>
+        <v>-4.9236571428570826E-3</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="20">
         <f t="shared" si="2"/>
-        <v>-2.1240459999999928</v>
+        <v>-0.51698399999999367</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>312</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" ref="K35:K36" si="38">D35*C35</f>
@@ -11462,7 +11729,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="7" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="B36">
         <v>90</v>
@@ -11479,18 +11746,18 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" si="1"/>
-        <v>-1.9058044444444356E-2</v>
+        <v>-3.734399999999975E-3</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="20">
         <f t="shared" si="2"/>
-        <v>-1.7152239999999921</v>
+        <v>-0.33609599999999773</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="38"/>
@@ -11541,7 +11808,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="7" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B37">
         <v>90</v>
@@ -11558,18 +11825,18 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" si="1"/>
-        <v>-1.5150288888888971E-2</v>
+        <v>2.3440000000000003E-4</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="20">
         <f t="shared" si="2"/>
-        <v>-1.3635260000000073</v>
+        <v>2.1096000000000004E-2</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" ref="K37:K39" si="47">D37*C37</f>
@@ -11620,7 +11887,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B38">
         <v>90</v>
@@ -11637,18 +11904,18 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" si="1"/>
-        <v>-1.6389333333333252E-2</v>
+        <v>-1.0240000000000767E-3</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="20">
         <f t="shared" si="2"/>
-        <v>-1.4750399999999928</v>
+        <v>-9.2160000000006903E-2</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J38" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="47"/>
@@ -11699,7 +11966,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="7" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B39">
         <v>90</v>
@@ -11716,18 +11983,18 @@
       </c>
       <c r="F39" s="30">
         <f t="shared" si="1"/>
-        <v>-2.4014222222222121E-2</v>
+        <v>-8.7679999999999668E-3</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="20">
         <f t="shared" si="2"/>
-        <v>-2.1612799999999908</v>
+        <v>-0.78911999999999694</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>313</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="47"/>
@@ -11778,7 +12045,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B40">
         <v>135</v>
@@ -11795,18 +12062,18 @@
       </c>
       <c r="F40" s="30">
         <f t="shared" si="1"/>
-        <v>-4.0280651851851965E-2</v>
+        <v>-2.5288533333333505E-2</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="20">
         <f t="shared" ref="H40" si="57">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>-5.4378880000000152</v>
+        <v>-3.4139520000000232</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J40" t="s">
-        <v>124</v>
+        <v>314</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" ref="K40" si="58">D40*C40</f>
@@ -11857,7 +12124,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B41">
         <v>135</v>
@@ -11874,18 +12141,18 @@
       </c>
       <c r="F41" s="30">
         <f t="shared" si="1"/>
-        <v>-6.3727185185185234E-2</v>
+        <v>-4.9101333333333351E-2</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="20">
         <f t="shared" ref="H41" si="69">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-8.6031700000000058</v>
+        <v>-6.6286800000000028</v>
       </c>
       <c r="I41" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J41" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" ref="K41" si="70">D41*C41</f>
@@ -11940,7 +12207,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B42">
         <v>135</v>
@@ -11957,18 +12224,18 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="1"/>
-        <v>-7.8849881481481476E-2</v>
+        <v>-6.4460266666666738E-2</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="20">
         <f t="shared" ref="H42" si="81">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-10.644734</v>
+        <v>-8.7021360000000101</v>
       </c>
       <c r="I42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J42" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" ref="K42" si="82">D42*C42</f>
@@ -12023,7 +12290,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="36" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B43">
         <v>135</v>
@@ -12040,18 +12307,18 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="1"/>
-        <v>-9.0033051851851814E-2</v>
+        <v>-7.5818133333333274E-2</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="20">
         <f t="shared" ref="H43" si="94">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-12.154461999999995</v>
+        <v>-10.235447999999991</v>
       </c>
       <c r="I43" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J43" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" ref="K43" si="95">D43*C43</f>
@@ -12106,7 +12373,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="36" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B44">
         <v>135</v>
@@ -12123,18 +12390,18 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="1"/>
-        <v>-5.7690814814814771E-2</v>
+        <v>-4.2970666666666671E-2</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="20">
         <f t="shared" ref="H44" si="107">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>-7.788259999999994</v>
+        <v>-5.8010400000000004</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J44" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" ref="K44" si="108">D44*C44</f>
@@ -12185,7 +12452,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="36" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B45">
         <v>135</v>
@@ -12202,18 +12469,18 @@
       </c>
       <c r="F45" s="30">
         <f t="shared" si="1"/>
-        <v>-9.1049703703703661E-2</v>
+        <v>-7.6850666666666609E-2</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="20">
         <f t="shared" ref="H45:H49" si="120">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>-12.291709999999995</v>
+        <v>-10.374839999999992</v>
       </c>
       <c r="I45" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" ref="K45:K49" si="121">D45*C45</f>
@@ -12264,7 +12531,7 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="36" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B46">
         <v>135</v>
@@ -12281,18 +12548,18 @@
       </c>
       <c r="F46" s="30">
         <f t="shared" si="1"/>
-        <v>-0.10553699259259251</v>
+        <v>-9.1564266666666672E-2</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="20">
         <f t="shared" si="120"/>
-        <v>-14.247493999999989</v>
+        <v>-12.361176</v>
       </c>
       <c r="I46" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="121"/>
@@ -12343,7 +12610,7 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="36" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B47">
         <v>135</v>
@@ -12360,18 +12627,18 @@
       </c>
       <c r="F47" s="30">
         <f t="shared" si="1"/>
-        <v>-8.5712281481481564E-2</v>
+        <v>-7.1429866666666814E-2</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="20">
         <f t="shared" si="120"/>
-        <v>-11.571158000000011</v>
+        <v>-9.6430320000000194</v>
       </c>
       <c r="I47" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J47" t="s">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="121"/>
@@ -12422,7 +12689,7 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="36" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B48">
         <v>135</v>
@@ -12439,18 +12706,18 @@
       </c>
       <c r="F48" s="30">
         <f t="shared" si="1"/>
-        <v>-6.5188622222222159E-2</v>
+        <v>-5.0585600000000064E-2</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="20">
         <f t="shared" si="120"/>
-        <v>-8.800463999999991</v>
+        <v>-6.8290560000000085</v>
       </c>
       <c r="I48" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J48" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="121"/>
@@ -12501,7 +12768,7 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="36" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B49">
         <v>135</v>
@@ -12518,18 +12785,18 @@
       </c>
       <c r="F49" s="30">
         <f t="shared" si="1"/>
-        <v>-7.4973896296296194E-2</v>
+        <v>-6.0523733333333232E-2</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="20">
         <f t="shared" si="120"/>
-        <v>-10.121475999999987</v>
+        <v>-8.1707039999999864</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J49" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="121"/>
@@ -12580,7 +12847,7 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="36" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="B50">
         <v>135</v>
@@ -12597,18 +12864,18 @@
       </c>
       <c r="F50" s="30">
         <f t="shared" si="1"/>
-        <v>-9.7594399999999942E-2</v>
+        <v>-8.3497600000000019E-2</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="20">
         <f t="shared" ref="H50:H54" si="133">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>-13.175243999999992</v>
+        <v>-11.272176000000002</v>
       </c>
       <c r="I50" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J50" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" ref="K50:K54" si="134">D50*C50</f>
@@ -12659,7 +12926,7 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="36" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="B51">
         <v>135</v>
@@ -12676,18 +12943,18 @@
       </c>
       <c r="F51" s="30">
         <f t="shared" si="1"/>
-        <v>-0.10083497777777782</v>
+        <v>-8.6788800000000096E-2</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="20">
         <f t="shared" si="133"/>
-        <v>-13.612722000000005</v>
+        <v>-11.716488000000012</v>
       </c>
       <c r="I51" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="134"/>
@@ -12742,7 +13009,7 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="36" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="B52">
         <v>135</v>
@@ -12759,18 +13026,18 @@
       </c>
       <c r="F52" s="30">
         <f t="shared" si="1"/>
-        <v>-9.9627703703703746E-2</v>
+        <v>-8.5562666666666801E-2</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="20">
         <f t="shared" si="133"/>
-        <v>-13.449740000000006</v>
+        <v>-11.550960000000018</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J52" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="134"/>
@@ -12821,7 +13088,7 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="36" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="B53">
         <v>135</v>
@@ -12838,18 +13105,18 @@
       </c>
       <c r="F53" s="30">
         <f t="shared" si="1"/>
-        <v>-0.11119211851851853</v>
+        <v>-9.7307733333333341E-2</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="20">
         <f t="shared" si="133"/>
-        <v>-15.010936000000001</v>
+        <v>-13.136544000000001</v>
       </c>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J53" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="134"/>
@@ -12904,7 +13171,7 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="36" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="B54">
         <v>135</v>
@@ -12921,18 +13188,18 @@
       </c>
       <c r="F54" s="30">
         <f t="shared" si="1"/>
-        <v>-0.11602121481481481</v>
+        <v>-0.10221226666666662</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="20">
         <f t="shared" si="133"/>
-        <v>-15.662863999999999</v>
+        <v>-13.798655999999994</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J54" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="134"/>
@@ -12984,7 +13251,7 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="36" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="B55">
         <v>135</v>
@@ -13001,18 +13268,18 @@
       </c>
       <c r="F55" s="30">
         <f t="shared" si="1"/>
-        <v>-0.10521928888888891</v>
+        <v>-9.1241600000000117E-2</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="20">
         <f t="shared" ref="H55:H59" si="146">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>-14.204604000000003</v>
+        <v>-12.317616000000015</v>
       </c>
       <c r="I55" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J55" t="s">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" ref="K55:K59" si="147">D55*C55</f>
@@ -13063,7 +13330,7 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="36" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="B56">
         <v>135</v>
@@ -13080,18 +13347,18 @@
       </c>
       <c r="F56" s="30">
         <f t="shared" si="1"/>
-        <v>-8.0883185185185183E-2</v>
+        <v>-6.6525333333333311E-2</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="20">
         <f t="shared" si="146"/>
-        <v>-10.919229999999999</v>
+        <v>-8.9809199999999976</v>
       </c>
       <c r="I56" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J56" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="147"/>
@@ -13142,7 +13409,7 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="36" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="B57">
         <v>135</v>
@@ -13159,18 +13426,18 @@
       </c>
       <c r="F57" s="30">
         <f t="shared" si="1"/>
-        <v>-8.9079940740740604E-2</v>
+        <v>-7.4850133333333277E-2</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="20">
         <f t="shared" si="146"/>
-        <v>-12.025791999999981</v>
+        <v>-10.104767999999993</v>
       </c>
       <c r="I57" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J57" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="147"/>
@@ -13221,7 +13488,7 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="36" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="B58">
         <v>135</v>
@@ -13238,18 +13505,18 @@
       </c>
       <c r="F58" s="30">
         <f t="shared" si="1"/>
-        <v>-7.6816577777777784E-2</v>
+        <v>-6.239520000000006E-2</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="20">
         <f t="shared" si="146"/>
-        <v>-10.370238000000001</v>
+        <v>-8.4233520000000084</v>
       </c>
       <c r="I58" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J58" t="s">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="147"/>
@@ -13300,7 +13567,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="36" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="B59">
         <v>135</v>
@@ -13317,18 +13584,18 @@
       </c>
       <c r="F59" s="30">
         <f t="shared" si="1"/>
-        <v>-0.10490158518518511</v>
+        <v>-9.091893333333334E-2</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="20">
         <f t="shared" si="146"/>
-        <v>-14.161713999999989</v>
+        <v>-12.274056000000002</v>
       </c>
       <c r="I59" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J59" t="s">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="147"/>
@@ -13379,7 +13646,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="36" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="B60">
         <v>135</v>
@@ -13396,18 +13663,18 @@
       </c>
       <c r="F60" s="30">
         <f t="shared" si="1"/>
-        <v>-0.13590946666666659</v>
+        <v>-0.12241119999999994</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="20">
         <f t="shared" ref="H60" si="159">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>-18.347777999999991</v>
+        <v>-16.525511999999992</v>
       </c>
       <c r="I60" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J60" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" ref="K60" si="160">D60*C60</f>
@@ -13462,7 +13729,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="36" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="B61">
         <v>135</v>
@@ -13479,18 +13746,18 @@
       </c>
       <c r="F61" s="30">
         <f t="shared" ref="F61:F63" si="172">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>-0.13851463703703695</v>
+        <v>-0.12505706666666658</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="20">
         <f t="shared" ref="H61:H63" si="173">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>-18.69947599999999</v>
+        <v>-16.88270399999999</v>
       </c>
       <c r="I61" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J61" t="s">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" ref="K61:K63" si="174">D61*C61</f>
@@ -13541,7 +13808,7 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="36" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="B62">
         <v>120</v>
@@ -13558,18 +13825,18 @@
       </c>
       <c r="F62" s="30">
         <f t="shared" si="172"/>
-        <v>-0.14698938333333339</v>
+        <v>-0.13366420000000001</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="20">
         <f t="shared" si="173"/>
-        <v>-17.638726000000005</v>
+        <v>-16.039704</v>
       </c>
       <c r="I62" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J62" t="s">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="174"/>
@@ -13624,7 +13891,7 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="36" t="s">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="B63">
         <v>120</v>
@@ -13641,18 +13908,18 @@
       </c>
       <c r="F63" s="30">
         <f t="shared" si="172"/>
-        <v>-0.15192173333333336</v>
+        <v>-0.13867360000000004</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="20">
         <f t="shared" si="173"/>
-        <v>-18.230608000000004</v>
+        <v>-16.640832000000003</v>
       </c>
       <c r="I63" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J63" t="s">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="174"/>
@@ -13707,7 +13974,7 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="36" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="B64">
         <v>120</v>
@@ -13724,18 +13991,18 @@
       </c>
       <c r="F64" s="30">
         <f t="shared" ref="F64:F68" si="186">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-0.14849053333333326</v>
+        <v>-0.1351888</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="20">
         <f t="shared" ref="H64:H68" si="187">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-17.818863999999991</v>
+        <v>-16.222656000000001</v>
       </c>
       <c r="I64" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J64" t="s">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" ref="K64:K68" si="188">D64*C64</f>
@@ -13786,7 +14053,7 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="36" t="s">
-        <v>284</v>
+        <v>167</v>
       </c>
       <c r="B65">
         <v>120</v>
@@ -13803,18 +14070,18 @@
       </c>
       <c r="F65" s="30">
         <f t="shared" si="186"/>
-        <v>-0.14992020000000003</v>
+        <v>-0.13664079999999998</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="20">
         <f t="shared" si="187"/>
-        <v>-17.990424000000004</v>
+        <v>-16.396895999999998</v>
       </c>
       <c r="I65" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J65" t="s">
-        <v>285</v>
+        <v>87</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="188"/>
@@ -13865,7 +14132,7 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="36" t="s">
-        <v>286</v>
+        <v>168</v>
       </c>
       <c r="B66">
         <v>120</v>
@@ -13882,18 +14149,18 @@
       </c>
       <c r="F66" s="30">
         <f t="shared" si="186"/>
-        <v>-0.1489909166666667</v>
+        <v>-0.13569700000000004</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="20">
         <f t="shared" si="187"/>
-        <v>-17.878910000000005</v>
+        <v>-16.283640000000005</v>
       </c>
       <c r="I66" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J66" t="s">
-        <v>287</v>
+        <v>88</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="188"/>
@@ -13944,7 +14211,7 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="36" t="s">
-        <v>288</v>
+        <v>169</v>
       </c>
       <c r="B67">
         <v>120</v>
@@ -13961,18 +14228,18 @@
       </c>
       <c r="F67" s="30">
         <f t="shared" si="186"/>
-        <v>-0.13154898333333331</v>
+        <v>-0.11798260000000009</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="20">
         <f t="shared" si="187"/>
-        <v>-15.785877999999997</v>
+        <v>-14.15791200000001</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J67" t="s">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="188"/>
@@ -14023,7 +14290,7 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="36" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="B68">
         <v>135</v>
@@ -14040,18 +14307,18 @@
       </c>
       <c r="F68" s="30">
         <f t="shared" si="186"/>
-        <v>-0.12955539259259255</v>
+        <v>-0.11595786666666659</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="20">
         <f t="shared" si="187"/>
-        <v>-17.489977999999994</v>
+        <v>-15.65431199999999</v>
       </c>
       <c r="I68" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J68" t="s">
-        <v>291</v>
+        <v>90</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="188"/>
@@ -14102,7 +14369,7 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="36" t="s">
-        <v>302</v>
+        <v>171</v>
       </c>
       <c r="B69">
         <v>135</v>
@@ -14119,18 +14386,18 @@
       </c>
       <c r="F69" s="30">
         <f t="shared" ref="F69:F73" si="200">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>-0.12065968888888898</v>
+        <v>-0.10692320000000016</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="20">
         <f t="shared" ref="H69:H73" si="201">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>-16.289058000000011</v>
+        <v>-14.434632000000022</v>
       </c>
       <c r="I69" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J69" t="s">
-        <v>303</v>
+        <v>91</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K73" si="202">D69*C69</f>
@@ -14181,7 +14448,7 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="36" t="s">
-        <v>304</v>
+        <v>172</v>
       </c>
       <c r="B70">
         <v>135</v>
@@ -14198,18 +14465,18 @@
       </c>
       <c r="F70" s="30">
         <f t="shared" si="200"/>
-        <v>-0.13806985185185178</v>
+        <v>-0.12460533333333333</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="20">
         <f t="shared" si="201"/>
-        <v>-18.63942999999999</v>
+        <v>-16.821719999999999</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J70" t="s">
-        <v>305</v>
+        <v>92</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="202"/>
@@ -14260,7 +14527,7 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="36" t="s">
-        <v>306</v>
+        <v>173</v>
       </c>
       <c r="B71">
         <v>120</v>
@@ -14277,18 +14544,18 @@
       </c>
       <c r="F71" s="30">
         <f t="shared" si="200"/>
-        <v>-0.14227148333333339</v>
+        <v>-0.12887260000000006</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="20">
         <f t="shared" si="201"/>
-        <v>-17.072578000000007</v>
+        <v>-15.464712000000006</v>
       </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J71" t="s">
-        <v>307</v>
+        <v>93</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="202"/>
@@ -14339,7 +14606,7 @@
     </row>
     <row r="72" spans="1:23">
       <c r="A72" s="36" t="s">
-        <v>308</v>
+        <v>174</v>
       </c>
       <c r="B72">
         <v>120</v>
@@ -14356,18 +14623,18 @@
       </c>
       <c r="F72" s="30">
         <f t="shared" si="200"/>
-        <v>-0.13769655000000008</v>
+        <v>-0.12422620000000002</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="20">
         <f t="shared" si="201"/>
-        <v>-16.523586000000009</v>
+        <v>-14.907144000000002</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J72" t="s">
-        <v>309</v>
+        <v>94</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="202"/>
@@ -14418,7 +14685,7 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="36" t="s">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="B73">
         <v>120</v>
@@ -14435,18 +14702,18 @@
       </c>
       <c r="F73" s="30">
         <f t="shared" si="200"/>
-        <v>-0.14270038333333326</v>
+        <v>-0.12930819999999996</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="20">
         <f t="shared" si="201"/>
-        <v>-17.124045999999993</v>
+        <v>-15.516983999999994</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J73" t="s">
-        <v>311</v>
+        <v>95</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="202"/>
@@ -14497,7 +14764,7 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="36" t="s">
-        <v>323</v>
+        <v>176</v>
       </c>
       <c r="B74">
         <v>120</v>
@@ -14514,18 +14781,18 @@
       </c>
       <c r="F74" s="30">
         <f t="shared" ref="F74:F78" si="214">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
-        <v>-0.13026228333333331</v>
+        <v>-0.11667580000000004</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="20">
         <f t="shared" ref="H74:H78" si="215">IF(G74="",$F$1*C74-B74,G74-B74)</f>
-        <v>-15.631473999999997</v>
+        <v>-14.001096000000004</v>
       </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J74" t="s">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" ref="K74:K78" si="216">D74*C74</f>
@@ -14576,7 +14843,7 @@
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="36" t="s">
-        <v>325</v>
+        <v>177</v>
       </c>
       <c r="B75">
         <v>135</v>
@@ -14593,18 +14860,18 @@
       </c>
       <c r="F75" s="30">
         <f t="shared" si="214"/>
-        <v>-0.1166566222222221</v>
+        <v>-0.10285759999999995</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="20">
         <f t="shared" si="215"/>
-        <v>-15.748643999999985</v>
+        <v>-13.885775999999993</v>
       </c>
       <c r="I75" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J75" t="s">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="216"/>
@@ -14655,7 +14922,7 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="36" t="s">
-        <v>327</v>
+        <v>178</v>
       </c>
       <c r="B76">
         <v>135</v>
@@ -14672,18 +14939,18 @@
       </c>
       <c r="F76" s="30">
         <f t="shared" si="214"/>
-        <v>-0.12434505185185182</v>
+        <v>-0.11066613333333329</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="20">
         <f t="shared" si="215"/>
-        <v>-16.786581999999996</v>
+        <v>-14.939927999999995</v>
       </c>
       <c r="I76" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J76" t="s">
-        <v>328</v>
+        <v>99</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="216"/>
@@ -14734,7 +15001,7 @@
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="36" t="s">
-        <v>329</v>
+        <v>179</v>
       </c>
       <c r="B77">
         <v>135</v>
@@ -14751,18 +15018,18 @@
       </c>
       <c r="F77" s="30">
         <f t="shared" si="214"/>
-        <v>-9.0350755555555523E-2</v>
+        <v>-7.6140800000000036E-2</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="20">
         <f t="shared" si="215"/>
-        <v>-12.197351999999995</v>
+        <v>-10.279008000000005</v>
       </c>
       <c r="I77" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J77" t="s">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="216"/>
@@ -14813,7 +15080,7 @@
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="36" t="s">
-        <v>331</v>
+        <v>180</v>
       </c>
       <c r="B78">
         <v>135</v>
@@ -14830,18 +15097,18 @@
       </c>
       <c r="F78" s="30">
         <f t="shared" si="214"/>
-        <v>-8.2662325925925914E-2</v>
+        <v>-6.8332266666666683E-2</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="20">
         <f t="shared" si="215"/>
-        <v>-11.159413999999998</v>
+        <v>-9.2248560000000026</v>
       </c>
       <c r="I78" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J78" t="s">
-        <v>332</v>
+        <v>101</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="216"/>
@@ -14892,7 +15159,7 @@
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="36" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="B79">
         <v>135</v>
@@ -14909,18 +15176,18 @@
       </c>
       <c r="F79" s="30">
         <f t="shared" ref="F79:F80" si="228">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
-        <v>-5.908871111111106E-2</v>
+        <v>-4.4390400000000024E-2</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="20">
         <f t="shared" ref="H79:H80" si="229">IF(G79="",$F$1*C79-B79,G79-B79)</f>
-        <v>-7.9769759999999934</v>
+        <v>-5.9927040000000034</v>
       </c>
       <c r="I79" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J79" t="s">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" ref="K79:K80" si="230">D79*C79</f>
@@ -14971,7 +15238,7 @@
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="36" t="s">
-        <v>335</v>
+        <v>182</v>
       </c>
       <c r="B80">
         <v>135</v>
@@ -14988,18 +15255,18 @@
       </c>
       <c r="F80" s="30">
         <f t="shared" si="228"/>
-        <v>-6.5887570370370407E-2</v>
+        <v>-5.1295466666666741E-2</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="20">
         <f t="shared" si="229"/>
-        <v>-8.8948220000000049</v>
+        <v>-6.9248880000000099</v>
       </c>
       <c r="I80" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J80" t="s">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="230"/>
@@ -15046,6 +15313,484 @@
       <c r="W80" s="1">
         <f t="shared" si="240"/>
         <v>0.54386273981809963</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B81">
+        <v>135</v>
+      </c>
+      <c r="C81" s="2">
+        <v>158.28</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" ref="E81" si="241">10%*M81+13%</f>
+        <v>0.21999800800000002</v>
+      </c>
+      <c r="F81" s="30">
+        <f t="shared" ref="F81" si="242">IF(G81="",($F$1*C81-B81)/B81,H81/B81)</f>
+        <v>2.1433599999999876E-2</v>
+      </c>
+      <c r="G81" s="9"/>
+      <c r="H81" s="20">
+        <f t="shared" ref="H81" si="243">IF(G81="",$F$1*C81-B81,G81-B81)</f>
+        <v>2.8935359999999832</v>
+      </c>
+      <c r="I81" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" t="s">
+        <v>268</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" ref="K81" si="244">D81*C81</f>
+        <v>134.99701200000001</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" ref="L81" si="245">K81-B81</f>
+        <v>-2.9879999999877782E-3</v>
+      </c>
+      <c r="M81" s="1">
+        <f t="shared" ref="M81" si="246">K81/150</f>
+        <v>0.89998008000000007</v>
+      </c>
+      <c r="N81" s="6">
+        <f t="shared" ref="N81" si="247">N80+C81-P81</f>
+        <v>6305.3800000000019</v>
+      </c>
+      <c r="O81" s="2">
+        <f t="shared" ref="O81" si="248">N81*D81</f>
+        <v>5377.8586020000012</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="6">
+        <f t="shared" ref="R81" si="249">Q81+R80</f>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S81" s="6">
+        <f t="shared" ref="S81" si="250">O81+R81</f>
+        <v>12108.378602000001</v>
+      </c>
+      <c r="T81">
+        <f t="shared" ref="T81" si="251">T80+B81</f>
+        <v>11325</v>
+      </c>
+      <c r="U81" s="4">
+        <f t="shared" ref="U81" si="252">S81/T81-1</f>
+        <v>6.917250348785875E-2</v>
+      </c>
+      <c r="V81" s="4">
+        <f t="shared" ref="V81" si="253">O81/(T81-R81)-1</f>
+        <v>0.17050430124845484</v>
+      </c>
+      <c r="W81" s="1">
+        <f t="shared" ref="W81" si="254">R81/S81</f>
+        <v>0.55585642151033221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B82">
+        <v>90</v>
+      </c>
+      <c r="C82" s="2">
+        <v>104.2</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" ref="E82:E86" si="255">10%*M82+13%</f>
+        <v>0.18999836000000001</v>
+      </c>
+      <c r="F82" s="30">
+        <f t="shared" ref="F82:F86" si="256">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
+        <v>8.6559999999999433E-3</v>
+      </c>
+      <c r="G82" s="9"/>
+      <c r="H82" s="20">
+        <f t="shared" ref="H82:H86" si="257">IF(G82="",$F$1*C82-B82,G82-B82)</f>
+        <v>0.77903999999999485</v>
+      </c>
+      <c r="I82" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" t="s">
+        <v>271</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" ref="K82:K86" si="258">D82*C82</f>
+        <v>89.997540000000001</v>
+      </c>
+      <c r="L82" s="2">
+        <f t="shared" ref="L82:L86" si="259">K82-B82</f>
+        <v>-2.4599999999992406E-3</v>
+      </c>
+      <c r="M82" s="1">
+        <f t="shared" ref="M82:M86" si="260">K82/150</f>
+        <v>0.59998359999999995</v>
+      </c>
+      <c r="N82" s="6">
+        <f t="shared" ref="N82:N84" si="261">N81+C82-P82</f>
+        <v>6409.5800000000017</v>
+      </c>
+      <c r="O82" s="2">
+        <f t="shared" ref="O82:O86" si="262">N82*D82</f>
+        <v>5535.9542460000021</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="6">
+        <f t="shared" ref="R82:R84" si="263">Q82+R81</f>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S82" s="6">
+        <f t="shared" ref="S82:S86" si="264">O82+R82</f>
+        <v>12266.474246000002</v>
+      </c>
+      <c r="T82">
+        <f t="shared" ref="T82:T84" si="265">T81+B82</f>
+        <v>11415</v>
+      </c>
+      <c r="U82" s="4">
+        <f t="shared" ref="U82:U86" si="266">S82/T82-1</f>
+        <v>7.4592575208059619E-2</v>
+      </c>
+      <c r="V82" s="4">
+        <f t="shared" ref="V82:V86" si="267">O82/(T82-R82)-1</f>
+        <v>0.18176494424141021</v>
+      </c>
+      <c r="W82" s="1">
+        <f t="shared" ref="W82:W86" si="268">R82/S82</f>
+        <v>0.54869230269608793</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B83">
+        <v>90</v>
+      </c>
+      <c r="C83" s="2">
+        <v>104.64</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="255"/>
+        <v>0.190000576</v>
+      </c>
+      <c r="F83" s="30">
+        <f t="shared" si="256"/>
+        <v>1.2915200000000009E-2</v>
+      </c>
+      <c r="G83" s="9"/>
+      <c r="H83" s="20">
+        <f t="shared" si="257"/>
+        <v>1.1623680000000007</v>
+      </c>
+      <c r="I83" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" t="s">
+        <v>273</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="258"/>
+        <v>90.000863999999993</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" si="259"/>
+        <v>8.6399999999287047E-4</v>
+      </c>
+      <c r="M83" s="1">
+        <f t="shared" si="260"/>
+        <v>0.60000575999999994</v>
+      </c>
+      <c r="N83" s="6">
+        <f t="shared" si="261"/>
+        <v>6514.2200000000021</v>
+      </c>
+      <c r="O83" s="2">
+        <f t="shared" si="262"/>
+        <v>5602.8806220000015</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="6">
+        <f t="shared" si="263"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S83" s="6">
+        <f t="shared" si="264"/>
+        <v>12333.400622000001</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="265"/>
+        <v>11505</v>
+      </c>
+      <c r="U83" s="4">
+        <f t="shared" si="266"/>
+        <v>7.2003530812690286E-2</v>
+      </c>
+      <c r="V83" s="4">
+        <f t="shared" si="267"/>
+        <v>0.17350593614383159</v>
+      </c>
+      <c r="W83" s="1">
+        <f t="shared" si="268"/>
+        <v>0.54571486050605311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B84">
+        <v>90</v>
+      </c>
+      <c r="C84" s="2">
+        <v>105.82</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="255"/>
+        <v>0.18999994000000001</v>
+      </c>
+      <c r="F84" s="30">
+        <f t="shared" si="256"/>
+        <v>2.4337599999999938E-2</v>
+      </c>
+      <c r="G84" s="9"/>
+      <c r="H84" s="20">
+        <f t="shared" si="257"/>
+        <v>2.1903839999999946</v>
+      </c>
+      <c r="I84" t="s">
+        <v>7</v>
+      </c>
+      <c r="J84" t="s">
+        <v>275</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="258"/>
+        <v>89.99991</v>
+      </c>
+      <c r="L84" s="2">
+        <f t="shared" si="259"/>
+        <v>-9.0000000000145519E-5</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" si="260"/>
+        <v>0.59999939999999996</v>
+      </c>
+      <c r="N84" s="6">
+        <f t="shared" si="261"/>
+        <v>6620.0400000000018</v>
+      </c>
+      <c r="O84" s="2">
+        <f t="shared" si="262"/>
+        <v>5630.3440200000014</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="6">
+        <f t="shared" si="263"/>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S84" s="6">
+        <f t="shared" si="264"/>
+        <v>12360.864020000001</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="265"/>
+        <v>11595</v>
+      </c>
+      <c r="U84" s="4">
+        <f t="shared" si="266"/>
+        <v>6.6051230702889319E-2</v>
+      </c>
+      <c r="V84" s="4">
+        <f t="shared" si="267"/>
+        <v>0.15744005936914141</v>
+      </c>
+      <c r="W84" s="1">
+        <f t="shared" si="268"/>
+        <v>0.54450238989037913</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B85" s="26">
+        <v>500</v>
+      </c>
+      <c r="C85" s="27">
+        <v>587.89</v>
+      </c>
+      <c r="D85" s="28">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="E85" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="F85" s="30">
+        <f t="shared" ref="F85:F86" si="269">IF(G85="",($F$1*C85-B85)/B85,H85/B85)</f>
+        <v>3.4599999999999909E-2</v>
+      </c>
+      <c r="G85" s="31">
+        <v>517.29999999999995</v>
+      </c>
+      <c r="H85" s="33">
+        <f t="shared" ref="H85:H86" si="270">IF(G85="",$F$1*C85-B85,G85-B85)</f>
+        <v>17.299999999999955</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" ref="K85:K86" si="271">D85*C85</f>
+        <v>500.00044500000001</v>
+      </c>
+      <c r="L85" s="2">
+        <f t="shared" ref="L85:L86" si="272">K85-B85</f>
+        <v>4.4500000001335138E-4</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="6">
+        <f t="shared" ref="N85:N86" si="273">N84+C85-P85</f>
+        <v>7207.9300000000021</v>
+      </c>
+      <c r="O85" s="2">
+        <f t="shared" ref="O85:O86" si="274">N85*D85</f>
+        <v>6130.3444650000019</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="6">
+        <f t="shared" ref="R85:R86" si="275">Q85+R84</f>
+        <v>6730.5199999999995</v>
+      </c>
+      <c r="S85" s="6">
+        <f t="shared" ref="S85:S86" si="276">O85+R85</f>
+        <v>12860.864465000002</v>
+      </c>
+      <c r="T85">
+        <f t="shared" ref="T85:T86" si="277">T84+B85</f>
+        <v>12095</v>
+      </c>
+      <c r="U85" s="4">
+        <f t="shared" ref="U85:U86" si="278">S85/T85-1</f>
+        <v>6.3320749483257721E-2</v>
+      </c>
+      <c r="V85" s="4">
+        <f t="shared" ref="V85:V86" si="279">O85/(T85-R85)-1</f>
+        <v>0.1427658347127776</v>
+      </c>
+      <c r="W85" s="1">
+        <f t="shared" ref="W85:W86" si="280">R85/S85</f>
+        <v>0.5233334056444392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B86">
+        <v>90</v>
+      </c>
+      <c r="C86" s="2">
+        <v>102.35</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" ref="E85:E86" si="281">10%*M86+13%</f>
+        <v>0.18999757</v>
+      </c>
+      <c r="F86" s="30">
+        <f t="shared" si="269"/>
+        <v>-9.2520000000001178E-3</v>
+      </c>
+      <c r="G86" s="9"/>
+      <c r="H86" s="20">
+        <f t="shared" si="270"/>
+        <v>-0.83268000000001052</v>
+      </c>
+      <c r="I86" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" t="s">
+        <v>277</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="271"/>
+        <v>89.996354999999994</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" si="272"/>
+        <v>-3.6450000000058935E-3</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" ref="M85:M86" si="282">K86/150</f>
+        <v>0.5999757</v>
+      </c>
+      <c r="N86" s="6">
+        <f t="shared" si="273"/>
+        <v>6722.3900000000021</v>
+      </c>
+      <c r="O86" s="2">
+        <f t="shared" si="274"/>
+        <v>5910.9975270000014</v>
+      </c>
+      <c r="P86" s="2">
+        <v>587.89</v>
+      </c>
+      <c r="Q86" s="16">
+        <v>517.29999999999995</v>
+      </c>
+      <c r="R86" s="6">
+        <f t="shared" si="275"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S86" s="6">
+        <f t="shared" si="276"/>
+        <v>13158.817527000001</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="277"/>
+        <v>12185</v>
+      </c>
+      <c r="U86" s="4">
+        <f t="shared" si="278"/>
+        <v>7.9919370291341885E-2</v>
+      </c>
+      <c r="V86" s="4">
+        <f t="shared" si="279"/>
+        <v>0.19724164948411871</v>
+      </c>
+      <c r="W86" s="1">
+        <f t="shared" si="280"/>
+        <v>0.55079569156791752</v>
       </c>
     </row>
   </sheetData>
@@ -15111,7 +15856,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F80">
+  <conditionalFormatting sqref="F2:F86">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -15169,17 +15914,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A540EBE3-67A8-CD40-8963-AF22FF3D45E0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF93A69B-2904-CA42-B22C-2758AA1FC97F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99642B07-7FDA-3D49-AA64-4C200F3C74E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hs300'!$A$1:$W$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'zz500'!$A$1:$W$1</definedName>
+    <definedName name="F">'zz500'!$H$35:$H$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -477,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="332">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -1416,10 +1417,6 @@
     <t>20190510购入</t>
   </si>
   <si>
-    <t>ZX_ZZ500_20190519</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20190102购入,20190305售出</t>
   </si>
   <si>
@@ -1533,16 +1530,67 @@
   <si>
     <t>20190509购入,20190510售出</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZX_ZZ500_20190509</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190513</t>
+  </si>
+  <si>
+    <t>20190513购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190514</t>
+  </si>
+  <si>
+    <t>20190514购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190515</t>
+  </si>
+  <si>
+    <t>20190515购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190516</t>
+  </si>
+  <si>
+    <t>20190516购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190517</t>
+  </si>
+  <si>
+    <t>20190517购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190513</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190514</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190515</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190516</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190517</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="\+0.00%;\-0.00%;0.00%"/>
+    <numFmt numFmtId="180" formatCode="[Red]\+0.00;[Green]\-0.00;0.00"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1667,7 +1715,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1684,7 +1732,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1694,15 +1741,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1714,12 +1752,8 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1729,6 +1763,25 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2061,13 +2114,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2077,9 +2130,9 @@
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="35" customWidth="1"/>
     <col min="7" max="7" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="42" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
@@ -2110,15 +2163,15 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="38">
         <v>1.1028</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="19" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19983),2)</f>
-        <v>盈利672.92</v>
+      <c r="H1" s="43" t="str">
+        <f>"盈利"&amp;ROUND(SUM(H2:H19981),2)</f>
+        <v>盈利670.8</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -2135,34 +2188,34 @@
       <c r="M1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="20" t="s">
         <v>29</v>
       </c>
       <c r="U1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2179,17 +2232,17 @@
       <c r="D2" s="13">
         <v>0.90059999999999996</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>0.23</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="37">
         <f>IF(G2="",($F$1*C2-B2)/B2,H2/B2)</f>
         <v>0.23680000000000007</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>185.52</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="44">
         <f>IF(G2="",$F$1*C2-B2,G2-B2)</f>
         <v>35.52000000000001</v>
       </c>
@@ -2257,17 +2310,17 @@
       <c r="D3" s="13">
         <v>0.89929999999999999</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="18">
         <v>0.23</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="37">
         <f t="shared" ref="F3:F60" si="4">IF(G3="",($F$1*C3-B3)/B3,H3/B3)</f>
         <v>0.23859999999999995</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>185.79</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="44">
         <f t="shared" ref="H3:H35" si="5">IF(G3="",$F$1*C3-B3,G3-B3)</f>
         <v>35.789999999999992</v>
       </c>
@@ -2325,36 +2378,36 @@
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>150</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="23">
         <v>163</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <v>0.91930000000000001</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="25">
         <v>0.23</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="37">
         <f t="shared" si="4"/>
         <v>0.23113333333333325</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="26">
         <v>184.67</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="45">
         <f t="shared" si="5"/>
         <v>34.669999999999987</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="22" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="2">
@@ -2404,36 +2457,36 @@
       </c>
     </row>
     <row r="5" spans="1:23" hidden="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="22">
         <v>150</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <v>160.84</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="24">
         <v>0.93169999999999997</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="25">
         <v>0.23</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="37">
         <f t="shared" si="4"/>
         <v>0.23153333333333326</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="26">
         <v>184.73</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="45">
         <f t="shared" si="5"/>
         <v>34.72999999999999</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="22" t="s">
         <v>48</v>
       </c>
       <c r="K5" s="2">
@@ -2484,36 +2537,36 @@
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>150</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="23">
         <v>162.41999999999999</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="24">
         <v>0.92259999999999998</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="25">
         <v>0.23</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="37">
         <f t="shared" si="4"/>
         <v>0.23359999999999995</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="26">
         <v>185.04</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="45">
         <f t="shared" si="5"/>
         <v>35.039999999999992</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="29" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="2">
@@ -2564,36 +2617,36 @@
       </c>
     </row>
     <row r="7" spans="1:23" hidden="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>150</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="23">
         <v>162.09</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="24">
         <v>0.92449999999999999</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="25">
         <v>0.23</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="37">
         <f t="shared" si="4"/>
         <v>0.23106666666666664</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="26">
         <v>184.66</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="45">
         <f t="shared" si="5"/>
         <v>34.659999999999997</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="22" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="2">
@@ -2644,36 +2697,36 @@
       </c>
     </row>
     <row r="8" spans="1:23" hidden="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="22">
         <v>150</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="23">
         <v>161.16</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="24">
         <v>0.92979999999999996</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="25">
         <v>0.23</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="37">
         <f t="shared" si="4"/>
         <v>0.23399999999999996</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="26">
         <v>185.1</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="45">
         <f t="shared" si="5"/>
         <v>35.099999999999994</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="22" t="s">
         <v>46</v>
       </c>
       <c r="K8" s="2">
@@ -2724,36 +2777,36 @@
       </c>
     </row>
     <row r="9" spans="1:23" hidden="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>150</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="23">
         <v>160.08000000000001</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="24">
         <v>0.93610000000000004</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="25">
         <v>0.23</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="37">
         <f t="shared" si="4"/>
         <v>0.23299999999999993</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="26">
         <v>184.95</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="45">
         <f t="shared" si="5"/>
         <v>34.949999999999989</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="22" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="2">
@@ -2804,36 +2857,36 @@
       </c>
     </row>
     <row r="10" spans="1:23" hidden="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="22">
         <v>150</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="23">
         <v>161.41999999999999</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="24">
         <v>0.92830000000000001</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="25">
         <v>0.23</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="37">
         <f t="shared" si="4"/>
         <v>0.23600000000000004</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="26">
         <v>185.4</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="45">
         <f t="shared" si="5"/>
         <v>35.400000000000006</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="22" t="s">
         <v>47</v>
       </c>
       <c r="K10" s="2">
@@ -2884,36 +2937,36 @@
       </c>
     </row>
     <row r="11" spans="1:23" hidden="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>150</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="23">
         <v>158.5</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="24">
         <v>0.94540000000000002</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="25">
         <v>0.23</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="37">
         <f t="shared" si="4"/>
         <v>0.25173333333333325</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="26">
         <v>187.76</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="45">
         <f t="shared" si="5"/>
         <v>37.759999999999991</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="22" t="s">
         <v>72</v>
       </c>
       <c r="K11" s="2">
@@ -2964,36 +3017,36 @@
       </c>
     </row>
     <row r="12" spans="1:23" hidden="1">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <v>150</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="23">
         <v>158.47</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="24">
         <v>0.9456</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="25">
         <v>0.23</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="37">
         <f t="shared" si="4"/>
         <v>0.25146666666666667</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="26">
         <v>187.72</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="45">
         <f t="shared" si="5"/>
         <v>37.72</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="22" t="s">
         <v>73</v>
       </c>
       <c r="K12" s="2">
@@ -3044,36 +3097,36 @@
       </c>
     </row>
     <row r="13" spans="1:23" hidden="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <v>150</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="23">
         <v>159.30000000000001</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="24">
         <v>0.94069999999999998</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="25">
         <v>0.23</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="37">
         <f t="shared" si="4"/>
         <v>0.25813333333333333</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="26">
         <v>188.72</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="45">
         <f t="shared" si="5"/>
         <v>38.72</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="22" t="s">
         <v>74</v>
       </c>
       <c r="K13" s="2">
@@ -3124,36 +3177,36 @@
       </c>
     </row>
     <row r="14" spans="1:23" hidden="1">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="22">
         <v>150</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="23">
         <v>156.62</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="24">
         <v>0.95679999999999998</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="25">
         <v>0.23</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="37">
         <f t="shared" si="4"/>
         <v>0.23686666666666667</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="26">
         <v>185.53</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="45">
         <f t="shared" si="5"/>
         <v>35.53</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="22" t="s">
         <v>75</v>
       </c>
       <c r="K14" s="2">
@@ -3204,36 +3257,36 @@
       </c>
     </row>
     <row r="15" spans="1:23" hidden="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="22">
         <v>150</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="23">
         <v>155.80000000000001</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="24">
         <v>0.96179999999999999</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="25">
         <v>0.23</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="37">
         <f t="shared" si="4"/>
         <v>0.23046666666666663</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="26">
         <v>184.57</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="45">
         <f t="shared" si="5"/>
         <v>34.569999999999993</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="22" t="s">
         <v>76</v>
       </c>
       <c r="K15" s="2">
@@ -3284,36 +3337,36 @@
       </c>
     </row>
     <row r="16" spans="1:23" hidden="1">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="22">
         <v>150</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="23">
         <v>157.77000000000001</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="24">
         <v>0.94979999999999998</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="25">
         <v>0.23</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="37">
         <f t="shared" si="4"/>
         <v>0.24593333333333325</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="26">
         <v>186.89</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="45">
         <f t="shared" si="5"/>
         <v>36.889999999999986</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="22" t="s">
         <v>77</v>
       </c>
       <c r="K16" s="2">
@@ -3364,36 +3417,36 @@
       </c>
     </row>
     <row r="17" spans="1:23" hidden="1">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="22">
         <v>150</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="23">
         <v>157.85</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="24">
         <v>0.94930000000000003</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="25">
         <v>0.23</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="37">
         <f t="shared" si="4"/>
         <v>0.24666666666666667</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="26">
         <v>187</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="45">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="22" t="s">
         <v>78</v>
       </c>
       <c r="K17" s="2">
@@ -3444,36 +3497,36 @@
       </c>
     </row>
     <row r="18" spans="1:23" hidden="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="22">
         <v>150</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="23">
         <v>157.03</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="24">
         <v>0.95430000000000004</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="25">
         <v>0.23</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="37">
         <f t="shared" si="4"/>
         <v>0.24013333333333339</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="26">
         <v>186.02</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="45">
         <f t="shared" si="5"/>
         <v>36.02000000000001</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="22" t="s">
         <v>79</v>
       </c>
       <c r="K18" s="2">
@@ -3524,36 +3577,36 @@
       </c>
     </row>
     <row r="19" spans="1:23" hidden="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="22">
         <v>150</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="23">
         <v>155.83000000000001</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="24">
         <v>0.96160000000000001</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="25">
         <v>0.23</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="37">
         <f t="shared" si="4"/>
         <v>0.23066666666666663</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="26">
         <v>184.6</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="45">
         <f t="shared" si="5"/>
         <v>34.599999999999994</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="22" t="s">
         <v>80</v>
       </c>
       <c r="K19" s="2">
@@ -3616,15 +3669,15 @@
       <c r="D20" s="3">
         <v>0.96140000000000003</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="19">
         <f>10%*M20+13%</f>
         <v>0.30982025600000002</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="37">
         <f>IF(G20="",($F$1*C20-B20)/B20,H20/B20)</f>
         <v>0.14593173333333331</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="42">
         <f t="shared" si="5"/>
         <v>39.401567999999997</v>
       </c>
@@ -3694,15 +3747,15 @@
       <c r="D21" s="3">
         <v>0.96440000000000003</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="19">
         <f t="shared" ref="E21:E34" si="14">10%*M21+13%</f>
         <v>0.30982202400000003</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="37">
         <f t="shared" si="4"/>
         <v>0.14237826666666673</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="42">
         <f t="shared" si="5"/>
         <v>38.442132000000015</v>
       </c>
@@ -3772,15 +3825,15 @@
       <c r="D22" s="3">
         <v>0.95720000000000005</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="19">
         <f t="shared" si="14"/>
         <v>0.29983280533333334</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="37">
         <f t="shared" si="4"/>
         <v>0.15097722352941173</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="42">
         <f t="shared" si="5"/>
         <v>38.499191999999994</v>
       </c>
@@ -3850,15 +3903,15 @@
       <c r="D23" s="3">
         <v>0.96660000000000001</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="19">
         <f t="shared" si="14"/>
         <v>0.30981982000000002</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="37">
         <f t="shared" si="4"/>
         <v>0.13976422222222237</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="42">
         <f t="shared" si="5"/>
         <v>37.736340000000041</v>
       </c>
@@ -3928,15 +3981,15 @@
       <c r="D24" s="3">
         <v>0.97940000000000005</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="19">
         <f t="shared" si="14"/>
         <v>0.29983448933333334</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="37">
         <f t="shared" si="4"/>
         <v>0.12489924705882356</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="42">
         <f t="shared" si="5"/>
         <v>31.849308000000008</v>
       </c>
@@ -4006,15 +4059,15 @@
       <c r="D25" s="3">
         <v>0.996</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="19">
         <f t="shared" si="14"/>
         <v>0.29983128000000003</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="37">
         <f t="shared" si="4"/>
         <v>0.10613002352941174</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="42">
         <f t="shared" si="5"/>
         <v>27.063155999999992</v>
       </c>
@@ -4072,37 +4125,37 @@
       </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="22">
         <v>105</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="23">
         <v>104.62</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="24">
         <v>1.0026999999999999</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="25">
         <f t="shared" si="14"/>
         <v>0.19993498266666668</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="37">
         <f t="shared" si="4"/>
         <v>0.20447619047619048</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="26">
         <v>126.47</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="45">
         <f t="shared" si="5"/>
         <v>21.47</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="22" t="s">
         <v>85</v>
       </c>
       <c r="K26" s="2">
@@ -4165,15 +4218,15 @@
       <c r="D27" s="3">
         <v>1.0216000000000001</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="19">
         <f t="shared" si="14"/>
         <v>0.19993192533333337</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="37">
         <f t="shared" si="4"/>
         <v>7.8433371428571486E-2</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="42">
         <f t="shared" si="5"/>
         <v>8.2355040000000059</v>
       </c>
@@ -4231,37 +4284,37 @@
       </c>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="22">
         <v>90</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="23">
         <v>87.89</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="24">
         <v>1.0229999999999999</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="25">
         <f t="shared" si="14"/>
         <v>0.18994098000000001</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="37">
         <f t="shared" si="4"/>
         <v>0.19766666666666674</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="26">
         <v>107.79</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="45">
         <f t="shared" si="5"/>
         <v>17.790000000000006</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="22" t="s">
         <v>96</v>
       </c>
       <c r="K28" s="2">
@@ -4312,37 +4365,37 @@
       </c>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="22">
         <v>90</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="23">
         <v>89.46</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="24">
         <v>1.0049999999999999</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="25">
         <f t="shared" si="14"/>
         <v>0.1899382</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="37">
         <f t="shared" si="4"/>
         <v>0.19111111111111115</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="26">
         <v>107.2</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="45">
         <f t="shared" si="5"/>
         <v>17.200000000000003</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="22" t="s">
         <v>84</v>
       </c>
       <c r="K29" s="2">
@@ -4405,15 +4458,15 @@
       <c r="D30" s="3">
         <v>1.0350999999999999</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="19">
         <f t="shared" si="14"/>
         <v>0.18993919066666667</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="37">
         <f t="shared" si="4"/>
         <v>6.432453333333335E-2</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="42">
         <f t="shared" si="5"/>
         <v>5.7892080000000021</v>
       </c>
@@ -4483,15 +4536,15 @@
       <c r="D31" s="3">
         <v>1.0331999999999999</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="19">
         <f t="shared" si="14"/>
         <v>0.18993937599999999</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="37">
         <f t="shared" si="4"/>
         <v>6.6285066666666614E-2</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="42">
         <f t="shared" si="5"/>
         <v>5.9656559999999956</v>
       </c>
@@ -4561,15 +4614,15 @@
       <c r="D32" s="3">
         <v>1.0366</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="19">
         <f t="shared" si="14"/>
         <v>0.18994312266666666</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="37">
         <f t="shared" si="4"/>
         <v>6.2854133333333256E-2</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="42">
         <f t="shared" si="5"/>
         <v>5.6568719999999928</v>
       </c>
@@ -4639,15 +4692,15 @@
       <c r="D33" s="3">
         <v>1.0341</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="19">
         <f t="shared" si="14"/>
         <v>0.18994333000000002</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="37">
         <f t="shared" si="4"/>
         <v>6.5427333333333434E-2</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="42">
         <f t="shared" si="5"/>
         <v>5.8884600000000091</v>
       </c>
@@ -4717,15 +4770,15 @@
       <c r="D34" s="3">
         <v>1.0559000000000001</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="19">
         <f t="shared" si="14"/>
         <v>0.18993992333333334</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="37">
         <f t="shared" si="4"/>
         <v>4.3371333333333456E-2</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="42">
         <f t="shared" si="5"/>
         <v>3.9034200000000112</v>
       </c>
@@ -4795,15 +4848,15 @@
       <c r="D35" s="3">
         <v>1.1154999999999999</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="19">
         <f t="shared" ref="E35" si="24">10%*M35+13%</f>
         <v>0.21991673666666667</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="37">
         <f t="shared" si="4"/>
         <v>-1.2299644444444388E-2</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="42">
         <f t="shared" si="5"/>
         <v>-1.6604519999999923</v>
       </c>
@@ -4877,15 +4930,15 @@
       <c r="D36" s="3">
         <v>1.1029</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="19">
         <f t="shared" ref="E36" si="32">10%*M36+13%</f>
         <v>0.21991576066666668</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="37">
         <f t="shared" si="4"/>
         <v>-1.0265777777777674E-3</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="42">
         <f t="shared" ref="H36" si="33">IF(G36="",$F$1*C36-B36,G36-B36)</f>
         <v>-0.1385879999999986</v>
       </c>
@@ -4955,15 +5008,15 @@
       <c r="D37" s="3">
         <v>1.1009</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="19">
         <f t="shared" ref="E37:E39" si="43">10%*M37+13%</f>
         <v>0.21991417266666669</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="37">
         <f t="shared" si="4"/>
         <v>7.7057777777777452E-4</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="42">
         <f t="shared" ref="H37:H39" si="44">IF(G37="",$F$1*C37-B37,G37-B37)</f>
         <v>0.10402799999999957</v>
       </c>
@@ -5033,15 +5086,15 @@
       <c r="D38" s="3">
         <v>1.0982000000000001</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="19">
         <f t="shared" si="43"/>
         <v>0.2199132946666667</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="37">
         <f t="shared" si="4"/>
         <v>3.2212444444444034E-3</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="42">
         <f t="shared" si="44"/>
         <v>0.43486799999999448</v>
       </c>
@@ -5111,15 +5164,15 @@
       <c r="D39" s="3">
         <v>1.121</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="19">
         <f t="shared" si="43"/>
         <v>0.21991167333333334</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="37">
         <f t="shared" si="4"/>
         <v>-1.7200977777777855E-2</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="42">
         <f t="shared" si="44"/>
         <v>-2.3221320000000105</v>
       </c>
@@ -5189,15 +5242,15 @@
       <c r="D40" s="3">
         <v>1.1335</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="19">
         <f t="shared" ref="E40" si="48">10%*M40+13%</f>
         <v>0.21991677666666665</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="37">
         <f t="shared" si="4"/>
         <v>-2.7983911111111107E-2</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="42">
         <f t="shared" ref="H40" si="49">IF(G40="",$F$1*C40-B40,G40-B40)</f>
         <v>-3.7778279999999995</v>
       </c>
@@ -5271,15 +5324,15 @@
       <c r="D41" s="3">
         <v>1.1397999999999999</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="19">
         <f t="shared" ref="E41" si="60">10%*M41+13%</f>
         <v>0.21991502266666668</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="37">
         <f t="shared" si="4"/>
         <v>-3.3375377777777736E-2</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="42">
         <f t="shared" ref="H41" si="61">IF(G41="",$F$1*C41-B41,G41-B41)</f>
         <v>-4.505675999999994</v>
       </c>
@@ -5353,15 +5406,15 @@
       <c r="D42" s="3">
         <v>1.1491</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="19">
         <f t="shared" ref="E42" si="72">10%*M42+13%</f>
         <v>0.21991324466666667</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="37">
         <f t="shared" si="4"/>
         <v>-4.1217511111110987E-2</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="42">
         <f t="shared" ref="H42" si="73">IF(G42="",$F$1*C42-B42,G42-B42)</f>
         <v>-5.5643639999999834</v>
       </c>
@@ -5435,15 +5488,15 @@
       <c r="D43" s="3">
         <v>1.1379999999999999</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="19">
         <f t="shared" ref="E43" si="85">10%*M43+13%</f>
         <v>0.21990958666666666</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="37">
         <f t="shared" si="4"/>
         <v>-3.1904977777777628E-2</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="42">
         <f t="shared" ref="H43" si="86">IF(G43="",$F$1*C43-B43,G43-B43)</f>
         <v>-4.30717199999998</v>
       </c>
@@ -5513,15 +5566,15 @@
       <c r="D44" s="3">
         <v>1.0948</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="19">
         <f t="shared" ref="E44" si="98">10%*M44+13%</f>
         <v>0.21991227466666668</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="37">
         <f t="shared" si="4"/>
         <v>6.3254222222221199E-3</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="42">
         <f t="shared" ref="H44" si="99">IF(G44="",$F$1*C44-B44,G44-B44)</f>
         <v>0.85393199999998615</v>
       </c>
@@ -5591,15 +5644,15 @@
       <c r="D45" s="3">
         <v>1.1156999999999999</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="19">
         <f t="shared" ref="E45:E49" si="111">10%*M45+13%</f>
         <v>0.21991054399999999</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="37">
         <f t="shared" si="4"/>
         <v>-1.2544711111111072E-2</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="42">
         <f t="shared" ref="H45:H49" si="112">IF(G45="",$F$1*C45-B45,G45-B45)</f>
         <v>-1.6935359999999946</v>
       </c>
@@ -5669,15 +5722,15 @@
       <c r="D46" s="3">
         <v>1.1229</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="19">
         <f t="shared" si="111"/>
         <v>0.21991434600000001</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="37">
         <f t="shared" si="4"/>
         <v>-1.8834755555555468E-2</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="42">
         <f t="shared" si="112"/>
         <v>-2.5426919999999882</v>
       </c>
@@ -5747,15 +5800,15 @@
       <c r="D47" s="3">
         <v>1.1140000000000001</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="19">
         <f t="shared" si="111"/>
         <v>0.21991465333333335</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="37">
         <f t="shared" si="4"/>
         <v>-1.0992622222222213E-2</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="42">
         <f t="shared" si="112"/>
         <v>-1.4840039999999988</v>
       </c>
@@ -5825,15 +5878,15 @@
       <c r="D48" s="3">
         <v>1.1067</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="19">
         <f t="shared" si="111"/>
         <v>0.21991568600000003</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="37">
         <f t="shared" si="4"/>
         <v>-4.4575111111111324E-3</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="42">
         <f t="shared" si="112"/>
         <v>-0.60176400000000285</v>
       </c>
@@ -5903,15 +5956,15 @@
       <c r="D49" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="19">
         <f t="shared" si="111"/>
         <v>0.21991360000000004</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="37">
         <f t="shared" si="4"/>
         <v>-1.6302400000000085E-2</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="42">
         <f t="shared" si="112"/>
         <v>-2.2008240000000114</v>
       </c>
@@ -5981,15 +6034,15 @@
       <c r="D50" s="3">
         <v>1.1504000000000001</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="19">
         <f t="shared" ref="E50:E54" si="124">10%*M50+13%</f>
         <v>0.219915264</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="37">
         <f t="shared" si="4"/>
         <v>-4.2279466666666689E-2</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="42">
         <f t="shared" ref="H50:H54" si="125">IF(G50="",$F$1*C50-B50,G50-B50)</f>
         <v>-5.707728000000003</v>
       </c>
@@ -6059,15 +6112,15 @@
       <c r="D51" s="3">
         <v>1.1451</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="19">
         <f t="shared" si="124"/>
         <v>0.219913252</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="37">
         <f t="shared" si="4"/>
         <v>-3.7868266666666588E-2</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="42">
         <f t="shared" si="125"/>
         <v>-5.1122159999999894</v>
       </c>
@@ -6137,15 +6190,15 @@
       <c r="D52" s="3">
         <v>1.1455</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="19">
         <f t="shared" si="124"/>
         <v>0.21991411333333333</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="37">
         <f t="shared" si="4"/>
         <v>-3.8195022222222236E-2</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="42">
         <f t="shared" si="125"/>
         <v>-5.156328000000002</v>
       </c>
@@ -6215,15 +6268,15 @@
       <c r="D53" s="3">
         <v>1.1458999999999999</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="19">
         <f t="shared" si="124"/>
         <v>0.21991495333333333</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="37">
         <f t="shared" si="4"/>
         <v>-3.8521777777777676E-2</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="42">
         <f t="shared" si="125"/>
         <v>-5.2004399999999862</v>
       </c>
@@ -6293,15 +6346,15 @@
       <c r="D54" s="3">
         <v>1.1451</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="19">
         <f t="shared" si="124"/>
         <v>0.219913252</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="37">
         <f t="shared" si="4"/>
         <v>-3.7868266666666588E-2</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="42">
         <f t="shared" si="125"/>
         <v>-5.1122159999999894</v>
       </c>
@@ -6372,15 +6425,15 @@
       <c r="D55" s="3">
         <v>1.1193</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="19">
         <f t="shared" ref="E55:E59" si="137">10%*M55+13%</f>
         <v>0.21990963800000002</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="37">
         <f t="shared" si="4"/>
         <v>-1.5730577777777751E-2</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="42">
         <f t="shared" ref="H55:H59" si="138">IF(G55="",$F$1*C55-B55,G55-B55)</f>
         <v>-2.1236279999999965</v>
       </c>
@@ -6450,15 +6503,15 @@
       <c r="D56" s="3">
         <v>1.1073</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="19">
         <f t="shared" si="137"/>
         <v>0.21991275999999998</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="37">
         <f t="shared" si="4"/>
         <v>-5.0293333333332546E-3</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="42">
         <f t="shared" si="138"/>
         <v>-0.67895999999998935</v>
       </c>
@@ -6528,15 +6581,15 @@
       <c r="D57" s="3">
         <v>1.1192</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="19">
         <f t="shared" si="137"/>
         <v>0.219916528</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="37">
         <f t="shared" si="4"/>
         <v>-1.5567200000000033E-2</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="42">
         <f t="shared" si="138"/>
         <v>-2.1015720000000044</v>
       </c>
@@ -6606,15 +6659,15 @@
       <c r="D58" s="3">
         <v>1.1152</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="19">
         <f t="shared" si="137"/>
         <v>0.21991485866666666</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="37">
         <f t="shared" si="4"/>
         <v>-1.2054577777777704E-2</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="42">
         <f t="shared" si="138"/>
         <v>-1.6273679999999899</v>
       </c>
@@ -6678,21 +6731,21 @@
       <c r="B59">
         <v>135</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="33">
         <v>116.68</v>
       </c>
-      <c r="D59" s="40">
+      <c r="D59" s="34">
         <v>1.1558999999999999</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="19">
         <f t="shared" si="137"/>
         <v>0.21991360799999998</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="37">
         <f t="shared" si="4"/>
         <v>-4.6854044444444298E-2</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="42">
         <f t="shared" si="138"/>
         <v>-6.3252959999999803</v>
       </c>
@@ -6760,21 +6813,21 @@
       <c r="B60">
         <v>135</v>
       </c>
-      <c r="C60" s="39">
+      <c r="C60" s="33">
         <v>113.8</v>
       </c>
-      <c r="D60" s="40">
+      <c r="D60" s="34">
         <v>1.1852</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="19">
         <f t="shared" ref="E60" si="150">10%*M60+13%</f>
         <v>0.21991717333333335</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="37">
         <f t="shared" si="4"/>
         <v>-7.0380444444444482E-2</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="42">
         <f t="shared" ref="H60" si="151">IF(G60="",$F$1*C60-B60,G60-B60)</f>
         <v>-9.5013600000000054</v>
       </c>
@@ -6842,21 +6895,21 @@
       <c r="B61">
         <v>135</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="33">
         <v>113.86</v>
       </c>
-      <c r="D61" s="40">
+      <c r="D61" s="34">
         <v>1.1845000000000001</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="19">
         <f t="shared" ref="E61:E63" si="163">10%*M61+13%</f>
         <v>0.21991144666666668</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="37">
         <f t="shared" ref="F61:F63" si="164">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
         <v>-6.9890311111111117E-2</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="42">
         <f t="shared" ref="H61:H63" si="165">IF(G61="",$F$1*C61-B61,G61-B61)</f>
         <v>-9.4351920000000007</v>
       </c>
@@ -6920,21 +6973,21 @@
       <c r="B62">
         <v>135</v>
       </c>
-      <c r="C62" s="39">
+      <c r="C62" s="33">
         <v>112.49</v>
       </c>
-      <c r="D62" s="40">
+      <c r="D62" s="34">
         <v>1.1989000000000001</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="19">
         <f t="shared" si="163"/>
         <v>0.21990950733333334</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="37">
         <f t="shared" si="164"/>
         <v>-8.1081688888888878E-2</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="42">
         <f t="shared" si="165"/>
         <v>-10.946027999999998</v>
       </c>
@@ -7002,21 +7055,21 @@
       <c r="B63">
         <v>120</v>
       </c>
-      <c r="C63" s="39">
+      <c r="C63" s="33">
         <v>99.04</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D63" s="34">
         <v>1.2103999999999999</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="19">
         <f t="shared" si="163"/>
         <v>0.20991867733333336</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="37">
         <f t="shared" si="164"/>
         <v>-8.98223999999999E-2</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="42">
         <f t="shared" si="165"/>
         <v>-10.778687999999988</v>
       </c>
@@ -7080,21 +7133,21 @@
       <c r="B64">
         <v>120</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="33">
         <v>99.12</v>
       </c>
-      <c r="D64" s="40">
+      <c r="D64" s="34">
         <v>1.2094</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="19">
         <f t="shared" ref="E64:E68" si="177">10%*M64+13%</f>
         <v>0.209917152</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="37">
         <f t="shared" ref="F64:F68" si="178">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
         <v>-8.9087199999999936E-2</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="42">
         <f t="shared" ref="H64:H68" si="179">IF(G64="",$F$1*C64-B64,G64-B64)</f>
         <v>-10.690463999999992</v>
       </c>
@@ -7162,21 +7215,21 @@
       <c r="B65">
         <v>120</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="33">
         <v>98.71</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="34">
         <v>1.2144999999999999</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="19">
         <f t="shared" si="177"/>
         <v>0.20992219666666667</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="37">
         <f t="shared" si="178"/>
         <v>-9.2855099999999996E-2</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="42">
         <f t="shared" si="179"/>
         <v>-11.142612</v>
       </c>
@@ -7240,21 +7293,21 @@
       <c r="B66">
         <v>120</v>
       </c>
-      <c r="C66" s="39">
+      <c r="C66" s="33">
         <v>98.47</v>
       </c>
-      <c r="D66" s="40">
+      <c r="D66" s="34">
         <v>1.2174</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="19">
         <f t="shared" si="177"/>
         <v>0.20991825200000003</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="37">
         <f t="shared" si="178"/>
         <v>-9.506070000000004E-2</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="42">
         <f t="shared" si="179"/>
         <v>-11.407284000000004</v>
       </c>
@@ -7318,21 +7371,21 @@
       <c r="B67">
         <v>120</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="33">
         <v>100.52</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="34">
         <v>1.1926000000000001</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="19">
         <f t="shared" si="177"/>
         <v>0.20992010133333333</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="37">
         <f t="shared" si="178"/>
         <v>-7.6221200000000044E-2</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="42">
         <f t="shared" si="179"/>
         <v>-9.1465440000000058</v>
       </c>
@@ -7396,21 +7449,21 @@
       <c r="B68">
         <v>120</v>
       </c>
-      <c r="C68" s="39">
+      <c r="C68" s="33">
         <v>100.74</v>
       </c>
-      <c r="D68" s="40">
+      <c r="D68" s="34">
         <v>1.19</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="19">
         <f t="shared" si="177"/>
         <v>0.20992040000000001</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="37">
         <f t="shared" si="178"/>
         <v>-7.4199400000000068E-2</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="42">
         <f t="shared" si="179"/>
         <v>-8.9039280000000076</v>
       </c>
@@ -7474,21 +7527,21 @@
       <c r="B69">
         <v>120</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="33">
         <v>101.05</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="34">
         <v>1.1862999999999999</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="19">
         <f t="shared" ref="E69:E73" si="191">10%*M69+13%</f>
         <v>0.20991707666666665</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="37">
         <f t="shared" ref="F69:F73" si="192">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
         <v>-7.1350500000000025E-2</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="42">
         <f t="shared" ref="H69:H73" si="193">IF(G69="",$F$1*C69-B69,G69-B69)</f>
         <v>-8.5620600000000024</v>
       </c>
@@ -7552,21 +7605,21 @@
       <c r="B70">
         <v>135</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="33">
         <v>110.81</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D70" s="34">
         <v>1.2171000000000001</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="19">
         <f t="shared" si="191"/>
         <v>0.21991123400000001</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="37">
         <f t="shared" si="192"/>
         <v>-9.4805422222222227E-2</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="42">
         <f t="shared" si="193"/>
         <v>-12.798732000000001</v>
       </c>
@@ -7630,21 +7683,21 @@
       <c r="B71">
         <v>120</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="33">
         <v>98.46</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D71" s="34">
         <v>1.2175</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="19">
         <f t="shared" si="191"/>
         <v>0.20991670000000001</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="37">
         <f t="shared" si="192"/>
         <v>-9.5152600000000004E-2</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="42">
         <f t="shared" si="193"/>
         <v>-11.418312</v>
       </c>
@@ -7708,21 +7761,21 @@
       <c r="B72">
         <v>120</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C72" s="33">
         <v>98.8</v>
       </c>
-      <c r="D72" s="40">
+      <c r="D72" s="34">
         <v>1.2133</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="19">
         <f t="shared" si="191"/>
         <v>0.2099160266666667</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="37">
         <f t="shared" si="192"/>
         <v>-9.2028000000000054E-2</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="42">
         <f t="shared" si="193"/>
         <v>-11.043360000000007</v>
       </c>
@@ -7786,21 +7839,21 @@
       <c r="B73">
         <v>120</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="33">
         <v>97.7</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="34">
         <v>1.2270000000000001</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="19">
         <f t="shared" si="191"/>
         <v>0.20991860000000001</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="37">
         <f t="shared" si="192"/>
         <v>-0.10213699999999998</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="42">
         <f t="shared" si="193"/>
         <v>-12.256439999999998</v>
       </c>
@@ -7868,21 +7921,21 @@
       <c r="B74">
         <v>120</v>
       </c>
-      <c r="C74" s="39">
+      <c r="C74" s="33">
         <v>99.88</v>
       </c>
-      <c r="D74" s="40">
+      <c r="D74" s="34">
         <v>1.2001999999999999</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="19">
         <f t="shared" ref="E74:E78" si="205">10%*M74+13%</f>
         <v>0.20991731733333335</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="37">
         <f t="shared" ref="F74:F78" si="206">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
         <v>-8.2102800000000073E-2</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="42">
         <f t="shared" ref="H74:H78" si="207">IF(G74="",$F$1*C74-B74,G74-B74)</f>
         <v>-9.8523360000000082</v>
       </c>
@@ -7946,21 +7999,21 @@
       <c r="B75">
         <v>120</v>
       </c>
-      <c r="C75" s="39">
+      <c r="C75" s="33">
         <v>100.03</v>
       </c>
-      <c r="D75" s="40">
+      <c r="D75" s="34">
         <v>1.1984999999999999</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="19">
         <f t="shared" si="205"/>
         <v>0.20992397000000002</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F75" s="37">
         <f t="shared" si="206"/>
         <v>-8.0724299999999971E-2</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="42">
         <f t="shared" si="207"/>
         <v>-9.6869159999999965</v>
       </c>
@@ -8024,21 +8077,21 @@
       <c r="B76">
         <v>120</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="33">
         <v>99.78</v>
       </c>
-      <c r="D76" s="40">
+      <c r="D76" s="34">
         <v>1.2015</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="19">
         <f t="shared" si="205"/>
         <v>0.20992378</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="37">
         <f t="shared" si="206"/>
         <v>-8.3021799999999979E-2</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="42">
         <f t="shared" si="207"/>
         <v>-9.962615999999997</v>
       </c>
@@ -8102,21 +8155,21 @@
       <c r="B77">
         <v>120</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C77" s="33">
         <v>101.89</v>
       </c>
-      <c r="D77" s="40">
+      <c r="D77" s="34">
         <v>1.1766000000000001</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="19">
         <f t="shared" si="205"/>
         <v>0.209922516</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="37">
         <f t="shared" si="206"/>
         <v>-6.3630899999999949E-2</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="42">
         <f t="shared" si="207"/>
         <v>-7.6357079999999939</v>
       </c>
@@ -8180,21 +8233,21 @@
       <c r="B78">
         <v>135</v>
       </c>
-      <c r="C78" s="39">
+      <c r="C78" s="33">
         <v>116.08</v>
       </c>
-      <c r="D78" s="40">
+      <c r="D78" s="34">
         <v>1.1618999999999999</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="19">
         <f t="shared" si="205"/>
         <v>0.21991556800000001</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="37">
         <f t="shared" si="206"/>
         <v>-5.1755377777777764E-2</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="42">
         <f t="shared" si="207"/>
         <v>-6.9869759999999985</v>
       </c>
@@ -8258,21 +8311,21 @@
       <c r="B79">
         <v>135</v>
       </c>
-      <c r="C79" s="39">
+      <c r="C79" s="33">
         <v>115.77</v>
       </c>
-      <c r="D79" s="40">
+      <c r="D79" s="34">
         <v>1.165</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="19">
         <f t="shared" ref="E79:E80" si="219">10%*M79+13%</f>
         <v>0.21991470000000002</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F79" s="37">
         <f t="shared" ref="F79:F80" si="220">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
         <v>-5.4287733333333359E-2</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="42">
         <f t="shared" ref="H79:H80" si="221">IF(G79="",$F$1*C79-B79,G79-B79)</f>
         <v>-7.3288440000000037</v>
       </c>
@@ -8336,21 +8389,21 @@
       <c r="B80">
         <v>135</v>
       </c>
-      <c r="C80" s="39">
+      <c r="C80" s="33">
         <v>115.41</v>
       </c>
-      <c r="D80" s="40">
+      <c r="D80" s="34">
         <v>1.1686000000000001</v>
       </c>
-      <c r="E80" s="23">
+      <c r="E80" s="19">
         <f t="shared" si="219"/>
         <v>0.21991208400000001</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="37">
         <f t="shared" si="220"/>
         <v>-5.7228533333333359E-2</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="42">
         <f t="shared" si="221"/>
         <v>-7.7258520000000033</v>
       </c>
@@ -8414,21 +8467,21 @@
       <c r="B81">
         <v>135</v>
       </c>
-      <c r="C81" s="39">
+      <c r="C81" s="33">
         <v>122.13</v>
       </c>
-      <c r="D81" s="40">
+      <c r="D81" s="34">
         <v>1.1043000000000001</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="19">
         <f t="shared" ref="E81" si="233">10%*M81+13%</f>
         <v>0.219912106</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="37">
         <f t="shared" ref="F81" si="234">IF(G81="",($F$1*C81-B81)/B81,H81/B81)</f>
         <v>-2.3335999999999414E-3</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="42">
         <f t="shared" ref="H81" si="235">IF(G81="",$F$1*C81-B81,G81-B81)</f>
         <v>-0.3150359999999921</v>
       </c>
@@ -8492,21 +8545,21 @@
       <c r="B82">
         <v>135</v>
       </c>
-      <c r="C82" s="39">
+      <c r="C82" s="33">
         <v>121.01</v>
       </c>
-      <c r="D82" s="40">
+      <c r="D82" s="34">
         <v>1.1145</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E82" s="19">
         <f t="shared" ref="E82:E85" si="247">10%*M82+13%</f>
         <v>0.21991042999999999</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F82" s="37">
         <f t="shared" ref="F82:F85" si="248">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
         <v>-1.1482755555555581E-2</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="42">
         <f t="shared" ref="H82:H85" si="249">IF(G82="",$F$1*C82-B82,G82-B82)</f>
         <v>-1.5501720000000034</v>
       </c>
@@ -8570,21 +8623,21 @@
       <c r="B83">
         <v>135</v>
       </c>
-      <c r="C83" s="39">
+      <c r="C83" s="33">
         <v>122.64</v>
       </c>
-      <c r="D83" s="40">
+      <c r="D83" s="34">
         <v>1.0996999999999999</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E83" s="19">
         <f t="shared" si="247"/>
         <v>0.219911472</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F83" s="37">
         <f t="shared" si="248"/>
         <v>1.8325333333332648E-3</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="42">
         <f t="shared" si="249"/>
         <v>0.24739199999999073</v>
       </c>
@@ -8648,21 +8701,21 @@
       <c r="B84">
         <v>135</v>
       </c>
-      <c r="C84" s="39">
+      <c r="C84" s="33">
         <v>124.81</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="34">
         <v>1.0806</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E84" s="19">
         <f t="shared" si="247"/>
         <v>0.21991312400000002</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F84" s="37">
         <f t="shared" si="248"/>
         <v>1.9559022222222212E-2</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="42">
         <f t="shared" si="249"/>
         <v>2.6404679999999985</v>
       </c>
@@ -8726,21 +8779,21 @@
       <c r="B85">
         <v>135</v>
       </c>
-      <c r="C85" s="39">
+      <c r="C85" s="33">
         <v>120.69</v>
       </c>
-      <c r="D85" s="40">
+      <c r="D85" s="34">
         <v>1.1174999999999999</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="19">
         <f t="shared" si="247"/>
         <v>0.21991405</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F85" s="37">
         <f t="shared" si="248"/>
         <v>-1.4096799999999928E-2</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="42">
         <f t="shared" si="249"/>
         <v>-1.9030679999999904</v>
       </c>
@@ -8795,6 +8848,396 @@
       <c r="W85" s="1">
         <f t="shared" si="260"/>
         <v>0.29301719498760809</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B86">
+        <v>135</v>
+      </c>
+      <c r="C86" s="33">
+        <v>122.6</v>
+      </c>
+      <c r="D86" s="34">
+        <v>1.1001000000000001</v>
+      </c>
+      <c r="E86" s="19">
+        <f t="shared" ref="E86:E90" si="261">10%*M86+13%</f>
+        <v>0.21991484</v>
+      </c>
+      <c r="F86" s="37">
+        <f t="shared" ref="F86:F90" si="262">IF(G86="",($F$1*C86-B86)/B86,H86/B86)</f>
+        <v>1.5057777777778263E-3</v>
+      </c>
+      <c r="H86" s="42">
+        <f t="shared" ref="H86:H90" si="263">IF(G86="",$F$1*C86-B86,G86-B86)</f>
+        <v>0.20328000000000657</v>
+      </c>
+      <c r="I86" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" t="s">
+        <v>318</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" ref="K86:K90" si="264">D86*C86</f>
+        <v>134.87226000000001</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" ref="L86:L90" si="265">B86-K86</f>
+        <v>0.12773999999998864</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" ref="M86:M90" si="266">K86/150</f>
+        <v>0.89914840000000007</v>
+      </c>
+      <c r="N86" s="6">
+        <f t="shared" ref="N86:N90" si="267">N85+C86-P86</f>
+        <v>8081.2400000000007</v>
+      </c>
+      <c r="O86" s="2">
+        <f t="shared" ref="O86:O90" si="268">N86*D86</f>
+        <v>8890.1721240000006</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="6">
+        <f t="shared" ref="R86:R90" si="269">R85+Q86</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S86" s="6">
+        <f t="shared" ref="S86:S90" si="270">R86+O86</f>
+        <v>12576.302124</v>
+      </c>
+      <c r="T86">
+        <f t="shared" ref="T86:T90" si="271">T85+B86</f>
+        <v>11925</v>
+      </c>
+      <c r="U86" s="4">
+        <f t="shared" ref="U86:U90" si="272">S86/T86-1</f>
+        <v>5.461653031446545E-2</v>
+      </c>
+      <c r="V86" s="4">
+        <f t="shared" ref="V86:V90" si="273">O86/(T86-R86)-1</f>
+        <v>7.9052360821326273E-2</v>
+      </c>
+      <c r="W86" s="1">
+        <f t="shared" ref="W86:W90" si="274">R86/S86</f>
+        <v>0.29310126010455567</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B87">
+        <v>135</v>
+      </c>
+      <c r="C87" s="33">
+        <v>123.33</v>
+      </c>
+      <c r="D87" s="34">
+        <v>1.0935999999999999</v>
+      </c>
+      <c r="E87" s="19">
+        <f t="shared" si="261"/>
+        <v>0.219915792</v>
+      </c>
+      <c r="F87" s="37">
+        <f t="shared" si="262"/>
+        <v>7.4690666666665743E-3</v>
+      </c>
+      <c r="H87" s="42">
+        <f t="shared" si="263"/>
+        <v>1.0083239999999876</v>
+      </c>
+      <c r="I87" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87" t="s">
+        <v>320</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="264"/>
+        <v>134.87368799999999</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="265"/>
+        <v>0.12631200000001286</v>
+      </c>
+      <c r="M87" s="1">
+        <f t="shared" si="266"/>
+        <v>0.89915791999999994</v>
+      </c>
+      <c r="N87" s="6">
+        <f t="shared" si="267"/>
+        <v>8204.5700000000015</v>
+      </c>
+      <c r="O87" s="2">
+        <f t="shared" si="268"/>
+        <v>8972.5177520000016</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="6">
+        <f t="shared" si="269"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S87" s="6">
+        <f t="shared" si="270"/>
+        <v>12658.647752000001</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="271"/>
+        <v>12060</v>
+      </c>
+      <c r="U87" s="4">
+        <f t="shared" si="272"/>
+        <v>4.9639117081260453E-2</v>
+      </c>
+      <c r="V87" s="4">
+        <f t="shared" si="273"/>
+        <v>7.1489974408487367E-2</v>
+      </c>
+      <c r="W87" s="1">
+        <f t="shared" si="274"/>
+        <v>0.29119461037357725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B88">
+        <v>135</v>
+      </c>
+      <c r="C88" s="33">
+        <v>120.74</v>
+      </c>
+      <c r="D88" s="34">
+        <v>1.117</v>
+      </c>
+      <c r="E88" s="19">
+        <f t="shared" si="261"/>
+        <v>0.21991105333333333</v>
+      </c>
+      <c r="F88" s="37">
+        <f t="shared" si="262"/>
+        <v>-1.3688355555555526E-2</v>
+      </c>
+      <c r="H88" s="42">
+        <f t="shared" si="263"/>
+        <v>-1.847927999999996</v>
+      </c>
+      <c r="I88" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" t="s">
+        <v>322</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="264"/>
+        <v>134.86658</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="265"/>
+        <v>0.13342000000000098</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" si="266"/>
+        <v>0.89911053333333335</v>
+      </c>
+      <c r="N88" s="6">
+        <f t="shared" si="267"/>
+        <v>8325.3100000000013</v>
+      </c>
+      <c r="O88" s="2">
+        <f t="shared" si="268"/>
+        <v>9299.3712700000015</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="6">
+        <f t="shared" si="269"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S88" s="6">
+        <f t="shared" si="270"/>
+        <v>12985.501270000001</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="271"/>
+        <v>12195</v>
+      </c>
+      <c r="U88" s="4">
+        <f t="shared" si="272"/>
+        <v>6.4821752357523632E-2</v>
+      </c>
+      <c r="V88" s="4">
+        <f t="shared" si="273"/>
+        <v>9.2903202187834655E-2</v>
+      </c>
+      <c r="W88" s="1">
+        <f t="shared" si="274"/>
+        <v>0.28386505251945499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B89">
+        <v>135</v>
+      </c>
+      <c r="C89" s="33">
+        <v>120.25</v>
+      </c>
+      <c r="D89" s="34">
+        <v>1.1215999999999999</v>
+      </c>
+      <c r="E89" s="19">
+        <f t="shared" si="261"/>
+        <v>0.21991493333333334</v>
+      </c>
+      <c r="F89" s="37">
+        <f t="shared" si="262"/>
+        <v>-1.7691111111111012E-2</v>
+      </c>
+      <c r="H89" s="42">
+        <f t="shared" si="263"/>
+        <v>-2.3882999999999868</v>
+      </c>
+      <c r="I89" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" t="s">
+        <v>324</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="264"/>
+        <v>134.8724</v>
+      </c>
+      <c r="L89" s="2">
+        <f t="shared" si="265"/>
+        <v>0.12760000000000105</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" si="266"/>
+        <v>0.89914933333333336</v>
+      </c>
+      <c r="N89" s="6">
+        <f t="shared" si="267"/>
+        <v>8445.5600000000013</v>
+      </c>
+      <c r="O89" s="2">
+        <f t="shared" si="268"/>
+        <v>9472.5400960000006</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="6">
+        <f t="shared" si="269"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S89" s="6">
+        <f t="shared" si="270"/>
+        <v>13158.670096</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="271"/>
+        <v>12330</v>
+      </c>
+      <c r="U89" s="4">
+        <f t="shared" si="272"/>
+        <v>6.7207631467964379E-2</v>
+      </c>
+      <c r="V89" s="4">
+        <f t="shared" si="273"/>
+        <v>9.5867949888186699E-2</v>
+      </c>
+      <c r="W89" s="1">
+        <f t="shared" si="274"/>
+        <v>0.28012937273353461</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B90">
+        <v>135</v>
+      </c>
+      <c r="C90" s="33">
+        <v>123.24</v>
+      </c>
+      <c r="D90" s="34">
+        <v>1.0944</v>
+      </c>
+      <c r="E90" s="19">
+        <f t="shared" si="261"/>
+        <v>0.219915904</v>
+      </c>
+      <c r="F90" s="37">
+        <f t="shared" si="262"/>
+        <v>6.733866666666523E-3</v>
+      </c>
+      <c r="H90" s="42">
+        <f t="shared" si="263"/>
+        <v>0.90907199999998056</v>
+      </c>
+      <c r="I90" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" t="s">
+        <v>326</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="264"/>
+        <v>134.87385599999999</v>
+      </c>
+      <c r="L90" s="2">
+        <f t="shared" si="265"/>
+        <v>0.12614400000001069</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" si="266"/>
+        <v>0.89915903999999991</v>
+      </c>
+      <c r="N90" s="6">
+        <f t="shared" si="267"/>
+        <v>8568.8000000000011</v>
+      </c>
+      <c r="O90" s="2">
+        <f t="shared" si="268"/>
+        <v>9377.6947200000013</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="6">
+        <f t="shared" si="269"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S90" s="6">
+        <f t="shared" si="270"/>
+        <v>13063.824720000001</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="271"/>
+        <v>12465</v>
+      </c>
+      <c r="U90" s="4">
+        <f t="shared" si="272"/>
+        <v>4.8040490974729178E-2</v>
+      </c>
+      <c r="V90" s="4">
+        <f t="shared" si="273"/>
+        <v>6.8212050070225461E-2</v>
+      </c>
+      <c r="W90" s="1">
+        <f t="shared" si="274"/>
+        <v>0.28216315504882244</v>
       </c>
     </row>
   </sheetData>
@@ -8860,7 +9303,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F85">
+  <conditionalFormatting sqref="F2:F90">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8923,13 +9366,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X86"/>
+  <dimension ref="A1:X91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J90" sqref="J90"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8938,9 +9381,9 @@
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="35" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="42" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
@@ -8949,7 +9392,7 @@
     <col min="14" max="14" width="9.1640625" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10" style="17" customWidth="1"/>
+    <col min="17" max="17" width="10" style="16" customWidth="1"/>
     <col min="18" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="19" customWidth="1"/>
   </cols>
@@ -8970,15 +9413,15 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1">
-        <v>0.87119999999999997</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="38">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="21" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19986),2)</f>
-        <v>盈利922.37</v>
+      <c r="H1" s="39" t="str">
+        <f>"盈利"&amp;ROUND(SUM(H2:H19984),2)</f>
+        <v>盈利799.31</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -8995,22 +9438,22 @@
       <c r="M1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="17" t="s">
         <v>39</v>
       </c>
       <c r="T1" t="s">
@@ -9019,7 +9462,7 @@
       <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="17" t="s">
         <v>45</v>
       </c>
       <c r="W1" t="s">
@@ -9027,37 +9470,37 @@
       </c>
     </row>
     <row r="2" spans="1:23" hidden="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="22">
         <v>150</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="23">
         <v>206.73</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="24">
         <v>0.72560000000000002</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="27">
         <v>0.23</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="36">
         <f>IF(G2="",($F$1*C2-B2)/B2,H2/B2)</f>
         <v>0.26273333333333332</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="26">
         <v>189.41</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="40">
         <f>IF(G2="",$F$1*C2-B2,G2-B2)</f>
         <v>39.409999999999997</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>279</v>
+      <c r="J2" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="K2" s="2">
         <f>D2*C2</f>
@@ -9079,7 +9522,7 @@
         <v>150.003288</v>
       </c>
       <c r="P2" s="2"/>
-      <c r="Q2" s="16"/>
+      <c r="Q2" s="15"/>
       <c r="R2">
         <v>0</v>
       </c>
@@ -9105,37 +9548,37 @@
       </c>
     </row>
     <row r="3" spans="1:23" hidden="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="22">
         <v>150</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="23">
         <v>207.61</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="24">
         <v>0.72250000000000003</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="27">
         <v>0.23</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="36">
         <f t="shared" ref="F3:F60" si="1">IF(G3="",($F$1*C3-B3)/B3,H3/B3)</f>
         <v>0.26806666666666673</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="26">
         <v>190.21</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="40">
         <f t="shared" ref="H3:H39" si="2">IF(G3="",$F$1*C3-B3,G3-B3)</f>
         <v>40.210000000000008</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>280</v>
+      <c r="J3" s="22" t="s">
+        <v>279</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K7" si="3">D3*C3</f>
@@ -9158,7 +9601,7 @@
         <v>299.36065000000002</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="15"/>
       <c r="R3">
         <v>0</v>
       </c>
@@ -9184,37 +9627,37 @@
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>150</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="23">
         <v>203.09</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <v>0.73860000000000003</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="27">
         <v>0.23</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="36">
         <f t="shared" si="1"/>
         <v>0.24046666666666663</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="26">
         <v>186.07</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="40">
         <f t="shared" si="2"/>
         <v>36.069999999999993</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>281</v>
+      <c r="J4" s="22" t="s">
+        <v>280</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="3"/>
@@ -9237,7 +9680,7 @@
         <v>456.03379800000005</v>
       </c>
       <c r="P4" s="2"/>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="15"/>
       <c r="R4">
         <v>0</v>
       </c>
@@ -9263,37 +9706,37 @@
       </c>
     </row>
     <row r="5" spans="1:23" hidden="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="22">
         <v>150</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <v>199.68</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="24">
         <v>0.75119999999999998</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="27">
         <v>0.23</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="36">
         <f t="shared" si="1"/>
         <v>0.23953333333333338</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="26">
         <v>185.93</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="40">
         <f t="shared" si="2"/>
         <v>35.930000000000007</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>282</v>
+      <c r="J5" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="3"/>
@@ -9316,7 +9759,7 @@
         <v>613.81303200000013</v>
       </c>
       <c r="P5" s="2"/>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="15"/>
       <c r="R5">
         <v>0</v>
       </c>
@@ -9342,37 +9785,37 @@
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>150</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="23">
         <v>200.16</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="24">
         <v>0.74939999999999996</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="27">
         <v>0.23</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="36">
         <f t="shared" si="1"/>
         <v>0.2425333333333333</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="26">
         <v>186.38</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="40">
         <f t="shared" si="2"/>
         <v>36.379999999999995</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="26" t="s">
-        <v>283</v>
+      <c r="J6" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
@@ -9395,7 +9838,7 @@
         <v>762.34213799999998</v>
       </c>
       <c r="P6" s="2"/>
-      <c r="Q6" s="16"/>
+      <c r="Q6" s="15"/>
       <c r="R6">
         <v>0</v>
       </c>
@@ -9421,37 +9864,37 @@
       </c>
     </row>
     <row r="7" spans="1:23" hidden="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>150</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="23">
         <v>199.63</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="24">
         <v>0.75139999999999996</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="27">
         <v>0.23</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="36">
         <f t="shared" si="1"/>
         <v>0.23919999999999997</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="26">
         <v>185.88</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="40">
         <f t="shared" si="2"/>
         <v>35.879999999999995</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>284</v>
+      <c r="J7" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
@@ -9474,7 +9917,7 @@
         <v>914.37865999999997</v>
       </c>
       <c r="P7" s="2"/>
-      <c r="Q7" s="16"/>
+      <c r="Q7" s="15"/>
       <c r="R7">
         <v>0</v>
       </c>
@@ -9500,37 +9943,37 @@
       </c>
     </row>
     <row r="8" spans="1:23" hidden="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="22">
         <v>150</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="23">
         <v>199.95</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="24">
         <v>0.75019999999999998</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="27">
         <v>0.23</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="36">
         <f t="shared" si="1"/>
         <v>0.24186666666666667</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="26">
         <v>186.28</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="40">
         <f t="shared" si="2"/>
         <v>36.28</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>285</v>
+      <c r="J8" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:K9" si="12">D8*C8</f>
@@ -9553,7 +9996,7 @@
         <v>1062.9208700000001</v>
       </c>
       <c r="P8" s="2"/>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="15"/>
       <c r="R8">
         <v>0</v>
       </c>
@@ -9579,37 +10022,37 @@
       </c>
     </row>
     <row r="9" spans="1:23" hidden="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>150</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="23">
         <v>198.49</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="24">
         <v>0.75570000000000004</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="27">
         <v>0.23</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="36">
         <f t="shared" si="1"/>
         <v>0.23213333333333327</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="26">
         <v>184.82</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="40">
         <f t="shared" si="2"/>
         <v>34.819999999999993</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>286</v>
+      <c r="J9" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="12"/>
@@ -9632,7 +10075,7 @@
         <v>1220.7124380000002</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="Q9" s="16"/>
+      <c r="Q9" s="15"/>
       <c r="R9">
         <v>0</v>
       </c>
@@ -9658,37 +10101,37 @@
       </c>
     </row>
     <row r="10" spans="1:23" hidden="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="22">
         <v>150</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="23">
         <v>199.76</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="24">
         <v>0.75090000000000001</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="27">
         <v>0.23</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="36">
         <f t="shared" si="1"/>
         <v>0.24006666666666659</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="26">
         <v>186.01</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="40">
         <f t="shared" si="2"/>
         <v>36.009999999999991</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>287</v>
+      <c r="J10" s="22" t="s">
+        <v>286</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" ref="K10:K13" si="13">D10*C10</f>
@@ -9711,7 +10154,7 @@
         <v>1362.9585900000002</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="16"/>
+      <c r="Q10" s="15"/>
       <c r="R10">
         <v>0</v>
       </c>
@@ -9737,37 +10180,37 @@
       </c>
     </row>
     <row r="11" spans="1:23" hidden="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>150</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="23">
         <v>197.11</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="24">
         <v>0.76100000000000001</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="27">
         <v>0.23</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="36">
         <f t="shared" si="1"/>
         <v>0.23879999999999996</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="26">
         <v>185.82</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="40">
         <f t="shared" si="2"/>
         <v>35.819999999999993</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>288</v>
+      <c r="J11" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="13"/>
@@ -9790,7 +10233,7 @@
         <v>1531.2918099999999</v>
       </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="15"/>
       <c r="R11">
         <v>0</v>
       </c>
@@ -9816,37 +10259,37 @@
       </c>
     </row>
     <row r="12" spans="1:23" hidden="1">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <v>150</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="23">
         <v>197.58</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="24">
         <v>0.75919999999999999</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="27">
         <v>0.23</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="36">
         <f t="shared" si="1"/>
         <v>0.24173333333333327</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="26">
         <v>186.26</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="40">
         <f t="shared" si="2"/>
         <v>36.259999999999991</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>289</v>
+      <c r="J12" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="13"/>
@@ -9869,7 +10312,7 @@
         <v>1677.672568</v>
       </c>
       <c r="P12" s="2"/>
-      <c r="Q12" s="16"/>
+      <c r="Q12" s="15"/>
       <c r="R12">
         <v>0</v>
       </c>
@@ -9895,37 +10338,37 @@
       </c>
     </row>
     <row r="13" spans="1:23" hidden="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <v>150</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="23">
         <v>198.99</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="24">
         <v>0.75380000000000003</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="27">
         <v>0.23</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="36">
         <f t="shared" si="1"/>
         <v>0.23526666666666662</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="26">
         <v>185.29</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="40">
         <f t="shared" si="2"/>
         <v>35.289999999999992</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="26" t="s">
-        <v>290</v>
+      <c r="J13" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="13"/>
@@ -9948,7 +10391,7 @@
         <v>1815.7383639999998</v>
       </c>
       <c r="P13" s="2"/>
-      <c r="Q13" s="16"/>
+      <c r="Q13" s="15"/>
       <c r="R13">
         <v>0</v>
       </c>
@@ -9974,37 +10417,37 @@
       </c>
     </row>
     <row r="14" spans="1:23" hidden="1">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="22">
         <v>150</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="23">
         <v>197.08</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="24">
         <v>0.7611</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="27">
         <v>0.23</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="36">
         <f t="shared" si="1"/>
         <v>0.23853333333333335</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="26">
         <v>185.78</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="40">
         <f t="shared" si="2"/>
         <v>35.78</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="26" t="s">
-        <v>291</v>
+      <c r="J14" s="22" t="s">
+        <v>290</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" ref="K14" si="15">D14*C14</f>
@@ -10027,7 +10470,7 @@
         <v>1983.3200459999998</v>
       </c>
       <c r="P14" s="2"/>
-      <c r="Q14" s="16"/>
+      <c r="Q14" s="15"/>
       <c r="R14">
         <v>0</v>
       </c>
@@ -10053,37 +10496,37 @@
       </c>
     </row>
     <row r="15" spans="1:23" hidden="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="22">
         <v>150</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="23">
         <v>195.98</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="24">
         <v>0.76539999999999997</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="27">
         <v>0.23</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="36">
         <f t="shared" si="1"/>
         <v>0.23166666666666666</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="26">
         <v>184.75</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="40">
         <f t="shared" si="2"/>
         <v>34.75</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="26" t="s">
-        <v>292</v>
+      <c r="J15" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ref="K15:K19" si="16">D15*C15</f>
@@ -10106,7 +10549,7 @@
         <v>2144.5283359999999</v>
       </c>
       <c r="P15" s="2"/>
-      <c r="Q15" s="16"/>
+      <c r="Q15" s="15"/>
       <c r="R15">
         <v>0</v>
       </c>
@@ -10132,37 +10575,37 @@
       </c>
     </row>
     <row r="16" spans="1:23" hidden="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="22">
         <v>150</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="23">
         <v>198.78</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="24">
         <v>0.75460000000000005</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="27">
         <v>0.23</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="36">
         <f t="shared" si="1"/>
         <v>0.23393333333333335</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="26">
         <v>185.09</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="40">
         <f t="shared" si="2"/>
         <v>35.090000000000003</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="26" t="s">
-        <v>293</v>
+      <c r="J16" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="16"/>
@@ -10185,7 +10628,7 @@
         <v>2264.2678519999999</v>
       </c>
       <c r="P16" s="2"/>
-      <c r="Q16" s="16"/>
+      <c r="Q16" s="15"/>
       <c r="R16">
         <v>0</v>
       </c>
@@ -10211,37 +10654,37 @@
       </c>
     </row>
     <row r="17" spans="1:23" hidden="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="22">
         <v>150</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="23">
         <v>198.44</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="24">
         <v>0.75590000000000002</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="27">
         <v>0.23</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="36">
         <f t="shared" si="1"/>
         <v>0.23193333333333327</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="26">
         <v>184.79</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="40">
         <f t="shared" si="2"/>
         <v>34.789999999999992</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="26" t="s">
-        <v>294</v>
+      <c r="J17" s="22" t="s">
+        <v>293</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="16"/>
@@ -10264,7 +10707,7 @@
         <v>2418.1694539999999</v>
       </c>
       <c r="P17" s="2"/>
-      <c r="Q17" s="16"/>
+      <c r="Q17" s="15"/>
       <c r="R17">
         <v>0</v>
       </c>
@@ -10290,37 +10733,37 @@
       </c>
     </row>
     <row r="18" spans="1:23" hidden="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="22">
         <v>150</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="23">
         <v>197.45</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="24">
         <v>0.75970000000000004</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="27">
         <v>0.23</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="36">
         <f t="shared" si="1"/>
         <v>0.24093333333333325</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="26">
         <v>186.14</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="40">
         <f t="shared" si="2"/>
         <v>36.139999999999986</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="26" t="s">
-        <v>295</v>
+      <c r="J18" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="16"/>
@@ -10343,7 +10786,7 @@
         <v>2580.3286469999998</v>
       </c>
       <c r="P18" s="2"/>
-      <c r="Q18" s="16"/>
+      <c r="Q18" s="15"/>
       <c r="R18">
         <v>0</v>
       </c>
@@ -10369,37 +10812,37 @@
       </c>
     </row>
     <row r="19" spans="1:23" hidden="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="22">
         <v>150</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="23">
         <v>198.26</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="24">
         <v>0.75660000000000005</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="27">
         <v>0.23</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="36">
         <f t="shared" si="1"/>
         <v>0.23073333333333343</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="26">
         <v>184.61</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="40">
         <f t="shared" si="2"/>
         <v>34.610000000000014</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="26" t="s">
-        <v>296</v>
+      <c r="J19" s="22" t="s">
+        <v>295</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="16"/>
@@ -10422,7 +10865,7 @@
         <v>2719.8029819999997</v>
       </c>
       <c r="P19" s="2"/>
-      <c r="Q19" s="16"/>
+      <c r="Q19" s="15"/>
       <c r="R19">
         <v>0</v>
       </c>
@@ -10448,38 +10891,38 @@
       </c>
     </row>
     <row r="20" spans="1:23" hidden="1">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="22">
         <v>270</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="23">
         <v>357.76</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="24">
         <v>0.75470000000000004</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="27">
         <f>10%*M20+13%</f>
         <v>0.31000098133333331</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="36">
         <f t="shared" si="1"/>
         <v>0.3153703703703703</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="26">
         <v>355.15</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="40">
         <f t="shared" si="2"/>
         <v>85.149999999999977</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="26" t="s">
-        <v>297</v>
+      <c r="J20" s="22" t="s">
+        <v>296</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ref="K20:K23" si="17">D20*C20</f>
@@ -10502,7 +10945,7 @@
         <v>2982.9743909999997</v>
       </c>
       <c r="P20" s="2"/>
-      <c r="Q20" s="16"/>
+      <c r="Q20" s="15"/>
       <c r="R20">
         <v>0</v>
       </c>
@@ -10528,38 +10971,38 @@
       </c>
     </row>
     <row r="21" spans="1:23" hidden="1">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="22">
         <v>270</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="23">
         <v>361.93</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="24">
         <v>0.746</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="27">
         <f>10%*M21+13%</f>
         <v>0.30999985333333335</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="36">
         <f t="shared" si="1"/>
         <v>0.33070370370370378</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="26">
         <v>359.29</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="40">
         <f t="shared" si="2"/>
         <v>89.29000000000002</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>298</v>
+      <c r="J21" s="22" t="s">
+        <v>297</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="17"/>
@@ -10582,7 +11025,7 @@
         <v>3218.58716</v>
       </c>
       <c r="P21" s="2"/>
-      <c r="Q21" s="16"/>
+      <c r="Q21" s="15"/>
       <c r="R21">
         <v>0</v>
       </c>
@@ -10608,38 +11051,38 @@
       </c>
     </row>
     <row r="22" spans="1:23" hidden="1">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="22">
         <v>270</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="23">
         <v>365.31</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="24">
         <v>0.73909999999999998</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="27">
         <f t="shared" ref="E22:E34" si="18">10%*M22+13%</f>
         <v>0.310000414</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="36">
         <f t="shared" si="1"/>
         <v>0.34311111111111103</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="26">
         <v>362.64</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="40">
         <f t="shared" si="2"/>
         <v>92.639999999999986</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="26" t="s">
-        <v>299</v>
+      <c r="J22" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="17"/>
@@ -10662,7 +11105,7 @@
         <v>3458.8180070000003</v>
       </c>
       <c r="P22" s="2"/>
-      <c r="Q22" s="16"/>
+      <c r="Q22" s="15"/>
       <c r="R22">
         <v>0</v>
       </c>
@@ -10688,38 +11131,38 @@
       </c>
     </row>
     <row r="23" spans="1:23" hidden="1">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="22">
         <v>270</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="23">
         <v>368.2</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="24">
         <v>0.73329999999999995</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="27">
         <f t="shared" si="18"/>
         <v>0.31000070666666668</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="36">
         <f t="shared" si="1"/>
         <v>0.31607407407407401</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="26">
         <v>355.34</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="40">
         <f t="shared" si="2"/>
         <v>85.339999999999975</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="26" t="s">
-        <v>300</v>
+      <c r="J23" s="22" t="s">
+        <v>299</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="17"/>
@@ -10742,7 +11185,7 @@
         <v>3701.6764010000002</v>
       </c>
       <c r="P23" s="2"/>
-      <c r="Q23" s="16"/>
+      <c r="Q23" s="15"/>
       <c r="R23">
         <v>0</v>
       </c>
@@ -10768,38 +11211,38 @@
       </c>
     </row>
     <row r="24" spans="1:23" hidden="1">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="22">
         <v>270</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="23">
         <v>358.76</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="24">
         <v>0.75260000000000005</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="27">
         <f t="shared" si="18"/>
         <v>0.31000185066666663</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="36">
         <f t="shared" si="1"/>
         <v>0.31903703703703701</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="26">
         <v>356.14</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="40">
         <f t="shared" si="2"/>
         <v>86.139999999999986</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="26" t="s">
-        <v>301</v>
+      <c r="J24" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" ref="K24" si="19">D24*C24</f>
@@ -10822,7 +11265,7 @@
         <v>4069.1049980000007</v>
       </c>
       <c r="P24" s="2"/>
-      <c r="Q24" s="16"/>
+      <c r="Q24" s="15"/>
       <c r="R24">
         <v>0</v>
       </c>
@@ -10848,38 +11291,38 @@
       </c>
     </row>
     <row r="25" spans="1:23" hidden="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="22">
         <v>270</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="23">
         <v>350.56</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="24">
         <v>0.7702</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="27">
         <f t="shared" si="18"/>
         <v>0.3100008746666667</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="36">
         <f t="shared" si="1"/>
         <v>0.31329629629629618</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="26">
         <v>354.59</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="40">
         <f t="shared" si="2"/>
         <v>84.589999999999975</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="26" t="s">
-        <v>302</v>
+      <c r="J25" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" ref="K25" si="21">D25*C25</f>
@@ -10902,7 +11345,7 @@
         <v>4434.2647580000003</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="Q25" s="16"/>
+      <c r="Q25" s="15"/>
       <c r="R25">
         <v>0</v>
       </c>
@@ -10928,38 +11371,38 @@
       </c>
     </row>
     <row r="26" spans="1:23" hidden="1">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="22">
         <v>120</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="23">
         <v>154.58000000000001</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="24">
         <v>0.77629999999999999</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="27">
         <f t="shared" si="18"/>
         <v>0.21000030266666669</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="36">
         <f t="shared" si="1"/>
         <v>0.21433333333333332</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="26">
         <v>145.72</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="40">
         <f t="shared" si="2"/>
         <v>25.72</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="26" t="s">
-        <v>303</v>
+      <c r="J26" s="22" t="s">
+        <v>302</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" ref="K26:K29" si="25">D26*C26</f>
@@ -10982,7 +11425,7 @@
         <v>4589.3846810000005</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="16"/>
+      <c r="Q26" s="15"/>
       <c r="R26">
         <v>0</v>
       </c>
@@ -11008,38 +11451,38 @@
       </c>
     </row>
     <row r="27" spans="1:23" hidden="1">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="22">
         <v>120</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="23">
         <v>152.22999999999999</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="24">
         <v>0.7883</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="27">
         <f t="shared" si="18"/>
         <v>0.21000193933333333</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="36">
         <f t="shared" si="1"/>
         <v>0.21024999999999991</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="26">
         <v>145.22999999999999</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="40">
         <f t="shared" si="2"/>
         <v>25.22999999999999</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="26" t="s">
-        <v>304</v>
+      <c r="J27" s="22" t="s">
+        <v>303</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="25"/>
@@ -11062,7 +11505,7 @@
         <v>4780.3300300000001</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="16"/>
+      <c r="Q27" s="15"/>
       <c r="R27">
         <v>0</v>
       </c>
@@ -11088,38 +11531,38 @@
       </c>
     </row>
     <row r="28" spans="1:23" hidden="1">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="22">
         <v>120</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="23">
         <v>151.59</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="24">
         <v>0.79159999999999997</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="27">
         <f t="shared" si="18"/>
         <v>0.209999096</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="36">
         <f t="shared" si="1"/>
         <v>0.21916666666666676</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="26">
         <v>146.30000000000001</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="40">
         <f t="shared" si="2"/>
         <v>26.300000000000011</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="26" t="s">
-        <v>305</v>
+      <c r="J28" s="22" t="s">
+        <v>304</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="25"/>
@@ -11142,7 +11585,7 @@
         <v>4920.3402040000001</v>
       </c>
       <c r="P28" s="2"/>
-      <c r="Q28" s="16"/>
+      <c r="Q28" s="15"/>
       <c r="R28">
         <v>0</v>
       </c>
@@ -11168,38 +11611,38 @@
       </c>
     </row>
     <row r="29" spans="1:23" hidden="1">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="22">
         <v>120</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="23">
         <v>152.56</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="24">
         <v>0.78659999999999997</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="27">
         <f t="shared" si="18"/>
         <v>0.210002464</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="36">
         <f t="shared" si="1"/>
         <v>0.21283333333333326</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="26">
         <v>145.54</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="40">
         <f t="shared" si="2"/>
         <v>25.539999999999992</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="26" t="s">
-        <v>306</v>
+      <c r="J29" s="22" t="s">
+        <v>305</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="25"/>
@@ -11222,7 +11665,7 @@
         <v>5009.2654500000008</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="16"/>
+      <c r="Q29" s="15"/>
       <c r="R29">
         <v>0</v>
       </c>
@@ -11248,38 +11691,38 @@
       </c>
     </row>
     <row r="30" spans="1:23" hidden="1">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="22">
         <v>120</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="23">
         <v>147.63999999999999</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="24">
         <v>0.81279999999999997</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="27">
         <f t="shared" si="18"/>
         <v>0.21000119466666667</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="36">
         <f t="shared" si="1"/>
         <v>0.22125000000000009</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="26">
         <v>146.55000000000001</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="40">
         <f t="shared" si="2"/>
         <v>26.550000000000011</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="26" t="s">
-        <v>307</v>
+      <c r="J30" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" ref="K30" si="29">D30*C30</f>
@@ -11302,7 +11745,7 @@
         <v>5296.1153920000006</v>
       </c>
       <c r="P30" s="2"/>
-      <c r="Q30" s="16"/>
+      <c r="Q30" s="15"/>
       <c r="R30">
         <v>0</v>
       </c>
@@ -11328,38 +11771,38 @@
       </c>
     </row>
     <row r="31" spans="1:23" hidden="1">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="22">
         <v>105</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="23">
         <v>129.06</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="24">
         <v>0.81359999999999999</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="27">
         <f t="shared" si="18"/>
         <v>0.20000214399999999</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="36">
         <f t="shared" si="1"/>
         <v>0.22019047619047624</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="26">
         <v>128.12</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="40">
         <f t="shared" si="2"/>
         <v>23.120000000000005</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="26" t="s">
-        <v>308</v>
+      <c r="J31" s="22" t="s">
+        <v>307</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" ref="K31:K34" si="33">D31*C31</f>
@@ -11382,7 +11825,7 @@
         <v>5406.3313200000011</v>
       </c>
       <c r="P31" s="2"/>
-      <c r="Q31" s="16"/>
+      <c r="Q31" s="15"/>
       <c r="R31">
         <v>0</v>
       </c>
@@ -11408,38 +11851,38 @@
       </c>
     </row>
     <row r="32" spans="1:23" hidden="1">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="22">
         <v>105</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="23">
         <v>129.04</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="24">
         <v>0.81369999999999998</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="27">
         <f t="shared" si="18"/>
         <v>0.19999989866666668</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="36">
         <f t="shared" si="1"/>
         <v>0.21999999999999995</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="26">
         <v>128.1</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="40">
         <f t="shared" si="2"/>
         <v>23.099999999999994</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="26" t="s">
-        <v>309</v>
+      <c r="J32" s="22" t="s">
+        <v>308</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="33"/>
@@ -11462,7 +11905,7 @@
         <v>5511.9956630000015</v>
       </c>
       <c r="P32" s="2"/>
-      <c r="Q32" s="16"/>
+      <c r="Q32" s="15"/>
       <c r="R32">
         <v>0</v>
       </c>
@@ -11488,38 +11931,38 @@
       </c>
     </row>
     <row r="33" spans="1:23" hidden="1">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="22">
         <v>105</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="23">
         <v>129.26</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="24">
         <v>0.81230000000000002</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="27">
         <f t="shared" si="18"/>
         <v>0.19999859866666667</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="36">
         <f t="shared" si="1"/>
         <v>0.22209523809523804</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="26">
         <v>128.32</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="40">
         <f t="shared" si="2"/>
         <v>23.319999999999993</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="26" t="s">
-        <v>310</v>
+      <c r="J33" s="22" t="s">
+        <v>309</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="33"/>
@@ -11542,7 +11985,7 @@
         <v>5607.5099750000018</v>
       </c>
       <c r="P33" s="2"/>
-      <c r="Q33" s="16"/>
+      <c r="Q33" s="15"/>
       <c r="R33">
         <v>0</v>
       </c>
@@ -11571,35 +12014,35 @@
       <c r="A34" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="22">
         <v>105</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="23">
         <v>126.26</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="24">
         <v>0.83160000000000001</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="27">
         <f t="shared" si="18"/>
         <v>0.199998544</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="36">
         <f t="shared" si="1"/>
         <v>0.20923809523809522</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="26">
         <v>126.97</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="40">
         <f t="shared" si="2"/>
         <v>21.97</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="26" t="s">
-        <v>311</v>
+      <c r="J34" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="33"/>
@@ -11622,7 +12065,7 @@
         <v>5845.7405160000017</v>
       </c>
       <c r="P34" s="2"/>
-      <c r="Q34" s="16"/>
+      <c r="Q34" s="15"/>
       <c r="R34" s="6">
         <f>Q34+R33</f>
         <v>0</v>
@@ -11665,20 +12108,20 @@
         <f t="shared" ref="E35:E36" si="37">10%*M35+13%</f>
         <v>0.19999914333333335</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="36">
         <f t="shared" si="1"/>
-        <v>-4.9236571428570826E-3</v>
+        <v>-2.3541361904761835E-2</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="20">
+      <c r="H35" s="41">
         <f t="shared" si="2"/>
-        <v>-0.51698399999999367</v>
+        <v>-2.4718429999999927</v>
       </c>
       <c r="I35" t="s">
         <v>7</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" ref="K35:K36" si="38">D35*C35</f>
@@ -11701,7 +12144,7 @@
         <v>6259.3347200000017</v>
       </c>
       <c r="P35" s="2"/>
-      <c r="Q35" s="16"/>
+      <c r="Q35" s="15"/>
       <c r="R35" s="6">
         <f t="shared" ref="R35:R36" si="42">Q35+R34</f>
         <v>0</v>
@@ -11744,14 +12187,14 @@
         <f t="shared" si="37"/>
         <v>0.19000236000000001</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="36">
         <f t="shared" si="1"/>
-        <v>-3.734399999999975E-3</v>
+        <v>-2.2374355555555621E-2</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="20">
+      <c r="H36" s="41">
         <f t="shared" si="2"/>
-        <v>-0.33609599999999773</v>
+        <v>-2.013692000000006</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
@@ -11780,7 +12223,7 @@
         <v>6342.1888200000021</v>
       </c>
       <c r="P36" s="2"/>
-      <c r="Q36" s="16"/>
+      <c r="Q36" s="15"/>
       <c r="R36" s="6">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -11823,14 +12266,14 @@
         <f t="shared" ref="E37:E39" si="46">10%*M37+13%</f>
         <v>0.19000028666666666</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="36">
         <f t="shared" si="1"/>
-        <v>2.3440000000000003E-4</v>
+        <v>-1.847981111111115E-2</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="20">
+      <c r="H37" s="41">
         <f t="shared" si="2"/>
-        <v>2.1096000000000004E-2</v>
+        <v>-1.6631830000000036</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -11859,7 +12302,7 @@
         <v>6406.8059900000017</v>
       </c>
       <c r="P37" s="2"/>
-      <c r="Q37" s="16"/>
+      <c r="Q37" s="15"/>
       <c r="R37" s="6">
         <f t="shared" ref="R37:R39" si="52">Q37+R36</f>
         <v>0</v>
@@ -11902,14 +12345,14 @@
         <f t="shared" si="46"/>
         <v>0.19000048</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="36">
         <f t="shared" si="1"/>
-        <v>-1.0240000000000767E-3</v>
+        <v>-1.97146666666667E-2</v>
       </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="20">
+      <c r="H38" s="41">
         <f t="shared" si="2"/>
-        <v>-9.2160000000006903E-2</v>
+        <v>-1.774320000000003</v>
       </c>
       <c r="I38" t="s">
         <v>7</v>
@@ -11938,7 +12381,7 @@
         <v>6504.8979690000015</v>
       </c>
       <c r="P38" s="2"/>
-      <c r="Q38" s="16"/>
+      <c r="Q38" s="15"/>
       <c r="R38" s="6">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -11981,20 +12424,20 @@
         <f t="shared" si="46"/>
         <v>0.18999957333333334</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="36">
         <f t="shared" si="1"/>
-        <v>-8.7679999999999668E-3</v>
+        <v>-2.7313777777777659E-2</v>
       </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="20">
+      <c r="H39" s="41">
         <f t="shared" si="2"/>
-        <v>-0.78911999999999694</v>
+        <v>-2.4582399999999893</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
       </c>
       <c r="J39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="47"/>
@@ -12017,7 +12460,7 @@
         <v>6645.6177810000017</v>
       </c>
       <c r="P39" s="2"/>
-      <c r="Q39" s="16"/>
+      <c r="Q39" s="15"/>
       <c r="R39" s="6">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -12060,20 +12503,20 @@
         <f t="shared" ref="E40" si="56">10%*M40+13%</f>
         <v>0.21999970133333335</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="36">
         <f t="shared" si="1"/>
-        <v>-2.5288533333333505E-2</v>
+        <v>-4.3525214814814958E-2</v>
       </c>
       <c r="G40" s="9"/>
-      <c r="H40" s="20">
+      <c r="H40" s="41">
         <f t="shared" ref="H40" si="57">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>-3.4139520000000232</v>
+        <v>-5.8759040000000198</v>
       </c>
       <c r="I40" t="s">
         <v>7</v>
       </c>
       <c r="J40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" ref="K40" si="58">D40*C40</f>
@@ -12096,7 +12539,7 @@
         <v>6893.2805540000018</v>
       </c>
       <c r="P40" s="2"/>
-      <c r="Q40" s="16"/>
+      <c r="Q40" s="15"/>
       <c r="R40" s="6">
         <f t="shared" ref="R40" si="63">Q40+R39</f>
         <v>0</v>
@@ -12139,14 +12582,14 @@
         <f t="shared" ref="E41" si="68">10%*M41+13%</f>
         <v>0.22000138000000002</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="36">
         <f t="shared" si="1"/>
-        <v>-4.9101333333333351E-2</v>
+        <v>-6.6892481481481469E-2</v>
       </c>
       <c r="G41" s="9"/>
-      <c r="H41" s="20">
+      <c r="H41" s="41">
         <f t="shared" ref="H41" si="69">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-6.6286800000000028</v>
+        <v>-9.0304849999999988</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -12177,7 +12620,7 @@
       <c r="P41" s="2">
         <v>617.42999999999995</v>
       </c>
-      <c r="Q41" s="16">
+      <c r="Q41" s="15">
         <v>565.69000000000005</v>
       </c>
       <c r="R41" s="6">
@@ -12206,7 +12649,7 @@
       </c>
     </row>
     <row r="42" spans="1:23">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="30" t="s">
         <v>144</v>
       </c>
       <c r="B42">
@@ -12222,14 +12665,14 @@
         <f t="shared" ref="E42" si="80">10%*M42+13%</f>
         <v>0.21999737600000002</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="36">
         <f t="shared" si="1"/>
-        <v>-6.4460266666666738E-2</v>
+        <v>-8.1964051851851821E-2</v>
       </c>
       <c r="G42" s="9"/>
-      <c r="H42" s="20">
+      <c r="H42" s="41">
         <f t="shared" ref="H42" si="81">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-8.7021360000000101</v>
+        <v>-11.065146999999996</v>
       </c>
       <c r="I42" t="s">
         <v>7</v>
@@ -12260,7 +12703,7 @@
       <c r="P42" s="2">
         <v>1992.14</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q42" s="15">
         <v>1855.08</v>
       </c>
       <c r="R42" s="6">
@@ -12289,7 +12732,7 @@
       </c>
     </row>
     <row r="43" spans="1:23">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="30" t="s">
         <v>145</v>
       </c>
       <c r="B43">
@@ -12305,14 +12748,14 @@
         <f t="shared" ref="E43" si="93">10%*M43+13%</f>
         <v>0.22000271133333332</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="36">
         <f t="shared" si="1"/>
-        <v>-7.5818133333333274E-2</v>
+        <v>-9.3109414814814731E-2</v>
       </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="20">
+      <c r="H43" s="41">
         <f t="shared" ref="H43" si="94">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-10.235447999999991</v>
+        <v>-12.569770999999989</v>
       </c>
       <c r="I43" t="s">
         <v>7</v>
@@ -12343,7 +12786,7 @@
       <c r="P43" s="2">
         <v>1139.78</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43" s="15">
         <v>1074.47</v>
       </c>
       <c r="R43" s="6">
@@ -12372,7 +12815,7 @@
       </c>
     </row>
     <row r="44" spans="1:23">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="30" t="s">
         <v>146</v>
       </c>
       <c r="B44">
@@ -12388,14 +12831,14 @@
         <f t="shared" ref="E44" si="106">10%*M44+13%</f>
         <v>0.21999832666666669</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="36">
         <f t="shared" si="1"/>
-        <v>-4.2970666666666671E-2</v>
+        <v>-6.0876518518518476E-2</v>
       </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="20">
+      <c r="H44" s="41">
         <f t="shared" ref="H44" si="107">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>-5.8010400000000004</v>
+        <v>-8.2183299999999946</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
@@ -12424,7 +12867,7 @@
         <v>4138.9611430000023</v>
       </c>
       <c r="P44" s="2"/>
-      <c r="Q44" s="16"/>
+      <c r="Q44" s="15"/>
       <c r="R44" s="6">
         <f t="shared" ref="R44" si="113">Q44+R43</f>
         <v>3495.24</v>
@@ -12451,7 +12894,7 @@
       </c>
     </row>
     <row r="45" spans="1:23">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="30" t="s">
         <v>147</v>
       </c>
       <c r="B45">
@@ -12467,14 +12910,14 @@
         <f t="shared" ref="E45:E49" si="119">10%*M45+13%</f>
         <v>0.21999752333333333</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="36">
         <f t="shared" si="1"/>
-        <v>-7.6850666666666609E-2</v>
+        <v>-9.4122629629629584E-2</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="20">
+      <c r="H45" s="41">
         <f t="shared" ref="H45:H49" si="120">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>-10.374839999999992</v>
+        <v>-12.706554999999994</v>
       </c>
       <c r="I45" t="s">
         <v>7</v>
@@ -12503,7 +12946,7 @@
         <v>4425.8208820000018</v>
       </c>
       <c r="P45" s="2"/>
-      <c r="Q45" s="16"/>
+      <c r="Q45" s="15"/>
       <c r="R45" s="6">
         <f t="shared" ref="R45:R49" si="126">Q45+R44</f>
         <v>3495.24</v>
@@ -12530,7 +12973,7 @@
       </c>
     </row>
     <row r="46" spans="1:23">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="30" t="s">
         <v>148</v>
       </c>
       <c r="B46">
@@ -12546,14 +12989,14 @@
         <f t="shared" si="119"/>
         <v>0.21999895333333336</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="36">
         <f t="shared" si="1"/>
-        <v>-9.1564266666666672E-2</v>
+        <v>-0.10856094074074073</v>
       </c>
       <c r="G46" s="9"/>
-      <c r="H46" s="20">
+      <c r="H46" s="41">
         <f t="shared" si="120"/>
-        <v>-12.361176</v>
+        <v>-14.655726999999999</v>
       </c>
       <c r="I46" t="s">
         <v>7</v>
@@ -12582,7 +13025,7 @@
         <v>4632.5741700000026</v>
       </c>
       <c r="P46" s="2"/>
-      <c r="Q46" s="16"/>
+      <c r="Q46" s="15"/>
       <c r="R46" s="6">
         <f t="shared" si="126"/>
         <v>3495.24</v>
@@ -12609,7 +13052,7 @@
       </c>
     </row>
     <row r="47" spans="1:23">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="30" t="s">
         <v>149</v>
       </c>
       <c r="B47">
@@ -12625,14 +13068,14 @@
         <f t="shared" si="119"/>
         <v>0.21999839866666665</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="36">
         <f t="shared" si="1"/>
-        <v>-7.1429866666666814E-2</v>
+        <v>-8.880325185185195E-2</v>
       </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="20">
+      <c r="H47" s="41">
         <f t="shared" si="120"/>
-        <v>-9.6430320000000194</v>
+        <v>-11.988439000000014</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
@@ -12661,7 +13104,7 @@
         <v>4667.0946640000029</v>
       </c>
       <c r="P47" s="2"/>
-      <c r="Q47" s="16"/>
+      <c r="Q47" s="15"/>
       <c r="R47" s="6">
         <f t="shared" si="126"/>
         <v>3495.24</v>
@@ -12688,7 +13131,7 @@
       </c>
     </row>
     <row r="48" spans="1:23">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="30" t="s">
         <v>150</v>
       </c>
       <c r="B48">
@@ -12704,14 +13147,14 @@
         <f t="shared" si="119"/>
         <v>0.219998208</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="36">
         <f t="shared" si="1"/>
-        <v>-5.0585600000000064E-2</v>
+        <v>-6.8348977777777709E-2</v>
       </c>
       <c r="G48" s="9"/>
-      <c r="H48" s="20">
+      <c r="H48" s="41">
         <f t="shared" si="120"/>
-        <v>-6.8290560000000085</v>
+        <v>-9.2271119999999911</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
@@ -12740,7 +13183,7 @@
         <v>4699.6168640000024</v>
       </c>
       <c r="P48" s="2"/>
-      <c r="Q48" s="16"/>
+      <c r="Q48" s="15"/>
       <c r="R48" s="6">
         <f t="shared" si="126"/>
         <v>3495.24</v>
@@ -12767,7 +13210,7 @@
       </c>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="30" t="s">
         <v>151</v>
       </c>
       <c r="B49">
@@ -12783,14 +13226,14 @@
         <f t="shared" si="119"/>
         <v>0.21999755600000004</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="36">
         <f t="shared" si="1"/>
-        <v>-6.0523733333333232E-2</v>
+        <v>-7.8101170370370329E-2</v>
       </c>
       <c r="G49" s="9"/>
-      <c r="H49" s="20">
+      <c r="H49" s="41">
         <f t="shared" si="120"/>
-        <v>-8.1707039999999864</v>
+        <v>-10.543657999999994</v>
       </c>
       <c r="I49" t="s">
         <v>7</v>
@@ -12819,7 +13262,7 @@
         <v>4884.2931060000028</v>
       </c>
       <c r="P49" s="2"/>
-      <c r="Q49" s="16"/>
+      <c r="Q49" s="15"/>
       <c r="R49" s="6">
         <f t="shared" si="126"/>
         <v>3495.24</v>
@@ -12846,7 +13289,7 @@
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="30" t="s">
         <v>152</v>
       </c>
       <c r="B50">
@@ -12862,14 +13305,14 @@
         <f t="shared" ref="E50:E54" si="132">10%*M50+13%</f>
         <v>0.22000280800000002</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="36">
         <f t="shared" si="1"/>
-        <v>-8.3497600000000019E-2</v>
+        <v>-0.10064519999999991</v>
       </c>
       <c r="G50" s="9"/>
-      <c r="H50" s="20">
+      <c r="H50" s="41">
         <f t="shared" ref="H50:H54" si="133">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>-11.272176000000002</v>
+        <v>-13.587101999999987</v>
       </c>
       <c r="I50" t="s">
         <v>7</v>
@@ -12898,7 +13341,7 @@
         <v>5142.0235440000033</v>
       </c>
       <c r="P50" s="2"/>
-      <c r="Q50" s="16"/>
+      <c r="Q50" s="15"/>
       <c r="R50" s="6">
         <f t="shared" ref="R50:R54" si="139">Q50+R49</f>
         <v>3495.24</v>
@@ -12925,7 +13368,7 @@
       </c>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="30" t="s">
         <v>153</v>
       </c>
       <c r="B51">
@@ -12941,14 +13384,14 @@
         <f t="shared" si="132"/>
         <v>0.22000036000000001</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="36">
         <f t="shared" si="1"/>
-        <v>-8.6788800000000096E-2</v>
+        <v>-0.1038748222222223</v>
       </c>
       <c r="G51" s="9"/>
-      <c r="H51" s="20">
+      <c r="H51" s="41">
         <f t="shared" si="133"/>
-        <v>-11.716488000000012</v>
+        <v>-14.023101000000011</v>
       </c>
       <c r="I51" t="s">
         <v>7</v>
@@ -12979,7 +13422,7 @@
       <c r="P51" s="2">
         <v>304.79000000000002</v>
       </c>
-      <c r="Q51" s="16">
+      <c r="Q51" s="15">
         <v>290.77</v>
       </c>
       <c r="R51" s="6">
@@ -13008,7 +13451,7 @@
       </c>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="30" t="s">
         <v>154</v>
       </c>
       <c r="B52">
@@ -13024,14 +13467,14 @@
         <f t="shared" si="132"/>
         <v>0.21999839333333332</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="36">
         <f t="shared" si="1"/>
-        <v>-8.5562666666666801E-2</v>
+        <v>-0.10267162962962972</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="20">
+      <c r="H52" s="41">
         <f t="shared" si="133"/>
-        <v>-11.550960000000018</v>
+        <v>-13.860670000000013</v>
       </c>
       <c r="I52" t="s">
         <v>7</v>
@@ -13060,7 +13503,7 @@
         <v>5132.8236820000029</v>
       </c>
       <c r="P52" s="2"/>
-      <c r="Q52" s="16"/>
+      <c r="Q52" s="15"/>
       <c r="R52" s="6">
         <f t="shared" si="139"/>
         <v>3786.0099999999998</v>
@@ -13087,7 +13530,7 @@
       </c>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B53">
@@ -13103,14 +13546,14 @@
         <f t="shared" si="132"/>
         <v>0.219998792</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="36">
         <f t="shared" si="1"/>
-        <v>-9.7307733333333341E-2</v>
+        <v>-0.11419694814814818</v>
       </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="20">
+      <c r="H53" s="41">
         <f t="shared" si="133"/>
-        <v>-13.136544000000001</v>
+        <v>-15.416588000000004</v>
       </c>
       <c r="I53" t="s">
         <v>7</v>
@@ -13141,7 +13584,7 @@
       <c r="P53" s="2">
         <v>519.79</v>
       </c>
-      <c r="Q53" s="16">
+      <c r="Q53" s="15">
         <v>501.64</v>
       </c>
       <c r="R53" s="6">
@@ -13170,7 +13613,7 @@
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="30" t="s">
         <v>156</v>
       </c>
       <c r="B54">
@@ -13186,14 +13629,14 @@
         <f t="shared" si="132"/>
         <v>0.22000136533333337</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F54" s="36">
         <f t="shared" si="1"/>
-        <v>-0.10221226666666662</v>
+        <v>-0.11900971851851849</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="20">
+      <c r="H54" s="41">
         <f t="shared" si="133"/>
-        <v>-13.798655999999994</v>
+        <v>-16.066311999999996</v>
       </c>
       <c r="I54" t="s">
         <v>7</v>
@@ -13222,7 +13665,7 @@
         <v>4994.5226480000038</v>
       </c>
       <c r="P54" s="2"/>
-      <c r="Q54" s="16"/>
+      <c r="Q54" s="15"/>
       <c r="R54" s="6">
         <f t="shared" si="139"/>
         <v>4287.6499999999996</v>
@@ -13250,7 +13693,7 @@
       <c r="X54" s="6"/>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="30" t="s">
         <v>157</v>
       </c>
       <c r="B55">
@@ -13266,14 +13709,14 @@
         <f t="shared" ref="E55:E59" si="145">10%*M55+13%</f>
         <v>0.22000275600000002</v>
       </c>
-      <c r="F55" s="30">
+      <c r="F55" s="36">
         <f t="shared" si="1"/>
-        <v>-9.1241600000000117E-2</v>
+        <v>-0.10824431111111113</v>
       </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="20">
+      <c r="H55" s="41">
         <f t="shared" ref="H55:H59" si="146">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>-12.317616000000015</v>
+        <v>-14.612982000000002</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
@@ -13302,7 +13745,7 @@
         <v>5069.3084030000027</v>
       </c>
       <c r="P55" s="2"/>
-      <c r="Q55" s="16"/>
+      <c r="Q55" s="15"/>
       <c r="R55" s="6">
         <f t="shared" ref="R55:R59" si="152">Q55+R54</f>
         <v>4287.6499999999996</v>
@@ -13329,7 +13772,7 @@
       </c>
     </row>
     <row r="56" spans="1:24">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="30" t="s">
         <v>158</v>
       </c>
       <c r="B56">
@@ -13345,14 +13788,14 @@
         <f t="shared" si="145"/>
         <v>0.22000122999999999</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="36">
         <f t="shared" si="1"/>
-        <v>-6.6525333333333311E-2</v>
+        <v>-8.399048148148143E-2</v>
       </c>
       <c r="G56" s="9"/>
-      <c r="H56" s="20">
+      <c r="H56" s="41">
         <f t="shared" si="146"/>
-        <v>-8.9809199999999976</v>
+        <v>-11.338714999999993</v>
       </c>
       <c r="I56" t="s">
         <v>7</v>
@@ -13381,7 +13824,7 @@
         <v>5070.0029220000024</v>
       </c>
       <c r="P56" s="2"/>
-      <c r="Q56" s="16"/>
+      <c r="Q56" s="15"/>
       <c r="R56" s="6">
         <f t="shared" si="152"/>
         <v>4287.6499999999996</v>
@@ -13408,7 +13851,7 @@
       </c>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="30" t="s">
         <v>159</v>
       </c>
       <c r="B57">
@@ -13424,14 +13867,14 @@
         <f t="shared" si="145"/>
         <v>0.22000140800000001</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="36">
         <f t="shared" si="1"/>
-        <v>-7.4850133333333277E-2</v>
+        <v>-9.2159525925925814E-2</v>
       </c>
       <c r="G57" s="9"/>
-      <c r="H57" s="20">
+      <c r="H57" s="41">
         <f t="shared" si="146"/>
-        <v>-10.104767999999993</v>
+        <v>-12.441535999999985</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
@@ -13460,7 +13903,7 @@
         <v>5250.6366900000021</v>
       </c>
       <c r="P57" s="2"/>
-      <c r="Q57" s="16"/>
+      <c r="Q57" s="15"/>
       <c r="R57" s="6">
         <f t="shared" si="152"/>
         <v>4287.6499999999996</v>
@@ -13487,7 +13930,7 @@
       </c>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="30" t="s">
         <v>160</v>
       </c>
       <c r="B58">
@@ -13503,14 +13946,14 @@
         <f t="shared" si="145"/>
         <v>0.22000231200000001</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F58" s="36">
         <f t="shared" si="1"/>
-        <v>-6.239520000000006E-2</v>
+        <v>-7.9937622222222324E-2</v>
       </c>
       <c r="G58" s="9"/>
-      <c r="H58" s="20">
+      <c r="H58" s="41">
         <f t="shared" si="146"/>
-        <v>-8.4233520000000084</v>
+        <v>-10.791579000000013</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -13539,7 +13982,7 @@
         <v>5315.9439080000029</v>
       </c>
       <c r="P58" s="2"/>
-      <c r="Q58" s="16"/>
+      <c r="Q58" s="15"/>
       <c r="R58" s="6">
         <f t="shared" si="152"/>
         <v>4287.6499999999996</v>
@@ -13566,7 +14009,7 @@
       </c>
     </row>
     <row r="59" spans="1:24">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="30" t="s">
         <v>161</v>
       </c>
       <c r="B59">
@@ -13582,14 +14025,14 @@
         <f t="shared" si="145"/>
         <v>0.21999714733333336</v>
       </c>
-      <c r="F59" s="30">
+      <c r="F59" s="36">
         <f t="shared" si="1"/>
-        <v>-9.091893333333334E-2</v>
+        <v>-0.10792768148148142</v>
       </c>
       <c r="G59" s="9"/>
-      <c r="H59" s="20">
+      <c r="H59" s="41">
         <f t="shared" si="146"/>
-        <v>-12.274056000000002</v>
+        <v>-14.570236999999992</v>
       </c>
       <c r="I59" t="s">
         <v>7</v>
@@ -13618,7 +14061,7 @@
         <v>5617.4204380000028</v>
       </c>
       <c r="P59" s="2"/>
-      <c r="Q59" s="16"/>
+      <c r="Q59" s="15"/>
       <c r="R59" s="6">
         <f t="shared" si="152"/>
         <v>4287.6499999999996</v>
@@ -13645,7 +14088,7 @@
       </c>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="30" t="s">
         <v>162</v>
       </c>
       <c r="B60">
@@ -13661,20 +14104,20 @@
         <f t="shared" ref="E60" si="158">10%*M60+13%</f>
         <v>0.21999818200000001</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F60" s="36">
         <f t="shared" si="1"/>
-        <v>-0.12241119999999994</v>
+        <v>-0.13883073333333332</v>
       </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="20">
+      <c r="H60" s="41">
         <f t="shared" ref="H60" si="159">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>-16.525511999999992</v>
+        <v>-18.742148999999998</v>
       </c>
       <c r="I60" t="s">
         <v>7</v>
       </c>
       <c r="J60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" ref="K60" si="160">D60*C60</f>
@@ -13699,7 +14142,7 @@
       <c r="P60" s="2">
         <v>1978.76</v>
       </c>
-      <c r="Q60" s="16">
+      <c r="Q60" s="15">
         <v>1961.31</v>
       </c>
       <c r="R60" s="6">
@@ -13728,7 +14171,7 @@
       </c>
     </row>
     <row r="61" spans="1:24">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="30" t="s">
         <v>163</v>
       </c>
       <c r="B61">
@@ -13744,14 +14187,14 @@
         <f t="shared" ref="E61:E63" si="171">10%*M61+13%</f>
         <v>0.21999800400000002</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="36">
         <f t="shared" ref="F61:F63" si="172">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>-0.12505706666666658</v>
+        <v>-0.14142709629629618</v>
       </c>
       <c r="G61" s="9"/>
-      <c r="H61" s="20">
+      <c r="H61" s="41">
         <f t="shared" ref="H61:H63" si="173">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>-16.88270399999999</v>
+        <v>-19.092657999999986</v>
       </c>
       <c r="I61" t="s">
         <v>7</v>
@@ -13780,7 +14223,7 @@
         <v>4136.804919000002</v>
       </c>
       <c r="P61" s="2"/>
-      <c r="Q61" s="16"/>
+      <c r="Q61" s="15"/>
       <c r="R61" s="6">
         <f t="shared" ref="R61:R63" si="179">Q61+R60</f>
         <v>6248.9599999999991</v>
@@ -13807,7 +14250,7 @@
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="30" t="s">
         <v>164</v>
       </c>
       <c r="B62">
@@ -13823,14 +14266,14 @@
         <f t="shared" si="171"/>
         <v>0.20999883200000002</v>
       </c>
-      <c r="F62" s="30">
+      <c r="F62" s="36">
         <f t="shared" si="172"/>
-        <v>-0.13366420000000001</v>
+        <v>-0.14987319166666674</v>
       </c>
       <c r="G62" s="9"/>
-      <c r="H62" s="20">
+      <c r="H62" s="41">
         <f t="shared" si="173"/>
-        <v>-16.039704</v>
+        <v>-17.984783000000007</v>
       </c>
       <c r="I62" t="s">
         <v>7</v>
@@ -13861,7 +14304,7 @@
       <c r="P62" s="2">
         <v>126.26</v>
       </c>
-      <c r="Q62" s="16">
+      <c r="Q62" s="15">
         <v>126.97</v>
       </c>
       <c r="R62" s="6">
@@ -13890,7 +14333,7 @@
       </c>
     </row>
     <row r="63" spans="1:24">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="30" t="s">
         <v>165</v>
       </c>
       <c r="B63">
@@ -13906,14 +14349,14 @@
         <f t="shared" si="171"/>
         <v>0.21000290666666668</v>
       </c>
-      <c r="F63" s="30">
+      <c r="F63" s="36">
         <f t="shared" si="172"/>
-        <v>-0.13867360000000004</v>
+        <v>-0.15478886666666666</v>
       </c>
       <c r="G63" s="9"/>
-      <c r="H63" s="20">
+      <c r="H63" s="41">
         <f t="shared" si="173"/>
-        <v>-16.640832000000003</v>
+        <v>-18.574663999999999</v>
       </c>
       <c r="I63" t="s">
         <v>7</v>
@@ -13944,7 +14387,7 @@
       <c r="P63" s="2">
         <v>350.56</v>
       </c>
-      <c r="Q63" s="16">
+      <c r="Q63" s="15">
         <v>354.59</v>
       </c>
       <c r="R63" s="6">
@@ -13973,7 +14416,7 @@
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="30" t="s">
         <v>166</v>
       </c>
       <c r="B64">
@@ -13989,14 +14432,14 @@
         <f t="shared" ref="E64:E68" si="185">10%*M64+13%</f>
         <v>0.210000992</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F64" s="36">
         <f t="shared" ref="F64:F68" si="186">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-0.1351888</v>
+        <v>-0.15136926666666664</v>
       </c>
       <c r="G64" s="9"/>
-      <c r="H64" s="20">
+      <c r="H64" s="41">
         <f t="shared" ref="H64:H68" si="187">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-16.222656000000001</v>
+        <v>-18.164311999999995</v>
       </c>
       <c r="I64" t="s">
         <v>7</v>
@@ -14025,7 +14468,7 @@
         <v>4064.798556000002</v>
       </c>
       <c r="P64" s="2"/>
-      <c r="Q64" s="16"/>
+      <c r="Q64" s="15"/>
       <c r="R64" s="6">
         <f t="shared" ref="R64:R68" si="193">Q64+R63</f>
         <v>6730.5199999999995</v>
@@ -14052,7 +14495,7 @@
       </c>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B65">
@@ -14068,14 +14511,14 @@
         <f t="shared" si="185"/>
         <v>0.21000144800000003</v>
       </c>
-      <c r="F65" s="30">
+      <c r="F65" s="36">
         <f t="shared" si="186"/>
-        <v>-0.13664079999999998</v>
+        <v>-0.15279409999999996</v>
       </c>
       <c r="G65" s="9"/>
-      <c r="H65" s="20">
+      <c r="H65" s="41">
         <f t="shared" si="187"/>
-        <v>-16.396895999999998</v>
+        <v>-18.335291999999995</v>
       </c>
       <c r="I65" t="s">
         <v>7</v>
@@ -14104,7 +14547,7 @@
         <v>4191.6601260000016</v>
       </c>
       <c r="P65" s="2"/>
-      <c r="Q65" s="16"/>
+      <c r="Q65" s="15"/>
       <c r="R65" s="6">
         <f t="shared" si="193"/>
         <v>6730.5199999999995</v>
@@ -14131,7 +14574,7 @@
       </c>
     </row>
     <row r="66" spans="1:23">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="30" t="s">
         <v>168</v>
       </c>
       <c r="B66">
@@ -14147,14 +14590,14 @@
         <f t="shared" si="185"/>
         <v>0.21000160000000001</v>
       </c>
-      <c r="F66" s="30">
+      <c r="F66" s="36">
         <f t="shared" si="186"/>
-        <v>-0.13569700000000004</v>
+        <v>-0.15186795833333341</v>
       </c>
       <c r="G66" s="9"/>
-      <c r="H66" s="20">
+      <c r="H66" s="41">
         <f t="shared" si="187"/>
-        <v>-16.283640000000005</v>
+        <v>-18.22415500000001</v>
       </c>
       <c r="I66" t="s">
         <v>7</v>
@@ -14183,7 +14626,7 @@
         <v>4307.0932800000019</v>
       </c>
       <c r="P66" s="2"/>
-      <c r="Q66" s="16"/>
+      <c r="Q66" s="15"/>
       <c r="R66" s="6">
         <f t="shared" si="193"/>
         <v>6730.5199999999995</v>
@@ -14210,7 +14653,7 @@
       </c>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="30" t="s">
         <v>169</v>
       </c>
       <c r="B67">
@@ -14226,14 +14669,14 @@
         <f t="shared" si="185"/>
         <v>0.20999711533333335</v>
       </c>
-      <c r="F67" s="30">
+      <c r="F67" s="36">
         <f t="shared" si="186"/>
-        <v>-0.11798260000000009</v>
+        <v>-0.13448499166666666</v>
       </c>
       <c r="G67" s="9"/>
-      <c r="H67" s="20">
+      <c r="H67" s="41">
         <f t="shared" si="187"/>
-        <v>-14.15791200000001</v>
+        <v>-16.138199</v>
       </c>
       <c r="I67" t="s">
         <v>7</v>
@@ -14262,7 +14705,7 @@
         <v>4340.3488800000014</v>
       </c>
       <c r="P67" s="2"/>
-      <c r="Q67" s="16"/>
+      <c r="Q67" s="15"/>
       <c r="R67" s="6">
         <f t="shared" si="193"/>
         <v>6730.5199999999995</v>
@@ -14289,7 +14732,7 @@
       </c>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="30" t="s">
         <v>170</v>
       </c>
       <c r="B68">
@@ -14305,14 +14748,14 @@
         <f t="shared" si="185"/>
         <v>0.22000243000000003</v>
       </c>
-      <c r="F68" s="30">
+      <c r="F68" s="36">
         <f t="shared" si="186"/>
-        <v>-0.11595786666666659</v>
+        <v>-0.13249814074074071</v>
       </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="20">
+      <c r="H68" s="41">
         <f t="shared" si="187"/>
-        <v>-15.65431199999999</v>
+        <v>-17.887248999999997</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
@@ -14341,7 +14784,7 @@
         <v>4465.6848450000016</v>
       </c>
       <c r="P68" s="2"/>
-      <c r="Q68" s="16"/>
+      <c r="Q68" s="15"/>
       <c r="R68" s="6">
         <f t="shared" si="193"/>
         <v>6730.5199999999995</v>
@@ -14368,7 +14811,7 @@
       </c>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="30" t="s">
         <v>171</v>
       </c>
       <c r="B69">
@@ -14384,14 +14827,14 @@
         <f t="shared" ref="E69:E73" si="199">10%*M69+13%</f>
         <v>0.21999963</v>
       </c>
-      <c r="F69" s="30">
+      <c r="F69" s="36">
         <f t="shared" ref="F69:F73" si="200">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>-0.10692320000000016</v>
+        <v>-0.12363251111111119</v>
       </c>
       <c r="G69" s="9"/>
-      <c r="H69" s="20">
+      <c r="H69" s="41">
         <f t="shared" ref="H69:H73" si="201">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>-14.434632000000022</v>
+        <v>-16.69038900000001</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
@@ -14420,7 +14863,7 @@
         <v>4555.3703900000019</v>
       </c>
       <c r="P69" s="2"/>
-      <c r="Q69" s="16"/>
+      <c r="Q69" s="15"/>
       <c r="R69" s="6">
         <f t="shared" ref="R69:R73" si="207">Q69+R68</f>
         <v>6730.5199999999995</v>
@@ -14447,7 +14890,7 @@
       </c>
     </row>
     <row r="70" spans="1:23">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="30" t="s">
         <v>172</v>
       </c>
       <c r="B70">
@@ -14463,14 +14906,14 @@
         <f t="shared" si="199"/>
         <v>0.21999925333333337</v>
       </c>
-      <c r="F70" s="30">
+      <c r="F70" s="36">
         <f t="shared" si="200"/>
-        <v>-0.12460533333333333</v>
+        <v>-0.14098381481481481</v>
       </c>
       <c r="G70" s="9"/>
-      <c r="H70" s="20">
+      <c r="H70" s="41">
         <f t="shared" si="201"/>
-        <v>-16.821719999999999</v>
+        <v>-19.032814999999999</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
@@ -14499,7 +14942,7 @@
         <v>4782.3639360000006</v>
       </c>
       <c r="P70" s="2"/>
-      <c r="Q70" s="16"/>
+      <c r="Q70" s="15"/>
       <c r="R70" s="6">
         <f t="shared" si="207"/>
         <v>6730.5199999999995</v>
@@ -14526,7 +14969,7 @@
       </c>
     </row>
     <row r="71" spans="1:23">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B71">
@@ -14542,14 +14985,14 @@
         <f t="shared" si="199"/>
         <v>0.21000133266666668</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F71" s="36">
         <f t="shared" si="200"/>
-        <v>-0.12887260000000006</v>
+        <v>-0.14517124166666673</v>
       </c>
       <c r="G71" s="9"/>
-      <c r="H71" s="20">
+      <c r="H71" s="41">
         <f t="shared" si="201"/>
-        <v>-15.464712000000006</v>
+        <v>-17.420549000000008</v>
       </c>
       <c r="I71" t="s">
         <v>7</v>
@@ -14578,7 +15021,7 @@
         <v>4925.9125420000009</v>
       </c>
       <c r="P71" s="2"/>
-      <c r="Q71" s="16"/>
+      <c r="Q71" s="15"/>
       <c r="R71" s="6">
         <f t="shared" si="207"/>
         <v>6730.5199999999995</v>
@@ -14605,7 +15048,7 @@
       </c>
     </row>
     <row r="72" spans="1:23">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="30" t="s">
         <v>174</v>
       </c>
       <c r="B72">
@@ -14621,14 +15064,14 @@
         <f t="shared" si="199"/>
         <v>0.21000181600000001</v>
       </c>
-      <c r="F72" s="30">
+      <c r="F72" s="36">
         <f t="shared" si="200"/>
-        <v>-0.12422620000000002</v>
+        <v>-0.14061177499999999</v>
       </c>
       <c r="G72" s="9"/>
-      <c r="H72" s="20">
+      <c r="H72" s="41">
         <f t="shared" si="201"/>
-        <v>-14.907144000000002</v>
+        <v>-16.873412999999999</v>
       </c>
       <c r="I72" t="s">
         <v>7</v>
@@ -14657,7 +15100,7 @@
         <v>5019.8105400000013</v>
       </c>
       <c r="P72" s="2"/>
-      <c r="Q72" s="16"/>
+      <c r="Q72" s="15"/>
       <c r="R72" s="6">
         <f t="shared" si="207"/>
         <v>6730.5199999999995</v>
@@ -14684,7 +15127,7 @@
       </c>
     </row>
     <row r="73" spans="1:23">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="30" t="s">
         <v>175</v>
       </c>
       <c r="B73">
@@ -14700,14 +15143,14 @@
         <f t="shared" si="199"/>
         <v>0.21000130533333333</v>
       </c>
-      <c r="F73" s="30">
+      <c r="F73" s="36">
         <f t="shared" si="200"/>
-        <v>-0.12930819999999996</v>
+        <v>-0.14559869166666661</v>
       </c>
       <c r="G73" s="9"/>
-      <c r="H73" s="20">
+      <c r="H73" s="41">
         <f t="shared" si="201"/>
-        <v>-15.516983999999994</v>
+        <v>-17.471842999999993</v>
       </c>
       <c r="I73" t="s">
         <v>7</v>
@@ -14736,7 +15179,7 @@
         <v>5169.0795880000014</v>
       </c>
       <c r="P73" s="2"/>
-      <c r="Q73" s="16"/>
+      <c r="Q73" s="15"/>
       <c r="R73" s="6">
         <f t="shared" si="207"/>
         <v>6730.5199999999995</v>
@@ -14763,7 +15206,7 @@
       </c>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="30" t="s">
         <v>176</v>
       </c>
       <c r="B74">
@@ -14779,14 +15222,14 @@
         <f t="shared" ref="E74:E78" si="213">10%*M74+13%</f>
         <v>0.21000208066666667</v>
       </c>
-      <c r="F74" s="30">
+      <c r="F74" s="36">
         <f t="shared" ref="F74:F78" si="214">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
-        <v>-0.11667580000000004</v>
+        <v>-0.1332026416666667</v>
       </c>
       <c r="G74" s="9"/>
-      <c r="H74" s="20">
+      <c r="H74" s="41">
         <f t="shared" ref="H74:H78" si="215">IF(G74="",$F$1*C74-B74,G74-B74)</f>
-        <v>-14.001096000000004</v>
+        <v>-15.984317000000004</v>
       </c>
       <c r="I74" t="s">
         <v>7</v>
@@ -14815,7 +15258,7 @@
         <v>5215.2091950000013</v>
       </c>
       <c r="P74" s="2"/>
-      <c r="Q74" s="16"/>
+      <c r="Q74" s="15"/>
       <c r="R74" s="6">
         <f t="shared" ref="R74:R78" si="221">Q74+R73</f>
         <v>6730.5199999999995</v>
@@ -14842,7 +15285,7 @@
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="30" t="s">
         <v>177</v>
       </c>
       <c r="B75">
@@ -14858,14 +15301,14 @@
         <f t="shared" si="213"/>
         <v>0.22000154799999999</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F75" s="36">
         <f t="shared" si="214"/>
-        <v>-0.10285759999999995</v>
+        <v>-0.1196429777777777</v>
       </c>
       <c r="G75" s="9"/>
-      <c r="H75" s="20">
+      <c r="H75" s="41">
         <f t="shared" si="215"/>
-        <v>-13.885775999999993</v>
+        <v>-16.151801999999989</v>
       </c>
       <c r="I75" t="s">
         <v>7</v>
@@ -14894,7 +15337,7 @@
         <v>5269.839237000002</v>
       </c>
       <c r="P75" s="2"/>
-      <c r="Q75" s="16"/>
+      <c r="Q75" s="15"/>
       <c r="R75" s="6">
         <f t="shared" si="221"/>
         <v>6730.5199999999995</v>
@@ -14921,7 +15364,7 @@
       </c>
     </row>
     <row r="76" spans="1:23">
-      <c r="A76" s="36" t="s">
+      <c r="A76" s="30" t="s">
         <v>178</v>
       </c>
       <c r="B76">
@@ -14937,14 +15380,14 @@
         <f t="shared" si="213"/>
         <v>0.21999911733333335</v>
       </c>
-      <c r="F76" s="30">
+      <c r="F76" s="36">
         <f t="shared" si="214"/>
-        <v>-0.11066613333333329</v>
+        <v>-0.12730541481481475</v>
       </c>
       <c r="G76" s="9"/>
-      <c r="H76" s="20">
+      <c r="H76" s="41">
         <f t="shared" si="215"/>
-        <v>-14.939927999999995</v>
+        <v>-17.186230999999992</v>
       </c>
       <c r="I76" t="s">
         <v>7</v>
@@ -14973,7 +15416,7 @@
         <v>5450.964608000002</v>
       </c>
       <c r="P76" s="2"/>
-      <c r="Q76" s="16"/>
+      <c r="Q76" s="15"/>
       <c r="R76" s="6">
         <f t="shared" si="221"/>
         <v>6730.5199999999995</v>
@@ -15000,7 +15443,7 @@
       </c>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="36" t="s">
+      <c r="A77" s="30" t="s">
         <v>179</v>
       </c>
       <c r="B77">
@@ -15016,14 +15459,14 @@
         <f t="shared" si="213"/>
         <v>0.21999992000000002</v>
       </c>
-      <c r="F77" s="30">
+      <c r="F77" s="36">
         <f t="shared" si="214"/>
-        <v>-7.6140800000000036E-2</v>
+        <v>-9.3426044444444439E-2</v>
       </c>
       <c r="G77" s="9"/>
-      <c r="H77" s="20">
+      <c r="H77" s="41">
         <f t="shared" si="215"/>
-        <v>-10.279008000000005</v>
+        <v>-12.612515999999999</v>
       </c>
       <c r="I77" t="s">
         <v>7</v>
@@ -15052,7 +15495,7 @@
         <v>5382.3045200000015</v>
       </c>
       <c r="P77" s="2"/>
-      <c r="Q77" s="16"/>
+      <c r="Q77" s="15"/>
       <c r="R77" s="6">
         <f t="shared" si="221"/>
         <v>6730.5199999999995</v>
@@ -15079,7 +15522,7 @@
       </c>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="30" t="s">
         <v>180</v>
       </c>
       <c r="B78">
@@ -15095,14 +15538,14 @@
         <f t="shared" si="213"/>
         <v>0.220000258</v>
       </c>
-      <c r="F78" s="30">
+      <c r="F78" s="36">
         <f t="shared" si="214"/>
-        <v>-6.8332266666666683E-2</v>
+        <v>-8.5763607407407377E-2</v>
       </c>
       <c r="G78" s="9"/>
-      <c r="H78" s="20">
+      <c r="H78" s="41">
         <f t="shared" si="215"/>
-        <v>-9.2248560000000026</v>
+        <v>-11.578086999999996</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -15131,7 +15574,7 @@
         <v>5472.2145510000018</v>
       </c>
       <c r="P78" s="2"/>
-      <c r="Q78" s="16"/>
+      <c r="Q78" s="15"/>
       <c r="R78" s="6">
         <f t="shared" si="221"/>
         <v>6730.5199999999995</v>
@@ -15158,7 +15601,7 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="30" t="s">
         <v>181</v>
       </c>
       <c r="B79">
@@ -15174,14 +15617,14 @@
         <f t="shared" ref="E79:E80" si="227">10%*M79+13%</f>
         <v>0.22000302399999999</v>
       </c>
-      <c r="F79" s="30">
+      <c r="F79" s="36">
         <f t="shared" ref="F79:F80" si="228">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
-        <v>-4.4390400000000024E-2</v>
+        <v>-6.2269688888888779E-2</v>
       </c>
       <c r="G79" s="9"/>
-      <c r="H79" s="20">
+      <c r="H79" s="41">
         <f t="shared" ref="H79:H80" si="229">IF(G79="",$F$1*C79-B79,G79-B79)</f>
-        <v>-5.9927040000000034</v>
+        <v>-8.4064079999999848</v>
       </c>
       <c r="I79" t="s">
         <v>7</v>
@@ -15210,7 +15653,7 @@
         <v>5470.2820530000017</v>
       </c>
       <c r="P79" s="2"/>
-      <c r="Q79" s="16"/>
+      <c r="Q79" s="15"/>
       <c r="R79" s="6">
         <f t="shared" ref="R79:R80" si="235">Q79+R78</f>
         <v>6730.5199999999995</v>
@@ -15237,7 +15680,7 @@
       </c>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="30" t="s">
         <v>182</v>
       </c>
       <c r="B80">
@@ -15253,14 +15696,14 @@
         <f t="shared" si="227"/>
         <v>0.219999522</v>
       </c>
-      <c r="F80" s="30">
+      <c r="F80" s="36">
         <f t="shared" si="228"/>
-        <v>-5.1295466666666741E-2</v>
+        <v>-6.9045562962963075E-2</v>
       </c>
       <c r="G80" s="9"/>
-      <c r="H80" s="20">
+      <c r="H80" s="41">
         <f t="shared" si="229"/>
-        <v>-6.9248880000000099</v>
+        <v>-9.3211510000000146</v>
       </c>
       <c r="I80" t="s">
         <v>7</v>
@@ -15289,7 +15732,7 @@
         <v>5644.8819300000023</v>
       </c>
       <c r="P80" s="2"/>
-      <c r="Q80" s="16"/>
+      <c r="Q80" s="15"/>
       <c r="R80" s="6">
         <f t="shared" si="235"/>
         <v>6730.5199999999995</v>
@@ -15316,7 +15759,7 @@
       </c>
     </row>
     <row r="81" spans="1:23">
-      <c r="A81" s="36" t="s">
+      <c r="A81" s="30" t="s">
         <v>262</v>
       </c>
       <c r="B81">
@@ -15332,14 +15775,14 @@
         <f t="shared" ref="E81" si="241">10%*M81+13%</f>
         <v>0.21999800800000002</v>
       </c>
-      <c r="F81" s="30">
+      <c r="F81" s="36">
         <f t="shared" ref="F81" si="242">IF(G81="",($F$1*C81-B81)/B81,H81/B81)</f>
-        <v>2.1433599999999876E-2</v>
+        <v>2.3227555555555075E-3</v>
       </c>
       <c r="G81" s="9"/>
-      <c r="H81" s="20">
+      <c r="H81" s="41">
         <f t="shared" ref="H81" si="243">IF(G81="",$F$1*C81-B81,G81-B81)</f>
-        <v>2.8935359999999832</v>
+        <v>0.31357199999999352</v>
       </c>
       <c r="I81" t="s">
         <v>7</v>
@@ -15368,7 +15811,7 @@
         <v>5377.8586020000012</v>
       </c>
       <c r="P81" s="2"/>
-      <c r="Q81" s="16"/>
+      <c r="Q81" s="15"/>
       <c r="R81" s="6">
         <f t="shared" ref="R81" si="249">Q81+R80</f>
         <v>6730.5199999999995</v>
@@ -15395,7 +15838,7 @@
       </c>
     </row>
     <row r="82" spans="1:23">
-      <c r="A82" s="36" t="s">
+      <c r="A82" s="30" t="s">
         <v>263</v>
       </c>
       <c r="B82">
@@ -15408,17 +15851,17 @@
         <v>0.86370000000000002</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" ref="E82:E86" si="255">10%*M82+13%</f>
+        <f t="shared" ref="E82:E84" si="255">10%*M82+13%</f>
         <v>0.18999836000000001</v>
       </c>
-      <c r="F82" s="30">
-        <f t="shared" ref="F82:F86" si="256">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
-        <v>8.6559999999999433E-3</v>
+      <c r="F82" s="36">
+        <f t="shared" ref="F82:F84" si="256">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
+        <v>-1.0215777777777805E-2</v>
       </c>
       <c r="G82" s="9"/>
-      <c r="H82" s="20">
-        <f t="shared" ref="H82:H86" si="257">IF(G82="",$F$1*C82-B82,G82-B82)</f>
-        <v>0.77903999999999485</v>
+      <c r="H82" s="41">
+        <f t="shared" ref="H82:H84" si="257">IF(G82="",$F$1*C82-B82,G82-B82)</f>
+        <v>-0.91942000000000235</v>
       </c>
       <c r="I82" t="s">
         <v>7</v>
@@ -15427,15 +15870,15 @@
         <v>271</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" ref="K82:K86" si="258">D82*C82</f>
+        <f t="shared" ref="K82:K84" si="258">D82*C82</f>
         <v>89.997540000000001</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" ref="L82:L86" si="259">K82-B82</f>
+        <f t="shared" ref="L82:L84" si="259">K82-B82</f>
         <v>-2.4599999999992406E-3</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" ref="M82:M86" si="260">K82/150</f>
+        <f t="shared" ref="M82:M84" si="260">K82/150</f>
         <v>0.59998359999999995</v>
       </c>
       <c r="N82" s="6">
@@ -15443,17 +15886,17 @@
         <v>6409.5800000000017</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" ref="O82:O86" si="262">N82*D82</f>
+        <f t="shared" ref="O82:O84" si="262">N82*D82</f>
         <v>5535.9542460000021</v>
       </c>
       <c r="P82" s="2"/>
-      <c r="Q82" s="16"/>
+      <c r="Q82" s="15"/>
       <c r="R82" s="6">
         <f t="shared" ref="R82:R84" si="263">Q82+R81</f>
         <v>6730.5199999999995</v>
       </c>
       <c r="S82" s="6">
-        <f t="shared" ref="S82:S86" si="264">O82+R82</f>
+        <f t="shared" ref="S82:S84" si="264">O82+R82</f>
         <v>12266.474246000002</v>
       </c>
       <c r="T82">
@@ -15461,20 +15904,20 @@
         <v>11415</v>
       </c>
       <c r="U82" s="4">
-        <f t="shared" ref="U82:U86" si="266">S82/T82-1</f>
+        <f t="shared" ref="U82:U84" si="266">S82/T82-1</f>
         <v>7.4592575208059619E-2</v>
       </c>
       <c r="V82" s="4">
-        <f t="shared" ref="V82:V86" si="267">O82/(T82-R82)-1</f>
+        <f t="shared" ref="V82:V84" si="267">O82/(T82-R82)-1</f>
         <v>0.18176494424141021</v>
       </c>
       <c r="W82" s="1">
-        <f t="shared" ref="W82:W86" si="268">R82/S82</f>
+        <f t="shared" ref="W82:W84" si="268">R82/S82</f>
         <v>0.54869230269608793</v>
       </c>
     </row>
     <row r="83" spans="1:23">
-      <c r="A83" s="36" t="s">
+      <c r="A83" s="30" t="s">
         <v>264</v>
       </c>
       <c r="B83">
@@ -15490,14 +15933,14 @@
         <f t="shared" si="255"/>
         <v>0.190000576</v>
       </c>
-      <c r="F83" s="30">
+      <c r="F83" s="36">
         <f t="shared" si="256"/>
-        <v>1.2915200000000009E-2</v>
+        <v>-6.0362666666665945E-3</v>
       </c>
       <c r="G83" s="9"/>
-      <c r="H83" s="20">
+      <c r="H83" s="41">
         <f t="shared" si="257"/>
-        <v>1.1623680000000007</v>
+        <v>-0.54326399999999353</v>
       </c>
       <c r="I83" t="s">
         <v>7</v>
@@ -15526,7 +15969,7 @@
         <v>5602.8806220000015</v>
       </c>
       <c r="P83" s="2"/>
-      <c r="Q83" s="16"/>
+      <c r="Q83" s="15"/>
       <c r="R83" s="6">
         <f t="shared" si="263"/>
         <v>6730.5199999999995</v>
@@ -15553,7 +15996,7 @@
       </c>
     </row>
     <row r="84" spans="1:23">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B84">
@@ -15569,14 +16012,14 @@
         <f t="shared" si="255"/>
         <v>0.18999994000000001</v>
       </c>
-      <c r="F84" s="30">
+      <c r="F84" s="36">
         <f t="shared" si="256"/>
-        <v>2.4337599999999938E-2</v>
+        <v>5.1724222222220978E-3</v>
       </c>
       <c r="G84" s="9"/>
-      <c r="H84" s="20">
+      <c r="H84" s="41">
         <f t="shared" si="257"/>
-        <v>2.1903839999999946</v>
+        <v>0.46551799999998877</v>
       </c>
       <c r="I84" t="s">
         <v>7</v>
@@ -15605,7 +16048,7 @@
         <v>5630.3440200000014</v>
       </c>
       <c r="P84" s="2"/>
-      <c r="Q84" s="16"/>
+      <c r="Q84" s="15"/>
       <c r="R84" s="6">
         <f t="shared" si="263"/>
         <v>6730.5199999999995</v>
@@ -15633,36 +16076,36 @@
     </row>
     <row r="85" spans="1:23">
       <c r="A85" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B85" s="26">
+        <v>316</v>
+      </c>
+      <c r="B85" s="22">
         <v>500</v>
       </c>
-      <c r="C85" s="27">
+      <c r="C85" s="23">
         <v>587.89</v>
       </c>
-      <c r="D85" s="28">
+      <c r="D85" s="24">
         <v>0.85050000000000003</v>
       </c>
-      <c r="E85" s="32">
+      <c r="E85" s="27">
         <v>0.03</v>
       </c>
-      <c r="F85" s="30">
+      <c r="F85" s="36">
         <f t="shared" ref="F85:F86" si="269">IF(G85="",($F$1*C85-B85)/B85,H85/B85)</f>
         <v>3.4599999999999909E-2</v>
       </c>
-      <c r="G85" s="31">
+      <c r="G85" s="26">
         <v>517.29999999999995</v>
       </c>
-      <c r="H85" s="33">
+      <c r="H85" s="40">
         <f t="shared" ref="H85:H86" si="270">IF(G85="",$F$1*C85-B85,G85-B85)</f>
         <v>17.299999999999955</v>
       </c>
-      <c r="I85" s="26" t="s">
+      <c r="I85" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J85" s="26" t="s">
-        <v>316</v>
+      <c r="J85" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" ref="K85:K86" si="271">D85*C85</f>
@@ -15684,13 +16127,13 @@
         <v>6130.3444650000019</v>
       </c>
       <c r="P85" s="2"/>
-      <c r="Q85" s="16"/>
+      <c r="Q85" s="15"/>
       <c r="R85" s="6">
         <f t="shared" ref="R85:R86" si="275">Q85+R84</f>
         <v>6730.5199999999995</v>
       </c>
       <c r="S85" s="6">
-        <f t="shared" ref="S85:S86" si="276">O85+R85</f>
+        <f t="shared" ref="S85:S91" si="276">O85+R85</f>
         <v>12860.864465000002</v>
       </c>
       <c r="T85">
@@ -15711,7 +16154,7 @@
       </c>
     </row>
     <row r="86" spans="1:23">
-      <c r="A86" s="36" t="s">
+      <c r="A86" s="30" t="s">
         <v>266</v>
       </c>
       <c r="B86">
@@ -15724,17 +16167,17 @@
         <v>0.87929999999999997</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" ref="E85:E86" si="281">10%*M86+13%</f>
+        <f t="shared" ref="E86" si="281">10%*M86+13%</f>
         <v>0.18999757</v>
       </c>
-      <c r="F86" s="30">
+      <c r="F86" s="36">
         <f t="shared" si="269"/>
-        <v>-9.2520000000001178E-3</v>
+        <v>-2.7788722222222222E-2</v>
       </c>
       <c r="G86" s="9"/>
-      <c r="H86" s="20">
+      <c r="H86" s="41">
         <f t="shared" si="270"/>
-        <v>-0.83268000000001052</v>
+        <v>-2.500985</v>
       </c>
       <c r="I86" t="s">
         <v>7</v>
@@ -15751,7 +16194,7 @@
         <v>-3.6450000000058935E-3</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" ref="M85:M86" si="282">K86/150</f>
+        <f t="shared" ref="M86" si="282">K86/150</f>
         <v>0.5999757</v>
       </c>
       <c r="N86" s="6">
@@ -15765,7 +16208,7 @@
       <c r="P86" s="2">
         <v>587.89</v>
       </c>
-      <c r="Q86" s="16">
+      <c r="Q86" s="15">
         <v>517.29999999999995</v>
       </c>
       <c r="R86" s="6">
@@ -15791,6 +16234,401 @@
       <c r="W86" s="1">
         <f t="shared" si="280"/>
         <v>0.55079569156791752</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="B87">
+        <v>135</v>
+      </c>
+      <c r="C87" s="2">
+        <v>155.24</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" ref="E87:E91" si="283">10%*M87+13%</f>
+        <v>0.21999780266666669</v>
+      </c>
+      <c r="F87" s="36">
+        <f t="shared" ref="F87:F91" si="284">IF(G87="",($F$1*C87-B87)/B87,H87/B87)</f>
+        <v>-1.6928325925925948E-2</v>
+      </c>
+      <c r="G87" s="9"/>
+      <c r="H87" s="41">
+        <f t="shared" ref="H87:H91" si="285">IF(G87="",$F$1*C87-B87,G87-B87)</f>
+        <v>-2.2853240000000028</v>
+      </c>
+      <c r="I87" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87" t="s">
+        <v>318</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" ref="K87:K91" si="286">D87*C87</f>
+        <v>134.99670400000002</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" ref="L87:L91" si="287">K87-B87</f>
+        <v>-3.2959999999775391E-3</v>
+      </c>
+      <c r="M87" s="1">
+        <f t="shared" ref="M87:M91" si="288">K87/150</f>
+        <v>0.89997802666666682</v>
+      </c>
+      <c r="N87" s="6">
+        <f t="shared" ref="N87:N91" si="289">N86+C87-P87</f>
+        <v>6877.6300000000019</v>
+      </c>
+      <c r="O87" s="2">
+        <f t="shared" ref="O87:O91" si="290">N87*D87</f>
+        <v>5980.787048000002</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="6">
+        <f t="shared" ref="R87:R91" si="291">Q87+R86</f>
+        <v>7247.82</v>
+      </c>
+      <c r="S87" s="6">
+        <f t="shared" si="276"/>
+        <v>13228.607048000002</v>
+      </c>
+      <c r="T87">
+        <f t="shared" ref="T87:T91" si="292">T86+B87</f>
+        <v>12320</v>
+      </c>
+      <c r="U87" s="4">
+        <f t="shared" ref="U87:U91" si="293">S87/T87-1</f>
+        <v>7.3750572077922127E-2</v>
+      </c>
+      <c r="V87" s="4">
+        <f t="shared" ref="V87:V91" si="294">O87/(T87-R87)-1</f>
+        <v>0.17913541080955353</v>
+      </c>
+      <c r="W87" s="1">
+        <f t="shared" ref="W87:W91" si="295">R87/S87</f>
+        <v>0.54788988543550232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B88">
+        <v>135</v>
+      </c>
+      <c r="C88" s="2">
+        <v>156.34</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="283"/>
+        <v>0.21999972666666667</v>
+      </c>
+      <c r="F88" s="36">
+        <f t="shared" si="284"/>
+        <v>-9.9624740740740375E-3</v>
+      </c>
+      <c r="G88" s="9"/>
+      <c r="H88" s="41">
+        <f t="shared" si="285"/>
+        <v>-1.344933999999995</v>
+      </c>
+      <c r="I88" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" t="s">
+        <v>320</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="286"/>
+        <v>134.99959000000001</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="287"/>
+        <v>-4.0999999998803105E-4</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" si="288"/>
+        <v>0.8999972666666668</v>
+      </c>
+      <c r="N88" s="6">
+        <f t="shared" si="289"/>
+        <v>7033.9700000000021</v>
+      </c>
+      <c r="O88" s="2">
+        <f t="shared" si="290"/>
+        <v>6073.8330950000018</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="6">
+        <f t="shared" si="291"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S88" s="6">
+        <f t="shared" si="276"/>
+        <v>13321.653095000001</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="292"/>
+        <v>12455</v>
+      </c>
+      <c r="U88" s="4">
+        <f t="shared" si="293"/>
+        <v>6.9582745483741659E-2</v>
+      </c>
+      <c r="V88" s="4">
+        <f t="shared" si="294"/>
+        <v>0.16643424944019625</v>
+      </c>
+      <c r="W88" s="1">
+        <f t="shared" si="295"/>
+        <v>0.54406310900861954</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B89">
+        <v>135</v>
+      </c>
+      <c r="C89" s="2">
+        <v>153.08000000000001</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="283"/>
+        <v>0.2200008346666667</v>
+      </c>
+      <c r="F89" s="36">
+        <f t="shared" si="284"/>
+        <v>-3.0606725925925789E-2</v>
+      </c>
+      <c r="G89" s="9"/>
+      <c r="H89" s="41">
+        <f t="shared" si="285"/>
+        <v>-4.1319079999999815</v>
+      </c>
+      <c r="I89" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" t="s">
+        <v>322</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="286"/>
+        <v>135.00125200000002</v>
+      </c>
+      <c r="L89" s="2">
+        <f t="shared" si="287"/>
+        <v>1.2520000000222353E-3</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" si="288"/>
+        <v>0.90000834666666685</v>
+      </c>
+      <c r="N89" s="6">
+        <f t="shared" si="289"/>
+        <v>7187.050000000002</v>
+      </c>
+      <c r="O89" s="2">
+        <f t="shared" si="290"/>
+        <v>6338.2593950000019</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="6">
+        <f t="shared" si="291"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S89" s="6">
+        <f t="shared" si="276"/>
+        <v>13586.079395000001</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="292"/>
+        <v>12590</v>
+      </c>
+      <c r="U89" s="4">
+        <f t="shared" si="293"/>
+        <v>7.9116711278792717E-2</v>
+      </c>
+      <c r="V89" s="4">
+        <f t="shared" si="294"/>
+        <v>0.18645560333047584</v>
+      </c>
+      <c r="W89" s="1">
+        <f t="shared" si="295"/>
+        <v>0.53347399122865202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="B90">
+        <v>135</v>
+      </c>
+      <c r="C90" s="2">
+        <v>152.16</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="283"/>
+        <v>0.21999756800000003</v>
+      </c>
+      <c r="F90" s="36">
+        <f t="shared" si="284"/>
+        <v>-3.6432711111111168E-2</v>
+      </c>
+      <c r="G90" s="9"/>
+      <c r="H90" s="41">
+        <f t="shared" si="285"/>
+        <v>-4.9184160000000077</v>
+      </c>
+      <c r="I90" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" t="s">
+        <v>324</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="286"/>
+        <v>134.996352</v>
+      </c>
+      <c r="L90" s="2">
+        <f t="shared" si="287"/>
+        <v>-3.6479999999983193E-3</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" si="288"/>
+        <v>0.89997568000000006</v>
+      </c>
+      <c r="N90" s="6">
+        <f t="shared" si="289"/>
+        <v>7339.2100000000019</v>
+      </c>
+      <c r="O90" s="2">
+        <f t="shared" si="290"/>
+        <v>6511.3471120000013</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="6">
+        <f t="shared" si="291"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S90" s="6">
+        <f t="shared" si="276"/>
+        <v>13759.167112000001</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="292"/>
+        <v>12725</v>
+      </c>
+      <c r="U90" s="4">
+        <f t="shared" si="293"/>
+        <v>8.1270499960707454E-2</v>
+      </c>
+      <c r="V90" s="4">
+        <f t="shared" si="294"/>
+        <v>0.18881378957784856</v>
+      </c>
+      <c r="W90" s="1">
+        <f t="shared" si="295"/>
+        <v>0.52676298943115851</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B91">
+        <v>135</v>
+      </c>
+      <c r="C91" s="2">
+        <v>156.97999999999999</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="283"/>
+        <v>0.22000186666666666</v>
+      </c>
+      <c r="F91" s="36">
+        <f t="shared" si="284"/>
+        <v>-5.9096148148148168E-3</v>
+      </c>
+      <c r="G91" s="9"/>
+      <c r="H91" s="41">
+        <f t="shared" si="285"/>
+        <v>-0.79779800000000023</v>
+      </c>
+      <c r="I91" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91" t="s">
+        <v>326</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="286"/>
+        <v>135.00279999999998</v>
+      </c>
+      <c r="L91" s="2">
+        <f t="shared" si="287"/>
+        <v>2.7999999999792635E-3</v>
+      </c>
+      <c r="M91" s="1">
+        <f t="shared" si="288"/>
+        <v>0.90001866666666652</v>
+      </c>
+      <c r="N91" s="6">
+        <f t="shared" si="289"/>
+        <v>7496.1900000000014</v>
+      </c>
+      <c r="O91" s="2">
+        <f t="shared" si="290"/>
+        <v>6446.7234000000008</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="6">
+        <f t="shared" si="291"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S91" s="6">
+        <f t="shared" si="276"/>
+        <v>13694.5434</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="292"/>
+        <v>12860</v>
+      </c>
+      <c r="U91" s="4">
+        <f t="shared" si="293"/>
+        <v>6.4894510108864711E-2</v>
+      </c>
+      <c r="V91" s="4">
+        <f t="shared" si="294"/>
+        <v>0.14870217990157131</v>
+      </c>
+      <c r="W91" s="1">
+        <f t="shared" si="295"/>
+        <v>0.5292487517327521</v>
       </c>
     </row>
   </sheetData>
@@ -15856,7 +16694,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F86">
+  <conditionalFormatting sqref="F2:F91">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99642B07-7FDA-3D49-AA64-4C200F3C74E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28110F6D-7A1C-C047-BBB9-B69CA564DA54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="350">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -1579,6 +1579,60 @@
   </si>
   <si>
     <t>DT_HS300_20190517</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190520</t>
+  </si>
+  <si>
+    <t>20190520购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190521</t>
+  </si>
+  <si>
+    <t>20190521购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190522</t>
+  </si>
+  <si>
+    <t>20190522购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190523</t>
+  </si>
+  <si>
+    <t>20190523购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190524</t>
+  </si>
+  <si>
+    <t>20190524购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190527</t>
+  </si>
+  <si>
+    <t>20190527购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190520</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190521</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190522</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190523</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190524</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190527</t>
   </si>
 </sst>
 </file>
@@ -2114,13 +2168,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X90"/>
+  <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2164,14 +2218,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="38">
-        <v>1.1028</v>
+        <v>1.0992999999999999</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="43" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19981),2)</f>
-        <v>盈利670.8</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19977),2)</f>
+        <v>盈利647.98</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -3675,11 +3729,11 @@
       </c>
       <c r="F20" s="37">
         <f>IF(G20="",($F$1*C20-B20)/B20,H20/B20)</f>
-        <v>0.14593173333333331</v>
+        <v>0.14229484444444437</v>
       </c>
       <c r="H20" s="42">
         <f t="shared" si="5"/>
-        <v>39.401567999999997</v>
+        <v>38.419607999999982</v>
       </c>
       <c r="I20" t="s">
         <v>7</v>
@@ -3753,11 +3807,11 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="4"/>
-        <v>0.14237826666666673</v>
+        <v>0.13875265555555549</v>
       </c>
       <c r="H21" s="42">
         <f t="shared" si="5"/>
-        <v>38.442132000000015</v>
+        <v>37.463216999999986</v>
       </c>
       <c r="I21" t="s">
         <v>7</v>
@@ -3831,11 +3885,11 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="4"/>
-        <v>0.15097722352941173</v>
+        <v>0.14732432156862743</v>
       </c>
       <c r="H22" s="42">
         <f t="shared" si="5"/>
-        <v>38.499191999999994</v>
+        <v>37.567701999999997</v>
       </c>
       <c r="I22" t="s">
         <v>7</v>
@@ -3909,11 +3963,11 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="4"/>
-        <v>0.13976422222222237</v>
+        <v>0.13614690740740734</v>
       </c>
       <c r="H23" s="42">
         <f t="shared" si="5"/>
-        <v>37.736340000000041</v>
+        <v>36.759664999999984</v>
       </c>
       <c r="I23" t="s">
         <v>7</v>
@@ -3987,11 +4041,11 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="4"/>
-        <v>0.12489924705882356</v>
+        <v>0.12132910980392152</v>
       </c>
       <c r="H24" s="42">
         <f t="shared" si="5"/>
-        <v>31.849308000000008</v>
+        <v>30.938922999999988</v>
       </c>
       <c r="I24" t="s">
         <v>7</v>
@@ -4065,11 +4119,11 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="4"/>
-        <v>0.10613002352941174</v>
+        <v>0.10261945490196075</v>
       </c>
       <c r="H25" s="42">
         <f t="shared" si="5"/>
-        <v>27.063155999999992</v>
+        <v>26.167960999999991</v>
       </c>
       <c r="I25" t="s">
         <v>7</v>
@@ -4224,11 +4278,11 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="4"/>
-        <v>7.8433371428571486E-2</v>
+        <v>7.5010704761904801E-2</v>
       </c>
       <c r="H27" s="42">
         <f t="shared" si="5"/>
-        <v>8.2355040000000059</v>
+        <v>7.8761240000000043</v>
       </c>
       <c r="I27" t="s">
         <v>7</v>
@@ -4464,11 +4518,11 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="4"/>
-        <v>6.432453333333335E-2</v>
+        <v>6.0946644444444413E-2</v>
       </c>
       <c r="H30" s="42">
         <f t="shared" si="5"/>
-        <v>5.7892080000000021</v>
+        <v>5.4851979999999969</v>
       </c>
       <c r="I30" t="s">
         <v>7</v>
@@ -4542,11 +4596,11 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="4"/>
-        <v>6.6285066666666614E-2</v>
+        <v>6.2900955555555527E-2</v>
       </c>
       <c r="H31" s="42">
         <f t="shared" si="5"/>
-        <v>5.9656559999999956</v>
+        <v>5.6610859999999974</v>
       </c>
       <c r="I31" t="s">
         <v>7</v>
@@ -4620,11 +4674,11 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="4"/>
-        <v>6.2854133333333256E-2</v>
+        <v>5.9480911111111034E-2</v>
       </c>
       <c r="H32" s="42">
         <f t="shared" si="5"/>
-        <v>5.6568719999999928</v>
+        <v>5.353281999999993</v>
       </c>
       <c r="I32" t="s">
         <v>7</v>
@@ -4698,11 +4752,11 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="4"/>
-        <v>6.5427333333333434E-2</v>
+        <v>6.204594444444448E-2</v>
       </c>
       <c r="H33" s="42">
         <f t="shared" si="5"/>
-        <v>5.8884600000000091</v>
+        <v>5.5841350000000034</v>
       </c>
       <c r="I33" t="s">
         <v>7</v>
@@ -4776,11 +4830,11 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="4"/>
-        <v>4.3371333333333456E-2</v>
+        <v>4.0059944444444461E-2</v>
       </c>
       <c r="H34" s="42">
         <f t="shared" si="5"/>
-        <v>3.9034200000000112</v>
+        <v>3.6053950000000015</v>
       </c>
       <c r="I34" t="s">
         <v>7</v>
@@ -4854,11 +4908,11 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="4"/>
-        <v>-1.2299644444444388E-2</v>
+        <v>-1.5434348148148223E-2</v>
       </c>
       <c r="H35" s="42">
         <f t="shared" si="5"/>
-        <v>-1.6604519999999923</v>
+        <v>-2.0836370000000102</v>
       </c>
       <c r="I35" t="s">
         <v>7</v>
@@ -4936,11 +4990,11 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="4"/>
-        <v>-1.0265777777777674E-3</v>
+        <v>-4.1970592592591588E-3</v>
       </c>
       <c r="H36" s="42">
         <f t="shared" ref="H36" si="33">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>-0.1385879999999986</v>
+        <v>-0.56660299999998642</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
@@ -5014,11 +5068,11 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="4"/>
-        <v>7.7057777777777452E-4</v>
+        <v>-2.4056074074074465E-3</v>
       </c>
       <c r="H37" s="42">
         <f t="shared" ref="H37:H39" si="44">IF(G37="",$F$1*C37-B37,G37-B37)</f>
-        <v>0.10402799999999957</v>
+        <v>-0.32475700000000529</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -5092,11 +5146,11 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="4"/>
-        <v>3.2212444444444034E-3</v>
+        <v>3.7281481481462228E-5</v>
       </c>
       <c r="H38" s="42">
         <f t="shared" si="44"/>
-        <v>0.43486799999999448</v>
+        <v>5.0329999999974007E-3</v>
       </c>
       <c r="I38" t="s">
         <v>7</v>
@@ -5170,11 +5224,11 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="4"/>
-        <v>-1.7200977777777855E-2</v>
+        <v>-2.0320125925926042E-2</v>
       </c>
       <c r="H39" s="42">
         <f t="shared" si="44"/>
-        <v>-2.3221320000000105</v>
+        <v>-2.7432170000000156</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
@@ -5248,11 +5302,11 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="4"/>
-        <v>-2.7983911111111107E-2</v>
+        <v>-3.1068837037037157E-2</v>
       </c>
       <c r="H40" s="42">
         <f t="shared" ref="H40" si="49">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>-3.7778279999999995</v>
+        <v>-4.194293000000016</v>
       </c>
       <c r="I40" t="s">
         <v>7</v>
@@ -5330,11 +5384,11 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="4"/>
-        <v>-3.3375377777777736E-2</v>
+        <v>-3.644319259259271E-2</v>
       </c>
       <c r="H41" s="42">
         <f t="shared" ref="H41" si="61">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-4.505675999999994</v>
+        <v>-4.9198310000000163</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -5412,11 +5466,11 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="4"/>
-        <v>-4.1217511111110987E-2</v>
+        <v>-4.426043703703697E-2</v>
       </c>
       <c r="H42" s="42">
         <f t="shared" ref="H42" si="73">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-5.5643639999999834</v>
+        <v>-5.9751589999999908</v>
       </c>
       <c r="I42" t="s">
         <v>7</v>
@@ -5494,11 +5548,11 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="4"/>
-        <v>-3.1904977777777628E-2</v>
+        <v>-3.4977459259259283E-2</v>
       </c>
       <c r="H43" s="42">
         <f t="shared" ref="H43" si="86">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-4.30717199999998</v>
+        <v>-4.7219570000000033</v>
       </c>
       <c r="I43" t="s">
         <v>7</v>
@@ -5572,11 +5626,11 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="4"/>
-        <v>6.3254222222221199E-3</v>
+        <v>3.1316074074073572E-3</v>
       </c>
       <c r="H44" s="42">
         <f t="shared" ref="H44" si="99">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>0.85393199999998615</v>
+        <v>0.42276699999999323</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
@@ -5650,11 +5704,11 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="4"/>
-        <v>-1.2544711111111072E-2</v>
+        <v>-1.5678637037037198E-2</v>
       </c>
       <c r="H45" s="42">
         <f t="shared" ref="H45:H49" si="112">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>-1.6935359999999946</v>
+        <v>-2.1166160000000218</v>
       </c>
       <c r="I45" t="s">
         <v>7</v>
@@ -5728,11 +5782,11 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="4"/>
-        <v>-1.8834755555555468E-2</v>
+        <v>-2.1948718518518508E-2</v>
       </c>
       <c r="H46" s="42">
         <f t="shared" si="112"/>
-        <v>-2.5426919999999882</v>
+        <v>-2.9630769999999984</v>
       </c>
       <c r="I46" t="s">
         <v>7</v>
@@ -5806,11 +5860,11 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="4"/>
-        <v>-1.0992622222222213E-2</v>
+        <v>-1.4131474074074252E-2</v>
       </c>
       <c r="H47" s="42">
         <f t="shared" si="112"/>
-        <v>-1.4840039999999988</v>
+        <v>-1.9077490000000239</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
@@ -5884,11 +5938,11 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="4"/>
-        <v>-4.4575111111111324E-3</v>
+        <v>-7.6171037037037577E-3</v>
       </c>
       <c r="H48" s="42">
         <f t="shared" si="112"/>
-        <v>-0.60176400000000285</v>
+        <v>-1.0283090000000072</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
@@ -5962,11 +6016,11 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="4"/>
-        <v>-1.6302400000000085E-2</v>
+        <v>-1.9424400000000081E-2</v>
       </c>
       <c r="H49" s="42">
         <f t="shared" si="112"/>
-        <v>-2.2008240000000114</v>
+        <v>-2.6222940000000108</v>
       </c>
       <c r="I49" t="s">
         <v>7</v>
@@ -6040,11 +6094,11 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="4"/>
-        <v>-4.2279466666666689E-2</v>
+        <v>-4.5319022222222387E-2</v>
       </c>
       <c r="H50" s="42">
         <f t="shared" ref="H50:H54" si="125">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>-5.707728000000003</v>
+        <v>-6.1180680000000223</v>
       </c>
       <c r="I50" t="s">
         <v>7</v>
@@ -6118,11 +6172,11 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="4"/>
-        <v>-3.7868266666666588E-2</v>
+        <v>-4.0921822222222307E-2</v>
       </c>
       <c r="H51" s="42">
         <f t="shared" si="125"/>
-        <v>-5.1122159999999894</v>
+        <v>-5.5244460000000117</v>
       </c>
       <c r="I51" t="s">
         <v>7</v>
@@ -6196,11 +6250,11 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="4"/>
-        <v>-3.8195022222222236E-2</v>
+        <v>-4.1247540740740801E-2</v>
       </c>
       <c r="H52" s="42">
         <f t="shared" si="125"/>
-        <v>-5.156328000000002</v>
+        <v>-5.5684180000000083</v>
       </c>
       <c r="I52" t="s">
         <v>7</v>
@@ -6274,11 +6328,11 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="4"/>
-        <v>-3.8521777777777676E-2</v>
+        <v>-4.1573259259259296E-2</v>
       </c>
       <c r="H53" s="42">
         <f t="shared" si="125"/>
-        <v>-5.2004399999999862</v>
+        <v>-5.6123900000000049</v>
       </c>
       <c r="I53" t="s">
         <v>7</v>
@@ -6352,11 +6406,11 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="4"/>
-        <v>-3.7868266666666588E-2</v>
+        <v>-4.0921822222222307E-2</v>
       </c>
       <c r="H54" s="42">
         <f t="shared" si="125"/>
-        <v>-5.1122159999999894</v>
+        <v>-5.5244460000000117</v>
       </c>
       <c r="I54" t="s">
         <v>7</v>
@@ -6431,11 +6485,11 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="4"/>
-        <v>-1.5730577777777751E-2</v>
+        <v>-1.8854392592592611E-2</v>
       </c>
       <c r="H55" s="42">
         <f t="shared" ref="H55:H59" si="138">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>-2.1236279999999965</v>
+        <v>-2.5453430000000026</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
@@ -6509,11 +6563,11 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="4"/>
-        <v>-5.0293333333332546E-3</v>
+        <v>-8.1871111111112248E-3</v>
       </c>
       <c r="H56" s="42">
         <f t="shared" si="138"/>
-        <v>-0.67895999999998935</v>
+        <v>-1.1052600000000155</v>
       </c>
       <c r="I56" t="s">
         <v>7</v>
@@ -6587,11 +6641,11 @@
       </c>
       <c r="F57" s="37">
         <f t="shared" si="4"/>
-        <v>-1.5567200000000033E-2</v>
+        <v>-1.8691533333333364E-2</v>
       </c>
       <c r="H57" s="42">
         <f t="shared" si="138"/>
-        <v>-2.1015720000000044</v>
+        <v>-2.5233570000000043</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
@@ -6665,11 +6719,11 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="4"/>
-        <v>-1.2054577777777704E-2</v>
+        <v>-1.5190059259259248E-2</v>
       </c>
       <c r="H58" s="42">
         <f t="shared" si="138"/>
-        <v>-1.6273679999999899</v>
+        <v>-2.0506579999999985</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -6743,11 +6797,11 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="4"/>
-        <v>-4.6854044444444298E-2</v>
+        <v>-4.9879081481481499E-2</v>
       </c>
       <c r="H59" s="42">
         <f t="shared" si="138"/>
-        <v>-6.3252959999999803</v>
+        <v>-6.7336760000000027</v>
       </c>
       <c r="I59" t="s">
         <v>7</v>
@@ -6825,11 +6879,11 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="4"/>
-        <v>-7.0380444444444482E-2</v>
+        <v>-7.3330814814814904E-2</v>
       </c>
       <c r="H60" s="42">
         <f t="shared" ref="H60" si="151">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>-9.5013600000000054</v>
+        <v>-9.8996600000000115</v>
       </c>
       <c r="I60" t="s">
         <v>7</v>
@@ -6907,11 +6961,11 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" ref="F61:F63" si="164">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>-6.9890311111111117E-2</v>
+        <v>-7.2842237037037058E-2</v>
       </c>
       <c r="H61" s="42">
         <f t="shared" ref="H61:H63" si="165">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>-9.4351920000000007</v>
+        <v>-9.8337020000000024</v>
       </c>
       <c r="I61" t="s">
         <v>7</v>
@@ -6985,11 +7039,11 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="164"/>
-        <v>-8.1081688888888878E-2</v>
+        <v>-8.3998096296296385E-2</v>
       </c>
       <c r="H62" s="42">
         <f t="shared" si="165"/>
-        <v>-10.946027999999998</v>
+        <v>-11.339743000000013</v>
       </c>
       <c r="I62" t="s">
         <v>7</v>
@@ -7067,11 +7121,11 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="164"/>
-        <v>-8.98223999999999E-2</v>
+        <v>-9.2711066666666633E-2</v>
       </c>
       <c r="H63" s="42">
         <f t="shared" si="165"/>
-        <v>-10.778687999999988</v>
+        <v>-11.125327999999996</v>
       </c>
       <c r="I63" t="s">
         <v>7</v>
@@ -7145,11 +7199,11 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" ref="F64:F68" si="178">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-8.9087199999999936E-2</v>
+        <v>-9.1978200000000024E-2</v>
       </c>
       <c r="H64" s="42">
         <f t="shared" ref="H64:H68" si="179">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-10.690463999999992</v>
+        <v>-11.037384000000003</v>
       </c>
       <c r="I64" t="s">
         <v>7</v>
@@ -7227,11 +7281,11 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="178"/>
-        <v>-9.2855099999999996E-2</v>
+        <v>-9.5734141666666758E-2</v>
       </c>
       <c r="H65" s="42">
         <f t="shared" si="179"/>
-        <v>-11.142612</v>
+        <v>-11.48809700000001</v>
       </c>
       <c r="I65" t="s">
         <v>7</v>
@@ -7305,11 +7359,11 @@
       </c>
       <c r="F66" s="37">
         <f t="shared" si="178"/>
-        <v>-9.506070000000004E-2</v>
+        <v>-9.7932741666666698E-2</v>
       </c>
       <c r="H66" s="42">
         <f t="shared" si="179"/>
-        <v>-11.407284000000004</v>
+        <v>-11.751929000000004</v>
       </c>
       <c r="I66" t="s">
         <v>7</v>
@@ -7383,11 +7437,11 @@
       </c>
       <c r="F67" s="37">
         <f t="shared" si="178"/>
-        <v>-7.6221200000000044E-2</v>
+        <v>-7.9153033333333414E-2</v>
       </c>
       <c r="H67" s="42">
         <f t="shared" si="179"/>
-        <v>-9.1465440000000058</v>
+        <v>-9.4983640000000094</v>
       </c>
       <c r="I67" t="s">
         <v>7</v>
@@ -7461,11 +7515,11 @@
       </c>
       <c r="F68" s="37">
         <f t="shared" si="178"/>
-        <v>-7.4199400000000068E-2</v>
+        <v>-7.7137650000000113E-2</v>
       </c>
       <c r="H68" s="42">
         <f t="shared" si="179"/>
-        <v>-8.9039280000000076</v>
+        <v>-9.256518000000014</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
@@ -7539,11 +7593,11 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" ref="F69:F73" si="192">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>-7.1350500000000025E-2</v>
+        <v>-7.4297791666666765E-2</v>
       </c>
       <c r="H69" s="42">
         <f t="shared" ref="H69:H73" si="193">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>-8.5620600000000024</v>
+        <v>-8.9157350000000122</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
@@ -7617,11 +7671,11 @@
       </c>
       <c r="F70" s="37">
         <f t="shared" si="192"/>
-        <v>-9.4805422222222227E-2</v>
+        <v>-9.7678274074074159E-2</v>
       </c>
       <c r="H70" s="42">
         <f t="shared" si="193"/>
-        <v>-12.798732000000001</v>
+        <v>-13.186567000000011</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
@@ -7695,11 +7749,11 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="192"/>
-        <v>-9.5152600000000004E-2</v>
+        <v>-9.8024350000000149E-2</v>
       </c>
       <c r="H71" s="42">
         <f t="shared" si="193"/>
-        <v>-11.418312</v>
+        <v>-11.762922000000017</v>
       </c>
       <c r="I71" t="s">
         <v>7</v>
@@ -7773,11 +7827,11 @@
       </c>
       <c r="F72" s="37">
         <f t="shared" si="192"/>
-        <v>-9.2028000000000054E-2</v>
+        <v>-9.4909666666666698E-2</v>
       </c>
       <c r="H72" s="42">
         <f t="shared" si="193"/>
-        <v>-11.043360000000007</v>
+        <v>-11.389160000000004</v>
       </c>
       <c r="I72" t="s">
         <v>7</v>
@@ -7851,11 +7905,11 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="192"/>
-        <v>-0.10213699999999998</v>
+        <v>-0.10498658333333341</v>
       </c>
       <c r="H73" s="42">
         <f t="shared" si="193"/>
-        <v>-12.256439999999998</v>
+        <v>-12.598390000000009</v>
       </c>
       <c r="I73" t="s">
         <v>7</v>
@@ -7933,11 +7987,11 @@
       </c>
       <c r="F74" s="37">
         <f t="shared" ref="F74:F78" si="206">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
-        <v>-8.2102800000000073E-2</v>
+        <v>-8.5015966666666762E-2</v>
       </c>
       <c r="H74" s="42">
         <f t="shared" ref="H74:H78" si="207">IF(G74="",$F$1*C74-B74,G74-B74)</f>
-        <v>-9.8523360000000082</v>
+        <v>-10.201916000000011</v>
       </c>
       <c r="I74" t="s">
         <v>7</v>
@@ -8011,11 +8065,11 @@
       </c>
       <c r="F75" s="37">
         <f t="shared" si="206"/>
-        <v>-8.0724299999999971E-2</v>
+        <v>-8.3641841666666744E-2</v>
       </c>
       <c r="H75" s="42">
         <f t="shared" si="207"/>
-        <v>-9.6869159999999965</v>
+        <v>-10.03702100000001</v>
       </c>
       <c r="I75" t="s">
         <v>7</v>
@@ -8089,11 +8143,11 @@
       </c>
       <c r="F76" s="37">
         <f t="shared" si="206"/>
-        <v>-8.3021799999999979E-2</v>
+        <v>-8.5932050000000024E-2</v>
       </c>
       <c r="H76" s="42">
         <f t="shared" si="207"/>
-        <v>-9.962615999999997</v>
+        <v>-10.311846000000003</v>
       </c>
       <c r="I76" t="s">
         <v>7</v>
@@ -8167,11 +8221,11 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="206"/>
-        <v>-6.3630899999999949E-2</v>
+        <v>-6.6602691666666658E-2</v>
       </c>
       <c r="H77" s="42">
         <f t="shared" si="207"/>
-        <v>-7.6357079999999939</v>
+        <v>-7.992322999999999</v>
       </c>
       <c r="I77" t="s">
         <v>7</v>
@@ -8245,11 +8299,11 @@
       </c>
       <c r="F78" s="37">
         <f t="shared" si="206"/>
-        <v>-5.1755377777777764E-2</v>
+        <v>-5.4764859259259321E-2</v>
       </c>
       <c r="H78" s="42">
         <f t="shared" si="207"/>
-        <v>-6.9869759999999985</v>
+        <v>-7.393256000000008</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -8323,11 +8377,11 @@
       </c>
       <c r="F79" s="37">
         <f t="shared" ref="F79:F80" si="220">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
-        <v>-5.4287733333333359E-2</v>
+        <v>-5.7289177777777853E-2</v>
       </c>
       <c r="H79" s="42">
         <f t="shared" ref="H79:H80" si="221">IF(G79="",$F$1*C79-B79,G79-B79)</f>
-        <v>-7.3288440000000037</v>
+        <v>-7.7340390000000099</v>
       </c>
       <c r="I79" t="s">
         <v>7</v>
@@ -8401,11 +8455,11 @@
       </c>
       <c r="F80" s="37">
         <f t="shared" si="220"/>
-        <v>-5.7228533333333359E-2</v>
+        <v>-6.0220644444444499E-2</v>
       </c>
       <c r="H80" s="42">
         <f t="shared" si="221"/>
-        <v>-7.7258520000000033</v>
+        <v>-8.1297870000000074</v>
       </c>
       <c r="I80" t="s">
         <v>7</v>
@@ -8479,11 +8533,11 @@
       </c>
       <c r="F81" s="37">
         <f t="shared" ref="F81" si="234">IF(G81="",($F$1*C81-B81)/B81,H81/B81)</f>
-        <v>-2.3335999999999414E-3</v>
+        <v>-5.4999333333333412E-3</v>
       </c>
       <c r="H81" s="42">
         <f t="shared" ref="H81" si="235">IF(G81="",$F$1*C81-B81,G81-B81)</f>
-        <v>-0.3150359999999921</v>
+        <v>-0.74249100000000112</v>
       </c>
       <c r="I81" t="s">
         <v>7</v>
@@ -8557,11 +8611,11 @@
       </c>
       <c r="F82" s="37">
         <f t="shared" ref="F82:F85" si="248">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
-        <v>-1.1482755555555581E-2</v>
+        <v>-1.462005185185178E-2</v>
       </c>
       <c r="H82" s="42">
         <f t="shared" ref="H82:H85" si="249">IF(G82="",$F$1*C82-B82,G82-B82)</f>
-        <v>-1.5501720000000034</v>
+        <v>-1.9737069999999903</v>
       </c>
       <c r="I82" t="s">
         <v>7</v>
@@ -8635,11 +8689,11 @@
       </c>
       <c r="F83" s="37">
         <f t="shared" si="248"/>
-        <v>1.8325333333332648E-3</v>
+        <v>-1.3470222222222387E-3</v>
       </c>
       <c r="H83" s="42">
         <f t="shared" si="249"/>
-        <v>0.24739199999999073</v>
+        <v>-0.18184800000000223</v>
       </c>
       <c r="I83" t="s">
         <v>7</v>
@@ -8713,11 +8767,11 @@
       </c>
       <c r="F84" s="37">
         <f t="shared" si="248"/>
-        <v>1.9559022222222212E-2</v>
+        <v>1.6323207407407381E-2</v>
       </c>
       <c r="H84" s="42">
         <f t="shared" si="249"/>
-        <v>2.6404679999999985</v>
+        <v>2.2036329999999964</v>
       </c>
       <c r="I84" t="s">
         <v>7</v>
@@ -8791,11 +8845,11 @@
       </c>
       <c r="F85" s="37">
         <f t="shared" si="248"/>
-        <v>-1.4096799999999928E-2</v>
+        <v>-1.7225800000000145E-2</v>
       </c>
       <c r="H85" s="42">
         <f t="shared" si="249"/>
-        <v>-1.9030679999999904</v>
+        <v>-2.3254830000000197</v>
       </c>
       <c r="I85" t="s">
         <v>7</v>
@@ -8869,11 +8923,11 @@
       </c>
       <c r="F86" s="37">
         <f t="shared" ref="F86:F90" si="262">IF(G86="",($F$1*C86-B86)/B86,H86/B86)</f>
-        <v>1.5057777777778263E-3</v>
+        <v>-1.6727407407409424E-3</v>
       </c>
       <c r="H86" s="42">
         <f t="shared" ref="H86:H90" si="263">IF(G86="",$F$1*C86-B86,G86-B86)</f>
-        <v>0.20328000000000657</v>
+        <v>-0.22582000000002722</v>
       </c>
       <c r="I86" t="s">
         <v>7</v>
@@ -8947,11 +9001,11 @@
       </c>
       <c r="F87" s="37">
         <f t="shared" si="262"/>
-        <v>7.4690666666665743E-3</v>
+        <v>4.2716222222220828E-3</v>
       </c>
       <c r="H87" s="42">
         <f t="shared" si="263"/>
-        <v>1.0083239999999876</v>
+        <v>0.57666899999998122</v>
       </c>
       <c r="I87" t="s">
         <v>7</v>
@@ -9025,11 +9079,11 @@
       </c>
       <c r="F88" s="37">
         <f t="shared" si="262"/>
-        <v>-1.3688355555555526E-2</v>
+        <v>-1.6818651851851923E-2</v>
       </c>
       <c r="H88" s="42">
         <f t="shared" si="263"/>
-        <v>-1.847927999999996</v>
+        <v>-2.2705180000000098</v>
       </c>
       <c r="I88" t="s">
         <v>7</v>
@@ -9103,11 +9157,11 @@
       </c>
       <c r="F89" s="37">
         <f t="shared" si="262"/>
-        <v>-1.7691111111111012E-2</v>
+        <v>-2.0808703703703781E-2</v>
       </c>
       <c r="H89" s="42">
         <f t="shared" si="263"/>
-        <v>-2.3882999999999868</v>
+        <v>-2.8091750000000104</v>
       </c>
       <c r="I89" t="s">
         <v>7</v>
@@ -9181,11 +9235,11 @@
       </c>
       <c r="F90" s="37">
         <f t="shared" si="262"/>
-        <v>6.733866666666523E-3</v>
+        <v>3.5387555555553684E-3</v>
       </c>
       <c r="H90" s="42">
         <f t="shared" si="263"/>
-        <v>0.90907199999998056</v>
+        <v>0.47773199999997473</v>
       </c>
       <c r="I90" t="s">
         <v>7</v>
@@ -9238,6 +9292,474 @@
       <c r="W90" s="1">
         <f t="shared" si="274"/>
         <v>0.28216315504882244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B91">
+        <v>135</v>
+      </c>
+      <c r="C91" s="33">
+        <v>124.22</v>
+      </c>
+      <c r="D91" s="34">
+        <v>1.0857000000000001</v>
+      </c>
+      <c r="E91" s="19">
+        <f t="shared" ref="E91:E96" si="275">10%*M91+13%</f>
+        <v>0.21991043600000001</v>
+      </c>
+      <c r="F91" s="37">
+        <f t="shared" ref="F91:F96" si="276">IF(G91="",($F$1*C91-B91)/B91,H91/B91)</f>
+        <v>1.1518859259259292E-2</v>
+      </c>
+      <c r="H91" s="42">
+        <f t="shared" ref="H91:H96" si="277">IF(G91="",$F$1*C91-B91,G91-B91)</f>
+        <v>1.5550460000000044</v>
+      </c>
+      <c r="I91" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91" t="s">
+        <v>333</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" ref="K91:K96" si="278">D91*C91</f>
+        <v>134.86565400000001</v>
+      </c>
+      <c r="L91" s="2">
+        <f t="shared" ref="L91:L96" si="279">B91-K91</f>
+        <v>0.13434599999999364</v>
+      </c>
+      <c r="M91" s="1">
+        <f t="shared" ref="M91:M96" si="280">K91/150</f>
+        <v>0.89910436000000005</v>
+      </c>
+      <c r="N91" s="6">
+        <f t="shared" ref="N91:N96" si="281">N90+C91-P91</f>
+        <v>8693.02</v>
+      </c>
+      <c r="O91" s="2">
+        <f t="shared" ref="O91:O96" si="282">N91*D91</f>
+        <v>9438.0118140000013</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="6">
+        <f t="shared" ref="R91:R96" si="283">R90+Q91</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S91" s="6">
+        <f t="shared" ref="S91:S96" si="284">R91+O91</f>
+        <v>13124.141814000001</v>
+      </c>
+      <c r="T91">
+        <f t="shared" ref="T91:T96" si="285">T90+B91</f>
+        <v>12600</v>
+      </c>
+      <c r="U91" s="4">
+        <f t="shared" ref="U91:U96" si="286">S91/T91-1</f>
+        <v>4.1598556666666786E-2</v>
+      </c>
+      <c r="V91" s="4">
+        <f t="shared" ref="V91:V96" si="287">O91/(T91-R91)-1</f>
+        <v>5.8800702051970744E-2</v>
+      </c>
+      <c r="W91" s="1">
+        <f t="shared" ref="W91:W96" si="288">R91/S91</f>
+        <v>0.28086636461577019</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B92">
+        <v>135</v>
+      </c>
+      <c r="C92" s="33">
+        <v>122.65</v>
+      </c>
+      <c r="D92" s="34">
+        <v>1.0995999999999999</v>
+      </c>
+      <c r="E92" s="19">
+        <f t="shared" si="275"/>
+        <v>0.21991062666666666</v>
+      </c>
+      <c r="F92" s="37">
+        <f t="shared" si="276"/>
+        <v>-1.2655925925925103E-3</v>
+      </c>
+      <c r="H92" s="42">
+        <f t="shared" si="277"/>
+        <v>-0.17085499999998888</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" t="s">
+        <v>335</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="278"/>
+        <v>134.86593999999999</v>
+      </c>
+      <c r="L92" s="2">
+        <f t="shared" si="279"/>
+        <v>0.13406000000000518</v>
+      </c>
+      <c r="M92" s="1">
+        <f t="shared" si="280"/>
+        <v>0.8991062666666666</v>
+      </c>
+      <c r="N92" s="6">
+        <f t="shared" si="281"/>
+        <v>8815.67</v>
+      </c>
+      <c r="O92" s="2">
+        <f t="shared" si="282"/>
+        <v>9693.7107319999996</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="6">
+        <f t="shared" si="283"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S92" s="6">
+        <f t="shared" si="284"/>
+        <v>13379.840731999999</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="285"/>
+        <v>12735</v>
+      </c>
+      <c r="U92" s="4">
+        <f t="shared" si="286"/>
+        <v>5.0635314644679852E-2</v>
+      </c>
+      <c r="V92" s="4">
+        <f t="shared" si="287"/>
+        <v>7.126201746737415E-2</v>
+      </c>
+      <c r="W92" s="1">
+        <f t="shared" si="288"/>
+        <v>0.2754987950778845</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B93">
+        <v>135</v>
+      </c>
+      <c r="C93" s="33">
+        <v>123.19</v>
+      </c>
+      <c r="D93" s="34">
+        <v>1.0948</v>
+      </c>
+      <c r="E93" s="19">
+        <f t="shared" si="275"/>
+        <v>0.21991227466666668</v>
+      </c>
+      <c r="F93" s="37">
+        <f t="shared" si="276"/>
+        <v>3.1316074074073572E-3</v>
+      </c>
+      <c r="H93" s="42">
+        <f t="shared" si="277"/>
+        <v>0.42276699999999323</v>
+      </c>
+      <c r="I93" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93" t="s">
+        <v>337</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="278"/>
+        <v>134.86841200000001</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" si="279"/>
+        <v>0.1315879999999936</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" si="280"/>
+        <v>0.89912274666666669</v>
+      </c>
+      <c r="N93" s="6">
+        <f t="shared" si="281"/>
+        <v>8938.86</v>
+      </c>
+      <c r="O93" s="2">
+        <f t="shared" si="282"/>
+        <v>9786.2639280000003</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="6">
+        <f t="shared" si="283"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S93" s="6">
+        <f t="shared" si="284"/>
+        <v>13472.393928</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="285"/>
+        <v>12870</v>
+      </c>
+      <c r="U93" s="4">
+        <f t="shared" si="286"/>
+        <v>4.6806055011654912E-2</v>
+      </c>
+      <c r="V93" s="4">
+        <f t="shared" si="287"/>
+        <v>6.5592601811654605E-2</v>
+      </c>
+      <c r="W93" s="1">
+        <f t="shared" si="288"/>
+        <v>0.27360616232717389</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B94">
+        <v>135</v>
+      </c>
+      <c r="C94" s="33">
+        <v>125.15</v>
+      </c>
+      <c r="D94" s="34">
+        <v>1.0777000000000001</v>
+      </c>
+      <c r="E94" s="19">
+        <f t="shared" si="275"/>
+        <v>0.21991610333333336</v>
+      </c>
+      <c r="F94" s="37">
+        <f t="shared" si="276"/>
+        <v>1.9091814814814784E-2</v>
+      </c>
+      <c r="H94" s="42">
+        <f t="shared" si="277"/>
+        <v>2.5773949999999957</v>
+      </c>
+      <c r="I94" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94" t="s">
+        <v>339</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="278"/>
+        <v>134.87415500000003</v>
+      </c>
+      <c r="L94" s="2">
+        <f t="shared" si="279"/>
+        <v>0.12584499999996979</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" si="280"/>
+        <v>0.89916103333333353</v>
+      </c>
+      <c r="N94" s="6">
+        <f t="shared" si="281"/>
+        <v>9064.01</v>
+      </c>
+      <c r="O94" s="2">
+        <f t="shared" si="282"/>
+        <v>9768.283577000002</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="6">
+        <f t="shared" si="283"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S94" s="6">
+        <f t="shared" si="284"/>
+        <v>13454.413577000001</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="285"/>
+        <v>13005</v>
+      </c>
+      <c r="U94" s="4">
+        <f t="shared" si="286"/>
+        <v>3.4556984006151481E-2</v>
+      </c>
+      <c r="V94" s="4">
+        <f t="shared" si="287"/>
+        <v>4.8226188046404994E-2</v>
+      </c>
+      <c r="W94" s="1">
+        <f t="shared" si="288"/>
+        <v>0.27397180701367402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B95">
+        <v>135</v>
+      </c>
+      <c r="C95" s="33">
+        <v>124.8</v>
+      </c>
+      <c r="D95" s="34">
+        <v>1.0807</v>
+      </c>
+      <c r="E95" s="19">
+        <f t="shared" si="275"/>
+        <v>0.21991424000000004</v>
+      </c>
+      <c r="F95" s="37">
+        <f t="shared" si="276"/>
+        <v>1.6241777777777654E-2</v>
+      </c>
+      <c r="H95" s="42">
+        <f t="shared" si="277"/>
+        <v>2.192639999999983</v>
+      </c>
+      <c r="I95" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95" t="s">
+        <v>341</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="278"/>
+        <v>134.87136000000001</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" si="279"/>
+        <v>0.1286399999999901</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" si="280"/>
+        <v>0.89914240000000012</v>
+      </c>
+      <c r="N95" s="6">
+        <f t="shared" si="281"/>
+        <v>9188.81</v>
+      </c>
+      <c r="O95" s="2">
+        <f t="shared" si="282"/>
+        <v>9930.3469669999995</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="6">
+        <f t="shared" si="283"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S95" s="6">
+        <f t="shared" si="284"/>
+        <v>13616.476966999999</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="285"/>
+        <v>13140</v>
+      </c>
+      <c r="U95" s="4">
+        <f t="shared" si="286"/>
+        <v>3.626156522070012E-2</v>
+      </c>
+      <c r="V95" s="4">
+        <f t="shared" si="287"/>
+        <v>5.0400202985655396E-2</v>
+      </c>
+      <c r="W95" s="1">
+        <f t="shared" si="288"/>
+        <v>0.27071099293403594</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B96">
+        <v>135</v>
+      </c>
+      <c r="C96" s="33">
+        <v>123.34</v>
+      </c>
+      <c r="D96" s="34">
+        <v>1.0934999999999999</v>
+      </c>
+      <c r="E96" s="19">
+        <f t="shared" si="275"/>
+        <v>0.21991485999999999</v>
+      </c>
+      <c r="F96" s="37">
+        <f t="shared" si="276"/>
+        <v>4.3530518518518115E-3</v>
+      </c>
+      <c r="H96" s="42">
+        <f t="shared" si="277"/>
+        <v>0.58766199999999458</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>343</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="278"/>
+        <v>134.87228999999999</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="279"/>
+        <v>0.12771000000000754</v>
+      </c>
+      <c r="M96" s="1">
+        <f t="shared" si="280"/>
+        <v>0.89914859999999996</v>
+      </c>
+      <c r="N96" s="6">
+        <f t="shared" si="281"/>
+        <v>9312.15</v>
+      </c>
+      <c r="O96" s="2">
+        <f t="shared" si="282"/>
+        <v>10182.836024999999</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="6">
+        <f t="shared" si="283"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S96" s="6">
+        <f t="shared" si="284"/>
+        <v>13868.966024999998</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="285"/>
+        <v>13275</v>
+      </c>
+      <c r="U96" s="4">
+        <f t="shared" si="286"/>
+        <v>4.4743203389830288E-2</v>
+      </c>
+      <c r="V96" s="4">
+        <f t="shared" si="287"/>
+        <v>6.1943276423603422E-2</v>
+      </c>
+      <c r="W96" s="1">
+        <f t="shared" si="288"/>
+        <v>0.26578261085616872</v>
       </c>
     </row>
   </sheetData>
@@ -9303,7 +9825,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F90">
+  <conditionalFormatting sqref="F2:F96">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9366,13 +9888,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X91"/>
+  <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9414,14 +9936,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="38">
-        <v>0.85489999999999999</v>
+        <v>0.86529999999999996</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="39" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19984),2)</f>
-        <v>盈利799.31</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19980),2)</f>
+        <v>盈利885.91</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -12110,12 +12632,12 @@
       </c>
       <c r="F35" s="36">
         <f t="shared" si="1"/>
-        <v>-2.3541361904761835E-2</v>
+        <v>-1.1662580952380928E-2</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="41">
         <f t="shared" si="2"/>
-        <v>-2.4718429999999927</v>
+        <v>-1.2245709999999974</v>
       </c>
       <c r="I35" t="s">
         <v>7</v>
@@ -12189,12 +12711,12 @@
       </c>
       <c r="F36" s="36">
         <f t="shared" si="1"/>
-        <v>-2.2374355555555621E-2</v>
+        <v>-1.0481377777777823E-2</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="41">
         <f t="shared" si="2"/>
-        <v>-2.013692000000006</v>
+        <v>-0.94332400000000405</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
@@ -12268,12 +12790,12 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="1"/>
-        <v>-1.847981111111115E-2</v>
+        <v>-6.5394555555556618E-3</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="41">
         <f t="shared" si="2"/>
-        <v>-1.6631830000000036</v>
+        <v>-0.58855100000000959</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -12347,12 +12869,12 @@
       </c>
       <c r="F38" s="36">
         <f t="shared" si="1"/>
-        <v>-1.97146666666667E-2</v>
+        <v>-7.7893333333334015E-3</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="41">
         <f t="shared" si="2"/>
-        <v>-1.774320000000003</v>
+        <v>-0.7010400000000061</v>
       </c>
       <c r="I38" t="s">
         <v>7</v>
@@ -12426,12 +12948,12 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="1"/>
-        <v>-2.7313777777777659E-2</v>
+        <v>-1.5480888888888936E-2</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="41">
         <f t="shared" si="2"/>
-        <v>-2.4582399999999893</v>
+        <v>-1.3932800000000043</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
@@ -12505,12 +13027,12 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="1"/>
-        <v>-4.3525214814814958E-2</v>
+        <v>-3.1889540740740831E-2</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="41">
         <f t="shared" ref="H40" si="57">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>-5.8759040000000198</v>
+        <v>-4.305088000000012</v>
       </c>
       <c r="I40" t="s">
         <v>7</v>
@@ -12584,12 +13106,12 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="1"/>
-        <v>-6.6892481481481469E-2</v>
+        <v>-5.5541074074074111E-2</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="41">
         <f t="shared" ref="H41" si="69">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-9.0304849999999988</v>
+        <v>-7.4980450000000047</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -12667,12 +13189,12 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="1"/>
-        <v>-8.1964051851851821E-2</v>
+        <v>-7.0795992592592658E-2</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="41">
         <f t="shared" ref="H42" si="81">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-11.065146999999996</v>
+        <v>-9.5574590000000086</v>
       </c>
       <c r="I42" t="s">
         <v>7</v>
@@ -12750,12 +13272,12 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="1"/>
-        <v>-9.3109414814814731E-2</v>
+        <v>-8.2076940740740748E-2</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="41">
         <f t="shared" ref="H43" si="94">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-12.569770999999989</v>
+        <v>-11.080387000000002</v>
       </c>
       <c r="I43" t="s">
         <v>7</v>
@@ -12833,12 +13355,12 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="1"/>
-        <v>-6.0876518518518476E-2</v>
+        <v>-4.9451925925925858E-2</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="41">
         <f t="shared" ref="H44" si="107">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>-8.2183299999999946</v>
+        <v>-6.6760099999999909</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
@@ -12912,12 +13434,12 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="1"/>
-        <v>-9.4122629629629584E-2</v>
+        <v>-8.3102481481481472E-2</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="41">
         <f t="shared" ref="H45:H49" si="120">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>-12.706554999999994</v>
+        <v>-11.218834999999999</v>
       </c>
       <c r="I45" t="s">
         <v>7</v>
@@ -12991,12 +13513,12 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="1"/>
-        <v>-0.10856094074074073</v>
+        <v>-9.7716437037036974E-2</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="41">
         <f t="shared" si="120"/>
-        <v>-14.655726999999999</v>
+        <v>-13.191718999999992</v>
       </c>
       <c r="I46" t="s">
         <v>7</v>
@@ -13070,12 +13592,12 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="1"/>
-        <v>-8.880325185185195E-2</v>
+        <v>-7.7718392592592736E-2</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="41">
         <f t="shared" si="120"/>
-        <v>-11.988439000000014</v>
+        <v>-10.491983000000019</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
@@ -13149,12 +13671,12 @@
       </c>
       <c r="F48" s="36">
         <f t="shared" si="1"/>
-        <v>-6.8348977777777709E-2</v>
+        <v>-5.701528888888887E-2</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="41">
         <f t="shared" si="120"/>
-        <v>-9.2271119999999911</v>
+        <v>-7.6970639999999975</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
@@ -13228,12 +13750,12 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="1"/>
-        <v>-7.8101170370370329E-2</v>
+        <v>-6.6886118518518473E-2</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="41">
         <f t="shared" si="120"/>
-        <v>-10.543657999999994</v>
+        <v>-9.0296259999999933</v>
       </c>
       <c r="I49" t="s">
         <v>7</v>
@@ -13307,12 +13829,12 @@
       </c>
       <c r="F50" s="36">
         <f t="shared" si="1"/>
-        <v>-0.10064519999999991</v>
+        <v>-8.9704400000000031E-2</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="41">
         <f t="shared" ref="H50:H54" si="133">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>-13.587101999999987</v>
+        <v>-12.110094000000004</v>
       </c>
       <c r="I50" t="s">
         <v>7</v>
@@ -13386,12 +13908,12 @@
       </c>
       <c r="F51" s="36">
         <f t="shared" si="1"/>
-        <v>-0.1038748222222223</v>
+        <v>-9.2973311111111179E-2</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="41">
         <f t="shared" si="133"/>
-        <v>-14.023101000000011</v>
+        <v>-12.551397000000009</v>
       </c>
       <c r="I51" t="s">
         <v>7</v>
@@ -13469,12 +13991,12 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="1"/>
-        <v>-0.10267162962962972</v>
+        <v>-9.1755481481481563E-2</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="41">
         <f t="shared" si="133"/>
-        <v>-13.860670000000013</v>
+        <v>-12.386990000000011</v>
       </c>
       <c r="I52" t="s">
         <v>7</v>
@@ -13548,12 +14070,12 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="1"/>
-        <v>-0.11419694814814818</v>
+        <v>-0.10342100740740745</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="41">
         <f t="shared" si="133"/>
-        <v>-15.416588000000004</v>
+        <v>-13.961836000000005</v>
       </c>
       <c r="I53" t="s">
         <v>7</v>
@@ -13631,12 +14153,12 @@
       </c>
       <c r="F54" s="36">
         <f t="shared" si="1"/>
-        <v>-0.11900971851851849</v>
+        <v>-0.10829232592592598</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="41">
         <f t="shared" si="133"/>
-        <v>-16.066311999999996</v>
+        <v>-14.619464000000008</v>
       </c>
       <c r="I54" t="s">
         <v>7</v>
@@ -13711,12 +14233,12 @@
       </c>
       <c r="F55" s="36">
         <f t="shared" si="1"/>
-        <v>-0.10824431111111113</v>
+        <v>-9.7395955555555663E-2</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="41">
         <f t="shared" ref="H55:H59" si="146">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>-14.612982000000002</v>
+        <v>-13.148454000000015</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
@@ -13790,12 +14312,12 @@
       </c>
       <c r="F56" s="36">
         <f t="shared" si="1"/>
-        <v>-8.399048148148143E-2</v>
+        <v>-7.2847074074074092E-2</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="41">
         <f t="shared" si="146"/>
-        <v>-11.338714999999993</v>
+        <v>-9.8343550000000022</v>
       </c>
       <c r="I56" t="s">
         <v>7</v>
@@ -13869,12 +14391,12 @@
       </c>
       <c r="F57" s="36">
         <f t="shared" si="1"/>
-        <v>-9.2159525925925814E-2</v>
+        <v>-8.1115496296296302E-2</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="41">
         <f t="shared" si="146"/>
-        <v>-12.441535999999985</v>
+        <v>-10.950592</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
@@ -13948,12 +14470,12 @@
       </c>
       <c r="F58" s="36">
         <f t="shared" si="1"/>
-        <v>-7.9937622222222324E-2</v>
+        <v>-6.8744911111111223E-2</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="41">
         <f t="shared" si="146"/>
-        <v>-10.791579000000013</v>
+        <v>-9.280563000000015</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -14027,12 +14549,12 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="1"/>
-        <v>-0.10792768148148142</v>
+        <v>-9.7075474074074047E-2</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="41">
         <f t="shared" si="146"/>
-        <v>-14.570236999999992</v>
+        <v>-13.105188999999996</v>
       </c>
       <c r="I59" t="s">
         <v>7</v>
@@ -14106,12 +14628,12 @@
       </c>
       <c r="F60" s="36">
         <f t="shared" si="1"/>
-        <v>-0.13883073333333332</v>
+        <v>-0.12835446666666669</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="41">
         <f t="shared" ref="H60" si="159">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>-18.742148999999998</v>
+        <v>-17.327853000000005</v>
       </c>
       <c r="I60" t="s">
         <v>7</v>
@@ -14189,12 +14711,12 @@
       </c>
       <c r="F61" s="36">
         <f t="shared" ref="F61:F63" si="172">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>-0.14142709629629618</v>
+        <v>-0.13098241481481482</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="41">
         <f t="shared" ref="H61:H63" si="173">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>-19.092657999999986</v>
+        <v>-17.682625999999999</v>
       </c>
       <c r="I61" t="s">
         <v>7</v>
@@ -14268,12 +14790,12 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="172"/>
-        <v>-0.14987319166666674</v>
+        <v>-0.13953125833333335</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="41">
         <f t="shared" si="173"/>
-        <v>-17.984783000000007</v>
+        <v>-16.743751000000003</v>
       </c>
       <c r="I62" t="s">
         <v>7</v>
@@ -14351,12 +14873,12 @@
       </c>
       <c r="F63" s="36">
         <f t="shared" si="172"/>
-        <v>-0.15478886666666666</v>
+        <v>-0.14450673333333341</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="41">
         <f t="shared" si="173"/>
-        <v>-18.574663999999999</v>
+        <v>-17.34080800000001</v>
       </c>
       <c r="I63" t="s">
         <v>7</v>
@@ -14434,12 +14956,12 @@
       </c>
       <c r="F64" s="36">
         <f t="shared" ref="F64:F68" si="186">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-0.15136926666666664</v>
+        <v>-0.14104553333333339</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="41">
         <f t="shared" ref="H64:H68" si="187">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-18.164311999999995</v>
+        <v>-16.925464000000005</v>
       </c>
       <c r="I64" t="s">
         <v>7</v>
@@ -14513,12 +15035,12 @@
       </c>
       <c r="F65" s="36">
         <f t="shared" si="186"/>
-        <v>-0.15279409999999996</v>
+        <v>-0.14248769999999997</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="41">
         <f t="shared" si="187"/>
-        <v>-18.335291999999995</v>
+        <v>-17.098523999999998</v>
       </c>
       <c r="I65" t="s">
         <v>7</v>
@@ -14592,12 +15114,12 @@
       </c>
       <c r="F66" s="36">
         <f t="shared" si="186"/>
-        <v>-0.15186795833333341</v>
+        <v>-0.14155029166666669</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="41">
         <f t="shared" si="187"/>
-        <v>-18.22415500000001</v>
+        <v>-16.986035000000001</v>
       </c>
       <c r="I66" t="s">
         <v>7</v>
@@ -14671,12 +15193,12 @@
       </c>
       <c r="F67" s="36">
         <f t="shared" si="186"/>
-        <v>-0.13448499166666666</v>
+        <v>-0.12395585833333342</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="41">
         <f t="shared" si="187"/>
-        <v>-16.138199</v>
+        <v>-14.874703000000011</v>
       </c>
       <c r="I67" t="s">
         <v>7</v>
@@ -14750,12 +15272,12 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="186"/>
-        <v>-0.13249814074074071</v>
+        <v>-0.12194483703703704</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="41">
         <f t="shared" si="187"/>
-        <v>-17.887248999999997</v>
+        <v>-16.462553</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
@@ -14829,12 +15351,12 @@
       </c>
       <c r="F69" s="36">
         <f t="shared" ref="F69:F73" si="200">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>-0.12363251111111119</v>
+        <v>-0.11297135555555574</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="41">
         <f t="shared" ref="H69:H73" si="201">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>-16.69038900000001</v>
+        <v>-15.251133000000024</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
@@ -14908,12 +15430,12 @@
       </c>
       <c r="F70" s="36">
         <f t="shared" si="200"/>
-        <v>-0.14098381481481481</v>
+        <v>-0.13053374074074076</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="41">
         <f t="shared" si="201"/>
-        <v>-19.032814999999999</v>
+        <v>-17.622055000000003</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
@@ -14987,12 +15509,12 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="200"/>
-        <v>-0.14517124166666673</v>
+        <v>-0.13477210833333342</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="41">
         <f t="shared" si="201"/>
-        <v>-17.420549000000008</v>
+        <v>-16.172653000000011</v>
       </c>
       <c r="I71" t="s">
         <v>7</v>
@@ -15066,12 +15588,12 @@
       </c>
       <c r="F72" s="36">
         <f t="shared" si="200"/>
-        <v>-0.14061177499999999</v>
+        <v>-0.13015717500000007</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="41">
         <f t="shared" si="201"/>
-        <v>-16.873412999999999</v>
+        <v>-15.61886100000001</v>
       </c>
       <c r="I72" t="s">
         <v>7</v>
@@ -15145,12 +15667,12 @@
       </c>
       <c r="F73" s="36">
         <f t="shared" si="200"/>
-        <v>-0.14559869166666661</v>
+        <v>-0.13520475833333331</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="41">
         <f t="shared" si="201"/>
-        <v>-17.471842999999993</v>
+        <v>-16.224570999999997</v>
       </c>
       <c r="I73" t="s">
         <v>7</v>
@@ -15224,12 +15746,12 @@
       </c>
       <c r="F74" s="36">
         <f t="shared" ref="F74:F78" si="214">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
-        <v>-0.1332026416666667</v>
+        <v>-0.12265790833333341</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="41">
         <f t="shared" ref="H74:H78" si="215">IF(G74="",$F$1*C74-B74,G74-B74)</f>
-        <v>-15.984317000000004</v>
+        <v>-14.718949000000009</v>
       </c>
       <c r="I74" t="s">
         <v>7</v>
@@ -15303,12 +15825,12 @@
       </c>
       <c r="F75" s="36">
         <f t="shared" si="214"/>
-        <v>-0.1196429777777777</v>
+        <v>-0.10893328888888892</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="41">
         <f t="shared" si="215"/>
-        <v>-16.151801999999989</v>
+        <v>-14.705994000000004</v>
       </c>
       <c r="I75" t="s">
         <v>7</v>
@@ -15382,12 +15904,12 @@
       </c>
       <c r="F76" s="36">
         <f t="shared" si="214"/>
-        <v>-0.12730541481481475</v>
+        <v>-0.11668894074074082</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="41">
         <f t="shared" si="215"/>
-        <v>-17.186230999999992</v>
+        <v>-15.753007000000011</v>
       </c>
       <c r="I76" t="s">
         <v>7</v>
@@ -15461,12 +15983,12 @@
       </c>
       <c r="F77" s="36">
         <f t="shared" si="214"/>
-        <v>-9.3426044444444439E-2</v>
+        <v>-8.239742222222228E-2</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="41">
         <f t="shared" si="215"/>
-        <v>-12.612515999999999</v>
+        <v>-11.123652000000007</v>
       </c>
       <c r="I77" t="s">
         <v>7</v>
@@ -15540,12 +16062,12 @@
       </c>
       <c r="F78" s="36">
         <f t="shared" si="214"/>
-        <v>-8.5763607407407377E-2</v>
+        <v>-7.4641770370370369E-2</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="41">
         <f t="shared" si="215"/>
-        <v>-11.578086999999996</v>
+        <v>-10.076639</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -15619,12 +16141,12 @@
       </c>
       <c r="F79" s="36">
         <f t="shared" ref="F79:F80" si="228">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
-        <v>-6.2269688888888779E-2</v>
+        <v>-5.0862044444444462E-2</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="41">
         <f t="shared" ref="H79:H80" si="229">IF(G79="",$F$1*C79-B79,G79-B79)</f>
-        <v>-8.4064079999999848</v>
+        <v>-6.8663760000000025</v>
       </c>
       <c r="I79" t="s">
         <v>7</v>
@@ -15698,12 +16220,12 @@
       </c>
       <c r="F80" s="36">
         <f t="shared" si="228"/>
-        <v>-6.9045562962963075E-2</v>
+        <v>-5.7720348148148276E-2</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="41">
         <f t="shared" si="229"/>
-        <v>-9.3211510000000146</v>
+        <v>-7.7922470000000175</v>
       </c>
       <c r="I80" t="s">
         <v>7</v>
@@ -15777,12 +16299,12 @@
       </c>
       <c r="F81" s="36">
         <f t="shared" ref="F81" si="242">IF(G81="",($F$1*C81-B81)/B81,H81/B81)</f>
-        <v>2.3227555555555075E-3</v>
+        <v>1.4516177777777641E-2</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="41">
         <f t="shared" ref="H81" si="243">IF(G81="",$F$1*C81-B81,G81-B81)</f>
-        <v>0.31357199999999352</v>
+        <v>1.9596839999999816</v>
       </c>
       <c r="I81" t="s">
         <v>7</v>
@@ -15856,12 +16378,12 @@
       </c>
       <c r="F82" s="36">
         <f t="shared" ref="F82:F84" si="256">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
-        <v>-1.0215777777777805E-2</v>
+        <v>1.825111111111097E-3</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="41">
         <f t="shared" ref="H82:H84" si="257">IF(G82="",$F$1*C82-B82,G82-B82)</f>
-        <v>-0.91942000000000235</v>
+        <v>0.16425999999999874</v>
       </c>
       <c r="I82" t="s">
         <v>7</v>
@@ -15935,12 +16457,12 @@
       </c>
       <c r="F83" s="36">
         <f t="shared" si="256"/>
-        <v>-6.0362666666665945E-3</v>
+        <v>6.0554666666665941E-3</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="41">
         <f t="shared" si="257"/>
-        <v>-0.54326399999999353</v>
+        <v>0.54499199999999348</v>
       </c>
       <c r="I83" t="s">
         <v>7</v>
@@ -16014,12 +16536,12 @@
       </c>
       <c r="F84" s="36">
         <f t="shared" si="256"/>
-        <v>5.1724222222220978E-3</v>
+        <v>1.7400511111110954E-2</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="41">
         <f t="shared" si="257"/>
-        <v>0.46551799999998877</v>
+        <v>1.5660459999999858</v>
       </c>
       <c r="I84" t="s">
         <v>7</v>
@@ -16172,12 +16694,12 @@
       </c>
       <c r="F86" s="36">
         <f t="shared" si="269"/>
-        <v>-2.7788722222222222E-2</v>
+        <v>-1.5961611111111218E-2</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="41">
         <f t="shared" si="270"/>
-        <v>-2.500985</v>
+        <v>-1.4365450000000095</v>
       </c>
       <c r="I86" t="s">
         <v>7</v>
@@ -16255,12 +16777,12 @@
       </c>
       <c r="F87" s="36">
         <f t="shared" ref="F87:F91" si="284">IF(G87="",($F$1*C87-B87)/B87,H87/B87)</f>
-        <v>-1.6928325925925948E-2</v>
+        <v>-4.9690962962962975E-3</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="41">
         <f t="shared" ref="H87:H91" si="285">IF(G87="",$F$1*C87-B87,G87-B87)</f>
-        <v>-2.2853240000000028</v>
+        <v>-0.6708280000000002</v>
       </c>
       <c r="I87" t="s">
         <v>7</v>
@@ -16334,12 +16856,12 @@
       </c>
       <c r="F88" s="36">
         <f t="shared" si="284"/>
-        <v>-9.9624740740740375E-3</v>
+        <v>2.0814962962963026E-3</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="41">
         <f t="shared" si="285"/>
-        <v>-1.344933999999995</v>
+        <v>0.28100200000000086</v>
       </c>
       <c r="I88" t="s">
         <v>7</v>
@@ -16413,12 +16935,12 @@
       </c>
       <c r="F89" s="36">
         <f t="shared" si="284"/>
-        <v>-3.0606725925925789E-2</v>
+        <v>-1.8813896296296241E-2</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="41">
         <f t="shared" si="285"/>
-        <v>-4.1319079999999815</v>
+        <v>-2.5398759999999925</v>
       </c>
       <c r="I89" t="s">
         <v>7</v>
@@ -16492,12 +17014,12 @@
       </c>
       <c r="F90" s="36">
         <f t="shared" si="284"/>
-        <v>-3.6432711111111168E-2</v>
+        <v>-2.4710755555555707E-2</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="41">
         <f t="shared" si="285"/>
-        <v>-4.9184160000000077</v>
+        <v>-3.3359520000000202</v>
       </c>
       <c r="I90" t="s">
         <v>7</v>
@@ -16571,12 +17093,12 @@
       </c>
       <c r="F91" s="36">
         <f t="shared" si="284"/>
-        <v>-5.9096148148148168E-3</v>
+        <v>6.1836592592591708E-3</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="41">
         <f t="shared" si="285"/>
-        <v>-0.79779800000000023</v>
+        <v>0.83479399999998805</v>
       </c>
       <c r="I91" t="s">
         <v>7</v>
@@ -16629,6 +17151,480 @@
       <c r="W91" s="1">
         <f t="shared" si="295"/>
         <v>0.5292487517327521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B92">
+        <v>240</v>
+      </c>
+      <c r="C92" s="2">
+        <v>280.01</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" ref="E92:E97" si="296">10%*M92+13%</f>
+        <v>0.28999771400000002</v>
+      </c>
+      <c r="F92" s="36">
+        <f t="shared" ref="F92:F97" si="297">IF(G92="",($F$1*C92-B92)/B92,H92/B92)</f>
+        <v>9.5527208333332208E-3</v>
+      </c>
+      <c r="G92" s="9"/>
+      <c r="H92" s="41">
+        <f t="shared" ref="H92:H97" si="298">IF(G92="",$F$1*C92-B92,G92-B92)</f>
+        <v>2.292652999999973</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" t="s">
+        <v>333</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" ref="K92:K97" si="299">D92*C92</f>
+        <v>239.99657099999999</v>
+      </c>
+      <c r="L92" s="2">
+        <f t="shared" ref="L92:L97" si="300">K92-B92</f>
+        <v>-3.4290000000112286E-3</v>
+      </c>
+      <c r="M92" s="1">
+        <f t="shared" ref="M92:M97" si="301">K92/150</f>
+        <v>1.59997714</v>
+      </c>
+      <c r="N92" s="6">
+        <f t="shared" ref="N92:N97" si="302">N91+C92-P92</f>
+        <v>7776.2000000000016</v>
+      </c>
+      <c r="O92" s="2">
+        <f t="shared" ref="O92:O97" si="303">N92*D92</f>
+        <v>6664.9810200000011</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="6">
+        <f t="shared" ref="R92:R97" si="304">Q92+R91</f>
+        <v>7247.82</v>
+      </c>
+      <c r="S92" s="6">
+        <f t="shared" ref="S92:S97" si="305">O92+R92</f>
+        <v>13912.801020000001</v>
+      </c>
+      <c r="T92">
+        <f t="shared" ref="T92:T97" si="306">T91+B92</f>
+        <v>13100</v>
+      </c>
+      <c r="U92" s="4">
+        <f t="shared" ref="U92:U97" si="307">S92/T92-1</f>
+        <v>6.2045879389313052E-2</v>
+      </c>
+      <c r="V92" s="4">
+        <f t="shared" ref="V92:V97" si="308">O92/(T92-R92)-1</f>
+        <v>0.1388885885259854</v>
+      </c>
+      <c r="W92" s="1">
+        <f t="shared" ref="W92:W97" si="309">R92/S92</f>
+        <v>0.52094614086560109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B93">
+        <v>240</v>
+      </c>
+      <c r="C93" s="2">
+        <v>275.36</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.87160000000000004</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="296"/>
+        <v>0.29000251733333338</v>
+      </c>
+      <c r="F93" s="36">
+        <f t="shared" si="297"/>
+        <v>-7.2124666666666098E-3</v>
+      </c>
+      <c r="G93" s="9"/>
+      <c r="H93" s="41">
+        <f t="shared" si="298"/>
+        <v>-1.7309919999999863</v>
+      </c>
+      <c r="I93" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93" t="s">
+        <v>335</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="299"/>
+        <v>240.00377600000002</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" si="300"/>
+        <v>3.7760000000162108E-3</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" si="301"/>
+        <v>1.6000251733333335</v>
+      </c>
+      <c r="N93" s="6">
+        <f t="shared" si="302"/>
+        <v>8051.5600000000013</v>
+      </c>
+      <c r="O93" s="2">
+        <f t="shared" si="303"/>
+        <v>7017.7396960000015</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="6">
+        <f t="shared" si="304"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S93" s="6">
+        <f t="shared" si="305"/>
+        <v>14265.559696</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="306"/>
+        <v>13340</v>
+      </c>
+      <c r="U93" s="4">
+        <f t="shared" si="307"/>
+        <v>6.9382286056971498E-2</v>
+      </c>
+      <c r="V93" s="4">
+        <f t="shared" si="308"/>
+        <v>0.15192586167841404</v>
+      </c>
+      <c r="W93" s="1">
+        <f t="shared" si="309"/>
+        <v>0.50806418776770856</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="B94">
+        <v>135</v>
+      </c>
+      <c r="C94" s="2">
+        <v>155.82</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="296"/>
+        <v>0.220001632</v>
+      </c>
+      <c r="F94" s="36">
+        <f t="shared" si="297"/>
+        <v>-1.2515111111112119E-3</v>
+      </c>
+      <c r="G94" s="9"/>
+      <c r="H94" s="41">
+        <f t="shared" si="298"/>
+        <v>-0.16895400000001359</v>
+      </c>
+      <c r="I94" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94" t="s">
+        <v>337</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="299"/>
+        <v>135.00244799999999</v>
+      </c>
+      <c r="L94" s="2">
+        <f t="shared" si="300"/>
+        <v>2.4479999999869051E-3</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" si="301"/>
+        <v>0.90001631999999987</v>
+      </c>
+      <c r="N94" s="6">
+        <f t="shared" si="302"/>
+        <v>8207.380000000001</v>
+      </c>
+      <c r="O94" s="2">
+        <f t="shared" si="303"/>
+        <v>7110.8740320000006</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="6">
+        <f t="shared" si="304"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S94" s="6">
+        <f t="shared" si="305"/>
+        <v>14358.694031999999</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="306"/>
+        <v>13475</v>
+      </c>
+      <c r="U94" s="4">
+        <f t="shared" si="307"/>
+        <v>6.5580262115027876E-2</v>
+      </c>
+      <c r="V94" s="4">
+        <f t="shared" si="308"/>
+        <v>0.14190918393237384</v>
+      </c>
+      <c r="W94" s="1">
+        <f t="shared" si="309"/>
+        <v>0.50476874734202148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95">
+        <v>135</v>
+      </c>
+      <c r="C95" s="2">
+        <v>158.86000000000001</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.8498</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="296"/>
+        <v>0.21999948533333336</v>
+      </c>
+      <c r="F95" s="36">
+        <f t="shared" si="297"/>
+        <v>1.8233762962962939E-2</v>
+      </c>
+      <c r="G95" s="9"/>
+      <c r="H95" s="41">
+        <f t="shared" si="298"/>
+        <v>2.4615579999999966</v>
+      </c>
+      <c r="I95" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95" t="s">
+        <v>339</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="299"/>
+        <v>134.99922800000002</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" si="300"/>
+        <v>-7.7199999998356361E-4</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" si="301"/>
+        <v>0.8999948533333334</v>
+      </c>
+      <c r="N95" s="6">
+        <f t="shared" si="302"/>
+        <v>8366.2400000000016</v>
+      </c>
+      <c r="O95" s="2">
+        <f t="shared" si="303"/>
+        <v>7109.6307520000009</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="6">
+        <f t="shared" si="304"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S95" s="6">
+        <f t="shared" si="305"/>
+        <v>14357.450752000001</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="306"/>
+        <v>13610</v>
+      </c>
+      <c r="U95" s="4">
+        <f t="shared" si="307"/>
+        <v>5.4919232329169843E-2</v>
+      </c>
+      <c r="V95" s="4">
+        <f t="shared" si="308"/>
+        <v>0.11748343366581904</v>
+      </c>
+      <c r="W95" s="1">
+        <f t="shared" si="309"/>
+        <v>0.50481245767047989</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B96">
+        <v>240</v>
+      </c>
+      <c r="C96" s="2">
+        <v>284.02</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="296"/>
+        <v>0.28999793333333335</v>
+      </c>
+      <c r="F96" s="36">
+        <f t="shared" si="297"/>
+        <v>2.4010441666666556E-2</v>
+      </c>
+      <c r="G96" s="9"/>
+      <c r="H96" s="41">
+        <f t="shared" si="298"/>
+        <v>5.7625059999999735</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>341</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="299"/>
+        <v>239.99689999999998</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="300"/>
+        <v>-3.1000000000176442E-3</v>
+      </c>
+      <c r="M96" s="1">
+        <f t="shared" si="301"/>
+        <v>1.5999793333333332</v>
+      </c>
+      <c r="N96" s="6">
+        <f t="shared" si="302"/>
+        <v>8650.260000000002</v>
+      </c>
+      <c r="O96" s="2">
+        <f t="shared" si="303"/>
+        <v>7309.4697000000015</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="6">
+        <f t="shared" si="304"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S96" s="6">
+        <f t="shared" si="305"/>
+        <v>14557.289700000001</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="306"/>
+        <v>13850</v>
+      </c>
+      <c r="U96" s="4">
+        <f t="shared" si="307"/>
+        <v>5.1067848375451419E-2</v>
+      </c>
+      <c r="V96" s="4">
+        <f t="shared" si="308"/>
+        <v>0.10712972078919414</v>
+      </c>
+      <c r="W96" s="1">
+        <f t="shared" si="309"/>
+        <v>0.49788251449031745</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="B97">
+        <v>90</v>
+      </c>
+      <c r="C97" s="2">
+        <v>104.03</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="296"/>
+        <v>0.18999756866666667</v>
+      </c>
+      <c r="F97" s="36">
+        <f t="shared" si="297"/>
+        <v>1.9065555555547082E-4</v>
+      </c>
+      <c r="G97" s="9"/>
+      <c r="H97" s="41">
+        <f t="shared" si="298"/>
+        <v>1.7158999999992375E-2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>7</v>
+      </c>
+      <c r="J97" t="s">
+        <v>343</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="299"/>
+        <v>89.996352999999999</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="300"/>
+        <v>-3.647000000000844E-3</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="301"/>
+        <v>0.59997568666666667</v>
+      </c>
+      <c r="N97" s="6">
+        <f t="shared" si="302"/>
+        <v>8754.2900000000027</v>
+      </c>
+      <c r="O97" s="2">
+        <f t="shared" si="303"/>
+        <v>7573.3362790000019</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="6">
+        <f t="shared" si="304"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S97" s="6">
+        <f t="shared" si="305"/>
+        <v>14821.156279000003</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="306"/>
+        <v>13940</v>
+      </c>
+      <c r="U97" s="4">
+        <f t="shared" si="307"/>
+        <v>6.3210636944046161E-2</v>
+      </c>
+      <c r="V97" s="4">
+        <f t="shared" si="308"/>
+        <v>0.13166954251081142</v>
+      </c>
+      <c r="W97" s="1">
+        <f t="shared" si="309"/>
+        <v>0.48901852619079306</v>
       </c>
     </row>
   </sheetData>
@@ -16694,7 +17690,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F91">
+  <conditionalFormatting sqref="F2:F97">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E8C96B-5CFE-F045-85EF-BEC0BF68ED5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBF9861-B549-7049-8246-068C3A848502}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="25600" windowHeight="14260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="390">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -1713,6 +1713,51 @@
   </si>
   <si>
     <t>DT_HS300_20190606</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190610</t>
+  </si>
+  <si>
+    <t>20190610购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190611</t>
+  </si>
+  <si>
+    <t>20190611购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190612</t>
+  </si>
+  <si>
+    <t>20190612购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190613</t>
+  </si>
+  <si>
+    <t>20190613购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190614</t>
+  </si>
+  <si>
+    <t>20190614购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190610</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190611</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190612</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190613</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190614</t>
   </si>
 </sst>
 </file>
@@ -2248,13 +2293,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y104"/>
+  <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F103" sqref="F103"/>
+      <selection pane="bottomRight" activeCell="Q110" sqref="Q110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2305,8 +2350,8 @@
         <v>50</v>
       </c>
       <c r="H1" s="43" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19977),2)</f>
-        <v>盈利520.55</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19974),2)</f>
+        <v>盈利507.11</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -10880,6 +10925,416 @@
       <c r="X104" s="1">
         <f t="shared" si="333"/>
         <v>0.24961270862799956</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
+      <c r="A105" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B105">
+        <v>135</v>
+      </c>
+      <c r="C105" s="33">
+        <v>123.88</v>
+      </c>
+      <c r="D105" s="34">
+        <v>1.0887</v>
+      </c>
+      <c r="E105" s="19">
+        <f t="shared" ref="E105:E109" si="334">10%*M105+13%</f>
+        <v>0.219912104</v>
+      </c>
+      <c r="F105" s="37">
+        <f t="shared" ref="F105:F109" si="335">IF(G105="",($F$1*C105-B105)/B105,H105/B105)</f>
+        <v>-3.1789333333333784E-3</v>
+      </c>
+      <c r="H105" s="42">
+        <f t="shared" ref="H105:H109" si="336">IF(G105="",$F$1*C105-B105,G105-B105)</f>
+        <v>-0.42915600000000609</v>
+      </c>
+      <c r="I105" t="s">
+        <v>7</v>
+      </c>
+      <c r="J105" t="s">
+        <v>376</v>
+      </c>
+      <c r="K105" s="2">
+        <f t="shared" ref="K105:K109" si="337">D105*C105</f>
+        <v>134.868156</v>
+      </c>
+      <c r="L105" s="2">
+        <f t="shared" ref="L105:L109" si="338">B105-K105</f>
+        <v>0.13184400000000096</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" ref="M105:M109" si="339">K105/150</f>
+        <v>0.89912104000000004</v>
+      </c>
+      <c r="N105" s="6">
+        <f t="shared" ref="N105:N109" si="340">N104+C105-P105</f>
+        <v>10424.370000000001</v>
+      </c>
+      <c r="O105" s="2">
+        <f t="shared" ref="O105:O109" si="341">N105*D105</f>
+        <v>11349.011619000001</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="6">
+        <f t="shared" ref="R105:R109" si="342">R104+Q105</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S105" s="6">
+        <f t="shared" ref="S105:S109" si="343">R105+O105</f>
+        <v>15035.141619</v>
+      </c>
+      <c r="T105">
+        <f t="shared" ref="T105:T109" si="344">T104+B105</f>
+        <v>14490</v>
+      </c>
+      <c r="U105" s="6">
+        <f t="shared" ref="U105:U109" si="345">S105-T105</f>
+        <v>545.14161899999999</v>
+      </c>
+      <c r="V105" s="4">
+        <f t="shared" ref="V105:V109" si="346">S105/T105-1</f>
+        <v>3.7621919875776344E-2</v>
+      </c>
+      <c r="W105" s="4">
+        <f t="shared" ref="W105:W109" si="347">O105/(T105-R105)-1</f>
+        <v>5.0457995051773175E-2</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" ref="X105:X109" si="348">R105/S105</f>
+        <v>0.24516762750952839</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
+      <c r="A106" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B106">
+        <v>135</v>
+      </c>
+      <c r="C106" s="33">
+        <v>120.34</v>
+      </c>
+      <c r="D106" s="34">
+        <v>1.1207</v>
+      </c>
+      <c r="E106" s="19">
+        <f t="shared" si="334"/>
+        <v>0.21991002533333334</v>
+      </c>
+      <c r="F106" s="37">
+        <f t="shared" si="335"/>
+        <v>-3.1664133333333247E-2</v>
+      </c>
+      <c r="H106" s="42">
+        <f t="shared" si="336"/>
+        <v>-4.2746579999999881</v>
+      </c>
+      <c r="I106" t="s">
+        <v>7</v>
+      </c>
+      <c r="J106" t="s">
+        <v>378</v>
+      </c>
+      <c r="K106" s="2">
+        <f t="shared" si="337"/>
+        <v>134.865038</v>
+      </c>
+      <c r="L106" s="2">
+        <f t="shared" si="338"/>
+        <v>0.13496200000000158</v>
+      </c>
+      <c r="M106" s="1">
+        <f t="shared" si="339"/>
+        <v>0.89910025333333332</v>
+      </c>
+      <c r="N106" s="6">
+        <f t="shared" si="340"/>
+        <v>10544.710000000001</v>
+      </c>
+      <c r="O106" s="2">
+        <f t="shared" si="341"/>
+        <v>11817.456497000001</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="6">
+        <f t="shared" si="342"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S106" s="6">
+        <f t="shared" si="343"/>
+        <v>15503.586497</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="344"/>
+        <v>14625</v>
+      </c>
+      <c r="U106" s="6">
+        <f t="shared" si="345"/>
+        <v>878.58649700000024</v>
+      </c>
+      <c r="V106" s="4">
+        <f t="shared" si="346"/>
+        <v>6.0074290393162366E-2</v>
+      </c>
+      <c r="W106" s="4">
+        <f t="shared" si="347"/>
+        <v>8.0317847912992901E-2</v>
+      </c>
+      <c r="X106" s="1">
+        <f t="shared" si="348"/>
+        <v>0.23775982420024419</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
+      <c r="A107" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B107">
+        <v>135</v>
+      </c>
+      <c r="C107" s="33">
+        <v>121.19</v>
+      </c>
+      <c r="D107" s="34">
+        <v>1.1129</v>
+      </c>
+      <c r="E107" s="19">
+        <f t="shared" si="334"/>
+        <v>0.21991490066666669</v>
+      </c>
+      <c r="F107" s="37">
+        <f t="shared" si="335"/>
+        <v>-2.4824466666666677E-2</v>
+      </c>
+      <c r="H107" s="42">
+        <f t="shared" si="336"/>
+        <v>-3.3513030000000015</v>
+      </c>
+      <c r="I107" t="s">
+        <v>7</v>
+      </c>
+      <c r="J107" t="s">
+        <v>380</v>
+      </c>
+      <c r="K107" s="2">
+        <f t="shared" si="337"/>
+        <v>134.87235100000001</v>
+      </c>
+      <c r="L107" s="2">
+        <f t="shared" si="338"/>
+        <v>0.12764899999999102</v>
+      </c>
+      <c r="M107" s="1">
+        <f t="shared" si="339"/>
+        <v>0.89914900666666675</v>
+      </c>
+      <c r="N107" s="6">
+        <f t="shared" si="340"/>
+        <v>10665.900000000001</v>
+      </c>
+      <c r="O107" s="2">
+        <f t="shared" si="341"/>
+        <v>11870.080110000001</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="6">
+        <f t="shared" si="342"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S107" s="6">
+        <f t="shared" si="343"/>
+        <v>15556.21011</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="344"/>
+        <v>14760</v>
+      </c>
+      <c r="U107" s="6">
+        <f t="shared" si="345"/>
+        <v>796.21010999999999</v>
+      </c>
+      <c r="V107" s="4">
+        <f t="shared" si="346"/>
+        <v>5.3943774390244004E-2</v>
+      </c>
+      <c r="W107" s="4">
+        <f t="shared" si="347"/>
+        <v>7.1899896784051176E-2</v>
+      </c>
+      <c r="X107" s="1">
+        <f t="shared" si="348"/>
+        <v>0.23695552926676172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
+      <c r="A108" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B108">
+        <v>135</v>
+      </c>
+      <c r="C108" s="33">
+        <v>121.36</v>
+      </c>
+      <c r="D108" s="34">
+        <v>1.1113</v>
+      </c>
+      <c r="E108" s="19">
+        <f t="shared" si="334"/>
+        <v>0.21991157866666666</v>
+      </c>
+      <c r="F108" s="37">
+        <f t="shared" si="335"/>
+        <v>-2.3456533333333279E-2</v>
+      </c>
+      <c r="H108" s="42">
+        <f t="shared" si="336"/>
+        <v>-3.1666319999999928</v>
+      </c>
+      <c r="I108" t="s">
+        <v>7</v>
+      </c>
+      <c r="J108" t="s">
+        <v>382</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" si="337"/>
+        <v>134.867368</v>
+      </c>
+      <c r="L108" s="2">
+        <f t="shared" si="338"/>
+        <v>0.13263200000000097</v>
+      </c>
+      <c r="M108" s="1">
+        <f t="shared" si="339"/>
+        <v>0.89911578666666669</v>
+      </c>
+      <c r="N108" s="6">
+        <f t="shared" si="340"/>
+        <v>10787.260000000002</v>
+      </c>
+      <c r="O108" s="2">
+        <f t="shared" si="341"/>
+        <v>11987.882038000002</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="6">
+        <f t="shared" si="342"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S108" s="6">
+        <f t="shared" si="343"/>
+        <v>15674.012038000001</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="344"/>
+        <v>14895</v>
+      </c>
+      <c r="U108" s="6">
+        <f t="shared" si="345"/>
+        <v>779.01203800000076</v>
+      </c>
+      <c r="V108" s="4">
+        <f t="shared" si="346"/>
+        <v>5.2300237529372406E-2</v>
+      </c>
+      <c r="W108" s="4">
+        <f t="shared" si="347"/>
+        <v>6.9499605044933244E-2</v>
+      </c>
+      <c r="X108" s="1">
+        <f t="shared" si="348"/>
+        <v>0.23517463117058757</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
+      <c r="A109" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B109">
+        <v>135</v>
+      </c>
+      <c r="C109" s="33">
+        <v>122.23</v>
+      </c>
+      <c r="D109" s="34">
+        <v>1.1033999999999999</v>
+      </c>
+      <c r="E109" s="19">
+        <f t="shared" si="334"/>
+        <v>0.21991238800000001</v>
+      </c>
+      <c r="F109" s="37">
+        <f t="shared" si="335"/>
+        <v>-1.6455933333333162E-2</v>
+      </c>
+      <c r="H109" s="42">
+        <f t="shared" si="336"/>
+        <v>-2.2215509999999767</v>
+      </c>
+      <c r="I109" t="s">
+        <v>7</v>
+      </c>
+      <c r="J109" t="s">
+        <v>384</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="337"/>
+        <v>134.868582</v>
+      </c>
+      <c r="L109" s="2">
+        <f t="shared" si="338"/>
+        <v>0.13141799999999648</v>
+      </c>
+      <c r="M109" s="1">
+        <f t="shared" si="339"/>
+        <v>0.89912387999999999</v>
+      </c>
+      <c r="N109" s="6">
+        <f t="shared" si="340"/>
+        <v>10909.490000000002</v>
+      </c>
+      <c r="O109" s="2">
+        <f t="shared" si="341"/>
+        <v>12037.531266000002</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="6">
+        <f t="shared" si="342"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S109" s="6">
+        <f t="shared" si="343"/>
+        <v>15723.661266000001</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="344"/>
+        <v>15030</v>
+      </c>
+      <c r="U109" s="6">
+        <f t="shared" si="345"/>
+        <v>693.66126600000098</v>
+      </c>
+      <c r="V109" s="4">
+        <f t="shared" si="346"/>
+        <v>4.6151780838323386E-2</v>
+      </c>
+      <c r="W109" s="4">
+        <f t="shared" si="347"/>
+        <v>6.1148555651642678E-2</v>
+      </c>
+      <c r="X109" s="1">
+        <f t="shared" si="348"/>
+        <v>0.23443204083585092</v>
       </c>
     </row>
   </sheetData>
@@ -10945,7 +11400,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F104">
+  <conditionalFormatting sqref="F2:F109">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -11008,13 +11463,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y105"/>
+  <dimension ref="A1:Y110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F103" sqref="F103"/>
+      <selection pane="bottomRight" activeCell="Q113" sqref="Q113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11063,8 +11518,8 @@
         <v>50</v>
       </c>
       <c r="H1" s="39" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19980),2)</f>
-        <v>盈利487.59</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19977),2)</f>
+        <v>盈利471.6</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -19797,6 +20252,421 @@
       <c r="X105" s="1">
         <f t="shared" si="354"/>
         <v>0.45927262134153457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
+      <c r="A106" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="B106">
+        <v>240</v>
+      </c>
+      <c r="C106" s="2">
+        <v>290</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.8276</v>
+      </c>
+      <c r="E106" s="1">
+        <f t="shared" ref="E106:E110" si="355">10%*M106+13%</f>
+        <v>0.29000266666666669</v>
+      </c>
+      <c r="F106" s="36">
+        <f t="shared" ref="F106:F110" si="356">IF(G106="",($F$1*C106-B106)/B106,H106/B106)</f>
+        <v>-4.695833333333373E-3</v>
+      </c>
+      <c r="G106" s="9"/>
+      <c r="H106" s="41">
+        <f t="shared" ref="H106:H110" si="357">IF(G106="",$F$1*C106-B106,G106-B106)</f>
+        <v>-1.1270000000000095</v>
+      </c>
+      <c r="I106" t="s">
+        <v>7</v>
+      </c>
+      <c r="J106" t="s">
+        <v>376</v>
+      </c>
+      <c r="K106" s="2">
+        <f t="shared" ref="K106:K110" si="358">D106*C106</f>
+        <v>240.00399999999999</v>
+      </c>
+      <c r="L106" s="2">
+        <f t="shared" ref="L106:L110" si="359">K106-B106</f>
+        <v>3.9999999999906777E-3</v>
+      </c>
+      <c r="M106" s="1">
+        <f t="shared" ref="M106:M110" si="360">K106/150</f>
+        <v>1.6000266666666667</v>
+      </c>
+      <c r="N106" s="6">
+        <f t="shared" ref="N106:N110" si="361">N105+C106-P106</f>
+        <v>10696.420000000006</v>
+      </c>
+      <c r="O106" s="2">
+        <f t="shared" ref="O106:O110" si="362">N106*D106</f>
+        <v>8852.3571920000049</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="6">
+        <f t="shared" ref="R106:R110" si="363">Q106+R105</f>
+        <v>7247.82</v>
+      </c>
+      <c r="S106" s="6">
+        <f t="shared" ref="S106:S110" si="364">O106+R106</f>
+        <v>16100.177192000005</v>
+      </c>
+      <c r="T106">
+        <f t="shared" ref="T106:T110" si="365">T105+B106</f>
+        <v>15575</v>
+      </c>
+      <c r="U106" s="6">
+        <f t="shared" ref="U106:U110" si="366">S106-T106</f>
+        <v>525.17719200000465</v>
+      </c>
+      <c r="V106" s="4">
+        <f t="shared" ref="V106:V110" si="367">S106/T106-1</f>
+        <v>3.3719241861958515E-2</v>
+      </c>
+      <c r="W106" s="4">
+        <f t="shared" ref="W106:W110" si="368">O106/(T106-R106)-1</f>
+        <v>6.3067832327390994E-2</v>
+      </c>
+      <c r="X106" s="1">
+        <f t="shared" ref="X106:X110" si="369">R106/S106</f>
+        <v>0.45017020083489262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
+      <c r="A107" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B107">
+        <v>90</v>
+      </c>
+      <c r="C107" s="2">
+        <v>105.02</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E107" s="1">
+        <f t="shared" si="355"/>
+        <v>0.19000142666666667</v>
+      </c>
+      <c r="F107" s="36">
+        <f t="shared" si="356"/>
+        <v>-3.8833622222222336E-2</v>
+      </c>
+      <c r="G107" s="9"/>
+      <c r="H107" s="41">
+        <f t="shared" si="357"/>
+        <v>-3.49502600000001</v>
+      </c>
+      <c r="I107" t="s">
+        <v>7</v>
+      </c>
+      <c r="J107" t="s">
+        <v>378</v>
+      </c>
+      <c r="K107" s="2">
+        <f t="shared" si="358"/>
+        <v>90.002139999999997</v>
+      </c>
+      <c r="L107" s="2">
+        <f t="shared" si="359"/>
+        <v>2.1399999999971442E-3</v>
+      </c>
+      <c r="M107" s="1">
+        <f t="shared" si="360"/>
+        <v>0.60001426666666668</v>
+      </c>
+      <c r="N107" s="6">
+        <f t="shared" si="361"/>
+        <v>10801.440000000006</v>
+      </c>
+      <c r="O107" s="2">
+        <f t="shared" si="362"/>
+        <v>9256.8340800000042</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="6">
+        <f t="shared" si="363"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S107" s="6">
+        <f t="shared" si="364"/>
+        <v>16504.654080000004</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="365"/>
+        <v>15665</v>
+      </c>
+      <c r="U107" s="6">
+        <f t="shared" si="366"/>
+        <v>839.65408000000389</v>
+      </c>
+      <c r="V107" s="4">
+        <f t="shared" si="367"/>
+        <v>5.3600643472710097E-2</v>
+      </c>
+      <c r="W107" s="4">
+        <f t="shared" si="368"/>
+        <v>9.9754796737149931E-2</v>
+      </c>
+      <c r="X107" s="1">
+        <f t="shared" si="369"/>
+        <v>0.43913795253562793</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
+      <c r="A108" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B108">
+        <v>135</v>
+      </c>
+      <c r="C108" s="2">
+        <v>158.69</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="E108" s="1">
+        <f t="shared" si="355"/>
+        <v>0.21999838866666666</v>
+      </c>
+      <c r="F108" s="36">
+        <f t="shared" si="356"/>
+        <v>-3.1755903703703715E-2</v>
+      </c>
+      <c r="G108" s="9"/>
+      <c r="H108" s="41">
+        <f t="shared" si="357"/>
+        <v>-4.2870470000000012</v>
+      </c>
+      <c r="I108" t="s">
+        <v>7</v>
+      </c>
+      <c r="J108" t="s">
+        <v>380</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" si="358"/>
+        <v>134.99758299999999</v>
+      </c>
+      <c r="L108" s="2">
+        <f t="shared" si="359"/>
+        <v>-2.4170000000083292E-3</v>
+      </c>
+      <c r="M108" s="1">
+        <f t="shared" si="360"/>
+        <v>0.89998388666666662</v>
+      </c>
+      <c r="N108" s="6">
+        <f t="shared" si="361"/>
+        <v>10960.130000000006</v>
+      </c>
+      <c r="O108" s="2">
+        <f t="shared" si="362"/>
+        <v>9323.7825910000065</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="6">
+        <f t="shared" si="363"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S108" s="6">
+        <f t="shared" si="364"/>
+        <v>16571.602591000006</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="365"/>
+        <v>15800</v>
+      </c>
+      <c r="U108" s="6">
+        <f t="shared" si="366"/>
+        <v>771.60259100000621</v>
+      </c>
+      <c r="V108" s="4">
+        <f t="shared" si="367"/>
+        <v>4.8835607025316863E-2</v>
+      </c>
+      <c r="W108" s="4">
+        <f t="shared" si="368"/>
+        <v>9.0222912871338767E-2</v>
+      </c>
+      <c r="X108" s="1">
+        <f t="shared" si="369"/>
+        <v>0.43736385543883799</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
+      <c r="A109" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="B109">
+        <v>90</v>
+      </c>
+      <c r="C109" s="2">
+        <v>105.51</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E109" s="1">
+        <f t="shared" si="355"/>
+        <v>0.19000001999999999</v>
+      </c>
+      <c r="F109" s="36">
+        <f t="shared" si="356"/>
+        <v>-3.4349033333333362E-2</v>
+      </c>
+      <c r="G109" s="9"/>
+      <c r="H109" s="41">
+        <f t="shared" si="357"/>
+        <v>-3.0914130000000029</v>
+      </c>
+      <c r="I109" t="s">
+        <v>7</v>
+      </c>
+      <c r="J109" t="s">
+        <v>382</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="358"/>
+        <v>90.000029999999995</v>
+      </c>
+      <c r="L109" s="2">
+        <f t="shared" si="359"/>
+        <v>2.9999999995311555E-5</v>
+      </c>
+      <c r="M109" s="1">
+        <f t="shared" si="360"/>
+        <v>0.60000019999999998</v>
+      </c>
+      <c r="N109" s="6">
+        <f t="shared" si="361"/>
+        <v>11065.640000000007</v>
+      </c>
+      <c r="O109" s="2">
+        <f t="shared" si="362"/>
+        <v>9438.9909200000056</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="6">
+        <f t="shared" si="363"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S109" s="6">
+        <f t="shared" si="364"/>
+        <v>16686.810920000004</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="365"/>
+        <v>15890</v>
+      </c>
+      <c r="U109" s="6">
+        <f t="shared" si="366"/>
+        <v>796.81092000000353</v>
+      </c>
+      <c r="V109" s="4">
+        <f t="shared" si="367"/>
+        <v>5.0145432347388441E-2</v>
+      </c>
+      <c r="W109" s="4">
+        <f t="shared" si="368"/>
+        <v>9.2200222629013284E-2</v>
+      </c>
+      <c r="X109" s="1">
+        <f t="shared" si="369"/>
+        <v>0.43434422759073238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
+      <c r="A110" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B110">
+        <v>240</v>
+      </c>
+      <c r="C110" s="2">
+        <v>286.52999999999997</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.83760000000000001</v>
+      </c>
+      <c r="E110" s="1">
+        <f t="shared" si="355"/>
+        <v>0.28999835200000001</v>
+      </c>
+      <c r="F110" s="36">
+        <f t="shared" si="356"/>
+        <v>-1.6605162500000149E-2</v>
+      </c>
+      <c r="G110" s="9"/>
+      <c r="H110" s="41">
+        <f t="shared" si="357"/>
+        <v>-3.9852390000000355</v>
+      </c>
+      <c r="I110" t="s">
+        <v>7</v>
+      </c>
+      <c r="J110" t="s">
+        <v>384</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="358"/>
+        <v>239.99752799999999</v>
+      </c>
+      <c r="L110" s="2">
+        <f t="shared" si="359"/>
+        <v>-2.472000000011576E-3</v>
+      </c>
+      <c r="M110" s="1">
+        <f t="shared" si="360"/>
+        <v>1.5999835199999999</v>
+      </c>
+      <c r="N110" s="6">
+        <f t="shared" si="361"/>
+        <v>11352.170000000007</v>
+      </c>
+      <c r="O110" s="2">
+        <f t="shared" si="362"/>
+        <v>9508.5775920000069</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="6">
+        <f t="shared" si="363"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S110" s="6">
+        <f t="shared" si="364"/>
+        <v>16756.397592000008</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="365"/>
+        <v>16130</v>
+      </c>
+      <c r="U110" s="6">
+        <f t="shared" si="366"/>
+        <v>626.39759200000844</v>
+      </c>
+      <c r="V110" s="4">
+        <f t="shared" si="367"/>
+        <v>3.8834320644761888E-2</v>
+      </c>
+      <c r="W110" s="4">
+        <f t="shared" si="368"/>
+        <v>7.0522956301269035E-2</v>
+      </c>
+      <c r="X110" s="1">
+        <f t="shared" si="369"/>
+        <v>0.43254046463186813</v>
       </c>
     </row>
   </sheetData>
@@ -19862,7 +20732,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F105">
+  <conditionalFormatting sqref="F2:F110">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBF9861-B549-7049-8246-068C3A848502}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A35263-6BC4-7F48-B8C5-5C923EF90598}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="25600" windowHeight="14260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="25600" windowHeight="14260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="405">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -1758,6 +1758,51 @@
   </si>
   <si>
     <t>DT_HS300_20190614</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190617</t>
+  </si>
+  <si>
+    <t>20190617购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190618</t>
+  </si>
+  <si>
+    <t>20190618购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190619</t>
+  </si>
+  <si>
+    <t>20190619购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190620</t>
+  </si>
+  <si>
+    <t>20190620购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190621</t>
+  </si>
+  <si>
+    <t>20190621购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190617</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190618</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190619</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190620</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190621</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1939,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1946,9 +1991,6 @@
     <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1956,11 +1998,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2293,13 +2341,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y109"/>
+  <dimension ref="A1:Y114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q110" sqref="Q110"/>
+      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2311,7 +2359,7 @@
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="35" customWidth="1"/>
     <col min="7" max="7" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="41" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
@@ -2344,14 +2392,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="38">
-        <v>1.0863</v>
+        <v>1.1605000000000001</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="43" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19974),2)</f>
-        <v>盈利507.11</v>
+      <c r="H1" s="45" t="str">
+        <f>"盈利"&amp;ROUND(SUM(H2:H19972),2)</f>
+        <v>盈利1335.2</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -2425,7 +2473,7 @@
       <c r="G2" s="14">
         <v>185.52</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="42">
         <f>IF(G2="",$F$1*C2-B2,G2-B2)</f>
         <v>35.52000000000001</v>
       </c>
@@ -2507,7 +2555,7 @@
       <c r="G3" s="14">
         <v>185.79</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="42">
         <f t="shared" ref="H3:H35" si="5">IF(G3="",$F$1*C3-B3,G3-B3)</f>
         <v>35.789999999999992</v>
       </c>
@@ -2591,7 +2639,7 @@
       <c r="G4" s="26">
         <v>184.67</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="43">
         <f t="shared" si="5"/>
         <v>34.669999999999987</v>
       </c>
@@ -2674,7 +2722,7 @@
       <c r="G5" s="26">
         <v>184.73</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="43">
         <f t="shared" si="5"/>
         <v>34.72999999999999</v>
       </c>
@@ -2758,7 +2806,7 @@
       <c r="G6" s="26">
         <v>185.04</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="43">
         <f t="shared" si="5"/>
         <v>35.039999999999992</v>
       </c>
@@ -2842,7 +2890,7 @@
       <c r="G7" s="26">
         <v>184.66</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="43">
         <f t="shared" si="5"/>
         <v>34.659999999999997</v>
       </c>
@@ -2926,7 +2974,7 @@
       <c r="G8" s="26">
         <v>185.1</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="43">
         <f t="shared" si="5"/>
         <v>35.099999999999994</v>
       </c>
@@ -3010,7 +3058,7 @@
       <c r="G9" s="26">
         <v>184.95</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="43">
         <f t="shared" si="5"/>
         <v>34.949999999999989</v>
       </c>
@@ -3094,7 +3142,7 @@
       <c r="G10" s="26">
         <v>185.4</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="43">
         <f t="shared" si="5"/>
         <v>35.400000000000006</v>
       </c>
@@ -3178,7 +3226,7 @@
       <c r="G11" s="26">
         <v>187.76</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="43">
         <f t="shared" si="5"/>
         <v>37.759999999999991</v>
       </c>
@@ -3262,7 +3310,7 @@
       <c r="G12" s="26">
         <v>187.72</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="43">
         <f t="shared" si="5"/>
         <v>37.72</v>
       </c>
@@ -3346,7 +3394,7 @@
       <c r="G13" s="26">
         <v>188.72</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="43">
         <f t="shared" si="5"/>
         <v>38.72</v>
       </c>
@@ -3430,7 +3478,7 @@
       <c r="G14" s="26">
         <v>185.53</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="43">
         <f t="shared" si="5"/>
         <v>35.53</v>
       </c>
@@ -3514,7 +3562,7 @@
       <c r="G15" s="26">
         <v>184.57</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="43">
         <f t="shared" si="5"/>
         <v>34.569999999999993</v>
       </c>
@@ -3598,7 +3646,7 @@
       <c r="G16" s="26">
         <v>186.89</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="43">
         <f t="shared" si="5"/>
         <v>36.889999999999986</v>
       </c>
@@ -3682,7 +3730,7 @@
       <c r="G17" s="26">
         <v>187</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="43">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
@@ -3766,7 +3814,7 @@
       <c r="G18" s="26">
         <v>186.02</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="43">
         <f t="shared" si="5"/>
         <v>36.02000000000001</v>
       </c>
@@ -3850,7 +3898,7 @@
       <c r="G19" s="26">
         <v>184.6</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="43">
         <f t="shared" si="5"/>
         <v>34.599999999999994</v>
       </c>
@@ -3928,13 +3976,13 @@
         <f>10%*M20+13%</f>
         <v>0.30982025600000002</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="44">
         <f>IF(G20="",($F$1*C20-B20)/B20,H20/B20)</f>
-        <v>0.12878640000000005</v>
-      </c>
-      <c r="H20" s="42">
+        <v>0.20588844444444462</v>
+      </c>
+      <c r="H20" s="41">
         <f t="shared" si="5"/>
-        <v>34.772328000000016</v>
+        <v>55.589880000000051</v>
       </c>
       <c r="I20" t="s">
         <v>7</v>
@@ -4012,11 +4060,11 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="4"/>
-        <v>0.12528610000000001</v>
-      </c>
-      <c r="H21" s="42">
+        <v>0.20214905555555573</v>
+      </c>
+      <c r="H21" s="41">
         <f t="shared" si="5"/>
-        <v>33.827247</v>
+        <v>54.580245000000048</v>
       </c>
       <c r="I21" t="s">
         <v>7</v>
@@ -4094,11 +4142,11 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="4"/>
-        <v>0.13375640000000008</v>
-      </c>
-      <c r="H22" s="42">
+        <v>0.21119792156862754</v>
+      </c>
+      <c r="H22" s="41">
         <f t="shared" si="5"/>
-        <v>34.107882000000018</v>
+        <v>53.855470000000025</v>
       </c>
       <c r="I22" t="s">
         <v>7</v>
@@ -4176,11 +4224,11 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="4"/>
-        <v>0.12271116666666676</v>
-      </c>
-      <c r="H23" s="42">
+        <v>0.19939824074074083</v>
+      </c>
+      <c r="H23" s="41">
         <f t="shared" si="5"/>
-        <v>33.132015000000024</v>
+        <v>53.837525000000028</v>
       </c>
       <c r="I23" t="s">
         <v>7</v>
@@ -4258,11 +4306,11 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="4"/>
-        <v>0.10806860000000008</v>
-      </c>
-      <c r="H24" s="42">
+        <v>0.18375550980392166</v>
+      </c>
+      <c r="H24" s="41">
         <f t="shared" si="5"/>
-        <v>27.557493000000022</v>
+        <v>46.857655000000022</v>
       </c>
       <c r="I24" t="s">
         <v>7</v>
@@ -4340,11 +4388,11 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="4"/>
-        <v>8.958020000000011E-2</v>
-      </c>
-      <c r="H25" s="42">
+        <v>0.16400425490196094</v>
+      </c>
+      <c r="H25" s="41">
         <f t="shared" si="5"/>
-        <v>22.842951000000028</v>
+        <v>41.821085000000039</v>
       </c>
       <c r="I25" t="s">
         <v>7</v>
@@ -4427,7 +4475,7 @@
       <c r="G26" s="26">
         <v>126.47</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="43">
         <f t="shared" si="5"/>
         <v>21.47</v>
       </c>
@@ -4507,11 +4555,11 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="4"/>
-        <v>6.2297942857143039E-2</v>
-      </c>
-      <c r="H27" s="42">
+        <v>0.13485847619047631</v>
+      </c>
+      <c r="H27" s="41">
         <f t="shared" si="5"/>
-        <v>6.5412840000000188</v>
+        <v>14.160140000000013</v>
       </c>
       <c r="I27" t="s">
         <v>7</v>
@@ -4594,7 +4642,7 @@
       <c r="G28" s="26">
         <v>107.79</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="43">
         <f t="shared" si="5"/>
         <v>17.790000000000006</v>
       </c>
@@ -4679,7 +4727,7 @@
       <c r="G29" s="26">
         <v>107.2</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="43">
         <f t="shared" si="5"/>
         <v>17.200000000000003</v>
       </c>
@@ -4759,11 +4807,11 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="4"/>
-        <v>4.8400200000000067E-2</v>
-      </c>
-      <c r="H30" s="42">
+        <v>0.12001144444444457</v>
+      </c>
+      <c r="H30" s="41">
         <f t="shared" si="5"/>
-        <v>4.3560180000000059</v>
+        <v>10.801030000000011</v>
       </c>
       <c r="I30" t="s">
         <v>7</v>
@@ -4841,11 +4889,11 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="4"/>
-        <v>5.0331399999999998E-2</v>
-      </c>
-      <c r="H31" s="42">
+        <v>0.12207455555555558</v>
+      </c>
+      <c r="H31" s="41">
         <f t="shared" si="5"/>
-        <v>4.5298259999999999</v>
+        <v>10.986710000000002</v>
       </c>
       <c r="I31" t="s">
         <v>7</v>
@@ -4923,11 +4971,11 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="4"/>
-        <v>4.6951799999999995E-2</v>
-      </c>
-      <c r="H32" s="42">
+        <v>0.11846411111111116</v>
+      </c>
+      <c r="H32" s="41">
         <f t="shared" si="5"/>
-        <v>4.2256619999999998</v>
+        <v>10.661770000000004</v>
       </c>
       <c r="I32" t="s">
         <v>7</v>
@@ -5005,11 +5053,11 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="4"/>
-        <v>4.9486500000000114E-2</v>
-      </c>
-      <c r="H33" s="42">
+        <v>0.12117194444444455</v>
+      </c>
+      <c r="H33" s="41">
         <f t="shared" si="5"/>
-        <v>4.4537850000000105</v>
+        <v>10.90547500000001</v>
       </c>
       <c r="I33" t="s">
         <v>7</v>
@@ -5087,11 +5135,11 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="4"/>
-        <v>2.7760500000000042E-2</v>
-      </c>
-      <c r="H34" s="42">
+        <v>9.7961944444444601E-2</v>
+      </c>
+      <c r="H34" s="41">
         <f t="shared" si="5"/>
-        <v>2.4984450000000038</v>
+        <v>8.8165750000000145</v>
       </c>
       <c r="I34" t="s">
         <v>7</v>
@@ -5169,11 +5217,11 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="4"/>
-        <v>-2.707753333333324E-2</v>
-      </c>
-      <c r="H35" s="42">
+        <v>3.9378185185185224E-2</v>
+      </c>
+      <c r="H35" s="41">
         <f t="shared" si="5"/>
-        <v>-3.6554669999999874</v>
+        <v>5.3160550000000057</v>
       </c>
       <c r="I35" t="s">
         <v>7</v>
@@ -5255,11 +5303,11 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="4"/>
-        <v>-1.5973133333333348E-2</v>
-      </c>
-      <c r="H36" s="42">
+        <v>5.124107407407421E-2</v>
+      </c>
+      <c r="H36" s="41">
         <f t="shared" ref="H36" si="34">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>-2.1563730000000021</v>
+        <v>6.9175450000000183</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
@@ -5337,11 +5385,11 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="4"/>
-        <v>-1.4202866666666598E-2</v>
-      </c>
-      <c r="H37" s="42">
+        <v>5.3132259259259455E-2</v>
+      </c>
+      <c r="H37" s="41">
         <f t="shared" ref="H37:H39" si="45">IF(G37="",$F$1*C37-B37,G37-B37)</f>
-        <v>-1.9173869999999908</v>
+        <v>7.1728550000000268</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -5419,11 +5467,11 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="4"/>
-        <v>-1.1788866666666696E-2</v>
-      </c>
-      <c r="H38" s="42">
+        <v>5.5711148148148162E-2</v>
+      </c>
+      <c r="H38" s="41">
         <f t="shared" si="45"/>
-        <v>-1.5914970000000039</v>
+        <v>7.5210050000000024</v>
       </c>
       <c r="I38" t="s">
         <v>7</v>
@@ -5501,11 +5549,11 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="4"/>
-        <v>-3.1905533333333257E-2</v>
-      </c>
-      <c r="H39" s="42">
+        <v>3.4220407407407602E-2</v>
+      </c>
+      <c r="H39" s="41">
         <f t="shared" si="45"/>
-        <v>-4.3072469999999896</v>
+        <v>4.6197550000000263</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
@@ -5583,11 +5631,11 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="4"/>
-        <v>-4.2527133333333335E-2</v>
-      </c>
-      <c r="H40" s="42">
+        <v>2.2873296296296319E-2</v>
+      </c>
+      <c r="H40" s="41">
         <f t="shared" ref="H40" si="50">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>-5.7411630000000002</v>
+        <v>3.0878950000000032</v>
       </c>
       <c r="I40" t="s">
         <v>7</v>
@@ -5669,11 +5717,11 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="4"/>
-        <v>-4.7837933333333374E-2</v>
-      </c>
-      <c r="H41" s="42">
+        <v>1.7199740740740783E-2</v>
+      </c>
+      <c r="H41" s="41">
         <f t="shared" ref="H41" si="62">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-6.4581210000000056</v>
+        <v>2.3219650000000058</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -5755,11 +5803,11 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="4"/>
-        <v>-5.5562733333333211E-2</v>
-      </c>
-      <c r="H42" s="42">
+        <v>8.9472962962963299E-3</v>
+      </c>
+      <c r="H42" s="41">
         <f t="shared" ref="H42" si="74">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-7.5009689999999836</v>
+        <v>1.2078850000000045</v>
       </c>
       <c r="I42" t="s">
         <v>7</v>
@@ -5841,11 +5889,11 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="4"/>
-        <v>-4.6389533333333309E-2</v>
-      </c>
-      <c r="H43" s="42">
+        <v>1.8747074074074093E-2</v>
+      </c>
+      <c r="H43" s="41">
         <f t="shared" ref="H43" si="87">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-6.2625869999999964</v>
+        <v>2.5308550000000025</v>
       </c>
       <c r="I43" t="s">
         <v>7</v>
@@ -5923,11 +5971,11 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="4"/>
-        <v>-8.731133333333219E-3</v>
-      </c>
-      <c r="H44" s="42">
+        <v>5.8977740740740754E-2</v>
+      </c>
+      <c r="H44" s="41">
         <f t="shared" ref="H44" si="100">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>-1.1787029999999845</v>
+        <v>7.9619950000000017</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
@@ -6005,11 +6053,11 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="4"/>
-        <v>-2.731893333333325E-2</v>
-      </c>
-      <c r="H45" s="42">
+        <v>3.9120296296296271E-2</v>
+      </c>
+      <c r="H45" s="41">
         <f t="shared" ref="H45:H49" si="113">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>-3.6880559999999889</v>
+        <v>5.2812399999999968</v>
       </c>
       <c r="I45" t="s">
         <v>7</v>
@@ -6087,11 +6135,11 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="4"/>
-        <v>-3.3514866666666664E-2</v>
-      </c>
-      <c r="H46" s="42">
+        <v>3.2501148148148321E-2</v>
+      </c>
+      <c r="H46" s="41">
         <f t="shared" si="113"/>
-        <v>-4.5245069999999998</v>
+        <v>4.3876550000000236</v>
       </c>
       <c r="I46" t="s">
         <v>7</v>
@@ -6169,11 +6217,11 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="4"/>
-        <v>-2.5790066666666722E-2</v>
-      </c>
-      <c r="H47" s="42">
+        <v>4.0753592592592564E-2</v>
+      </c>
+      <c r="H47" s="41">
         <f t="shared" si="113"/>
-        <v>-3.4816590000000076</v>
+        <v>5.5017349999999965</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
@@ -6251,11 +6299,11 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="4"/>
-        <v>-1.9352733333333299E-2</v>
-      </c>
-      <c r="H48" s="42">
+        <v>4.7630629629629682E-2</v>
+      </c>
+      <c r="H48" s="41">
         <f t="shared" si="113"/>
-        <v>-2.6126189999999951</v>
+        <v>6.430135000000007</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
@@ -6333,11 +6381,11 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="4"/>
-        <v>-3.1020399999999882E-2</v>
-      </c>
-      <c r="H49" s="42">
+        <v>3.5166000000000017E-2</v>
+      </c>
+      <c r="H49" s="41">
         <f t="shared" si="113"/>
-        <v>-4.187753999999984</v>
+        <v>4.7474100000000021</v>
       </c>
       <c r="I49" t="s">
         <v>7</v>
@@ -6415,11 +6463,11 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="4"/>
-        <v>-5.6608800000000035E-2</v>
-      </c>
-      <c r="H50" s="42">
+        <v>7.8297777777777359E-3</v>
+      </c>
+      <c r="H50" s="41">
         <f t="shared" ref="H50:H54" si="126">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>-7.6421880000000044</v>
+        <v>1.0570199999999943</v>
       </c>
       <c r="I50" t="s">
         <v>7</v>
@@ -6497,11 +6545,11 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="4"/>
-        <v>-5.2263599999999931E-2</v>
-      </c>
-      <c r="H51" s="42">
+        <v>1.2471777777777873E-2</v>
+      </c>
+      <c r="H51" s="41">
         <f t="shared" si="126"/>
-        <v>-7.055585999999991</v>
+        <v>1.6836900000000128</v>
       </c>
       <c r="I51" t="s">
         <v>7</v>
@@ -6579,11 +6627,11 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="4"/>
-        <v>-5.2585466666666719E-2</v>
-      </c>
-      <c r="H52" s="42">
+        <v>1.2127925925925933E-2</v>
+      </c>
+      <c r="H52" s="41">
         <f t="shared" si="126"/>
-        <v>-7.0990380000000073</v>
+        <v>1.6372700000000009</v>
       </c>
       <c r="I52" t="s">
         <v>7</v>
@@ -6661,11 +6709,11 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="4"/>
-        <v>-5.2907333333333299E-2</v>
-      </c>
-      <c r="H53" s="42">
+        <v>1.1784074074074204E-2</v>
+      </c>
+      <c r="H53" s="41">
         <f t="shared" si="126"/>
-        <v>-7.1424899999999951</v>
+        <v>1.5908500000000174</v>
       </c>
       <c r="I53" t="s">
         <v>7</v>
@@ -6743,11 +6791,11 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="4"/>
-        <v>-5.2263599999999931E-2</v>
-      </c>
-      <c r="H54" s="42">
+        <v>1.2471777777777873E-2</v>
+      </c>
+      <c r="H54" s="41">
         <f t="shared" si="126"/>
-        <v>-7.055585999999991</v>
+        <v>1.6836900000000128</v>
       </c>
       <c r="I54" t="s">
         <v>7</v>
@@ -6826,11 +6874,11 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="4"/>
-        <v>-3.04571333333334E-2</v>
-      </c>
-      <c r="H55" s="42">
+        <v>3.5767740740740697E-2</v>
+      </c>
+      <c r="H55" s="41">
         <f t="shared" ref="H55:H59" si="139">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>-4.1117130000000088</v>
+        <v>4.8286449999999945</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
@@ -6908,11 +6956,11 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="4"/>
-        <v>-1.9915999999999989E-2</v>
-      </c>
-      <c r="H56" s="42">
+        <v>4.7028888888888995E-2</v>
+      </c>
+      <c r="H56" s="41">
         <f t="shared" si="139"/>
-        <v>-2.6886599999999987</v>
+        <v>6.3489000000000146</v>
       </c>
       <c r="I56" t="s">
         <v>7</v>
@@ -6990,11 +7038,11 @@
       </c>
       <c r="F57" s="37">
         <f t="shared" si="4"/>
-        <v>-3.0296199999999846E-2</v>
-      </c>
-      <c r="H57" s="42">
+        <v>3.5939666666666883E-2</v>
+      </c>
+      <c r="H57" s="41">
         <f t="shared" si="139"/>
-        <v>-4.0899869999999794</v>
+        <v>4.8518550000000289</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
@@ -7072,11 +7120,11 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="4"/>
-        <v>-2.6836133333333227E-2</v>
-      </c>
-      <c r="H58" s="42">
+        <v>3.9636074074074185E-2</v>
+      </c>
+      <c r="H58" s="41">
         <f t="shared" si="139"/>
-        <v>-3.6228779999999858</v>
+        <v>5.3508700000000147</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -7154,11 +7202,11 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="4"/>
-        <v>-6.111493333333326E-2</v>
-      </c>
-      <c r="H59" s="42">
+        <v>3.0158518518520498E-3</v>
+      </c>
+      <c r="H59" s="41">
         <f t="shared" si="139"/>
-        <v>-8.2505159999999904</v>
+        <v>0.4071400000000267</v>
       </c>
       <c r="I59" t="s">
         <v>7</v>
@@ -7240,11 +7288,11 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="4"/>
-        <v>-8.4289333333333299E-2</v>
-      </c>
-      <c r="H60" s="42">
+        <v>-2.1741481481481521E-2</v>
+      </c>
+      <c r="H60" s="41">
         <f t="shared" ref="H60" si="152">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>-11.379059999999996</v>
+        <v>-2.9351000000000056</v>
       </c>
       <c r="I60" t="s">
         <v>7</v>
@@ -7326,11 +7374,11 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" ref="F61:F63" si="165">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>-8.380653333333328E-2</v>
-      </c>
-      <c r="H61" s="42">
+        <v>-2.1225703703703611E-2</v>
+      </c>
+      <c r="H61" s="41">
         <f t="shared" ref="H61:H63" si="166">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>-11.313881999999992</v>
+        <v>-2.8654699999999877</v>
       </c>
       <c r="I61" t="s">
         <v>7</v>
@@ -7408,11 +7456,11 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="165"/>
-        <v>-9.483046666666671E-2</v>
-      </c>
-      <c r="H62" s="42">
+        <v>-3.3002629629629611E-2</v>
+      </c>
+      <c r="H62" s="41">
         <f t="shared" si="166"/>
-        <v>-12.802113000000006</v>
+        <v>-4.4553549999999973</v>
       </c>
       <c r="I62" t="s">
         <v>7</v>
@@ -7494,11 +7542,11 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="165"/>
-        <v>-0.10344039999999985</v>
-      </c>
-      <c r="H63" s="42">
+        <v>-4.2200666666666581E-2</v>
+      </c>
+      <c r="H63" s="41">
         <f t="shared" si="166"/>
-        <v>-12.412847999999983</v>
+        <v>-5.0640799999999899</v>
       </c>
       <c r="I63" t="s">
         <v>7</v>
@@ -7576,11 +7624,11 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" ref="F64:F68" si="179">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-0.10271619999999994</v>
-      </c>
-      <c r="H64" s="42">
+        <v>-4.1426999999999839E-2</v>
+      </c>
+      <c r="H64" s="41">
         <f t="shared" ref="H64:H68" si="180">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-12.325943999999993</v>
+        <v>-4.9712399999999803</v>
       </c>
       <c r="I64" t="s">
         <v>7</v>
@@ -7662,11 +7710,11 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="179"/>
-        <v>-0.106427725</v>
-      </c>
-      <c r="H65" s="42">
+        <v>-4.5392041666666688E-2</v>
+      </c>
+      <c r="H65" s="41">
         <f t="shared" si="180"/>
-        <v>-12.771326999999999</v>
+        <v>-5.4470450000000028</v>
       </c>
       <c r="I65" t="s">
         <v>7</v>
@@ -7744,11 +7792,11 @@
       </c>
       <c r="F66" s="37">
         <f t="shared" si="179"/>
-        <v>-0.10860032499999998</v>
-      </c>
-      <c r="H66" s="42">
+        <v>-4.7713041666666574E-2</v>
+      </c>
+      <c r="H66" s="41">
         <f t="shared" si="180"/>
-        <v>-13.032038999999997</v>
+        <v>-5.7255649999999889</v>
       </c>
       <c r="I66" t="s">
         <v>7</v>
@@ -7826,11 +7874,11 @@
       </c>
       <c r="F67" s="37">
         <f t="shared" si="179"/>
-        <v>-9.0042700000000059E-2</v>
-      </c>
-      <c r="H67" s="42">
+        <v>-2.7887833333333254E-2</v>
+      </c>
+      <c r="H67" s="41">
         <f t="shared" si="180"/>
-        <v>-10.805124000000006</v>
+        <v>-3.3465399999999903</v>
       </c>
       <c r="I67" t="s">
         <v>7</v>
@@ -7908,11 +7956,11 @@
       </c>
       <c r="F68" s="37">
         <f t="shared" si="179"/>
-        <v>-8.8051149999999953E-2</v>
-      </c>
-      <c r="H68" s="42">
+        <v>-2.5760249999999967E-2</v>
+      </c>
+      <c r="H68" s="41">
         <f t="shared" si="180"/>
-        <v>-10.566137999999995</v>
+        <v>-3.0912299999999959</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
@@ -7990,11 +8038,11 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" ref="F69:F73" si="194">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>-8.5244874999999942E-2</v>
-      </c>
-      <c r="H69" s="42">
+        <v>-2.2762291666666577E-2</v>
+      </c>
+      <c r="H69" s="41">
         <f t="shared" ref="H69:H73" si="195">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>-10.229384999999994</v>
+        <v>-2.731474999999989</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
@@ -8072,11 +8120,11 @@
       </c>
       <c r="F70" s="37">
         <f t="shared" si="194"/>
-        <v>-0.10834886666666661</v>
-      </c>
-      <c r="H70" s="42">
+        <v>-4.7444407407407296E-2</v>
+      </c>
+      <c r="H70" s="41">
         <f t="shared" si="195"/>
-        <v>-14.627096999999992</v>
+        <v>-6.4049949999999853</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
@@ -8154,11 +8202,11 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="194"/>
-        <v>-0.10869084999999998</v>
-      </c>
-      <c r="H71" s="42">
+        <v>-4.7809749999999936E-2</v>
+      </c>
+      <c r="H71" s="41">
         <f t="shared" si="195"/>
-        <v>-13.042901999999998</v>
+        <v>-5.7371699999999919</v>
       </c>
       <c r="I71" t="s">
         <v>7</v>
@@ -8236,11 +8284,11 @@
       </c>
       <c r="F72" s="37">
         <f t="shared" si="194"/>
-        <v>-0.10561299999999996</v>
-      </c>
-      <c r="H72" s="42">
+        <v>-4.4521666666666584E-2</v>
+      </c>
+      <c r="H72" s="41">
         <f t="shared" si="195"/>
-        <v>-12.673559999999995</v>
+        <v>-5.3425999999999902</v>
       </c>
       <c r="I72" t="s">
         <v>7</v>
@@ -8318,11 +8366,11 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="194"/>
-        <v>-0.11557074999999996</v>
-      </c>
-      <c r="H73" s="42">
+        <v>-5.5159583333333255E-2</v>
+      </c>
+      <c r="H73" s="41">
         <f t="shared" si="195"/>
-        <v>-13.868489999999994</v>
+        <v>-6.6191499999999905</v>
       </c>
       <c r="I73" t="s">
         <v>7</v>
@@ -8404,11 +8452,11 @@
       </c>
       <c r="F74" s="37">
         <f t="shared" ref="F74:F78" si="208">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
-        <v>-9.5836299999999972E-2</v>
-      </c>
-      <c r="H74" s="42">
+        <v>-3.4077166666666631E-2</v>
+      </c>
+      <c r="H74" s="41">
         <f t="shared" ref="H74:H78" si="209">IF(G74="",$F$1*C74-B74,G74-B74)</f>
-        <v>-11.500355999999996</v>
+        <v>-4.0892599999999959</v>
       </c>
       <c r="I74" t="s">
         <v>7</v>
@@ -8486,11 +8534,11 @@
       </c>
       <c r="F75" s="37">
         <f t="shared" si="208"/>
-        <v>-9.4478424999999908E-2</v>
-      </c>
-      <c r="H75" s="42">
+        <v>-3.2626541666666613E-2</v>
+      </c>
+      <c r="H75" s="41">
         <f t="shared" si="209"/>
-        <v>-11.337410999999989</v>
+        <v>-3.9151849999999939</v>
       </c>
       <c r="I75" t="s">
         <v>7</v>
@@ -8568,11 +8616,11 @@
       </c>
       <c r="F76" s="37">
         <f t="shared" si="208"/>
-        <v>-9.6741549999999898E-2</v>
-      </c>
-      <c r="H76" s="42">
+        <v>-3.504424999999986E-2</v>
+      </c>
+      <c r="H76" s="41">
         <f t="shared" si="209"/>
-        <v>-11.608985999999987</v>
+        <v>-4.205309999999983</v>
       </c>
       <c r="I76" t="s">
         <v>7</v>
@@ -8650,11 +8698,11 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="208"/>
-        <v>-7.764077499999994E-2</v>
-      </c>
-      <c r="H77" s="42">
+        <v>-1.4638791666666625E-2</v>
+      </c>
+      <c r="H77" s="41">
         <f t="shared" si="209"/>
-        <v>-9.3168929999999932</v>
+        <v>-1.756654999999995</v>
       </c>
       <c r="I77" t="s">
         <v>7</v>
@@ -8732,11 +8780,11 @@
       </c>
       <c r="F78" s="37">
         <f t="shared" si="208"/>
-        <v>-6.5942933333333273E-2</v>
-      </c>
-      <c r="H78" s="42">
+        <v>-2.1419259259257868E-3</v>
+      </c>
+      <c r="H78" s="41">
         <f t="shared" si="209"/>
-        <v>-8.9022959999999927</v>
+        <v>-0.28915999999998121</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -8814,11 +8862,11 @@
       </c>
       <c r="F79" s="37">
         <f t="shared" ref="F79:F80" si="222">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
-        <v>-6.8437399999999954E-2</v>
-      </c>
-      <c r="H79" s="42">
+        <v>-4.8067777777776903E-3</v>
+      </c>
+      <c r="H79" s="41">
         <f t="shared" ref="H79:H80" si="223">IF(G79="",$F$1*C79-B79,G79-B79)</f>
-        <v>-9.2390489999999943</v>
+        <v>-0.64891499999998814</v>
       </c>
       <c r="I79" t="s">
         <v>7</v>
@@ -8896,11 +8944,11 @@
       </c>
       <c r="F80" s="37">
         <f t="shared" si="222"/>
-        <v>-7.1334199999999987E-2</v>
-      </c>
-      <c r="H80" s="42">
+        <v>-7.9014444444443083E-3</v>
+      </c>
+      <c r="H80" s="41">
         <f t="shared" si="223"/>
-        <v>-9.6301169999999985</v>
+        <v>-1.0666949999999815</v>
       </c>
       <c r="I80" t="s">
         <v>7</v>
@@ -8978,11 +9026,11 @@
       </c>
       <c r="F81" s="37">
         <f t="shared" ref="F81" si="236">IF(G81="",($F$1*C81-B81)/B81,H81/B81)</f>
-        <v>-1.7260600000000077E-2</v>
-      </c>
-      <c r="H81" s="42">
+        <v>4.9865666666666662E-2</v>
+      </c>
+      <c r="H81" s="41">
         <f t="shared" ref="H81" si="237">IF(G81="",$F$1*C81-B81,G81-B81)</f>
-        <v>-2.3301810000000103</v>
+        <v>6.7318649999999991</v>
       </c>
       <c r="I81" t="s">
         <v>7</v>
@@ -9060,11 +9108,11 @@
       </c>
       <c r="F82" s="37">
         <f t="shared" ref="F82:F85" si="250">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
-        <v>-2.6272866666666537E-2</v>
-      </c>
-      <c r="H82" s="42">
+        <v>4.0237814814814865E-2</v>
+      </c>
+      <c r="H82" s="41">
         <f t="shared" ref="H82:H85" si="251">IF(G82="",$F$1*C82-B82,G82-B82)</f>
-        <v>-3.5468369999999823</v>
+        <v>5.4321050000000071</v>
       </c>
       <c r="I82" t="s">
         <v>7</v>
@@ -9142,11 +9190,11 @@
       </c>
       <c r="F83" s="37">
         <f t="shared" si="250"/>
-        <v>-1.3156799999999884E-2</v>
-      </c>
-      <c r="H83" s="42">
+        <v>5.4249777777777841E-2</v>
+      </c>
+      <c r="H83" s="41">
         <f t="shared" si="251"/>
-        <v>-1.7761679999999842</v>
+        <v>7.3237200000000087</v>
       </c>
       <c r="I83" t="s">
         <v>7</v>
@@ -9224,11 +9272,11 @@
       </c>
       <c r="F84" s="37">
         <f t="shared" si="250"/>
-        <v>4.3044666666667633E-3</v>
-      </c>
-      <c r="H84" s="42">
+        <v>7.2903740740740741E-2</v>
+      </c>
+      <c r="H84" s="41">
         <f t="shared" si="251"/>
-        <v>0.58110300000001303</v>
+        <v>9.8420050000000003</v>
       </c>
       <c r="I84" t="s">
         <v>7</v>
@@ -9306,11 +9354,11 @@
       </c>
       <c r="F85" s="37">
         <f t="shared" si="250"/>
-        <v>-2.8847799999999989E-2</v>
-      </c>
-      <c r="H85" s="42">
+        <v>3.7486999999999979E-2</v>
+      </c>
+      <c r="H85" s="41">
         <f t="shared" si="251"/>
-        <v>-3.8944529999999986</v>
+        <v>5.0607449999999972</v>
       </c>
       <c r="I85" t="s">
         <v>7</v>
@@ -9388,11 +9436,11 @@
       </c>
       <c r="F86" s="37">
         <f t="shared" ref="F86:F90" si="264">IF(G86="",($F$1*C86-B86)/B86,H86/B86)</f>
-        <v>-1.3478666666666776E-2</v>
-      </c>
-      <c r="H86" s="42">
+        <v>5.3905925925925899E-2</v>
+      </c>
+      <c r="H86" s="41">
         <f t="shared" ref="H86:H90" si="265">IF(G86="",$F$1*C86-B86,G86-B86)</f>
-        <v>-1.8196200000000147</v>
+        <v>7.2772999999999968</v>
       </c>
       <c r="I86" t="s">
         <v>7</v>
@@ -9470,11 +9518,11 @@
       </c>
       <c r="F87" s="37">
         <f t="shared" si="264"/>
-        <v>-7.6046000000000429E-3</v>
-      </c>
-      <c r="H87" s="42">
+        <v>6.018122222222233E-2</v>
+      </c>
+      <c r="H87" s="41">
         <f t="shared" si="265"/>
-        <v>-1.0266210000000058</v>
+        <v>8.1244650000000149</v>
       </c>
       <c r="I87" t="s">
         <v>7</v>
@@ -9552,11 +9600,11 @@
       </c>
       <c r="F88" s="37">
         <f t="shared" si="264"/>
-        <v>-2.8445466666666638E-2</v>
-      </c>
-      <c r="H88" s="42">
+        <v>3.7916814814814903E-2</v>
+      </c>
+      <c r="H88" s="41">
         <f t="shared" si="265"/>
-        <v>-3.8401379999999961</v>
+        <v>5.118770000000012</v>
       </c>
       <c r="I88" t="s">
         <v>7</v>
@@ -9634,11 +9682,11 @@
       </c>
       <c r="F89" s="37">
         <f t="shared" si="264"/>
-        <v>-3.2388333333333276E-2</v>
-      </c>
-      <c r="H89" s="42">
+        <v>3.3704629629629689E-2</v>
+      </c>
+      <c r="H89" s="41">
         <f t="shared" si="265"/>
-        <v>-4.3724249999999927</v>
+        <v>4.5501250000000084</v>
       </c>
       <c r="I89" t="s">
         <v>7</v>
@@ -9716,11 +9764,11 @@
       </c>
       <c r="F90" s="37">
         <f t="shared" si="264"/>
-        <v>-8.3288000000000771E-3</v>
-      </c>
-      <c r="H90" s="42">
+        <v>5.9407555555555679E-2</v>
+      </c>
+      <c r="H90" s="41">
         <f t="shared" si="265"/>
-        <v>-1.1243880000000104</v>
+        <v>8.0200200000000166</v>
       </c>
       <c r="I90" t="s">
         <v>7</v>
@@ -9798,11 +9846,11 @@
       </c>
       <c r="F91" s="37">
         <f t="shared" ref="F91:F96" si="278">IF(G91="",($F$1*C91-B91)/B91,H91/B91)</f>
-        <v>-4.4306666666658304E-4</v>
-      </c>
-      <c r="H91" s="42">
+        <v>6.7831925925925893E-2</v>
+      </c>
+      <c r="H91" s="41">
         <f t="shared" ref="H91:H96" si="279">IF(G91="",$F$1*C91-B91,G91-B91)</f>
-        <v>-5.981399999998871E-2</v>
+        <v>9.1573099999999954</v>
       </c>
       <c r="I91" t="s">
         <v>7</v>
@@ -9880,11 +9928,11 @@
       </c>
       <c r="F92" s="37">
         <f t="shared" si="278"/>
-        <v>-1.3076333333333212E-2</v>
-      </c>
-      <c r="H92" s="42">
+        <v>5.433574074074083E-2</v>
+      </c>
+      <c r="H92" s="41">
         <f t="shared" si="279"/>
-        <v>-1.7653049999999837</v>
+        <v>7.3353250000000116</v>
       </c>
       <c r="I92" t="s">
         <v>7</v>
@@ -9962,11 +10010,11 @@
       </c>
       <c r="F93" s="37">
         <f t="shared" si="278"/>
-        <v>-8.731133333333219E-3</v>
-      </c>
-      <c r="H93" s="42">
+        <v>5.8977740740740754E-2</v>
+      </c>
+      <c r="H93" s="41">
         <f t="shared" si="279"/>
-        <v>-1.1787029999999845</v>
+        <v>7.9619950000000017</v>
       </c>
       <c r="I93" t="s">
         <v>7</v>
@@ -10044,11 +10092,11 @@
       </c>
       <c r="F94" s="37">
         <f t="shared" si="278"/>
-        <v>7.0403333333333481E-3</v>
-      </c>
-      <c r="H94" s="42">
+        <v>7.5826481481481606E-2</v>
+      </c>
+      <c r="H94" s="41">
         <f t="shared" si="279"/>
-        <v>0.95044500000000198</v>
+        <v>10.236575000000016</v>
       </c>
       <c r="I94" t="s">
         <v>7</v>
@@ -10126,11 +10174,11 @@
       </c>
       <c r="F95" s="37">
         <f t="shared" si="278"/>
-        <v>4.2240000000000931E-3</v>
-      </c>
-      <c r="H95" s="42">
+        <v>7.2817777777777759E-2</v>
+      </c>
+      <c r="H95" s="41">
         <f t="shared" si="279"/>
-        <v>0.57024000000001251</v>
+        <v>9.8303999999999974</v>
       </c>
       <c r="I95" t="s">
         <v>7</v>
@@ -10208,11 +10256,11 @@
       </c>
       <c r="F96" s="37">
         <f t="shared" si="278"/>
-        <v>-7.524133333333162E-3</v>
-      </c>
-      <c r="H96" s="42">
+        <v>6.0267185185185319E-2</v>
+      </c>
+      <c r="H96" s="41">
         <f t="shared" si="279"/>
-        <v>-1.0157579999999768</v>
+        <v>8.1360700000000179</v>
       </c>
       <c r="I96" t="s">
         <v>7</v>
@@ -10290,11 +10338,11 @@
       </c>
       <c r="F97" s="37">
         <f t="shared" ref="F97:F100" si="292">IF(G97="",($F$1*C97-B97)/B97,H97/B97)</f>
-        <v>-1.6777800000000054E-2</v>
-      </c>
-      <c r="H97" s="42">
+        <v>5.0381444444444569E-2</v>
+      </c>
+      <c r="H97" s="41">
         <f t="shared" ref="H97:H100" si="293">IF(G97="",$F$1*C97-B97,G97-B97)</f>
-        <v>-2.2650030000000072</v>
+        <v>6.8014950000000169</v>
       </c>
       <c r="I97" t="s">
         <v>7</v>
@@ -10372,11 +10420,11 @@
       </c>
       <c r="F98" s="37">
         <f t="shared" si="292"/>
-        <v>-1.4846599999999963E-2</v>
-      </c>
-      <c r="H98" s="42">
+        <v>5.2444555555555786E-2</v>
+      </c>
+      <c r="H98" s="41">
         <f t="shared" si="293"/>
-        <v>-2.0042909999999949</v>
+        <v>7.0800150000000315</v>
       </c>
       <c r="I98" t="s">
         <v>7</v>
@@ -10454,11 +10502,11 @@
       </c>
       <c r="F99" s="37">
         <f t="shared" si="292"/>
-        <v>-9.6162666666665935E-3</v>
-      </c>
-      <c r="H99" s="42">
+        <v>5.8032148148148131E-2</v>
+      </c>
+      <c r="H99" s="41">
         <f t="shared" si="293"/>
-        <v>-1.2981959999999901</v>
+        <v>7.8343399999999974</v>
       </c>
       <c r="I99" t="s">
         <v>7</v>
@@ -10536,11 +10584,11 @@
       </c>
       <c r="F100" s="37">
         <f t="shared" si="292"/>
-        <v>-7.2827333333333613E-3</v>
-      </c>
-      <c r="H100" s="42">
+        <v>6.0525074074074273E-2</v>
+      </c>
+      <c r="H100" s="41">
         <f t="shared" si="293"/>
-        <v>-0.98316900000000373</v>
+        <v>8.1708850000000268</v>
       </c>
       <c r="I100" t="s">
         <v>7</v>
@@ -10618,11 +10666,11 @@
       </c>
       <c r="F101" s="37">
         <f t="shared" ref="F101" si="306">IF(G101="",($F$1*C101-B101)/B101,H101/B101)</f>
-        <v>-8.2483333333331962E-3</v>
-      </c>
-      <c r="H101" s="42">
+        <v>5.9493518518518661E-2</v>
+      </c>
+      <c r="H101" s="41">
         <f t="shared" ref="H101" si="307">IF(G101="",$F$1*C101-B101,G101-B101)</f>
-        <v>-1.1135249999999814</v>
+        <v>8.0316250000000196</v>
       </c>
       <c r="I101" t="s">
         <v>7</v>
@@ -10700,11 +10748,11 @@
       </c>
       <c r="F102" s="37">
         <f t="shared" ref="F102:F104" si="320">IF(G102="",($F$1*C102-B102)/B102,H102/B102)</f>
-        <v>3.6159999999991094E-4</v>
-      </c>
-      <c r="H102" s="42">
+        <v>6.8691555555555533E-2</v>
+      </c>
+      <c r="H102" s="41">
         <f t="shared" ref="H102:H104" si="321">IF(G102="",$F$1*C102-B102,G102-B102)</f>
-        <v>4.881599999998798E-2</v>
+        <v>9.2733599999999967</v>
       </c>
       <c r="I102" t="s">
         <v>7</v>
@@ -10782,11 +10830,11 @@
       </c>
       <c r="F103" s="37">
         <f t="shared" si="320"/>
-        <v>4.4206666666679194E-4</v>
-      </c>
-      <c r="H103" s="42">
+        <v>6.8777518518518516E-2</v>
+      </c>
+      <c r="H103" s="41">
         <f t="shared" si="321"/>
-        <v>5.9679000000016913E-2</v>
+        <v>9.2849649999999997</v>
       </c>
       <c r="I103" t="s">
         <v>7</v>
@@ -10864,11 +10912,11 @@
       </c>
       <c r="F104" s="37">
         <f t="shared" si="320"/>
-        <v>8.8106000000000972E-3</v>
-      </c>
-      <c r="H104" s="42">
+        <v>7.7717666666666851E-2</v>
+      </c>
+      <c r="H104" s="41">
         <f t="shared" si="321"/>
-        <v>1.1894310000000132</v>
+        <v>10.491885000000025</v>
       </c>
       <c r="I104" t="s">
         <v>7</v>
@@ -10946,11 +10994,11 @@
       </c>
       <c r="F105" s="37">
         <f t="shared" ref="F105:F109" si="335">IF(G105="",($F$1*C105-B105)/B105,H105/B105)</f>
-        <v>-3.1789333333333784E-3</v>
-      </c>
-      <c r="H105" s="42">
+        <v>6.490918518518525E-2</v>
+      </c>
+      <c r="H105" s="41">
         <f t="shared" ref="H105:H109" si="336">IF(G105="",$F$1*C105-B105,G105-B105)</f>
-        <v>-0.42915600000000609</v>
+        <v>8.762740000000008</v>
       </c>
       <c r="I105" t="s">
         <v>7</v>
@@ -11028,11 +11076,11 @@
       </c>
       <c r="F106" s="37">
         <f t="shared" si="335"/>
-        <v>-3.1664133333333247E-2</v>
-      </c>
-      <c r="H106" s="42">
+        <v>3.4478296296296347E-2</v>
+      </c>
+      <c r="H106" s="41">
         <f t="shared" si="336"/>
-        <v>-4.2746579999999881</v>
+        <v>4.6545700000000068</v>
       </c>
       <c r="I106" t="s">
         <v>7</v>
@@ -11110,11 +11158,11 @@
       </c>
       <c r="F107" s="37">
         <f t="shared" si="335"/>
-        <v>-2.4824466666666677E-2</v>
-      </c>
-      <c r="H107" s="42">
+        <v>4.1785148148148175E-2</v>
+      </c>
+      <c r="H107" s="41">
         <f t="shared" si="336"/>
-        <v>-3.3513030000000015</v>
+        <v>5.6409950000000038</v>
       </c>
       <c r="I107" t="s">
         <v>7</v>
@@ -11192,11 +11240,11 @@
       </c>
       <c r="F108" s="37">
         <f t="shared" si="335"/>
-        <v>-2.3456533333333279E-2</v>
-      </c>
-      <c r="H108" s="42">
+        <v>4.3246518518518497E-2</v>
+      </c>
+      <c r="H108" s="41">
         <f t="shared" si="336"/>
-        <v>-3.1666319999999928</v>
+        <v>5.8382799999999975</v>
       </c>
       <c r="I108" t="s">
         <v>7</v>
@@ -11274,11 +11322,11 @@
       </c>
       <c r="F109" s="37">
         <f t="shared" si="335"/>
-        <v>-1.6455933333333162E-2</v>
-      </c>
-      <c r="H109" s="42">
+        <v>5.0725296296296511E-2</v>
+      </c>
+      <c r="H109" s="41">
         <f t="shared" si="336"/>
-        <v>-2.2215509999999767</v>
+        <v>6.8479150000000288</v>
       </c>
       <c r="I109" t="s">
         <v>7</v>
@@ -11335,6 +11383,416 @@
       <c r="X109" s="1">
         <f t="shared" si="348"/>
         <v>0.23443204083585092</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
+      <c r="A110" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B110">
+        <v>135</v>
+      </c>
+      <c r="C110" s="33">
+        <v>122.25</v>
+      </c>
+      <c r="D110" s="34">
+        <v>1.1032</v>
+      </c>
+      <c r="E110" s="19">
+        <f t="shared" ref="E110:E114" si="349">10%*M110+13%</f>
+        <v>0.21991080000000002</v>
+      </c>
+      <c r="F110" s="37">
+        <f t="shared" ref="F110:F114" si="350">IF(G110="",($F$1*C110-B110)/B110,H110/B110)</f>
+        <v>5.0897222222222267E-2</v>
+      </c>
+      <c r="H110" s="41">
+        <f t="shared" ref="H110:H114" si="351">IF(G110="",$F$1*C110-B110,G110-B110)</f>
+        <v>6.8711250000000064</v>
+      </c>
+      <c r="I110" t="s">
+        <v>7</v>
+      </c>
+      <c r="J110" t="s">
+        <v>391</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" ref="K110:K114" si="352">D110*C110</f>
+        <v>134.86619999999999</v>
+      </c>
+      <c r="L110" s="2">
+        <f t="shared" ref="L110:L114" si="353">B110-K110</f>
+        <v>0.13380000000000791</v>
+      </c>
+      <c r="M110" s="1">
+        <f t="shared" ref="M110:M114" si="354">K110/150</f>
+        <v>0.89910799999999991</v>
+      </c>
+      <c r="N110" s="6">
+        <f t="shared" ref="N110:N114" si="355">N109+C110-P110</f>
+        <v>11031.740000000002</v>
+      </c>
+      <c r="O110" s="2">
+        <f t="shared" ref="O110:O114" si="356">N110*D110</f>
+        <v>12170.215568000001</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="6">
+        <f t="shared" ref="R110:R114" si="357">R109+Q110</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S110" s="6">
+        <f t="shared" ref="S110:S114" si="358">R110+O110</f>
+        <v>15856.345568000001</v>
+      </c>
+      <c r="T110">
+        <f t="shared" ref="T110:T114" si="359">T109+B110</f>
+        <v>15165</v>
+      </c>
+      <c r="U110" s="6">
+        <f t="shared" ref="U110:U114" si="360">S110-T110</f>
+        <v>691.34556800000064</v>
+      </c>
+      <c r="V110" s="4">
+        <f t="shared" ref="V110:V114" si="361">S110/T110-1</f>
+        <v>4.5588233959775737E-2</v>
+      </c>
+      <c r="W110" s="4">
+        <f t="shared" ref="W110:W114" si="362">O110/(T110-R110)-1</f>
+        <v>6.0227667705967658E-2</v>
+      </c>
+      <c r="X110" s="1">
+        <f t="shared" ref="X110:X114" si="363">R110/S110</f>
+        <v>0.23247033713991769</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
+      <c r="A111" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B111">
+        <v>135</v>
+      </c>
+      <c r="C111" s="33">
+        <v>121.86</v>
+      </c>
+      <c r="D111" s="34">
+        <v>1.1068</v>
+      </c>
+      <c r="E111" s="19">
+        <f t="shared" si="349"/>
+        <v>0.219916432</v>
+      </c>
+      <c r="F111" s="37">
+        <f t="shared" si="350"/>
+        <v>4.7544666666666693E-2</v>
+      </c>
+      <c r="H111" s="41">
+        <f t="shared" si="351"/>
+        <v>6.4185300000000041</v>
+      </c>
+      <c r="I111" t="s">
+        <v>7</v>
+      </c>
+      <c r="J111" t="s">
+        <v>393</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" si="352"/>
+        <v>134.87464800000001</v>
+      </c>
+      <c r="L111" s="2">
+        <f t="shared" si="353"/>
+        <v>0.12535199999999236</v>
+      </c>
+      <c r="M111" s="1">
+        <f t="shared" si="354"/>
+        <v>0.89916432000000002</v>
+      </c>
+      <c r="N111" s="6">
+        <f t="shared" si="355"/>
+        <v>11153.600000000002</v>
+      </c>
+      <c r="O111" s="2">
+        <f t="shared" si="356"/>
+        <v>12344.804480000003</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="6">
+        <f t="shared" si="357"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S111" s="6">
+        <f t="shared" si="358"/>
+        <v>16030.934480000002</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="359"/>
+        <v>15300</v>
+      </c>
+      <c r="U111" s="6">
+        <f t="shared" si="360"/>
+        <v>730.93448000000171</v>
+      </c>
+      <c r="V111" s="4">
+        <f t="shared" si="361"/>
+        <v>4.7773495424836776E-2</v>
+      </c>
+      <c r="W111" s="4">
+        <f t="shared" si="362"/>
+        <v>6.2936340771853061E-2</v>
+      </c>
+      <c r="X111" s="1">
+        <f t="shared" si="363"/>
+        <v>0.22993856063717125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
+      <c r="A112" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B112">
+        <v>135</v>
+      </c>
+      <c r="C112" s="33">
+        <v>120.15</v>
+      </c>
+      <c r="D112" s="34">
+        <v>1.1225000000000001</v>
+      </c>
+      <c r="E112" s="19">
+        <f t="shared" si="349"/>
+        <v>0.21991225000000003</v>
+      </c>
+      <c r="F112" s="37">
+        <f t="shared" si="350"/>
+        <v>3.2845000000000055E-2</v>
+      </c>
+      <c r="H112" s="41">
+        <f t="shared" si="351"/>
+        <v>4.4340750000000071</v>
+      </c>
+      <c r="I112" t="s">
+        <v>7</v>
+      </c>
+      <c r="J112" t="s">
+        <v>395</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" si="352"/>
+        <v>134.86837500000001</v>
+      </c>
+      <c r="L112" s="2">
+        <f t="shared" si="353"/>
+        <v>0.13162499999998545</v>
+      </c>
+      <c r="M112" s="1">
+        <f t="shared" si="354"/>
+        <v>0.89912250000000005</v>
+      </c>
+      <c r="N112" s="6">
+        <f t="shared" si="355"/>
+        <v>11273.750000000002</v>
+      </c>
+      <c r="O112" s="2">
+        <f t="shared" si="356"/>
+        <v>12654.784375000003</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="6">
+        <f t="shared" si="357"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S112" s="6">
+        <f t="shared" si="358"/>
+        <v>16340.914375000002</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="359"/>
+        <v>15435</v>
+      </c>
+      <c r="U112" s="6">
+        <f t="shared" si="360"/>
+        <v>905.91437500000211</v>
+      </c>
+      <c r="V112" s="4">
+        <f t="shared" si="361"/>
+        <v>5.8692217363135901E-2</v>
+      </c>
+      <c r="W112" s="4">
+        <f t="shared" si="362"/>
+        <v>7.710651109425859E-2</v>
+      </c>
+      <c r="X112" s="1">
+        <f t="shared" si="363"/>
+        <v>0.22557672816886046</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
+      <c r="A113" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B113">
+        <v>135</v>
+      </c>
+      <c r="C113" s="33">
+        <v>116.79</v>
+      </c>
+      <c r="D113" s="34">
+        <v>1.1548</v>
+      </c>
+      <c r="E113" s="19">
+        <f t="shared" si="349"/>
+        <v>0.21991272800000003</v>
+      </c>
+      <c r="F113" s="37">
+        <f t="shared" si="350"/>
+        <v>3.9614444444446744E-3</v>
+      </c>
+      <c r="H113" s="41">
+        <f t="shared" si="351"/>
+        <v>0.534795000000031</v>
+      </c>
+      <c r="I113" t="s">
+        <v>7</v>
+      </c>
+      <c r="J113" t="s">
+        <v>397</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" si="352"/>
+        <v>134.86909200000002</v>
+      </c>
+      <c r="L113" s="2">
+        <f t="shared" si="353"/>
+        <v>0.13090799999997671</v>
+      </c>
+      <c r="M113" s="1">
+        <f t="shared" si="354"/>
+        <v>0.8991272800000002</v>
+      </c>
+      <c r="N113" s="6">
+        <f t="shared" si="355"/>
+        <v>11390.540000000003</v>
+      </c>
+      <c r="O113" s="2">
+        <f t="shared" si="356"/>
+        <v>13153.795592000004</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="6">
+        <f t="shared" si="357"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S113" s="6">
+        <f t="shared" si="358"/>
+        <v>16839.925592000003</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="359"/>
+        <v>15570</v>
+      </c>
+      <c r="U113" s="6">
+        <f t="shared" si="360"/>
+        <v>1269.9255920000032</v>
+      </c>
+      <c r="V113" s="4">
+        <f t="shared" si="361"/>
+        <v>8.1562337315350231E-2</v>
+      </c>
+      <c r="W113" s="4">
+        <f t="shared" si="362"/>
+        <v>0.10686128273028928</v>
+      </c>
+      <c r="X113" s="1">
+        <f t="shared" si="363"/>
+        <v>0.21889229734786581</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
+      <c r="A114" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B114">
+        <v>135</v>
+      </c>
+      <c r="C114" s="33">
+        <v>116.63</v>
+      </c>
+      <c r="D114" s="34">
+        <v>1.1564000000000001</v>
+      </c>
+      <c r="E114" s="19">
+        <f t="shared" si="349"/>
+        <v>0.21991395466666669</v>
+      </c>
+      <c r="F114" s="37">
+        <f t="shared" si="350"/>
+        <v>2.5860370370371249E-3</v>
+      </c>
+      <c r="H114" s="41">
+        <f t="shared" si="351"/>
+        <v>0.34911500000001183</v>
+      </c>
+      <c r="I114" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114" t="s">
+        <v>399</v>
+      </c>
+      <c r="K114" s="2">
+        <f t="shared" si="352"/>
+        <v>134.87093200000001</v>
+      </c>
+      <c r="L114" s="2">
+        <f t="shared" si="353"/>
+        <v>0.12906799999998952</v>
+      </c>
+      <c r="M114" s="1">
+        <f t="shared" si="354"/>
+        <v>0.89913954666666673</v>
+      </c>
+      <c r="N114" s="6">
+        <f t="shared" si="355"/>
+        <v>11507.170000000002</v>
+      </c>
+      <c r="O114" s="2">
+        <f t="shared" si="356"/>
+        <v>13306.891388000004</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="6">
+        <f t="shared" si="357"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S114" s="6">
+        <f t="shared" si="358"/>
+        <v>16993.021388000005</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="359"/>
+        <v>15705</v>
+      </c>
+      <c r="U114" s="6">
+        <f t="shared" si="360"/>
+        <v>1288.0213880000047</v>
+      </c>
+      <c r="V114" s="4">
+        <f t="shared" si="361"/>
+        <v>8.2013459917224196E-2</v>
+      </c>
+      <c r="W114" s="4">
+        <f t="shared" si="362"/>
+        <v>0.1071665961941517</v>
+      </c>
+      <c r="X114" s="1">
+        <f t="shared" si="363"/>
+        <v>0.21692022365151858</v>
       </c>
     </row>
   </sheetData>
@@ -11400,7 +11858,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F109">
+  <conditionalFormatting sqref="F2:F114">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -11463,13 +11921,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y110"/>
+  <dimension ref="A1:Y115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q113" sqref="Q113"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11480,7 +11938,7 @@
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="35" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="42" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="41" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
@@ -11512,14 +11970,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="38">
-        <v>0.82369999999999999</v>
+        <v>0.87509999999999999</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="39" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19977),2)</f>
-        <v>盈利471.6</v>
+      <c r="H1" s="46" t="str">
+        <f>"盈利"&amp;ROUND(SUM(H2:H19975),2)</f>
+        <v>盈利1086.05</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -11593,7 +12051,7 @@
       <c r="G2" s="26">
         <v>189.41</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="39">
         <f>IF(G2="",$F$1*C2-B2,G2-B2)</f>
         <v>39.409999999999997</v>
       </c>
@@ -11675,7 +12133,7 @@
       <c r="G3" s="26">
         <v>190.21</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="39">
         <f t="shared" ref="H3:H39" si="2">IF(G3="",$F$1*C3-B3,G3-B3)</f>
         <v>40.210000000000008</v>
       </c>
@@ -11758,7 +12216,7 @@
       <c r="G4" s="26">
         <v>186.07</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="39">
         <f t="shared" si="2"/>
         <v>36.069999999999993</v>
       </c>
@@ -11841,7 +12299,7 @@
       <c r="G5" s="26">
         <v>185.93</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="39">
         <f t="shared" si="2"/>
         <v>35.930000000000007</v>
       </c>
@@ -11924,7 +12382,7 @@
       <c r="G6" s="26">
         <v>186.38</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="39">
         <f t="shared" si="2"/>
         <v>36.379999999999995</v>
       </c>
@@ -12007,7 +12465,7 @@
       <c r="G7" s="26">
         <v>185.88</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="39">
         <f t="shared" si="2"/>
         <v>35.879999999999995</v>
       </c>
@@ -12090,7 +12548,7 @@
       <c r="G8" s="26">
         <v>186.28</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="39">
         <f t="shared" si="2"/>
         <v>36.28</v>
       </c>
@@ -12173,7 +12631,7 @@
       <c r="G9" s="26">
         <v>184.82</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="39">
         <f t="shared" si="2"/>
         <v>34.819999999999993</v>
       </c>
@@ -12256,7 +12714,7 @@
       <c r="G10" s="26">
         <v>186.01</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="39">
         <f t="shared" si="2"/>
         <v>36.009999999999991</v>
       </c>
@@ -12339,7 +12797,7 @@
       <c r="G11" s="26">
         <v>185.82</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="39">
         <f t="shared" si="2"/>
         <v>35.819999999999993</v>
       </c>
@@ -12422,7 +12880,7 @@
       <c r="G12" s="26">
         <v>186.26</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="39">
         <f t="shared" si="2"/>
         <v>36.259999999999991</v>
       </c>
@@ -12505,7 +12963,7 @@
       <c r="G13" s="26">
         <v>185.29</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="39">
         <f t="shared" si="2"/>
         <v>35.289999999999992</v>
       </c>
@@ -12588,7 +13046,7 @@
       <c r="G14" s="26">
         <v>185.78</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="39">
         <f t="shared" si="2"/>
         <v>35.78</v>
       </c>
@@ -12671,7 +13129,7 @@
       <c r="G15" s="26">
         <v>184.75</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="39">
         <f t="shared" si="2"/>
         <v>34.75</v>
       </c>
@@ -12754,7 +13212,7 @@
       <c r="G16" s="26">
         <v>185.09</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="39">
         <f t="shared" si="2"/>
         <v>35.090000000000003</v>
       </c>
@@ -12837,7 +13295,7 @@
       <c r="G17" s="26">
         <v>184.79</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="39">
         <f t="shared" si="2"/>
         <v>34.789999999999992</v>
       </c>
@@ -12920,7 +13378,7 @@
       <c r="G18" s="26">
         <v>186.14</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="39">
         <f t="shared" si="2"/>
         <v>36.139999999999986</v>
       </c>
@@ -13003,7 +13461,7 @@
       <c r="G19" s="26">
         <v>184.61</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="39">
         <f t="shared" si="2"/>
         <v>34.610000000000014</v>
       </c>
@@ -13087,7 +13545,7 @@
       <c r="G20" s="26">
         <v>355.15</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="39">
         <f t="shared" si="2"/>
         <v>85.149999999999977</v>
       </c>
@@ -13171,7 +13629,7 @@
       <c r="G21" s="26">
         <v>359.29</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="39">
         <f t="shared" si="2"/>
         <v>89.29000000000002</v>
       </c>
@@ -13255,7 +13713,7 @@
       <c r="G22" s="26">
         <v>362.64</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="39">
         <f t="shared" si="2"/>
         <v>92.639999999999986</v>
       </c>
@@ -13339,7 +13797,7 @@
       <c r="G23" s="26">
         <v>355.34</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="39">
         <f t="shared" si="2"/>
         <v>85.339999999999975</v>
       </c>
@@ -13423,7 +13881,7 @@
       <c r="G24" s="26">
         <v>356.14</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="39">
         <f t="shared" si="2"/>
         <v>86.139999999999986</v>
       </c>
@@ -13507,7 +13965,7 @@
       <c r="G25" s="26">
         <v>354.59</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="39">
         <f t="shared" si="2"/>
         <v>84.589999999999975</v>
       </c>
@@ -13591,7 +14049,7 @@
       <c r="G26" s="26">
         <v>145.72</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="39">
         <f t="shared" si="2"/>
         <v>25.72</v>
       </c>
@@ -13675,7 +14133,7 @@
       <c r="G27" s="26">
         <v>145.22999999999999</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="39">
         <f t="shared" si="2"/>
         <v>25.22999999999999</v>
       </c>
@@ -13759,7 +14217,7 @@
       <c r="G28" s="26">
         <v>146.30000000000001</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="39">
         <f t="shared" si="2"/>
         <v>26.300000000000011</v>
       </c>
@@ -13843,7 +14301,7 @@
       <c r="G29" s="26">
         <v>145.54</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="39">
         <f t="shared" si="2"/>
         <v>25.539999999999992</v>
       </c>
@@ -13927,7 +14385,7 @@
       <c r="G30" s="26">
         <v>146.55000000000001</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="39">
         <f t="shared" si="2"/>
         <v>26.550000000000011</v>
       </c>
@@ -14011,7 +14469,7 @@
       <c r="G31" s="26">
         <v>128.12</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="39">
         <f t="shared" si="2"/>
         <v>23.120000000000005</v>
       </c>
@@ -14095,7 +14553,7 @@
       <c r="G32" s="26">
         <v>128.1</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="39">
         <f t="shared" si="2"/>
         <v>23.099999999999994</v>
       </c>
@@ -14179,7 +14637,7 @@
       <c r="G33" s="26">
         <v>128.32</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="39">
         <f t="shared" si="2"/>
         <v>23.319999999999993</v>
       </c>
@@ -14263,7 +14721,7 @@
       <c r="G34" s="26">
         <v>126.97</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="39">
         <f t="shared" si="2"/>
         <v>21.97</v>
       </c>
@@ -14343,12 +14801,12 @@
       </c>
       <c r="F35" s="36">
         <f t="shared" si="1"/>
-        <v>-5.917770476190469E-2</v>
+        <v>-4.6911428571425924E-4</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="41">
+      <c r="H35" s="40">
         <f t="shared" si="2"/>
-        <v>-6.2136589999999927</v>
+        <v>-4.925699999999722E-2</v>
       </c>
       <c r="I35" t="s">
         <v>7</v>
@@ -14426,12 +14884,12 @@
       </c>
       <c r="F36" s="36">
         <f t="shared" si="1"/>
-        <v>-5.8053288888888867E-2</v>
+        <v>7.254666666666607E-4</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="41">
+      <c r="H36" s="40">
         <f t="shared" si="2"/>
-        <v>-5.2247959999999978</v>
+        <v>6.5291999999999462E-2</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
@@ -14509,12 +14967,12 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="1"/>
-        <v>-5.4300877777777777E-2</v>
+        <v>4.7120333333332889E-3</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="41">
+      <c r="H37" s="40">
         <f t="shared" si="2"/>
-        <v>-4.887079</v>
+        <v>0.42408299999999599</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -14592,12 +15050,12 @@
       </c>
       <c r="F38" s="36">
         <f t="shared" si="1"/>
-        <v>-5.5490666666666598E-2</v>
+        <v>3.4480000000000487E-3</v>
       </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="41">
+      <c r="H38" s="40">
         <f t="shared" si="2"/>
-        <v>-4.9941599999999937</v>
+        <v>0.31032000000000437</v>
       </c>
       <c r="I38" t="s">
         <v>7</v>
@@ -14675,12 +15133,12 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="1"/>
-        <v>-6.2812444444444462E-2</v>
+        <v>-4.3306666666666164E-3</v>
       </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="41">
+      <c r="H39" s="40">
         <f t="shared" si="2"/>
-        <v>-5.6531200000000013</v>
+        <v>-0.38975999999999544</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
@@ -14758,12 +15216,12 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="1"/>
-        <v>-7.8432237037037139E-2</v>
+        <v>-2.0925155555555523E-2</v>
       </c>
       <c r="G40" s="9"/>
-      <c r="H40" s="41">
+      <c r="H40" s="40">
         <f t="shared" ref="H40" si="58">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>-10.588352000000015</v>
+        <v>-2.8248959999999954</v>
       </c>
       <c r="I40" t="s">
         <v>7</v>
@@ -14841,12 +15299,12 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="1"/>
-        <v>-0.10094670370370377</v>
+        <v>-4.4844555555555499E-2</v>
       </c>
       <c r="G41" s="9"/>
-      <c r="H41" s="41">
+      <c r="H41" s="40">
         <f t="shared" ref="H41" si="70">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-13.627805000000009</v>
+        <v>-6.0540149999999926</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -14928,12 +15386,12 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="1"/>
-        <v>-0.11546822962962963</v>
+        <v>-6.0272244444444435E-2</v>
       </c>
       <c r="G42" s="9"/>
-      <c r="H42" s="41">
+      <c r="H42" s="40">
         <f t="shared" ref="H42" si="82">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-15.588211000000001</v>
+        <v>-8.1367529999999988</v>
       </c>
       <c r="I42" t="s">
         <v>7</v>
@@ -15015,12 +15473,12 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="1"/>
-        <v>-0.12620683703703697</v>
+        <v>-7.1680955555555564E-2</v>
       </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="41">
+      <c r="H43" s="40">
         <f t="shared" ref="H43" si="95">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-17.037922999999992</v>
+        <v>-9.6769290000000012</v>
       </c>
       <c r="I43" t="s">
         <v>7</v>
@@ -15102,12 +15560,12 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="1"/>
-        <v>-9.5150296296296233E-2</v>
+        <v>-3.8686444444444398E-2</v>
       </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="41">
+      <c r="H44" s="40">
         <f t="shared" ref="H44" si="108">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>-12.845289999999991</v>
+        <v>-5.2226699999999937</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
@@ -15185,12 +15643,12 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="1"/>
-        <v>-0.12718307407407406</v>
+        <v>-7.2718111111111039E-2</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="41">
+      <c r="H45" s="40">
         <f t="shared" ref="H45:H49" si="121">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>-17.169714999999997</v>
+        <v>-9.8169449999999898</v>
       </c>
       <c r="I45" t="s">
         <v>7</v>
@@ -15268,12 +15726,12 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="1"/>
-        <v>-0.14109445185185179</v>
+        <v>-8.7497577777777683E-2</v>
       </c>
       <c r="G46" s="9"/>
-      <c r="H46" s="41">
+      <c r="H46" s="40">
         <f t="shared" si="121"/>
-        <v>-19.047750999999991</v>
+        <v>-11.812172999999987</v>
       </c>
       <c r="I46" t="s">
         <v>7</v>
@@ -15351,12 +15809,12 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="1"/>
-        <v>-0.12205782962962973</v>
+        <v>-6.7273044444444582E-2</v>
       </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="41">
+      <c r="H47" s="40">
         <f t="shared" si="121"/>
-        <v>-16.477807000000013</v>
+        <v>-9.0818610000000177</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
@@ -15434,12 +15892,12 @@
       </c>
       <c r="F48" s="36">
         <f t="shared" si="1"/>
-        <v>-0.10235004444444444</v>
+        <v>-4.6335466666666721E-2</v>
       </c>
       <c r="G48" s="9"/>
-      <c r="H48" s="41">
+      <c r="H48" s="40">
         <f t="shared" si="121"/>
-        <v>-13.817256</v>
+        <v>-6.2552880000000073</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
@@ -15517,12 +15975,12 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="1"/>
-        <v>-0.11174632592592589</v>
+        <v>-5.6318088888888777E-2</v>
       </c>
       <c r="G49" s="9"/>
-      <c r="H49" s="41">
+      <c r="H49" s="40">
         <f t="shared" si="121"/>
-        <v>-15.085753999999994</v>
+        <v>-7.6029419999999845</v>
       </c>
       <c r="I49" t="s">
         <v>7</v>
@@ -15600,12 +16058,12 @@
       </c>
       <c r="F50" s="36">
         <f t="shared" si="1"/>
-        <v>-0.13346759999999996</v>
+        <v>-7.9394799999999932E-2</v>
       </c>
       <c r="G50" s="9"/>
-      <c r="H50" s="41">
+      <c r="H50" s="40">
         <f t="shared" ref="H50:H54" si="134">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>-18.018125999999995</v>
+        <v>-10.71829799999999</v>
       </c>
       <c r="I50" t="s">
         <v>7</v>
@@ -15683,12 +16141,12 @@
       </c>
       <c r="F51" s="36">
         <f t="shared" si="1"/>
-        <v>-0.13657935555555559</v>
+        <v>-8.2700733333333401E-2</v>
       </c>
       <c r="G51" s="9"/>
-      <c r="H51" s="41">
+      <c r="H51" s="40">
         <f t="shared" si="134"/>
-        <v>-18.438213000000005</v>
+        <v>-11.16459900000001</v>
       </c>
       <c r="I51" t="s">
         <v>7</v>
@@ -15770,12 +16228,12 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="1"/>
-        <v>-0.13542007407407422</v>
+        <v>-8.1469111111111187E-2</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="41">
+      <c r="H52" s="40">
         <f t="shared" si="134"/>
-        <v>-18.281710000000018</v>
+        <v>-10.99833000000001</v>
       </c>
       <c r="I52" t="s">
         <v>7</v>
@@ -15853,12 +16311,12 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="1"/>
-        <v>-0.14652477037037037</v>
+        <v>-9.3266755555555608E-2</v>
       </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="41">
+      <c r="H53" s="40">
         <f t="shared" si="134"/>
-        <v>-19.780844000000002</v>
+        <v>-12.591012000000006</v>
       </c>
       <c r="I53" t="s">
         <v>7</v>
@@ -15940,12 +16398,12 @@
       </c>
       <c r="F54" s="36">
         <f t="shared" si="1"/>
-        <v>-0.15116189629629634</v>
+        <v>-9.8193244444444383E-2</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="41">
+      <c r="H54" s="40">
         <f t="shared" si="134"/>
-        <v>-20.406856000000005</v>
+        <v>-13.256087999999991</v>
       </c>
       <c r="I54" t="s">
         <v>7</v>
@@ -16024,12 +16482,12 @@
       </c>
       <c r="F55" s="36">
         <f t="shared" si="1"/>
-        <v>-0.14078937777777784</v>
+        <v>-8.7173466666666755E-2</v>
       </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="41">
+      <c r="H55" s="40">
         <f t="shared" ref="H55:H59" si="147">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>-19.006566000000007</v>
+        <v>-11.768418000000011</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
@@ -16107,12 +16565,12 @@
       </c>
       <c r="F56" s="36">
         <f t="shared" si="1"/>
-        <v>-0.11742070370370367</v>
+        <v>-6.2346555555555482E-2</v>
       </c>
       <c r="G56" s="9"/>
-      <c r="H56" s="41">
+      <c r="H56" s="40">
         <f t="shared" si="147"/>
-        <v>-15.851794999999996</v>
+        <v>-8.4167849999999902</v>
       </c>
       <c r="I56" t="s">
         <v>7</v>
@@ -16190,12 +16648,12 @@
       </c>
       <c r="F57" s="36">
         <f t="shared" si="1"/>
-        <v>-0.12529161481481479</v>
+        <v>-7.0708622222222128E-2</v>
       </c>
       <c r="G57" s="9"/>
-      <c r="H57" s="41">
+      <c r="H57" s="40">
         <f t="shared" si="147"/>
-        <v>-16.914367999999996</v>
+        <v>-9.5456639999999879</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
@@ -16273,12 +16731,12 @@
       </c>
       <c r="F58" s="36">
         <f t="shared" si="1"/>
-        <v>-0.11351575555555561</v>
+        <v>-5.8197933333333389E-2</v>
       </c>
       <c r="G58" s="9"/>
-      <c r="H58" s="41">
+      <c r="H58" s="40">
         <f t="shared" si="147"/>
-        <v>-15.324627000000007</v>
+        <v>-7.8567210000000074</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -16356,12 +16814,12 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="1"/>
-        <v>-0.14048430370370366</v>
+        <v>-8.6849355555555494E-2</v>
       </c>
       <c r="G59" s="9"/>
-      <c r="H59" s="41">
+      <c r="H59" s="40">
         <f t="shared" si="147"/>
-        <v>-18.965380999999994</v>
+        <v>-11.724662999999993</v>
       </c>
       <c r="I59" t="s">
         <v>7</v>
@@ -16439,12 +16897,12 @@
       </c>
       <c r="F60" s="36">
         <f t="shared" si="1"/>
-        <v>-0.17025953333333327</v>
+        <v>-0.11848259999999995</v>
       </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="41">
+      <c r="H60" s="40">
         <f t="shared" ref="H60" si="160">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>-22.985036999999991</v>
+        <v>-15.995150999999993</v>
       </c>
       <c r="I60" t="s">
         <v>7</v>
@@ -16526,12 +16984,12 @@
       </c>
       <c r="F61" s="36">
         <f t="shared" ref="F61:F63" si="173">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>-0.17276114074074067</v>
+        <v>-0.12114031111111104</v>
       </c>
       <c r="G61" s="9"/>
-      <c r="H61" s="41">
+      <c r="H61" s="40">
         <f t="shared" ref="H61:H63" si="174">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>-23.322753999999989</v>
+        <v>-16.353941999999989</v>
       </c>
       <c r="I61" t="s">
         <v>7</v>
@@ -16609,12 +17067,12 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="173"/>
-        <v>-0.1808989916666667</v>
+        <v>-0.12978597500000005</v>
       </c>
       <c r="G62" s="9"/>
-      <c r="H62" s="41">
+      <c r="H62" s="40">
         <f t="shared" si="174"/>
-        <v>-21.707879000000005</v>
+        <v>-15.574317000000008</v>
       </c>
       <c r="I62" t="s">
         <v>7</v>
@@ -16696,12 +17154,12 @@
       </c>
       <c r="F63" s="36">
         <f t="shared" si="173"/>
-        <v>-0.18563526666666672</v>
+        <v>-0.13481779999999996</v>
       </c>
       <c r="G63" s="9"/>
-      <c r="H63" s="41">
+      <c r="H63" s="40">
         <f t="shared" si="174"/>
-        <v>-22.276232000000007</v>
+        <v>-16.178135999999995</v>
       </c>
       <c r="I63" t="s">
         <v>7</v>
@@ -16783,12 +17241,12 @@
       </c>
       <c r="F64" s="36">
         <f t="shared" ref="F64:F68" si="187">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-0.18234046666666662</v>
+        <v>-0.1313174</v>
       </c>
       <c r="G64" s="9"/>
-      <c r="H64" s="41">
+      <c r="H64" s="40">
         <f t="shared" ref="H64:H68" si="188">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-21.880855999999994</v>
+        <v>-15.758088000000001</v>
       </c>
       <c r="I64" t="s">
         <v>7</v>
@@ -16866,12 +17324,12 @@
       </c>
       <c r="F65" s="36">
         <f t="shared" si="187"/>
-        <v>-0.18371330000000002</v>
+        <v>-0.13277590000000003</v>
       </c>
       <c r="G65" s="9"/>
-      <c r="H65" s="41">
+      <c r="H65" s="40">
         <f t="shared" si="188"/>
-        <v>-22.045596000000003</v>
+        <v>-15.933108000000004</v>
       </c>
       <c r="I65" t="s">
         <v>7</v>
@@ -16949,12 +17407,12 @@
       </c>
       <c r="F66" s="36">
         <f t="shared" si="187"/>
-        <v>-0.18282095833333342</v>
+        <v>-0.13182787499999998</v>
       </c>
       <c r="G66" s="9"/>
-      <c r="H66" s="41">
+      <c r="H66" s="40">
         <f t="shared" si="188"/>
-        <v>-21.93851500000001</v>
+        <v>-15.819344999999998</v>
       </c>
       <c r="I66" t="s">
         <v>7</v>
@@ -17032,12 +17490,12 @@
       </c>
       <c r="F67" s="36">
         <f t="shared" si="187"/>
-        <v>-0.16607239166666676</v>
+        <v>-0.1140341750000001</v>
       </c>
       <c r="G67" s="9"/>
-      <c r="H67" s="41">
+      <c r="H67" s="40">
         <f t="shared" si="188"/>
-        <v>-19.928687000000011</v>
+        <v>-13.684101000000013</v>
       </c>
       <c r="I67" t="s">
         <v>7</v>
@@ -17115,12 +17573,12 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="187"/>
-        <v>-0.16415805185185178</v>
+        <v>-0.1120003777777777</v>
       </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="41">
+      <c r="H68" s="40">
         <f t="shared" si="188"/>
-        <v>-22.161336999999989</v>
+        <v>-15.120050999999989</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
@@ -17198,12 +17656,12 @@
       </c>
       <c r="F69" s="36">
         <f t="shared" ref="F69:F73" si="202">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>-0.15561597777777786</v>
+        <v>-0.10292526666666672</v>
       </c>
       <c r="G69" s="9"/>
-      <c r="H69" s="41">
+      <c r="H69" s="40">
         <f t="shared" ref="H69:H73" si="203">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>-21.008157000000011</v>
+        <v>-13.894911000000008</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
@@ -17281,12 +17739,12 @@
       </c>
       <c r="F70" s="36">
         <f t="shared" si="202"/>
-        <v>-0.17233403703703706</v>
+        <v>-0.12068655555555549</v>
       </c>
       <c r="G70" s="9"/>
-      <c r="H70" s="41">
+      <c r="H70" s="40">
         <f t="shared" si="203"/>
-        <v>-23.265095000000002</v>
+        <v>-16.292684999999992</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
@@ -17364,12 +17822,12 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="202"/>
-        <v>-0.17636864166666666</v>
+        <v>-0.12497292500000003</v>
       </c>
       <c r="G71" s="9"/>
-      <c r="H71" s="41">
+      <c r="H71" s="40">
         <f t="shared" si="203"/>
-        <v>-21.164237</v>
+        <v>-14.996751000000003</v>
       </c>
       <c r="I71" t="s">
         <v>7</v>
@@ -17447,12 +17905,12 @@
       </c>
       <c r="F72" s="36">
         <f t="shared" si="202"/>
-        <v>-0.1719755750000001</v>
+        <v>-0.12030572500000006</v>
       </c>
       <c r="G72" s="9"/>
-      <c r="H72" s="41">
+      <c r="H72" s="40">
         <f t="shared" si="203"/>
-        <v>-20.637069000000011</v>
+        <v>-14.436687000000006</v>
       </c>
       <c r="I72" t="s">
         <v>7</v>
@@ -17530,12 +17988,12 @@
       </c>
       <c r="F73" s="36">
         <f t="shared" si="202"/>
-        <v>-0.17678049166666659</v>
+        <v>-0.12541047499999997</v>
       </c>
       <c r="G73" s="9"/>
-      <c r="H73" s="41">
+      <c r="H73" s="40">
         <f t="shared" si="203"/>
-        <v>-21.213658999999993</v>
+        <v>-15.049256999999997</v>
       </c>
       <c r="I73" t="s">
         <v>7</v>
@@ -17613,12 +18071,12 @@
       </c>
       <c r="F74" s="36">
         <f t="shared" ref="F74:F78" si="216">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
-        <v>-0.16483684166666671</v>
+        <v>-0.11272152500000002</v>
       </c>
       <c r="G74" s="9"/>
-      <c r="H74" s="41">
+      <c r="H74" s="40">
         <f t="shared" ref="H74:H78" si="217">IF(G74="",$F$1*C74-B74,G74-B74)</f>
-        <v>-19.780421000000004</v>
+        <v>-13.526583000000002</v>
       </c>
       <c r="I74" t="s">
         <v>7</v>
@@ -17696,12 +18154,12 @@
       </c>
       <c r="F75" s="36">
         <f t="shared" si="216"/>
-        <v>-0.15177204444444437</v>
+        <v>-9.8841466666666558E-2</v>
       </c>
       <c r="G75" s="9"/>
-      <c r="H75" s="41">
+      <c r="H75" s="40">
         <f t="shared" si="217"/>
-        <v>-20.489225999999988</v>
+        <v>-13.343597999999986</v>
       </c>
       <c r="I75" t="s">
         <v>7</v>
@@ -17779,12 +18237,12 @@
       </c>
       <c r="F76" s="36">
         <f t="shared" si="216"/>
-        <v>-0.15915483703703698</v>
+        <v>-0.10668495555555553</v>
       </c>
       <c r="G76" s="9"/>
-      <c r="H76" s="41">
+      <c r="H76" s="40">
         <f t="shared" si="217"/>
-        <v>-21.485902999999993</v>
+        <v>-14.402468999999996</v>
       </c>
       <c r="I76" t="s">
         <v>7</v>
@@ -17862,12 +18320,12 @@
       </c>
       <c r="F77" s="36">
         <f t="shared" si="216"/>
-        <v>-0.12651191111111115</v>
+        <v>-7.2005066666666714E-2</v>
       </c>
       <c r="G77" s="9"/>
-      <c r="H77" s="41">
+      <c r="H77" s="40">
         <f t="shared" si="217"/>
-        <v>-17.079108000000005</v>
+        <v>-9.7206840000000057</v>
       </c>
       <c r="I77" t="s">
         <v>7</v>
@@ -17945,12 +18403,12 @@
       </c>
       <c r="F78" s="36">
         <f t="shared" si="216"/>
-        <v>-0.11912911851851851</v>
+        <v>-6.4161577777777742E-2</v>
       </c>
       <c r="G78" s="9"/>
-      <c r="H78" s="41">
+      <c r="H78" s="40">
         <f t="shared" si="217"/>
-        <v>-16.082431</v>
+        <v>-8.6618129999999951</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -18028,12 +18486,12 @@
       </c>
       <c r="F79" s="36">
         <f t="shared" ref="F79:F80" si="230">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
-        <v>-9.6492622222222144E-2</v>
+        <v>-4.0112533333333263E-2</v>
       </c>
       <c r="G79" s="9"/>
-      <c r="H79" s="41">
+      <c r="H79" s="40">
         <f t="shared" ref="H79:H80" si="231">IF(G79="",$F$1*C79-B79,G79-B79)</f>
-        <v>-13.026503999999989</v>
+        <v>-5.4151919999999905</v>
       </c>
       <c r="I79" t="s">
         <v>7</v>
@@ -18111,12 +18569,12 @@
       </c>
       <c r="F80" s="36">
         <f t="shared" si="230"/>
-        <v>-0.10302120740740746</v>
+        <v>-4.7048511111111156E-2</v>
       </c>
       <c r="G80" s="9"/>
-      <c r="H80" s="41">
+      <c r="H80" s="40">
         <f t="shared" si="231"/>
-        <v>-13.907863000000006</v>
+        <v>-6.3515490000000057</v>
       </c>
       <c r="I80" t="s">
         <v>7</v>
@@ -18194,12 +18652,12 @@
       </c>
       <c r="F81" s="36">
         <f t="shared" ref="F81" si="244">IF(G81="",($F$1*C81-B81)/B81,H81/B81)</f>
-        <v>-3.4257511111111104E-2</v>
+        <v>2.6006133333333362E-2</v>
       </c>
       <c r="G81" s="9"/>
-      <c r="H81" s="41">
+      <c r="H81" s="40">
         <f t="shared" ref="H81" si="245">IF(G81="",$F$1*C81-B81,G81-B81)</f>
-        <v>-4.624763999999999</v>
+        <v>3.5108280000000036</v>
       </c>
       <c r="I81" t="s">
         <v>7</v>
@@ -18277,12 +18735,12 @@
       </c>
       <c r="F82" s="36">
         <f t="shared" ref="F82:F84" si="258">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
-        <v>-4.6338444444444508E-2</v>
+        <v>1.3171333333333419E-2</v>
       </c>
       <c r="G82" s="9"/>
-      <c r="H82" s="41">
+      <c r="H82" s="40">
         <f t="shared" ref="H82:H84" si="259">IF(G82="",$F$1*C82-B82,G82-B82)</f>
-        <v>-4.1704600000000056</v>
+        <v>1.1854200000000077</v>
       </c>
       <c r="I82" t="s">
         <v>7</v>
@@ -18360,12 +18818,12 @@
       </c>
       <c r="F83" s="36">
         <f t="shared" si="258"/>
-        <v>-4.2311466666666638E-2</v>
+        <v>1.7449600000000013E-2</v>
       </c>
       <c r="G83" s="9"/>
-      <c r="H83" s="41">
+      <c r="H83" s="40">
         <f t="shared" si="259"/>
-        <v>-3.8080319999999972</v>
+        <v>1.5704640000000012</v>
       </c>
       <c r="I83" t="s">
         <v>7</v>
@@ -18443,12 +18901,12 @@
       </c>
       <c r="F84" s="36">
         <f t="shared" si="258"/>
-        <v>-3.1511844444444471E-2</v>
+        <v>2.8923133333333181E-2</v>
       </c>
       <c r="G84" s="9"/>
-      <c r="H84" s="41">
+      <c r="H84" s="40">
         <f t="shared" si="259"/>
-        <v>-2.8360660000000024</v>
+        <v>2.6030819999999864</v>
       </c>
       <c r="I84" t="s">
         <v>7</v>
@@ -18530,7 +18988,7 @@
       <c r="G85" s="26">
         <v>517.29999999999995</v>
       </c>
-      <c r="H85" s="40">
+      <c r="H85" s="39">
         <f t="shared" ref="H85:H86" si="272">IF(G85="",$F$1*C85-B85,G85-B85)</f>
         <v>17.299999999999955</v>
       </c>
@@ -18609,12 +19067,12 @@
       </c>
       <c r="F86" s="36">
         <f t="shared" si="271"/>
-        <v>-6.3270055555555552E-2</v>
+        <v>-4.8168333333333318E-3</v>
       </c>
       <c r="G86" s="9"/>
-      <c r="H86" s="41">
+      <c r="H86" s="40">
         <f t="shared" si="272"/>
-        <v>-5.6943049999999999</v>
+        <v>-0.43351499999999987</v>
       </c>
       <c r="I86" t="s">
         <v>7</v>
@@ -18696,12 +19154,12 @@
       </c>
       <c r="F87" s="36">
         <f t="shared" ref="F87:F91" si="286">IF(G87="",($F$1*C87-B87)/B87,H87/B87)</f>
-        <v>-5.280601481481479E-2</v>
+        <v>6.3001777777778305E-3</v>
       </c>
       <c r="G87" s="9"/>
-      <c r="H87" s="41">
+      <c r="H87" s="40">
         <f t="shared" ref="H87:H91" si="287">IF(G87="",$F$1*C87-B87,G87-B87)</f>
-        <v>-7.1288119999999964</v>
+        <v>0.85052400000000716</v>
       </c>
       <c r="I87" t="s">
         <v>7</v>
@@ -18779,12 +19237,12 @@
       </c>
       <c r="F88" s="36">
         <f t="shared" si="286"/>
-        <v>-4.6094385185185265E-2</v>
+        <v>1.3430622222222155E-2</v>
       </c>
       <c r="G88" s="9"/>
-      <c r="H88" s="41">
+      <c r="H88" s="40">
         <f t="shared" si="287"/>
-        <v>-6.2227420000000109</v>
+        <v>1.8131339999999909</v>
       </c>
       <c r="I88" t="s">
         <v>7</v>
@@ -18862,12 +19320,12 @@
       </c>
       <c r="F89" s="36">
         <f t="shared" si="286"/>
-        <v>-6.5985214814814744E-2</v>
+        <v>-7.7014222222222392E-3</v>
       </c>
       <c r="G89" s="9"/>
-      <c r="H89" s="41">
+      <c r="H89" s="40">
         <f t="shared" si="287"/>
-        <v>-8.9080039999999912</v>
+        <v>-1.0396920000000023</v>
       </c>
       <c r="I89" t="s">
         <v>7</v>
@@ -18945,12 +19403,12 @@
       </c>
       <c r="F90" s="36">
         <f t="shared" si="286"/>
-        <v>-7.1598577777777769E-2</v>
+        <v>-1.3665066666666698E-2</v>
       </c>
       <c r="G90" s="9"/>
-      <c r="H90" s="41">
+      <c r="H90" s="40">
         <f t="shared" si="287"/>
-        <v>-9.6658079999999984</v>
+        <v>-1.8447840000000042</v>
       </c>
       <c r="I90" t="s">
         <v>7</v>
@@ -19028,12 +19486,12 @@
       </c>
       <c r="F91" s="36">
         <f t="shared" si="286"/>
-        <v>-4.2189437037037196E-2</v>
+        <v>1.7579244444444461E-2</v>
       </c>
       <c r="G91" s="9"/>
-      <c r="H91" s="41">
+      <c r="H91" s="40">
         <f t="shared" si="287"/>
-        <v>-5.6955740000000219</v>
+        <v>2.3731980000000021</v>
       </c>
       <c r="I91" t="s">
         <v>7</v>
@@ -19111,12 +19569,12 @@
       </c>
       <c r="F92" s="36">
         <f t="shared" ref="F92:F97" si="299">IF(G92="",($F$1*C92-B92)/B92,H92/B92)</f>
-        <v>-3.8982345833333439E-2</v>
+        <v>2.0986462499999921E-2</v>
       </c>
       <c r="G92" s="9"/>
-      <c r="H92" s="41">
+      <c r="H92" s="40">
         <f t="shared" ref="H92:H97" si="300">IF(G92="",$F$1*C92-B92,G92-B92)</f>
-        <v>-9.3557630000000245</v>
+        <v>5.0367509999999811</v>
       </c>
       <c r="I92" t="s">
         <v>7</v>
@@ -19194,12 +19652,12 @@
       </c>
       <c r="F93" s="36">
         <f t="shared" si="299"/>
-        <v>-5.4941533333333341E-2</v>
+        <v>4.031399999999981E-3</v>
       </c>
       <c r="G93" s="9"/>
-      <c r="H93" s="41">
+      <c r="H93" s="40">
         <f t="shared" si="300"/>
-        <v>-13.185968000000003</v>
+        <v>0.96753599999999551</v>
       </c>
       <c r="I93" t="s">
         <v>7</v>
@@ -19277,12 +19735,12 @@
       </c>
       <c r="F94" s="36">
         <f t="shared" si="299"/>
-        <v>-4.9267155555555664E-2</v>
+        <v>1.0059866666666637E-2</v>
       </c>
       <c r="G94" s="9"/>
-      <c r="H94" s="41">
+      <c r="H94" s="40">
         <f t="shared" si="300"/>
-        <v>-6.6510660000000144</v>
+        <v>1.358081999999996</v>
       </c>
       <c r="I94" t="s">
         <v>7</v>
@@ -19360,12 +19818,12 @@
       </c>
       <c r="F95" s="36">
         <f t="shared" si="299"/>
-        <v>-3.0718651851851873E-2</v>
+        <v>2.9765822222222377E-2</v>
       </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="41">
+      <c r="H95" s="40">
         <f t="shared" si="300"/>
-        <v>-4.1470180000000028</v>
+        <v>4.0183860000000209</v>
       </c>
       <c r="I95" t="s">
         <v>7</v>
@@ -19443,12 +19901,12 @@
       </c>
       <c r="F96" s="36">
         <f t="shared" si="299"/>
-        <v>-2.5219691666666696E-2</v>
+        <v>3.5607924999999936E-2</v>
       </c>
       <c r="G96" s="9"/>
-      <c r="H96" s="41">
+      <c r="H96" s="40">
         <f t="shared" si="300"/>
-        <v>-6.0527260000000069</v>
+        <v>8.5459019999999839</v>
       </c>
       <c r="I96" t="s">
         <v>7</v>
@@ -19526,12 +19984,12 @@
       </c>
       <c r="F97" s="36">
         <f t="shared" si="299"/>
-        <v>-4.7894322222222264E-2</v>
+        <v>1.1518366666666679E-2</v>
       </c>
       <c r="G97" s="9"/>
-      <c r="H97" s="41">
+      <c r="H97" s="40">
         <f t="shared" si="300"/>
-        <v>-4.310489000000004</v>
+        <v>1.0366530000000012</v>
       </c>
       <c r="I97" t="s">
         <v>7</v>
@@ -19609,12 +20067,12 @@
       </c>
       <c r="F98" s="36">
         <f t="shared" ref="F98:F101" si="313">IF(G98="",($F$1*C98-B98)/B98,H98/B98)</f>
-        <v>-4.6643518518518522E-2</v>
+        <v>1.2847222222222222E-2</v>
       </c>
       <c r="G98" s="9"/>
-      <c r="H98" s="41">
+      <c r="H98" s="40">
         <f t="shared" ref="H98:H101" si="314">IF(G98="",$F$1*C98-B98,G98-B98)</f>
-        <v>-6.296875</v>
+        <v>1.734375</v>
       </c>
       <c r="I98" t="s">
         <v>7</v>
@@ -19692,12 +20150,12 @@
       </c>
       <c r="F99" s="36">
         <f t="shared" si="313"/>
-        <v>-4.6948592592592688E-2</v>
+        <v>1.2523111111111079E-2</v>
       </c>
       <c r="G99" s="9"/>
-      <c r="H99" s="41">
+      <c r="H99" s="40">
         <f t="shared" si="314"/>
-        <v>-6.3380600000000129</v>
+        <v>1.6906199999999956</v>
       </c>
       <c r="I99" t="s">
         <v>7</v>
@@ -19775,12 +20233,12 @@
       </c>
       <c r="F100" s="36">
         <f t="shared" si="313"/>
-        <v>-4.1335229629629565E-2</v>
+        <v>1.8486755555555536E-2</v>
       </c>
       <c r="G100" s="9"/>
-      <c r="H100" s="41">
+      <c r="H100" s="40">
         <f t="shared" si="314"/>
-        <v>-5.5802559999999914</v>
+        <v>2.4957119999999975</v>
       </c>
       <c r="I100" t="s">
         <v>7</v>
@@ -19858,12 +20316,12 @@
       </c>
       <c r="F101" s="36">
         <f t="shared" si="313"/>
-        <v>-3.8833622222222176E-2</v>
+        <v>2.1144466666666622E-2</v>
       </c>
       <c r="G101" s="9"/>
-      <c r="H101" s="41">
+      <c r="H101" s="40">
         <f t="shared" si="314"/>
-        <v>-5.2425389999999936</v>
+        <v>2.854502999999994</v>
       </c>
       <c r="I101" t="s">
         <v>7</v>
@@ -19941,12 +20399,12 @@
       </c>
       <c r="F102" s="36">
         <f t="shared" ref="F102" si="327">IF(G102="",($F$1*C102-B102)/B102,H102/B102)</f>
-        <v>-2.8339074074074024E-2</v>
+        <v>3.2293888888888962E-2</v>
       </c>
       <c r="G102" s="9"/>
-      <c r="H102" s="41">
+      <c r="H102" s="40">
         <f t="shared" ref="H102" si="328">IF(G102="",$F$1*C102-B102,G102-B102)</f>
-        <v>-3.825774999999993</v>
+        <v>4.35967500000001</v>
       </c>
       <c r="I102" t="s">
         <v>7</v>
@@ -20024,12 +20482,12 @@
       </c>
       <c r="F103" s="36">
         <f t="shared" ref="F103:F105" si="341">IF(G103="",($F$1*C103-B103)/B103,H103/B103)</f>
-        <v>-1.7428862499999909E-2</v>
+        <v>4.3884912500000081E-2</v>
       </c>
       <c r="G103" s="9"/>
-      <c r="H103" s="41">
+      <c r="H103" s="40">
         <f t="shared" ref="H103:H105" si="342">IF(G103="",$F$1*C103-B103,G103-B103)</f>
-        <v>-4.1829269999999781</v>
+        <v>10.53237900000002</v>
       </c>
       <c r="I103" t="s">
         <v>7</v>
@@ -20107,12 +20565,12 @@
       </c>
       <c r="F104" s="36">
         <f t="shared" si="341"/>
-        <v>-1.5644179166666678E-2</v>
+        <v>4.5780962499999946E-2</v>
       </c>
       <c r="G104" s="9"/>
-      <c r="H104" s="41">
+      <c r="H104" s="40">
         <f t="shared" si="342"/>
-        <v>-3.754603000000003</v>
+        <v>10.987430999999987</v>
       </c>
       <c r="I104" t="s">
         <v>7</v>
@@ -20190,12 +20648,12 @@
       </c>
       <c r="F105" s="36">
         <f t="shared" si="341"/>
-        <v>4.5021499999999531E-3</v>
+        <v>6.7184450000000118E-2</v>
       </c>
       <c r="G105" s="9"/>
-      <c r="H105" s="41">
+      <c r="H105" s="40">
         <f t="shared" si="342"/>
-        <v>1.0805159999999887</v>
+        <v>16.124268000000029</v>
       </c>
       <c r="I105" t="s">
         <v>7</v>
@@ -20273,12 +20731,12 @@
       </c>
       <c r="F106" s="36">
         <f t="shared" ref="F106:F110" si="356">IF(G106="",($F$1*C106-B106)/B106,H106/B106)</f>
-        <v>-4.695833333333373E-3</v>
+        <v>5.7412499999999984E-2</v>
       </c>
       <c r="G106" s="9"/>
-      <c r="H106" s="41">
+      <c r="H106" s="40">
         <f t="shared" ref="H106:H110" si="357">IF(G106="",$F$1*C106-B106,G106-B106)</f>
-        <v>-1.1270000000000095</v>
+        <v>13.778999999999996</v>
       </c>
       <c r="I106" t="s">
         <v>7</v>
@@ -20356,12 +20814,12 @@
       </c>
       <c r="F107" s="36">
         <f t="shared" si="356"/>
-        <v>-3.8833622222222336E-2</v>
+        <v>2.1144466666666674E-2</v>
       </c>
       <c r="G107" s="9"/>
-      <c r="H107" s="41">
+      <c r="H107" s="40">
         <f t="shared" si="357"/>
-        <v>-3.49502600000001</v>
+        <v>1.9030020000000007</v>
       </c>
       <c r="I107" t="s">
         <v>7</v>
@@ -20439,12 +20897,12 @@
       </c>
       <c r="F108" s="36">
         <f t="shared" si="356"/>
-        <v>-3.1755903703703715E-2</v>
+        <v>2.8663844444444444E-2</v>
       </c>
       <c r="G108" s="9"/>
-      <c r="H108" s="41">
+      <c r="H108" s="40">
         <f t="shared" si="357"/>
-        <v>-4.2870470000000012</v>
+        <v>3.8696190000000001</v>
       </c>
       <c r="I108" t="s">
         <v>7</v>
@@ -20522,12 +20980,12 @@
       </c>
       <c r="F109" s="36">
         <f t="shared" si="356"/>
-        <v>-3.4349033333333362E-2</v>
+        <v>2.5908899999999985E-2</v>
       </c>
       <c r="G109" s="9"/>
-      <c r="H109" s="41">
+      <c r="H109" s="40">
         <f t="shared" si="357"/>
-        <v>-3.0914130000000029</v>
+        <v>2.3318009999999987</v>
       </c>
       <c r="I109" t="s">
         <v>7</v>
@@ -20605,12 +21063,12 @@
       </c>
       <c r="F110" s="36">
         <f t="shared" si="356"/>
-        <v>-1.6605162500000149E-2</v>
+        <v>4.4760012499999863E-2</v>
       </c>
       <c r="G110" s="9"/>
-      <c r="H110" s="41">
+      <c r="H110" s="40">
         <f t="shared" si="357"/>
-        <v>-3.9852390000000355</v>
+        <v>10.742402999999968</v>
       </c>
       <c r="I110" t="s">
         <v>7</v>
@@ -20667,6 +21125,421 @@
       <c r="X110" s="1">
         <f t="shared" si="369"/>
         <v>0.43254046463186813</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
+      <c r="A111" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B111">
+        <v>240</v>
+      </c>
+      <c r="C111" s="2">
+        <v>286.33</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="E111" s="1">
+        <f t="shared" ref="E111:E115" si="370">10%*M111+13%</f>
+        <v>0.29000120399999996</v>
+      </c>
+      <c r="F111" s="36">
+        <f t="shared" ref="F111:F115" si="371">IF(G111="",($F$1*C111-B111)/B111,H111/B111)</f>
+        <v>4.4030762499999911E-2</v>
+      </c>
+      <c r="G111" s="9"/>
+      <c r="H111" s="40">
+        <f t="shared" ref="H111:H115" si="372">IF(G111="",$F$1*C111-B111,G111-B111)</f>
+        <v>10.567382999999978</v>
+      </c>
+      <c r="I111" t="s">
+        <v>7</v>
+      </c>
+      <c r="J111" t="s">
+        <v>391</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" ref="K111:K115" si="373">D111*C111</f>
+        <v>240.00180599999996</v>
+      </c>
+      <c r="L111" s="2">
+        <f t="shared" ref="L111:L115" si="374">K111-B111</f>
+        <v>1.8059999999593401E-3</v>
+      </c>
+      <c r="M111" s="1">
+        <f t="shared" ref="M111:M115" si="375">K111/150</f>
+        <v>1.6000120399999997</v>
+      </c>
+      <c r="N111" s="6">
+        <f t="shared" ref="N111:N115" si="376">N110+C111-P111</f>
+        <v>11638.500000000007</v>
+      </c>
+      <c r="O111" s="2">
+        <f t="shared" ref="O111:O115" si="377">N111*D111</f>
+        <v>9755.3907000000054</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="6">
+        <f t="shared" ref="R111:R115" si="378">Q111+R110</f>
+        <v>7247.82</v>
+      </c>
+      <c r="S111" s="6">
+        <f t="shared" ref="S111:S115" si="379">O111+R111</f>
+        <v>17003.210700000003</v>
+      </c>
+      <c r="T111">
+        <f t="shared" ref="T111:T115" si="380">T110+B111</f>
+        <v>16370</v>
+      </c>
+      <c r="U111" s="6">
+        <f t="shared" ref="U111:U115" si="381">S111-T111</f>
+        <v>633.21070000000327</v>
+      </c>
+      <c r="V111" s="4">
+        <f t="shared" ref="V111:V115" si="382">S111/T111-1</f>
+        <v>3.8681166768479214E-2</v>
+      </c>
+      <c r="W111" s="4">
+        <f t="shared" ref="W111:W115" si="383">O111/(T111-R111)-1</f>
+        <v>6.9414405328551476E-2</v>
+      </c>
+      <c r="X111" s="1">
+        <f t="shared" ref="X111:X115" si="384">R111/S111</f>
+        <v>0.42626184712279064</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
+      <c r="A112" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="B112">
+        <v>240</v>
+      </c>
+      <c r="C112" s="2">
+        <v>286.64</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="E112" s="1">
+        <f t="shared" si="370"/>
+        <v>0.29000244799999997</v>
+      </c>
+      <c r="F112" s="36">
+        <f t="shared" si="371"/>
+        <v>4.5161099999999975E-2</v>
+      </c>
+      <c r="G112" s="9"/>
+      <c r="H112" s="40">
+        <f t="shared" si="372"/>
+        <v>10.838663999999994</v>
+      </c>
+      <c r="I112" t="s">
+        <v>7</v>
+      </c>
+      <c r="J112" t="s">
+        <v>393</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" si="373"/>
+        <v>240.00367199999999</v>
+      </c>
+      <c r="L112" s="2">
+        <f t="shared" si="374"/>
+        <v>3.6719999999945685E-3</v>
+      </c>
+      <c r="M112" s="1">
+        <f t="shared" si="375"/>
+        <v>1.6000244799999999</v>
+      </c>
+      <c r="N112" s="6">
+        <f t="shared" si="376"/>
+        <v>11925.140000000007</v>
+      </c>
+      <c r="O112" s="2">
+        <f t="shared" si="377"/>
+        <v>9984.919722000006</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="6">
+        <f t="shared" si="378"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S112" s="6">
+        <f t="shared" si="379"/>
+        <v>17232.739722000006</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="380"/>
+        <v>16610</v>
+      </c>
+      <c r="U112" s="6">
+        <f t="shared" si="381"/>
+        <v>622.73972200000571</v>
+      </c>
+      <c r="V112" s="4">
+        <f t="shared" si="382"/>
+        <v>3.7491855629139481E-2</v>
+      </c>
+      <c r="W112" s="4">
+        <f t="shared" si="383"/>
+        <v>6.6516529483518383E-2</v>
+      </c>
+      <c r="X112" s="1">
+        <f t="shared" si="384"/>
+        <v>0.42058431316914413</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
+      <c r="A113" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="B113">
+        <v>240</v>
+      </c>
+      <c r="C113" s="2">
+        <v>283.12</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="E113" s="1">
+        <f t="shared" si="370"/>
+        <v>0.2900005493333333</v>
+      </c>
+      <c r="F113" s="36">
+        <f t="shared" si="371"/>
+        <v>3.2326299999999954E-2</v>
+      </c>
+      <c r="G113" s="9"/>
+      <c r="H113" s="40">
+        <f t="shared" si="372"/>
+        <v>7.7583119999999894</v>
+      </c>
+      <c r="I113" t="s">
+        <v>7</v>
+      </c>
+      <c r="J113" t="s">
+        <v>395</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" si="373"/>
+        <v>240.00082399999999</v>
+      </c>
+      <c r="L113" s="2">
+        <f t="shared" si="374"/>
+        <v>8.2399999999438478E-4</v>
+      </c>
+      <c r="M113" s="1">
+        <f t="shared" si="375"/>
+        <v>1.6000054933333332</v>
+      </c>
+      <c r="N113" s="6">
+        <f t="shared" si="376"/>
+        <v>12208.260000000007</v>
+      </c>
+      <c r="O113" s="2">
+        <f t="shared" si="377"/>
+        <v>10348.942002000007</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="6">
+        <f t="shared" si="378"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S113" s="6">
+        <f t="shared" si="379"/>
+        <v>17596.762002000007</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="380"/>
+        <v>16850</v>
+      </c>
+      <c r="U113" s="6">
+        <f t="shared" si="381"/>
+        <v>746.76200200000676</v>
+      </c>
+      <c r="V113" s="4">
+        <f t="shared" si="382"/>
+        <v>4.431821970326455E-2</v>
+      </c>
+      <c r="W113" s="4">
+        <f t="shared" si="383"/>
+        <v>7.7770048259875102E-2</v>
+      </c>
+      <c r="X113" s="1">
+        <f t="shared" si="384"/>
+        <v>0.41188373174429643</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
+      <c r="A114" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B114">
+        <v>135</v>
+      </c>
+      <c r="C114" s="2">
+        <v>156.27000000000001</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.8639</v>
+      </c>
+      <c r="E114" s="1">
+        <f t="shared" si="370"/>
+        <v>0.220001102</v>
+      </c>
+      <c r="F114" s="36">
+        <f t="shared" si="371"/>
+        <v>1.2976866666666722E-2</v>
+      </c>
+      <c r="G114" s="9"/>
+      <c r="H114" s="40">
+        <f t="shared" si="372"/>
+        <v>1.7518770000000075</v>
+      </c>
+      <c r="I114" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114" t="s">
+        <v>397</v>
+      </c>
+      <c r="K114" s="2">
+        <f t="shared" si="373"/>
+        <v>135.001653</v>
+      </c>
+      <c r="L114" s="2">
+        <f t="shared" si="374"/>
+        <v>1.6530000000045675E-3</v>
+      </c>
+      <c r="M114" s="1">
+        <f t="shared" si="375"/>
+        <v>0.90001101999999999</v>
+      </c>
+      <c r="N114" s="6">
+        <f t="shared" si="376"/>
+        <v>12364.530000000008</v>
+      </c>
+      <c r="O114" s="2">
+        <f t="shared" si="377"/>
+        <v>10681.717467000008</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="6">
+        <f t="shared" si="378"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S114" s="6">
+        <f t="shared" si="379"/>
+        <v>17929.537467000009</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="380"/>
+        <v>16985</v>
+      </c>
+      <c r="U114" s="6">
+        <f t="shared" si="381"/>
+        <v>944.5374670000092</v>
+      </c>
+      <c r="V114" s="4">
+        <f t="shared" si="382"/>
+        <v>5.5610095201648946E-2</v>
+      </c>
+      <c r="W114" s="4">
+        <f t="shared" si="383"/>
+        <v>9.7003184392196351E-2</v>
+      </c>
+      <c r="X114" s="1">
+        <f t="shared" si="384"/>
+        <v>0.40423909503186495</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
+      <c r="A115" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="B115">
+        <v>135</v>
+      </c>
+      <c r="C115" s="2">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="E115" s="1">
+        <f t="shared" si="370"/>
+        <v>0.21999804666666667</v>
+      </c>
+      <c r="F115" s="36">
+        <f t="shared" si="371"/>
+        <v>2.0688888888887252E-4</v>
+      </c>
+      <c r="G115" s="9"/>
+      <c r="H115" s="40">
+        <f t="shared" si="372"/>
+        <v>2.792999999999779E-2</v>
+      </c>
+      <c r="I115" t="s">
+        <v>7</v>
+      </c>
+      <c r="J115" t="s">
+        <v>399</v>
+      </c>
+      <c r="K115" s="2">
+        <f t="shared" si="373"/>
+        <v>134.99707000000001</v>
+      </c>
+      <c r="L115" s="2">
+        <f t="shared" si="374"/>
+        <v>-2.9299999999921056E-3</v>
+      </c>
+      <c r="M115" s="1">
+        <f t="shared" si="375"/>
+        <v>0.89998046666666676</v>
+      </c>
+      <c r="N115" s="6">
+        <f t="shared" si="376"/>
+        <v>12518.830000000007</v>
+      </c>
+      <c r="O115" s="2">
+        <f t="shared" si="377"/>
+        <v>10952.724367000006</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="6">
+        <f t="shared" si="378"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S115" s="6">
+        <f t="shared" si="379"/>
+        <v>18200.544367000006</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="380"/>
+        <v>17120</v>
+      </c>
+      <c r="U115" s="6">
+        <f t="shared" si="381"/>
+        <v>1080.5443670000059</v>
+      </c>
+      <c r="V115" s="4">
+        <f t="shared" si="382"/>
+        <v>6.311590928738342E-2</v>
+      </c>
+      <c r="W115" s="4">
+        <f t="shared" si="383"/>
+        <v>0.10945347096588653</v>
+      </c>
+      <c r="X115" s="1">
+        <f t="shared" si="384"/>
+        <v>0.39821995726354514</v>
       </c>
     </row>
   </sheetData>
@@ -20732,7 +21605,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F110">
+  <conditionalFormatting sqref="F2:F115">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A35263-6BC4-7F48-B8C5-5C923EF90598}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CEDFA4-3E86-E64A-81D0-8B9F26714A46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="25600" windowHeight="14260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
     <sheet name="zz500" sheetId="2" r:id="rId2"/>
+    <sheet name="可转债申购参数" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hs300'!$A$1:$X$1</definedName>
@@ -478,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="444">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -1803,6 +1804,124 @@
   </si>
   <si>
     <t>DT_HS300_20190621</t>
+  </si>
+  <si>
+    <t>信用评级</t>
+  </si>
+  <si>
+    <t>溢价率</t>
+  </si>
+  <si>
+    <t>后期展望</t>
+  </si>
+  <si>
+    <t>行业发展</t>
+  </si>
+  <si>
+    <t>三方建议</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>-10 以下</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>大概率上升</t>
+  </si>
+  <si>
+    <t>建议申购</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t> -10 -0</t>
+  </si>
+  <si>
+    <t>小概率上升</t>
+  </si>
+  <si>
+    <t>谨慎申购</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>大概率平稳</t>
+  </si>
+  <si>
+    <t>不建议申购</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>小概率下跌</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>15以上</t>
+  </si>
+  <si>
+    <t>大概率下跌</t>
+  </si>
+  <si>
+    <t>5-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_HS300_20190624</t>
+  </si>
+  <si>
+    <t>20190624购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190625</t>
+  </si>
+  <si>
+    <t>20190625购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190626</t>
+  </si>
+  <si>
+    <t>20190626购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190627</t>
+  </si>
+  <si>
+    <t>20190627购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190628</t>
+  </si>
+  <si>
+    <t>20190628购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190624</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190625</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190626</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190627</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190628</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1935,7 @@
     <numFmt numFmtId="179" formatCode="\+0.00%;\-0.00%;0.00%"/>
     <numFmt numFmtId="180" formatCode="[Red]\+0.00;[Green]\-0.00;0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1915,6 +2034,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1939,7 +2066,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2008,6 +2135,11 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2341,13 +2473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y114"/>
+  <dimension ref="A1:Y119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2392,14 +2524,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="38">
-        <v>1.1605000000000001</v>
+        <v>1.1842999999999999</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="45" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19972),2)</f>
-        <v>盈利1335.2</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19970),2)</f>
+        <v>盈利1626.73</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -3978,11 +4110,11 @@
       </c>
       <c r="F20" s="44">
         <f>IF(G20="",($F$1*C20-B20)/B20,H20/B20)</f>
-        <v>0.20588844444444462</v>
+        <v>0.23061928888888883</v>
       </c>
       <c r="H20" s="41">
         <f t="shared" si="5"/>
-        <v>55.589880000000051</v>
+        <v>62.267207999999982</v>
       </c>
       <c r="I20" t="s">
         <v>7</v>
@@ -4060,11 +4192,11 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="4"/>
-        <v>0.20214905555555573</v>
+        <v>0.22680321111111096</v>
       </c>
       <c r="H21" s="41">
         <f t="shared" si="5"/>
-        <v>54.580245000000048</v>
+        <v>61.236866999999961</v>
       </c>
       <c r="I21" t="s">
         <v>7</v>
@@ -4142,11 +4274,11 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="4"/>
-        <v>0.21119792156862754</v>
+        <v>0.23603765490196071</v>
       </c>
       <c r="H22" s="41">
         <f t="shared" si="5"/>
-        <v>53.855470000000025</v>
+        <v>60.189601999999979</v>
       </c>
       <c r="I22" t="s">
         <v>7</v>
@@ -4224,11 +4356,11 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="4"/>
-        <v>0.19939824074074083</v>
+        <v>0.22399598148148137</v>
       </c>
       <c r="H23" s="41">
         <f t="shared" si="5"/>
-        <v>53.837525000000028</v>
+        <v>60.478914999999972</v>
       </c>
       <c r="I23" t="s">
         <v>7</v>
@@ -4306,11 +4438,11 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="4"/>
-        <v>0.18375550980392166</v>
+        <v>0.20803244313725489</v>
       </c>
       <c r="H24" s="41">
         <f t="shared" si="5"/>
-        <v>46.857655000000022</v>
+        <v>53.048272999999995</v>
       </c>
       <c r="I24" t="s">
         <v>7</v>
@@ -4388,11 +4520,11 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="4"/>
-        <v>0.16400425490196094</v>
+        <v>0.18787612156862746</v>
       </c>
       <c r="H25" s="41">
         <f t="shared" si="5"/>
-        <v>41.821085000000039</v>
+        <v>47.908411000000001</v>
       </c>
       <c r="I25" t="s">
         <v>7</v>
@@ -4555,11 +4687,11 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="4"/>
-        <v>0.13485847619047631</v>
+        <v>0.15813260952380945</v>
       </c>
       <c r="H27" s="41">
         <f t="shared" si="5"/>
-        <v>14.160140000000013</v>
+        <v>16.603923999999992</v>
       </c>
       <c r="I27" t="s">
         <v>7</v>
@@ -4807,11 +4939,11 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="4"/>
-        <v>0.12001144444444457</v>
+        <v>0.14298108888888883</v>
       </c>
       <c r="H30" s="41">
         <f t="shared" si="5"/>
-        <v>10.801030000000011</v>
+        <v>12.868297999999996</v>
       </c>
       <c r="I30" t="s">
         <v>7</v>
@@ -4889,11 +5021,11 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="4"/>
-        <v>0.12207455555555558</v>
+        <v>0.14508651111111104</v>
       </c>
       <c r="H31" s="41">
         <f t="shared" si="5"/>
-        <v>10.986710000000002</v>
+        <v>13.057785999999993</v>
       </c>
       <c r="I31" t="s">
         <v>7</v>
@@ -4971,11 +5103,11 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="4"/>
-        <v>0.11846411111111116</v>
+        <v>0.14140202222222201</v>
       </c>
       <c r="H32" s="41">
         <f t="shared" si="5"/>
-        <v>10.661770000000004</v>
+        <v>12.72618199999998</v>
       </c>
       <c r="I32" t="s">
         <v>7</v>
@@ -5053,11 +5185,11 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="4"/>
-        <v>0.12117194444444455</v>
+        <v>0.14416538888888888</v>
       </c>
       <c r="H33" s="41">
         <f t="shared" si="5"/>
-        <v>10.90547500000001</v>
+        <v>12.974885</v>
       </c>
       <c r="I33" t="s">
         <v>7</v>
@@ -5135,11 +5267,11 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="4"/>
-        <v>9.7961944444444601E-2</v>
+        <v>0.1204793888888888</v>
       </c>
       <c r="H34" s="41">
         <f t="shared" si="5"/>
-        <v>8.8165750000000145</v>
+        <v>10.843144999999993</v>
       </c>
       <c r="I34" t="s">
         <v>7</v>
@@ -5217,11 +5349,11 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="4"/>
-        <v>3.9378185185185224E-2</v>
+        <v>6.0694170370370178E-2</v>
       </c>
       <c r="H35" s="41">
         <f t="shared" si="5"/>
-        <v>5.3160550000000057</v>
+        <v>8.193712999999974</v>
       </c>
       <c r="I35" t="s">
         <v>7</v>
@@ -5303,11 +5435,11 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="4"/>
-        <v>5.124107407407421E-2</v>
+        <v>7.2800348148148133E-2</v>
       </c>
       <c r="H36" s="41">
         <f t="shared" ref="H36" si="34">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>6.9175450000000183</v>
+        <v>9.828046999999998</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
@@ -5385,11 +5517,11 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="4"/>
-        <v>5.3132259259259455E-2</v>
+        <v>7.4730318518518538E-2</v>
       </c>
       <c r="H37" s="41">
         <f t="shared" ref="H37:H39" si="45">IF(G37="",$F$1*C37-B37,G37-B37)</f>
-        <v>7.1728550000000268</v>
+        <v>10.088593000000003</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -5467,11 +5599,11 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="4"/>
-        <v>5.5711148148148162E-2</v>
+        <v>7.7362096296296298E-2</v>
       </c>
       <c r="H38" s="41">
         <f t="shared" si="45"/>
-        <v>7.5210050000000024</v>
+        <v>10.443883</v>
       </c>
       <c r="I38" t="s">
         <v>7</v>
@@ -5549,11 +5681,11 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="4"/>
-        <v>3.4220407407407602E-2</v>
+        <v>5.543061481481467E-2</v>
       </c>
       <c r="H39" s="41">
         <f t="shared" si="45"/>
-        <v>4.6197550000000263</v>
+        <v>7.4831329999999809</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
@@ -5631,11 +5763,11 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="4"/>
-        <v>2.2873296296296319E-2</v>
+        <v>4.385079259259244E-2</v>
       </c>
       <c r="H40" s="41">
         <f t="shared" ref="H40" si="50">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>3.0878950000000032</v>
+        <v>5.9198569999999791</v>
       </c>
       <c r="I40" t="s">
         <v>7</v>
@@ -5717,11 +5849,11 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="4"/>
-        <v>1.7199740740740783E-2</v>
+        <v>3.8060881481481422E-2</v>
       </c>
       <c r="H41" s="41">
         <f t="shared" ref="H41" si="62">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>2.3219650000000058</v>
+        <v>5.1382189999999923</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -5803,11 +5935,11 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="4"/>
-        <v>8.9472962962963299E-3</v>
+        <v>2.9639192592592449E-2</v>
       </c>
       <c r="H42" s="41">
         <f t="shared" ref="H42" si="74">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>1.2078850000000045</v>
+        <v>4.0012909999999806</v>
       </c>
       <c r="I42" t="s">
         <v>7</v>
@@ -5889,11 +6021,11 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="4"/>
-        <v>1.8747074074074093E-2</v>
+        <v>3.9639948148148162E-2</v>
       </c>
       <c r="H43" s="41">
         <f t="shared" ref="H43" si="87">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>2.5308550000000025</v>
+        <v>5.3513930000000016</v>
       </c>
       <c r="I43" t="s">
         <v>7</v>
@@ -5971,11 +6103,11 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="4"/>
-        <v>5.8977740740740754E-2</v>
+        <v>8.0695681481481388E-2</v>
       </c>
       <c r="H44" s="41">
         <f t="shared" ref="H44" si="100">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>7.9619950000000017</v>
+        <v>10.893916999999988</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
@@ -6053,11 +6185,11 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="4"/>
-        <v>3.9120296296296271E-2</v>
+        <v>6.0430992592592422E-2</v>
       </c>
       <c r="H45" s="41">
         <f t="shared" ref="H45:H49" si="113">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>5.2812399999999968</v>
+        <v>8.1581839999999772</v>
       </c>
       <c r="I45" t="s">
         <v>7</v>
@@ -6135,11 +6267,11 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="4"/>
-        <v>3.2501148148148321E-2</v>
+        <v>5.3676096296296313E-2</v>
       </c>
       <c r="H46" s="41">
         <f t="shared" si="113"/>
-        <v>4.3876550000000236</v>
+        <v>7.2462730000000022</v>
       </c>
       <c r="I46" t="s">
         <v>7</v>
@@ -6217,11 +6349,11 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="4"/>
-        <v>4.0753592592592564E-2</v>
+        <v>6.2097785185185078E-2</v>
       </c>
       <c r="H47" s="41">
         <f t="shared" si="113"/>
-        <v>5.5017349999999965</v>
+        <v>8.3832009999999855</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
@@ -6299,11 +6431,11 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="4"/>
-        <v>4.7630629629629682E-2</v>
+        <v>6.9115859259259158E-2</v>
       </c>
       <c r="H48" s="41">
         <f t="shared" si="113"/>
-        <v>6.430135000000007</v>
+        <v>9.3306409999999858</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
@@ -6381,11 +6513,11 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="4"/>
-        <v>3.5166000000000017E-2</v>
+        <v>5.6395599999999983E-2</v>
       </c>
       <c r="H49" s="41">
         <f t="shared" si="113"/>
-        <v>4.7474100000000021</v>
+        <v>7.6134059999999977</v>
       </c>
       <c r="I49" t="s">
         <v>7</v>
@@ -6463,11 +6595,11 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="4"/>
-        <v>7.8297777777777359E-3</v>
+        <v>2.8498755555555515E-2</v>
       </c>
       <c r="H50" s="41">
         <f t="shared" ref="H50:H54" si="126">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>1.0570199999999943</v>
+        <v>3.8473319999999944</v>
       </c>
       <c r="I50" t="s">
         <v>7</v>
@@ -6545,11 +6677,11 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="4"/>
-        <v>1.2471777777777873E-2</v>
+        <v>3.3235955555555509E-2</v>
       </c>
       <c r="H51" s="41">
         <f t="shared" si="126"/>
-        <v>1.6836900000000128</v>
+        <v>4.4868539999999939</v>
       </c>
       <c r="I51" t="s">
         <v>7</v>
@@ -6627,11 +6759,11 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="4"/>
-        <v>1.2127925925925933E-2</v>
+        <v>3.2885051851851629E-2</v>
       </c>
       <c r="H52" s="41">
         <f t="shared" si="126"/>
-        <v>1.6372700000000009</v>
+        <v>4.4394819999999697</v>
       </c>
       <c r="I52" t="s">
         <v>7</v>
@@ -6709,11 +6841,11 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="4"/>
-        <v>1.1784074074074204E-2</v>
+        <v>3.2534148148148166E-2</v>
       </c>
       <c r="H53" s="41">
         <f t="shared" si="126"/>
-        <v>1.5908500000000174</v>
+        <v>4.3921100000000024</v>
       </c>
       <c r="I53" t="s">
         <v>7</v>
@@ -6791,11 +6923,11 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="4"/>
-        <v>1.2471777777777873E-2</v>
+        <v>3.3235955555555509E-2</v>
       </c>
       <c r="H54" s="41">
         <f t="shared" si="126"/>
-        <v>1.6836900000000128</v>
+        <v>4.4868539999999939</v>
       </c>
       <c r="I54" t="s">
         <v>7</v>
@@ -6874,11 +7006,11 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="4"/>
-        <v>3.5767740740740697E-2</v>
+        <v>5.700968148148141E-2</v>
       </c>
       <c r="H55" s="41">
         <f t="shared" ref="H55:H59" si="139">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>4.8286449999999945</v>
+        <v>7.6963069999999902</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
@@ -6956,11 +7088,11 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="4"/>
-        <v>4.7028888888888995E-2</v>
+        <v>6.8501777777777731E-2</v>
       </c>
       <c r="H56" s="41">
         <f t="shared" si="139"/>
-        <v>6.3489000000000146</v>
+        <v>9.2477399999999932</v>
       </c>
       <c r="I56" t="s">
         <v>7</v>
@@ -7038,11 +7170,11 @@
       </c>
       <c r="F57" s="37">
         <f t="shared" si="4"/>
-        <v>3.5939666666666883E-2</v>
+        <v>5.7185133333333242E-2</v>
       </c>
       <c r="H57" s="41">
         <f t="shared" si="139"/>
-        <v>4.8518550000000289</v>
+        <v>7.7199929999999881</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
@@ -7120,11 +7252,11 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="4"/>
-        <v>3.9636074074074185E-2</v>
+        <v>6.0957348148148141E-2</v>
       </c>
       <c r="H58" s="41">
         <f t="shared" si="139"/>
-        <v>5.3508700000000147</v>
+        <v>8.2292419999999993</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -7202,11 +7334,11 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="4"/>
-        <v>3.0158518518520498E-3</v>
+        <v>2.3586103703703683E-2</v>
       </c>
       <c r="H59" s="41">
         <f t="shared" si="139"/>
-        <v>0.4071400000000267</v>
+        <v>3.1841239999999971</v>
       </c>
       <c r="I59" t="s">
         <v>7</v>
@@ -7288,11 +7420,11 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="4"/>
-        <v>-2.1741481481481521E-2</v>
+        <v>-1.6789629629630344E-3</v>
       </c>
       <c r="H60" s="41">
         <f t="shared" ref="H60" si="152">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>-2.9351000000000056</v>
+        <v>-0.22666000000000963</v>
       </c>
       <c r="I60" t="s">
         <v>7</v>
@@ -7374,11 +7506,11 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" ref="F61:F63" si="165">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>-2.1225703703703611E-2</v>
+        <v>-1.1526074074075261E-3</v>
       </c>
       <c r="H61" s="41">
         <f t="shared" ref="H61:H63" si="166">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>-2.8654699999999877</v>
+        <v>-0.15560200000001601</v>
       </c>
       <c r="I61" t="s">
         <v>7</v>
@@ -7456,11 +7588,11 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="165"/>
-        <v>-3.3002629629629611E-2</v>
+        <v>-1.3171059259259352E-2</v>
       </c>
       <c r="H62" s="41">
         <f t="shared" si="166"/>
-        <v>-4.4553549999999973</v>
+        <v>-1.7780930000000126</v>
       </c>
       <c r="I62" t="s">
         <v>7</v>
@@ -7542,11 +7674,11 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="165"/>
-        <v>-4.2200666666666581E-2</v>
+        <v>-2.2557733333333375E-2</v>
       </c>
       <c r="H63" s="41">
         <f t="shared" si="166"/>
-        <v>-5.0640799999999899</v>
+        <v>-2.7069280000000049</v>
       </c>
       <c r="I63" t="s">
         <v>7</v>
@@ -7624,11 +7756,11 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" ref="F64:F68" si="179">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-4.1426999999999839E-2</v>
+        <v>-2.1768199999999994E-2</v>
       </c>
       <c r="H64" s="41">
         <f t="shared" ref="H64:H68" si="180">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-4.9712399999999803</v>
+        <v>-2.6121839999999992</v>
       </c>
       <c r="I64" t="s">
         <v>7</v>
@@ -7710,11 +7842,11 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="179"/>
-        <v>-4.5392041666666688E-2</v>
+        <v>-2.5814558333333439E-2</v>
       </c>
       <c r="H65" s="41">
         <f t="shared" si="180"/>
-        <v>-5.4470450000000028</v>
+        <v>-3.0977470000000125</v>
       </c>
       <c r="I65" t="s">
         <v>7</v>
@@ -7792,11 +7924,11 @@
       </c>
       <c r="F66" s="37">
         <f t="shared" si="179"/>
-        <v>-4.7713041666666574E-2</v>
+        <v>-2.8183158333333461E-2</v>
       </c>
       <c r="H66" s="41">
         <f t="shared" si="180"/>
-        <v>-5.7255649999999889</v>
+        <v>-3.3819790000000154</v>
       </c>
       <c r="I66" t="s">
         <v>7</v>
@@ -7874,11 +8006,11 @@
       </c>
       <c r="F67" s="37">
         <f t="shared" si="179"/>
-        <v>-2.7887833333333254E-2</v>
+        <v>-7.9513666666668325E-3</v>
       </c>
       <c r="H67" s="41">
         <f t="shared" si="180"/>
-        <v>-3.3465399999999903</v>
+        <v>-0.95416400000002</v>
       </c>
       <c r="I67" t="s">
         <v>7</v>
@@ -7956,11 +8088,11 @@
       </c>
       <c r="F68" s="37">
         <f t="shared" si="179"/>
-        <v>-2.5760249999999967E-2</v>
+        <v>-5.7801500000001244E-3</v>
       </c>
       <c r="H68" s="41">
         <f t="shared" si="180"/>
-        <v>-3.0912299999999959</v>
+        <v>-0.69361800000001494</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
@@ -8038,11 +8170,11 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" ref="F69:F73" si="194">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>-2.2762291666666577E-2</v>
+        <v>-2.7207083333334954E-3</v>
       </c>
       <c r="H69" s="41">
         <f t="shared" ref="H69:H73" si="195">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>-2.731474999999989</v>
+        <v>-0.32648500000001945</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
@@ -8120,11 +8252,11 @@
       </c>
       <c r="F70" s="37">
         <f t="shared" si="194"/>
-        <v>-4.7444407407407296E-2</v>
+        <v>-2.790901481481485E-2</v>
       </c>
       <c r="H70" s="41">
         <f t="shared" si="195"/>
-        <v>-6.4049949999999853</v>
+        <v>-3.7677170000000046</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
@@ -8202,11 +8334,11 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="194"/>
-        <v>-4.7809749999999936E-2</v>
+        <v>-2.8281850000000119E-2</v>
       </c>
       <c r="H71" s="41">
         <f t="shared" si="195"/>
-        <v>-5.7371699999999919</v>
+        <v>-3.3938220000000143</v>
       </c>
       <c r="I71" t="s">
         <v>7</v>
@@ -8284,11 +8416,11 @@
       </c>
       <c r="F72" s="37">
         <f t="shared" si="194"/>
-        <v>-4.4521666666666584E-2</v>
+        <v>-2.4926333333333398E-2</v>
       </c>
       <c r="H72" s="41">
         <f t="shared" si="195"/>
-        <v>-5.3425999999999902</v>
+        <v>-2.9911600000000078</v>
       </c>
       <c r="I72" t="s">
         <v>7</v>
@@ -8366,11 +8498,11 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="194"/>
-        <v>-5.5159583333333255E-2</v>
+        <v>-3.5782416666666705E-2</v>
       </c>
       <c r="H73" s="41">
         <f t="shared" si="195"/>
-        <v>-6.6191499999999905</v>
+        <v>-4.2938900000000046</v>
       </c>
       <c r="I73" t="s">
         <v>7</v>
@@ -8452,11 +8584,11 @@
       </c>
       <c r="F74" s="37">
         <f t="shared" ref="F74:F78" si="208">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
-        <v>-3.4077166666666631E-2</v>
+        <v>-1.4267633333333408E-2</v>
       </c>
       <c r="H74" s="41">
         <f t="shared" ref="H74:H78" si="209">IF(G74="",$F$1*C74-B74,G74-B74)</f>
-        <v>-4.0892599999999959</v>
+        <v>-1.7121160000000089</v>
       </c>
       <c r="I74" t="s">
         <v>7</v>
@@ -8534,11 +8666,11 @@
       </c>
       <c r="F75" s="37">
         <f t="shared" si="208"/>
-        <v>-3.2626541666666613E-2</v>
+        <v>-1.2787258333333421E-2</v>
       </c>
       <c r="H75" s="41">
         <f t="shared" si="209"/>
-        <v>-3.9151849999999939</v>
+        <v>-1.5344710000000106</v>
       </c>
       <c r="I75" t="s">
         <v>7</v>
@@ -8616,11 +8748,11 @@
       </c>
       <c r="F76" s="37">
         <f t="shared" si="208"/>
-        <v>-3.504424999999986E-2</v>
+        <v>-1.5254550000000104E-2</v>
       </c>
       <c r="H76" s="41">
         <f t="shared" si="209"/>
-        <v>-4.205309999999983</v>
+        <v>-1.8305460000000124</v>
       </c>
       <c r="I76" t="s">
         <v>7</v>
@@ -8698,11 +8830,11 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="208"/>
-        <v>-1.4638791666666625E-2</v>
+        <v>5.5693916666665899E-3</v>
       </c>
       <c r="H77" s="41">
         <f t="shared" si="209"/>
-        <v>-1.756654999999995</v>
+        <v>0.66832699999999079</v>
       </c>
       <c r="I77" t="s">
         <v>7</v>
@@ -8780,11 +8912,11 @@
       </c>
       <c r="F78" s="37">
         <f t="shared" si="208"/>
-        <v>-2.1419259259257868E-3</v>
+        <v>1.8322548148147967E-2</v>
       </c>
       <c r="H78" s="41">
         <f t="shared" si="209"/>
-        <v>-0.28915999999998121</v>
+        <v>2.4735439999999755</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -8862,11 +8994,11 @@
       </c>
       <c r="F79" s="37">
         <f t="shared" ref="F79:F80" si="222">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
-        <v>-4.8067777777776903E-3</v>
+        <v>1.5603044444444297E-2</v>
       </c>
       <c r="H79" s="41">
         <f t="shared" ref="H79:H80" si="223">IF(G79="",$F$1*C79-B79,G79-B79)</f>
-        <v>-0.64891499999998814</v>
+        <v>2.10641099999998</v>
       </c>
       <c r="I79" t="s">
         <v>7</v>
@@ -8944,11 +9076,11 @@
       </c>
       <c r="F80" s="37">
         <f t="shared" si="222"/>
-        <v>-7.9014444444443083E-3</v>
+        <v>1.2444911111111037E-2</v>
       </c>
       <c r="H80" s="41">
         <f t="shared" si="223"/>
-        <v>-1.0666949999999815</v>
+        <v>1.6800629999999899</v>
       </c>
       <c r="I80" t="s">
         <v>7</v>
@@ -9026,11 +9158,11 @@
       </c>
       <c r="F81" s="37">
         <f t="shared" ref="F81" si="236">IF(G81="",($F$1*C81-B81)/B81,H81/B81)</f>
-        <v>4.9865666666666662E-2</v>
+        <v>7.139673333333324E-2</v>
       </c>
       <c r="H81" s="41">
         <f t="shared" ref="H81" si="237">IF(G81="",$F$1*C81-B81,G81-B81)</f>
-        <v>6.7318649999999991</v>
+        <v>9.6385589999999866</v>
       </c>
       <c r="I81" t="s">
         <v>7</v>
@@ -9108,11 +9240,11 @@
       </c>
       <c r="F82" s="37">
         <f t="shared" ref="F82:F85" si="250">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
-        <v>4.0237814814814865E-2</v>
+        <v>6.1571429629629568E-2</v>
       </c>
       <c r="H82" s="41">
         <f t="shared" ref="H82:H85" si="251">IF(G82="",$F$1*C82-B82,G82-B82)</f>
-        <v>5.4321050000000071</v>
+        <v>8.3121429999999918</v>
       </c>
       <c r="I82" t="s">
         <v>7</v>
@@ -9190,11 +9322,11 @@
       </c>
       <c r="F83" s="37">
         <f t="shared" si="250"/>
-        <v>5.4249777777777841E-2</v>
+        <v>7.5870755555555475E-2</v>
       </c>
       <c r="H83" s="41">
         <f t="shared" si="251"/>
-        <v>7.3237200000000087</v>
+        <v>10.242551999999989</v>
       </c>
       <c r="I83" t="s">
         <v>7</v>
@@ -9272,11 +9404,11 @@
       </c>
       <c r="F84" s="37">
         <f t="shared" si="250"/>
-        <v>7.2903740740740741E-2</v>
+        <v>9.4907281481481379E-2</v>
       </c>
       <c r="H84" s="41">
         <f t="shared" si="251"/>
-        <v>9.8420050000000003</v>
+        <v>12.812482999999986</v>
       </c>
       <c r="I84" t="s">
         <v>7</v>
@@ -9354,11 +9486,11 @@
       </c>
       <c r="F85" s="37">
         <f t="shared" si="250"/>
-        <v>3.7486999999999979E-2</v>
+        <v>5.8764199999999982E-2</v>
       </c>
       <c r="H85" s="41">
         <f t="shared" si="251"/>
-        <v>5.0607449999999972</v>
+        <v>7.9331669999999974</v>
       </c>
       <c r="I85" t="s">
         <v>7</v>
@@ -9436,11 +9568,11 @@
       </c>
       <c r="F86" s="37">
         <f t="shared" ref="F86:F90" si="264">IF(G86="",($F$1*C86-B86)/B86,H86/B86)</f>
-        <v>5.3905925925925899E-2</v>
+        <v>7.551985185185181E-2</v>
       </c>
       <c r="H86" s="41">
         <f t="shared" ref="H86:H90" si="265">IF(G86="",$F$1*C86-B86,G86-B86)</f>
-        <v>7.2772999999999968</v>
+        <v>10.195179999999993</v>
       </c>
       <c r="I86" t="s">
         <v>7</v>
@@ -9518,11 +9650,11 @@
       </c>
       <c r="F87" s="37">
         <f t="shared" si="264"/>
-        <v>6.018122222222233E-2</v>
+        <v>8.1923844444444241E-2</v>
       </c>
       <c r="H87" s="41">
         <f t="shared" si="265"/>
-        <v>8.1244650000000149</v>
+        <v>11.059718999999973</v>
       </c>
       <c r="I87" t="s">
         <v>7</v>
@@ -9600,11 +9732,11 @@
       </c>
       <c r="F88" s="37">
         <f t="shared" si="264"/>
-        <v>3.7916814814814903E-2</v>
+        <v>5.9202829629629569E-2</v>
       </c>
       <c r="H88" s="41">
         <f t="shared" si="265"/>
-        <v>5.118770000000012</v>
+        <v>7.9923819999999921</v>
       </c>
       <c r="I88" t="s">
         <v>7</v>
@@ -9682,11 +9814,11 @@
       </c>
       <c r="F89" s="37">
         <f t="shared" si="264"/>
-        <v>3.3704629629629689E-2</v>
+        <v>5.4904259259259167E-2</v>
       </c>
       <c r="H89" s="41">
         <f t="shared" si="265"/>
-        <v>4.5501250000000084</v>
+        <v>7.4120749999999873</v>
       </c>
       <c r="I89" t="s">
         <v>7</v>
@@ -9764,11 +9896,11 @@
       </c>
       <c r="F90" s="37">
         <f t="shared" si="264"/>
-        <v>5.9407555555555679E-2</v>
+        <v>8.1134311111110982E-2</v>
       </c>
       <c r="H90" s="41">
         <f t="shared" si="265"/>
-        <v>8.0200200000000166</v>
+        <v>10.953131999999982</v>
       </c>
       <c r="I90" t="s">
         <v>7</v>
@@ -9846,11 +9978,11 @@
       </c>
       <c r="F91" s="37">
         <f t="shared" ref="F91:F96" si="278">IF(G91="",($F$1*C91-B91)/B91,H91/B91)</f>
-        <v>6.7831925925925893E-2</v>
+        <v>8.9731451851851787E-2</v>
       </c>
       <c r="H91" s="41">
         <f t="shared" ref="H91:H96" si="279">IF(G91="",$F$1*C91-B91,G91-B91)</f>
-        <v>9.1573099999999954</v>
+        <v>12.113745999999992</v>
       </c>
       <c r="I91" t="s">
         <v>7</v>
@@ -9928,11 +10060,11 @@
       </c>
       <c r="F92" s="37">
         <f t="shared" si="278"/>
-        <v>5.433574074074083E-2</v>
+        <v>7.5958481481481391E-2</v>
       </c>
       <c r="H92" s="41">
         <f t="shared" si="279"/>
-        <v>7.3353250000000116</v>
+        <v>10.254394999999988</v>
       </c>
       <c r="I92" t="s">
         <v>7</v>
@@ -10010,11 +10142,11 @@
       </c>
       <c r="F93" s="37">
         <f t="shared" si="278"/>
-        <v>5.8977740740740754E-2</v>
+        <v>8.0695681481481388E-2</v>
       </c>
       <c r="H93" s="41">
         <f t="shared" si="279"/>
-        <v>7.9619950000000017</v>
+        <v>10.893916999999988</v>
       </c>
       <c r="I93" t="s">
         <v>7</v>
@@ -10092,11 +10224,11 @@
       </c>
       <c r="F94" s="37">
         <f t="shared" si="278"/>
-        <v>7.5826481481481606E-2</v>
+        <v>9.7889962962963012E-2</v>
       </c>
       <c r="H94" s="41">
         <f t="shared" si="279"/>
-        <v>10.236575000000016</v>
+        <v>13.215145000000007</v>
       </c>
       <c r="I94" t="s">
         <v>7</v>
@@ -10174,11 +10306,11 @@
       </c>
       <c r="F95" s="37">
         <f t="shared" si="278"/>
-        <v>7.2817777777777759E-2</v>
+        <v>9.4819555555555463E-2</v>
       </c>
       <c r="H95" s="41">
         <f t="shared" si="279"/>
-        <v>9.8303999999999974</v>
+        <v>12.800639999999987</v>
       </c>
       <c r="I95" t="s">
         <v>7</v>
@@ -10256,11 +10388,11 @@
       </c>
       <c r="F96" s="37">
         <f t="shared" si="278"/>
-        <v>6.0267185185185319E-2</v>
+        <v>8.2011570370370365E-2</v>
       </c>
       <c r="H96" s="41">
         <f t="shared" si="279"/>
-        <v>8.1360700000000179</v>
+        <v>11.071562</v>
       </c>
       <c r="I96" t="s">
         <v>7</v>
@@ -10338,11 +10470,11 @@
       </c>
       <c r="F97" s="37">
         <f t="shared" ref="F97:F100" si="292">IF(G97="",($F$1*C97-B97)/B97,H97/B97)</f>
-        <v>5.0381444444444569E-2</v>
+        <v>7.1923088888888737E-2</v>
       </c>
       <c r="H97" s="41">
         <f t="shared" ref="H97:H100" si="293">IF(G97="",$F$1*C97-B97,G97-B97)</f>
-        <v>6.8014950000000169</v>
+        <v>9.7096169999999802</v>
       </c>
       <c r="I97" t="s">
         <v>7</v>
@@ -10420,11 +10552,11 @@
       </c>
       <c r="F98" s="37">
         <f t="shared" si="292"/>
-        <v>5.2444555555555786E-2</v>
+        <v>7.4028511111110987E-2</v>
       </c>
       <c r="H98" s="41">
         <f t="shared" si="293"/>
-        <v>7.0800150000000315</v>
+        <v>9.9938489999999831</v>
       </c>
       <c r="I98" t="s">
         <v>7</v>
@@ -10502,11 +10634,11 @@
       </c>
       <c r="F99" s="37">
         <f t="shared" si="292"/>
-        <v>5.8032148148148131E-2</v>
+        <v>7.9730696296296297E-2</v>
       </c>
       <c r="H99" s="41">
         <f t="shared" si="293"/>
-        <v>7.8343399999999974</v>
+        <v>10.763643999999999</v>
       </c>
       <c r="I99" t="s">
         <v>7</v>
@@ -10584,11 +10716,11 @@
       </c>
       <c r="F100" s="37">
         <f t="shared" si="292"/>
-        <v>6.0525074074074273E-2</v>
+        <v>8.2274748148148127E-2</v>
       </c>
       <c r="H100" s="41">
         <f t="shared" si="293"/>
-        <v>8.1708850000000268</v>
+        <v>11.107090999999997</v>
       </c>
       <c r="I100" t="s">
         <v>7</v>
@@ -10666,11 +10798,11 @@
       </c>
       <c r="F101" s="37">
         <f t="shared" ref="F101" si="306">IF(G101="",($F$1*C101-B101)/B101,H101/B101)</f>
-        <v>5.9493518518518661E-2</v>
+        <v>8.1222037037036898E-2</v>
       </c>
       <c r="H101" s="41">
         <f t="shared" ref="H101" si="307">IF(G101="",$F$1*C101-B101,G101-B101)</f>
-        <v>8.0316250000000196</v>
+        <v>10.964974999999981</v>
       </c>
       <c r="I101" t="s">
         <v>7</v>
@@ -10748,11 +10880,11 @@
       </c>
       <c r="F102" s="37">
         <f t="shared" ref="F102:F104" si="320">IF(G102="",($F$1*C102-B102)/B102,H102/B102)</f>
-        <v>6.8691555555555533E-2</v>
+        <v>9.0608711111110976E-2</v>
       </c>
       <c r="H102" s="41">
         <f t="shared" ref="H102:H104" si="321">IF(G102="",$F$1*C102-B102,G102-B102)</f>
-        <v>9.2733599999999967</v>
+        <v>12.232175999999981</v>
       </c>
       <c r="I102" t="s">
         <v>7</v>
@@ -10830,11 +10962,11 @@
       </c>
       <c r="F103" s="37">
         <f t="shared" si="320"/>
-        <v>6.8777518518518516E-2</v>
+        <v>9.0696437037036892E-2</v>
       </c>
       <c r="H103" s="41">
         <f t="shared" si="321"/>
-        <v>9.2849649999999997</v>
+        <v>12.24401899999998</v>
       </c>
       <c r="I103" t="s">
         <v>7</v>
@@ -10912,11 +11044,11 @@
       </c>
       <c r="F104" s="37">
         <f t="shared" si="320"/>
-        <v>7.7717666666666851E-2</v>
+        <v>9.9819933333333208E-2</v>
       </c>
       <c r="H104" s="41">
         <f t="shared" si="321"/>
-        <v>10.491885000000025</v>
+        <v>13.475690999999983</v>
       </c>
       <c r="I104" t="s">
         <v>7</v>
@@ -10994,11 +11126,11 @@
       </c>
       <c r="F105" s="37">
         <f t="shared" ref="F105:F109" si="335">IF(G105="",($F$1*C105-B105)/B105,H105/B105)</f>
-        <v>6.490918518518525E-2</v>
+        <v>8.6748770370370154E-2</v>
       </c>
       <c r="H105" s="41">
         <f t="shared" ref="H105:H109" si="336">IF(G105="",$F$1*C105-B105,G105-B105)</f>
-        <v>8.762740000000008</v>
+        <v>11.711083999999971</v>
       </c>
       <c r="I105" t="s">
         <v>7</v>
@@ -11076,11 +11208,11 @@
       </c>
       <c r="F106" s="37">
         <f t="shared" si="335"/>
-        <v>3.4478296296296347E-2</v>
+        <v>5.5693792592592641E-2</v>
       </c>
       <c r="H106" s="41">
         <f t="shared" si="336"/>
-        <v>4.6545700000000068</v>
+        <v>7.5186620000000062</v>
       </c>
       <c r="I106" t="s">
         <v>7</v>
@@ -11158,11 +11290,11 @@
       </c>
       <c r="F107" s="37">
         <f t="shared" si="335"/>
-        <v>4.1785148148148175E-2</v>
+        <v>6.3150496296296099E-2</v>
       </c>
       <c r="H107" s="41">
         <f t="shared" si="336"/>
-        <v>5.6409950000000038</v>
+        <v>8.5253169999999727</v>
       </c>
       <c r="I107" t="s">
         <v>7</v>
@@ -11240,11 +11372,11 @@
       </c>
       <c r="F108" s="37">
         <f t="shared" si="335"/>
-        <v>4.3246518518518497E-2</v>
+        <v>6.4641837037036909E-2</v>
       </c>
       <c r="H108" s="41">
         <f t="shared" si="336"/>
-        <v>5.8382799999999975</v>
+        <v>8.7266479999999831</v>
       </c>
       <c r="I108" t="s">
         <v>7</v>
@@ -11322,11 +11454,11 @@
       </c>
       <c r="F109" s="37">
         <f t="shared" si="335"/>
-        <v>5.0725296296296511E-2</v>
+        <v>7.2273992592592623E-2</v>
       </c>
       <c r="H109" s="41">
         <f t="shared" si="336"/>
-        <v>6.8479150000000288</v>
+        <v>9.7569890000000044</v>
       </c>
       <c r="I109" t="s">
         <v>7</v>
@@ -11404,11 +11536,11 @@
       </c>
       <c r="F110" s="37">
         <f t="shared" ref="F110:F114" si="350">IF(G110="",($F$1*C110-B110)/B110,H110/B110)</f>
-        <v>5.0897222222222267E-2</v>
+        <v>7.2449444444444455E-2</v>
       </c>
       <c r="H110" s="41">
         <f t="shared" ref="H110:H114" si="351">IF(G110="",$F$1*C110-B110,G110-B110)</f>
-        <v>6.8711250000000064</v>
+        <v>9.7806750000000022</v>
       </c>
       <c r="I110" t="s">
         <v>7</v>
@@ -11486,11 +11618,11 @@
       </c>
       <c r="F111" s="37">
         <f t="shared" si="350"/>
-        <v>4.7544666666666693E-2</v>
+        <v>6.9028133333333241E-2</v>
       </c>
       <c r="H111" s="41">
         <f t="shared" si="351"/>
-        <v>6.4185300000000041</v>
+        <v>9.3187979999999868</v>
       </c>
       <c r="I111" t="s">
         <v>7</v>
@@ -11568,11 +11700,11 @@
       </c>
       <c r="F112" s="37">
         <f t="shared" si="350"/>
-        <v>3.2845000000000055E-2</v>
+        <v>5.4026999999999985E-2</v>
       </c>
       <c r="H112" s="41">
         <f t="shared" si="351"/>
-        <v>4.4340750000000071</v>
+        <v>7.2936449999999979</v>
       </c>
       <c r="I112" t="s">
         <v>7</v>
@@ -11650,11 +11782,11 @@
       </c>
       <c r="F113" s="37">
         <f t="shared" si="350"/>
-        <v>3.9614444444446744E-3</v>
+        <v>2.4551088888888781E-2</v>
       </c>
       <c r="H113" s="41">
         <f t="shared" si="351"/>
-        <v>0.534795000000031</v>
+        <v>3.3143969999999854</v>
       </c>
       <c r="I113" t="s">
         <v>7</v>
@@ -11732,11 +11864,11 @@
       </c>
       <c r="F114" s="37">
         <f t="shared" si="350"/>
-        <v>2.5860370370371249E-3</v>
+        <v>2.314747407407388E-2</v>
       </c>
       <c r="H114" s="41">
         <f t="shared" si="351"/>
-        <v>0.34911500000001183</v>
+        <v>3.124908999999974</v>
       </c>
       <c r="I114" t="s">
         <v>7</v>
@@ -11793,6 +11925,416 @@
       <c r="X114" s="1">
         <f t="shared" si="363"/>
         <v>0.21692022365151858</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
+      <c r="A115" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B115">
+        <v>135</v>
+      </c>
+      <c r="C115" s="33">
+        <v>116.41</v>
+      </c>
+      <c r="D115" s="34">
+        <v>1.1586000000000001</v>
+      </c>
+      <c r="E115" s="19">
+        <f t="shared" ref="E115:E119" si="364">10%*M115+13%</f>
+        <v>0.21991508400000001</v>
+      </c>
+      <c r="F115" s="37">
+        <f t="shared" ref="F115:F119" si="365">IF(G115="",($F$1*C115-B115)/B115,H115/B115)</f>
+        <v>2.1217503703703684E-2</v>
+      </c>
+      <c r="H115" s="41">
+        <f t="shared" ref="H115:H119" si="366">IF(G115="",$F$1*C115-B115,G115-B115)</f>
+        <v>2.8643629999999973</v>
+      </c>
+      <c r="I115" t="s">
+        <v>7</v>
+      </c>
+      <c r="J115" t="s">
+        <v>430</v>
+      </c>
+      <c r="K115" s="2">
+        <f t="shared" ref="K115:K119" si="367">D115*C115</f>
+        <v>134.872626</v>
+      </c>
+      <c r="L115" s="2">
+        <f t="shared" ref="L115:L119" si="368">B115-K115</f>
+        <v>0.12737400000000321</v>
+      </c>
+      <c r="M115" s="1">
+        <f t="shared" ref="M115:M119" si="369">K115/150</f>
+        <v>0.89915084000000001</v>
+      </c>
+      <c r="N115" s="6">
+        <f t="shared" ref="N115:N119" si="370">N114+C115-P115</f>
+        <v>11623.580000000002</v>
+      </c>
+      <c r="O115" s="2">
+        <f t="shared" ref="O115:O119" si="371">N115*D115</f>
+        <v>13467.079788000003</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="6">
+        <f t="shared" ref="R115:R119" si="372">R114+Q115</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S115" s="6">
+        <f t="shared" ref="S115:S119" si="373">R115+O115</f>
+        <v>17153.209788000004</v>
+      </c>
+      <c r="T115">
+        <f t="shared" ref="T115:T119" si="374">T114+B115</f>
+        <v>15840</v>
+      </c>
+      <c r="U115" s="6">
+        <f t="shared" ref="U115:U119" si="375">S115-T115</f>
+        <v>1313.2097880000038</v>
+      </c>
+      <c r="V115" s="4">
+        <f t="shared" ref="V115:V119" si="376">S115/T115-1</f>
+        <v>8.2904658333333492E-2</v>
+      </c>
+      <c r="W115" s="4">
+        <f t="shared" ref="W115:W119" si="377">O115/(T115-R115)-1</f>
+        <v>0.10804869461332078</v>
+      </c>
+      <c r="X115" s="1">
+        <f t="shared" ref="X115:X119" si="378">R115/S115</f>
+        <v>0.21489447430292216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
+      <c r="A116" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B116">
+        <v>135</v>
+      </c>
+      <c r="C116" s="33">
+        <v>117.56</v>
+      </c>
+      <c r="D116" s="34">
+        <v>1.1472</v>
+      </c>
+      <c r="E116" s="19">
+        <f t="shared" si="364"/>
+        <v>0.219909888</v>
+      </c>
+      <c r="F116" s="37">
+        <f t="shared" si="365"/>
+        <v>3.1305985185185105E-2</v>
+      </c>
+      <c r="H116" s="41">
+        <f t="shared" si="366"/>
+        <v>4.2263079999999889</v>
+      </c>
+      <c r="I116" t="s">
+        <v>7</v>
+      </c>
+      <c r="J116" t="s">
+        <v>432</v>
+      </c>
+      <c r="K116" s="2">
+        <f t="shared" si="367"/>
+        <v>134.86483200000001</v>
+      </c>
+      <c r="L116" s="2">
+        <f t="shared" si="368"/>
+        <v>0.13516799999999307</v>
+      </c>
+      <c r="M116" s="1">
+        <f t="shared" si="369"/>
+        <v>0.89909888000000004</v>
+      </c>
+      <c r="N116" s="6">
+        <f t="shared" si="370"/>
+        <v>11741.140000000001</v>
+      </c>
+      <c r="O116" s="2">
+        <f t="shared" si="371"/>
+        <v>13469.435808000002</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="6">
+        <f t="shared" si="372"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S116" s="6">
+        <f t="shared" si="373"/>
+        <v>17155.565808000003</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="374"/>
+        <v>15975</v>
+      </c>
+      <c r="U116" s="6">
+        <f t="shared" si="375"/>
+        <v>1180.565808000003</v>
+      </c>
+      <c r="V116" s="4">
+        <f t="shared" si="376"/>
+        <v>7.39008330516433E-2</v>
+      </c>
+      <c r="W116" s="4">
+        <f t="shared" si="377"/>
+        <v>9.606788972460456E-2</v>
+      </c>
+      <c r="X116" s="1">
+        <f t="shared" si="378"/>
+        <v>0.21486496226671109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
+      <c r="A117" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B117">
+        <v>135</v>
+      </c>
+      <c r="C117" s="33">
+        <v>117.73</v>
+      </c>
+      <c r="D117" s="34">
+        <v>1.1456</v>
+      </c>
+      <c r="E117" s="19">
+        <f t="shared" si="364"/>
+        <v>0.21991432533333333</v>
+      </c>
+      <c r="F117" s="37">
+        <f t="shared" si="365"/>
+        <v>3.2797325925925921E-2</v>
+      </c>
+      <c r="H117" s="41">
+        <f t="shared" si="366"/>
+        <v>4.4276389999999992</v>
+      </c>
+      <c r="I117" t="s">
+        <v>7</v>
+      </c>
+      <c r="J117" t="s">
+        <v>434</v>
+      </c>
+      <c r="K117" s="2">
+        <f t="shared" si="367"/>
+        <v>134.871488</v>
+      </c>
+      <c r="L117" s="2">
+        <f t="shared" si="368"/>
+        <v>0.12851200000000063</v>
+      </c>
+      <c r="M117" s="1">
+        <f t="shared" si="369"/>
+        <v>0.89914325333333334</v>
+      </c>
+      <c r="N117" s="6">
+        <f t="shared" si="370"/>
+        <v>11858.87</v>
+      </c>
+      <c r="O117" s="2">
+        <f t="shared" si="371"/>
+        <v>13585.521472</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="6">
+        <f t="shared" si="372"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S117" s="6">
+        <f t="shared" si="373"/>
+        <v>17271.651472000001</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="374"/>
+        <v>16110</v>
+      </c>
+      <c r="U117" s="6">
+        <f t="shared" si="375"/>
+        <v>1161.6514720000014</v>
+      </c>
+      <c r="V117" s="4">
+        <f t="shared" si="376"/>
+        <v>7.2107478088144106E-2</v>
+      </c>
+      <c r="W117" s="4">
+        <f t="shared" si="377"/>
+        <v>9.3501579781501309E-2</v>
+      </c>
+      <c r="X117" s="1">
+        <f t="shared" si="378"/>
+        <v>0.21342081884733388</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
+      <c r="A118" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B118">
+        <v>135</v>
+      </c>
+      <c r="C118" s="33">
+        <v>116.5</v>
+      </c>
+      <c r="D118" s="34">
+        <v>1.1577</v>
+      </c>
+      <c r="E118" s="19">
+        <f t="shared" si="364"/>
+        <v>0.21991470000000002</v>
+      </c>
+      <c r="F118" s="37">
+        <f t="shared" si="365"/>
+        <v>2.2007037037036947E-2</v>
+      </c>
+      <c r="H118" s="41">
+        <f t="shared" si="366"/>
+        <v>2.9709499999999878</v>
+      </c>
+      <c r="I118" t="s">
+        <v>7</v>
+      </c>
+      <c r="J118" t="s">
+        <v>436</v>
+      </c>
+      <c r="K118" s="2">
+        <f t="shared" si="367"/>
+        <v>134.87205</v>
+      </c>
+      <c r="L118" s="2">
+        <f t="shared" si="368"/>
+        <v>0.12794999999999845</v>
+      </c>
+      <c r="M118" s="1">
+        <f t="shared" si="369"/>
+        <v>0.89914700000000003</v>
+      </c>
+      <c r="N118" s="6">
+        <f t="shared" si="370"/>
+        <v>11975.37</v>
+      </c>
+      <c r="O118" s="2">
+        <f t="shared" si="371"/>
+        <v>13863.885849</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="6">
+        <f t="shared" si="372"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S118" s="6">
+        <f t="shared" si="373"/>
+        <v>17550.015848999999</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="374"/>
+        <v>16245</v>
+      </c>
+      <c r="U118" s="6">
+        <f t="shared" si="375"/>
+        <v>1305.0158489999994</v>
+      </c>
+      <c r="V118" s="4">
+        <f t="shared" si="376"/>
+        <v>8.0333385595567908E-2</v>
+      </c>
+      <c r="W118" s="4">
+        <f t="shared" si="377"/>
+        <v>0.10391188450871769</v>
+      </c>
+      <c r="X118" s="1">
+        <f t="shared" si="378"/>
+        <v>0.21003570775749672</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
+      <c r="A119" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B119">
+        <v>135</v>
+      </c>
+      <c r="C119" s="33">
+        <v>116.67</v>
+      </c>
+      <c r="D119" s="34">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="E119" s="19">
+        <f t="shared" si="364"/>
+        <v>0.21991368</v>
+      </c>
+      <c r="F119" s="37">
+        <f t="shared" si="365"/>
+        <v>2.3498377777777763E-2</v>
+      </c>
+      <c r="H119" s="41">
+        <f t="shared" si="366"/>
+        <v>3.1722809999999981</v>
+      </c>
+      <c r="I119" t="s">
+        <v>7</v>
+      </c>
+      <c r="J119" t="s">
+        <v>438</v>
+      </c>
+      <c r="K119" s="2">
+        <f t="shared" si="367"/>
+        <v>134.87052</v>
+      </c>
+      <c r="L119" s="2">
+        <f t="shared" si="368"/>
+        <v>0.12948000000000093</v>
+      </c>
+      <c r="M119" s="1">
+        <f t="shared" si="369"/>
+        <v>0.89913679999999996</v>
+      </c>
+      <c r="N119" s="6">
+        <f t="shared" si="370"/>
+        <v>12092.04</v>
+      </c>
+      <c r="O119" s="2">
+        <f t="shared" si="371"/>
+        <v>13978.39824</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="6">
+        <f t="shared" si="372"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S119" s="6">
+        <f t="shared" si="373"/>
+        <v>17664.52824</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="374"/>
+        <v>16380</v>
+      </c>
+      <c r="U119" s="6">
+        <f t="shared" si="375"/>
+        <v>1284.5282399999996</v>
+      </c>
+      <c r="V119" s="4">
+        <f t="shared" si="376"/>
+        <v>7.8420527472527368E-2</v>
+      </c>
+      <c r="W119" s="4">
+        <f t="shared" si="377"/>
+        <v>0.10119279935906067</v>
+      </c>
+      <c r="X119" s="1">
+        <f t="shared" si="378"/>
+        <v>0.20867412647075592</v>
       </c>
     </row>
   </sheetData>
@@ -11858,7 +12400,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F114">
+  <conditionalFormatting sqref="F2:F119">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -11921,13 +12463,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y115"/>
+  <dimension ref="A1:Y120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomRight" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11970,14 +12512,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="38">
-        <v>0.87509999999999999</v>
+        <v>0.88519999999999999</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="46" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19975),2)</f>
-        <v>盈利1086.05</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19973),2)</f>
+        <v>盈利1224.9</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -14801,12 +15343,12 @@
       </c>
       <c r="F35" s="36">
         <f t="shared" si="1"/>
-        <v>-4.6911428571425924E-4</v>
+        <v>1.1067009523809528E-2</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="40">
         <f t="shared" si="2"/>
-        <v>-4.925699999999722E-2</v>
+        <v>1.1620360000000005</v>
       </c>
       <c r="I35" t="s">
         <v>7</v>
@@ -14884,12 +15426,12 @@
       </c>
       <c r="F36" s="36">
         <f t="shared" si="1"/>
-        <v>7.254666666666607E-4</v>
+        <v>1.2275377777777723E-2</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="40">
         <f t="shared" si="2"/>
-        <v>6.5291999999999462E-2</v>
+        <v>1.1047839999999951</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
@@ -14967,12 +15509,12 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="1"/>
-        <v>4.7120333333332889E-3</v>
+        <v>1.630795555555551E-2</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="40">
         <f t="shared" si="2"/>
-        <v>0.42408299999999599</v>
+        <v>1.4677159999999958</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -15050,12 +15592,12 @@
       </c>
       <c r="F38" s="36">
         <f t="shared" si="1"/>
-        <v>3.4480000000000487E-3</v>
+        <v>1.5029333333333422E-2</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="40">
         <f t="shared" si="2"/>
-        <v>0.31032000000000437</v>
+        <v>1.3526400000000081</v>
       </c>
       <c r="I38" t="s">
         <v>7</v>
@@ -15133,12 +15675,12 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="1"/>
-        <v>-4.3306666666666164E-3</v>
+        <v>7.1608888888889059E-3</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="40">
         <f t="shared" si="2"/>
-        <v>-0.38975999999999544</v>
+        <v>0.6444800000000015</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
@@ -15216,12 +15758,12 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="1"/>
-        <v>-2.0925155555555523E-2</v>
+        <v>-9.6251259259260129E-3</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="40">
         <f t="shared" ref="H40" si="58">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>-2.8248959999999954</v>
+        <v>-1.2993920000000116</v>
       </c>
       <c r="I40" t="s">
         <v>7</v>
@@ -15299,12 +15841,12 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="1"/>
-        <v>-4.4844555555555499E-2</v>
+        <v>-3.3820592592592728E-2</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="40">
         <f t="shared" ref="H41" si="70">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-6.0540149999999926</v>
+        <v>-4.5657800000000179</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -15386,12 +15928,12 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="1"/>
-        <v>-6.0272244444444435E-2</v>
+        <v>-4.942634074074085E-2</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="40">
         <f t="shared" ref="H42" si="82">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-8.1367529999999988</v>
+        <v>-6.6725560000000144</v>
       </c>
       <c r="I42" t="s">
         <v>7</v>
@@ -15473,12 +16015,12 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="1"/>
-        <v>-7.1680955555555564E-2</v>
+        <v>-6.0966725925925926E-2</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="40">
         <f t="shared" ref="H43" si="95">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-9.6769290000000012</v>
+        <v>-8.2305080000000004</v>
       </c>
       <c r="I43" t="s">
         <v>7</v>
@@ -15560,12 +16102,12 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="1"/>
-        <v>-3.8686444444444398E-2</v>
+        <v>-2.7591407407407412E-2</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="40">
         <f t="shared" ref="H44" si="108">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>-5.2226699999999937</v>
+        <v>-3.7248400000000004</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
@@ -15643,12 +16185,12 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="1"/>
-        <v>-7.2718111111111039E-2</v>
+        <v>-6.201585185185176E-2</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="40">
         <f t="shared" ref="H45:H49" si="121">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>-9.8169449999999898</v>
+        <v>-8.3721399999999875</v>
       </c>
       <c r="I45" t="s">
         <v>7</v>
@@ -15726,12 +16268,12 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="1"/>
-        <v>-8.7497577777777683E-2</v>
+        <v>-7.6965896296296257E-2</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="40">
         <f t="shared" si="121"/>
-        <v>-11.812172999999987</v>
+        <v>-10.390395999999996</v>
       </c>
       <c r="I46" t="s">
         <v>7</v>
@@ -15809,12 +16351,12 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="1"/>
-        <v>-6.7273044444444582E-2</v>
+        <v>-5.6507940740740885E-2</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="40">
         <f t="shared" si="121"/>
-        <v>-9.0818610000000177</v>
+        <v>-7.6285720000000197</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
@@ -15892,12 +16434,12 @@
       </c>
       <c r="F48" s="36">
         <f t="shared" si="1"/>
-        <v>-4.6335466666666721E-2</v>
+        <v>-3.532871111111107E-2</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="40">
         <f t="shared" si="121"/>
-        <v>-6.2552880000000073</v>
+        <v>-4.7693759999999941</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
@@ -15975,12 +16517,12 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="1"/>
-        <v>-5.6318088888888777E-2</v>
+        <v>-4.5426548148147998E-2</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="40">
         <f t="shared" si="121"/>
-        <v>-7.6029419999999845</v>
+        <v>-6.1325839999999801</v>
       </c>
       <c r="I49" t="s">
         <v>7</v>
@@ -16058,12 +16600,12 @@
       </c>
       <c r="F50" s="36">
         <f t="shared" si="1"/>
-        <v>-7.9394799999999932E-2</v>
+        <v>-6.8769599999999986E-2</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="40">
         <f t="shared" ref="H50:H54" si="134">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>-10.71829799999999</v>
+        <v>-9.2838959999999986</v>
       </c>
       <c r="I50" t="s">
         <v>7</v>
@@ -16141,12 +16683,12 @@
       </c>
       <c r="F51" s="36">
         <f t="shared" si="1"/>
-        <v>-8.2700733333333401E-2</v>
+        <v>-7.2113688888889013E-2</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="40">
         <f t="shared" si="134"/>
-        <v>-11.16459900000001</v>
+        <v>-9.7353480000000161</v>
       </c>
       <c r="I51" t="s">
         <v>7</v>
@@ -16228,12 +16770,12 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="1"/>
-        <v>-8.1469111111111187E-2</v>
+        <v>-7.086785185185196E-2</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="40">
         <f t="shared" si="134"/>
-        <v>-10.99833000000001</v>
+        <v>-9.5671600000000154</v>
       </c>
       <c r="I52" t="s">
         <v>7</v>
@@ -16311,12 +16853,12 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="1"/>
-        <v>-9.3266755555555608E-2</v>
+        <v>-8.2801659259259267E-2</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="40">
         <f t="shared" si="134"/>
-        <v>-12.591012000000006</v>
+        <v>-11.178224</v>
       </c>
       <c r="I53" t="s">
         <v>7</v>
@@ -16398,12 +16940,12 @@
       </c>
       <c r="F54" s="36">
         <f t="shared" si="1"/>
-        <v>-9.8193244444444383E-2</v>
+        <v>-8.7785007407407425E-2</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="40">
         <f t="shared" si="134"/>
-        <v>-13.256087999999991</v>
+        <v>-11.850976000000003</v>
       </c>
       <c r="I54" t="s">
         <v>7</v>
@@ -16482,12 +17024,12 @@
       </c>
       <c r="F55" s="36">
         <f t="shared" si="1"/>
-        <v>-8.7173466666666755E-2</v>
+        <v>-7.6638044444444456E-2</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="40">
         <f t="shared" ref="H55:H59" si="147">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>-11.768418000000011</v>
+        <v>-10.346136000000001</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
@@ -16565,12 +17107,12 @@
       </c>
       <c r="F56" s="36">
         <f t="shared" si="1"/>
-        <v>-6.2346555555555482E-2</v>
+        <v>-5.1524592592592511E-2</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="40">
         <f t="shared" si="147"/>
-        <v>-8.4167849999999902</v>
+        <v>-6.9558199999999886</v>
       </c>
       <c r="I56" t="s">
         <v>7</v>
@@ -16648,12 +17190,12 @@
       </c>
       <c r="F57" s="36">
         <f t="shared" si="1"/>
-        <v>-7.0708622222222128E-2</v>
+        <v>-5.9983170370370292E-2</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="40">
         <f t="shared" si="147"/>
-        <v>-9.5456639999999879</v>
+        <v>-8.0977279999999894</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
@@ -16731,12 +17273,12 @@
       </c>
       <c r="F58" s="36">
         <f t="shared" si="1"/>
-        <v>-5.8197933333333389E-2</v>
+        <v>-4.7328088888888974E-2</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="40">
         <f t="shared" si="147"/>
-        <v>-7.8567210000000074</v>
+        <v>-6.3892920000000117</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -16814,12 +17356,12 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="1"/>
-        <v>-8.6849355555555494E-2</v>
+        <v>-7.6310192592592543E-2</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="40">
         <f t="shared" si="147"/>
-        <v>-11.724662999999993</v>
+        <v>-10.301875999999993</v>
       </c>
       <c r="I59" t="s">
         <v>7</v>
@@ -16897,12 +17439,12 @@
       </c>
       <c r="F60" s="36">
         <f t="shared" si="1"/>
-        <v>-0.11848259999999995</v>
+        <v>-0.10830853333333332</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="40">
         <f t="shared" ref="H60" si="160">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>-15.995150999999993</v>
+        <v>-14.621651999999997</v>
       </c>
       <c r="I60" t="s">
         <v>7</v>
@@ -16984,12 +17526,12 @@
       </c>
       <c r="F61" s="36">
         <f t="shared" ref="F61:F63" si="173">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>-0.12114031111111104</v>
+        <v>-0.11099691851851839</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="40">
         <f t="shared" ref="H61:H63" si="174">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>-16.353941999999989</v>
+        <v>-14.984583999999984</v>
       </c>
       <c r="I61" t="s">
         <v>7</v>
@@ -17067,12 +17609,12 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="173"/>
-        <v>-0.12978597500000005</v>
+        <v>-0.11974236666666667</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="40">
         <f t="shared" si="174"/>
-        <v>-15.574317000000008</v>
+        <v>-14.369084000000001</v>
       </c>
       <c r="I62" t="s">
         <v>7</v>
@@ -17154,12 +17696,12 @@
       </c>
       <c r="F63" s="36">
         <f t="shared" si="173"/>
-        <v>-0.13481779999999996</v>
+        <v>-0.12483226666666666</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="40">
         <f t="shared" si="174"/>
-        <v>-16.178135999999995</v>
+        <v>-14.979872</v>
       </c>
       <c r="I63" t="s">
         <v>7</v>
@@ -17241,12 +17783,12 @@
       </c>
       <c r="F64" s="36">
         <f t="shared" ref="F64:F68" si="187">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-0.1313174</v>
+        <v>-0.12129146666666664</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="40">
         <f t="shared" ref="H64:H68" si="188">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-15.758088000000001</v>
+        <v>-14.554975999999996</v>
       </c>
       <c r="I64" t="s">
         <v>7</v>
@@ -17324,12 +17866,12 @@
       </c>
       <c r="F65" s="36">
         <f t="shared" si="187"/>
-        <v>-0.13277590000000003</v>
+        <v>-0.12276680000000001</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="40">
         <f t="shared" si="188"/>
-        <v>-15.933108000000004</v>
+        <v>-14.732016000000002</v>
       </c>
       <c r="I65" t="s">
         <v>7</v>
@@ -17407,12 +17949,12 @@
       </c>
       <c r="F66" s="36">
         <f t="shared" si="187"/>
-        <v>-0.13182787499999998</v>
+        <v>-0.12180783333333332</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="40">
         <f t="shared" si="188"/>
-        <v>-15.819344999999998</v>
+        <v>-14.61694</v>
       </c>
       <c r="I66" t="s">
         <v>7</v>
@@ -17490,12 +18032,12 @@
       </c>
       <c r="F67" s="36">
         <f t="shared" si="187"/>
-        <v>-0.1140341750000001</v>
+        <v>-0.1038087666666667</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="40">
         <f t="shared" si="188"/>
-        <v>-13.684101000000013</v>
+        <v>-12.457052000000004</v>
       </c>
       <c r="I67" t="s">
         <v>7</v>
@@ -17573,12 +18115,12 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="187"/>
-        <v>-0.1120003777777777</v>
+        <v>-0.10175149629629629</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="40">
         <f t="shared" si="188"/>
-        <v>-15.120050999999989</v>
+        <v>-13.736452</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
@@ -17656,12 +18198,12 @@
       </c>
       <c r="F69" s="36">
         <f t="shared" ref="F69:F73" si="202">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>-0.10292526666666672</v>
+        <v>-9.2571644444444601E-2</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="40">
         <f t="shared" ref="H69:H73" si="203">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>-13.894911000000008</v>
+        <v>-12.49717200000002</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
@@ -17739,12 +18281,12 @@
       </c>
       <c r="F70" s="36">
         <f t="shared" si="202"/>
-        <v>-0.12068655555555549</v>
+        <v>-0.11053792592592589</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="40">
         <f t="shared" si="203"/>
-        <v>-16.292684999999992</v>
+        <v>-14.922619999999995</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
@@ -17822,12 +18364,12 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="202"/>
-        <v>-0.12497292500000003</v>
+        <v>-0.11487376666666667</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="40">
         <f t="shared" si="203"/>
-        <v>-14.996751000000003</v>
+        <v>-13.784852000000001</v>
       </c>
       <c r="I71" t="s">
         <v>7</v>
@@ -17905,12 +18447,12 @@
       </c>
       <c r="F72" s="36">
         <f t="shared" si="202"/>
-        <v>-0.12030572500000006</v>
+        <v>-0.11015270000000008</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="40">
         <f t="shared" si="203"/>
-        <v>-14.436687000000006</v>
+        <v>-13.21832400000001</v>
       </c>
       <c r="I72" t="s">
         <v>7</v>
@@ -17988,12 +18530,12 @@
       </c>
       <c r="F73" s="36">
         <f t="shared" si="202"/>
-        <v>-0.12541047499999997</v>
+        <v>-0.11531636666666666</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="40">
         <f t="shared" si="203"/>
-        <v>-15.049256999999997</v>
+        <v>-13.837963999999999</v>
       </c>
       <c r="I73" t="s">
         <v>7</v>
@@ -18071,12 +18613,12 @@
       </c>
       <c r="F74" s="36">
         <f t="shared" ref="F74:F78" si="216">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
-        <v>-0.11272152500000002</v>
+        <v>-0.10248096666666662</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="40">
         <f t="shared" ref="H74:H78" si="217">IF(G74="",$F$1*C74-B74,G74-B74)</f>
-        <v>-13.526583000000002</v>
+        <v>-12.297715999999994</v>
       </c>
       <c r="I74" t="s">
         <v>7</v>
@@ -18154,12 +18696,12 @@
       </c>
       <c r="F75" s="36">
         <f t="shared" si="216"/>
-        <v>-9.8841466666666558E-2</v>
+        <v>-8.8440711111111042E-2</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="40">
         <f t="shared" si="217"/>
-        <v>-13.343597999999986</v>
+        <v>-11.939495999999991</v>
       </c>
       <c r="I75" t="s">
         <v>7</v>
@@ -18237,12 +18779,12 @@
       </c>
       <c r="F76" s="36">
         <f t="shared" si="216"/>
-        <v>-0.10668495555555553</v>
+        <v>-9.6374725925925914E-2</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="40">
         <f t="shared" si="217"/>
-        <v>-14.402468999999996</v>
+        <v>-13.010587999999998</v>
       </c>
       <c r="I76" t="s">
         <v>7</v>
@@ -18320,12 +18862,12 @@
       </c>
       <c r="F77" s="36">
         <f t="shared" si="216"/>
-        <v>-7.2005066666666714E-2</v>
+        <v>-6.1294577777777845E-2</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="40">
         <f t="shared" si="217"/>
-        <v>-9.7206840000000057</v>
+        <v>-8.2747680000000088</v>
       </c>
       <c r="I77" t="s">
         <v>7</v>
@@ -18403,12 +18945,12 @@
       </c>
       <c r="F78" s="36">
         <f t="shared" si="216"/>
-        <v>-6.4161577777777742E-2</v>
+        <v>-5.3360562962962974E-2</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="40">
         <f t="shared" si="217"/>
-        <v>-8.6618129999999951</v>
+        <v>-7.2036760000000015</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -18486,12 +19028,12 @@
       </c>
       <c r="F79" s="36">
         <f t="shared" ref="F79:F80" si="230">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
-        <v>-4.0112533333333263E-2</v>
+        <v>-2.9033955555555453E-2</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="40">
         <f t="shared" ref="H79:H80" si="231">IF(G79="",$F$1*C79-B79,G79-B79)</f>
-        <v>-5.4151919999999905</v>
+        <v>-3.9195839999999862</v>
       </c>
       <c r="I79" t="s">
         <v>7</v>
@@ -18569,12 +19111,12 @@
       </c>
       <c r="F80" s="36">
         <f t="shared" si="230"/>
-        <v>-4.7048511111111156E-2</v>
+        <v>-3.6049985185185193E-2</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="40">
         <f t="shared" si="231"/>
-        <v>-6.3515490000000057</v>
+        <v>-4.8667480000000012</v>
       </c>
       <c r="I80" t="s">
         <v>7</v>
@@ -18652,12 +19194,12 @@
       </c>
       <c r="F81" s="36">
         <f t="shared" ref="F81" si="244">IF(G81="",($F$1*C81-B81)/B81,H81/B81)</f>
-        <v>2.6006133333333362E-2</v>
+        <v>3.7847822222222181E-2</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="40">
         <f t="shared" ref="H81" si="245">IF(G81="",$F$1*C81-B81,G81-B81)</f>
-        <v>3.5108280000000036</v>
+        <v>5.1094559999999944</v>
       </c>
       <c r="I81" t="s">
         <v>7</v>
@@ -18735,12 +19277,12 @@
       </c>
       <c r="F82" s="36">
         <f t="shared" ref="F82:F84" si="258">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
-        <v>1.3171333333333419E-2</v>
+        <v>2.486488888888895E-2</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="40">
         <f t="shared" ref="H82:H84" si="259">IF(G82="",$F$1*C82-B82,G82-B82)</f>
-        <v>1.1854200000000077</v>
+        <v>2.2378400000000056</v>
       </c>
       <c r="I82" t="s">
         <v>7</v>
@@ -18818,12 +19360,12 @@
       </c>
       <c r="F83" s="36">
         <f t="shared" si="258"/>
-        <v>1.7449600000000013E-2</v>
+        <v>2.9192533333333395E-2</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="40">
         <f t="shared" si="259"/>
-        <v>1.5704640000000012</v>
+        <v>2.6273280000000057</v>
       </c>
       <c r="I83" t="s">
         <v>7</v>
@@ -18901,12 +19443,12 @@
       </c>
       <c r="F84" s="36">
         <f t="shared" si="258"/>
-        <v>2.8923133333333181E-2</v>
+        <v>4.079848888888888E-2</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="40">
         <f t="shared" si="259"/>
-        <v>2.6030819999999864</v>
+        <v>3.6718639999999994</v>
       </c>
       <c r="I84" t="s">
         <v>7</v>
@@ -19067,12 +19609,12 @@
       </c>
       <c r="F86" s="36">
         <f t="shared" si="271"/>
-        <v>-4.8168333333333318E-3</v>
+        <v>6.6691111111110346E-3</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="40">
         <f t="shared" si="272"/>
-        <v>-0.43351499999999987</v>
+        <v>0.60021999999999309</v>
       </c>
       <c r="I86" t="s">
         <v>7</v>
@@ -19154,12 +19696,12 @@
       </c>
       <c r="F87" s="36">
         <f t="shared" ref="F87:F91" si="286">IF(G87="",($F$1*C87-B87)/B87,H87/B87)</f>
-        <v>6.3001777777778305E-3</v>
+        <v>1.7914429629629719E-2</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="40">
         <f t="shared" ref="H87:H91" si="287">IF(G87="",$F$1*C87-B87,G87-B87)</f>
-        <v>0.85052400000000716</v>
+        <v>2.4184480000000121</v>
       </c>
       <c r="I87" t="s">
         <v>7</v>
@@ -19237,12 +19779,12 @@
       </c>
       <c r="F88" s="36">
         <f t="shared" si="286"/>
-        <v>1.3430622222222155E-2</v>
+        <v>2.5127170370370357E-2</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="40">
         <f t="shared" si="287"/>
-        <v>1.8131339999999909</v>
+        <v>3.3921679999999981</v>
       </c>
       <c r="I88" t="s">
         <v>7</v>
@@ -19320,12 +19862,12 @@
       </c>
       <c r="F89" s="36">
         <f t="shared" si="286"/>
-        <v>-7.7014222222222392E-3</v>
+        <v>3.751229629629641E-3</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="40">
         <f t="shared" si="287"/>
-        <v>-1.0396920000000023</v>
+        <v>0.50641600000000153</v>
       </c>
       <c r="I89" t="s">
         <v>7</v>
@@ -19403,12 +19945,12 @@
       </c>
       <c r="F90" s="36">
         <f t="shared" si="286"/>
-        <v>-1.3665066666666698E-2</v>
+        <v>-2.2812444444445679E-3</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="40">
         <f t="shared" si="287"/>
-        <v>-1.8447840000000042</v>
+        <v>-0.30796800000001667</v>
       </c>
       <c r="I90" t="s">
         <v>7</v>
@@ -19486,12 +20028,12 @@
       </c>
       <c r="F91" s="36">
         <f t="shared" si="286"/>
-        <v>1.7579244444444461E-2</v>
+        <v>2.9323674074073887E-2</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="40">
         <f t="shared" si="287"/>
-        <v>2.3731980000000021</v>
+        <v>3.9586959999999749</v>
       </c>
       <c r="I91" t="s">
         <v>7</v>
@@ -19569,12 +20111,12 @@
       </c>
       <c r="F92" s="36">
         <f t="shared" ref="F92:F97" si="299">IF(G92="",($F$1*C92-B92)/B92,H92/B92)</f>
-        <v>2.0986462499999921E-2</v>
+        <v>3.2770216666666602E-2</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="40">
         <f t="shared" ref="H92:H97" si="300">IF(G92="",$F$1*C92-B92,G92-B92)</f>
-        <v>5.0367509999999811</v>
+        <v>7.8648519999999849</v>
       </c>
       <c r="I92" t="s">
         <v>7</v>
@@ -19652,12 +20194,12 @@
       </c>
       <c r="F93" s="36">
         <f t="shared" si="299"/>
-        <v>4.031399999999981E-3</v>
+        <v>1.5619466666666663E-2</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="40">
         <f t="shared" si="300"/>
-        <v>0.96753599999999551</v>
+        <v>3.7486719999999991</v>
       </c>
       <c r="I93" t="s">
         <v>7</v>
@@ -19735,12 +20277,12 @@
       </c>
       <c r="F94" s="36">
         <f t="shared" si="299"/>
-        <v>1.0059866666666637E-2</v>
+        <v>2.1717511111111039E-2</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="40">
         <f t="shared" si="300"/>
-        <v>1.358081999999996</v>
+        <v>2.9318639999999903</v>
       </c>
       <c r="I94" t="s">
         <v>7</v>
@@ -19818,12 +20360,12 @@
       </c>
       <c r="F95" s="36">
         <f t="shared" si="299"/>
-        <v>2.9765822222222377E-2</v>
+        <v>4.1650903703703709E-2</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="40">
         <f t="shared" si="300"/>
-        <v>4.0183860000000209</v>
+        <v>5.622872000000001</v>
       </c>
       <c r="I95" t="s">
         <v>7</v>
@@ -19901,12 +20443,12 @@
       </c>
       <c r="F96" s="36">
         <f t="shared" si="299"/>
-        <v>3.5607924999999936E-2</v>
+        <v>4.7560433333333305E-2</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="40">
         <f t="shared" si="300"/>
-        <v>8.5459019999999839</v>
+        <v>11.414503999999994</v>
       </c>
       <c r="I96" t="s">
         <v>7</v>
@@ -19984,12 +20526,12 @@
       </c>
       <c r="F97" s="36">
         <f t="shared" si="299"/>
-        <v>1.1518366666666679E-2</v>
+        <v>2.319284444444444E-2</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="40">
         <f t="shared" si="300"/>
-        <v>1.0366530000000012</v>
+        <v>2.0873559999999998</v>
       </c>
       <c r="I97" t="s">
         <v>7</v>
@@ -20067,12 +20609,12 @@
       </c>
       <c r="F98" s="36">
         <f t="shared" ref="F98:F101" si="313">IF(G98="",($F$1*C98-B98)/B98,H98/B98)</f>
-        <v>1.2847222222222222E-2</v>
+        <v>2.4537037037037038E-2</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="40">
         <f t="shared" ref="H98:H101" si="314">IF(G98="",$F$1*C98-B98,G98-B98)</f>
-        <v>1.734375</v>
+        <v>3.3125</v>
       </c>
       <c r="I98" t="s">
         <v>7</v>
@@ -20150,12 +20692,12 @@
       </c>
       <c r="F99" s="36">
         <f t="shared" si="313"/>
-        <v>1.2523111111111079E-2</v>
+        <v>2.4209185185185122E-2</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="40">
         <f t="shared" si="314"/>
-        <v>1.6906199999999956</v>
+        <v>3.2682399999999916</v>
       </c>
       <c r="I99" t="s">
         <v>7</v>
@@ -20233,12 +20775,12 @@
       </c>
       <c r="F100" s="36">
         <f t="shared" si="313"/>
-        <v>1.8486755555555536E-2</v>
+        <v>3.0241659259259333E-2</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="40">
         <f t="shared" si="314"/>
-        <v>2.4957119999999975</v>
+        <v>4.0826240000000098</v>
       </c>
       <c r="I100" t="s">
         <v>7</v>
@@ -20316,12 +20858,12 @@
       </c>
       <c r="F101" s="36">
         <f t="shared" si="313"/>
-        <v>2.1144466666666622E-2</v>
+        <v>3.2930044444444521E-2</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="40">
         <f t="shared" si="314"/>
-        <v>2.854502999999994</v>
+        <v>4.4455560000000105</v>
       </c>
       <c r="I101" t="s">
         <v>7</v>
@@ -20399,12 +20941,12 @@
       </c>
       <c r="F102" s="36">
         <f t="shared" ref="F102" si="327">IF(G102="",($F$1*C102-B102)/B102,H102/B102)</f>
-        <v>3.2293888888888962E-2</v>
+        <v>4.4208148148148094E-2</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="40">
         <f t="shared" ref="H102" si="328">IF(G102="",$F$1*C102-B102,G102-B102)</f>
-        <v>4.35967500000001</v>
+        <v>5.9680999999999926</v>
       </c>
       <c r="I102" t="s">
         <v>7</v>
@@ -20482,12 +21024,12 @@
       </c>
       <c r="F103" s="36">
         <f t="shared" ref="F103:F105" si="341">IF(G103="",($F$1*C103-B103)/B103,H103/B103)</f>
-        <v>4.3884912500000081E-2</v>
+        <v>5.5932950000000051E-2</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="40">
         <f t="shared" ref="H103:H105" si="342">IF(G103="",$F$1*C103-B103,G103-B103)</f>
-        <v>10.53237900000002</v>
+        <v>13.423908000000011</v>
       </c>
       <c r="I103" t="s">
         <v>7</v>
@@ -20565,12 +21107,12 @@
       </c>
       <c r="F104" s="36">
         <f t="shared" si="341"/>
-        <v>4.5780962499999946E-2</v>
+        <v>5.7850883333333297E-2</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="40">
         <f t="shared" si="342"/>
-        <v>10.987430999999987</v>
+        <v>13.884211999999991</v>
       </c>
       <c r="I104" t="s">
         <v>7</v>
@@ -20648,12 +21190,12 @@
       </c>
       <c r="F105" s="36">
         <f t="shared" si="341"/>
-        <v>6.7184450000000118E-2</v>
+        <v>7.9501399999999958E-2</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="40">
         <f t="shared" si="342"/>
-        <v>16.124268000000029</v>
+        <v>19.080335999999988</v>
       </c>
       <c r="I105" t="s">
         <v>7</v>
@@ -20731,12 +21273,12 @@
       </c>
       <c r="F106" s="36">
         <f t="shared" ref="F106:F110" si="356">IF(G106="",($F$1*C106-B106)/B106,H106/B106)</f>
-        <v>5.7412499999999984E-2</v>
+        <v>6.9616666666666535E-2</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="40">
         <f t="shared" ref="H106:H110" si="357">IF(G106="",$F$1*C106-B106,G106-B106)</f>
-        <v>13.778999999999996</v>
+        <v>16.70799999999997</v>
       </c>
       <c r="I106" t="s">
         <v>7</v>
@@ -20814,12 +21356,12 @@
       </c>
       <c r="F107" s="36">
         <f t="shared" si="356"/>
-        <v>2.1144466666666674E-2</v>
+        <v>3.2930044444444362E-2</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="40">
         <f t="shared" si="357"/>
-        <v>1.9030020000000007</v>
+        <v>2.9637039999999928</v>
       </c>
       <c r="I107" t="s">
         <v>7</v>
@@ -20897,12 +21439,12 @@
       </c>
       <c r="F108" s="36">
         <f t="shared" si="356"/>
-        <v>2.8663844444444444E-2</v>
+        <v>4.0536207407407369E-2</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="40">
         <f t="shared" si="357"/>
-        <v>3.8696190000000001</v>
+        <v>5.4723879999999951</v>
       </c>
       <c r="I108" t="s">
         <v>7</v>
@@ -20980,12 +21522,12 @@
       </c>
       <c r="F109" s="36">
         <f t="shared" si="356"/>
-        <v>2.5908899999999985E-2</v>
+        <v>3.7749466666666683E-2</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="40">
         <f t="shared" si="357"/>
-        <v>2.3318009999999987</v>
+        <v>3.3974520000000012</v>
       </c>
       <c r="I109" t="s">
         <v>7</v>
@@ -21063,12 +21605,12 @@
       </c>
       <c r="F110" s="36">
         <f t="shared" si="356"/>
-        <v>4.4760012499999863E-2</v>
+        <v>5.6818149999999908E-2</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="40">
         <f t="shared" si="357"/>
-        <v>10.742402999999968</v>
+        <v>13.636355999999978</v>
       </c>
       <c r="I110" t="s">
         <v>7</v>
@@ -21146,12 +21688,12 @@
       </c>
       <c r="F111" s="36">
         <f t="shared" ref="F111:F115" si="371">IF(G111="",($F$1*C111-B111)/B111,H111/B111)</f>
-        <v>4.4030762499999911E-2</v>
+        <v>5.6080483333333223E-2</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="40">
         <f t="shared" ref="H111:H115" si="372">IF(G111="",$F$1*C111-B111,G111-B111)</f>
-        <v>10.567382999999978</v>
+        <v>13.459315999999973</v>
       </c>
       <c r="I111" t="s">
         <v>7</v>
@@ -21229,12 +21771,12 @@
       </c>
       <c r="F112" s="36">
         <f t="shared" si="371"/>
-        <v>4.5161099999999975E-2</v>
+        <v>5.7223866666666602E-2</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="40">
         <f t="shared" si="372"/>
-        <v>10.838663999999994</v>
+        <v>13.733727999999985</v>
       </c>
       <c r="I112" t="s">
         <v>7</v>
@@ -21312,12 +21854,12 @@
       </c>
       <c r="F113" s="36">
         <f t="shared" si="371"/>
-        <v>3.2326299999999954E-2</v>
+        <v>4.4240933333333385E-2</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="40">
         <f t="shared" si="372"/>
-        <v>7.7583119999999894</v>
+        <v>10.617824000000013</v>
       </c>
       <c r="I113" t="s">
         <v>7</v>
@@ -21395,12 +21937,12 @@
       </c>
       <c r="F114" s="36">
         <f t="shared" si="371"/>
-        <v>1.2976866666666722E-2</v>
+        <v>2.4668177777777845E-2</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="40">
         <f t="shared" si="372"/>
-        <v>1.7518770000000075</v>
+        <v>3.330204000000009</v>
       </c>
       <c r="I114" t="s">
         <v>7</v>
@@ -21478,12 +22020,12 @@
       </c>
       <c r="F115" s="36">
         <f t="shared" si="371"/>
-        <v>2.0688888888887252E-4</v>
+        <v>1.1750814814814914E-2</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="40">
         <f t="shared" si="372"/>
-        <v>2.792999999999779E-2</v>
+        <v>1.5863600000000133</v>
       </c>
       <c r="I115" t="s">
         <v>7</v>
@@ -21540,6 +22082,421 @@
       <c r="X115" s="1">
         <f t="shared" si="384"/>
         <v>0.39821995726354514</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
+      <c r="A116" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B116">
+        <v>135</v>
+      </c>
+      <c r="C116" s="2">
+        <v>154.22</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="E116" s="1">
+        <f t="shared" ref="E116:E120" si="385">10%*M116+13%</f>
+        <v>0.220002792</v>
+      </c>
+      <c r="F116" s="36">
+        <f t="shared" ref="F116:F120" si="386">IF(G116="",($F$1*C116-B116)/B116,H116/B116)</f>
+        <v>1.1226251851851892E-2</v>
+      </c>
+      <c r="G116" s="9"/>
+      <c r="H116" s="40">
+        <f t="shared" ref="H116:H120" si="387">IF(G116="",$F$1*C116-B116,G116-B116)</f>
+        <v>1.5155440000000056</v>
+      </c>
+      <c r="I116" t="s">
+        <v>7</v>
+      </c>
+      <c r="J116" t="s">
+        <v>430</v>
+      </c>
+      <c r="K116" s="2">
+        <f t="shared" ref="K116:K120" si="388">D116*C116</f>
+        <v>135.004188</v>
+      </c>
+      <c r="L116" s="2">
+        <f t="shared" ref="L116:L120" si="389">K116-B116</f>
+        <v>4.1879999999991924E-3</v>
+      </c>
+      <c r="M116" s="1">
+        <f t="shared" ref="M116:M120" si="390">K116/150</f>
+        <v>0.90002791999999998</v>
+      </c>
+      <c r="N116" s="6">
+        <f t="shared" ref="N116:N120" si="391">N115+C116-P116</f>
+        <v>12673.050000000007</v>
+      </c>
+      <c r="O116" s="2">
+        <f t="shared" ref="O116:O120" si="392">N116*D116</f>
+        <v>11093.987970000006</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="15"/>
+      <c r="R116" s="6">
+        <f t="shared" ref="R116:R120" si="393">Q116+R115</f>
+        <v>7247.82</v>
+      </c>
+      <c r="S116" s="6">
+        <f t="shared" ref="S116:S120" si="394">O116+R116</f>
+        <v>18341.807970000005</v>
+      </c>
+      <c r="T116">
+        <f t="shared" ref="T116:T120" si="395">T115+B116</f>
+        <v>17255</v>
+      </c>
+      <c r="U116" s="6">
+        <f t="shared" ref="U116:U120" si="396">S116-T116</f>
+        <v>1086.8079700000053</v>
+      </c>
+      <c r="V116" s="4">
+        <f t="shared" ref="V116:V120" si="397">S116/T116-1</f>
+        <v>6.2985104027818428E-2</v>
+      </c>
+      <c r="W116" s="4">
+        <f t="shared" ref="W116:W120" si="398">O116/(T116-R116)-1</f>
+        <v>0.1086028201751148</v>
+      </c>
+      <c r="X116" s="1">
+        <f t="shared" ref="X116:X120" si="399">R116/S116</f>
+        <v>0.3951529757510594</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
+      <c r="A117" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B117">
+        <v>135</v>
+      </c>
+      <c r="C117" s="2">
+        <v>155.66</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="E117" s="1">
+        <f t="shared" si="385"/>
+        <v>0.22000261200000001</v>
+      </c>
+      <c r="F117" s="36">
+        <f t="shared" si="386"/>
+        <v>2.0668385185185208E-2</v>
+      </c>
+      <c r="G117" s="9"/>
+      <c r="H117" s="40">
+        <f t="shared" si="387"/>
+        <v>2.7902320000000032</v>
+      </c>
+      <c r="I117" t="s">
+        <v>7</v>
+      </c>
+      <c r="J117" t="s">
+        <v>432</v>
+      </c>
+      <c r="K117" s="2">
+        <f t="shared" si="388"/>
+        <v>135.003918</v>
+      </c>
+      <c r="L117" s="2">
+        <f t="shared" si="389"/>
+        <v>3.9179999999987558E-3</v>
+      </c>
+      <c r="M117" s="1">
+        <f t="shared" si="390"/>
+        <v>0.90002612000000004</v>
+      </c>
+      <c r="N117" s="6">
+        <f t="shared" si="391"/>
+        <v>12828.710000000006</v>
+      </c>
+      <c r="O117" s="2">
+        <f t="shared" si="392"/>
+        <v>11126.340183000006</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="15"/>
+      <c r="R117" s="6">
+        <f t="shared" si="393"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S117" s="6">
+        <f t="shared" si="394"/>
+        <v>18374.160183000007</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="395"/>
+        <v>17390</v>
+      </c>
+      <c r="U117" s="6">
+        <f t="shared" si="396"/>
+        <v>984.16018300000724</v>
+      </c>
+      <c r="V117" s="4">
+        <f t="shared" si="397"/>
+        <v>5.6593455031627826E-2</v>
+      </c>
+      <c r="W117" s="4">
+        <f t="shared" si="398"/>
+        <v>9.7036355398938401E-2</v>
+      </c>
+      <c r="X117" s="1">
+        <f t="shared" si="399"/>
+        <v>0.39445721207469225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
+      <c r="A118" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="B118">
+        <v>135</v>
+      </c>
+      <c r="C118" s="2">
+        <v>155.93</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0.86580000000000001</v>
+      </c>
+      <c r="E118" s="1">
+        <f t="shared" si="385"/>
+        <v>0.220002796</v>
+      </c>
+      <c r="F118" s="36">
+        <f t="shared" si="386"/>
+        <v>2.2438785185185165E-2</v>
+      </c>
+      <c r="G118" s="9"/>
+      <c r="H118" s="40">
+        <f t="shared" si="387"/>
+        <v>3.0292359999999974</v>
+      </c>
+      <c r="I118" t="s">
+        <v>7</v>
+      </c>
+      <c r="J118" t="s">
+        <v>434</v>
+      </c>
+      <c r="K118" s="2">
+        <f t="shared" si="388"/>
+        <v>135.00419400000001</v>
+      </c>
+      <c r="L118" s="2">
+        <f t="shared" si="389"/>
+        <v>4.1940000000124655E-3</v>
+      </c>
+      <c r="M118" s="1">
+        <f t="shared" si="390"/>
+        <v>0.90002796000000007</v>
+      </c>
+      <c r="N118" s="6">
+        <f t="shared" si="391"/>
+        <v>12984.640000000007</v>
+      </c>
+      <c r="O118" s="2">
+        <f t="shared" si="392"/>
+        <v>11242.101312000006</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="15"/>
+      <c r="R118" s="6">
+        <f t="shared" si="393"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S118" s="6">
+        <f t="shared" si="394"/>
+        <v>18489.921312000006</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="395"/>
+        <v>17525</v>
+      </c>
+      <c r="U118" s="6">
+        <f t="shared" si="396"/>
+        <v>964.92131200000586</v>
+      </c>
+      <c r="V118" s="4">
+        <f t="shared" si="397"/>
+        <v>5.5059703965763429E-2</v>
+      </c>
+      <c r="W118" s="4">
+        <f t="shared" si="398"/>
+        <v>9.388969658992119E-2</v>
+      </c>
+      <c r="X118" s="1">
+        <f t="shared" si="399"/>
+        <v>0.39198760652897674</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
+      <c r="A119" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B119">
+        <v>135</v>
+      </c>
+      <c r="C119" s="2">
+        <v>154.57</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="E119" s="1">
+        <f t="shared" si="385"/>
+        <v>0.22000095866666666</v>
+      </c>
+      <c r="F119" s="36">
+        <f t="shared" si="386"/>
+        <v>1.352121481481466E-2</v>
+      </c>
+      <c r="G119" s="9"/>
+      <c r="H119" s="40">
+        <f t="shared" si="387"/>
+        <v>1.8253639999999791</v>
+      </c>
+      <c r="I119" t="s">
+        <v>7</v>
+      </c>
+      <c r="J119" t="s">
+        <v>436</v>
+      </c>
+      <c r="K119" s="2">
+        <f t="shared" si="388"/>
+        <v>135.00143799999998</v>
+      </c>
+      <c r="L119" s="2">
+        <f t="shared" si="389"/>
+        <v>1.4379999999789561E-3</v>
+      </c>
+      <c r="M119" s="1">
+        <f t="shared" si="390"/>
+        <v>0.90000958666666653</v>
+      </c>
+      <c r="N119" s="6">
+        <f t="shared" si="391"/>
+        <v>13139.210000000006</v>
+      </c>
+      <c r="O119" s="2">
+        <f t="shared" si="392"/>
+        <v>11475.786014000005</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="15"/>
+      <c r="R119" s="6">
+        <f t="shared" si="393"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S119" s="6">
+        <f t="shared" si="394"/>
+        <v>18723.606014000005</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="395"/>
+        <v>17660</v>
+      </c>
+      <c r="U119" s="6">
+        <f t="shared" si="396"/>
+        <v>1063.6060140000045</v>
+      </c>
+      <c r="V119" s="4">
+        <f t="shared" si="397"/>
+        <v>6.0226841109852991E-2</v>
+      </c>
+      <c r="W119" s="4">
+        <f t="shared" si="398"/>
+        <v>0.10215017546757776</v>
+      </c>
+      <c r="X119" s="1">
+        <f t="shared" si="399"/>
+        <v>0.38709530603136294</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
+      <c r="A120" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B120">
+        <v>135</v>
+      </c>
+      <c r="C120" s="2">
+        <v>156.18</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="E120" s="1">
+        <f t="shared" si="385"/>
+        <v>0.220001328</v>
+      </c>
+      <c r="F120" s="36">
+        <f t="shared" si="386"/>
+        <v>2.4078044444444526E-2</v>
+      </c>
+      <c r="G120" s="9"/>
+      <c r="H120" s="40">
+        <f t="shared" si="387"/>
+        <v>3.250536000000011</v>
+      </c>
+      <c r="I120" t="s">
+        <v>7</v>
+      </c>
+      <c r="J120" t="s">
+        <v>438</v>
+      </c>
+      <c r="K120" s="2">
+        <f t="shared" si="388"/>
+        <v>135.001992</v>
+      </c>
+      <c r="L120" s="2">
+        <f t="shared" si="389"/>
+        <v>1.992000000001326E-3</v>
+      </c>
+      <c r="M120" s="1">
+        <f t="shared" si="390"/>
+        <v>0.90001328000000003</v>
+      </c>
+      <c r="N120" s="6">
+        <f t="shared" si="391"/>
+        <v>13295.390000000007</v>
+      </c>
+      <c r="O120" s="2">
+        <f t="shared" si="392"/>
+        <v>11492.535116000005</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="15"/>
+      <c r="R120" s="6">
+        <f t="shared" si="393"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S120" s="6">
+        <f t="shared" si="394"/>
+        <v>18740.355116000006</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="395"/>
+        <v>17795</v>
+      </c>
+      <c r="U120" s="6">
+        <f t="shared" si="396"/>
+        <v>945.35511600000609</v>
+      </c>
+      <c r="V120" s="4">
+        <f t="shared" si="397"/>
+        <v>5.3124760663108006E-2</v>
+      </c>
+      <c r="W120" s="4">
+        <f t="shared" si="398"/>
+        <v>8.9631078259781782E-2</v>
+      </c>
+      <c r="X120" s="1">
+        <f t="shared" si="399"/>
+        <v>0.38674934146856205</v>
       </c>
     </row>
   </sheetData>
@@ -21605,7 +22562,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F115">
+  <conditionalFormatting sqref="F2:F120">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -21663,4 +22620,174 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA026E2-E285-894F-972A-30EC614C975A}">
+  <dimension ref="B2:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="K2" s="47"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="G3" s="47">
+        <v>1.2</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="K3" s="47">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="47">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="47">
+        <v>1</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="G4" s="47">
+        <v>1</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="K4" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="47" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="E5" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="G5" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="K5" s="47">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" s="47">
+        <v>0</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="E7" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>427</v>
+      </c>
+      <c r="G7" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CEDFA4-3E86-E64A-81D0-8B9F26714A46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13769BE9-862F-5341-9D59-488D4F8B9379}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="1" r:id="rId1"/>
     <sheet name="zz500" sheetId="2" r:id="rId2"/>
-    <sheet name="可转债申购参数" sheetId="3" r:id="rId3"/>
+    <sheet name="可转债收益" sheetId="4" r:id="rId3"/>
+    <sheet name="可转债申购参数" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hs300'!$A$1:$X$1</definedName>
@@ -479,7 +480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="491">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -1839,19 +1840,10 @@
     <t>AA</t>
   </si>
   <si>
-    <t> -10 -0</t>
-  </si>
-  <si>
     <t>小概率上升</t>
   </si>
   <si>
-    <t>谨慎申购</t>
-  </si>
-  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>0-5</t>
   </si>
   <si>
     <t>大概率平稳</t>
@@ -1922,18 +1914,194 @@
   </si>
   <si>
     <t>DT_ZZ500_20190628</t>
+  </si>
+  <si>
+    <t> -10 - -5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5 - 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适当参与</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谨慎申购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可转债代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可转债名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有天数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境转债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华钰转债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能转债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_HS300_20190701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190701购入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_HS300_20190702</t>
+  </si>
+  <si>
+    <t>20190702购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190703</t>
+  </si>
+  <si>
+    <t>20190703购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190704</t>
+  </si>
+  <si>
+    <t>20190704购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190705</t>
+  </si>
+  <si>
+    <t>20190705购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190702</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190703</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190704</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190705</t>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190708</t>
+  </si>
+  <si>
+    <t>20190708购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190709</t>
+  </si>
+  <si>
+    <t>20190709购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190710</t>
+  </si>
+  <si>
+    <t>20190710购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190711</t>
+  </si>
+  <si>
+    <t>20190711购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190712</t>
+  </si>
+  <si>
+    <t>20190712购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190708</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190709</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190710</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190711</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190712</t>
+  </si>
+  <si>
+    <t>CC中签金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZSQ中签金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZSQ出售金额
+(已剔除手续费)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZSQ获利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC出售金额
+(已剔除手续费)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC获利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="\+0.00%;\-0.00%;0.00%"/>
     <numFmt numFmtId="180" formatCode="[Red]\+0.00;[Green]\-0.00;0.00"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -2066,7 +2234,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2139,6 +2307,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2473,13 +2662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y119"/>
+  <dimension ref="A1:Y129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2524,14 +2713,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="38">
-        <v>1.1842999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="45" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19970),2)</f>
-        <v>盈利1626.73</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19968),2)</f>
+        <v>盈利1326.03</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -4110,11 +4299,11 @@
       </c>
       <c r="F20" s="44">
         <f>IF(G20="",($F$1*C20-B20)/B20,H20/B20)</f>
-        <v>0.23061928888888883</v>
+        <v>0.2053688888888888</v>
       </c>
       <c r="H20" s="41">
         <f t="shared" si="5"/>
-        <v>62.267207999999982</v>
+        <v>55.449599999999975</v>
       </c>
       <c r="I20" t="s">
         <v>7</v>
@@ -4192,11 +4381,11 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="4"/>
-        <v>0.22680321111111096</v>
+        <v>0.20163111111111093</v>
       </c>
       <c r="H21" s="41">
         <f t="shared" si="5"/>
-        <v>61.236866999999961</v>
+        <v>54.440399999999954</v>
       </c>
       <c r="I21" t="s">
         <v>7</v>
@@ -4274,11 +4463,11 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="4"/>
-        <v>0.23603765490196071</v>
+        <v>0.21067607843137229</v>
       </c>
       <c r="H22" s="41">
         <f t="shared" si="5"/>
-        <v>60.189601999999979</v>
+        <v>53.722399999999936</v>
       </c>
       <c r="I22" t="s">
         <v>7</v>
@@ -4356,11 +4545,11 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="4"/>
-        <v>0.22399598148148137</v>
+        <v>0.19888148148148141</v>
       </c>
       <c r="H23" s="41">
         <f t="shared" si="5"/>
-        <v>60.478914999999972</v>
+        <v>53.697999999999979</v>
       </c>
       <c r="I23" t="s">
         <v>7</v>
@@ -4438,11 +4627,11 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="4"/>
-        <v>0.20803244313725489</v>
+        <v>0.18324549019607841</v>
       </c>
       <c r="H24" s="41">
         <f t="shared" si="5"/>
-        <v>53.048272999999995</v>
+        <v>46.727599999999995</v>
       </c>
       <c r="I24" t="s">
         <v>7</v>
@@ -4520,11 +4709,11 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="4"/>
-        <v>0.18787612156862746</v>
+        <v>0.16350274509803917</v>
       </c>
       <c r="H25" s="41">
         <f t="shared" si="5"/>
-        <v>47.908411000000001</v>
+        <v>41.69319999999999</v>
       </c>
       <c r="I25" t="s">
         <v>7</v>
@@ -4687,11 +4876,11 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="4"/>
-        <v>0.15813260952380945</v>
+        <v>0.13436952380952383</v>
       </c>
       <c r="H27" s="41">
         <f t="shared" si="5"/>
-        <v>16.603923999999992</v>
+        <v>14.108800000000002</v>
       </c>
       <c r="I27" t="s">
         <v>7</v>
@@ -4939,11 +5128,11 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="4"/>
-        <v>0.14298108888888883</v>
+        <v>0.11952888888888885</v>
       </c>
       <c r="H30" s="41">
         <f t="shared" si="5"/>
-        <v>12.868297999999996</v>
+        <v>10.757599999999996</v>
       </c>
       <c r="I30" t="s">
         <v>7</v>
@@ -5021,11 +5210,11 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="4"/>
-        <v>0.14508651111111104</v>
+        <v>0.121591111111111</v>
       </c>
       <c r="H31" s="41">
         <f t="shared" si="5"/>
-        <v>13.057785999999993</v>
+        <v>10.94319999999999</v>
       </c>
       <c r="I31" t="s">
         <v>7</v>
@@ -5103,11 +5292,11 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="4"/>
-        <v>0.14140202222222201</v>
+        <v>0.11798222222222216</v>
       </c>
       <c r="H32" s="41">
         <f t="shared" si="5"/>
-        <v>12.72618199999998</v>
+        <v>10.618399999999994</v>
       </c>
       <c r="I32" t="s">
         <v>7</v>
@@ -5185,11 +5374,11 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="4"/>
-        <v>0.14416538888888888</v>
+        <v>0.12068888888888883</v>
       </c>
       <c r="H33" s="41">
         <f t="shared" si="5"/>
-        <v>12.974885</v>
+        <v>10.861999999999995</v>
       </c>
       <c r="I33" t="s">
         <v>7</v>
@@ -5267,11 +5456,11 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="4"/>
-        <v>0.1204793888888888</v>
+        <v>9.7488888888888903E-2</v>
       </c>
       <c r="H34" s="41">
         <f t="shared" si="5"/>
-        <v>10.843144999999993</v>
+        <v>8.7740000000000009</v>
       </c>
       <c r="I34" t="s">
         <v>7</v>
@@ -5349,11 +5538,11 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="4"/>
-        <v>6.0694170370370178E-2</v>
+        <v>3.8930370370370275E-2</v>
       </c>
       <c r="H35" s="41">
         <f t="shared" si="5"/>
-        <v>8.193712999999974</v>
+        <v>5.2555999999999869</v>
       </c>
       <c r="I35" t="s">
         <v>7</v>
@@ -5435,11 +5624,11 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="4"/>
-        <v>7.2800348148148133E-2</v>
+        <v>5.0788148148148207E-2</v>
       </c>
       <c r="H36" s="41">
         <f t="shared" ref="H36" si="34">IF(G36="",$F$1*C36-B36,G36-B36)</f>
-        <v>9.828046999999998</v>
+        <v>6.8564000000000078</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
@@ -5517,11 +5706,11 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="4"/>
-        <v>7.4730318518518538E-2</v>
+        <v>5.267851851851859E-2</v>
       </c>
       <c r="H37" s="41">
         <f t="shared" ref="H37:H39" si="45">IF(G37="",$F$1*C37-B37,G37-B37)</f>
-        <v>10.088593000000003</v>
+        <v>7.1116000000000099</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -5599,11 +5788,11 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="4"/>
-        <v>7.7362096296296298E-2</v>
+        <v>5.5256296296296255E-2</v>
       </c>
       <c r="H38" s="41">
         <f t="shared" si="45"/>
-        <v>10.443883</v>
+        <v>7.4595999999999947</v>
       </c>
       <c r="I38" t="s">
         <v>7</v>
@@ -5681,11 +5870,11 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="4"/>
-        <v>5.543061481481467E-2</v>
+        <v>3.3774814814814737E-2</v>
       </c>
       <c r="H39" s="41">
         <f t="shared" si="45"/>
-        <v>7.4831329999999809</v>
+        <v>4.559599999999989</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
@@ -5763,11 +5952,11 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="4"/>
-        <v>4.385079259259244E-2</v>
+        <v>2.2432592592592417E-2</v>
       </c>
       <c r="H40" s="41">
         <f t="shared" ref="H40" si="50">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>5.9198569999999791</v>
+        <v>3.0283999999999764</v>
       </c>
       <c r="I40" t="s">
         <v>7</v>
@@ -5849,11 +6038,11 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="4"/>
-        <v>3.8060881481481422E-2</v>
+        <v>1.6761481481481471E-2</v>
       </c>
       <c r="H41" s="41">
         <f t="shared" ref="H41" si="62">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>5.1382189999999923</v>
+        <v>2.2627999999999986</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -5935,11 +6124,11 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="4"/>
-        <v>2.9639192592592449E-2</v>
+        <v>8.5125925925926479E-3</v>
       </c>
       <c r="H42" s="41">
         <f t="shared" ref="H42" si="74">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>4.0012909999999806</v>
+        <v>1.1492000000000075</v>
       </c>
       <c r="I42" t="s">
         <v>7</v>
@@ -6021,11 +6210,11 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="4"/>
-        <v>3.9639948148148162E-2</v>
+        <v>1.8308148148148112E-2</v>
       </c>
       <c r="H43" s="41">
         <f t="shared" ref="H43" si="87">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>5.3513930000000016</v>
+        <v>2.4715999999999951</v>
       </c>
       <c r="I43" t="s">
         <v>7</v>
@@ -6103,11 +6292,11 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="4"/>
-        <v>8.0695681481481388E-2</v>
+        <v>5.852148148148141E-2</v>
       </c>
       <c r="H44" s="41">
         <f t="shared" ref="H44" si="100">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>10.893916999999988</v>
+        <v>7.9003999999999905</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
@@ -6185,11 +6374,11 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="4"/>
-        <v>6.0430992592592422E-2</v>
+        <v>3.8672592592592571E-2</v>
       </c>
       <c r="H45" s="41">
         <f t="shared" ref="H45:H49" si="113">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>8.1581839999999772</v>
+        <v>5.220799999999997</v>
       </c>
       <c r="I45" t="s">
         <v>7</v>
@@ -6267,11 +6456,11 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="4"/>
-        <v>5.3676096296296313E-2</v>
+        <v>3.2056296296296222E-2</v>
       </c>
       <c r="H46" s="41">
         <f t="shared" si="113"/>
-        <v>7.2462730000000022</v>
+        <v>4.3275999999999897</v>
       </c>
       <c r="I46" t="s">
         <v>7</v>
@@ -6349,11 +6538,11 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="4"/>
-        <v>6.2097785185185078E-2</v>
+        <v>4.0305185185185041E-2</v>
       </c>
       <c r="H47" s="41">
         <f t="shared" si="113"/>
-        <v>8.3832009999999855</v>
+        <v>5.4411999999999807</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
@@ -6431,11 +6620,11 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="4"/>
-        <v>6.9115859259259158E-2</v>
+        <v>4.717925925925931E-2</v>
       </c>
       <c r="H48" s="41">
         <f t="shared" si="113"/>
-        <v>9.3306409999999858</v>
+        <v>6.3692000000000064</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
@@ -6513,11 +6702,11 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="4"/>
-        <v>5.6395599999999983E-2</v>
+        <v>3.4719999999999925E-2</v>
       </c>
       <c r="H49" s="41">
         <f t="shared" si="113"/>
-        <v>7.6134059999999977</v>
+        <v>4.68719999999999</v>
       </c>
       <c r="I49" t="s">
         <v>7</v>
@@ -6595,11 +6784,11 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="4"/>
-        <v>2.8498755555555515E-2</v>
+        <v>7.3955555555553724E-3</v>
       </c>
       <c r="H50" s="41">
         <f t="shared" ref="H50:H54" si="126">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>3.8473319999999944</v>
+        <v>0.99839999999997531</v>
       </c>
       <c r="I50" t="s">
         <v>7</v>
@@ -6677,11 +6866,11 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="4"/>
-        <v>3.3235955555555509E-2</v>
+        <v>1.2035555555555506E-2</v>
       </c>
       <c r="H51" s="41">
         <f t="shared" si="126"/>
-        <v>4.4868539999999939</v>
+        <v>1.6247999999999934</v>
       </c>
       <c r="I51" t="s">
         <v>7</v>
@@ -6759,11 +6948,11 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="4"/>
-        <v>3.2885051851851629E-2</v>
+        <v>1.1691851851851762E-2</v>
       </c>
       <c r="H52" s="41">
         <f t="shared" si="126"/>
-        <v>4.4394819999999697</v>
+        <v>1.5783999999999878</v>
       </c>
       <c r="I52" t="s">
         <v>7</v>
@@ -6841,11 +7030,11 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="4"/>
-        <v>3.2534148148148166E-2</v>
+        <v>1.1348148148148017E-2</v>
       </c>
       <c r="H53" s="41">
         <f t="shared" si="126"/>
-        <v>4.3921100000000024</v>
+        <v>1.5319999999999823</v>
       </c>
       <c r="I53" t="s">
         <v>7</v>
@@ -6923,11 +7112,11 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="4"/>
-        <v>3.3235955555555509E-2</v>
+        <v>1.2035555555555506E-2</v>
       </c>
       <c r="H54" s="41">
         <f t="shared" si="126"/>
-        <v>4.4868539999999939</v>
+        <v>1.6247999999999934</v>
       </c>
       <c r="I54" t="s">
         <v>7</v>
@@ -7006,11 +7195,11 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="4"/>
-        <v>5.700968148148141E-2</v>
+        <v>3.5321481481481377E-2</v>
       </c>
       <c r="H55" s="41">
         <f t="shared" ref="H55:H59" si="139">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>7.6963069999999902</v>
+        <v>4.7683999999999855</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
@@ -7088,11 +7277,11 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="4"/>
-        <v>6.8501777777777731E-2</v>
+        <v>4.6577777777777649E-2</v>
       </c>
       <c r="H56" s="41">
         <f t="shared" si="139"/>
-        <v>9.2477399999999932</v>
+        <v>6.2879999999999825</v>
       </c>
       <c r="I56" t="s">
         <v>7</v>
@@ -7170,11 +7359,11 @@
       </c>
       <c r="F57" s="37">
         <f t="shared" si="4"/>
-        <v>5.7185133333333242E-2</v>
+        <v>3.5493333333333245E-2</v>
       </c>
       <c r="H57" s="41">
         <f t="shared" si="139"/>
-        <v>7.7199929999999881</v>
+        <v>4.7915999999999883</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
@@ -7252,11 +7441,11 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="4"/>
-        <v>6.0957348148148141E-2</v>
+        <v>3.9188148148147979E-2</v>
       </c>
       <c r="H58" s="41">
         <f t="shared" si="139"/>
-        <v>8.2292419999999993</v>
+        <v>5.2903999999999769</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -7334,11 +7523,11 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="4"/>
-        <v>2.3586103703703683E-2</v>
+        <v>2.5837037037037876E-3</v>
       </c>
       <c r="H59" s="41">
         <f t="shared" si="139"/>
-        <v>3.1841239999999971</v>
+        <v>0.34880000000001132</v>
       </c>
       <c r="I59" t="s">
         <v>7</v>
@@ -7420,11 +7609,11 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="4"/>
-        <v>-1.6789629629630344E-3</v>
+        <v>-2.2162962962963099E-2</v>
       </c>
       <c r="H60" s="41">
         <f t="shared" ref="H60" si="152">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>-0.22666000000000963</v>
+        <v>-2.9920000000000186</v>
       </c>
       <c r="I60" t="s">
         <v>7</v>
@@ -7506,11 +7695,11 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" ref="F61:F63" si="165">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>-1.1526074074075261E-3</v>
+        <v>-2.1647407407407483E-2</v>
       </c>
       <c r="H61" s="41">
         <f t="shared" ref="H61:H63" si="166">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>-0.15560200000001601</v>
+        <v>-2.9224000000000103</v>
       </c>
       <c r="I61" t="s">
         <v>7</v>
@@ -7588,11 +7777,11 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="165"/>
-        <v>-1.3171059259259352E-2</v>
+        <v>-3.3419259259259378E-2</v>
       </c>
       <c r="H62" s="41">
         <f t="shared" si="166"/>
-        <v>-1.7780930000000126</v>
+        <v>-4.5116000000000156</v>
       </c>
       <c r="I62" t="s">
         <v>7</v>
@@ -7674,11 +7863,11 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="165"/>
-        <v>-2.2557733333333375E-2</v>
+        <v>-4.2613333333333378E-2</v>
       </c>
       <c r="H63" s="41">
         <f t="shared" si="166"/>
-        <v>-2.7069280000000049</v>
+        <v>-5.1136000000000053</v>
       </c>
       <c r="I63" t="s">
         <v>7</v>
@@ -7756,11 +7945,11 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" ref="F64:F68" si="179">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-2.1768199999999994E-2</v>
+        <v>-4.1840000000000072E-2</v>
       </c>
       <c r="H64" s="41">
         <f t="shared" ref="H64:H68" si="180">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-2.6121839999999992</v>
+        <v>-5.0208000000000084</v>
       </c>
       <c r="I64" t="s">
         <v>7</v>
@@ -7842,11 +8031,11 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="179"/>
-        <v>-2.5814558333333439E-2</v>
+        <v>-4.5803333333333404E-2</v>
       </c>
       <c r="H65" s="41">
         <f t="shared" si="180"/>
-        <v>-3.0977470000000125</v>
+        <v>-5.4964000000000084</v>
       </c>
       <c r="I65" t="s">
         <v>7</v>
@@ -7924,11 +8113,11 @@
       </c>
       <c r="F66" s="37">
         <f t="shared" si="179"/>
-        <v>-2.8183158333333461E-2</v>
+        <v>-4.8123333333333441E-2</v>
       </c>
       <c r="H66" s="41">
         <f t="shared" si="180"/>
-        <v>-3.3819790000000154</v>
+        <v>-5.7748000000000133</v>
       </c>
       <c r="I66" t="s">
         <v>7</v>
@@ -8006,11 +8195,11 @@
       </c>
       <c r="F67" s="37">
         <f t="shared" si="179"/>
-        <v>-7.9513666666668325E-3</v>
+        <v>-2.8306666666666775E-2</v>
       </c>
       <c r="H67" s="41">
         <f t="shared" si="180"/>
-        <v>-0.95416400000002</v>
+        <v>-3.3968000000000131</v>
       </c>
       <c r="I67" t="s">
         <v>7</v>
@@ -8088,11 +8277,11 @@
       </c>
       <c r="F68" s="37">
         <f t="shared" si="179"/>
-        <v>-5.7801500000001244E-3</v>
+        <v>-2.6180000000000092E-2</v>
       </c>
       <c r="H68" s="41">
         <f t="shared" si="180"/>
-        <v>-0.69361800000001494</v>
+        <v>-3.1416000000000111</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
@@ -8170,11 +8359,11 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" ref="F69:F73" si="194">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>-2.7207083333334954E-3</v>
+        <v>-2.3183333333333424E-2</v>
       </c>
       <c r="H69" s="41">
         <f t="shared" ref="H69:H73" si="195">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>-0.32648500000001945</v>
+        <v>-2.7820000000000107</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
@@ -8252,11 +8441,11 @@
       </c>
       <c r="F70" s="37">
         <f t="shared" si="194"/>
-        <v>-2.790901481481485E-2</v>
+        <v>-4.785481481481476E-2</v>
       </c>
       <c r="H70" s="41">
         <f t="shared" si="195"/>
-        <v>-3.7677170000000046</v>
+        <v>-6.4603999999999928</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
@@ -8334,11 +8523,11 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="194"/>
-        <v>-2.8281850000000119E-2</v>
+        <v>-4.8220000000000124E-2</v>
       </c>
       <c r="H71" s="41">
         <f t="shared" si="195"/>
-        <v>-3.3938220000000143</v>
+        <v>-5.7864000000000146</v>
       </c>
       <c r="I71" t="s">
         <v>7</v>
@@ -8416,11 +8605,11 @@
       </c>
       <c r="F72" s="37">
         <f t="shared" si="194"/>
-        <v>-2.4926333333333398E-2</v>
+        <v>-4.4933333333333415E-2</v>
       </c>
       <c r="H72" s="41">
         <f t="shared" si="195"/>
-        <v>-2.9911600000000078</v>
+        <v>-5.3920000000000101</v>
       </c>
       <c r="I72" t="s">
         <v>7</v>
@@ -8498,11 +8687,11 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="194"/>
-        <v>-3.5782416666666705E-2</v>
+        <v>-5.5566666666666722E-2</v>
       </c>
       <c r="H73" s="41">
         <f t="shared" si="195"/>
-        <v>-4.2938900000000046</v>
+        <v>-6.6680000000000064</v>
       </c>
       <c r="I73" t="s">
         <v>7</v>
@@ -8584,11 +8773,11 @@
       </c>
       <c r="F74" s="37">
         <f t="shared" ref="F74:F78" si="208">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
-        <v>-1.4267633333333408E-2</v>
+        <v>-3.4493333333333473E-2</v>
       </c>
       <c r="H74" s="41">
         <f t="shared" ref="H74:H78" si="209">IF(G74="",$F$1*C74-B74,G74-B74)</f>
-        <v>-1.7121160000000089</v>
+        <v>-4.1392000000000166</v>
       </c>
       <c r="I74" t="s">
         <v>7</v>
@@ -8666,11 +8855,11 @@
       </c>
       <c r="F75" s="37">
         <f t="shared" si="208"/>
-        <v>-1.2787258333333421E-2</v>
+        <v>-3.3043333333333418E-2</v>
       </c>
       <c r="H75" s="41">
         <f t="shared" si="209"/>
-        <v>-1.5344710000000106</v>
+        <v>-3.96520000000001</v>
       </c>
       <c r="I75" t="s">
         <v>7</v>
@@ -8748,11 +8937,11 @@
       </c>
       <c r="F76" s="37">
         <f t="shared" si="208"/>
-        <v>-1.5254550000000104E-2</v>
+        <v>-3.5460000000000019E-2</v>
       </c>
       <c r="H76" s="41">
         <f t="shared" si="209"/>
-        <v>-1.8305460000000124</v>
+        <v>-4.2552000000000021</v>
       </c>
       <c r="I76" t="s">
         <v>7</v>
@@ -8830,11 +9019,11 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="208"/>
-        <v>5.5693916666665899E-3</v>
+        <v>-1.5063333333333399E-2</v>
       </c>
       <c r="H77" s="41">
         <f t="shared" si="209"/>
-        <v>0.66832699999999079</v>
+        <v>-1.8076000000000079</v>
       </c>
       <c r="I77" t="s">
         <v>7</v>
@@ -8912,11 +9101,11 @@
       </c>
       <c r="F78" s="37">
         <f t="shared" si="208"/>
-        <v>1.8322548148147967E-2</v>
+        <v>-2.5718518518519635E-3</v>
       </c>
       <c r="H78" s="41">
         <f t="shared" si="209"/>
-        <v>2.4735439999999755</v>
+        <v>-0.34720000000001505</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -8994,11 +9183,11 @@
       </c>
       <c r="F79" s="37">
         <f t="shared" ref="F79:F80" si="222">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
-        <v>1.5603044444444297E-2</v>
+        <v>-5.2355555555556694E-3</v>
       </c>
       <c r="H79" s="41">
         <f t="shared" ref="H79:H80" si="223">IF(G79="",$F$1*C79-B79,G79-B79)</f>
-        <v>2.10641099999998</v>
+        <v>-0.70680000000001542</v>
       </c>
       <c r="I79" t="s">
         <v>7</v>
@@ -9076,11 +9265,11 @@
       </c>
       <c r="F80" s="37">
         <f t="shared" si="222"/>
-        <v>1.2444911111111037E-2</v>
+        <v>-8.3288888888889516E-3</v>
       </c>
       <c r="H80" s="41">
         <f t="shared" si="223"/>
-        <v>1.6800629999999899</v>
+        <v>-1.1244000000000085</v>
       </c>
       <c r="I80" t="s">
         <v>7</v>
@@ -9158,11 +9347,11 @@
       </c>
       <c r="F81" s="37">
         <f t="shared" ref="F81" si="236">IF(G81="",($F$1*C81-B81)/B81,H81/B81)</f>
-        <v>7.139673333333324E-2</v>
+        <v>4.9413333333333226E-2</v>
       </c>
       <c r="H81" s="41">
         <f t="shared" ref="H81" si="237">IF(G81="",$F$1*C81-B81,G81-B81)</f>
-        <v>9.6385589999999866</v>
+        <v>6.6707999999999856</v>
       </c>
       <c r="I81" t="s">
         <v>7</v>
@@ -9240,11 +9429,11 @@
       </c>
       <c r="F82" s="37">
         <f t="shared" ref="F82:F85" si="250">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
-        <v>6.1571429629629568E-2</v>
+        <v>3.9789629629629633E-2</v>
       </c>
       <c r="H82" s="41">
         <f t="shared" ref="H82:H85" si="251">IF(G82="",$F$1*C82-B82,G82-B82)</f>
-        <v>8.3121429999999918</v>
+        <v>5.3716000000000008</v>
       </c>
       <c r="I82" t="s">
         <v>7</v>
@@ -9322,11 +9511,11 @@
       </c>
       <c r="F83" s="37">
         <f t="shared" si="250"/>
-        <v>7.5870755555555475E-2</v>
+        <v>5.3795555555555444E-2</v>
       </c>
       <c r="H83" s="41">
         <f t="shared" si="251"/>
-        <v>10.242551999999989</v>
+        <v>7.2623999999999853</v>
       </c>
       <c r="I83" t="s">
         <v>7</v>
@@ -9404,11 +9593,11 @@
       </c>
       <c r="F84" s="37">
         <f t="shared" si="250"/>
-        <v>9.4907281481481379E-2</v>
+        <v>7.2441481481481398E-2</v>
       </c>
       <c r="H84" s="41">
         <f t="shared" si="251"/>
-        <v>12.812482999999986</v>
+        <v>9.7795999999999879</v>
       </c>
       <c r="I84" t="s">
         <v>7</v>
@@ -9486,11 +9675,11 @@
       </c>
       <c r="F85" s="37">
         <f t="shared" si="250"/>
-        <v>5.8764199999999982E-2</v>
+        <v>3.7039999999999886E-2</v>
       </c>
       <c r="H85" s="41">
         <f t="shared" si="251"/>
-        <v>7.9331669999999974</v>
+        <v>5.0003999999999849</v>
       </c>
       <c r="I85" t="s">
         <v>7</v>
@@ -9568,11 +9757,11 @@
       </c>
       <c r="F86" s="37">
         <f t="shared" ref="F86:F90" si="264">IF(G86="",($F$1*C86-B86)/B86,H86/B86)</f>
-        <v>7.551985185185181E-2</v>
+        <v>5.3451851851851702E-2</v>
       </c>
       <c r="H86" s="41">
         <f t="shared" ref="H86:H90" si="265">IF(G86="",$F$1*C86-B86,G86-B86)</f>
-        <v>10.195179999999993</v>
+        <v>7.2159999999999798</v>
       </c>
       <c r="I86" t="s">
         <v>7</v>
@@ -9650,11 +9839,11 @@
       </c>
       <c r="F87" s="37">
         <f t="shared" si="264"/>
-        <v>8.1923844444444241E-2</v>
+        <v>5.9724444444444309E-2</v>
       </c>
       <c r="H87" s="41">
         <f t="shared" si="265"/>
-        <v>11.059718999999973</v>
+        <v>8.0627999999999815</v>
       </c>
       <c r="I87" t="s">
         <v>7</v>
@@ -9732,11 +9921,11 @@
       </c>
       <c r="F88" s="37">
         <f t="shared" si="264"/>
-        <v>5.9202829629629569E-2</v>
+        <v>3.7469629629629464E-2</v>
       </c>
       <c r="H88" s="41">
         <f t="shared" si="265"/>
-        <v>7.9923819999999921</v>
+        <v>5.0583999999999776</v>
       </c>
       <c r="I88" t="s">
         <v>7</v>
@@ -9814,11 +10003,11 @@
       </c>
       <c r="F89" s="37">
         <f t="shared" si="264"/>
-        <v>5.4904259259259167E-2</v>
+        <v>3.3259259259259114E-2</v>
       </c>
       <c r="H89" s="41">
         <f t="shared" si="265"/>
-        <v>7.4120749999999873</v>
+        <v>4.4899999999999807</v>
       </c>
       <c r="I89" t="s">
         <v>7</v>
@@ -9896,11 +10085,11 @@
       </c>
       <c r="F90" s="37">
         <f t="shared" si="264"/>
-        <v>8.1134311111110982E-2</v>
+        <v>5.8951111111110989E-2</v>
       </c>
       <c r="H90" s="41">
         <f t="shared" si="265"/>
-        <v>10.953131999999982</v>
+        <v>7.9583999999999833</v>
       </c>
       <c r="I90" t="s">
         <v>7</v>
@@ -9978,11 +10167,11 @@
       </c>
       <c r="F91" s="37">
         <f t="shared" ref="F91:F96" si="278">IF(G91="",($F$1*C91-B91)/B91,H91/B91)</f>
-        <v>8.9731451851851787E-2</v>
+        <v>6.7371851851851683E-2</v>
       </c>
       <c r="H91" s="41">
         <f t="shared" ref="H91:H96" si="279">IF(G91="",$F$1*C91-B91,G91-B91)</f>
-        <v>12.113745999999992</v>
+        <v>9.0951999999999771</v>
       </c>
       <c r="I91" t="s">
         <v>7</v>
@@ -10060,11 +10249,11 @@
       </c>
       <c r="F92" s="37">
         <f t="shared" si="278"/>
-        <v>7.5958481481481391E-2</v>
+        <v>5.3881481481481489E-2</v>
       </c>
       <c r="H92" s="41">
         <f t="shared" si="279"/>
-        <v>10.254394999999988</v>
+        <v>7.2740000000000009</v>
       </c>
       <c r="I92" t="s">
         <v>7</v>
@@ -10142,11 +10331,11 @@
       </c>
       <c r="F93" s="37">
         <f t="shared" si="278"/>
-        <v>8.0695681481481388E-2</v>
+        <v>5.852148148148141E-2</v>
       </c>
       <c r="H93" s="41">
         <f t="shared" si="279"/>
-        <v>10.893916999999988</v>
+        <v>7.9003999999999905</v>
       </c>
       <c r="I93" t="s">
         <v>7</v>
@@ -10224,11 +10413,11 @@
       </c>
       <c r="F94" s="37">
         <f t="shared" si="278"/>
-        <v>9.7889962962963012E-2</v>
+        <v>7.5362962962963007E-2</v>
       </c>
       <c r="H94" s="41">
         <f t="shared" si="279"/>
-        <v>13.215145000000007</v>
+        <v>10.174000000000007</v>
       </c>
       <c r="I94" t="s">
         <v>7</v>
@@ -10306,11 +10495,11 @@
       </c>
       <c r="F95" s="37">
         <f t="shared" si="278"/>
-        <v>9.4819555555555463E-2</v>
+        <v>7.2355555555555562E-2</v>
       </c>
       <c r="H95" s="41">
         <f t="shared" si="279"/>
-        <v>12.800639999999987</v>
+        <v>9.7680000000000007</v>
       </c>
       <c r="I95" t="s">
         <v>7</v>
@@ -10388,11 +10577,11 @@
       </c>
       <c r="F96" s="37">
         <f t="shared" si="278"/>
-        <v>8.2011570370370365E-2</v>
+        <v>5.9810370370370347E-2</v>
       </c>
       <c r="H96" s="41">
         <f t="shared" si="279"/>
-        <v>11.071562</v>
+        <v>8.0743999999999971</v>
       </c>
       <c r="I96" t="s">
         <v>7</v>
@@ -10470,11 +10659,11 @@
       </c>
       <c r="F97" s="37">
         <f t="shared" ref="F97:F100" si="292">IF(G97="",($F$1*C97-B97)/B97,H97/B97)</f>
-        <v>7.1923088888888737E-2</v>
+        <v>4.9928888888888842E-2</v>
       </c>
       <c r="H97" s="41">
         <f t="shared" ref="H97:H100" si="293">IF(G97="",$F$1*C97-B97,G97-B97)</f>
-        <v>9.7096169999999802</v>
+        <v>6.740399999999994</v>
       </c>
       <c r="I97" t="s">
         <v>7</v>
@@ -10552,11 +10741,11 @@
       </c>
       <c r="F98" s="37">
         <f t="shared" si="292"/>
-        <v>7.4028511111110987E-2</v>
+        <v>5.1991111111111099E-2</v>
       </c>
       <c r="H98" s="41">
         <f t="shared" si="293"/>
-        <v>9.9938489999999831</v>
+        <v>7.0187999999999988</v>
       </c>
       <c r="I98" t="s">
         <v>7</v>
@@ -10634,11 +10823,11 @@
       </c>
       <c r="F99" s="37">
         <f t="shared" si="292"/>
-        <v>7.9730696296296297E-2</v>
+        <v>5.7576296296296216E-2</v>
       </c>
       <c r="H99" s="41">
         <f t="shared" si="293"/>
-        <v>10.763643999999999</v>
+        <v>7.7727999999999895</v>
       </c>
       <c r="I99" t="s">
         <v>7</v>
@@ -10716,11 +10905,11 @@
       </c>
       <c r="F100" s="37">
         <f t="shared" si="292"/>
-        <v>8.2274748148148127E-2</v>
+        <v>6.0068148148148051E-2</v>
       </c>
       <c r="H100" s="41">
         <f t="shared" si="293"/>
-        <v>11.107090999999997</v>
+        <v>8.1091999999999871</v>
       </c>
       <c r="I100" t="s">
         <v>7</v>
@@ -10798,11 +10987,11 @@
       </c>
       <c r="F101" s="37">
         <f t="shared" ref="F101" si="306">IF(G101="",($F$1*C101-B101)/B101,H101/B101)</f>
-        <v>8.1222037037036898E-2</v>
+        <v>5.9037037037037027E-2</v>
       </c>
       <c r="H101" s="41">
         <f t="shared" ref="H101" si="307">IF(G101="",$F$1*C101-B101,G101-B101)</f>
-        <v>10.964974999999981</v>
+        <v>7.9699999999999989</v>
       </c>
       <c r="I101" t="s">
         <v>7</v>
@@ -10880,11 +11069,11 @@
       </c>
       <c r="F102" s="37">
         <f t="shared" ref="F102:F104" si="320">IF(G102="",($F$1*C102-B102)/B102,H102/B102)</f>
-        <v>9.0608711111110976E-2</v>
+        <v>6.8231111111111048E-2</v>
       </c>
       <c r="H102" s="41">
         <f t="shared" ref="H102:H104" si="321">IF(G102="",$F$1*C102-B102,G102-B102)</f>
-        <v>12.232175999999981</v>
+        <v>9.211199999999991</v>
       </c>
       <c r="I102" t="s">
         <v>7</v>
@@ -10962,11 +11151,11 @@
       </c>
       <c r="F103" s="37">
         <f t="shared" si="320"/>
-        <v>9.0696437037036892E-2</v>
+        <v>6.8317037037036871E-2</v>
       </c>
       <c r="H103" s="41">
         <f t="shared" si="321"/>
-        <v>12.24401899999998</v>
+        <v>9.2227999999999781</v>
       </c>
       <c r="I103" t="s">
         <v>7</v>
@@ -11044,11 +11233,11 @@
       </c>
       <c r="F104" s="37">
         <f t="shared" si="320"/>
-        <v>9.9819933333333208E-2</v>
+        <v>7.7253333333333396E-2</v>
       </c>
       <c r="H104" s="41">
         <f t="shared" si="321"/>
-        <v>13.475690999999983</v>
+        <v>10.429200000000009</v>
       </c>
       <c r="I104" t="s">
         <v>7</v>
@@ -11126,11 +11315,11 @@
       </c>
       <c r="F105" s="37">
         <f t="shared" ref="F105:F109" si="335">IF(G105="",($F$1*C105-B105)/B105,H105/B105)</f>
-        <v>8.6748770370370154E-2</v>
+        <v>6.4450370370370269E-2</v>
       </c>
       <c r="H105" s="41">
         <f t="shared" ref="H105:H109" si="336">IF(G105="",$F$1*C105-B105,G105-B105)</f>
-        <v>11.711083999999971</v>
+        <v>8.7007999999999868</v>
       </c>
       <c r="I105" t="s">
         <v>7</v>
@@ -11208,11 +11397,11 @@
       </c>
       <c r="F106" s="37">
         <f t="shared" si="335"/>
-        <v>5.5693792592592641E-2</v>
+        <v>3.4032592592592649E-2</v>
       </c>
       <c r="H106" s="41">
         <f t="shared" si="336"/>
-        <v>7.5186620000000062</v>
+        <v>4.5944000000000074</v>
       </c>
       <c r="I106" t="s">
         <v>7</v>
@@ -11290,11 +11479,11 @@
       </c>
       <c r="F107" s="37">
         <f t="shared" si="335"/>
-        <v>6.3150496296296099E-2</v>
+        <v>4.1336296296296274E-2</v>
       </c>
       <c r="H107" s="41">
         <f t="shared" si="336"/>
-        <v>8.5253169999999727</v>
+        <v>5.5803999999999974</v>
       </c>
       <c r="I107" t="s">
         <v>7</v>
@@ -11372,11 +11561,11 @@
       </c>
       <c r="F108" s="37">
         <f t="shared" si="335"/>
-        <v>6.4641837037036909E-2</v>
+        <v>4.2797037037036877E-2</v>
       </c>
       <c r="H108" s="41">
         <f t="shared" si="336"/>
-        <v>8.7266479999999831</v>
+        <v>5.7775999999999783</v>
       </c>
       <c r="I108" t="s">
         <v>7</v>
@@ -11454,11 +11643,11 @@
       </c>
       <c r="F109" s="37">
         <f t="shared" si="335"/>
-        <v>7.2273992592592623E-2</v>
+        <v>5.0272592592592591E-2</v>
       </c>
       <c r="H109" s="41">
         <f t="shared" si="336"/>
-        <v>9.7569890000000044</v>
+        <v>6.7867999999999995</v>
       </c>
       <c r="I109" t="s">
         <v>7</v>
@@ -11536,11 +11725,11 @@
       </c>
       <c r="F110" s="37">
         <f t="shared" ref="F110:F114" si="350">IF(G110="",($F$1*C110-B110)/B110,H110/B110)</f>
-        <v>7.2449444444444455E-2</v>
+        <v>5.0444444444444458E-2</v>
       </c>
       <c r="H110" s="41">
         <f t="shared" ref="H110:H114" si="351">IF(G110="",$F$1*C110-B110,G110-B110)</f>
-        <v>9.7806750000000022</v>
+        <v>6.8100000000000023</v>
       </c>
       <c r="I110" t="s">
         <v>7</v>
@@ -11618,11 +11807,11 @@
       </c>
       <c r="F111" s="37">
         <f t="shared" si="350"/>
-        <v>6.9028133333333241E-2</v>
+        <v>4.7093333333333265E-2</v>
       </c>
       <c r="H111" s="41">
         <f t="shared" si="351"/>
-        <v>9.3187979999999868</v>
+        <v>6.3575999999999908</v>
       </c>
       <c r="I111" t="s">
         <v>7</v>
@@ -11700,11 +11889,11 @@
       </c>
       <c r="F112" s="37">
         <f t="shared" si="350"/>
-        <v>5.4026999999999985E-2</v>
+        <v>3.2399999999999964E-2</v>
       </c>
       <c r="H112" s="41">
         <f t="shared" si="351"/>
-        <v>7.2936449999999979</v>
+        <v>4.3739999999999952</v>
       </c>
       <c r="I112" t="s">
         <v>7</v>
@@ -11782,11 +11971,11 @@
       </c>
       <c r="F113" s="37">
         <f t="shared" si="350"/>
-        <v>2.4551088888888781E-2</v>
+        <v>3.5288888888887699E-3</v>
       </c>
       <c r="H113" s="41">
         <f t="shared" si="351"/>
-        <v>3.3143969999999854</v>
+        <v>0.47639999999998395</v>
       </c>
       <c r="I113" t="s">
         <v>7</v>
@@ -11864,11 +12053,11 @@
       </c>
       <c r="F114" s="37">
         <f t="shared" si="350"/>
-        <v>2.314747407407388E-2</v>
+        <v>2.1540740740740015E-3</v>
       </c>
       <c r="H114" s="41">
         <f t="shared" si="351"/>
-        <v>3.124908999999974</v>
+        <v>0.29079999999999018</v>
       </c>
       <c r="I114" t="s">
         <v>7</v>
@@ -11929,7 +12118,7 @@
     </row>
     <row r="115" spans="1:24">
       <c r="A115" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B115">
         <v>135</v>
@@ -11946,17 +12135,17 @@
       </c>
       <c r="F115" s="37">
         <f t="shared" ref="F115:F119" si="365">IF(G115="",($F$1*C115-B115)/B115,H115/B115)</f>
-        <v>2.1217503703703684E-2</v>
+        <v>2.6370370370361546E-4</v>
       </c>
       <c r="H115" s="41">
         <f t="shared" ref="H115:H119" si="366">IF(G115="",$F$1*C115-B115,G115-B115)</f>
-        <v>2.8643629999999973</v>
+        <v>3.5599999999988086E-2</v>
       </c>
       <c r="I115" t="s">
         <v>7</v>
       </c>
       <c r="J115" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K115" s="2">
         <f t="shared" ref="K115:K119" si="367">D115*C115</f>
@@ -12011,7 +12200,7 @@
     </row>
     <row r="116" spans="1:24">
       <c r="A116" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B116">
         <v>135</v>
@@ -12028,17 +12217,17 @@
       </c>
       <c r="F116" s="37">
         <f t="shared" si="365"/>
-        <v>3.1305985185185105E-2</v>
+        <v>1.014518518518512E-2</v>
       </c>
       <c r="H116" s="41">
         <f t="shared" si="366"/>
-        <v>4.2263079999999889</v>
+        <v>1.3695999999999913</v>
       </c>
       <c r="I116" t="s">
         <v>7</v>
       </c>
       <c r="J116" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K116" s="2">
         <f t="shared" si="367"/>
@@ -12093,7 +12282,7 @@
     </row>
     <row r="117" spans="1:24">
       <c r="A117" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B117">
         <v>135</v>
@@ -12110,17 +12299,17 @@
       </c>
       <c r="F117" s="37">
         <f t="shared" si="365"/>
-        <v>3.2797325925925921E-2</v>
+        <v>1.1605925925925931E-2</v>
       </c>
       <c r="H117" s="41">
         <f t="shared" si="366"/>
-        <v>4.4276389999999992</v>
+        <v>1.5668000000000006</v>
       </c>
       <c r="I117" t="s">
         <v>7</v>
       </c>
       <c r="J117" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K117" s="2">
         <f t="shared" si="367"/>
@@ -12175,7 +12364,7 @@
     </row>
     <row r="118" spans="1:24">
       <c r="A118" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B118">
         <v>135</v>
@@ -12192,17 +12381,17 @@
       </c>
       <c r="F118" s="37">
         <f t="shared" si="365"/>
-        <v>2.2007037037036947E-2</v>
+        <v>1.037037037036936E-3</v>
       </c>
       <c r="H118" s="41">
         <f t="shared" si="366"/>
-        <v>2.9709499999999878</v>
+        <v>0.13999999999998636</v>
       </c>
       <c r="I118" t="s">
         <v>7</v>
       </c>
       <c r="J118" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K118" s="2">
         <f t="shared" si="367"/>
@@ -12257,7 +12446,7 @@
     </row>
     <row r="119" spans="1:24">
       <c r="A119" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B119">
         <v>135</v>
@@ -12274,17 +12463,17 @@
       </c>
       <c r="F119" s="37">
         <f t="shared" si="365"/>
-        <v>2.3498377777777763E-2</v>
+        <v>2.4977777777777459E-3</v>
       </c>
       <c r="H119" s="41">
         <f t="shared" si="366"/>
-        <v>3.1722809999999981</v>
+        <v>0.33719999999999573</v>
       </c>
       <c r="I119" t="s">
         <v>7</v>
       </c>
       <c r="J119" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K119" s="2">
         <f t="shared" si="367"/>
@@ -12335,6 +12524,826 @@
       <c r="X119" s="1">
         <f t="shared" si="378"/>
         <v>0.20867412647075592</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
+      <c r="A120" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B120">
+        <v>135</v>
+      </c>
+      <c r="C120" s="33">
+        <v>113.58</v>
+      </c>
+      <c r="D120" s="34">
+        <v>1.1874</v>
+      </c>
+      <c r="E120" s="19">
+        <f t="shared" ref="E120" si="379">10%*M120+13%</f>
+        <v>0.219909928</v>
+      </c>
+      <c r="F120" s="37">
+        <f t="shared" ref="F120" si="380">IF(G120="",($F$1*C120-B120)/B120,H120/B120)</f>
+        <v>-2.4053333333333485E-2</v>
+      </c>
+      <c r="H120" s="41">
+        <f t="shared" ref="H120" si="381">IF(G120="",$F$1*C120-B120,G120-B120)</f>
+        <v>-3.2472000000000207</v>
+      </c>
+      <c r="I120" t="s">
+        <v>7</v>
+      </c>
+      <c r="J120" t="s">
+        <v>455</v>
+      </c>
+      <c r="K120" s="2">
+        <f t="shared" ref="K120" si="382">D120*C120</f>
+        <v>134.864892</v>
+      </c>
+      <c r="L120" s="2">
+        <f t="shared" ref="L120" si="383">B120-K120</f>
+        <v>0.13510800000000245</v>
+      </c>
+      <c r="M120" s="1">
+        <f t="shared" ref="M120" si="384">K120/150</f>
+        <v>0.89909927999999995</v>
+      </c>
+      <c r="N120" s="6">
+        <f t="shared" ref="N120" si="385">N119+C120-P120</f>
+        <v>12205.62</v>
+      </c>
+      <c r="O120" s="2">
+        <f t="shared" ref="O120" si="386">N120*D120</f>
+        <v>14492.953188000001</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="6">
+        <f t="shared" ref="R120" si="387">R119+Q120</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S120" s="6">
+        <f t="shared" ref="S120" si="388">R120+O120</f>
+        <v>18179.083188000001</v>
+      </c>
+      <c r="T120">
+        <f t="shared" ref="T120" si="389">T119+B120</f>
+        <v>16515</v>
+      </c>
+      <c r="U120" s="6">
+        <f t="shared" ref="U120" si="390">S120-T120</f>
+        <v>1664.0831880000005</v>
+      </c>
+      <c r="V120" s="4">
+        <f t="shared" ref="V120" si="391">S120/T120-1</f>
+        <v>0.10076192479564039</v>
+      </c>
+      <c r="W120" s="4">
+        <f t="shared" ref="W120" si="392">O120/(T120-R120)-1</f>
+        <v>0.1297139333394135</v>
+      </c>
+      <c r="X120" s="1">
+        <f t="shared" ref="X120" si="393">R120/S120</f>
+        <v>0.20276765125499902</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
+      <c r="A121" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B121">
+        <v>135</v>
+      </c>
+      <c r="C121" s="33">
+        <v>113.55</v>
+      </c>
+      <c r="D121" s="34">
+        <v>1.1878</v>
+      </c>
+      <c r="E121" s="19">
+        <f t="shared" ref="E121:E124" si="394">10%*M121+13%</f>
+        <v>0.21991645999999998</v>
+      </c>
+      <c r="F121" s="37">
+        <f t="shared" ref="F121:F124" si="395">IF(G121="",($F$1*C121-B121)/B121,H121/B121)</f>
+        <v>-2.431111111111119E-2</v>
+      </c>
+      <c r="H121" s="41">
+        <f t="shared" ref="H121:H124" si="396">IF(G121="",$F$1*C121-B121,G121-B121)</f>
+        <v>-3.2820000000000107</v>
+      </c>
+      <c r="I121" t="s">
+        <v>7</v>
+      </c>
+      <c r="J121" t="s">
+        <v>457</v>
+      </c>
+      <c r="K121" s="2">
+        <f t="shared" ref="K121:K124" si="397">D121*C121</f>
+        <v>134.87468999999999</v>
+      </c>
+      <c r="L121" s="2">
+        <f t="shared" ref="L121:L124" si="398">B121-K121</f>
+        <v>0.12531000000001313</v>
+      </c>
+      <c r="M121" s="1">
+        <f t="shared" ref="M121:M124" si="399">K121/150</f>
+        <v>0.89916459999999987</v>
+      </c>
+      <c r="N121" s="6">
+        <f t="shared" ref="N121:N124" si="400">N120+C121-P121</f>
+        <v>12319.17</v>
+      </c>
+      <c r="O121" s="2">
+        <f t="shared" ref="O121:O124" si="401">N121*D121</f>
+        <v>14632.710126</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="6">
+        <f t="shared" ref="R121:R124" si="402">R120+Q121</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S121" s="6">
+        <f t="shared" ref="S121:S124" si="403">R121+O121</f>
+        <v>18318.840125999999</v>
+      </c>
+      <c r="T121">
+        <f t="shared" ref="T121:T124" si="404">T120+B121</f>
+        <v>16650</v>
+      </c>
+      <c r="U121" s="6">
+        <f t="shared" ref="U121:U124" si="405">S121-T121</f>
+        <v>1668.8401259999991</v>
+      </c>
+      <c r="V121" s="4">
+        <f t="shared" ref="V121:V124" si="406">S121/T121-1</f>
+        <v>0.10023063819819811</v>
+      </c>
+      <c r="W121" s="4">
+        <f t="shared" ref="W121:W124" si="407">O121/(T121-R121)-1</f>
+        <v>0.12873008800612773</v>
+      </c>
+      <c r="X121" s="1">
+        <f t="shared" ref="X121:X124" si="408">R121/S121</f>
+        <v>0.20122070909763884</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
+      <c r="A122" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B122">
+        <v>135</v>
+      </c>
+      <c r="C122" s="33">
+        <v>114.7</v>
+      </c>
+      <c r="D122" s="34">
+        <v>1.1758999999999999</v>
+      </c>
+      <c r="E122" s="19">
+        <f t="shared" si="394"/>
+        <v>0.21991715333333334</v>
+      </c>
+      <c r="F122" s="37">
+        <f t="shared" si="395"/>
+        <v>-1.4429629629629685E-2</v>
+      </c>
+      <c r="H122" s="41">
+        <f t="shared" si="396"/>
+        <v>-1.9480000000000075</v>
+      </c>
+      <c r="I122" t="s">
+        <v>7</v>
+      </c>
+      <c r="J122" t="s">
+        <v>459</v>
+      </c>
+      <c r="K122" s="2">
+        <f t="shared" si="397"/>
+        <v>134.87573</v>
+      </c>
+      <c r="L122" s="2">
+        <f t="shared" si="398"/>
+        <v>0.12426999999999566</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" si="399"/>
+        <v>0.89917153333333333</v>
+      </c>
+      <c r="N122" s="6">
+        <f t="shared" si="400"/>
+        <v>12433.87</v>
+      </c>
+      <c r="O122" s="2">
+        <f t="shared" si="401"/>
+        <v>14620.987733</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="6">
+        <f t="shared" si="402"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S122" s="6">
+        <f t="shared" si="403"/>
+        <v>18307.117732999999</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="404"/>
+        <v>16785</v>
+      </c>
+      <c r="U122" s="6">
+        <f t="shared" si="405"/>
+        <v>1522.1177329999991</v>
+      </c>
+      <c r="V122" s="4">
+        <f t="shared" si="406"/>
+        <v>9.0683213166517618E-2</v>
+      </c>
+      <c r="W122" s="4">
+        <f t="shared" si="407"/>
+        <v>0.11620221690878663</v>
+      </c>
+      <c r="X122" s="1">
+        <f t="shared" si="408"/>
+        <v>0.20134955451537107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
+      <c r="A123" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B123">
+        <v>135</v>
+      </c>
+      <c r="C123" s="33">
+        <v>115.26</v>
+      </c>
+      <c r="D123" s="34">
+        <v>1.1700999999999999</v>
+      </c>
+      <c r="E123" s="19">
+        <f t="shared" si="394"/>
+        <v>0.21991048400000002</v>
+      </c>
+      <c r="F123" s="37">
+        <f t="shared" si="395"/>
+        <v>-9.6177777777778899E-3</v>
+      </c>
+      <c r="H123" s="41">
+        <f t="shared" si="396"/>
+        <v>-1.2984000000000151</v>
+      </c>
+      <c r="I123" t="s">
+        <v>7</v>
+      </c>
+      <c r="J123" t="s">
+        <v>461</v>
+      </c>
+      <c r="K123" s="2">
+        <f t="shared" si="397"/>
+        <v>134.865726</v>
+      </c>
+      <c r="L123" s="2">
+        <f t="shared" si="398"/>
+        <v>0.13427400000000489</v>
+      </c>
+      <c r="M123" s="1">
+        <f t="shared" si="399"/>
+        <v>0.89910484000000002</v>
+      </c>
+      <c r="N123" s="6">
+        <f t="shared" si="400"/>
+        <v>12549.130000000001</v>
+      </c>
+      <c r="O123" s="2">
+        <f t="shared" si="401"/>
+        <v>14683.737013</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="6">
+        <f t="shared" si="402"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S123" s="6">
+        <f t="shared" si="403"/>
+        <v>18369.867012999999</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="404"/>
+        <v>16920</v>
+      </c>
+      <c r="U123" s="6">
+        <f t="shared" si="405"/>
+        <v>1449.8670129999991</v>
+      </c>
+      <c r="V123" s="4">
+        <f t="shared" si="406"/>
+        <v>8.5689539775413603E-2</v>
+      </c>
+      <c r="W123" s="4">
+        <f t="shared" si="407"/>
+        <v>0.10955729601393993</v>
+      </c>
+      <c r="X123" s="1">
+        <f t="shared" si="408"/>
+        <v>0.20066176839447977</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
+      <c r="A124" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B124">
+        <v>135</v>
+      </c>
+      <c r="C124" s="33">
+        <v>114.67</v>
+      </c>
+      <c r="D124" s="34">
+        <v>1.1761999999999999</v>
+      </c>
+      <c r="E124" s="19">
+        <f t="shared" si="394"/>
+        <v>0.21991656933333334</v>
+      </c>
+      <c r="F124" s="37">
+        <f t="shared" si="395"/>
+        <v>-1.4687407407407389E-2</v>
+      </c>
+      <c r="H124" s="41">
+        <f t="shared" si="396"/>
+        <v>-1.9827999999999975</v>
+      </c>
+      <c r="I124" t="s">
+        <v>7</v>
+      </c>
+      <c r="J124" t="s">
+        <v>463</v>
+      </c>
+      <c r="K124" s="2">
+        <f t="shared" si="397"/>
+        <v>134.874854</v>
+      </c>
+      <c r="L124" s="2">
+        <f t="shared" si="398"/>
+        <v>0.12514600000000087</v>
+      </c>
+      <c r="M124" s="1">
+        <f t="shared" si="399"/>
+        <v>0.89916569333333329</v>
+      </c>
+      <c r="N124" s="6">
+        <f t="shared" si="400"/>
+        <v>12663.800000000001</v>
+      </c>
+      <c r="O124" s="2">
+        <f t="shared" si="401"/>
+        <v>14895.16156</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="6">
+        <f t="shared" si="402"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S124" s="6">
+        <f t="shared" si="403"/>
+        <v>18581.291560000001</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="404"/>
+        <v>17055</v>
+      </c>
+      <c r="U124" s="6">
+        <f t="shared" si="405"/>
+        <v>1526.2915600000015</v>
+      </c>
+      <c r="V124" s="4">
+        <f t="shared" si="406"/>
+        <v>8.9492322486074638E-2</v>
+      </c>
+      <c r="W124" s="4">
+        <f t="shared" si="407"/>
+        <v>0.11416758185246767</v>
+      </c>
+      <c r="X124" s="1">
+        <f t="shared" si="408"/>
+        <v>0.19837856739383725</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
+      <c r="A125" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B125">
+        <v>135</v>
+      </c>
+      <c r="C125" s="33">
+        <v>117.19</v>
+      </c>
+      <c r="D125" s="34">
+        <v>1.1509</v>
+      </c>
+      <c r="E125" s="19">
+        <f t="shared" ref="E125:E129" si="409">10%*M125+13%</f>
+        <v>0.21991598066666668</v>
+      </c>
+      <c r="F125" s="37">
+        <f t="shared" ref="F125:F129" si="410">IF(G125="",($F$1*C125-B125)/B125,H125/B125)</f>
+        <v>6.9659259259257965E-3</v>
+      </c>
+      <c r="H125" s="41">
+        <f t="shared" ref="H125:H129" si="411">IF(G125="",$F$1*C125-B125,G125-B125)</f>
+        <v>0.94039999999998258</v>
+      </c>
+      <c r="I125" t="s">
+        <v>7</v>
+      </c>
+      <c r="J125" t="s">
+        <v>471</v>
+      </c>
+      <c r="K125" s="2">
+        <f t="shared" ref="K125:K129" si="412">D125*C125</f>
+        <v>134.87397100000001</v>
+      </c>
+      <c r="L125" s="2">
+        <f t="shared" ref="L125:L129" si="413">B125-K125</f>
+        <v>0.1260289999999884</v>
+      </c>
+      <c r="M125" s="1">
+        <f t="shared" ref="M125:M129" si="414">K125/150</f>
+        <v>0.89915980666666673</v>
+      </c>
+      <c r="N125" s="6">
+        <f t="shared" ref="N125:N129" si="415">N124+C125-P125</f>
+        <v>12780.990000000002</v>
+      </c>
+      <c r="O125" s="2">
+        <f t="shared" ref="O125:O129" si="416">N125*D125</f>
+        <v>14709.641391000003</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="6">
+        <f t="shared" ref="R125:R129" si="417">R124+Q125</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S125" s="6">
+        <f t="shared" ref="S125:S129" si="418">R125+O125</f>
+        <v>18395.771391000002</v>
+      </c>
+      <c r="T125">
+        <f t="shared" ref="T125:T129" si="419">T124+B125</f>
+        <v>17190</v>
+      </c>
+      <c r="U125" s="6">
+        <f t="shared" ref="U125:U129" si="420">S125-T125</f>
+        <v>1205.771391000002</v>
+      </c>
+      <c r="V125" s="4">
+        <f t="shared" ref="V125:V129" si="421">S125/T125-1</f>
+        <v>7.0143769109947796E-2</v>
+      </c>
+      <c r="W125" s="4">
+        <f t="shared" ref="W125:W129" si="422">O125/(T125-R125)-1</f>
+        <v>8.9290802636577737E-2</v>
+      </c>
+      <c r="X125" s="1">
+        <f t="shared" ref="X125:X129" si="423">R125/S125</f>
+        <v>0.20037920246189905</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
+      <c r="A126" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B126">
+        <v>135</v>
+      </c>
+      <c r="C126" s="33">
+        <v>117.37</v>
+      </c>
+      <c r="D126" s="34">
+        <v>1.1491</v>
+      </c>
+      <c r="E126" s="19">
+        <f t="shared" si="409"/>
+        <v>0.21991324466666667</v>
+      </c>
+      <c r="F126" s="37">
+        <f t="shared" si="410"/>
+        <v>8.5125925925926479E-3</v>
+      </c>
+      <c r="H126" s="41">
+        <f t="shared" si="411"/>
+        <v>1.1492000000000075</v>
+      </c>
+      <c r="I126" t="s">
+        <v>7</v>
+      </c>
+      <c r="J126" t="s">
+        <v>473</v>
+      </c>
+      <c r="K126" s="2">
+        <f t="shared" si="412"/>
+        <v>134.869867</v>
+      </c>
+      <c r="L126" s="2">
+        <f t="shared" si="413"/>
+        <v>0.13013300000000072</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" si="414"/>
+        <v>0.8991324466666667</v>
+      </c>
+      <c r="N126" s="6">
+        <f t="shared" si="415"/>
+        <v>12898.360000000002</v>
+      </c>
+      <c r="O126" s="2">
+        <f t="shared" si="416"/>
+        <v>14821.505476000002</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="6">
+        <f t="shared" si="417"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S126" s="6">
+        <f t="shared" si="418"/>
+        <v>18507.635476000003</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="419"/>
+        <v>17325</v>
+      </c>
+      <c r="U126" s="6">
+        <f t="shared" si="420"/>
+        <v>1182.6354760000031</v>
+      </c>
+      <c r="V126" s="4">
+        <f t="shared" si="421"/>
+        <v>6.8261787936508167E-2</v>
+      </c>
+      <c r="W126" s="4">
+        <f t="shared" si="422"/>
+        <v>8.6710664153262007E-2</v>
+      </c>
+      <c r="X126" s="1">
+        <f t="shared" si="423"/>
+        <v>0.19916806794579636</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
+      <c r="A127" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B127">
+        <v>135</v>
+      </c>
+      <c r="C127" s="33">
+        <v>117.51</v>
+      </c>
+      <c r="D127" s="34">
+        <v>1.1476999999999999</v>
+      </c>
+      <c r="E127" s="19">
+        <f t="shared" si="409"/>
+        <v>0.21991081800000001</v>
+      </c>
+      <c r="F127" s="37">
+        <f t="shared" si="410"/>
+        <v>9.715555555555545E-3</v>
+      </c>
+      <c r="H127" s="41">
+        <f t="shared" si="411"/>
+        <v>1.3115999999999985</v>
+      </c>
+      <c r="I127" t="s">
+        <v>7</v>
+      </c>
+      <c r="J127" t="s">
+        <v>475</v>
+      </c>
+      <c r="K127" s="2">
+        <f t="shared" si="412"/>
+        <v>134.86622700000001</v>
+      </c>
+      <c r="L127" s="2">
+        <f t="shared" si="413"/>
+        <v>0.13377299999999082</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" si="414"/>
+        <v>0.89910818000000003</v>
+      </c>
+      <c r="N127" s="6">
+        <f t="shared" si="415"/>
+        <v>13015.870000000003</v>
+      </c>
+      <c r="O127" s="2">
+        <f t="shared" si="416"/>
+        <v>14938.313999000002</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="6">
+        <f t="shared" si="417"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S127" s="6">
+        <f t="shared" si="418"/>
+        <v>18624.443999000003</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="419"/>
+        <v>17460</v>
+      </c>
+      <c r="U127" s="6">
+        <f t="shared" si="420"/>
+        <v>1164.4439990000028</v>
+      </c>
+      <c r="V127" s="4">
+        <f t="shared" si="421"/>
+        <v>6.6692096162657588E-2</v>
+      </c>
+      <c r="W127" s="4">
+        <f t="shared" si="422"/>
+        <v>8.454007472119307E-2</v>
+      </c>
+      <c r="X127" s="1">
+        <f t="shared" si="423"/>
+        <v>0.19791892848978032</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
+      <c r="A128" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B128">
+        <v>135</v>
+      </c>
+      <c r="C128" s="33">
+        <v>117.45</v>
+      </c>
+      <c r="D128" s="34">
+        <v>1.1483000000000001</v>
+      </c>
+      <c r="E128" s="19">
+        <f t="shared" si="409"/>
+        <v>0.21991189</v>
+      </c>
+      <c r="F128" s="37">
+        <f t="shared" si="410"/>
+        <v>9.199999999999927E-3</v>
+      </c>
+      <c r="H128" s="41">
+        <f t="shared" si="411"/>
+        <v>1.2419999999999902</v>
+      </c>
+      <c r="I128" t="s">
+        <v>7</v>
+      </c>
+      <c r="J128" t="s">
+        <v>477</v>
+      </c>
+      <c r="K128" s="2">
+        <f t="shared" si="412"/>
+        <v>134.86783500000001</v>
+      </c>
+      <c r="L128" s="2">
+        <f t="shared" si="413"/>
+        <v>0.13216499999998632</v>
+      </c>
+      <c r="M128" s="1">
+        <f t="shared" si="414"/>
+        <v>0.89911890000000005</v>
+      </c>
+      <c r="N128" s="6">
+        <f t="shared" si="415"/>
+        <v>13133.320000000003</v>
+      </c>
+      <c r="O128" s="2">
+        <f t="shared" si="416"/>
+        <v>15080.991356000006</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="6">
+        <f t="shared" si="417"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S128" s="6">
+        <f t="shared" si="418"/>
+        <v>18767.121356000007</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="419"/>
+        <v>17595</v>
+      </c>
+      <c r="U128" s="6">
+        <f t="shared" si="420"/>
+        <v>1172.1213560000069</v>
+      </c>
+      <c r="V128" s="4">
+        <f t="shared" si="421"/>
+        <v>6.6616729525433849E-2</v>
+      </c>
+      <c r="W128" s="4">
+        <f t="shared" si="422"/>
+        <v>8.4271501279399752E-2</v>
+      </c>
+      <c r="X128" s="1">
+        <f t="shared" si="423"/>
+        <v>0.1964142464939895</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
+      <c r="A129" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B129">
+        <v>135</v>
+      </c>
+      <c r="C129" s="33">
+        <v>116.59</v>
+      </c>
+      <c r="D129" s="34">
+        <v>1.1568000000000001</v>
+      </c>
+      <c r="E129" s="19">
+        <f t="shared" si="409"/>
+        <v>0.219914208</v>
+      </c>
+      <c r="F129" s="37">
+        <f t="shared" si="410"/>
+        <v>1.8103703703702565E-3</v>
+      </c>
+      <c r="H129" s="41">
+        <f t="shared" si="411"/>
+        <v>0.24439999999998463</v>
+      </c>
+      <c r="I129" t="s">
+        <v>7</v>
+      </c>
+      <c r="J129" t="s">
+        <v>479</v>
+      </c>
+      <c r="K129" s="2">
+        <f t="shared" si="412"/>
+        <v>134.87131200000002</v>
+      </c>
+      <c r="L129" s="2">
+        <f t="shared" si="413"/>
+        <v>0.12868799999998259</v>
+      </c>
+      <c r="M129" s="1">
+        <f t="shared" si="414"/>
+        <v>0.89914208000000007</v>
+      </c>
+      <c r="N129" s="6">
+        <f t="shared" si="415"/>
+        <v>13249.910000000003</v>
+      </c>
+      <c r="O129" s="2">
+        <f t="shared" si="416"/>
+        <v>15327.495888000005</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="6">
+        <f t="shared" si="417"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S129" s="6">
+        <f t="shared" si="418"/>
+        <v>19013.625888000006</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="419"/>
+        <v>17730</v>
+      </c>
+      <c r="U129" s="6">
+        <f t="shared" si="420"/>
+        <v>1283.6258880000059</v>
+      </c>
+      <c r="V129" s="4">
+        <f t="shared" si="421"/>
+        <v>7.2398527241963162E-2</v>
+      </c>
+      <c r="W129" s="4">
+        <f t="shared" si="422"/>
+        <v>9.1401151392031199E-2</v>
+      </c>
+      <c r="X129" s="1">
+        <f t="shared" si="423"/>
+        <v>0.19386780941800333</v>
       </c>
     </row>
   </sheetData>
@@ -12400,7 +13409,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F119">
+  <conditionalFormatting sqref="F2:F129">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -12463,13 +13472,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y120"/>
+  <dimension ref="A1:Y130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G128" sqref="G128"/>
+      <selection pane="bottomRight" activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12512,14 +13521,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="38">
-        <v>0.88519999999999999</v>
+        <v>0.86109999999999998</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="46" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19973),2)</f>
-        <v>盈利1224.9</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19971),2)</f>
+        <v>盈利896.83</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -15343,12 +16352,12 @@
       </c>
       <c r="F35" s="36">
         <f t="shared" si="1"/>
-        <v>1.1067009523809528E-2</v>
+        <v>-1.6459780952380869E-2</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="40">
         <f t="shared" si="2"/>
-        <v>1.1620360000000005</v>
+        <v>-1.7282769999999914</v>
       </c>
       <c r="I35" t="s">
         <v>7</v>
@@ -15426,12 +16435,12 @@
       </c>
       <c r="F36" s="36">
         <f t="shared" si="1"/>
-        <v>1.2275377777777723E-2</v>
+        <v>-1.5284311111111195E-2</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="40">
         <f t="shared" si="2"/>
-        <v>1.1047839999999951</v>
+        <v>-1.3755880000000076</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
@@ -15509,12 +16518,12 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="1"/>
-        <v>1.630795555555551E-2</v>
+        <v>-1.136152222222222E-2</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="40">
         <f t="shared" si="2"/>
-        <v>1.4677159999999958</v>
+        <v>-1.0225369999999998</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -15592,12 +16601,12 @@
       </c>
       <c r="F38" s="36">
         <f t="shared" si="1"/>
-        <v>1.5029333333333422E-2</v>
+        <v>-1.2605333333333293E-2</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="40">
         <f t="shared" si="2"/>
-        <v>1.3526400000000081</v>
+        <v>-1.1344799999999964</v>
       </c>
       <c r="I38" t="s">
         <v>7</v>
@@ -15675,12 +16684,12 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="1"/>
-        <v>7.1608888888889059E-3</v>
+        <v>-2.0259555555555489E-2</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="40">
         <f t="shared" si="2"/>
-        <v>0.6444800000000015</v>
+        <v>-1.8233599999999939</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
@@ -15758,12 +16767,12 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="1"/>
-        <v>-9.6251259259260129E-3</v>
+        <v>-3.6588562962963013E-2</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="40">
         <f t="shared" ref="H40" si="58">IF(G40="",$F$1*C40-B40,G40-B40)</f>
-        <v>-1.2993920000000116</v>
+        <v>-4.939456000000007</v>
       </c>
       <c r="I40" t="s">
         <v>7</v>
@@ -15841,12 +16850,12 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="1"/>
-        <v>-3.3820592592592728E-2</v>
+        <v>-6.0125296296296336E-2</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="40">
         <f t="shared" ref="H41" si="70">IF(G41="",$F$1*C41-B41,G41-B41)</f>
-        <v>-4.5657800000000179</v>
+        <v>-8.1169150000000059</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -15928,12 +16937,12 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="1"/>
-        <v>-4.942634074074085E-2</v>
+        <v>-7.5306170370370434E-2</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="40">
         <f t="shared" ref="H42" si="82">IF(G42="",$F$1*C42-B42,G42-B42)</f>
-        <v>-6.6725560000000144</v>
+        <v>-10.166333000000009</v>
       </c>
       <c r="I42" t="s">
         <v>7</v>
@@ -16015,12 +17024,12 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="1"/>
-        <v>-6.0966725925925926E-2</v>
+        <v>-8.6532362962962905E-2</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="40">
         <f t="shared" ref="H43" si="95">IF(G43="",$F$1*C43-B43,G43-B43)</f>
-        <v>-8.2305080000000004</v>
+        <v>-11.681868999999992</v>
       </c>
       <c r="I43" t="s">
         <v>7</v>
@@ -16102,12 +17111,12 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="1"/>
-        <v>-2.7591407407407412E-2</v>
+        <v>-5.4065703703703658E-2</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="40">
         <f t="shared" ref="H44" si="108">IF(G44="",$F$1*C44-B44,G44-B44)</f>
-        <v>-3.7248400000000004</v>
+        <v>-7.2988699999999938</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
@@ -16185,12 +17194,12 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="1"/>
-        <v>-6.201585185185176E-2</v>
+        <v>-8.7552925925925881E-2</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="40">
         <f t="shared" ref="H45:H49" si="121">IF(G45="",$F$1*C45-B45,G45-B45)</f>
-        <v>-8.3721399999999875</v>
+        <v>-11.819644999999994</v>
       </c>
       <c r="I45" t="s">
         <v>7</v>
@@ -16268,12 +17277,12 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="1"/>
-        <v>-7.6965896296296257E-2</v>
+        <v>-0.10209594814814808</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="40">
         <f t="shared" si="121"/>
-        <v>-10.390395999999996</v>
+        <v>-13.782952999999992</v>
       </c>
       <c r="I46" t="s">
         <v>7</v>
@@ -16351,12 +17360,12 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="1"/>
-        <v>-5.6507940740740885E-2</v>
+        <v>-8.2194970370370504E-2</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="40">
         <f t="shared" si="121"/>
-        <v>-7.6285720000000197</v>
+        <v>-11.096321000000017</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
@@ -16434,12 +17443,12 @@
       </c>
       <c r="F48" s="36">
         <f t="shared" si="1"/>
-        <v>-3.532871111111107E-2</v>
+        <v>-6.1592355555555506E-2</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="40">
         <f t="shared" si="121"/>
-        <v>-4.7693759999999941</v>
+        <v>-8.3149679999999933</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
@@ -16517,12 +17526,12 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="1"/>
-        <v>-4.5426548148147998E-2</v>
+        <v>-7.1415274074074012E-2</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="40">
         <f t="shared" si="121"/>
-        <v>-6.1325839999999801</v>
+        <v>-9.6410619999999909</v>
       </c>
       <c r="I49" t="s">
         <v>7</v>
@@ -16600,12 +17609,12 @@
       </c>
       <c r="F50" s="36">
         <f t="shared" si="1"/>
-        <v>-6.8769599999999986E-2</v>
+        <v>-9.4122799999999951E-2</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="40">
         <f t="shared" ref="H50:H54" si="134">IF(G50="",$F$1*C50-B50,G50-B50)</f>
-        <v>-9.2838959999999986</v>
+        <v>-12.706577999999993</v>
       </c>
       <c r="I50" t="s">
         <v>7</v>
@@ -16683,12 +17692,12 @@
       </c>
       <c r="F51" s="36">
         <f t="shared" si="1"/>
-        <v>-7.2113688888889013E-2</v>
+        <v>-9.7375844444444484E-2</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="40">
         <f t="shared" si="134"/>
-        <v>-9.7353480000000161</v>
+        <v>-13.145739000000006</v>
       </c>
       <c r="I51" t="s">
         <v>7</v>
@@ -16770,12 +17779,12 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="1"/>
-        <v>-7.086785185185196E-2</v>
+        <v>-9.6163925925926014E-2</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="40">
         <f t="shared" si="134"/>
-        <v>-9.5671600000000154</v>
+        <v>-12.982130000000012</v>
       </c>
       <c r="I52" t="s">
         <v>7</v>
@@ -16853,12 +17862,12 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="1"/>
-        <v>-8.2801659259259267E-2</v>
+        <v>-0.10777282962962968</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="40">
         <f t="shared" si="134"/>
-        <v>-11.178224</v>
+        <v>-14.549332000000007</v>
       </c>
       <c r="I53" t="s">
         <v>7</v>
@@ -16940,12 +17949,12 @@
       </c>
       <c r="F54" s="36">
         <f t="shared" si="1"/>
-        <v>-8.7785007407407425E-2</v>
+        <v>-0.11262050370370368</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="40">
         <f t="shared" si="134"/>
-        <v>-11.850976000000003</v>
+        <v>-15.203767999999997</v>
       </c>
       <c r="I54" t="s">
         <v>7</v>
@@ -17024,12 +18033,12 @@
       </c>
       <c r="F55" s="36">
         <f t="shared" si="1"/>
-        <v>-7.6638044444444456E-2</v>
+        <v>-0.1017770222222223</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="40">
         <f t="shared" ref="H55:H59" si="147">IF(G55="",$F$1*C55-B55,G55-B55)</f>
-        <v>-10.346136000000001</v>
+        <v>-13.739898000000011</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
@@ -17107,12 +18116,12 @@
       </c>
       <c r="F56" s="36">
         <f t="shared" si="1"/>
-        <v>-5.1524592592592511E-2</v>
+        <v>-7.7347296296296289E-2</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="40">
         <f t="shared" si="147"/>
-        <v>-6.9558199999999886</v>
+        <v>-10.441884999999999</v>
       </c>
       <c r="I56" t="s">
         <v>7</v>
@@ -17190,12 +18199,12 @@
       </c>
       <c r="F57" s="36">
         <f t="shared" si="1"/>
-        <v>-5.9983170370370292E-2</v>
+        <v>-8.5575585185185127E-2</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="40">
         <f t="shared" si="147"/>
-        <v>-8.0977279999999894</v>
+        <v>-11.552703999999991</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
@@ -17273,12 +18282,12 @@
       </c>
       <c r="F58" s="36">
         <f t="shared" si="1"/>
-        <v>-4.7328088888888974E-2</v>
+        <v>-7.3265044444444469E-2</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="40">
         <f t="shared" si="147"/>
-        <v>-6.3892920000000117</v>
+        <v>-9.890781000000004</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -17356,12 +18365,12 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="1"/>
-        <v>-7.6310192592592543E-2</v>
+        <v>-0.1014580962962963</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="40">
         <f t="shared" si="147"/>
-        <v>-10.301875999999993</v>
+        <v>-13.696843000000001</v>
       </c>
       <c r="I59" t="s">
         <v>7</v>
@@ -17439,12 +18448,12 @@
       </c>
       <c r="F60" s="36">
         <f t="shared" si="1"/>
-        <v>-0.10830853333333332</v>
+        <v>-0.13258526666666667</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="40">
         <f t="shared" ref="H60" si="160">IF(G60="",$F$1*C60-B60,G60-B60)</f>
-        <v>-14.621651999999997</v>
+        <v>-17.899011000000002</v>
       </c>
       <c r="I60" t="s">
         <v>7</v>
@@ -17526,12 +18535,12 @@
       </c>
       <c r="F61" s="36">
         <f t="shared" ref="F61:F63" si="173">IF(G61="",($F$1*C61-B61)/B61,H61/B61)</f>
-        <v>-0.11099691851851839</v>
+        <v>-0.13520045925925922</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="40">
         <f t="shared" ref="H61:H63" si="174">IF(G61="",$F$1*C61-B61,G61-B61)</f>
-        <v>-14.984583999999984</v>
+        <v>-18.252061999999995</v>
       </c>
       <c r="I61" t="s">
         <v>7</v>
@@ -17609,12 +18618,12 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="173"/>
-        <v>-0.11974236666666667</v>
+        <v>-0.14370780833333338</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="40">
         <f t="shared" si="174"/>
-        <v>-14.369084000000001</v>
+        <v>-17.244937000000007</v>
       </c>
       <c r="I62" t="s">
         <v>7</v>
@@ -17696,12 +18705,12 @@
       </c>
       <c r="F63" s="36">
         <f t="shared" si="173"/>
-        <v>-0.12483226666666666</v>
+        <v>-0.1486591333333333</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="40">
         <f t="shared" si="174"/>
-        <v>-14.979872</v>
+        <v>-17.839095999999998</v>
       </c>
       <c r="I63" t="s">
         <v>7</v>
@@ -17783,12 +18792,12 @@
       </c>
       <c r="F64" s="36">
         <f t="shared" ref="F64:F68" si="187">IF(G64="",($F$1*C64-B64)/B64,H64/B64)</f>
-        <v>-0.12129146666666664</v>
+        <v>-0.14521473333333337</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="40">
         <f t="shared" ref="H64:H68" si="188">IF(G64="",$F$1*C64-B64,G64-B64)</f>
-        <v>-14.554975999999996</v>
+        <v>-17.425768000000005</v>
       </c>
       <c r="I64" t="s">
         <v>7</v>
@@ -17866,12 +18875,12 @@
       </c>
       <c r="F65" s="36">
         <f t="shared" si="187"/>
-        <v>-0.12276680000000001</v>
+        <v>-0.1466499</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="40">
         <f t="shared" si="188"/>
-        <v>-14.732016000000002</v>
+        <v>-17.597988000000001</v>
       </c>
       <c r="I65" t="s">
         <v>7</v>
@@ -17949,12 +18958,12 @@
       </c>
       <c r="F66" s="36">
         <f t="shared" si="187"/>
-        <v>-0.12180783333333332</v>
+        <v>-0.14571704166666671</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="40">
         <f t="shared" si="188"/>
-        <v>-14.61694</v>
+        <v>-17.486045000000004</v>
       </c>
       <c r="I66" t="s">
         <v>7</v>
@@ -18032,12 +19041,12 @@
       </c>
       <c r="F67" s="36">
         <f t="shared" si="187"/>
-        <v>-0.1038087666666667</v>
+        <v>-0.12820800833333337</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="40">
         <f t="shared" si="188"/>
-        <v>-12.457052000000004</v>
+        <v>-15.384961000000004</v>
       </c>
       <c r="I67" t="s">
         <v>7</v>
@@ -18115,12 +19124,12 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="187"/>
-        <v>-0.10175149629629629</v>
+        <v>-0.12620674814814811</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="40">
         <f t="shared" si="188"/>
-        <v>-13.736452</v>
+        <v>-17.037910999999994</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
@@ -18198,12 +19207,12 @@
       </c>
       <c r="F69" s="36">
         <f t="shared" ref="F69:F73" si="202">IF(G69="",($F$1*C69-B69)/B69,H69/B69)</f>
-        <v>-9.2571644444444601E-2</v>
+        <v>-0.11727682222222229</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="40">
         <f t="shared" ref="H69:H73" si="203">IF(G69="",$F$1*C69-B69,G69-B69)</f>
-        <v>-12.49717200000002</v>
+        <v>-15.832371000000009</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
@@ -18281,12 +19290,12 @@
       </c>
       <c r="F70" s="36">
         <f t="shared" si="202"/>
-        <v>-0.11053792592592589</v>
+        <v>-0.13475396296296294</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="40">
         <f t="shared" si="203"/>
-        <v>-14.922619999999995</v>
+        <v>-18.191784999999996</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
@@ -18364,12 +19373,12 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="202"/>
-        <v>-0.11487376666666667</v>
+        <v>-0.13897175833333339</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="40">
         <f t="shared" si="203"/>
-        <v>-13.784852000000001</v>
+        <v>-16.676611000000008</v>
       </c>
       <c r="I71" t="s">
         <v>7</v>
@@ -18447,12 +19456,12 @@
       </c>
       <c r="F72" s="36">
         <f t="shared" si="202"/>
-        <v>-0.11015270000000008</v>
+        <v>-0.1343792250000001</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="40">
         <f t="shared" si="203"/>
-        <v>-13.21832400000001</v>
+        <v>-16.125507000000013</v>
       </c>
       <c r="I72" t="s">
         <v>7</v>
@@ -18530,12 +19539,12 @@
       </c>
       <c r="F73" s="36">
         <f t="shared" si="202"/>
-        <v>-0.11531636666666666</v>
+        <v>-0.13940230833333325</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="40">
         <f t="shared" si="203"/>
-        <v>-13.837963999999999</v>
+        <v>-16.728276999999991</v>
       </c>
       <c r="I73" t="s">
         <v>7</v>
@@ -18613,12 +19622,12 @@
       </c>
       <c r="F74" s="36">
         <f t="shared" ref="F74:F78" si="216">IF(G74="",($F$1*C74-B74)/B74,H74/B74)</f>
-        <v>-0.10248096666666662</v>
+        <v>-0.12691635833333331</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="40">
         <f t="shared" ref="H74:H78" si="217">IF(G74="",$F$1*C74-B74,G74-B74)</f>
-        <v>-12.297715999999994</v>
+        <v>-15.229962999999998</v>
       </c>
       <c r="I74" t="s">
         <v>7</v>
@@ -18696,12 +19705,12 @@
       </c>
       <c r="F75" s="36">
         <f t="shared" si="216"/>
-        <v>-8.8440711111111042E-2</v>
+        <v>-0.11325835555555547</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="40">
         <f t="shared" si="217"/>
-        <v>-11.939495999999991</v>
+        <v>-15.289877999999987</v>
       </c>
       <c r="I75" t="s">
         <v>7</v>
@@ -18779,12 +19788,12 @@
       </c>
       <c r="F76" s="36">
         <f t="shared" si="216"/>
-        <v>-9.6374725925925914E-2</v>
+        <v>-0.12097636296296302</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="40">
         <f t="shared" si="217"/>
-        <v>-13.010587999999998</v>
+        <v>-16.331809000000007</v>
       </c>
       <c r="I76" t="s">
         <v>7</v>
@@ -18862,12 +19871,12 @@
       </c>
       <c r="F77" s="36">
         <f t="shared" si="216"/>
-        <v>-6.1294577777777845E-2</v>
+        <v>-8.6851288888888906E-2</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="40">
         <f t="shared" si="217"/>
-        <v>-8.2747680000000088</v>
+        <v>-11.724924000000001</v>
       </c>
       <c r="I77" t="s">
         <v>7</v>
@@ -18945,12 +19954,12 @@
       </c>
       <c r="F78" s="36">
         <f t="shared" si="216"/>
-        <v>-5.3360562962962974E-2</v>
+        <v>-7.9133281481481452E-2</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="40">
         <f t="shared" si="217"/>
-        <v>-7.2036760000000015</v>
+        <v>-10.682992999999996</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -19028,12 +20037,12 @@
       </c>
       <c r="F79" s="36">
         <f t="shared" ref="F79:F80" si="230">IF(G79="",($F$1*C79-B79)/B79,H79/B79)</f>
-        <v>-2.9033955555555453E-2</v>
+        <v>-5.5468977777777727E-2</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="40">
         <f t="shared" ref="H79:H80" si="231">IF(G79="",$F$1*C79-B79,G79-B79)</f>
-        <v>-3.9195839999999862</v>
+        <v>-7.4883119999999934</v>
       </c>
       <c r="I79" t="s">
         <v>7</v>
@@ -19111,12 +20120,12 @@
       </c>
       <c r="F80" s="36">
         <f t="shared" si="230"/>
-        <v>-3.6049985185185193E-2</v>
+        <v>-6.2293992592592697E-2</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="40">
         <f t="shared" si="231"/>
-        <v>-4.8667480000000012</v>
+        <v>-8.4096890000000144</v>
       </c>
       <c r="I80" t="s">
         <v>7</v>
@@ -19194,12 +20203,12 @@
       </c>
       <c r="F81" s="36">
         <f t="shared" ref="F81" si="244">IF(G81="",($F$1*C81-B81)/B81,H81/B81)</f>
-        <v>3.7847822222222181E-2</v>
+        <v>9.5919111111110542E-3</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="40">
         <f t="shared" ref="H81" si="245">IF(G81="",$F$1*C81-B81,G81-B81)</f>
-        <v>5.1094559999999944</v>
+        <v>1.2949079999999924</v>
       </c>
       <c r="I81" t="s">
         <v>7</v>
@@ -19277,12 +20286,12 @@
       </c>
       <c r="F82" s="36">
         <f t="shared" ref="F82:F84" si="258">IF(G82="",($F$1*C82-B82)/B82,H82/B82)</f>
-        <v>2.486488888888895E-2</v>
+        <v>-3.0375555555555898E-3</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="40">
         <f t="shared" ref="H82:H84" si="259">IF(G82="",$F$1*C82-B82,G82-B82)</f>
-        <v>2.2378400000000056</v>
+        <v>-0.27338000000000306</v>
       </c>
       <c r="I82" t="s">
         <v>7</v>
@@ -19360,12 +20369,12 @@
       </c>
       <c r="F83" s="36">
         <f t="shared" si="258"/>
-        <v>2.9192533333333395E-2</v>
+        <v>1.1722666666666253E-3</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="40">
         <f t="shared" si="259"/>
-        <v>2.6273280000000057</v>
+        <v>0.10550399999999627</v>
       </c>
       <c r="I83" t="s">
         <v>7</v>
@@ -19443,12 +20452,12 @@
       </c>
       <c r="F84" s="36">
         <f t="shared" si="258"/>
-        <v>4.079848888888888E-2</v>
+        <v>1.2462244444444397E-2</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="40">
         <f t="shared" si="259"/>
-        <v>3.6718639999999994</v>
+        <v>1.1216019999999958</v>
       </c>
       <c r="I84" t="s">
         <v>7</v>
@@ -19609,12 +20618,12 @@
       </c>
       <c r="F86" s="36">
         <f t="shared" si="271"/>
-        <v>6.6691111111110346E-3</v>
+        <v>-2.0737944444444482E-2</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="40">
         <f t="shared" si="272"/>
-        <v>0.60021999999999309</v>
+        <v>-1.8664150000000035</v>
       </c>
       <c r="I86" t="s">
         <v>7</v>
@@ -19696,12 +20705,12 @@
       </c>
       <c r="F87" s="36">
         <f t="shared" ref="F87:F91" si="286">IF(G87="",($F$1*C87-B87)/B87,H87/B87)</f>
-        <v>1.7914429629629719E-2</v>
+        <v>-9.7987851851851493E-3</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="40">
         <f t="shared" ref="H87:H91" si="287">IF(G87="",$F$1*C87-B87,G87-B87)</f>
-        <v>2.4184480000000121</v>
+        <v>-1.3228359999999952</v>
       </c>
       <c r="I87" t="s">
         <v>7</v>
@@ -19779,12 +20788,12 @@
       </c>
       <c r="F88" s="36">
         <f t="shared" si="286"/>
-        <v>2.5127170370370357E-2</v>
+        <v>-2.782414814814897E-3</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="40">
         <f t="shared" si="287"/>
-        <v>3.3921679999999981</v>
+        <v>-0.37562600000001112</v>
       </c>
       <c r="I88" t="s">
         <v>7</v>
@@ -19862,12 +20871,12 @@
       </c>
       <c r="F89" s="36">
         <f t="shared" si="286"/>
-        <v>3.751229629629641E-3</v>
+        <v>-2.3576385185185067E-2</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="40">
         <f t="shared" si="287"/>
-        <v>0.50641600000000153</v>
+        <v>-3.1828119999999842</v>
       </c>
       <c r="I89" t="s">
         <v>7</v>
@@ -19945,12 +20954,12 @@
       </c>
       <c r="F90" s="36">
         <f t="shared" si="286"/>
-        <v>-2.2812444444445679E-3</v>
+        <v>-2.9444622222222362E-2</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="40">
         <f t="shared" si="287"/>
-        <v>-0.30796800000001667</v>
+        <v>-3.975024000000019</v>
       </c>
       <c r="I90" t="s">
         <v>7</v>
@@ -20028,12 +21037,12 @@
       </c>
       <c r="F91" s="36">
         <f t="shared" si="286"/>
-        <v>2.9323674074073887E-2</v>
+        <v>1.2998370370370241E-3</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="40">
         <f t="shared" si="287"/>
-        <v>3.9586959999999749</v>
+        <v>0.17547799999999825</v>
       </c>
       <c r="I91" t="s">
         <v>7</v>
@@ -20111,12 +21120,12 @@
       </c>
       <c r="F92" s="36">
         <f t="shared" ref="F92:F97" si="299">IF(G92="",($F$1*C92-B92)/B92,H92/B92)</f>
-        <v>3.2770216666666602E-2</v>
+        <v>4.6525458333332402E-3</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="40">
         <f t="shared" ref="H92:H97" si="300">IF(G92="",$F$1*C92-B92,G92-B92)</f>
-        <v>7.8648519999999849</v>
+        <v>1.1166109999999776</v>
       </c>
       <c r="I92" t="s">
         <v>7</v>
@@ -20194,12 +21203,12 @@
       </c>
       <c r="F93" s="36">
         <f t="shared" si="299"/>
-        <v>1.5619466666666663E-2</v>
+        <v>-1.2031266666666696E-2</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="40">
         <f t="shared" si="300"/>
-        <v>3.7486719999999991</v>
+        <v>-2.887504000000007</v>
       </c>
       <c r="I93" t="s">
         <v>7</v>
@@ -20277,12 +21286,12 @@
       </c>
       <c r="F94" s="36">
         <f t="shared" si="299"/>
-        <v>2.1717511111111039E-2</v>
+        <v>-6.099244444444425E-3</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="40">
         <f t="shared" si="300"/>
-        <v>2.9318639999999903</v>
+        <v>-0.82339799999999741</v>
       </c>
       <c r="I94" t="s">
         <v>7</v>
@@ -20360,12 +21369,12 @@
       </c>
       <c r="F95" s="36">
         <f t="shared" si="299"/>
-        <v>4.1650903703703709E-2</v>
+        <v>1.3291451851851989E-2</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="40">
         <f t="shared" si="300"/>
-        <v>5.622872000000001</v>
+        <v>1.7943460000000186</v>
       </c>
       <c r="I95" t="s">
         <v>7</v>
@@ -20443,12 +21452,12 @@
       </c>
       <c r="F96" s="36">
         <f t="shared" si="299"/>
-        <v>4.7560433333333305E-2</v>
+        <v>1.9040091666666589E-2</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="40">
         <f t="shared" si="300"/>
-        <v>11.414503999999994</v>
+        <v>4.5696219999999812</v>
       </c>
       <c r="I96" t="s">
         <v>7</v>
@@ -20526,12 +21535,12 @@
       </c>
       <c r="F97" s="36">
         <f t="shared" si="299"/>
-        <v>2.319284444444444E-2</v>
+        <v>-4.6640777777778595E-3</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="40">
         <f t="shared" si="300"/>
-        <v>2.0873559999999998</v>
+        <v>-0.41976700000000733</v>
       </c>
       <c r="I97" t="s">
         <v>7</v>
@@ -20609,12 +21618,12 @@
       </c>
       <c r="F98" s="36">
         <f t="shared" ref="F98:F101" si="313">IF(G98="",($F$1*C98-B98)/B98,H98/B98)</f>
-        <v>2.4537037037037038E-2</v>
+        <v>-3.3564814814814816E-3</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="40">
         <f t="shared" ref="H98:H101" si="314">IF(G98="",$F$1*C98-B98,G98-B98)</f>
-        <v>3.3125</v>
+        <v>-0.453125</v>
       </c>
       <c r="I98" t="s">
         <v>7</v>
@@ -20692,12 +21701,12 @@
       </c>
       <c r="F99" s="36">
         <f t="shared" si="313"/>
-        <v>2.4209185185185122E-2</v>
+        <v>-3.6754074074074787E-3</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="40">
         <f t="shared" si="314"/>
-        <v>3.2682399999999916</v>
+        <v>-0.49618000000000961</v>
       </c>
       <c r="I99" t="s">
         <v>7</v>
@@ -20775,12 +21784,12 @@
       </c>
       <c r="F100" s="36">
         <f t="shared" si="313"/>
-        <v>3.0241659259259333E-2</v>
+        <v>2.1928296296296057E-3</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="40">
         <f t="shared" si="314"/>
-        <v>4.0826240000000098</v>
+        <v>0.29603199999999674</v>
       </c>
       <c r="I100" t="s">
         <v>7</v>
@@ -20858,12 +21867,12 @@
       </c>
       <c r="F101" s="36">
         <f t="shared" si="313"/>
-        <v>3.2930044444444521E-2</v>
+        <v>4.8080222222221507E-3</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="40">
         <f t="shared" si="314"/>
-        <v>4.4455560000000105</v>
+        <v>0.64908299999999031</v>
       </c>
       <c r="I101" t="s">
         <v>7</v>
@@ -20941,12 +21950,12 @@
       </c>
       <c r="F102" s="36">
         <f t="shared" ref="F102" si="327">IF(G102="",($F$1*C102-B102)/B102,H102/B102)</f>
-        <v>4.4208148148148094E-2</v>
+        <v>1.5779074074074136E-2</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="40">
         <f t="shared" ref="H102" si="328">IF(G102="",$F$1*C102-B102,G102-B102)</f>
-        <v>5.9680999999999926</v>
+        <v>2.1301750000000084</v>
       </c>
       <c r="I102" t="s">
         <v>7</v>
@@ -21024,12 +22033,12 @@
       </c>
       <c r="F103" s="36">
         <f t="shared" ref="F103:F105" si="341">IF(G103="",($F$1*C103-B103)/B103,H103/B103)</f>
-        <v>5.5932950000000051E-2</v>
+        <v>2.7184662500000081E-2</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="40">
         <f t="shared" ref="H103:H105" si="342">IF(G103="",$F$1*C103-B103,G103-B103)</f>
-        <v>13.423908000000011</v>
+        <v>6.5243190000000197</v>
       </c>
       <c r="I103" t="s">
         <v>7</v>
@@ -21107,12 +22116,12 @@
       </c>
       <c r="F104" s="36">
         <f t="shared" si="341"/>
-        <v>5.7850883333333297E-2</v>
+        <v>2.9050379166666692E-2</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="40">
         <f t="shared" si="342"/>
-        <v>13.884211999999991</v>
+        <v>6.972091000000006</v>
       </c>
       <c r="I104" t="s">
         <v>7</v>
@@ -21190,12 +22199,12 @@
       </c>
       <c r="F105" s="36">
         <f t="shared" si="341"/>
-        <v>7.9501399999999958E-2</v>
+        <v>5.0111449999999988E-2</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="40">
         <f t="shared" si="342"/>
-        <v>19.080335999999988</v>
+        <v>12.026747999999998</v>
       </c>
       <c r="I105" t="s">
         <v>7</v>
@@ -21273,12 +22282,12 @@
       </c>
       <c r="F106" s="36">
         <f t="shared" ref="F106:F110" si="356">IF(G106="",($F$1*C106-B106)/B106,H106/B106)</f>
-        <v>6.9616666666666535E-2</v>
+        <v>4.0495833333333307E-2</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="40">
         <f t="shared" ref="H106:H110" si="357">IF(G106="",$F$1*C106-B106,G106-B106)</f>
-        <v>16.70799999999997</v>
+        <v>9.7189999999999941</v>
       </c>
       <c r="I106" t="s">
         <v>7</v>
@@ -21356,12 +22365,12 @@
       </c>
       <c r="F107" s="36">
         <f t="shared" si="356"/>
-        <v>3.2930044444444362E-2</v>
+        <v>4.8080222222222028E-3</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="40">
         <f t="shared" si="357"/>
-        <v>2.9637039999999928</v>
+        <v>0.43272199999999827</v>
       </c>
       <c r="I107" t="s">
         <v>7</v>
@@ -21439,12 +22448,12 @@
       </c>
       <c r="F108" s="36">
         <f t="shared" si="356"/>
-        <v>4.0536207407407369E-2</v>
+        <v>1.2207103703703599E-2</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="40">
         <f t="shared" si="357"/>
-        <v>5.4723879999999951</v>
+        <v>1.647958999999986</v>
       </c>
       <c r="I108" t="s">
         <v>7</v>
@@ -21522,12 +22531,12 @@
       </c>
       <c r="F109" s="36">
         <f t="shared" si="356"/>
-        <v>3.7749466666666683E-2</v>
+        <v>9.4962333333334127E-3</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="40">
         <f t="shared" si="357"/>
-        <v>3.3974520000000012</v>
+        <v>0.85466100000000722</v>
       </c>
       <c r="I109" t="s">
         <v>7</v>
@@ -21605,12 +22614,12 @@
       </c>
       <c r="F110" s="36">
         <f t="shared" si="356"/>
-        <v>5.6818149999999908E-2</v>
+        <v>2.8045762499999918E-2</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="40">
         <f t="shared" si="357"/>
-        <v>13.636355999999978</v>
+        <v>6.7309829999999806</v>
       </c>
       <c r="I110" t="s">
         <v>7</v>
@@ -21688,12 +22697,12 @@
       </c>
       <c r="F111" s="36">
         <f t="shared" ref="F111:F115" si="371">IF(G111="",($F$1*C111-B111)/B111,H111/B111)</f>
-        <v>5.6080483333333223E-2</v>
+        <v>2.7328179166666543E-2</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="40">
         <f t="shared" ref="H111:H115" si="372">IF(G111="",$F$1*C111-B111,G111-B111)</f>
-        <v>13.459315999999973</v>
+        <v>6.5587629999999706</v>
       </c>
       <c r="I111" t="s">
         <v>7</v>
@@ -21771,12 +22780,12 @@
       </c>
       <c r="F112" s="36">
         <f t="shared" si="371"/>
-        <v>5.7223866666666602E-2</v>
+        <v>2.8440433333333223E-2</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="40">
         <f t="shared" si="372"/>
-        <v>13.733727999999985</v>
+        <v>6.8257039999999733</v>
       </c>
       <c r="I112" t="s">
         <v>7</v>
@@ -21854,12 +22863,12 @@
       </c>
       <c r="F113" s="36">
         <f t="shared" si="371"/>
-        <v>4.4240933333333385E-2</v>
+        <v>1.5810966666666697E-2</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="40">
         <f t="shared" si="372"/>
-        <v>10.617824000000013</v>
+        <v>3.7946320000000071</v>
       </c>
       <c r="I113" t="s">
         <v>7</v>
@@ -21937,12 +22946,12 @@
       </c>
       <c r="F114" s="36">
         <f t="shared" si="371"/>
-        <v>2.4668177777777845E-2</v>
+        <v>-3.2289111111110827E-3</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="40">
         <f t="shared" si="372"/>
-        <v>3.330204000000009</v>
+        <v>-0.43590299999999615</v>
       </c>
       <c r="I114" t="s">
         <v>7</v>
@@ -22020,12 +23029,12 @@
       </c>
       <c r="F115" s="36">
         <f t="shared" si="371"/>
-        <v>1.1750814814814914E-2</v>
+        <v>-1.5794592592592634E-2</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="40">
         <f t="shared" si="372"/>
-        <v>1.5863600000000133</v>
+        <v>-2.1322700000000054</v>
       </c>
       <c r="I115" t="s">
         <v>7</v>
@@ -22086,7 +23095,7 @@
     </row>
     <row r="116" spans="1:24">
       <c r="A116" s="30" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B116">
         <v>135</v>
@@ -22103,18 +23112,18 @@
       </c>
       <c r="F116" s="36">
         <f t="shared" ref="F116:F120" si="386">IF(G116="",($F$1*C116-B116)/B116,H116/B116)</f>
-        <v>1.1226251851851892E-2</v>
+        <v>-1.6304874074074018E-2</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="40">
         <f t="shared" ref="H116:H120" si="387">IF(G116="",$F$1*C116-B116,G116-B116)</f>
-        <v>1.5155440000000056</v>
+        <v>-2.2011579999999924</v>
       </c>
       <c r="I116" t="s">
         <v>7</v>
       </c>
       <c r="J116" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K116" s="2">
         <f t="shared" ref="K116:K120" si="388">D116*C116</f>
@@ -22169,7 +23178,7 @@
     </row>
     <row r="117" spans="1:24">
       <c r="A117" s="30" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B117">
         <v>135</v>
@@ -22186,18 +23195,18 @@
       </c>
       <c r="F117" s="36">
         <f t="shared" si="386"/>
-        <v>2.0668385185185208E-2</v>
+        <v>-7.1198074074074053E-3</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="40">
         <f t="shared" si="387"/>
-        <v>2.7902320000000032</v>
+        <v>-0.96117399999999975</v>
       </c>
       <c r="I117" t="s">
         <v>7</v>
       </c>
       <c r="J117" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K117" s="2">
         <f t="shared" si="388"/>
@@ -22252,7 +23261,7 @@
     </row>
     <row r="118" spans="1:24">
       <c r="A118" s="30" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B118">
         <v>135</v>
@@ -22269,18 +23278,18 @@
       </c>
       <c r="F118" s="36">
         <f t="shared" si="386"/>
-        <v>2.2438785185185165E-2</v>
+        <v>-5.3976074074074424E-3</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="40">
         <f t="shared" si="387"/>
-        <v>3.0292359999999974</v>
+        <v>-0.72867700000000468</v>
       </c>
       <c r="I118" t="s">
         <v>7</v>
       </c>
       <c r="J118" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K118" s="2">
         <f t="shared" si="388"/>
@@ -22335,7 +23344,7 @@
     </row>
     <row r="119" spans="1:24">
       <c r="A119" s="30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B119">
         <v>135</v>
@@ -22352,18 +23361,18 @@
       </c>
       <c r="F119" s="36">
         <f t="shared" si="386"/>
-        <v>1.352121481481466E-2</v>
+        <v>-1.4072392592592669E-2</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="40">
         <f t="shared" si="387"/>
-        <v>1.8253639999999791</v>
+        <v>-1.8997730000000104</v>
       </c>
       <c r="I119" t="s">
         <v>7</v>
       </c>
       <c r="J119" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K119" s="2">
         <f t="shared" si="388"/>
@@ -22418,7 +23427,7 @@
     </row>
     <row r="120" spans="1:24">
       <c r="A120" s="30" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B120">
         <v>135</v>
@@ -22435,18 +23444,18 @@
       </c>
       <c r="F120" s="36">
         <f t="shared" si="386"/>
-        <v>2.4078044444444526E-2</v>
+        <v>-3.8029777777776668E-3</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="40">
         <f t="shared" si="387"/>
-        <v>3.250536000000011</v>
+        <v>-0.51340199999998504</v>
       </c>
       <c r="I120" t="s">
         <v>7</v>
       </c>
       <c r="J120" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K120" s="2">
         <f t="shared" si="388"/>
@@ -22497,6 +23506,836 @@
       <c r="X120" s="1">
         <f t="shared" si="399"/>
         <v>0.38674934146856205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
+      <c r="A121" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="B121">
+        <v>135</v>
+      </c>
+      <c r="C121" s="2">
+        <v>151.87</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E121" s="1">
+        <f t="shared" ref="E121" si="400">10%*M121+13%</f>
+        <v>0.219998162</v>
+      </c>
+      <c r="F121" s="36">
+        <f t="shared" ref="F121" si="401">IF(G121="",($F$1*C121-B121)/B121,H121/B121)</f>
+        <v>-3.1294392592592514E-2</v>
+      </c>
+      <c r="G121" s="9"/>
+      <c r="H121" s="40">
+        <f t="shared" ref="H121" si="402">IF(G121="",$F$1*C121-B121,G121-B121)</f>
+        <v>-4.2247429999999895</v>
+      </c>
+      <c r="I121" t="s">
+        <v>7</v>
+      </c>
+      <c r="J121" t="s">
+        <v>455</v>
+      </c>
+      <c r="K121" s="2">
+        <f t="shared" ref="K121" si="403">D121*C121</f>
+        <v>134.997243</v>
+      </c>
+      <c r="L121" s="2">
+        <f t="shared" ref="L121" si="404">K121-B121</f>
+        <v>-2.757000000002563E-3</v>
+      </c>
+      <c r="M121" s="1">
+        <f t="shared" ref="M121" si="405">K121/150</f>
+        <v>0.89998162000000004</v>
+      </c>
+      <c r="N121" s="6">
+        <f t="shared" ref="N121" si="406">N120+C121-P121</f>
+        <v>13447.260000000007</v>
+      </c>
+      <c r="O121" s="2">
+        <f t="shared" ref="O121" si="407">N121*D121</f>
+        <v>11953.269414000008</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="15"/>
+      <c r="R121" s="6">
+        <f t="shared" ref="R121" si="408">Q121+R120</f>
+        <v>7247.82</v>
+      </c>
+      <c r="S121" s="6">
+        <f t="shared" ref="S121" si="409">O121+R121</f>
+        <v>19201.089414000009</v>
+      </c>
+      <c r="T121">
+        <f t="shared" ref="T121" si="410">T120+B121</f>
+        <v>17930</v>
+      </c>
+      <c r="U121" s="6">
+        <f t="shared" ref="U121" si="411">S121-T121</f>
+        <v>1271.0894140000091</v>
+      </c>
+      <c r="V121" s="4">
+        <f t="shared" ref="V121" si="412">S121/T121-1</f>
+        <v>7.0891768767429308E-2</v>
+      </c>
+      <c r="W121" s="4">
+        <f t="shared" ref="W121" si="413">O121/(T121-R121)-1</f>
+        <v>0.11899157419178552</v>
+      </c>
+      <c r="X121" s="1">
+        <f t="shared" ref="X121" si="414">R121/S121</f>
+        <v>0.37746920727921968</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
+      <c r="A122" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="B122">
+        <v>135</v>
+      </c>
+      <c r="C122" s="2">
+        <v>152.32</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="E122" s="1">
+        <f t="shared" ref="E122:E125" si="415">10%*M122+13%</f>
+        <v>0.22000081066666666</v>
+      </c>
+      <c r="F122" s="36">
+        <f t="shared" ref="F122:F125" si="416">IF(G122="",($F$1*C122-B122)/B122,H122/B122)</f>
+        <v>-2.8424059259259383E-2</v>
+      </c>
+      <c r="G122" s="9"/>
+      <c r="H122" s="40">
+        <f t="shared" ref="H122:H125" si="417">IF(G122="",$F$1*C122-B122,G122-B122)</f>
+        <v>-3.8372480000000166</v>
+      </c>
+      <c r="I122" t="s">
+        <v>7</v>
+      </c>
+      <c r="J122" t="s">
+        <v>457</v>
+      </c>
+      <c r="K122" s="2">
+        <f t="shared" ref="K122:K125" si="418">D122*C122</f>
+        <v>135.001216</v>
+      </c>
+      <c r="L122" s="2">
+        <f t="shared" ref="L122:L125" si="419">K122-B122</f>
+        <v>1.2159999999994398E-3</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" ref="M122:M125" si="420">K122/150</f>
+        <v>0.90000810666666664</v>
+      </c>
+      <c r="N122" s="6">
+        <f t="shared" ref="N122:N125" si="421">N121+C122-P122</f>
+        <v>13599.580000000007</v>
+      </c>
+      <c r="O122" s="2">
+        <f t="shared" ref="O122:O125" si="422">N122*D122</f>
+        <v>12053.307754000007</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="6">
+        <f t="shared" ref="R122:R125" si="423">Q122+R121</f>
+        <v>7247.82</v>
+      </c>
+      <c r="S122" s="6">
+        <f t="shared" ref="S122:S125" si="424">O122+R122</f>
+        <v>19301.127754000008</v>
+      </c>
+      <c r="T122">
+        <f t="shared" ref="T122:T125" si="425">T121+B122</f>
+        <v>18065</v>
+      </c>
+      <c r="U122" s="6">
+        <f t="shared" ref="U122:U125" si="426">S122-T122</f>
+        <v>1236.1277540000083</v>
+      </c>
+      <c r="V122" s="4">
+        <f t="shared" ref="V122:V125" si="427">S122/T122-1</f>
+        <v>6.8426667810684183E-2</v>
+      </c>
+      <c r="W122" s="4">
+        <f t="shared" ref="W122:W125" si="428">O122/(T122-R122)-1</f>
+        <v>0.11427449242778676</v>
+      </c>
+      <c r="X122" s="1">
+        <f t="shared" ref="X122:X125" si="429">R122/S122</f>
+        <v>0.37551277274448097</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
+      <c r="A123" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="B123">
+        <v>135</v>
+      </c>
+      <c r="C123" s="2">
+        <v>153.55000000000001</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="E123" s="1">
+        <f t="shared" si="415"/>
+        <v>0.22000077333333334</v>
+      </c>
+      <c r="F123" s="36">
+        <f t="shared" si="416"/>
+        <v>-2.0578481481481538E-2</v>
+      </c>
+      <c r="G123" s="9"/>
+      <c r="H123" s="40">
+        <f t="shared" si="417"/>
+        <v>-2.7780950000000075</v>
+      </c>
+      <c r="I123" t="s">
+        <v>7</v>
+      </c>
+      <c r="J123" t="s">
+        <v>459</v>
+      </c>
+      <c r="K123" s="2">
+        <f t="shared" si="418"/>
+        <v>135.00116</v>
+      </c>
+      <c r="L123" s="2">
+        <f t="shared" si="419"/>
+        <v>1.1599999999987176E-3</v>
+      </c>
+      <c r="M123" s="1">
+        <f t="shared" si="420"/>
+        <v>0.90000773333333328</v>
+      </c>
+      <c r="N123" s="6">
+        <f t="shared" si="421"/>
+        <v>13753.130000000006</v>
+      </c>
+      <c r="O123" s="2">
+        <f t="shared" si="422"/>
+        <v>12091.751896000005</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="15"/>
+      <c r="R123" s="6">
+        <f t="shared" si="423"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S123" s="6">
+        <f t="shared" si="424"/>
+        <v>19339.571896000005</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="425"/>
+        <v>18200</v>
+      </c>
+      <c r="U123" s="6">
+        <f t="shared" si="426"/>
+        <v>1139.5718960000049</v>
+      </c>
+      <c r="V123" s="4">
+        <f t="shared" si="427"/>
+        <v>6.2613840439560642E-2</v>
+      </c>
+      <c r="W123" s="4">
+        <f t="shared" si="428"/>
+        <v>0.10404977785244629</v>
+      </c>
+      <c r="X123" s="1">
+        <f t="shared" si="429"/>
+        <v>0.37476631018389106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
+      <c r="A124" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="B124">
+        <v>135</v>
+      </c>
+      <c r="C124" s="2">
+        <v>153.99</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="E124" s="1">
+        <f t="shared" si="415"/>
+        <v>0.22000202200000002</v>
+      </c>
+      <c r="F124" s="36">
+        <f t="shared" si="416"/>
+        <v>-1.7771933333333396E-2</v>
+      </c>
+      <c r="G124" s="9"/>
+      <c r="H124" s="40">
+        <f t="shared" si="417"/>
+        <v>-2.3992110000000082</v>
+      </c>
+      <c r="I124" t="s">
+        <v>7</v>
+      </c>
+      <c r="J124" t="s">
+        <v>461</v>
+      </c>
+      <c r="K124" s="2">
+        <f t="shared" si="418"/>
+        <v>135.00303300000002</v>
+      </c>
+      <c r="L124" s="2">
+        <f t="shared" si="419"/>
+        <v>3.0330000000162727E-3</v>
+      </c>
+      <c r="M124" s="1">
+        <f t="shared" si="420"/>
+        <v>0.90002022000000015</v>
+      </c>
+      <c r="N124" s="6">
+        <f t="shared" si="421"/>
+        <v>13907.120000000006</v>
+      </c>
+      <c r="O124" s="2">
+        <f t="shared" si="422"/>
+        <v>12192.372104000005</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="15"/>
+      <c r="R124" s="6">
+        <f t="shared" si="423"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S124" s="6">
+        <f t="shared" si="424"/>
+        <v>19440.192104000005</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="425"/>
+        <v>18335</v>
+      </c>
+      <c r="U124" s="6">
+        <f t="shared" si="426"/>
+        <v>1105.1921040000052</v>
+      </c>
+      <c r="V124" s="4">
+        <f t="shared" si="427"/>
+        <v>6.0277725879465782E-2</v>
+      </c>
+      <c r="W124" s="4">
+        <f t="shared" si="428"/>
+        <v>9.9681984418040104E-2</v>
+      </c>
+      <c r="X124" s="1">
+        <f t="shared" si="429"/>
+        <v>0.37282656268137865</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
+      <c r="A125" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="B125">
+        <v>135</v>
+      </c>
+      <c r="C125" s="2">
+        <v>153.41</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="E125" s="1">
+        <f t="shared" si="415"/>
+        <v>0.22000053333333336</v>
+      </c>
+      <c r="F125" s="36">
+        <f t="shared" si="416"/>
+        <v>-2.1471474074074119E-2</v>
+      </c>
+      <c r="G125" s="9"/>
+      <c r="H125" s="40">
+        <f t="shared" si="417"/>
+        <v>-2.898649000000006</v>
+      </c>
+      <c r="I125" t="s">
+        <v>7</v>
+      </c>
+      <c r="J125" t="s">
+        <v>463</v>
+      </c>
+      <c r="K125" s="2">
+        <f t="shared" si="418"/>
+        <v>135.0008</v>
+      </c>
+      <c r="L125" s="2">
+        <f t="shared" si="419"/>
+        <v>7.9999999999813554E-4</v>
+      </c>
+      <c r="M125" s="1">
+        <f t="shared" si="420"/>
+        <v>0.90000533333333332</v>
+      </c>
+      <c r="N125" s="6">
+        <f t="shared" si="421"/>
+        <v>14060.530000000006</v>
+      </c>
+      <c r="O125" s="2">
+        <f t="shared" si="422"/>
+        <v>12373.266400000006</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="6">
+        <f t="shared" si="423"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S125" s="6">
+        <f t="shared" si="424"/>
+        <v>19621.086400000007</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="425"/>
+        <v>18470</v>
+      </c>
+      <c r="U125" s="6">
+        <f t="shared" si="426"/>
+        <v>1151.0864000000074</v>
+      </c>
+      <c r="V125" s="4">
+        <f t="shared" si="427"/>
+        <v>6.232194910665978E-2</v>
+      </c>
+      <c r="W125" s="4">
+        <f t="shared" si="428"/>
+        <v>0.1025724413616611</v>
+      </c>
+      <c r="X125" s="1">
+        <f t="shared" si="429"/>
+        <v>0.36938933208102059</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
+      <c r="A126" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="B126">
+        <v>135</v>
+      </c>
+      <c r="C126" s="2">
+        <v>158.47</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="E126" s="1">
+        <f t="shared" ref="E126:E130" si="430">10%*M126+13%</f>
+        <v>0.22000039533333335</v>
+      </c>
+      <c r="F126" s="36">
+        <f t="shared" ref="F126:F130" si="431">IF(G126="",($F$1*C126-B126)/B126,H126/B126)</f>
+        <v>1.0803829629629634E-2</v>
+      </c>
+      <c r="G126" s="9"/>
+      <c r="H126" s="40">
+        <f t="shared" ref="H126:H130" si="432">IF(G126="",$F$1*C126-B126,G126-B126)</f>
+        <v>1.4585170000000005</v>
+      </c>
+      <c r="I126" t="s">
+        <v>7</v>
+      </c>
+      <c r="J126" t="s">
+        <v>471</v>
+      </c>
+      <c r="K126" s="2">
+        <f t="shared" ref="K126:K130" si="433">D126*C126</f>
+        <v>135.00059300000001</v>
+      </c>
+      <c r="L126" s="2">
+        <f t="shared" ref="L126:L130" si="434">K126-B126</f>
+        <v>5.9300000000916953E-4</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" ref="M126:M130" si="435">K126/150</f>
+        <v>0.90000395333333338</v>
+      </c>
+      <c r="N126" s="6">
+        <f t="shared" ref="N126:N130" si="436">N125+C126-P126</f>
+        <v>14219.000000000005</v>
+      </c>
+      <c r="O126" s="2">
+        <f t="shared" ref="O126:O130" si="437">N126*D126</f>
+        <v>12113.166100000004</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="15"/>
+      <c r="R126" s="6">
+        <f t="shared" ref="R126:R130" si="438">Q126+R125</f>
+        <v>7247.82</v>
+      </c>
+      <c r="S126" s="6">
+        <f t="shared" ref="S126:S130" si="439">O126+R126</f>
+        <v>19360.986100000002</v>
+      </c>
+      <c r="T126">
+        <f t="shared" ref="T126:T130" si="440">T125+B126</f>
+        <v>18605</v>
+      </c>
+      <c r="U126" s="6">
+        <f t="shared" ref="U126:U130" si="441">S126-T126</f>
+        <v>755.9861000000019</v>
+      </c>
+      <c r="V126" s="4">
+        <f t="shared" ref="V126:V130" si="442">S126/T126-1</f>
+        <v>4.0633490997043831E-2</v>
+      </c>
+      <c r="W126" s="4">
+        <f t="shared" ref="W126:W130" si="443">O126/(T126-R126)-1</f>
+        <v>6.6564596140943788E-2</v>
+      </c>
+      <c r="X126" s="1">
+        <f t="shared" ref="X126:X130" si="444">R126/S126</f>
+        <v>0.37435180019059044</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
+      <c r="A127" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="B127">
+        <v>135</v>
+      </c>
+      <c r="C127" s="2">
+        <v>158.13999999999999</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="E127" s="1">
+        <f t="shared" si="430"/>
+        <v>0.22000274533333333</v>
+      </c>
+      <c r="F127" s="36">
+        <f t="shared" si="431"/>
+        <v>8.6989185185184729E-3</v>
+      </c>
+      <c r="G127" s="9"/>
+      <c r="H127" s="40">
+        <f t="shared" si="432"/>
+        <v>1.1743539999999939</v>
+      </c>
+      <c r="I127" t="s">
+        <v>7</v>
+      </c>
+      <c r="J127" t="s">
+        <v>473</v>
+      </c>
+      <c r="K127" s="2">
+        <f t="shared" si="433"/>
+        <v>135.00411799999998</v>
+      </c>
+      <c r="L127" s="2">
+        <f t="shared" si="434"/>
+        <v>4.1179999999769734E-3</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" si="435"/>
+        <v>0.90002745333333323</v>
+      </c>
+      <c r="N127" s="6">
+        <f t="shared" si="436"/>
+        <v>14377.140000000005</v>
+      </c>
+      <c r="O127" s="2">
+        <f t="shared" si="437"/>
+        <v>12273.764418000004</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="15"/>
+      <c r="R127" s="6">
+        <f t="shared" si="438"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S127" s="6">
+        <f t="shared" si="439"/>
+        <v>19521.584418000006</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="440"/>
+        <v>18740</v>
+      </c>
+      <c r="U127" s="6">
+        <f t="shared" si="441"/>
+        <v>781.58441800000583</v>
+      </c>
+      <c r="V127" s="4">
+        <f t="shared" si="442"/>
+        <v>4.1706745891142205E-2</v>
+      </c>
+      <c r="W127" s="4">
+        <f t="shared" si="443"/>
+        <v>6.801010930911322E-2</v>
+      </c>
+      <c r="X127" s="1">
+        <f t="shared" si="444"/>
+        <v>0.37127211832852558</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
+      <c r="A128" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="B128">
+        <v>135</v>
+      </c>
+      <c r="C128" s="2">
+        <v>159.25</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="E128" s="1">
+        <f t="shared" si="430"/>
+        <v>0.21999748333333335</v>
+      </c>
+      <c r="F128" s="36">
+        <f t="shared" si="431"/>
+        <v>1.5779074074074136E-2</v>
+      </c>
+      <c r="G128" s="9"/>
+      <c r="H128" s="40">
+        <f t="shared" si="432"/>
+        <v>2.1301750000000084</v>
+      </c>
+      <c r="I128" t="s">
+        <v>7</v>
+      </c>
+      <c r="J128" t="s">
+        <v>475</v>
+      </c>
+      <c r="K128" s="2">
+        <f t="shared" si="433"/>
+        <v>134.99622500000001</v>
+      </c>
+      <c r="L128" s="2">
+        <f t="shared" si="434"/>
+        <v>-3.7749999999903139E-3</v>
+      </c>
+      <c r="M128" s="1">
+        <f t="shared" si="435"/>
+        <v>0.89997483333333339</v>
+      </c>
+      <c r="N128" s="6">
+        <f t="shared" si="436"/>
+        <v>14536.390000000005</v>
+      </c>
+      <c r="O128" s="2">
+        <f t="shared" si="437"/>
+        <v>12322.497803000004</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="15"/>
+      <c r="R128" s="6">
+        <f t="shared" si="438"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S128" s="6">
+        <f t="shared" si="439"/>
+        <v>19570.317803000005</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="440"/>
+        <v>18875</v>
+      </c>
+      <c r="U128" s="6">
+        <f t="shared" si="441"/>
+        <v>695.31780300000537</v>
+      </c>
+      <c r="V128" s="4">
+        <f t="shared" si="442"/>
+        <v>3.6838029298013497E-2</v>
+      </c>
+      <c r="W128" s="4">
+        <f t="shared" si="443"/>
+        <v>5.9801069820885511E-2</v>
+      </c>
+      <c r="X128" s="1">
+        <f t="shared" si="444"/>
+        <v>0.37034758826905484</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
+      <c r="A129" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="B129">
+        <v>135</v>
+      </c>
+      <c r="C129" s="2">
+        <v>159.24</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0.8478</v>
+      </c>
+      <c r="E129" s="1">
+        <f t="shared" si="430"/>
+        <v>0.22000244800000002</v>
+      </c>
+      <c r="F129" s="36">
+        <f t="shared" si="431"/>
+        <v>1.5715288888888936E-2</v>
+      </c>
+      <c r="G129" s="9"/>
+      <c r="H129" s="40">
+        <f t="shared" si="432"/>
+        <v>2.1215640000000064</v>
+      </c>
+      <c r="I129" t="s">
+        <v>7</v>
+      </c>
+      <c r="J129" t="s">
+        <v>477</v>
+      </c>
+      <c r="K129" s="2">
+        <f t="shared" si="433"/>
+        <v>135.00367199999999</v>
+      </c>
+      <c r="L129" s="2">
+        <f t="shared" si="434"/>
+        <v>3.6719999999945685E-3</v>
+      </c>
+      <c r="M129" s="1">
+        <f t="shared" si="435"/>
+        <v>0.90002448000000002</v>
+      </c>
+      <c r="N129" s="6">
+        <f t="shared" si="436"/>
+        <v>14695.630000000005</v>
+      </c>
+      <c r="O129" s="2">
+        <f t="shared" si="437"/>
+        <v>12458.955114000004</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="15"/>
+      <c r="R129" s="6">
+        <f t="shared" si="438"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S129" s="6">
+        <f t="shared" si="439"/>
+        <v>19706.775114000004</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="440"/>
+        <v>19010</v>
+      </c>
+      <c r="U129" s="6">
+        <f t="shared" si="441"/>
+        <v>696.77511400000367</v>
+      </c>
+      <c r="V129" s="4">
+        <f t="shared" si="442"/>
+        <v>3.6653083324566182E-2</v>
+      </c>
+      <c r="W129" s="4">
+        <f t="shared" si="443"/>
+        <v>5.9238603218111141E-2</v>
+      </c>
+      <c r="X129" s="1">
+        <f t="shared" si="444"/>
+        <v>0.36778315873970846</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
+      <c r="A130" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="B130">
+        <v>135</v>
+      </c>
+      <c r="C130" s="2">
+        <v>158.63999999999999</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="E130" s="1">
+        <f t="shared" si="430"/>
+        <v>0.22000175999999999</v>
+      </c>
+      <c r="F130" s="36">
+        <f t="shared" si="431"/>
+        <v>1.1888177777777603E-2</v>
+      </c>
+      <c r="G130" s="9"/>
+      <c r="H130" s="40">
+        <f t="shared" si="432"/>
+        <v>1.6049039999999763</v>
+      </c>
+      <c r="I130" t="s">
+        <v>7</v>
+      </c>
+      <c r="J130" t="s">
+        <v>479</v>
+      </c>
+      <c r="K130" s="2">
+        <f t="shared" si="433"/>
+        <v>135.00263999999999</v>
+      </c>
+      <c r="L130" s="2">
+        <f t="shared" si="434"/>
+        <v>2.6399999999853208E-3</v>
+      </c>
+      <c r="M130" s="1">
+        <f t="shared" si="435"/>
+        <v>0.90001759999999986</v>
+      </c>
+      <c r="N130" s="6">
+        <f t="shared" si="436"/>
+        <v>14854.270000000004</v>
+      </c>
+      <c r="O130" s="2">
+        <f t="shared" si="437"/>
+        <v>12640.983770000003</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="6">
+        <f t="shared" si="438"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S130" s="6">
+        <f t="shared" si="439"/>
+        <v>19888.803770000002</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="440"/>
+        <v>19145</v>
+      </c>
+      <c r="U130" s="6">
+        <f t="shared" si="441"/>
+        <v>743.80377000000226</v>
+      </c>
+      <c r="V130" s="4">
+        <f t="shared" si="442"/>
+        <v>3.8851071820318772E-2</v>
+      </c>
+      <c r="W130" s="4">
+        <f t="shared" si="443"/>
+        <v>6.2519333993434012E-2</v>
+      </c>
+      <c r="X130" s="1">
+        <f t="shared" si="444"/>
+        <v>0.36441709032961106</v>
       </c>
     </row>
   </sheetData>
@@ -22562,7 +24401,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F120">
+  <conditionalFormatting sqref="F2:F130">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -22623,11 +24462,201 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11F15E-A5A4-324C-AB33-3A50D692890D}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12" style="51" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="53" customFormat="1" ht="33" customHeight="1">
+      <c r="A1" s="53" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>485</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>490</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="53" customFormat="1">
+      <c r="A2" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="56">
+        <f>SUM(E3:E10086)</f>
+        <v>40</v>
+      </c>
+      <c r="F2" s="56">
+        <f t="shared" ref="F2:K2" si="0">SUM(F3:F10086)</f>
+        <v>4000</v>
+      </c>
+      <c r="G2" s="56">
+        <f t="shared" si="0"/>
+        <v>2221.06</v>
+      </c>
+      <c r="H2" s="57">
+        <f t="shared" si="0"/>
+        <v>221.05999999999995</v>
+      </c>
+      <c r="I2" s="56">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J2" s="56">
+        <f t="shared" si="0"/>
+        <v>1201.76</v>
+      </c>
+      <c r="K2" s="57">
+        <f t="shared" si="0"/>
+        <v>201.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>113027</v>
+      </c>
+      <c r="B3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="52">
+        <v>43634</v>
+      </c>
+      <c r="D3" s="52">
+        <v>43656</v>
+      </c>
+      <c r="E3">
+        <f>D3-C3</f>
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="58">
+        <v>1019.3</v>
+      </c>
+      <c r="H3" s="29">
+        <f>G3-F3</f>
+        <v>19.299999999999955</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>113028</v>
+      </c>
+      <c r="B4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="52">
+        <v>43636</v>
+      </c>
+      <c r="D4" s="52">
+        <v>43654</v>
+      </c>
+      <c r="E4">
+        <f>D4-C4</f>
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>1201.76</v>
+      </c>
+      <c r="H4" s="29">
+        <f>G4-F4</f>
+        <v>201.76</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="J4">
+        <v>1201.76</v>
+      </c>
+      <c r="K4" s="29">
+        <f>J4-I4</f>
+        <v>201.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>128070</v>
+      </c>
+      <c r="B5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="52">
+        <v>43650</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA026E2-E285-894F-972A-30EC614C975A}">
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22690,13 +24719,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="E4" s="47">
         <v>1</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G4" s="47">
         <v>1</v>
@@ -22704,7 +24733,7 @@
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="K4" s="47">
         <v>1</v>
@@ -22712,19 +24741,19 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="47" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C5" s="47">
         <v>0.8</v>
       </c>
-      <c r="D5" s="47" t="s">
-        <v>420</v>
+      <c r="D5" s="50" t="s">
+        <v>442</v>
       </c>
       <c r="E5" s="47">
         <v>0.9</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G5" s="47">
         <v>0.9</v>
@@ -22732,51 +24761,55 @@
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="K5" s="47">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="47" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C6" s="47">
         <v>0.6</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E6" s="47">
         <v>0.8</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G6" s="47">
         <v>0.8</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="J6" s="47" t="s">
+        <v>419</v>
+      </c>
+      <c r="K6" s="47">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="47" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C7" s="47">
         <v>0</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E7" s="47">
         <v>0.6</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G7" s="47">
         <v>0.6</v>

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13769BE9-862F-5341-9D59-488D4F8B9379}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B2EB6F-4495-FF43-9232-1F8748F2DCD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="zz500" sheetId="2" r:id="rId2"/>
     <sheet name="可转债收益" sheetId="4" r:id="rId3"/>
     <sheet name="可转债申购参数" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hs300'!$A$1:$X$1</definedName>
@@ -480,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="655">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -2089,6 +2090,504 @@
   <si>
     <t>CC获利</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南威转债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 1228</t>
+  </si>
+  <si>
+    <t>2019 0102</t>
+  </si>
+  <si>
+    <t>2019 0103</t>
+  </si>
+  <si>
+    <t>2019 0104</t>
+  </si>
+  <si>
+    <t>2019 0107</t>
+  </si>
+  <si>
+    <t>2019 0108</t>
+  </si>
+  <si>
+    <t>2019 0109</t>
+  </si>
+  <si>
+    <t>2019 0110</t>
+  </si>
+  <si>
+    <t>2019 0111</t>
+  </si>
+  <si>
+    <t>2019 0114</t>
+  </si>
+  <si>
+    <t>2019 0115</t>
+  </si>
+  <si>
+    <t>2019 0116</t>
+  </si>
+  <si>
+    <t>2019 0117</t>
+  </si>
+  <si>
+    <t>2019 0118</t>
+  </si>
+  <si>
+    <t>2019 0121</t>
+  </si>
+  <si>
+    <t>2019 0122</t>
+  </si>
+  <si>
+    <t>2019 0123</t>
+  </si>
+  <si>
+    <t>2019 0124</t>
+  </si>
+  <si>
+    <t>2019 0125</t>
+  </si>
+  <si>
+    <t>2019 0128</t>
+  </si>
+  <si>
+    <t>2019 0129</t>
+  </si>
+  <si>
+    <t>2019 0130</t>
+  </si>
+  <si>
+    <t>2019 0131</t>
+  </si>
+  <si>
+    <t>2019 0201</t>
+  </si>
+  <si>
+    <t>2019 0211</t>
+  </si>
+  <si>
+    <t>2019 0212</t>
+  </si>
+  <si>
+    <t>2019 0213</t>
+  </si>
+  <si>
+    <t>2019 0214</t>
+  </si>
+  <si>
+    <t>2019 0215</t>
+  </si>
+  <si>
+    <t>2019 0218</t>
+  </si>
+  <si>
+    <t>2019 0219</t>
+  </si>
+  <si>
+    <t>2019 0220</t>
+  </si>
+  <si>
+    <t>2019 0221</t>
+  </si>
+  <si>
+    <t>2019 0222</t>
+  </si>
+  <si>
+    <t>2019 0225</t>
+  </si>
+  <si>
+    <t>2019 0226</t>
+  </si>
+  <si>
+    <t>2019 0227</t>
+  </si>
+  <si>
+    <t>2019 0228</t>
+  </si>
+  <si>
+    <t>2019 0301</t>
+  </si>
+  <si>
+    <t>2019 0304</t>
+  </si>
+  <si>
+    <t>2019 0305</t>
+  </si>
+  <si>
+    <t>2019 0306</t>
+  </si>
+  <si>
+    <t>2019 0307</t>
+  </si>
+  <si>
+    <t>2019 0308</t>
+  </si>
+  <si>
+    <t>2019 0311</t>
+  </si>
+  <si>
+    <t>2019 0312</t>
+  </si>
+  <si>
+    <t>2019 0313</t>
+  </si>
+  <si>
+    <t>2019 0314</t>
+  </si>
+  <si>
+    <t>2019 0315</t>
+  </si>
+  <si>
+    <t>2019 0318</t>
+  </si>
+  <si>
+    <t>2019 0319</t>
+  </si>
+  <si>
+    <t>2019 0320</t>
+  </si>
+  <si>
+    <t>2019 0321</t>
+  </si>
+  <si>
+    <t>2019 0322</t>
+  </si>
+  <si>
+    <t>2019 0325</t>
+  </si>
+  <si>
+    <t>2019 0326</t>
+  </si>
+  <si>
+    <t>2019 0327</t>
+  </si>
+  <si>
+    <t>2019 0328</t>
+  </si>
+  <si>
+    <t>2019 0329</t>
+  </si>
+  <si>
+    <t>2019 0401</t>
+  </si>
+  <si>
+    <t>2019 0402</t>
+  </si>
+  <si>
+    <t>2019 0403</t>
+  </si>
+  <si>
+    <t>2019 0404</t>
+  </si>
+  <si>
+    <t>2019 0408</t>
+  </si>
+  <si>
+    <t>2019 0409</t>
+  </si>
+  <si>
+    <t>2019 0410</t>
+  </si>
+  <si>
+    <t>2019 0411</t>
+  </si>
+  <si>
+    <t>2019 0412</t>
+  </si>
+  <si>
+    <t>2019 0415</t>
+  </si>
+  <si>
+    <t>2019 0416</t>
+  </si>
+  <si>
+    <t>2019 0417</t>
+  </si>
+  <si>
+    <t>2019 0418</t>
+  </si>
+  <si>
+    <t>2019 0419</t>
+  </si>
+  <si>
+    <t>2019 0422</t>
+  </si>
+  <si>
+    <t>2019 0423</t>
+  </si>
+  <si>
+    <t>2019 0424</t>
+  </si>
+  <si>
+    <t>2019 0425</t>
+  </si>
+  <si>
+    <t>2019 0426</t>
+  </si>
+  <si>
+    <t>2019 0429</t>
+  </si>
+  <si>
+    <t>2019 0430</t>
+  </si>
+  <si>
+    <t>2019 0506</t>
+  </si>
+  <si>
+    <t>2019 0507</t>
+  </si>
+  <si>
+    <t>2019 0508</t>
+  </si>
+  <si>
+    <t>2019 0509</t>
+  </si>
+  <si>
+    <t>2019 0510</t>
+  </si>
+  <si>
+    <t>2019 0513</t>
+  </si>
+  <si>
+    <t>2019 0514</t>
+  </si>
+  <si>
+    <t>2019 0515</t>
+  </si>
+  <si>
+    <t>2019 0516</t>
+  </si>
+  <si>
+    <t>2019 0517</t>
+  </si>
+  <si>
+    <t>2019 0520</t>
+  </si>
+  <si>
+    <t>2019 0521</t>
+  </si>
+  <si>
+    <t>2019 0522</t>
+  </si>
+  <si>
+    <t>2019 0523</t>
+  </si>
+  <si>
+    <t>2019 0524</t>
+  </si>
+  <si>
+    <t>2019 0527</t>
+  </si>
+  <si>
+    <t>2019 0528</t>
+  </si>
+  <si>
+    <t>2019 0529</t>
+  </si>
+  <si>
+    <t>2019 0530</t>
+  </si>
+  <si>
+    <t>2019 0531</t>
+  </si>
+  <si>
+    <t>2019 0603</t>
+  </si>
+  <si>
+    <t>2019 0604</t>
+  </si>
+  <si>
+    <t>2019 0605</t>
+  </si>
+  <si>
+    <t>2019 0606</t>
+  </si>
+  <si>
+    <t>2019 0610</t>
+  </si>
+  <si>
+    <t>2019 0611</t>
+  </si>
+  <si>
+    <t>2019 0612</t>
+  </si>
+  <si>
+    <t>2019 0613</t>
+  </si>
+  <si>
+    <t>2019 0614</t>
+  </si>
+  <si>
+    <t>2019 0617</t>
+  </si>
+  <si>
+    <t>2019 0618</t>
+  </si>
+  <si>
+    <t>2019 0619</t>
+  </si>
+  <si>
+    <t>2019 0620</t>
+  </si>
+  <si>
+    <t>2019 0621</t>
+  </si>
+  <si>
+    <t>2019 0624</t>
+  </si>
+  <si>
+    <t>2019 0625</t>
+  </si>
+  <si>
+    <t>2019 0626</t>
+  </si>
+  <si>
+    <t>2019 0627</t>
+  </si>
+  <si>
+    <t>2019 0628</t>
+  </si>
+  <si>
+    <t>2019 0701</t>
+  </si>
+  <si>
+    <t>2019 0702</t>
+  </si>
+  <si>
+    <t>2019 0703</t>
+  </si>
+  <si>
+    <t>2019 0704</t>
+  </si>
+  <si>
+    <t>2019 0705</t>
+  </si>
+  <si>
+    <t>2019 0708</t>
+  </si>
+  <si>
+    <t>2019 0709</t>
+  </si>
+  <si>
+    <t>2019 0710</t>
+  </si>
+  <si>
+    <t>2019 0711</t>
+  </si>
+  <si>
+    <t>2019 0712</t>
+  </si>
+  <si>
+    <t>2019 0715</t>
+  </si>
+  <si>
+    <t>2019 0716</t>
+  </si>
+  <si>
+    <t>2019 0717</t>
+  </si>
+  <si>
+    <t>2019 0718</t>
+  </si>
+  <si>
+    <t>2019 0719</t>
+  </si>
+  <si>
+    <t>2019 0722</t>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入金额1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入金额2</t>
+  </si>
+  <si>
+    <t>买入金额3</t>
+  </si>
+  <si>
+    <t>买入份额1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入份额2</t>
+  </si>
+  <si>
+    <t>买入份额3</t>
+  </si>
+  <si>
+    <t>成本价1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价2</t>
+  </si>
+  <si>
+    <t>成本价3</t>
+  </si>
+  <si>
+    <t>可售出1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可售出2</t>
+  </si>
+  <si>
+    <t>可售出3</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190715</t>
+  </si>
+  <si>
+    <t>20190715购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190716</t>
+  </si>
+  <si>
+    <t>20190716购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190717</t>
+  </si>
+  <si>
+    <t>20190717购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190718</t>
+  </si>
+  <si>
+    <t>20190718购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190719</t>
+  </si>
+  <si>
+    <t>20190719购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190715</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190716</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190717</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190718</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190719</t>
   </si>
 </sst>
 </file>
@@ -2662,13 +3161,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y129"/>
+  <dimension ref="A1:Y134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C137" sqref="C137"/>
+      <selection pane="bottomRight" activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2719,8 +3218,8 @@
         <v>50</v>
       </c>
       <c r="H1" s="45" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19968),2)</f>
-        <v>盈利1326.03</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19966),2)</f>
+        <v>盈利1328.08</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -13344,6 +13843,416 @@
       <c r="X129" s="1">
         <f t="shared" si="423"/>
         <v>0.19386780941800333</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
+      <c r="A130" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B130">
+        <v>135</v>
+      </c>
+      <c r="C130" s="33">
+        <v>116.15</v>
+      </c>
+      <c r="D130" s="34">
+        <v>1.1612</v>
+      </c>
+      <c r="E130" s="19">
+        <f t="shared" ref="E130:E134" si="424">10%*M130+13%</f>
+        <v>0.21991558666666666</v>
+      </c>
+      <c r="F130" s="37">
+        <f t="shared" ref="F130:F134" si="425">IF(G130="",($F$1*C130-B130)/B130,H130/B130)</f>
+        <v>-1.9703703703703047E-3</v>
+      </c>
+      <c r="H130" s="41">
+        <f t="shared" ref="H130:H134" si="426">IF(G130="",$F$1*C130-B130,G130-B130)</f>
+        <v>-0.26599999999999113</v>
+      </c>
+      <c r="I130" t="s">
+        <v>7</v>
+      </c>
+      <c r="J130" t="s">
+        <v>641</v>
+      </c>
+      <c r="K130" s="2">
+        <f t="shared" ref="K130:K134" si="427">D130*C130</f>
+        <v>134.87338</v>
+      </c>
+      <c r="L130" s="2">
+        <f t="shared" ref="L130:L134" si="428">B130-K130</f>
+        <v>0.12662000000000262</v>
+      </c>
+      <c r="M130" s="1">
+        <f t="shared" ref="M130:M134" si="429">K130/150</f>
+        <v>0.89915586666666669</v>
+      </c>
+      <c r="N130" s="6">
+        <f t="shared" ref="N130:N134" si="430">N129+C130-P130</f>
+        <v>13366.060000000003</v>
+      </c>
+      <c r="O130" s="2">
+        <f t="shared" ref="O130:O134" si="431">N130*D130</f>
+        <v>15520.668872000004</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="6">
+        <f t="shared" ref="R130:R134" si="432">R129+Q130</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S130" s="6">
+        <f t="shared" ref="S130:S134" si="433">R130+O130</f>
+        <v>19206.798872000003</v>
+      </c>
+      <c r="T130">
+        <f t="shared" ref="T130:T134" si="434">T129+B130</f>
+        <v>17865</v>
+      </c>
+      <c r="U130" s="6">
+        <f t="shared" ref="U130:U134" si="435">S130-T130</f>
+        <v>1341.798872000003</v>
+      </c>
+      <c r="V130" s="4">
+        <f t="shared" ref="V130:V134" si="436">S130/T130-1</f>
+        <v>7.5107689448642656E-2</v>
+      </c>
+      <c r="W130" s="4">
+        <f t="shared" ref="W130:W134" si="437">O130/(T130-R130)-1</f>
+        <v>9.4633695915119054E-2</v>
+      </c>
+      <c r="X130" s="1">
+        <f t="shared" ref="X130:X134" si="438">R130/S130</f>
+        <v>0.19191797782470157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
+      <c r="A131" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B131">
+        <v>135</v>
+      </c>
+      <c r="C131" s="33">
+        <v>116.64</v>
+      </c>
+      <c r="D131" s="34">
+        <v>1.1563000000000001</v>
+      </c>
+      <c r="E131" s="19">
+        <f t="shared" si="424"/>
+        <v>0.219913888</v>
+      </c>
+      <c r="F131" s="37">
+        <f t="shared" si="425"/>
+        <v>2.2399999999998324E-3</v>
+      </c>
+      <c r="H131" s="41">
+        <f t="shared" si="426"/>
+        <v>0.30239999999997735</v>
+      </c>
+      <c r="I131" t="s">
+        <v>7</v>
+      </c>
+      <c r="J131" t="s">
+        <v>643</v>
+      </c>
+      <c r="K131" s="2">
+        <f t="shared" si="427"/>
+        <v>134.87083200000001</v>
+      </c>
+      <c r="L131" s="2">
+        <f t="shared" si="428"/>
+        <v>0.12916799999999284</v>
+      </c>
+      <c r="M131" s="1">
+        <f t="shared" si="429"/>
+        <v>0.89913888000000008</v>
+      </c>
+      <c r="N131" s="6">
+        <f t="shared" si="430"/>
+        <v>13482.700000000003</v>
+      </c>
+      <c r="O131" s="2">
+        <f t="shared" si="431"/>
+        <v>15590.046010000004</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="6">
+        <f t="shared" si="432"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S131" s="6">
+        <f t="shared" si="433"/>
+        <v>19276.176010000003</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="434"/>
+        <v>18000</v>
+      </c>
+      <c r="U131" s="6">
+        <f t="shared" si="435"/>
+        <v>1276.1760100000029</v>
+      </c>
+      <c r="V131" s="4">
+        <f t="shared" si="436"/>
+        <v>7.0898667222222489E-2</v>
+      </c>
+      <c r="W131" s="4">
+        <f t="shared" si="437"/>
+        <v>8.9156601953210624E-2</v>
+      </c>
+      <c r="X131" s="1">
+        <f t="shared" si="438"/>
+        <v>0.19122724331255986</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
+      <c r="A132" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B132">
+        <v>135</v>
+      </c>
+      <c r="C132" s="33">
+        <v>116.68</v>
+      </c>
+      <c r="D132" s="34">
+        <v>1.1558999999999999</v>
+      </c>
+      <c r="E132" s="19">
+        <f t="shared" si="424"/>
+        <v>0.21991360799999998</v>
+      </c>
+      <c r="F132" s="37">
+        <f t="shared" si="425"/>
+        <v>2.5837037037037876E-3</v>
+      </c>
+      <c r="H132" s="41">
+        <f t="shared" si="426"/>
+        <v>0.34880000000001132</v>
+      </c>
+      <c r="I132" t="s">
+        <v>7</v>
+      </c>
+      <c r="J132" t="s">
+        <v>645</v>
+      </c>
+      <c r="K132" s="2">
+        <f t="shared" si="427"/>
+        <v>134.87041199999999</v>
+      </c>
+      <c r="L132" s="2">
+        <f t="shared" si="428"/>
+        <v>0.12958800000001247</v>
+      </c>
+      <c r="M132" s="1">
+        <f t="shared" si="429"/>
+        <v>0.89913607999999989</v>
+      </c>
+      <c r="N132" s="6">
+        <f t="shared" si="430"/>
+        <v>13599.380000000003</v>
+      </c>
+      <c r="O132" s="2">
+        <f t="shared" si="431"/>
+        <v>15719.523342000002</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="6">
+        <f t="shared" si="432"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S132" s="6">
+        <f t="shared" si="433"/>
+        <v>19405.653342000001</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="434"/>
+        <v>18135</v>
+      </c>
+      <c r="U132" s="6">
+        <f t="shared" si="435"/>
+        <v>1270.6533420000014</v>
+      </c>
+      <c r="V132" s="4">
+        <f t="shared" si="436"/>
+        <v>7.0066354673283815E-2</v>
+      </c>
+      <c r="W132" s="4">
+        <f t="shared" si="437"/>
+        <v>8.7941364411196155E-2</v>
+      </c>
+      <c r="X132" s="1">
+        <f t="shared" si="438"/>
+        <v>0.18995134742626998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
+      <c r="A133" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B133">
+        <v>135</v>
+      </c>
+      <c r="C133" s="33">
+        <v>117.69</v>
+      </c>
+      <c r="D133" s="34">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="E133" s="19">
+        <f t="shared" si="424"/>
+        <v>0.21991516</v>
+      </c>
+      <c r="F133" s="37">
+        <f t="shared" si="425"/>
+        <v>1.1262222222222186E-2</v>
+      </c>
+      <c r="H133" s="41">
+        <f t="shared" si="426"/>
+        <v>1.5203999999999951</v>
+      </c>
+      <c r="I133" t="s">
+        <v>7</v>
+      </c>
+      <c r="J133" t="s">
+        <v>647</v>
+      </c>
+      <c r="K133" s="2">
+        <f t="shared" si="427"/>
+        <v>134.87273999999999</v>
+      </c>
+      <c r="L133" s="2">
+        <f t="shared" si="428"/>
+        <v>0.12726000000000681</v>
+      </c>
+      <c r="M133" s="1">
+        <f t="shared" si="429"/>
+        <v>0.89915159999999994</v>
+      </c>
+      <c r="N133" s="6">
+        <f t="shared" si="430"/>
+        <v>13717.070000000003</v>
+      </c>
+      <c r="O133" s="2">
+        <f t="shared" si="431"/>
+        <v>15719.762220000002</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="6">
+        <f t="shared" si="432"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S133" s="6">
+        <f t="shared" si="433"/>
+        <v>19405.892220000002</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="434"/>
+        <v>18270</v>
+      </c>
+      <c r="U133" s="6">
+        <f t="shared" si="435"/>
+        <v>1135.8922200000015</v>
+      </c>
+      <c r="V133" s="4">
+        <f t="shared" si="436"/>
+        <v>6.2172535303776755E-2</v>
+      </c>
+      <c r="W133" s="4">
+        <f t="shared" si="437"/>
+        <v>7.7886885991166999E-2</v>
+      </c>
+      <c r="X133" s="1">
+        <f t="shared" si="438"/>
+        <v>0.18994900920870925</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
+      <c r="A134" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="B134">
+        <v>135</v>
+      </c>
+      <c r="C134" s="33">
+        <v>116.51</v>
+      </c>
+      <c r="D134" s="34">
+        <v>1.1576</v>
+      </c>
+      <c r="E134" s="19">
+        <f t="shared" si="424"/>
+        <v>0.21991465066666666</v>
+      </c>
+      <c r="F134" s="37">
+        <f t="shared" si="425"/>
+        <v>1.1229629629629775E-3</v>
+      </c>
+      <c r="H134" s="41">
+        <f t="shared" si="426"/>
+        <v>0.15160000000000196</v>
+      </c>
+      <c r="I134" t="s">
+        <v>7</v>
+      </c>
+      <c r="J134" t="s">
+        <v>649</v>
+      </c>
+      <c r="K134" s="2">
+        <f t="shared" si="427"/>
+        <v>134.87197599999999</v>
+      </c>
+      <c r="L134" s="2">
+        <f t="shared" si="428"/>
+        <v>0.12802400000001057</v>
+      </c>
+      <c r="M134" s="1">
+        <f t="shared" si="429"/>
+        <v>0.89914650666666662</v>
+      </c>
+      <c r="N134" s="6">
+        <f t="shared" si="430"/>
+        <v>13833.580000000004</v>
+      </c>
+      <c r="O134" s="2">
+        <f t="shared" si="431"/>
+        <v>16013.752208000004</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="6">
+        <f t="shared" si="432"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S134" s="6">
+        <f t="shared" si="433"/>
+        <v>19699.882208000003</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="434"/>
+        <v>18405</v>
+      </c>
+      <c r="U134" s="6">
+        <f t="shared" si="435"/>
+        <v>1294.8822080000027</v>
+      </c>
+      <c r="V134" s="4">
+        <f t="shared" si="436"/>
+        <v>7.0354914860092599E-2</v>
+      </c>
+      <c r="W134" s="4">
+        <f t="shared" si="437"/>
+        <v>8.7974294765834848E-2</v>
+      </c>
+      <c r="X134" s="1">
+        <f t="shared" si="438"/>
+        <v>0.18711431678018281</v>
       </c>
     </row>
   </sheetData>
@@ -13409,7 +14318,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F129">
+  <conditionalFormatting sqref="F2:F134">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -13472,13 +14381,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y130"/>
+  <dimension ref="A1:Y135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F136" sqref="F136"/>
+      <selection pane="bottomRight" activeCell="N130" sqref="N130:X135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13527,8 +14436,8 @@
         <v>50</v>
       </c>
       <c r="H1" s="46" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19971),2)</f>
-        <v>盈利896.83</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19969),2)</f>
+        <v>盈利899.34</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -24336,6 +25245,421 @@
       <c r="X130" s="1">
         <f t="shared" si="444"/>
         <v>0.36441709032961106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
+      <c r="A131" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="B131">
+        <v>135</v>
+      </c>
+      <c r="C131" s="2">
+        <v>156.69</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="E131" s="1">
+        <f t="shared" ref="E131:E135" si="445">10%*M131+13%</f>
+        <v>0.22000273600000003</v>
+      </c>
+      <c r="F131" s="36">
+        <f t="shared" ref="F131:F135" si="446">IF(G131="",($F$1*C131-B131)/B131,H131/B131)</f>
+        <v>-5.4993333333333832E-4</v>
+      </c>
+      <c r="G131" s="9"/>
+      <c r="H131" s="40">
+        <f t="shared" ref="H131:H135" si="447">IF(G131="",$F$1*C131-B131,G131-B131)</f>
+        <v>-7.4241000000000668E-2</v>
+      </c>
+      <c r="I131" t="s">
+        <v>7</v>
+      </c>
+      <c r="J131" t="s">
+        <v>641</v>
+      </c>
+      <c r="K131" s="2">
+        <f t="shared" ref="K131:K135" si="448">D131*C131</f>
+        <v>135.00410400000001</v>
+      </c>
+      <c r="L131" s="2">
+        <f t="shared" ref="L131:L135" si="449">K131-B131</f>
+        <v>4.10400000001232E-3</v>
+      </c>
+      <c r="M131" s="1">
+        <f t="shared" ref="M131:M135" si="450">K131/150</f>
+        <v>0.90002736000000005</v>
+      </c>
+      <c r="N131" s="6">
+        <f t="shared" ref="N131:N135" si="451">N130+C131-P131</f>
+        <v>15010.960000000005</v>
+      </c>
+      <c r="O131" s="2">
+        <f t="shared" ref="O131:O135" si="452">N131*D131</f>
+        <v>12933.443136000005</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="15"/>
+      <c r="R131" s="6">
+        <f t="shared" ref="R131:R135" si="453">Q131+R130</f>
+        <v>7247.82</v>
+      </c>
+      <c r="S131" s="6">
+        <f t="shared" ref="S131:S135" si="454">O131+R131</f>
+        <v>20181.263136000005</v>
+      </c>
+      <c r="T131">
+        <f t="shared" ref="T131:T135" si="455">T130+B131</f>
+        <v>19280</v>
+      </c>
+      <c r="U131" s="6">
+        <f t="shared" ref="U131:U135" si="456">S131-T131</f>
+        <v>901.26313600000503</v>
+      </c>
+      <c r="V131" s="4">
+        <f t="shared" ref="V131:V135" si="457">S131/T131-1</f>
+        <v>4.6746013278008647E-2</v>
+      </c>
+      <c r="W131" s="4">
+        <f t="shared" ref="W131:W135" si="458">O131/(T131-R131)-1</f>
+        <v>7.4904392720189117E-2</v>
+      </c>
+      <c r="X131" s="1">
+        <f t="shared" ref="X131:X135" si="459">R131/S131</f>
+        <v>0.35913609327411716</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
+      <c r="A132" s="30" t="s">
+        <v>651</v>
+      </c>
+      <c r="B132">
+        <v>135</v>
+      </c>
+      <c r="C132" s="2">
+        <v>156.47</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="E132" s="1">
+        <f t="shared" si="445"/>
+        <v>0.22000154399999999</v>
+      </c>
+      <c r="F132" s="36">
+        <f t="shared" si="446"/>
+        <v>-1.953207407407515E-3</v>
+      </c>
+      <c r="G132" s="9"/>
+      <c r="H132" s="40">
+        <f t="shared" si="447"/>
+        <v>-0.26368300000001454</v>
+      </c>
+      <c r="I132" t="s">
+        <v>7</v>
+      </c>
+      <c r="J132" t="s">
+        <v>643</v>
+      </c>
+      <c r="K132" s="2">
+        <f t="shared" si="448"/>
+        <v>135.00231600000001</v>
+      </c>
+      <c r="L132" s="2">
+        <f t="shared" si="449"/>
+        <v>2.3160000000075343E-3</v>
+      </c>
+      <c r="M132" s="1">
+        <f t="shared" si="450"/>
+        <v>0.90001544</v>
+      </c>
+      <c r="N132" s="6">
+        <f t="shared" si="451"/>
+        <v>15167.430000000004</v>
+      </c>
+      <c r="O132" s="2">
+        <f t="shared" si="452"/>
+        <v>13086.458604000003</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="15"/>
+      <c r="R132" s="6">
+        <f t="shared" si="453"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S132" s="6">
+        <f t="shared" si="454"/>
+        <v>20334.278604000003</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="455"/>
+        <v>19415</v>
+      </c>
+      <c r="U132" s="6">
+        <f t="shared" si="456"/>
+        <v>919.27860400000282</v>
+      </c>
+      <c r="V132" s="4">
+        <f t="shared" si="457"/>
+        <v>4.7348885088849046E-2</v>
+      </c>
+      <c r="W132" s="4">
+        <f t="shared" si="458"/>
+        <v>7.5553957778220049E-2</v>
+      </c>
+      <c r="X132" s="1">
+        <f t="shared" si="459"/>
+        <v>0.35643359379241829</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
+      <c r="A133" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="B133">
+        <v>135</v>
+      </c>
+      <c r="C133" s="2">
+        <v>156.54</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="E133" s="1">
+        <f t="shared" si="445"/>
+        <v>0.22000006400000002</v>
+      </c>
+      <c r="F133" s="36">
+        <f t="shared" si="446"/>
+        <v>-1.5067111111111192E-3</v>
+      </c>
+      <c r="G133" s="9"/>
+      <c r="H133" s="40">
+        <f t="shared" si="447"/>
+        <v>-0.20340600000000109</v>
+      </c>
+      <c r="I133" t="s">
+        <v>7</v>
+      </c>
+      <c r="J133" t="s">
+        <v>645</v>
+      </c>
+      <c r="K133" s="2">
+        <f t="shared" si="448"/>
+        <v>135.00009600000001</v>
+      </c>
+      <c r="L133" s="2">
+        <f t="shared" si="449"/>
+        <v>9.6000000013418685E-5</v>
+      </c>
+      <c r="M133" s="1">
+        <f t="shared" si="450"/>
+        <v>0.90000064000000013</v>
+      </c>
+      <c r="N133" s="6">
+        <f t="shared" si="451"/>
+        <v>15323.970000000005</v>
+      </c>
+      <c r="O133" s="2">
+        <f t="shared" si="452"/>
+        <v>13215.391728000004</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="15"/>
+      <c r="R133" s="6">
+        <f t="shared" si="453"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S133" s="6">
+        <f t="shared" si="454"/>
+        <v>20463.211728000002</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="455"/>
+        <v>19550</v>
+      </c>
+      <c r="U133" s="6">
+        <f t="shared" si="456"/>
+        <v>913.21172800000204</v>
+      </c>
+      <c r="V133" s="4">
+        <f t="shared" si="457"/>
+        <v>4.671159734015351E-2</v>
+      </c>
+      <c r="W133" s="4">
+        <f t="shared" si="458"/>
+        <v>7.423169942237906E-2</v>
+      </c>
+      <c r="X133" s="1">
+        <f t="shared" si="459"/>
+        <v>0.35418780279161849</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
+      <c r="A134" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="B134">
+        <v>135</v>
+      </c>
+      <c r="C134" s="2">
+        <v>159.07</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="E134" s="1">
+        <f t="shared" si="445"/>
+        <v>0.22000180599999999</v>
+      </c>
+      <c r="F134" s="36">
+        <f t="shared" si="446"/>
+        <v>1.4630940740740757E-2</v>
+      </c>
+      <c r="G134" s="9"/>
+      <c r="H134" s="40">
+        <f t="shared" si="447"/>
+        <v>1.9751770000000022</v>
+      </c>
+      <c r="I134" t="s">
+        <v>7</v>
+      </c>
+      <c r="J134" t="s">
+        <v>647</v>
+      </c>
+      <c r="K134" s="2">
+        <f t="shared" si="448"/>
+        <v>135.00270899999998</v>
+      </c>
+      <c r="L134" s="2">
+        <f t="shared" si="449"/>
+        <v>2.7089999999816428E-3</v>
+      </c>
+      <c r="M134" s="1">
+        <f t="shared" si="450"/>
+        <v>0.90001805999999984</v>
+      </c>
+      <c r="N134" s="6">
+        <f t="shared" si="451"/>
+        <v>15483.040000000005</v>
+      </c>
+      <c r="O134" s="2">
+        <f t="shared" si="452"/>
+        <v>13140.456048000004</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="6">
+        <f t="shared" si="453"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S134" s="6">
+        <f t="shared" si="454"/>
+        <v>20388.276048000003</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="455"/>
+        <v>19685</v>
+      </c>
+      <c r="U134" s="6">
+        <f t="shared" si="456"/>
+        <v>703.27604800000336</v>
+      </c>
+      <c r="V134" s="4">
+        <f t="shared" si="457"/>
+        <v>3.5726494691389554E-2</v>
+      </c>
+      <c r="W134" s="4">
+        <f t="shared" si="458"/>
+        <v>5.654626273801644E-2</v>
+      </c>
+      <c r="X134" s="1">
+        <f t="shared" si="459"/>
+        <v>0.35548959524270213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
+      <c r="A135" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="B135">
+        <v>135</v>
+      </c>
+      <c r="C135" s="2">
+        <v>158.02000000000001</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="E135" s="1">
+        <f t="shared" si="445"/>
+        <v>0.21999765733333335</v>
+      </c>
+      <c r="F135" s="36">
+        <f t="shared" si="446"/>
+        <v>7.9334962962962913E-3</v>
+      </c>
+      <c r="G135" s="9"/>
+      <c r="H135" s="40">
+        <f t="shared" si="447"/>
+        <v>1.0710219999999993</v>
+      </c>
+      <c r="I135" t="s">
+        <v>7</v>
+      </c>
+      <c r="J135" t="s">
+        <v>649</v>
+      </c>
+      <c r="K135" s="2">
+        <f t="shared" si="448"/>
+        <v>134.996486</v>
+      </c>
+      <c r="L135" s="2">
+        <f t="shared" si="449"/>
+        <v>-3.5139999999955762E-3</v>
+      </c>
+      <c r="M135" s="1">
+        <f t="shared" si="450"/>
+        <v>0.89997657333333336</v>
+      </c>
+      <c r="N135" s="6">
+        <f t="shared" si="451"/>
+        <v>15641.060000000005</v>
+      </c>
+      <c r="O135" s="2">
+        <f t="shared" si="452"/>
+        <v>13362.157558000003</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="6">
+        <f t="shared" si="453"/>
+        <v>7247.82</v>
+      </c>
+      <c r="S135" s="6">
+        <f t="shared" si="454"/>
+        <v>20609.977558000002</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="455"/>
+        <v>19820</v>
+      </c>
+      <c r="U135" s="6">
+        <f t="shared" si="456"/>
+        <v>789.97755800000232</v>
+      </c>
+      <c r="V135" s="4">
+        <f t="shared" si="457"/>
+        <v>3.9857596266397621E-2</v>
+      </c>
+      <c r="W135" s="4">
+        <f t="shared" si="458"/>
+        <v>6.28353680904985E-2</v>
+      </c>
+      <c r="X135" s="1">
+        <f t="shared" si="459"/>
+        <v>0.35166559398734881</v>
       </c>
     </row>
   </sheetData>
@@ -24401,7 +25725,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F130">
+  <conditionalFormatting sqref="F2:F135">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -24463,11 +25787,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11F15E-A5A4-324C-AB33-3A50D692890D}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24525,7 +25849,7 @@
       <c r="D2" s="54"/>
       <c r="E2" s="56">
         <f>SUM(E3:E10086)</f>
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F2" s="56">
         <f t="shared" ref="F2:K2" si="0">SUM(F3:F10086)</f>
@@ -24541,7 +25865,7 @@
       </c>
       <c r="I2" s="56">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="J2" s="56">
         <f t="shared" si="0"/>
@@ -24637,13 +25961,75 @@
       <c r="C5" s="52">
         <v>43650</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="52">
+        <v>43669</v>
+      </c>
+      <c r="E5">
+        <f>D5-C5</f>
+        <v>19</v>
+      </c>
       <c r="F5">
         <v>2000</v>
       </c>
       <c r="I5">
         <v>1000</v>
       </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>113540</v>
+      </c>
+      <c r="B6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" s="52">
+        <v>43663</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="C7" s="52"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="C8" s="52"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="C9" s="52"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="C10" s="52"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="C11" s="52"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12" s="52"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="C13" s="52"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14" s="52"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15" s="52"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="C16" s="52"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -24656,7 +26042,7 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24823,4 +26209,5605 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759702A-0991-A945-BBBA-24916E0AF84F}">
+  <dimension ref="A1:Q136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="F1">
+        <f>SUM(F3:F333)</f>
+        <v>18630000</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ref="G1:K1" si="0">SUM(G3:G333)</f>
+        <v>19215000</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>21375000</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>126.74067655134471</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>130.53340851036663</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>145.6219329081531</v>
+      </c>
+      <c r="L1">
+        <f>F1/I1</f>
+        <v>146993.06100399964</v>
+      </c>
+      <c r="M1">
+        <f>G1/J1</f>
+        <v>147203.69458883774</v>
+      </c>
+      <c r="N1">
+        <f t="shared" ref="M1:N1" si="1">H1/K1</f>
+        <v>146784.20738640844</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G2" t="s">
+        <v>629</v>
+      </c>
+      <c r="H2" t="s">
+        <v>630</v>
+      </c>
+      <c r="I2" t="s">
+        <v>631</v>
+      </c>
+      <c r="J2" t="s">
+        <v>632</v>
+      </c>
+      <c r="K2" t="s">
+        <v>633</v>
+      </c>
+      <c r="L2" t="s">
+        <v>634</v>
+      </c>
+      <c r="M2" t="s">
+        <v>635</v>
+      </c>
+      <c r="N2" t="s">
+        <v>636</v>
+      </c>
+      <c r="O2" t="s">
+        <v>637</v>
+      </c>
+      <c r="P2" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3">
+        <v>122877</v>
+      </c>
+      <c r="C3">
+        <v>1.7</v>
+      </c>
+      <c r="D3">
+        <v>1.9</v>
+      </c>
+      <c r="E3">
+        <v>1.9</v>
+      </c>
+      <c r="F3">
+        <f>150000*C3</f>
+        <v>255000</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:H3" si="2">150000*D3</f>
+        <v>285000</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>285000</v>
+      </c>
+      <c r="I3">
+        <f>F3/B3</f>
+        <v>2.0752459776850021</v>
+      </c>
+      <c r="J3">
+        <f>G3/B3</f>
+        <v>2.3193925632950023</v>
+      </c>
+      <c r="K3">
+        <f>H3/B3</f>
+        <v>2.3193925632950023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4">
+        <v>121450</v>
+      </c>
+      <c r="C4">
+        <v>1.7</v>
+      </c>
+      <c r="D4">
+        <v>1.9</v>
+      </c>
+      <c r="E4">
+        <v>1.9</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="3">150000*C4</f>
+        <v>255000</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="4">150000*D4</f>
+        <v>285000</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="5">150000*E4</f>
+        <v>285000</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="6">F4/B4</f>
+        <v>2.0996294771510908</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="7">G4/B4</f>
+        <v>2.3466447097571015</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K67" si="8">H4/B4</f>
+        <v>2.3466447097571015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5">
+        <v>124516</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>0.9</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="6"/>
+        <v>0.84326512255453112</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="7"/>
+        <v>1.0841980147129686</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="8"/>
+        <v>1.0841980147129686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6">
+        <v>126806</v>
+      </c>
+      <c r="C6">
+        <v>0.7</v>
+      </c>
+      <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6">
+        <v>0.9</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>0.82803652823998863</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="7"/>
+        <v>1.064618393451414</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="8"/>
+        <v>1.064618393451414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7">
+        <v>126351</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+      <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.9</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>0.83101835363392451</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="7"/>
+        <v>0.83101835363392451</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="8"/>
+        <v>1.068452168957903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B8">
+        <v>126252</v>
+      </c>
+      <c r="C8">
+        <v>0.7</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0.9</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>0.83166999334664005</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>0.83166999334664005</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="8"/>
+        <v>1.0692899914456802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9">
+        <v>125899</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <v>0.9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>0.83400185863271348</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>0.83400185863271348</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>1.0722881039563459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <v>126156</v>
+      </c>
+      <c r="C10">
+        <v>0.7</v>
+      </c>
+      <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>0.83230286312184909</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>0.83230286312184909</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="8"/>
+        <v>1.0701036811566631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11">
+        <v>124600</v>
+      </c>
+      <c r="C11">
+        <v>0.7</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>0.84269662921348309</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>0.84269662921348309</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>1.0834670947030498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12">
+        <v>126627</v>
+      </c>
+      <c r="C12">
+        <v>0.7</v>
+      </c>
+      <c r="D12">
+        <v>0.9</v>
+      </c>
+      <c r="E12">
+        <v>0.9</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>0.82920704115236088</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>1.066123338624464</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>1.066123338624464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13">
+        <v>126730</v>
+      </c>
+      <c r="C13">
+        <v>0.7</v>
+      </c>
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+      <c r="E13">
+        <v>0.9</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>0.82853310187011753</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>0.82853310187011753</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>1.0652568452615798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B14">
+        <v>125141</v>
+      </c>
+      <c r="C14">
+        <v>0.7</v>
+      </c>
+      <c r="D14">
+        <v>0.7</v>
+      </c>
+      <c r="E14">
+        <v>0.9</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>0.83905354759830908</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>0.83905354759830908</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>1.0787831326263975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B15">
+        <v>126950</v>
+      </c>
+      <c r="C15">
+        <v>0.7</v>
+      </c>
+      <c r="D15">
+        <v>0.7</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>0.82709728239464353</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>0.82709728239464353</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>1.063410791650256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16">
+        <v>127479</v>
+      </c>
+      <c r="C16">
+        <v>1.7</v>
+      </c>
+      <c r="D16">
+        <v>1.7</v>
+      </c>
+      <c r="E16">
+        <v>1.9</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>255000</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>285000</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>2.0003294660296991</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>2.0003294660296991</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="8"/>
+        <v>2.2356623443861343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>507</v>
+      </c>
+      <c r="B17">
+        <v>125224</v>
+      </c>
+      <c r="C17">
+        <v>1.7</v>
+      </c>
+      <c r="D17">
+        <v>1.7</v>
+      </c>
+      <c r="E17">
+        <v>1.9</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>255000</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>285000</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>2.0363508592602058</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>2.0363508592602058</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>2.275921548584936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>508</v>
+      </c>
+      <c r="B18">
+        <v>125113</v>
+      </c>
+      <c r="C18">
+        <v>1.7</v>
+      </c>
+      <c r="D18">
+        <v>1.7</v>
+      </c>
+      <c r="E18">
+        <v>1.9</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>255000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>285000</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>2.0381575056149241</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>2.0381575056149241</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>2.2779407415696209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>509</v>
+      </c>
+      <c r="B19">
+        <v>126516</v>
+      </c>
+      <c r="C19">
+        <v>1.7</v>
+      </c>
+      <c r="D19">
+        <v>1.7</v>
+      </c>
+      <c r="E19">
+        <v>1.9</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>255000</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>285000</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>2.0155553447785262</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>2.0155553447785262</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>2.2526795029877644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>510</v>
+      </c>
+      <c r="B20">
+        <v>126549</v>
+      </c>
+      <c r="C20">
+        <v>1.7</v>
+      </c>
+      <c r="D20">
+        <v>1.7</v>
+      </c>
+      <c r="E20">
+        <v>1.9</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>255000</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>285000</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>2.0150297513216224</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>2.0150297513216224</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>2.2520920750065194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>511</v>
+      </c>
+      <c r="B21">
+        <v>125974</v>
+      </c>
+      <c r="C21">
+        <v>1.7</v>
+      </c>
+      <c r="D21">
+        <v>1.7</v>
+      </c>
+      <c r="E21">
+        <v>1.9</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>255000</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>285000</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>2.0242272214901487</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>2.0242272214901487</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>2.26237160048899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>512</v>
+      </c>
+      <c r="B22">
+        <v>124359</v>
+      </c>
+      <c r="C22">
+        <v>1.7</v>
+      </c>
+      <c r="D22">
+        <v>1.7</v>
+      </c>
+      <c r="E22">
+        <v>1.9</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>255000</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>285000</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>2.0505150411309194</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>2.0505150411309194</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>2.2917521047933804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>513</v>
+      </c>
+      <c r="B23">
+        <v>123082</v>
+      </c>
+      <c r="C23">
+        <v>1.7</v>
+      </c>
+      <c r="D23">
+        <v>1.7</v>
+      </c>
+      <c r="E23">
+        <v>1.9</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>255000</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>285000</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>2.0717895386815295</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>2.0717895386815295</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>2.3155294844087679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B24">
+        <v>122799</v>
+      </c>
+      <c r="C24">
+        <v>1.7</v>
+      </c>
+      <c r="D24">
+        <v>1.9</v>
+      </c>
+      <c r="E24">
+        <v>1.9</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>285000</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>285000</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>2.076564141401803</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>2.3208658050961328</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>2.3208658050961328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>515</v>
+      </c>
+      <c r="B25">
+        <v>127127</v>
+      </c>
+      <c r="C25">
+        <v>1.7</v>
+      </c>
+      <c r="D25">
+        <v>1.9</v>
+      </c>
+      <c r="E25">
+        <v>1.9</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>285000</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>285000</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>2.005868147600431</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="7"/>
+        <v>2.241852635553423</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>2.241852635553423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>516</v>
+      </c>
+      <c r="B26">
+        <v>131610</v>
+      </c>
+      <c r="C26">
+        <v>1.7</v>
+      </c>
+      <c r="D26">
+        <v>1.7</v>
+      </c>
+      <c r="E26">
+        <v>1.9</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>255000</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>285000</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>1.9375427399133804</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>1.9375427399133804</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>2.1654889446090722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>517</v>
+      </c>
+      <c r="B27">
+        <v>133227</v>
+      </c>
+      <c r="C27">
+        <v>0.8</v>
+      </c>
+      <c r="D27">
+        <v>0.7</v>
+      </c>
+      <c r="E27">
+        <v>0.9</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>0.90071832286248288</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="7"/>
+        <v>0.78812853250467252</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="8"/>
+        <v>1.0133081132202932</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>518</v>
+      </c>
+      <c r="B28">
+        <v>135767</v>
+      </c>
+      <c r="C28">
+        <v>0.8</v>
+      </c>
+      <c r="D28">
+        <v>0.7</v>
+      </c>
+      <c r="E28">
+        <v>0.9</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>0.88386721368226451</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="7"/>
+        <v>0.77338381197198136</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>0.99435061539254754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>519</v>
+      </c>
+      <c r="B29">
+        <v>136194</v>
+      </c>
+      <c r="C29">
+        <v>0.8</v>
+      </c>
+      <c r="D29">
+        <v>0.7</v>
+      </c>
+      <c r="E29">
+        <v>0.7</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>0.88109608352790869</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="7"/>
+        <v>0.77095907308692013</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="8"/>
+        <v>0.77095907308692013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>520</v>
+      </c>
+      <c r="B30">
+        <v>135784</v>
+      </c>
+      <c r="C30">
+        <v>0.8</v>
+      </c>
+      <c r="D30">
+        <v>0.7</v>
+      </c>
+      <c r="E30">
+        <v>0.7</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>0.88375655452777946</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>0.77328698521180694</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>0.77328698521180694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>521</v>
+      </c>
+      <c r="B31">
+        <v>141360</v>
+      </c>
+      <c r="C31">
+        <v>0.8</v>
+      </c>
+      <c r="D31">
+        <v>0.7</v>
+      </c>
+      <c r="E31">
+        <v>0.7</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>105000</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>0.84889643463497455</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="7"/>
+        <v>0.74278438030560268</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>0.74278438030560268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>522</v>
+      </c>
+      <c r="B32">
+        <v>140604</v>
+      </c>
+      <c r="C32">
+        <v>0.8</v>
+      </c>
+      <c r="D32">
+        <v>0.8</v>
+      </c>
+      <c r="E32">
+        <v>0.7</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>0.85346078347699927</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="7"/>
+        <v>0.85346078347699927</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="8"/>
+        <v>0.7467781855423743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>523</v>
+      </c>
+      <c r="B33">
+        <v>140838</v>
+      </c>
+      <c r="C33">
+        <v>0.8</v>
+      </c>
+      <c r="D33">
+        <v>0.8</v>
+      </c>
+      <c r="E33">
+        <v>0.7</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>0.85204277254718186</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="7"/>
+        <v>0.85204277254718186</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="8"/>
+        <v>0.74553742597878414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>524</v>
+      </c>
+      <c r="B34">
+        <v>141254</v>
+      </c>
+      <c r="C34">
+        <v>0.8</v>
+      </c>
+      <c r="D34">
+        <v>0.8</v>
+      </c>
+      <c r="E34">
+        <v>0.7</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>0.84953346453905731</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="7"/>
+        <v>0.84953346453905731</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="8"/>
+        <v>0.74334178147167518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>525</v>
+      </c>
+      <c r="B35">
+        <v>145630</v>
+      </c>
+      <c r="C35">
+        <v>0.8</v>
+      </c>
+      <c r="D35">
+        <v>0.8</v>
+      </c>
+      <c r="E35">
+        <v>0.7</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>0.82400604271097988</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="7"/>
+        <v>0.82400604271097988</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="8"/>
+        <v>0.72100528737210745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36">
+        <v>153637</v>
+      </c>
+      <c r="C36">
+        <v>0.9</v>
+      </c>
+      <c r="D36">
+        <v>0.8</v>
+      </c>
+      <c r="E36">
+        <v>0.7</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>135000</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="6"/>
+        <v>0.87869458528870004</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="7"/>
+        <v>0.7810618535899555</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="8"/>
+        <v>0.68342912189121108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>527</v>
+      </c>
+      <c r="B37">
+        <v>154699</v>
+      </c>
+      <c r="C37">
+        <v>0.9</v>
+      </c>
+      <c r="D37">
+        <v>0.9</v>
+      </c>
+      <c r="E37">
+        <v>0.8</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>135000</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>120000</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
+        <v>0.8726623960077311</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="7"/>
+        <v>0.8726623960077311</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="8"/>
+        <v>0.77569990756242768</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>528</v>
+      </c>
+      <c r="B38">
+        <v>152042</v>
+      </c>
+      <c r="C38">
+        <v>0.9</v>
+      </c>
+      <c r="D38">
+        <v>0.9</v>
+      </c>
+      <c r="E38">
+        <v>0.8</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>135000</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>120000</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
+        <v>0.88791255047947282</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="7"/>
+        <v>0.88791255047947282</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="8"/>
+        <v>0.78925560042619802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>529</v>
+      </c>
+      <c r="B39">
+        <v>153568</v>
+      </c>
+      <c r="C39">
+        <v>0.9</v>
+      </c>
+      <c r="D39">
+        <v>0.9</v>
+      </c>
+      <c r="E39">
+        <v>0.8</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>135000</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>120000</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>0.87908939362367156</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="7"/>
+        <v>0.87908939362367156</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="8"/>
+        <v>0.78141279433215249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>530</v>
+      </c>
+      <c r="B40">
+        <v>156787</v>
+      </c>
+      <c r="C40">
+        <v>0.9</v>
+      </c>
+      <c r="D40">
+        <v>0.9</v>
+      </c>
+      <c r="E40">
+        <v>0.8</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>135000</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>120000</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="6"/>
+        <v>0.86104077506425913</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="7"/>
+        <v>0.86104077506425913</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="8"/>
+        <v>0.76536957783489701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>531</v>
+      </c>
+      <c r="B41">
+        <v>161971</v>
+      </c>
+      <c r="C41">
+        <v>0.9</v>
+      </c>
+      <c r="D41">
+        <v>0.9</v>
+      </c>
+      <c r="E41">
+        <v>0.8</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>135000</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>120000</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>0.83348253699736374</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="7"/>
+        <v>0.83348253699736374</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="8"/>
+        <v>0.74087336621987887</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>532</v>
+      </c>
+      <c r="B42">
+        <v>167657</v>
+      </c>
+      <c r="C42">
+        <v>0.9</v>
+      </c>
+      <c r="D42">
+        <v>0.9</v>
+      </c>
+      <c r="E42">
+        <v>0.8</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>135000</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>120000</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>0.80521541003358044</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>0.80521541003358044</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="8"/>
+        <v>0.71574703114096039</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>533</v>
+      </c>
+      <c r="B43">
+        <v>170050</v>
+      </c>
+      <c r="C43">
+        <v>0.8</v>
+      </c>
+      <c r="D43">
+        <v>0.9</v>
+      </c>
+      <c r="E43">
+        <v>0.9</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="6"/>
+        <v>0.70567480152896211</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="7"/>
+        <v>0.79388415172008231</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>0.79388415172008231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>534</v>
+      </c>
+      <c r="B44">
+        <v>169242</v>
+      </c>
+      <c r="C44">
+        <v>0.8</v>
+      </c>
+      <c r="D44">
+        <v>0.9</v>
+      </c>
+      <c r="E44">
+        <v>0.9</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>0.70904385436239237</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="7"/>
+        <v>0.79767433615769134</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="8"/>
+        <v>0.79767433615769134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>535</v>
+      </c>
+      <c r="B45">
+        <v>165449</v>
+      </c>
+      <c r="C45">
+        <v>0.8</v>
+      </c>
+      <c r="D45">
+        <v>0.9</v>
+      </c>
+      <c r="E45">
+        <v>0.9</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="6"/>
+        <v>0.72529903474786794</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>0.81596141409135137</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>0.81596141409135137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>536</v>
+      </c>
+      <c r="B46">
+        <v>172780</v>
+      </c>
+      <c r="C46">
+        <v>0.8</v>
+      </c>
+      <c r="D46">
+        <v>0.9</v>
+      </c>
+      <c r="E46">
+        <v>0.9</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>0.69452482926264614</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="7"/>
+        <v>0.78134043292047695</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="8"/>
+        <v>0.78134043292047695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>537</v>
+      </c>
+      <c r="B47">
+        <v>177343</v>
+      </c>
+      <c r="C47">
+        <v>0.8</v>
+      </c>
+      <c r="D47">
+        <v>0.9</v>
+      </c>
+      <c r="E47">
+        <v>0.9</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
+        <v>0.67665484400286446</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="7"/>
+        <v>0.76123669950322259</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="8"/>
+        <v>0.76123669950322259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>538</v>
+      </c>
+      <c r="B48">
+        <v>169386</v>
+      </c>
+      <c r="C48">
+        <v>0.8</v>
+      </c>
+      <c r="D48">
+        <v>0.8</v>
+      </c>
+      <c r="E48">
+        <v>0.9</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>0.7084410754135525</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="7"/>
+        <v>0.7084410754135525</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="8"/>
+        <v>0.79699620984024655</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>539</v>
+      </c>
+      <c r="B49">
+        <v>165019</v>
+      </c>
+      <c r="C49">
+        <v>0.8</v>
+      </c>
+      <c r="D49">
+        <v>0.9</v>
+      </c>
+      <c r="E49">
+        <v>0.9</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>0.727188990358686</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="7"/>
+        <v>0.81808761415352171</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="8"/>
+        <v>0.81808761415352171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>540</v>
+      </c>
+      <c r="B50">
+        <v>166262</v>
+      </c>
+      <c r="C50">
+        <v>0.8</v>
+      </c>
+      <c r="D50">
+        <v>0.9</v>
+      </c>
+      <c r="E50">
+        <v>0.9</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="6"/>
+        <v>0.72175241486328812</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="7"/>
+        <v>0.81197146672119902</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="8"/>
+        <v>0.81197146672119902</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>541</v>
+      </c>
+      <c r="B51">
+        <v>170706</v>
+      </c>
+      <c r="C51">
+        <v>0.8</v>
+      </c>
+      <c r="D51">
+        <v>0.9</v>
+      </c>
+      <c r="E51">
+        <v>0.9</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="6"/>
+        <v>0.70296298899862919</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="7"/>
+        <v>0.79083336262345783</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="8"/>
+        <v>0.79083336262345783</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>542</v>
+      </c>
+      <c r="B52">
+        <v>170887</v>
+      </c>
+      <c r="C52">
+        <v>0.8</v>
+      </c>
+      <c r="D52">
+        <v>0.9</v>
+      </c>
+      <c r="E52">
+        <v>0.9</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="6"/>
+        <v>0.70221842504110898</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="7"/>
+        <v>0.78999572817124764</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="8"/>
+        <v>0.78999572817124764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>543</v>
+      </c>
+      <c r="B53">
+        <v>168790</v>
+      </c>
+      <c r="C53">
+        <v>0.8</v>
+      </c>
+      <c r="D53">
+        <v>0.9</v>
+      </c>
+      <c r="E53">
+        <v>0.9</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="6"/>
+        <v>0.71094259138574556</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="7"/>
+        <v>0.7998104153089638</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="8"/>
+        <v>0.7998104153089638</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>544</v>
+      </c>
+      <c r="B54">
+        <v>170385</v>
+      </c>
+      <c r="C54">
+        <v>0.8</v>
+      </c>
+      <c r="D54">
+        <v>0.9</v>
+      </c>
+      <c r="E54">
+        <v>0.9</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="6"/>
+        <v>0.70428734923848935</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="7"/>
+        <v>0.79232326789330043</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="8"/>
+        <v>0.79232326789330043</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>545</v>
+      </c>
+      <c r="B55">
+        <v>169387</v>
+      </c>
+      <c r="C55">
+        <v>0.8</v>
+      </c>
+      <c r="D55">
+        <v>0.9</v>
+      </c>
+      <c r="E55">
+        <v>0.9</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="6"/>
+        <v>0.7084368930319328</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="7"/>
+        <v>0.79699150466092439</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="8"/>
+        <v>0.79699150466092439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>546</v>
+      </c>
+      <c r="B56">
+        <v>166884</v>
+      </c>
+      <c r="C56">
+        <v>0.8</v>
+      </c>
+      <c r="D56">
+        <v>0.9</v>
+      </c>
+      <c r="E56">
+        <v>0.9</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="6"/>
+        <v>0.71906234270511249</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="7"/>
+        <v>0.80894513554325165</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="8"/>
+        <v>0.80894513554325165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>547</v>
+      </c>
+      <c r="B57">
+        <v>163019</v>
+      </c>
+      <c r="C57">
+        <v>0.8</v>
+      </c>
+      <c r="D57">
+        <v>0.9</v>
+      </c>
+      <c r="E57">
+        <v>0.9</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="6"/>
+        <v>0.73611051472527744</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="7"/>
+        <v>0.82812432906593714</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="8"/>
+        <v>0.82812432906593714</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>548</v>
+      </c>
+      <c r="B58">
+        <v>163777</v>
+      </c>
+      <c r="C58">
+        <v>0.8</v>
+      </c>
+      <c r="D58">
+        <v>0.9</v>
+      </c>
+      <c r="E58">
+        <v>0.9</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="6"/>
+        <v>0.73270361528175509</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="7"/>
+        <v>0.82429156719197449</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="8"/>
+        <v>0.82429156719197449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>549</v>
+      </c>
+      <c r="B59">
+        <v>162682</v>
+      </c>
+      <c r="C59">
+        <v>0.8</v>
+      </c>
+      <c r="D59">
+        <v>0.9</v>
+      </c>
+      <c r="E59">
+        <v>0.9</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="6"/>
+        <v>0.73763538682829077</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="7"/>
+        <v>0.82983981018182718</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="8"/>
+        <v>0.82983981018182718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>550</v>
+      </c>
+      <c r="B60">
+        <v>169355</v>
+      </c>
+      <c r="C60">
+        <v>0.9</v>
+      </c>
+      <c r="D60">
+        <v>0.9</v>
+      </c>
+      <c r="E60">
+        <v>0.9</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>135000</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="6"/>
+        <v>0.79714209795990676</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="7"/>
+        <v>0.79714209795990676</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="8"/>
+        <v>0.79714209795990676</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>551</v>
+      </c>
+      <c r="B61">
+        <v>176089</v>
+      </c>
+      <c r="C61">
+        <v>0.8</v>
+      </c>
+      <c r="D61">
+        <v>0.9</v>
+      </c>
+      <c r="E61">
+        <v>0.9</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="6"/>
+        <v>0.68147357302273281</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="7"/>
+        <v>0.76665776965057442</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="8"/>
+        <v>0.76665776965057442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>552</v>
+      </c>
+      <c r="B62">
+        <v>175416</v>
+      </c>
+      <c r="C62">
+        <v>0.8</v>
+      </c>
+      <c r="D62">
+        <v>0.8</v>
+      </c>
+      <c r="E62">
+        <v>0.9</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="6"/>
+        <v>0.68408811054863872</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="7"/>
+        <v>0.68408811054863872</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="8"/>
+        <v>0.76959912436721845</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>553</v>
+      </c>
+      <c r="B63">
+        <v>176818</v>
+      </c>
+      <c r="C63">
+        <v>0.8</v>
+      </c>
+      <c r="D63">
+        <v>0.8</v>
+      </c>
+      <c r="E63">
+        <v>0.9</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="6"/>
+        <v>0.67866393692949811</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="7"/>
+        <v>0.67866393692949811</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="8"/>
+        <v>0.76349692904568545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>554</v>
+      </c>
+      <c r="B64">
+        <v>177726</v>
+      </c>
+      <c r="C64">
+        <v>0.8</v>
+      </c>
+      <c r="D64">
+        <v>0.8</v>
+      </c>
+      <c r="E64">
+        <v>0.9</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="6"/>
+        <v>0.67519665102461091</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="7"/>
+        <v>0.67519665102461091</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="8"/>
+        <v>0.75959623240268725</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>555</v>
+      </c>
+      <c r="B65">
+        <v>173966</v>
+      </c>
+      <c r="C65">
+        <v>0.8</v>
+      </c>
+      <c r="D65">
+        <v>0.8</v>
+      </c>
+      <c r="E65">
+        <v>0.9</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="6"/>
+        <v>0.6897899589574974</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="7"/>
+        <v>0.6897899589574974</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="8"/>
+        <v>0.7760137038271846</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>556</v>
+      </c>
+      <c r="B66">
+        <v>174117</v>
+      </c>
+      <c r="C66">
+        <v>0.8</v>
+      </c>
+      <c r="D66">
+        <v>0.9</v>
+      </c>
+      <c r="E66">
+        <v>0.9</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="6"/>
+        <v>0.689191750374748</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="7"/>
+        <v>0.77534071917159153</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="8"/>
+        <v>0.77534071917159153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>557</v>
+      </c>
+      <c r="B67">
+        <v>172664</v>
+      </c>
+      <c r="C67">
+        <v>0.8</v>
+      </c>
+      <c r="D67">
+        <v>0.8</v>
+      </c>
+      <c r="E67">
+        <v>0.9</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="5"/>
+        <v>135000</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="6"/>
+        <v>0.69499142843904926</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="7"/>
+        <v>0.69499142843904926</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="8"/>
+        <v>0.78186535699393045</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>558</v>
+      </c>
+      <c r="B68">
+        <v>169110</v>
+      </c>
+      <c r="C68">
+        <v>0.8</v>
+      </c>
+      <c r="D68">
+        <v>0.9</v>
+      </c>
+      <c r="E68">
+        <v>0.9</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F131" si="9">150000*C68</f>
+        <v>120000</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G131" si="10">150000*D68</f>
+        <v>135000</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H131" si="11">150000*E68</f>
+        <v>135000</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I131" si="12">F68/B68</f>
+        <v>0.70959730353024664</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J131" si="13">G68/B68</f>
+        <v>0.79829696647152737</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:K131" si="14">H68/B68</f>
+        <v>0.79829696647152737</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>559</v>
+      </c>
+      <c r="B69">
+        <v>169573</v>
+      </c>
+      <c r="C69">
+        <v>0.8</v>
+      </c>
+      <c r="D69">
+        <v>0.9</v>
+      </c>
+      <c r="E69">
+        <v>0.9</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="12"/>
+        <v>0.70765982792071846</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="13"/>
+        <v>0.79611730641080836</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="14"/>
+        <v>0.79611730641080836</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>560</v>
+      </c>
+      <c r="B70">
+        <v>166690</v>
+      </c>
+      <c r="C70">
+        <v>0.8</v>
+      </c>
+      <c r="D70">
+        <v>0.9</v>
+      </c>
+      <c r="E70">
+        <v>0.9</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="12"/>
+        <v>0.71989921411002455</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="13"/>
+        <v>0.80988661587377764</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="14"/>
+        <v>0.80988661587377764</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>561</v>
+      </c>
+      <c r="B71">
+        <v>169753</v>
+      </c>
+      <c r="C71">
+        <v>0.8</v>
+      </c>
+      <c r="D71">
+        <v>0.9</v>
+      </c>
+      <c r="E71">
+        <v>0.9</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="12"/>
+        <v>0.7069094507902659</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="13"/>
+        <v>0.79527313213904904</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="14"/>
+        <v>0.79527313213904904</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>562</v>
+      </c>
+      <c r="B72">
+        <v>171744</v>
+      </c>
+      <c r="C72">
+        <v>0.8</v>
+      </c>
+      <c r="D72">
+        <v>0.9</v>
+      </c>
+      <c r="E72">
+        <v>0.9</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="12"/>
+        <v>0.69871436556735611</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="13"/>
+        <v>0.78605366126327558</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="14"/>
+        <v>0.78605366126327558</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>563</v>
+      </c>
+      <c r="B73">
+        <v>170455</v>
+      </c>
+      <c r="C73">
+        <v>0.8</v>
+      </c>
+      <c r="D73">
+        <v>0.9</v>
+      </c>
+      <c r="E73">
+        <v>0.9</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="12"/>
+        <v>0.70399812267167283</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="13"/>
+        <v>0.79199788800563198</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="14"/>
+        <v>0.79199788800563198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>564</v>
+      </c>
+      <c r="B74">
+        <v>171580</v>
+      </c>
+      <c r="C74">
+        <v>0.8</v>
+      </c>
+      <c r="D74">
+        <v>0.9</v>
+      </c>
+      <c r="E74">
+        <v>0.9</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="12"/>
+        <v>0.69938221237906517</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="13"/>
+        <v>0.78680498892644835</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="14"/>
+        <v>0.78680498892644835</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>565</v>
+      </c>
+      <c r="B75">
+        <v>169751</v>
+      </c>
+      <c r="C75">
+        <v>0.8</v>
+      </c>
+      <c r="D75">
+        <v>0.9</v>
+      </c>
+      <c r="E75">
+        <v>0.9</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="12"/>
+        <v>0.70691777957125435</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="13"/>
+        <v>0.79528250201766115</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="14"/>
+        <v>0.79528250201766115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>566</v>
+      </c>
+      <c r="B76">
+        <v>168380</v>
+      </c>
+      <c r="C76">
+        <v>0.8</v>
+      </c>
+      <c r="D76">
+        <v>0.9</v>
+      </c>
+      <c r="E76">
+        <v>0.9</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="12"/>
+        <v>0.71267371421784065</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="13"/>
+        <v>0.80175792849507066</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="14"/>
+        <v>0.80175792849507066</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>567</v>
+      </c>
+      <c r="B77">
+        <v>171885</v>
+      </c>
+      <c r="C77">
+        <v>0.8</v>
+      </c>
+      <c r="D77">
+        <v>0.9</v>
+      </c>
+      <c r="E77">
+        <v>0.9</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="12"/>
+        <v>0.69814119905750938</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="13"/>
+        <v>0.78540884893969809</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="14"/>
+        <v>0.78540884893969809</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>568</v>
+      </c>
+      <c r="B78">
+        <v>166998</v>
+      </c>
+      <c r="C78">
+        <v>0.8</v>
+      </c>
+      <c r="D78">
+        <v>0.9</v>
+      </c>
+      <c r="E78">
+        <v>0.9</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="12"/>
+        <v>0.71857147989796288</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="13"/>
+        <v>0.80839291488520826</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="14"/>
+        <v>0.80839291488520826</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>569</v>
+      </c>
+      <c r="B79">
+        <v>165782</v>
+      </c>
+      <c r="C79">
+        <v>0.8</v>
+      </c>
+      <c r="D79">
+        <v>0.9</v>
+      </c>
+      <c r="E79">
+        <v>0.9</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="12"/>
+        <v>0.72384215415425079</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="13"/>
+        <v>0.81432242342353212</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="14"/>
+        <v>0.81432242342353212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>570</v>
+      </c>
+      <c r="B80">
+        <v>161562</v>
+      </c>
+      <c r="C80">
+        <v>0.8</v>
+      </c>
+      <c r="D80">
+        <v>0.9</v>
+      </c>
+      <c r="E80">
+        <v>0.9</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="12"/>
+        <v>0.74274891372971363</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="13"/>
+        <v>0.83559252794592787</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="14"/>
+        <v>0.83559252794592787</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>571</v>
+      </c>
+      <c r="B81">
+        <v>162378</v>
+      </c>
+      <c r="C81">
+        <v>0.9</v>
+      </c>
+      <c r="D81">
+        <v>0.9</v>
+      </c>
+      <c r="E81">
+        <v>0.9</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="12"/>
+        <v>0.83139341536415035</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="13"/>
+        <v>0.83139341536415035</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="14"/>
+        <v>0.83139341536415035</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>572</v>
+      </c>
+      <c r="B82">
+        <v>149489</v>
+      </c>
+      <c r="C82">
+        <v>0.9</v>
+      </c>
+      <c r="D82">
+        <v>0.9</v>
+      </c>
+      <c r="E82">
+        <v>0.9</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="11"/>
+        <v>135000</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="12"/>
+        <v>0.90307648054371892</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="13"/>
+        <v>0.90307648054371892</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="14"/>
+        <v>0.90307648054371892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>573</v>
+      </c>
+      <c r="B83">
+        <v>150416</v>
+      </c>
+      <c r="C83">
+        <v>0.9</v>
+      </c>
+      <c r="D83">
+        <v>0.9</v>
+      </c>
+      <c r="E83">
+        <v>0.8</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="12"/>
+        <v>0.89751090309541537</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="13"/>
+        <v>0.89751090309541537</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="14"/>
+        <v>0.79778746941814704</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>574</v>
+      </c>
+      <c r="B84">
+        <v>148187</v>
+      </c>
+      <c r="C84">
+        <v>0.9</v>
+      </c>
+      <c r="D84">
+        <v>0.9</v>
+      </c>
+      <c r="E84">
+        <v>0.8</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="12"/>
+        <v>0.91101108734234448</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="13"/>
+        <v>0.91101108734234448</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="14"/>
+        <v>0.80978763319319513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>575</v>
+      </c>
+      <c r="B85">
+        <v>146948</v>
+      </c>
+      <c r="C85">
+        <v>0.9</v>
+      </c>
+      <c r="D85">
+        <v>0.9</v>
+      </c>
+      <c r="E85">
+        <v>0.7</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="11"/>
+        <v>105000</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="12"/>
+        <v>0.9186923265372785</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="13"/>
+        <v>0.9186923265372785</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="14"/>
+        <v>0.71453847619566102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>576</v>
+      </c>
+      <c r="B86">
+        <v>153387</v>
+      </c>
+      <c r="C86">
+        <v>0.9</v>
+      </c>
+      <c r="D86">
+        <v>0.9</v>
+      </c>
+      <c r="E86">
+        <v>0.7</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="11"/>
+        <v>105000</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="12"/>
+        <v>0.88012673825030807</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="13"/>
+        <v>0.88012673825030807</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="14"/>
+        <v>0.68454301863912848</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>577</v>
+      </c>
+      <c r="B87">
+        <v>150306</v>
+      </c>
+      <c r="C87">
+        <v>0.9</v>
+      </c>
+      <c r="D87">
+        <v>0.9</v>
+      </c>
+      <c r="E87">
+        <v>0.8</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="12"/>
+        <v>0.8981677378148577</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="13"/>
+        <v>0.8981677378148577</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="14"/>
+        <v>0.79837132250209575</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>578</v>
+      </c>
+      <c r="B88">
+        <v>149460</v>
+      </c>
+      <c r="C88">
+        <v>0.9</v>
+      </c>
+      <c r="D88">
+        <v>0.9</v>
+      </c>
+      <c r="E88">
+        <v>0.8</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="12"/>
+        <v>0.90325170614211159</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="13"/>
+        <v>0.90325170614211159</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="14"/>
+        <v>0.80289040545965473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>579</v>
+      </c>
+      <c r="B89">
+        <v>152869</v>
+      </c>
+      <c r="C89">
+        <v>0.9</v>
+      </c>
+      <c r="D89">
+        <v>0.9</v>
+      </c>
+      <c r="E89">
+        <v>0.8</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="12"/>
+        <v>0.88310906724057858</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="13"/>
+        <v>0.88310906724057858</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="14"/>
+        <v>0.78498583754718088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>580</v>
+      </c>
+      <c r="B90">
+        <v>153367</v>
+      </c>
+      <c r="C90">
+        <v>0.9</v>
+      </c>
+      <c r="D90">
+        <v>0.9</v>
+      </c>
+      <c r="E90">
+        <v>0.8</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="12"/>
+        <v>0.88024151218971491</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="13"/>
+        <v>0.88024151218971491</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="14"/>
+        <v>0.78243689972419095</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>581</v>
+      </c>
+      <c r="B91">
+        <v>147875</v>
+      </c>
+      <c r="C91">
+        <v>0.9</v>
+      </c>
+      <c r="D91">
+        <v>0.9</v>
+      </c>
+      <c r="E91">
+        <v>0.8</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="12"/>
+        <v>0.91293322062552829</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="13"/>
+        <v>0.91293322062552829</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="14"/>
+        <v>0.81149619611158075</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>582</v>
+      </c>
+      <c r="B92">
+        <v>146931</v>
+      </c>
+      <c r="C92">
+        <v>0.9</v>
+      </c>
+      <c r="D92">
+        <v>0.9</v>
+      </c>
+      <c r="E92">
+        <v>0.7</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="11"/>
+        <v>105000</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="12"/>
+        <v>0.91879861976029564</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="13"/>
+        <v>0.91879861976029564</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="14"/>
+        <v>0.71462114870245219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>583</v>
+      </c>
+      <c r="B93">
+        <v>149372</v>
+      </c>
+      <c r="C93">
+        <v>0.9</v>
+      </c>
+      <c r="D93">
+        <v>0.9</v>
+      </c>
+      <c r="E93">
+        <v>1.7</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="11"/>
+        <v>255000</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="12"/>
+        <v>0.90378384168384973</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="13"/>
+        <v>0.90378384168384973</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="14"/>
+        <v>1.7071472565139383</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>584</v>
+      </c>
+      <c r="B94">
+        <v>148863</v>
+      </c>
+      <c r="C94">
+        <v>0.9</v>
+      </c>
+      <c r="D94">
+        <v>0.9</v>
+      </c>
+      <c r="E94">
+        <v>1.8</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="11"/>
+        <v>270000</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="12"/>
+        <v>0.90687410572136795</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="13"/>
+        <v>0.90687410572136795</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="14"/>
+        <v>1.8137482114427359</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>585</v>
+      </c>
+      <c r="B95">
+        <v>145124</v>
+      </c>
+      <c r="C95">
+        <v>0.9</v>
+      </c>
+      <c r="D95">
+        <v>0.9</v>
+      </c>
+      <c r="E95">
+        <v>1.8</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="11"/>
+        <v>270000</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="12"/>
+        <v>0.9302389680549048</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="13"/>
+        <v>0.9302389680549048</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="14"/>
+        <v>1.8604779361098096</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>586</v>
+      </c>
+      <c r="B96">
+        <v>144375</v>
+      </c>
+      <c r="C96">
+        <v>0.9</v>
+      </c>
+      <c r="D96">
+        <v>0.9</v>
+      </c>
+      <c r="E96">
+        <v>1.7</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="11"/>
+        <v>255000</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="12"/>
+        <v>0.93506493506493504</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="13"/>
+        <v>0.93506493506493504</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="14"/>
+        <v>1.7662337662337662</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>587</v>
+      </c>
+      <c r="B97">
+        <v>149195</v>
+      </c>
+      <c r="C97">
+        <v>0.9</v>
+      </c>
+      <c r="D97">
+        <v>0.9</v>
+      </c>
+      <c r="E97">
+        <v>0.7</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="11"/>
+        <v>105000</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="12"/>
+        <v>0.90485606085994841</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="13"/>
+        <v>0.90485606085994841</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="14"/>
+        <v>0.70377693622440429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>588</v>
+      </c>
+      <c r="B98">
+        <v>150516</v>
+      </c>
+      <c r="C98">
+        <v>0.9</v>
+      </c>
+      <c r="D98">
+        <v>0.9</v>
+      </c>
+      <c r="E98">
+        <v>0.8</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="12"/>
+        <v>0.89691461372877301</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="13"/>
+        <v>0.89691461372877301</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="14"/>
+        <v>0.79725743442557606</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>589</v>
+      </c>
+      <c r="B99">
+        <v>149789</v>
+      </c>
+      <c r="C99">
+        <v>0.9</v>
+      </c>
+      <c r="D99">
+        <v>0.9</v>
+      </c>
+      <c r="E99">
+        <v>0.8</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="12"/>
+        <v>0.90126778334857705</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="13"/>
+        <v>0.90126778334857705</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="14"/>
+        <v>0.80112691853206841</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>590</v>
+      </c>
+      <c r="B100">
+        <v>148524</v>
+      </c>
+      <c r="C100">
+        <v>0.9</v>
+      </c>
+      <c r="D100">
+        <v>0.9</v>
+      </c>
+      <c r="E100">
+        <v>0.8</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="12"/>
+        <v>0.9089440090490426</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="13"/>
+        <v>0.9089440090490426</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="14"/>
+        <v>0.80795023026581558</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>591</v>
+      </c>
+      <c r="B101">
+        <v>148366</v>
+      </c>
+      <c r="C101">
+        <v>0.9</v>
+      </c>
+      <c r="D101">
+        <v>0.9</v>
+      </c>
+      <c r="E101">
+        <v>0.8</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="12"/>
+        <v>0.90991197444158367</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="13"/>
+        <v>0.90991197444158367</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="14"/>
+        <v>0.80881064394807434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>592</v>
+      </c>
+      <c r="B102">
+        <v>146898</v>
+      </c>
+      <c r="C102">
+        <v>0.9</v>
+      </c>
+      <c r="D102">
+        <v>0.9</v>
+      </c>
+      <c r="E102">
+        <v>1.8</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="11"/>
+        <v>270000</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="12"/>
+        <v>0.91900502389413063</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="13"/>
+        <v>0.91900502389413063</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="14"/>
+        <v>1.8380100477882613</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>593</v>
+      </c>
+      <c r="B103">
+        <v>145627</v>
+      </c>
+      <c r="C103">
+        <v>0.9</v>
+      </c>
+      <c r="D103">
+        <v>0.9</v>
+      </c>
+      <c r="E103">
+        <v>1.7</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="11"/>
+        <v>255000</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="12"/>
+        <v>0.92702589492333154</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="13"/>
+        <v>0.92702589492333154</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="14"/>
+        <v>1.7510489126329596</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>594</v>
+      </c>
+      <c r="B104">
+        <v>145118</v>
+      </c>
+      <c r="C104">
+        <v>0.9</v>
+      </c>
+      <c r="D104">
+        <v>0.9</v>
+      </c>
+      <c r="E104">
+        <v>1.7</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="11"/>
+        <v>255000</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="12"/>
+        <v>0.93027742940227953</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="13"/>
+        <v>0.93027742940227953</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="14"/>
+        <v>1.7571906999820834</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>595</v>
+      </c>
+      <c r="B105">
+        <v>141606</v>
+      </c>
+      <c r="C105">
+        <v>0.9</v>
+      </c>
+      <c r="D105">
+        <v>0.9</v>
+      </c>
+      <c r="E105">
+        <v>1.7</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="11"/>
+        <v>255000</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="12"/>
+        <v>0.95334943434600228</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="13"/>
+        <v>0.95334943434600228</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="14"/>
+        <v>1.8007711537646709</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>596</v>
+      </c>
+      <c r="B106">
+        <v>143134</v>
+      </c>
+      <c r="C106">
+        <v>0.9</v>
+      </c>
+      <c r="D106">
+        <v>0.9</v>
+      </c>
+      <c r="E106">
+        <v>1.7</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="11"/>
+        <v>255000</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="12"/>
+        <v>0.9431721324073945</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="13"/>
+        <v>0.9431721324073945</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="14"/>
+        <v>1.7815473612139674</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>597</v>
+      </c>
+      <c r="B107">
+        <v>148735</v>
+      </c>
+      <c r="C107">
+        <v>0.9</v>
+      </c>
+      <c r="D107">
+        <v>0.9</v>
+      </c>
+      <c r="E107">
+        <v>0.7</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="11"/>
+        <v>105000</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="12"/>
+        <v>0.90765455340034285</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="13"/>
+        <v>0.90765455340034285</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="14"/>
+        <v>0.70595354153360002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>598</v>
+      </c>
+      <c r="B108">
+        <v>147390</v>
+      </c>
+      <c r="C108">
+        <v>0.9</v>
+      </c>
+      <c r="D108">
+        <v>0.9</v>
+      </c>
+      <c r="E108">
+        <v>0.8</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="12"/>
+        <v>0.91593730917972727</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="13"/>
+        <v>0.91593730917972727</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="14"/>
+        <v>0.81416649704864641</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>599</v>
+      </c>
+      <c r="B109">
+        <v>147983</v>
+      </c>
+      <c r="C109">
+        <v>0.9</v>
+      </c>
+      <c r="D109">
+        <v>0.9</v>
+      </c>
+      <c r="E109">
+        <v>0.8</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="12"/>
+        <v>0.91226694958204657</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="13"/>
+        <v>0.91226694958204657</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="14"/>
+        <v>0.81090395518404146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>600</v>
+      </c>
+      <c r="B110">
+        <v>145396</v>
+      </c>
+      <c r="C110">
+        <v>0.9</v>
+      </c>
+      <c r="D110">
+        <v>0.9</v>
+      </c>
+      <c r="E110">
+        <v>0.8</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="12"/>
+        <v>0.92849872073509587</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="13"/>
+        <v>0.92849872073509587</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="14"/>
+        <v>0.82533219620897413</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>601</v>
+      </c>
+      <c r="B111">
+        <v>144235</v>
+      </c>
+      <c r="C111">
+        <v>0.9</v>
+      </c>
+      <c r="D111">
+        <v>0.9</v>
+      </c>
+      <c r="E111">
+        <v>0.7</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="11"/>
+        <v>105000</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="12"/>
+        <v>0.93597254480535241</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="13"/>
+        <v>0.93597254480535241</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="14"/>
+        <v>0.72797864595971851</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>602</v>
+      </c>
+      <c r="B112">
+        <v>145575</v>
+      </c>
+      <c r="C112">
+        <v>0.9</v>
+      </c>
+      <c r="D112">
+        <v>0.9</v>
+      </c>
+      <c r="E112">
+        <v>0.7</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="11"/>
+        <v>105000</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="12"/>
+        <v>0.92735703245749612</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="13"/>
+        <v>0.92735703245749612</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="14"/>
+        <v>0.72127769191138591</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>603</v>
+      </c>
+      <c r="B113">
+        <v>146999</v>
+      </c>
+      <c r="C113">
+        <v>0.9</v>
+      </c>
+      <c r="D113">
+        <v>0.9</v>
+      </c>
+      <c r="E113">
+        <v>1.7</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="11"/>
+        <v>255000</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="12"/>
+        <v>0.9183735943781931</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="13"/>
+        <v>0.9183735943781931</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="14"/>
+        <v>1.7347056782699202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>604</v>
+      </c>
+      <c r="B114">
+        <v>149801</v>
+      </c>
+      <c r="C114">
+        <v>0.9</v>
+      </c>
+      <c r="D114">
+        <v>0.9</v>
+      </c>
+      <c r="E114">
+        <v>0.7</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="11"/>
+        <v>105000</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="12"/>
+        <v>0.90119558614428474</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="13"/>
+        <v>0.90119558614428474</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="14"/>
+        <v>0.70092990033444369</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>605</v>
+      </c>
+      <c r="B115">
+        <v>152381</v>
+      </c>
+      <c r="C115">
+        <v>0.9</v>
+      </c>
+      <c r="D115">
+        <v>0.9</v>
+      </c>
+      <c r="E115">
+        <v>0.8</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="12"/>
+        <v>0.88593722314461776</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="13"/>
+        <v>0.88593722314461776</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="14"/>
+        <v>0.78749975390632687</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>606</v>
+      </c>
+      <c r="B116">
+        <v>151446</v>
+      </c>
+      <c r="C116">
+        <v>0.9</v>
+      </c>
+      <c r="D116">
+        <v>0.9</v>
+      </c>
+      <c r="E116">
+        <v>0.8</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="12"/>
+        <v>0.89140683808090015</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="13"/>
+        <v>0.89140683808090015</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="14"/>
+        <v>0.79236163384968905</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>607</v>
+      </c>
+      <c r="B117">
+        <v>149847</v>
+      </c>
+      <c r="C117">
+        <v>0.9</v>
+      </c>
+      <c r="D117">
+        <v>0.9</v>
+      </c>
+      <c r="E117">
+        <v>0.8</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="12"/>
+        <v>0.90091893731606243</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="13"/>
+        <v>0.90091893731606243</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="14"/>
+        <v>0.80081683316983321</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>608</v>
+      </c>
+      <c r="B118">
+        <v>150455</v>
+      </c>
+      <c r="C118">
+        <v>0.9</v>
+      </c>
+      <c r="D118">
+        <v>0.9</v>
+      </c>
+      <c r="E118">
+        <v>0.8</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="12"/>
+        <v>0.89727825595693067</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="13"/>
+        <v>0.89727825595693067</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="14"/>
+        <v>0.79758067196171611</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>609</v>
+      </c>
+      <c r="B119">
+        <v>152524</v>
+      </c>
+      <c r="C119">
+        <v>0.9</v>
+      </c>
+      <c r="D119">
+        <v>0.9</v>
+      </c>
+      <c r="E119">
+        <v>0.8</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="12"/>
+        <v>0.88510660617345471</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="13"/>
+        <v>0.88510660617345471</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="14"/>
+        <v>0.78676142770973745</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>610</v>
+      </c>
+      <c r="B120">
+        <v>151151</v>
+      </c>
+      <c r="C120">
+        <v>0.9</v>
+      </c>
+      <c r="D120">
+        <v>0.9</v>
+      </c>
+      <c r="E120">
+        <v>0.8</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="12"/>
+        <v>0.89314658851082696</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="13"/>
+        <v>0.89314658851082696</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="14"/>
+        <v>0.79390807867629065</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>611</v>
+      </c>
+      <c r="B121">
+        <v>156816</v>
+      </c>
+      <c r="C121">
+        <v>0.9</v>
+      </c>
+      <c r="D121">
+        <v>0.9</v>
+      </c>
+      <c r="E121">
+        <v>0.8</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="12"/>
+        <v>0.8608815426997245</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="13"/>
+        <v>0.8608815426997245</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="14"/>
+        <v>0.76522803795531069</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>612</v>
+      </c>
+      <c r="B122">
+        <v>157051</v>
+      </c>
+      <c r="C122">
+        <v>0.9</v>
+      </c>
+      <c r="D122">
+        <v>0.9</v>
+      </c>
+      <c r="E122">
+        <v>0.8</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="12"/>
+        <v>0.85959338049423439</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="13"/>
+        <v>0.85959338049423439</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="14"/>
+        <v>0.76408300488376391</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>613</v>
+      </c>
+      <c r="B123">
+        <v>154436</v>
+      </c>
+      <c r="C123">
+        <v>0.9</v>
+      </c>
+      <c r="D123">
+        <v>0.9</v>
+      </c>
+      <c r="E123">
+        <v>0.8</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="12"/>
+        <v>0.87414851459504261</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="13"/>
+        <v>0.87414851459504261</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="14"/>
+        <v>0.77702090186226014</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>614</v>
+      </c>
+      <c r="B124">
+        <v>153274</v>
+      </c>
+      <c r="C124">
+        <v>0.9</v>
+      </c>
+      <c r="D124">
+        <v>0.9</v>
+      </c>
+      <c r="E124">
+        <v>0.8</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="12"/>
+        <v>0.88077560447303527</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="13"/>
+        <v>0.88077560447303527</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="14"/>
+        <v>0.78291164842047578</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>615</v>
+      </c>
+      <c r="B125">
+        <v>154774</v>
+      </c>
+      <c r="C125">
+        <v>0.9</v>
+      </c>
+      <c r="D125">
+        <v>0.9</v>
+      </c>
+      <c r="E125">
+        <v>0.8</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="12"/>
+        <v>0.87223952343416855</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="13"/>
+        <v>0.87223952343416855</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="14"/>
+        <v>0.775324020830372</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>616</v>
+      </c>
+      <c r="B126">
+        <v>150666</v>
+      </c>
+      <c r="C126">
+        <v>0.9</v>
+      </c>
+      <c r="D126">
+        <v>0.9</v>
+      </c>
+      <c r="E126">
+        <v>0.8</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="12"/>
+        <v>0.89602166381267179</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="13"/>
+        <v>0.89602166381267179</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="14"/>
+        <v>0.7964637011668193</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>617</v>
+      </c>
+      <c r="B127">
+        <v>151779</v>
+      </c>
+      <c r="C127">
+        <v>0.9</v>
+      </c>
+      <c r="D127">
+        <v>0.9</v>
+      </c>
+      <c r="E127">
+        <v>0.8</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="12"/>
+        <v>0.88945110983732922</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="13"/>
+        <v>0.88945110983732922</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="14"/>
+        <v>0.7906232087442927</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>618</v>
+      </c>
+      <c r="B128">
+        <v>151043</v>
+      </c>
+      <c r="C128">
+        <v>0.9</v>
+      </c>
+      <c r="D128">
+        <v>0.9</v>
+      </c>
+      <c r="E128">
+        <v>0.8</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="11"/>
+        <v>120000</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="12"/>
+        <v>0.89378521348225337</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="13"/>
+        <v>0.89378521348225337</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="14"/>
+        <v>0.7944757453175586</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>619</v>
+      </c>
+      <c r="B129">
+        <v>151420</v>
+      </c>
+      <c r="C129">
+        <v>0.9</v>
+      </c>
+      <c r="D129">
+        <v>0.9</v>
+      </c>
+      <c r="E129">
+        <v>1.8</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="11"/>
+        <v>270000</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="12"/>
+        <v>0.89155989961695947</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="13"/>
+        <v>0.89155989961695947</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="14"/>
+        <v>1.7831197992339189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
+        <v>620</v>
+      </c>
+      <c r="B130">
+        <v>151807</v>
+      </c>
+      <c r="C130">
+        <v>0.9</v>
+      </c>
+      <c r="D130">
+        <v>0.9</v>
+      </c>
+      <c r="E130">
+        <v>1.8</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="11"/>
+        <v>270000</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="12"/>
+        <v>0.88928705527413099</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="13"/>
+        <v>0.88928705527413099</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="14"/>
+        <v>1.778574110548262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>621</v>
+      </c>
+      <c r="B131">
+        <v>154747</v>
+      </c>
+      <c r="C131">
+        <v>0.9</v>
+      </c>
+      <c r="D131">
+        <v>0.9</v>
+      </c>
+      <c r="E131">
+        <v>1.8</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="9"/>
+        <v>135000</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="10"/>
+        <v>135000</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="11"/>
+        <v>270000</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="12"/>
+        <v>0.87239171034010354</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="13"/>
+        <v>0.87239171034010354</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="14"/>
+        <v>1.7447834206802071</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>622</v>
+      </c>
+      <c r="B132">
+        <v>154527</v>
+      </c>
+      <c r="C132">
+        <v>0.9</v>
+      </c>
+      <c r="D132">
+        <v>0.9</v>
+      </c>
+      <c r="E132">
+        <v>1.8</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ref="F132:F136" si="15">150000*C132</f>
+        <v>135000</v>
+      </c>
+      <c r="G132">
+        <f t="shared" ref="G132:G136" si="16">150000*D132</f>
+        <v>135000</v>
+      </c>
+      <c r="H132">
+        <f t="shared" ref="H132:H136" si="17">150000*E132</f>
+        <v>270000</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ref="I132:I136" si="18">F132/B132</f>
+        <v>0.87363373391057875</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ref="J132:J136" si="19">G132/B132</f>
+        <v>0.87363373391057875</v>
+      </c>
+      <c r="K132">
+        <f t="shared" ref="K132:K136" si="20">H132/B132</f>
+        <v>1.7472674678211575</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>623</v>
+      </c>
+      <c r="B133">
+        <v>155022</v>
+      </c>
+      <c r="C133">
+        <v>0.9</v>
+      </c>
+      <c r="D133">
+        <v>0.9</v>
+      </c>
+      <c r="E133">
+        <v>1.8</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="15"/>
+        <v>135000</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="16"/>
+        <v>135000</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="17"/>
+        <v>270000</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="18"/>
+        <v>0.87084413825134499</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="19"/>
+        <v>0.87084413825134499</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="20"/>
+        <v>1.74168827650269</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>624</v>
+      </c>
+      <c r="B134">
+        <v>152448</v>
+      </c>
+      <c r="C134">
+        <v>0.9</v>
+      </c>
+      <c r="D134">
+        <v>0.9</v>
+      </c>
+      <c r="E134">
+        <v>1.8</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="15"/>
+        <v>135000</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="16"/>
+        <v>135000</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="17"/>
+        <v>270000</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="18"/>
+        <v>0.88554785894206545</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="19"/>
+        <v>0.88554785894206545</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="20"/>
+        <v>1.7710957178841309</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>625</v>
+      </c>
+      <c r="B135">
+        <v>154198</v>
+      </c>
+      <c r="C135">
+        <v>0.9</v>
+      </c>
+      <c r="D135">
+        <v>0.9</v>
+      </c>
+      <c r="E135">
+        <v>1.8</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="15"/>
+        <v>135000</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="16"/>
+        <v>135000</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="17"/>
+        <v>270000</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="18"/>
+        <v>0.87549773667622144</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="19"/>
+        <v>0.87549773667622144</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="20"/>
+        <v>1.7509954733524429</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
+        <v>626</v>
+      </c>
+      <c r="B136">
+        <v>154591</v>
+      </c>
+      <c r="C136">
+        <v>0.9</v>
+      </c>
+      <c r="D136">
+        <v>0.9</v>
+      </c>
+      <c r="E136">
+        <v>1.8</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="15"/>
+        <v>135000</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="16"/>
+        <v>135000</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="17"/>
+        <v>270000</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="18"/>
+        <v>0.87327205335368807</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="19"/>
+        <v>0.87327205335368807</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="20"/>
+        <v>1.7465441067073761</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846A3F04-4949-2A41-B72C-FD1A89B21D0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DEEB4E-47A4-1E4C-9FD0-52881BA8BFB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="14" r:id="rId1"/>
     <sheet name="zz500" sheetId="11" r:id="rId2"/>
-    <sheet name="hs300（）原始" sheetId="13" r:id="rId3"/>
+    <sheet name="hs300（原始）" sheetId="13" r:id="rId3"/>
     <sheet name="zz500(原始)" sheetId="2" r:id="rId4"/>
     <sheet name="可转债收益" sheetId="4" r:id="rId5"/>
     <sheet name="可转债申购参数" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hs300'!$A$1:$X$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'hs300（）原始'!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'hs300（原始）'!$A$1:$X$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'zz500'!$A$1:$X$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'zz500(原始)'!$A$1:$X$1</definedName>
     <definedName name="F" localSheetId="1">'zz500'!$H$36:$H$51</definedName>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="538">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -2647,6 +2647,48 @@
   </si>
   <si>
     <t>荣晟转债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_HS300_20190730</t>
+  </si>
+  <si>
+    <t>20190730购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190731</t>
+  </si>
+  <si>
+    <t>20190731购入</t>
+  </si>
+  <si>
+    <t>20190801购入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190802购入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_HS300_20190801</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_HS300_20190802</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190730</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190731</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190801</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190802</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2802,7 +2844,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2905,6 +2947,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2912,139 +2955,7 @@
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <b val="0"/>
@@ -3082,6 +2993,16 @@
         <i val="0"/>
         <color rgb="FF00B050"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3417,14 +3338,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1BFEAF-3110-834A-B656-D9CF9C34C8E1}">
-  <dimension ref="A1:Y140"/>
+  <dimension ref="A1:Y144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="O141" sqref="O141"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23:H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3469,14 +3390,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="38">
-        <v>1.3492</v>
+        <v>1.2824</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="45" t="str">
         <f>"盈利"&amp;ROUND(SUM(H2:H19964),2)</f>
-        <v>盈利2188.93</v>
+        <v>盈利1292.59</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -5310,11 +5231,11 @@
       </c>
       <c r="F23" s="44">
         <f t="shared" si="0"/>
-        <v>0.26899755555555538</v>
+        <v>0.20616844444444446</v>
       </c>
       <c r="H23" s="41">
         <f t="shared" si="1"/>
-        <v>72.629339999999956</v>
+        <v>55.665480000000002</v>
       </c>
       <c r="I23" t="s">
         <v>7</v>
@@ -5392,11 +5313,11 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="0"/>
-        <v>0.26504989629629627</v>
+        <v>0.20241623703703698</v>
       </c>
       <c r="H24" s="41">
         <f t="shared" si="1"/>
-        <v>71.56347199999999</v>
+        <v>54.652383999999984</v>
       </c>
       <c r="I24" t="s">
         <v>7</v>
@@ -5474,11 +5395,11 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="0"/>
-        <v>0.27459717647058834</v>
+        <v>0.21149082352941176</v>
       </c>
       <c r="H25" s="41">
         <f t="shared" si="1"/>
-        <v>70.022280000000023</v>
+        <v>53.930160000000001</v>
       </c>
       <c r="I25" t="s">
         <v>7</v>
@@ -5556,11 +5477,11 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="0"/>
-        <v>0.2621516148148148</v>
+        <v>0.19966145185185186</v>
       </c>
       <c r="H26" s="41">
         <f t="shared" si="1"/>
-        <v>70.780935999999997</v>
+        <v>53.908591999999999</v>
       </c>
       <c r="I26" t="s">
         <v>7</v>
@@ -5638,11 +5559,11 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="0"/>
-        <v>0.24570842352941172</v>
+        <v>0.18403237647058815</v>
       </c>
       <c r="H27" s="41">
         <f t="shared" si="1"/>
-        <v>62.655647999999985</v>
+        <v>46.928255999999976</v>
       </c>
       <c r="I27" t="s">
         <v>7</v>
@@ -5720,11 +5641,11 @@
       </c>
       <c r="F28" s="37">
         <f t="shared" si="0"/>
-        <v>0.22491487058823512</v>
+        <v>0.16426832941176464</v>
       </c>
       <c r="H28" s="41">
         <f t="shared" si="1"/>
-        <v>57.353291999999954</v>
+        <v>41.888423999999986</v>
       </c>
       <c r="I28" t="s">
         <v>7</v>
@@ -5802,11 +5723,11 @@
       </c>
       <c r="F29" s="37">
         <f t="shared" si="0"/>
-        <v>0.19423474285714276</v>
+        <v>0.13510720000000001</v>
       </c>
       <c r="H29" s="41">
         <f t="shared" si="1"/>
-        <v>20.394647999999989</v>
+        <v>14.186256</v>
       </c>
       <c r="I29" t="s">
         <v>7</v>
@@ -5884,11 +5805,11 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="0"/>
-        <v>0.17860115555555561</v>
+        <v>0.12024764444444445</v>
       </c>
       <c r="H30" s="41">
         <f t="shared" si="1"/>
-        <v>16.074104000000005</v>
+        <v>10.822288</v>
       </c>
       <c r="I30" t="s">
         <v>7</v>
@@ -5966,11 +5887,11 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="0"/>
-        <v>0.18084982222222218</v>
+        <v>0.12238497777777771</v>
       </c>
       <c r="H31" s="41">
         <f t="shared" si="1"/>
-        <v>16.276483999999996</v>
+        <v>11.014647999999994</v>
       </c>
       <c r="I31" t="s">
         <v>7</v>
@@ -6048,11 +5969,11 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="0"/>
-        <v>0.17695213333333332</v>
+        <v>0.11868026666666667</v>
       </c>
       <c r="H32" s="41">
         <f t="shared" si="1"/>
-        <v>15.925691999999998</v>
+        <v>10.681224</v>
       </c>
       <c r="I32" t="s">
         <v>7</v>
@@ -6130,11 +6051,11 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="0"/>
-        <v>0.17980044444444446</v>
+        <v>0.12138755555555557</v>
       </c>
       <c r="H33" s="41">
         <f t="shared" si="1"/>
-        <v>16.182040000000001</v>
+        <v>10.924880000000002</v>
       </c>
       <c r="I33" t="s">
         <v>7</v>
@@ -6212,11 +6133,11 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" ref="F34:F65" si="22">IF(G34="",($F$1*C34-B34)/B34,H34/B34)</f>
-        <v>0.15536493333333318</v>
+        <v>9.8161866666666556E-2</v>
       </c>
       <c r="H34" s="41">
         <f t="shared" ref="H34:H65" si="23">IF(G34="",$F$1*C34-B34,G34-B34)</f>
-        <v>13.982843999999986</v>
+        <v>8.8345679999999902</v>
       </c>
       <c r="I34" t="s">
         <v>7</v>
@@ -6294,11 +6215,11 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="22"/>
-        <v>9.3751466666666547E-2</v>
+        <v>3.9598933333333315E-2</v>
       </c>
       <c r="H35" s="41">
         <f t="shared" si="23"/>
-        <v>12.656447999999983</v>
+        <v>5.3458559999999977</v>
       </c>
       <c r="I35" t="s">
         <v>7</v>
@@ -6380,11 +6301,11 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="22"/>
-        <v>0.1062440592592591</v>
+        <v>5.1473007407407456E-2</v>
       </c>
       <c r="H36" s="41">
         <f t="shared" si="23"/>
-        <v>14.342947999999978</v>
+        <v>6.9488560000000064</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
@@ -6462,11 +6383,11 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="22"/>
-        <v>0.10824287407407404</v>
+        <v>5.3372859259259171E-2</v>
       </c>
       <c r="H37" s="41">
         <f t="shared" si="23"/>
-        <v>14.612787999999995</v>
+        <v>7.2053359999999884</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -6544,11 +6465,11 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="22"/>
-        <v>0.11094127407407402</v>
+        <v>5.5937659259259191E-2</v>
       </c>
       <c r="H38" s="41">
         <f t="shared" si="23"/>
-        <v>14.977071999999993</v>
+        <v>7.5515839999999912</v>
       </c>
       <c r="I38" t="s">
         <v>7</v>
@@ -6626,11 +6547,11 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="22"/>
-        <v>8.835466666666679E-2</v>
+        <v>3.4469333333333275E-2</v>
       </c>
       <c r="H39" s="41">
         <f t="shared" si="23"/>
-        <v>11.927880000000016</v>
+        <v>4.6533599999999922</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
@@ -6708,11 +6629,11 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="22"/>
-        <v>7.6361777777777806E-2</v>
+        <v>2.3070222222222329E-2</v>
       </c>
       <c r="H40" s="41">
         <f t="shared" si="23"/>
-        <v>10.308840000000004</v>
+        <v>3.1144800000000146</v>
       </c>
       <c r="I40" t="s">
         <v>7</v>
@@ -6794,11 +6715,11 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="22"/>
-        <v>7.0465274074074047E-2</v>
+        <v>1.7465659259259306E-2</v>
       </c>
       <c r="H41" s="41">
         <f t="shared" si="23"/>
-        <v>9.5128119999999967</v>
+        <v>2.3578640000000064</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -6880,11 +6801,11 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="22"/>
-        <v>6.1770429629629468E-2</v>
+        <v>9.2013037037037091E-3</v>
       </c>
       <c r="H42" s="41">
         <f t="shared" si="23"/>
-        <v>8.3390079999999784</v>
+        <v>1.2421760000000006</v>
       </c>
       <c r="I42" t="s">
         <v>7</v>
@@ -6966,11 +6887,11 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="22"/>
-        <v>7.2064325925925835E-2</v>
+        <v>1.8985540740740596E-2</v>
       </c>
       <c r="H43" s="41">
         <f t="shared" si="23"/>
-        <v>9.728683999999987</v>
+        <v>2.5630479999999807</v>
       </c>
       <c r="I43" t="s">
         <v>7</v>
@@ -7048,11 +6969,11 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="22"/>
-        <v>0.1144392000000001</v>
+        <v>5.9262400000000069E-2</v>
       </c>
       <c r="H44" s="41">
         <f t="shared" si="23"/>
-        <v>15.449292000000014</v>
+        <v>8.0004240000000095</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
@@ -7130,11 +7051,11 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="22"/>
-        <v>9.3551585185185068E-2</v>
+        <v>3.9408948148148208E-2</v>
       </c>
       <c r="H45" s="41">
         <f t="shared" si="23"/>
-        <v>12.629463999999984</v>
+        <v>5.320208000000008</v>
       </c>
       <c r="I45" t="s">
         <v>7</v>
@@ -7212,11 +7133,11 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="22"/>
-        <v>8.6555733333333329E-2</v>
+        <v>3.2759466666666667E-2</v>
       </c>
       <c r="H46" s="41">
         <f t="shared" si="23"/>
-        <v>11.685023999999999</v>
+        <v>4.4225279999999998</v>
       </c>
       <c r="I46" t="s">
         <v>7</v>
@@ -7294,11 +7215,11 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="22"/>
-        <v>9.5250577777777692E-2</v>
+        <v>4.1023822222222263E-2</v>
       </c>
       <c r="H47" s="41">
         <f t="shared" si="23"/>
-        <v>12.858827999999988</v>
+        <v>5.5382160000000056</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
@@ -7376,11 +7297,11 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="22"/>
-        <v>0.10244631111111112</v>
+        <v>4.7863288888888918E-2</v>
       </c>
       <c r="H48" s="41">
         <f t="shared" si="23"/>
-        <v>13.830252000000002</v>
+        <v>6.4615440000000035</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
@@ -7458,11 +7379,11 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="22"/>
-        <v>8.9354074074073933E-2</v>
+        <v>3.5419259259259241E-2</v>
       </c>
       <c r="H49" s="41">
         <f t="shared" si="23"/>
-        <v>12.062799999999982</v>
+        <v>4.7815999999999974</v>
       </c>
       <c r="I49" t="s">
         <v>7</v>
@@ -7540,11 +7461,11 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="22"/>
-        <v>6.0571140740740846E-2</v>
+        <v>8.0613925925926352E-3</v>
       </c>
       <c r="H50" s="41">
         <f t="shared" si="23"/>
-        <v>8.1771040000000141</v>
+        <v>1.0882880000000057</v>
       </c>
       <c r="I50" t="s">
         <v>7</v>
@@ -7622,11 +7543,11 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="22"/>
-        <v>6.5468237037037025E-2</v>
+        <v>1.2716029629629694E-2</v>
       </c>
       <c r="H51" s="41">
         <f t="shared" si="23"/>
-        <v>8.8382119999999986</v>
+        <v>1.7166640000000086</v>
       </c>
       <c r="I51" t="s">
         <v>7</v>
@@ -7704,11 +7625,11 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="22"/>
-        <v>6.5068474074073873E-2</v>
+        <v>1.2336059259259265E-2</v>
       </c>
       <c r="H52" s="41">
         <f t="shared" si="23"/>
-        <v>8.7842439999999726</v>
+        <v>1.6653680000000008</v>
       </c>
       <c r="I52" t="s">
         <v>7</v>
@@ -7786,11 +7707,11 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="22"/>
-        <v>6.4768651851851974E-2</v>
+        <v>1.2051081481481603E-2</v>
       </c>
       <c r="H53" s="41">
         <f t="shared" si="23"/>
-        <v>8.7437680000000171</v>
+        <v>1.6268960000000163</v>
       </c>
       <c r="I53" t="s">
         <v>7</v>
@@ -7868,11 +7789,11 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="22"/>
-        <v>6.5468237037037025E-2</v>
+        <v>1.2716029629629694E-2</v>
       </c>
       <c r="H54" s="41">
         <f t="shared" si="23"/>
-        <v>8.8382119999999986</v>
+        <v>1.7166640000000086</v>
       </c>
       <c r="I54" t="s">
         <v>7</v>
@@ -7951,11 +7872,11 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="22"/>
-        <v>8.9953718518518563E-2</v>
+        <v>3.5989214814814777E-2</v>
       </c>
       <c r="H55" s="41">
         <f t="shared" si="23"/>
-        <v>12.143752000000006</v>
+        <v>4.8585439999999949</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
@@ -8033,11 +7954,11 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="22"/>
-        <v>0.10184666666666671</v>
+        <v>4.7293333333333375E-2</v>
       </c>
       <c r="H56" s="41">
         <f t="shared" si="23"/>
-        <v>13.749300000000005</v>
+        <v>6.384600000000006</v>
       </c>
       <c r="I56" t="s">
         <v>7</v>
@@ -8115,11 +8036,11 @@
       </c>
       <c r="F57" s="37">
         <f t="shared" si="22"/>
-        <v>9.0153600000000042E-2</v>
+        <v>3.6179199999999884E-2</v>
       </c>
       <c r="H57" s="41">
         <f t="shared" si="23"/>
-        <v>12.170736000000005</v>
+        <v>4.8841919999999845</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
@@ -8197,11 +8118,11 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="22"/>
-        <v>9.4051288888888862E-2</v>
+        <v>3.9883911111111191E-2</v>
       </c>
       <c r="H58" s="41">
         <f t="shared" si="23"/>
-        <v>12.696923999999996</v>
+        <v>5.3843280000000107</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -8279,11 +8200,11 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="22"/>
-        <v>5.5474162962962981E-2</v>
+        <v>3.2167703703702569E-3</v>
       </c>
       <c r="H59" s="41">
         <f t="shared" si="23"/>
-        <v>7.4890120000000024</v>
+        <v>0.43426399999998466</v>
       </c>
       <c r="I59" t="s">
         <v>7</v>
@@ -8365,11 +8286,11 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="22"/>
-        <v>2.9489570370370293E-2</v>
+        <v>-2.1481303703703564E-2</v>
       </c>
       <c r="H60" s="41">
         <f t="shared" si="23"/>
-        <v>3.9810919999999896</v>
+        <v>-2.899975999999981</v>
       </c>
       <c r="I60" t="s">
         <v>7</v>
@@ -8451,11 +8372,11 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" si="22"/>
-        <v>2.998927407407408E-2</v>
+        <v>-2.100634074074079E-2</v>
       </c>
       <c r="H61" s="41">
         <f t="shared" si="23"/>
-        <v>4.0485520000000008</v>
+        <v>-2.8358560000000068</v>
       </c>
       <c r="I61" t="s">
         <v>7</v>
@@ -8533,11 +8454,11 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="22"/>
-        <v>1.7596622222222153E-2</v>
+        <v>-3.2785422222222374E-2</v>
       </c>
       <c r="H62" s="41">
         <f t="shared" si="23"/>
-        <v>2.3755439999999908</v>
+        <v>-4.4260320000000206</v>
       </c>
       <c r="I62" t="s">
         <v>7</v>
@@ -8619,11 +8540,11 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="22"/>
-        <v>7.9648333333333689E-3</v>
+        <v>-4.1940333333333274E-2</v>
       </c>
       <c r="H63" s="41">
         <f t="shared" si="23"/>
-        <v>0.95578000000000429</v>
+        <v>-5.0328399999999931</v>
       </c>
       <c r="I63" t="s">
         <v>7</v>
@@ -8701,11 +8622,11 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" si="22"/>
-        <v>8.7518666666666668E-3</v>
+        <v>-4.1192266666666671E-2</v>
       </c>
       <c r="H64" s="41">
         <f t="shared" si="23"/>
-        <v>1.050224</v>
+        <v>-4.9430720000000008</v>
       </c>
       <c r="I64" t="s">
         <v>7</v>
@@ -8787,11 +8708,11 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="22"/>
-        <v>4.5918333333332837E-3</v>
+        <v>-4.5146333333333406E-2</v>
       </c>
       <c r="H65" s="41">
         <f t="shared" si="23"/>
-        <v>0.55101999999999407</v>
+        <v>-5.4175600000000088</v>
       </c>
       <c r="I65" t="s">
         <v>7</v>
@@ -8869,11 +8790,11 @@
       </c>
       <c r="F66" s="37">
         <f t="shared" ref="F66:F97" si="28">IF(G66="",($F$1*C66-B66)/B66,H66/B66)</f>
-        <v>2.1182999999999432E-3</v>
+        <v>-4.7497400000000072E-2</v>
       </c>
       <c r="H66" s="41">
         <f t="shared" ref="H66:H97" si="29">IF(G66="",$F$1*C66-B66,G66-B66)</f>
-        <v>0.25419599999999321</v>
+        <v>-5.699688000000009</v>
       </c>
       <c r="I66" t="s">
         <v>7</v>
@@ -8951,11 +8872,11 @@
       </c>
       <c r="F67" s="37">
         <f t="shared" si="28"/>
-        <v>2.3030899999999951E-2</v>
+        <v>-2.7620200000000022E-2</v>
       </c>
       <c r="H67" s="41">
         <f t="shared" si="29"/>
-        <v>2.7637079999999941</v>
+        <v>-3.3144240000000025</v>
       </c>
       <c r="I67" t="s">
         <v>7</v>
@@ -9033,11 +8954,11 @@
       </c>
       <c r="F68" s="37">
         <f t="shared" si="28"/>
-        <v>2.5279566666666635E-2</v>
+        <v>-2.5482866666666718E-2</v>
       </c>
       <c r="H68" s="41">
         <f t="shared" si="29"/>
-        <v>3.0335479999999961</v>
+        <v>-3.0579440000000062</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
@@ -9115,11 +9036,11 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="28"/>
-        <v>2.8427699999999945E-2</v>
+        <v>-2.2490600000000072E-2</v>
       </c>
       <c r="H69" s="41">
         <f t="shared" si="29"/>
-        <v>3.4113239999999934</v>
+        <v>-2.6988720000000086</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
@@ -9197,11 +9118,11 @@
       </c>
       <c r="F70" s="37">
         <f t="shared" si="28"/>
-        <v>2.4056296296296126E-3</v>
+        <v>-4.722429629629632E-2</v>
       </c>
       <c r="H70" s="41">
         <f t="shared" si="29"/>
-        <v>0.32475999999999772</v>
+        <v>-6.3752800000000036</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
@@ -9279,11 +9200,11 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="28"/>
-        <v>2.0058666666667333E-3</v>
+        <v>-4.7604266666666582E-2</v>
       </c>
       <c r="H71" s="41">
         <f t="shared" si="29"/>
-        <v>0.24070400000000802</v>
+        <v>-5.7125119999999896</v>
       </c>
       <c r="I71" t="s">
         <v>7</v>
@@ -9361,11 +9282,11 @@
       </c>
       <c r="F72" s="37">
         <f t="shared" si="28"/>
-        <v>5.4913000000000288E-3</v>
+        <v>-4.4291399999999946E-2</v>
       </c>
       <c r="H72" s="41">
         <f t="shared" si="29"/>
-        <v>0.65895600000000343</v>
+        <v>-5.3149679999999933</v>
       </c>
       <c r="I72" t="s">
         <v>7</v>
@@ -9443,11 +9364,11 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="28"/>
-        <v>-5.7520333333332726E-3</v>
+        <v>-5.4978066666666575E-2</v>
       </c>
       <c r="H73" s="41">
         <f t="shared" si="29"/>
-        <v>-0.69024399999999275</v>
+        <v>-6.5973679999999888</v>
       </c>
       <c r="I73" t="s">
         <v>7</v>
@@ -9529,11 +9450,11 @@
       </c>
       <c r="F74" s="37">
         <f t="shared" si="28"/>
-        <v>1.6509766666666554E-2</v>
+        <v>-3.3818466666666679E-2</v>
       </c>
       <c r="H74" s="41">
         <f t="shared" si="29"/>
-        <v>1.9811719999999866</v>
+        <v>-4.0582160000000016</v>
       </c>
       <c r="I74" t="s">
         <v>7</v>
@@ -9611,11 +9532,11 @@
       </c>
       <c r="F75" s="37">
         <f t="shared" si="28"/>
-        <v>1.7971400000000061E-2</v>
+        <v>-3.2429199999999977E-2</v>
       </c>
       <c r="H75" s="41">
         <f t="shared" si="29"/>
-        <v>2.1565680000000071</v>
+        <v>-3.8915039999999976</v>
       </c>
       <c r="I75" t="s">
         <v>7</v>
@@ -9693,11 +9614,11 @@
       </c>
       <c r="F76" s="37">
         <f t="shared" si="28"/>
-        <v>1.5497866666666601E-2</v>
+        <v>-3.4780266666666768E-2</v>
       </c>
       <c r="H76" s="41">
         <f t="shared" si="29"/>
-        <v>1.8597439999999921</v>
+        <v>-4.173632000000012</v>
       </c>
       <c r="I76" t="s">
         <v>7</v>
@@ -9775,11 +9696,11 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="28"/>
-        <v>3.6972633333333366E-2</v>
+        <v>-1.4368733333333357E-2</v>
       </c>
       <c r="H77" s="41">
         <f t="shared" si="29"/>
-        <v>4.4367160000000041</v>
+        <v>-1.7242480000000029</v>
       </c>
       <c r="I77" t="s">
         <v>7</v>
@@ -9857,11 +9778,11 @@
       </c>
       <c r="F78" s="37">
         <f t="shared" si="28"/>
-        <v>5.00773629629628E-2</v>
+        <v>-1.9128296296297843E-3</v>
       </c>
       <c r="H78" s="41">
         <f t="shared" si="29"/>
-        <v>6.7604439999999784</v>
+        <v>-0.25823200000002089</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -9939,11 +9860,11 @@
       </c>
       <c r="F79" s="37">
         <f t="shared" si="28"/>
-        <v>4.7279022222222189E-2</v>
+        <v>-4.5726222222221488E-3</v>
       </c>
       <c r="H79" s="41">
         <f t="shared" si="29"/>
-        <v>6.3826679999999953</v>
+        <v>-0.61730399999999008</v>
       </c>
       <c r="I79" t="s">
         <v>7</v>
@@ -10021,11 +9942,11 @@
       </c>
       <c r="F80" s="37">
         <f t="shared" si="28"/>
-        <v>4.3980977777777576E-2</v>
+        <v>-7.7073777777779164E-3</v>
       </c>
       <c r="H80" s="41">
         <f t="shared" si="29"/>
-        <v>5.9374319999999727</v>
+        <v>-1.0404960000000187</v>
       </c>
       <c r="I80" t="s">
         <v>7</v>
@@ -10103,11 +10024,11 @@
       </c>
       <c r="F81" s="37">
         <f t="shared" si="28"/>
-        <v>0.10484488888888879</v>
+        <v>5.0143111111111062E-2</v>
       </c>
       <c r="H81" s="41">
         <f t="shared" si="29"/>
-        <v>14.154059999999987</v>
+        <v>6.7693199999999933</v>
       </c>
       <c r="I81" t="s">
         <v>7</v>
@@ -10185,11 +10106,11 @@
       </c>
       <c r="F82" s="37">
         <f t="shared" si="28"/>
-        <v>9.465093333333327E-2</v>
+        <v>4.0453866666666727E-2</v>
       </c>
       <c r="H82" s="41">
         <f t="shared" si="29"/>
-        <v>12.777875999999992</v>
+        <v>5.4612720000000081</v>
       </c>
       <c r="I82" t="s">
         <v>7</v>
@@ -10267,11 +10188,11 @@
       </c>
       <c r="F83" s="37">
         <f t="shared" si="28"/>
-        <v>0.10944216296296308</v>
+        <v>5.4512770370370459E-2</v>
       </c>
       <c r="H83" s="41">
         <f t="shared" si="29"/>
-        <v>14.774692000000016</v>
+        <v>7.3592240000000118</v>
       </c>
       <c r="I83" t="s">
         <v>7</v>
@@ -10349,11 +10270,11 @@
       </c>
       <c r="F84" s="37">
         <f t="shared" si="28"/>
-        <v>0.12903054814814802</v>
+        <v>7.3131318518518479E-2</v>
       </c>
       <c r="H84" s="41">
         <f t="shared" si="29"/>
-        <v>17.419123999999982</v>
+        <v>9.8727279999999951</v>
       </c>
       <c r="I84" t="s">
         <v>7</v>
@@ -10431,11 +10352,11 @@
       </c>
       <c r="F85" s="37">
         <f t="shared" si="28"/>
-        <v>9.1752651851851816E-2</v>
+        <v>3.7699081481481385E-2</v>
       </c>
       <c r="H85" s="41">
         <f t="shared" si="29"/>
-        <v>12.386607999999995</v>
+        <v>5.0893759999999872</v>
       </c>
       <c r="I85" t="s">
         <v>7</v>
@@ -10513,11 +10434,11 @@
       </c>
       <c r="F86" s="37">
         <f t="shared" si="28"/>
-        <v>0.10904239999999993</v>
+        <v>5.413280000000003E-2</v>
       </c>
       <c r="H86" s="41">
         <f t="shared" si="29"/>
-        <v>14.72072399999999</v>
+        <v>7.307928000000004</v>
       </c>
       <c r="I86" t="s">
         <v>7</v>
@@ -10595,11 +10516,11 @@
       </c>
       <c r="F87" s="37">
         <f t="shared" si="28"/>
-        <v>0.11593831111111104</v>
+        <v>6.0687288888888809E-2</v>
       </c>
       <c r="H87" s="41">
         <f t="shared" si="29"/>
-        <v>15.651671999999991</v>
+        <v>8.192783999999989</v>
       </c>
       <c r="I87" t="s">
         <v>7</v>
@@ -10677,11 +10598,11 @@
       </c>
       <c r="F88" s="37">
         <f t="shared" si="28"/>
-        <v>9.225235555555561E-2</v>
+        <v>3.8174044444444583E-2</v>
       </c>
       <c r="H88" s="41">
         <f t="shared" si="29"/>
-        <v>12.454068000000007</v>
+        <v>5.1534960000000183</v>
       </c>
       <c r="I88" t="s">
         <v>7</v>
@@ -10759,11 +10680,11 @@
       </c>
       <c r="F89" s="37">
         <f t="shared" si="28"/>
-        <v>8.7755022222222159E-2</v>
+        <v>3.3899377777777739E-2</v>
       </c>
       <c r="H89" s="41">
         <f t="shared" si="29"/>
-        <v>11.846927999999991</v>
+        <v>4.5764159999999947</v>
       </c>
       <c r="I89" t="s">
         <v>7</v>
@@ -10841,11 +10762,11 @@
       </c>
       <c r="F90" s="37">
         <f t="shared" si="28"/>
-        <v>0.11483896296296284</v>
+        <v>5.964237037037029E-2</v>
       </c>
       <c r="H90" s="41">
         <f t="shared" si="29"/>
-        <v>15.503259999999983</v>
+        <v>8.0517199999999889</v>
       </c>
       <c r="I90" t="s">
         <v>7</v>
@@ -10923,11 +10844,11 @@
       </c>
       <c r="F91" s="37">
         <f t="shared" si="28"/>
-        <v>0.12373368888888889</v>
+        <v>6.8096711111111E-2</v>
       </c>
       <c r="H91" s="41">
         <f t="shared" si="29"/>
-        <v>16.704048</v>
+        <v>9.1930559999999844</v>
       </c>
       <c r="I91" t="s">
         <v>7</v>
@@ -11005,11 +10926,11 @@
       </c>
       <c r="F92" s="37">
         <f t="shared" si="28"/>
-        <v>0.10954210370370371</v>
+        <v>5.4607762962963012E-2</v>
       </c>
       <c r="H92" s="41">
         <f t="shared" si="29"/>
-        <v>14.788184000000001</v>
+        <v>7.3720480000000066</v>
       </c>
       <c r="I92" t="s">
         <v>7</v>
@@ -11087,11 +11008,11 @@
       </c>
       <c r="F93" s="37">
         <f t="shared" si="28"/>
-        <v>0.1144392000000001</v>
+        <v>5.9262400000000069E-2</v>
       </c>
       <c r="H93" s="41">
         <f t="shared" si="29"/>
-        <v>15.449292000000014</v>
+        <v>8.0004240000000095</v>
       </c>
       <c r="I93" t="s">
         <v>7</v>
@@ -11169,11 +11090,11 @@
       </c>
       <c r="F94" s="37">
         <f t="shared" si="28"/>
-        <v>0.13212871111111116</v>
+        <v>7.6076088888888935E-2</v>
       </c>
       <c r="H94" s="41">
         <f t="shared" si="29"/>
-        <v>17.837376000000006</v>
+        <v>10.270272000000006</v>
       </c>
       <c r="I94" t="s">
         <v>7</v>
@@ -11251,11 +11172,11 @@
       </c>
       <c r="F95" s="37">
         <f t="shared" si="28"/>
-        <v>0.12893060740740739</v>
+        <v>7.3036325925925932E-2</v>
       </c>
       <c r="H95" s="41">
         <f t="shared" si="29"/>
-        <v>17.405631999999997</v>
+        <v>9.8599040000000002</v>
       </c>
       <c r="I95" t="s">
         <v>7</v>
@@ -11333,11 +11254,11 @@
       </c>
       <c r="F96" s="37">
         <f t="shared" si="28"/>
-        <v>0.11573842962962957</v>
+        <v>6.0497303703703702E-2</v>
       </c>
       <c r="H96" s="41">
         <f t="shared" si="29"/>
-        <v>15.624687999999992</v>
+        <v>8.1671359999999993</v>
       </c>
       <c r="I96" t="s">
         <v>7</v>
@@ -11415,11 +11336,11 @@
       </c>
       <c r="F97" s="37">
         <f t="shared" si="28"/>
-        <v>0.10534459259259257</v>
+        <v>5.0618074074074045E-2</v>
       </c>
       <c r="H97" s="41">
         <f t="shared" si="29"/>
-        <v>14.221519999999998</v>
+        <v>6.833439999999996</v>
       </c>
       <c r="I97" t="s">
         <v>7</v>
@@ -11497,11 +11418,11 @@
       </c>
       <c r="F98" s="37">
         <f t="shared" ref="F98:F129" si="43">IF(G98="",($F$1*C98-B98)/B98,H98/B98)</f>
-        <v>0.10754328888888878</v>
+        <v>5.2707911111111082E-2</v>
       </c>
       <c r="H98" s="41">
         <f t="shared" ref="H98:H129" si="44">IF(G98="",$F$1*C98-B98,G98-B98)</f>
-        <v>14.518343999999985</v>
+        <v>7.1155679999999961</v>
       </c>
       <c r="I98" t="s">
         <v>7</v>
@@ -11579,11 +11500,11 @@
       </c>
       <c r="F99" s="37">
         <f t="shared" si="43"/>
-        <v>0.11343979259259253</v>
+        <v>5.8312474074074104E-2</v>
       </c>
       <c r="H99" s="41">
         <f t="shared" si="44"/>
-        <v>15.314371999999992</v>
+        <v>7.8721840000000043</v>
       </c>
       <c r="I99" t="s">
         <v>7</v>
@@ -11661,11 +11582,11 @@
       </c>
       <c r="F100" s="37">
         <f t="shared" si="43"/>
-        <v>0.11603825185185189</v>
+        <v>6.078228148148157E-2</v>
       </c>
       <c r="H100" s="41">
         <f t="shared" si="44"/>
-        <v>15.665164000000004</v>
+        <v>8.2056080000000122</v>
       </c>
       <c r="I100" t="s">
         <v>7</v>
@@ -11743,11 +11664,11 @@
       </c>
       <c r="F101" s="37">
         <f t="shared" si="43"/>
-        <v>0.11493890370370367</v>
+        <v>5.9737362962963052E-2</v>
       </c>
       <c r="H101" s="41">
         <f t="shared" si="44"/>
-        <v>15.516751999999997</v>
+        <v>8.0645440000000121</v>
       </c>
       <c r="I101" t="s">
         <v>7</v>
@@ -11825,11 +11746,11 @@
       </c>
       <c r="F102" s="37">
         <f t="shared" si="43"/>
-        <v>0.12463315555555562</v>
+        <v>6.8951644444444404E-2</v>
       </c>
       <c r="H102" s="41">
         <f t="shared" si="44"/>
-        <v>16.825476000000009</v>
+        <v>9.3084719999999948</v>
       </c>
       <c r="I102" t="s">
         <v>7</v>
@@ -11907,11 +11828,11 @@
       </c>
       <c r="F103" s="37">
         <f t="shared" si="43"/>
-        <v>0.12473309629629625</v>
+        <v>6.9046637037037173E-2</v>
       </c>
       <c r="H103" s="41">
         <f t="shared" si="44"/>
-        <v>16.838967999999994</v>
+        <v>9.321296000000018</v>
       </c>
       <c r="I103" t="s">
         <v>7</v>
@@ -11989,11 +11910,11 @@
       </c>
       <c r="F104" s="37">
         <f t="shared" si="43"/>
-        <v>0.13412752592592589</v>
+        <v>7.7975940740740865E-2</v>
       </c>
       <c r="H104" s="41">
         <f t="shared" si="44"/>
-        <v>18.107215999999994</v>
+        <v>10.526752000000016</v>
       </c>
       <c r="I104" t="s">
         <v>7</v>
@@ -12071,11 +11992,11 @@
       </c>
       <c r="F105" s="37">
         <f t="shared" si="43"/>
-        <v>0.12063552592592575</v>
+        <v>6.5151940740740752E-2</v>
       </c>
       <c r="H105" s="41">
         <f t="shared" si="44"/>
-        <v>16.285795999999976</v>
+        <v>8.7955120000000022</v>
       </c>
       <c r="I105" t="s">
         <v>7</v>
@@ -12153,11 +12074,11 @@
       </c>
       <c r="F106" s="37">
         <f t="shared" si="43"/>
-        <v>8.8654488888888883E-2</v>
+        <v>3.4754311111111151E-2</v>
       </c>
       <c r="H106" s="41">
         <f t="shared" si="44"/>
-        <v>11.968356</v>
+        <v>4.6918320000000051</v>
       </c>
       <c r="I106" t="s">
         <v>7</v>
@@ -12235,11 +12156,11 @@
       </c>
       <c r="F107" s="37">
         <f t="shared" si="43"/>
-        <v>9.6349925925925894E-2</v>
+        <v>4.2068740740740782E-2</v>
       </c>
       <c r="H107" s="41">
         <f t="shared" si="44"/>
-        <v>13.007239999999996</v>
+        <v>5.6792800000000057</v>
       </c>
       <c r="I107" t="s">
         <v>7</v>
@@ -12317,11 +12238,11 @@
       </c>
       <c r="F108" s="37">
         <f t="shared" si="43"/>
-        <v>9.8148859259259147E-2</v>
+        <v>4.377860740740739E-2</v>
       </c>
       <c r="H108" s="41">
         <f t="shared" si="44"/>
-        <v>13.250095999999985</v>
+        <v>5.910111999999998</v>
       </c>
       <c r="I108" t="s">
         <v>7</v>
@@ -12399,11 +12320,11 @@
       </c>
       <c r="F109" s="37">
         <f t="shared" si="43"/>
-        <v>0.10574435555555553</v>
+        <v>5.0998044444444474E-2</v>
       </c>
       <c r="H109" s="41">
         <f t="shared" si="44"/>
-        <v>14.275487999999996</v>
+        <v>6.8847360000000037</v>
       </c>
       <c r="I109" t="s">
         <v>7</v>
@@ -12481,11 +12402,11 @@
       </c>
       <c r="F110" s="37">
         <f t="shared" si="43"/>
-        <v>0.105944237037037</v>
+        <v>5.1188029629629581E-2</v>
       </c>
       <c r="H110" s="41">
         <f t="shared" si="44"/>
-        <v>14.302471999999995</v>
+        <v>6.9103839999999934</v>
       </c>
       <c r="I110" t="s">
         <v>7</v>
@@ -12563,11 +12484,11 @@
       </c>
       <c r="F111" s="37">
         <f t="shared" si="43"/>
-        <v>0.10234637037037028</v>
+        <v>4.7768296296296357E-2</v>
       </c>
       <c r="H111" s="41">
         <f t="shared" si="44"/>
-        <v>13.816759999999988</v>
+        <v>6.4487200000000087</v>
       </c>
       <c r="I111" t="s">
         <v>7</v>
@@ -12645,11 +12566,11 @@
       </c>
       <c r="F112" s="37">
         <f t="shared" si="43"/>
-        <v>8.6855555555555422E-2</v>
+        <v>3.3044444444444328E-2</v>
       </c>
       <c r="H112" s="41">
         <f t="shared" si="44"/>
-        <v>11.725499999999982</v>
+        <v>4.4609999999999843</v>
       </c>
       <c r="I112" t="s">
         <v>7</v>
@@ -12727,11 +12648,11 @@
       </c>
       <c r="F113" s="37">
         <f t="shared" si="43"/>
-        <v>5.6473570370370346E-2</v>
+        <v>4.1666962962962212E-3</v>
       </c>
       <c r="H113" s="41">
         <f t="shared" si="44"/>
-        <v>7.6239319999999964</v>
+        <v>0.5625039999999899</v>
       </c>
       <c r="I113" t="s">
         <v>7</v>
@@ -12809,11 +12730,11 @@
       </c>
       <c r="F114" s="37">
         <f t="shared" si="43"/>
-        <v>5.5074399999999822E-2</v>
+        <v>2.8367999999998287E-3</v>
       </c>
       <c r="H114" s="41">
         <f t="shared" si="44"/>
-        <v>7.4350439999999764</v>
+        <v>0.38296799999997688</v>
       </c>
       <c r="I114" t="s">
         <v>7</v>
@@ -12891,11 +12812,11 @@
       </c>
       <c r="F115" s="37">
         <f t="shared" si="43"/>
-        <v>5.3075585185185098E-2</v>
+        <v>9.3694814814810983E-4</v>
       </c>
       <c r="H115" s="41">
         <f t="shared" si="44"/>
-        <v>7.1652039999999886</v>
+        <v>0.12648799999999483</v>
       </c>
       <c r="I115" t="s">
         <v>7</v>
@@ -12973,11 +12894,11 @@
       </c>
       <c r="F116" s="37">
         <f t="shared" si="43"/>
-        <v>6.3469422222222086E-2</v>
+        <v>1.0816177777777764E-2</v>
       </c>
       <c r="H116" s="41">
         <f t="shared" si="44"/>
-        <v>8.5683719999999823</v>
+        <v>1.4601839999999982</v>
       </c>
       <c r="I116" t="s">
         <v>7</v>
@@ -13055,11 +12976,11 @@
       </c>
       <c r="F117" s="37">
         <f t="shared" si="43"/>
-        <v>6.4968533333333245E-2</v>
+        <v>1.2241066666666712E-2</v>
       </c>
       <c r="H117" s="41">
         <f t="shared" si="44"/>
-        <v>8.7707519999999874</v>
+        <v>1.652544000000006</v>
       </c>
       <c r="I117" t="s">
         <v>7</v>
@@ -13137,11 +13058,11 @@
       </c>
       <c r="F118" s="37">
         <f t="shared" si="43"/>
-        <v>5.38751111111112E-2</v>
+        <v>1.6968888888889658E-3</v>
       </c>
       <c r="H118" s="41">
         <f t="shared" si="44"/>
-        <v>7.2731400000000122</v>
+        <v>0.22908000000001039</v>
       </c>
       <c r="I118" t="s">
         <v>7</v>
@@ -13219,11 +13140,11 @@
       </c>
       <c r="F119" s="37">
         <f t="shared" si="43"/>
-        <v>5.5374222222222137E-2</v>
+        <v>3.1217777777777025E-3</v>
       </c>
       <c r="H119" s="41">
         <f t="shared" si="44"/>
-        <v>7.4755199999999888</v>
+        <v>0.42143999999998982</v>
       </c>
       <c r="I119" t="s">
         <v>7</v>
@@ -13301,11 +13222,11 @@
       </c>
       <c r="F120" s="37">
         <f t="shared" si="43"/>
-        <v>2.7490755555555569E-2</v>
+        <v>-2.3381155555555491E-2</v>
       </c>
       <c r="H120" s="41">
         <f t="shared" si="44"/>
-        <v>3.7112520000000018</v>
+        <v>-3.1564559999999915</v>
       </c>
       <c r="I120" t="s">
         <v>7</v>
@@ -13383,11 +13304,11 @@
       </c>
       <c r="F121" s="37">
         <f t="shared" si="43"/>
-        <v>2.7190933333333254E-2</v>
+        <v>-2.3666133333333367E-2</v>
       </c>
       <c r="H121" s="41">
         <f t="shared" si="44"/>
-        <v>3.6707759999999894</v>
+        <v>-3.1949280000000044</v>
       </c>
       <c r="I121" t="s">
         <v>7</v>
@@ -13465,11 +13386,11 @@
       </c>
       <c r="F122" s="37">
         <f t="shared" si="43"/>
-        <v>3.7584770370370245E-2</v>
+        <v>-1.3786903703703711E-2</v>
       </c>
       <c r="H122" s="41">
         <f t="shared" si="44"/>
-        <v>5.0739439999999831</v>
+        <v>-1.8612320000000011</v>
       </c>
       <c r="I122" t="s">
         <v>7</v>
@@ -13547,11 +13468,11 @@
       </c>
       <c r="F123" s="37">
         <f t="shared" si="43"/>
-        <v>4.268174814814811E-2</v>
+        <v>-8.9422814814815437E-3</v>
       </c>
       <c r="H123" s="41">
         <f t="shared" si="44"/>
-        <v>5.7620359999999948</v>
+        <v>-1.2072080000000085</v>
       </c>
       <c r="I123" t="s">
         <v>7</v>
@@ -13629,11 +13550,11 @@
       </c>
       <c r="F124" s="37">
         <f t="shared" si="43"/>
-        <v>3.7284948148148145E-2</v>
+        <v>-1.4071881481481375E-2</v>
       </c>
       <c r="H124" s="41">
         <f t="shared" si="44"/>
-        <v>5.0334679999999992</v>
+        <v>-1.8997039999999856</v>
       </c>
       <c r="I124" t="s">
         <v>7</v>
@@ -13711,11 +13632,11 @@
       </c>
       <c r="F125" s="37">
         <f t="shared" si="43"/>
-        <v>6.0171377777777688E-2</v>
+        <v>7.681422222222207E-3</v>
       </c>
       <c r="H125" s="41">
         <f t="shared" si="44"/>
-        <v>8.1231359999999881</v>
+        <v>1.0369919999999979</v>
       </c>
       <c r="I125" t="s">
         <v>7</v>
@@ -13793,11 +13714,11 @@
       </c>
       <c r="F126" s="37">
         <f t="shared" si="43"/>
-        <v>6.1770429629629468E-2</v>
+        <v>9.2013037037037091E-3</v>
       </c>
       <c r="H126" s="41">
         <f t="shared" si="44"/>
-        <v>8.3390079999999784</v>
+        <v>1.2421760000000006</v>
       </c>
       <c r="I126" t="s">
         <v>7</v>
@@ -13875,11 +13796,11 @@
       </c>
       <c r="F127" s="37">
         <f t="shared" si="43"/>
-        <v>6.2969718518518514E-2</v>
+        <v>1.0341214814814781E-2</v>
       </c>
       <c r="H127" s="41">
         <f t="shared" si="44"/>
-        <v>8.5009119999999996</v>
+        <v>1.3960639999999955</v>
       </c>
       <c r="I127" t="s">
         <v>7</v>
@@ -13957,11 +13878,11 @@
       </c>
       <c r="F128" s="37">
         <f t="shared" si="43"/>
-        <v>6.2470014814814727E-2</v>
+        <v>9.8662518518517987E-3</v>
       </c>
       <c r="H128" s="41">
         <f t="shared" si="44"/>
-        <v>8.4334519999999884</v>
+        <v>1.3319439999999929</v>
       </c>
       <c r="I128" t="s">
         <v>7</v>
@@ -14039,11 +13960,11 @@
       </c>
       <c r="F129" s="37">
         <f t="shared" si="43"/>
-        <v>5.4674637037037094E-2</v>
+        <v>2.4568296296296113E-3</v>
       </c>
       <c r="H129" s="41">
         <f t="shared" si="44"/>
-        <v>7.3810760000000073</v>
+        <v>0.33167199999999752</v>
       </c>
       <c r="I129" t="s">
         <v>7</v>
@@ -14121,11 +14042,11 @@
       </c>
       <c r="F130" s="37">
         <f t="shared" ref="F130:F135" si="49">IF(G130="",($F$1*C130-B130)/B130,H130/B130)</f>
-        <v>5.067700740740743E-2</v>
+        <v>-1.342874074074037E-3</v>
       </c>
       <c r="H130" s="41">
         <f t="shared" ref="H130:H135" si="50">IF(G130="",$F$1*C130-B130,G130-B130)</f>
-        <v>6.8413960000000031</v>
+        <v>-0.18128799999999501</v>
       </c>
       <c r="I130" t="s">
         <v>7</v>
@@ -14203,11 +14124,11 @@
       </c>
       <c r="F131" s="37">
         <f t="shared" si="49"/>
-        <v>5.5174340740740666E-2</v>
+        <v>2.9317925925925938E-3</v>
       </c>
       <c r="H131" s="41">
         <f t="shared" si="50"/>
-        <v>7.4485359999999901</v>
+        <v>0.39579200000000014</v>
       </c>
       <c r="I131" t="s">
         <v>7</v>
@@ -14285,11 +14206,11 @@
       </c>
       <c r="F132" s="37">
         <f t="shared" si="49"/>
-        <v>5.5474162962962981E-2</v>
+        <v>3.2167703703702569E-3</v>
       </c>
       <c r="H132" s="41">
         <f t="shared" si="50"/>
-        <v>7.4890120000000024</v>
+        <v>0.43426399999998466</v>
       </c>
       <c r="I132" t="s">
         <v>7</v>
@@ -14367,11 +14288,11 @@
       </c>
       <c r="F133" s="37">
         <f t="shared" si="49"/>
-        <v>6.4668711111111138E-2</v>
+        <v>1.1956088888888838E-2</v>
       </c>
       <c r="H133" s="41">
         <f t="shared" si="50"/>
-        <v>8.7302760000000035</v>
+        <v>1.6140719999999931</v>
       </c>
       <c r="I133" t="s">
         <v>7</v>
@@ -14449,11 +14370,11 @@
       </c>
       <c r="F134" s="37">
         <f t="shared" si="49"/>
-        <v>5.3975051851851835E-2</v>
+        <v>1.7918814814813096E-3</v>
       </c>
       <c r="H134" s="41">
         <f t="shared" si="50"/>
-        <v>7.2866319999999973</v>
+        <v>0.2419039999999768</v>
       </c>
       <c r="I134" t="s">
         <v>7</v>
@@ -14531,11 +14452,11 @@
       </c>
       <c r="F135" s="37">
         <f t="shared" si="49"/>
-        <v>5.457469629629625E-2</v>
+        <v>2.3618370370370569E-3</v>
       </c>
       <c r="H135" s="41">
         <f t="shared" si="50"/>
-        <v>7.3675839999999937</v>
+        <v>0.31884800000000268</v>
       </c>
       <c r="I135" t="s">
         <v>7</v>
@@ -14613,11 +14534,11 @@
       </c>
       <c r="F136" s="37">
         <f t="shared" ref="F136:F137" si="57">IF(G136="",($F$1*C136-B136)/B136,H136/B136)</f>
-        <v>2.0694785185185083E-2</v>
+        <v>-2.9840651851851925E-2</v>
       </c>
       <c r="H136" s="41">
         <f t="shared" ref="H136:H137" si="58">IF(G136="",$F$1*C136-B136,G136-B136)</f>
-        <v>2.7937959999999862</v>
+        <v>-4.0284880000000101</v>
       </c>
       <c r="I136" t="s">
         <v>7</v>
@@ -14695,11 +14616,11 @@
       </c>
       <c r="F137" s="37">
         <f t="shared" si="57"/>
-        <v>1.3099288888888918E-2</v>
+        <v>-3.7060088888888794E-2</v>
       </c>
       <c r="H137" s="41">
         <f t="shared" si="58"/>
-        <v>1.7684040000000039</v>
+        <v>-5.0031119999999873</v>
       </c>
       <c r="I137" t="s">
         <v>7</v>
@@ -14777,11 +14698,11 @@
       </c>
       <c r="F138" s="37">
         <f t="shared" ref="F138:F140" si="71">IF(G138="",($F$1*C138-B138)/B138,H138/B138)</f>
-        <v>5.3039111111110688E-3</v>
+        <v>-4.4469511111111193E-2</v>
       </c>
       <c r="H138" s="41">
         <f t="shared" ref="H138:H140" si="72">IF(G138="",$F$1*C138-B138,G138-B138)</f>
-        <v>0.71602799999999434</v>
+        <v>-6.0033840000000112</v>
       </c>
       <c r="I138" t="s">
         <v>7</v>
@@ -14806,7 +14727,7 @@
         <v>12931.209999999997</v>
       </c>
       <c r="O138" s="2">
-        <f t="shared" ref="O138:O140" si="77">N138*D138</f>
+        <f t="shared" ref="O138:O139" si="77">N138*D138</f>
         <v>17334.287004999998</v>
       </c>
       <c r="P138" s="2"/>
@@ -14816,7 +14737,7 @@
         <v>3686.1299999999997</v>
       </c>
       <c r="S138" s="6">
-        <f t="shared" ref="S138:S140" si="79">R138+O138</f>
+        <f t="shared" ref="S138:S139" si="79">R138+O138</f>
         <v>21020.417004999999</v>
       </c>
       <c r="T138">
@@ -14824,19 +14745,19 @@
         <v>18945</v>
       </c>
       <c r="U138" s="6">
-        <f t="shared" ref="U138:U140" si="81">S138-T138</f>
+        <f t="shared" ref="U138:U139" si="81">S138-T138</f>
         <v>2075.4170049999993</v>
       </c>
       <c r="V138" s="4">
-        <f t="shared" ref="V138:V140" si="82">S138/T138-1</f>
+        <f t="shared" ref="V138:V139" si="82">S138/T138-1</f>
         <v>0.10954959118500929</v>
       </c>
       <c r="W138" s="4">
-        <f t="shared" ref="W138:W140" si="83">O138/(T138-R138)-1</f>
+        <f t="shared" ref="W138:W139" si="83">O138/(T138-R138)-1</f>
         <v>0.13601380737892099</v>
       </c>
       <c r="X138" s="1">
-        <f t="shared" ref="X138:X140" si="84">R138/S138</f>
+        <f t="shared" ref="X138:X139" si="84">R138/S138</f>
         <v>0.17535950876346565</v>
       </c>
     </row>
@@ -14859,11 +14780,11 @@
       </c>
       <c r="F139" s="37">
         <f t="shared" si="71"/>
-        <v>3.2051555555555025E-3</v>
+        <v>-4.6464355555555677E-2</v>
       </c>
       <c r="H139" s="41">
         <f t="shared" si="72"/>
-        <v>0.43269599999999286</v>
+        <v>-6.2726880000000165</v>
       </c>
       <c r="I139" t="s">
         <v>7</v>
@@ -14941,11 +14862,11 @@
       </c>
       <c r="F140" s="37">
         <f t="shared" si="71"/>
-        <v>4.3045037037037067E-3</v>
+        <v>-4.5419437037037158E-2</v>
       </c>
       <c r="H140" s="41">
         <f t="shared" si="72"/>
-        <v>0.5811080000000004</v>
+        <v>-6.1316240000000164</v>
       </c>
       <c r="I140" t="s">
         <v>7</v>
@@ -15004,11 +14925,339 @@
         <v>0.17300288146590889</v>
       </c>
     </row>
+    <row r="141" spans="1:24">
+      <c r="A141" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B141">
+        <v>135</v>
+      </c>
+      <c r="C141" s="59">
+        <v>100.1</v>
+      </c>
+      <c r="D141" s="60">
+        <v>1.3471</v>
+      </c>
+      <c r="E141" s="19">
+        <f t="shared" ref="E141:E144" si="94">10%*M141+13%</f>
+        <v>0.21989647333333334</v>
+      </c>
+      <c r="F141" s="37">
+        <f t="shared" ref="F141:F144" si="95">IF(G141="",($F$1*C141-B141)/B141,H141/B141)</f>
+        <v>-4.912414814814825E-2</v>
+      </c>
+      <c r="H141" s="41">
+        <f t="shared" ref="H141:H144" si="96">IF(G141="",$F$1*C141-B141,G141-B141)</f>
+        <v>-6.6317600000000141</v>
+      </c>
+      <c r="I141" t="s">
+        <v>7</v>
+      </c>
+      <c r="J141" t="s">
+        <v>527</v>
+      </c>
+      <c r="K141" s="2">
+        <f t="shared" ref="K141:K144" si="97">D141*C141</f>
+        <v>134.84470999999999</v>
+      </c>
+      <c r="L141" s="2">
+        <f t="shared" ref="L141:L144" si="98">B141-K141</f>
+        <v>0.15529000000000792</v>
+      </c>
+      <c r="M141" s="1">
+        <f t="shared" ref="M141:M144" si="99">K141/150</f>
+        <v>0.89896473333333327</v>
+      </c>
+      <c r="N141" s="6">
+        <f t="shared" ref="N141:N144" si="100">N140+C141-P141</f>
+        <v>13232.179999999997</v>
+      </c>
+      <c r="O141" s="2">
+        <f t="shared" ref="O141:O144" si="101">N141*D141</f>
+        <v>17825.069677999996</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="6">
+        <f t="shared" ref="R141:R144" si="102">R140+Q141</f>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S141" s="6">
+        <f t="shared" ref="S141:S144" si="103">R141+O141</f>
+        <v>21511.199677999997</v>
+      </c>
+      <c r="T141">
+        <f t="shared" ref="T141:T144" si="104">T140+B141</f>
+        <v>19350</v>
+      </c>
+      <c r="U141" s="6">
+        <f t="shared" ref="U141:U144" si="105">S141-T141</f>
+        <v>2161.1996779999972</v>
+      </c>
+      <c r="V141" s="4">
+        <f t="shared" ref="V141:V144" si="106">S141/T141-1</f>
+        <v>0.1116899058397931</v>
+      </c>
+      <c r="W141" s="4">
+        <f t="shared" ref="W141:W144" si="107">O141/(T141-R141)-1</f>
+        <v>0.13797354536267181</v>
+      </c>
+      <c r="X141" s="1">
+        <f t="shared" ref="X141:X144" si="108">R141/S141</f>
+        <v>0.1713586436450539</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
+      <c r="A142" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B142">
+        <v>135</v>
+      </c>
+      <c r="C142" s="59">
+        <v>101.01</v>
+      </c>
+      <c r="D142" s="60">
+        <v>1.3349</v>
+      </c>
+      <c r="E142" s="19">
+        <f t="shared" si="94"/>
+        <v>0.219892166</v>
+      </c>
+      <c r="F142" s="37">
+        <f t="shared" si="95"/>
+        <v>-4.0479822222222225E-2</v>
+      </c>
+      <c r="H142" s="41">
+        <f t="shared" si="96"/>
+        <v>-5.4647760000000005</v>
+      </c>
+      <c r="I142" t="s">
+        <v>7</v>
+      </c>
+      <c r="J142" t="s">
+        <v>529</v>
+      </c>
+      <c r="K142" s="2">
+        <f t="shared" si="97"/>
+        <v>134.83824899999999</v>
+      </c>
+      <c r="L142" s="2">
+        <f t="shared" si="98"/>
+        <v>0.16175100000000953</v>
+      </c>
+      <c r="M142" s="1">
+        <f t="shared" si="99"/>
+        <v>0.89892165999999996</v>
+      </c>
+      <c r="N142" s="6">
+        <f t="shared" si="100"/>
+        <v>13333.189999999997</v>
+      </c>
+      <c r="O142" s="2">
+        <f t="shared" si="101"/>
+        <v>17798.475330999994</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="6">
+        <f t="shared" si="102"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S142" s="6">
+        <f t="shared" si="103"/>
+        <v>21484.605330999995</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="104"/>
+        <v>19485</v>
+      </c>
+      <c r="U142" s="6">
+        <f t="shared" si="105"/>
+        <v>1999.6053309999952</v>
+      </c>
+      <c r="V142" s="4">
+        <f t="shared" si="106"/>
+        <v>0.10262280374647137</v>
+      </c>
+      <c r="W142" s="4">
+        <f t="shared" si="107"/>
+        <v>0.12656635132765781</v>
+      </c>
+      <c r="X142" s="1">
+        <f t="shared" si="108"/>
+        <v>0.17157075697738358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
+      <c r="A143" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B143">
+        <v>135</v>
+      </c>
+      <c r="C143" s="59">
+        <v>101.83</v>
+      </c>
+      <c r="D143" s="60">
+        <v>1.3242</v>
+      </c>
+      <c r="E143" s="19">
+        <f t="shared" si="94"/>
+        <v>0.21989552400000001</v>
+      </c>
+      <c r="F143" s="37">
+        <f t="shared" si="95"/>
+        <v>-3.2690429629629612E-2</v>
+      </c>
+      <c r="H143" s="41">
+        <f t="shared" si="96"/>
+        <v>-4.4132079999999974</v>
+      </c>
+      <c r="I143" t="s">
+        <v>7</v>
+      </c>
+      <c r="J143" t="s">
+        <v>530</v>
+      </c>
+      <c r="K143" s="2">
+        <f t="shared" si="97"/>
+        <v>134.84328600000001</v>
+      </c>
+      <c r="L143" s="2">
+        <f t="shared" si="98"/>
+        <v>0.1567139999999938</v>
+      </c>
+      <c r="M143" s="1">
+        <f t="shared" si="99"/>
+        <v>0.89895524000000004</v>
+      </c>
+      <c r="N143" s="6">
+        <f t="shared" si="100"/>
+        <v>13435.019999999997</v>
+      </c>
+      <c r="O143" s="2">
+        <f t="shared" si="101"/>
+        <v>17790.653483999995</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="6">
+        <f t="shared" si="102"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S143" s="6">
+        <f t="shared" si="103"/>
+        <v>21476.783483999996</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="104"/>
+        <v>19620</v>
+      </c>
+      <c r="U143" s="6">
+        <f t="shared" si="105"/>
+        <v>1856.783483999996</v>
+      </c>
+      <c r="V143" s="4">
+        <f t="shared" si="106"/>
+        <v>9.4637282568807102E-2</v>
+      </c>
+      <c r="W143" s="4">
+        <f t="shared" si="107"/>
+        <v>0.11653060329976306</v>
+      </c>
+      <c r="X143" s="1">
+        <f t="shared" si="108"/>
+        <v>0.1716332430666879</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
+      <c r="A144" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B144">
+        <v>135</v>
+      </c>
+      <c r="C144" s="59">
+        <v>103.24</v>
+      </c>
+      <c r="D144" s="60">
+        <v>1.3061</v>
+      </c>
+      <c r="E144" s="19">
+        <f t="shared" si="94"/>
+        <v>0.21989450933333332</v>
+      </c>
+      <c r="F144" s="37">
+        <f t="shared" si="95"/>
+        <v>-1.9296474074074182E-2</v>
+      </c>
+      <c r="H144" s="41">
+        <f t="shared" si="96"/>
+        <v>-2.6050240000000144</v>
+      </c>
+      <c r="I144" t="s">
+        <v>7</v>
+      </c>
+      <c r="J144" t="s">
+        <v>531</v>
+      </c>
+      <c r="K144" s="2">
+        <f t="shared" si="97"/>
+        <v>134.84176399999998</v>
+      </c>
+      <c r="L144" s="2">
+        <f t="shared" si="98"/>
+        <v>0.15823600000001647</v>
+      </c>
+      <c r="M144" s="1">
+        <f t="shared" si="99"/>
+        <v>0.89894509333333328</v>
+      </c>
+      <c r="N144" s="6">
+        <f t="shared" si="100"/>
+        <v>13538.259999999997</v>
+      </c>
+      <c r="O144" s="2">
+        <f t="shared" si="101"/>
+        <v>17682.321385999996</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="6">
+        <f t="shared" si="102"/>
+        <v>3686.1299999999997</v>
+      </c>
+      <c r="S144" s="6">
+        <f t="shared" si="103"/>
+        <v>21368.451385999997</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="104"/>
+        <v>19755</v>
+      </c>
+      <c r="U144" s="6">
+        <f t="shared" si="105"/>
+        <v>1613.451385999997</v>
+      </c>
+      <c r="V144" s="4">
+        <f t="shared" si="106"/>
+        <v>8.1673064338142032E-2</v>
+      </c>
+      <c r="W144" s="4">
+        <f t="shared" si="107"/>
+        <v>0.10040851572014686</v>
+      </c>
+      <c r="X144" s="1">
+        <f t="shared" si="108"/>
+        <v>0.17250337581389016</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:X1" xr:uid="{97C2E941-0B08-D04E-A558-71A6284C31B0}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
       <formula>-0.45</formula>
       <formula>0.45</formula>
     </cfRule>
@@ -15053,11 +15302,11 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F140">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="F2:F144">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15130,14 +15379,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80137E07-E7EA-FC45-A9F6-55567F6012A2}">
-  <dimension ref="A1:Y141"/>
+  <dimension ref="A1:Y145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="L143" sqref="L143"/>
+      <selection pane="bottomRight" activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15180,14 +15429,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="38">
-        <v>0.9657</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="46" t="str">
         <f>"盈利"&amp;ROUND(SUM(H2:H19967),2)</f>
-        <v>盈利1091.02</v>
+        <v>盈利535.5</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -18098,12 +18347,12 @@
       </c>
       <c r="F36" s="36">
         <f t="shared" si="15"/>
-        <v>-5.4209714285714684E-3</v>
+        <v>-4.0128761904761792E-2</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="40">
         <f t="shared" si="16"/>
-        <v>-0.5692020000000042</v>
+        <v>-4.2135199999999884</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
@@ -18181,12 +18430,12 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="15"/>
-        <v>-4.2560000000000922E-3</v>
+        <v>-3.9004444444444494E-2</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="40">
         <f t="shared" si="16"/>
-        <v>-0.38304000000000826</v>
+        <v>-3.5104000000000042</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -18264,12 +18513,12 @@
       </c>
       <c r="F38" s="36">
         <f t="shared" si="15"/>
-        <v>-2.8589999999992542E-4</v>
+        <v>-3.5172888888888879E-2</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="40">
         <f t="shared" si="16"/>
-        <v>-2.5730999999993287E-2</v>
+        <v>-3.1655599999999993</v>
       </c>
       <c r="I38" t="s">
         <v>7</v>
@@ -18347,12 +18596,12 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="15"/>
-        <v>-1.5735000000000178E-3</v>
+        <v>-3.6415555555555555E-2</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="40">
         <f t="shared" si="16"/>
-        <v>-0.1416150000000016</v>
+        <v>-3.2774000000000001</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
@@ -18430,12 +18679,12 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="15"/>
-        <v>-9.2990999999999404E-3</v>
+        <v>-4.3871555555555455E-2</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="40">
         <f t="shared" si="16"/>
-        <v>-0.83691899999999464</v>
+        <v>-3.9484399999999908</v>
       </c>
       <c r="I40" t="s">
         <v>7</v>
@@ -18513,12 +18762,12 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="15"/>
-        <v>-2.5787533333333258E-2</v>
+        <v>-5.9784592592592598E-2</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="40">
         <f t="shared" si="16"/>
-        <v>-3.48131699999999</v>
+        <v>-8.070920000000001</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -18596,12 +18845,12 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="15"/>
-        <v>-4.9608133333333207E-2</v>
+        <v>-8.2773925925925737E-2</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="40">
         <f t="shared" si="16"/>
-        <v>-6.6970979999999827</v>
+        <v>-11.174479999999974</v>
       </c>
       <c r="I42" t="s">
         <v>7</v>
@@ -18683,12 +18932,12 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="15"/>
-        <v>-6.4916266666666639E-2</v>
+        <v>-9.7547851851851844E-2</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="40">
         <f t="shared" si="16"/>
-        <v>-8.7636959999999959</v>
+        <v>-13.168959999999998</v>
       </c>
       <c r="I43" t="s">
         <v>7</v>
@@ -18770,12 +19019,12 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="15"/>
-        <v>-7.6290066666666684E-2</v>
+        <v>-0.10852474074074075</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="40">
         <f t="shared" si="16"/>
-        <v>-10.299159000000003</v>
+        <v>-14.650840000000002</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
@@ -18857,12 +19106,12 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="15"/>
-        <v>-4.345626666666657E-2</v>
+        <v>-7.6836740740740678E-2</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="40">
         <f t="shared" si="16"/>
-        <v>-5.866595999999987</v>
+        <v>-10.372959999999992</v>
       </c>
       <c r="I45" t="s">
         <v>7</v>
@@ -18940,12 +19189,12 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="15"/>
-        <v>-7.7291533333333273E-2</v>
+        <v>-0.10949125925925911</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="40">
         <f t="shared" si="16"/>
-        <v>-10.434356999999991</v>
+        <v>-14.78131999999998</v>
       </c>
       <c r="I46" t="s">
         <v>7</v>
@@ -19023,12 +19272,12 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="15"/>
-        <v>-9.2027399999999995E-2</v>
+        <v>-0.12371288888888878</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="40">
         <f t="shared" si="16"/>
-        <v>-12.423698999999999</v>
+        <v>-16.701239999999984</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
@@ -19106,12 +19355,12 @@
       </c>
       <c r="F48" s="36">
         <f t="shared" si="15"/>
-        <v>-7.1926533333333223E-2</v>
+        <v>-0.10431348148148134</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="40">
         <f t="shared" si="16"/>
-        <v>-9.7100819999999857</v>
+        <v>-14.082319999999982</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
@@ -19189,12 +19438,12 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="15"/>
-        <v>-5.1038800000000079E-2</v>
+        <v>-8.4154666666666628E-2</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="40">
         <f t="shared" si="16"/>
-        <v>-6.8902380000000107</v>
+        <v>-11.360879999999995</v>
       </c>
       <c r="I49" t="s">
         <v>7</v>
@@ -19272,12 +19521,12 @@
       </c>
       <c r="F50" s="36">
         <f t="shared" si="15"/>
-        <v>-6.0981933333333259E-2</v>
+        <v>-9.3750814814814648E-2</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="40">
         <f t="shared" si="16"/>
-        <v>-8.2325609999999898</v>
+        <v>-12.656359999999978</v>
       </c>
       <c r="I50" t="s">
         <v>7</v>
@@ -19355,12 +19604,12 @@
       </c>
       <c r="F51" s="36">
         <f t="shared" si="15"/>
-        <v>-8.3944133333333351E-2</v>
+        <v>-0.11591170370370366</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="40">
         <f t="shared" si="16"/>
-        <v>-11.332458000000003</v>
+        <v>-15.648079999999993</v>
       </c>
       <c r="I51" t="s">
         <v>7</v>
@@ -19438,12 +19687,12 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="15"/>
-        <v>-8.7234666666666655E-2</v>
+        <v>-0.11908740740740745</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="40">
         <f t="shared" si="16"/>
-        <v>-11.776679999999999</v>
+        <v>-16.076800000000006</v>
       </c>
       <c r="I52" t="s">
         <v>7</v>
@@ -19525,12 +19774,12 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="15"/>
-        <v>-8.6018599999999987E-2</v>
+        <v>-0.11791377777777773</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="40">
         <f t="shared" si="16"/>
-        <v>-11.612510999999998</v>
+        <v>-15.918359999999993</v>
       </c>
       <c r="I53" t="s">
         <v>7</v>
@@ -19608,12 +19857,12 @@
       </c>
       <c r="F54" s="36">
         <f t="shared" si="15"/>
-        <v>-9.7750066666666649E-2</v>
+        <v>-0.12923585185185182</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="40">
         <f t="shared" si="16"/>
-        <v>-13.196258999999998</v>
+        <v>-17.446839999999995</v>
       </c>
       <c r="I54" t="s">
         <v>7</v>
@@ -19695,12 +19944,12 @@
       </c>
       <c r="F55" s="36">
         <f t="shared" si="15"/>
-        <v>-0.10268586666666671</v>
+        <v>-0.13399940740740734</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="40">
         <f t="shared" si="16"/>
-        <v>-13.862592000000006</v>
+        <v>-18.089919999999992</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
@@ -19779,12 +20028,12 @@
       </c>
       <c r="F56" s="36">
         <f t="shared" si="15"/>
-        <v>-9.174126666666664E-2</v>
+        <v>-0.12343674074074065</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="40">
         <f t="shared" si="16"/>
-        <v>-12.385070999999996</v>
+        <v>-16.663959999999989</v>
       </c>
       <c r="I56" t="s">
         <v>7</v>
@@ -19862,12 +20111,12 @@
       </c>
       <c r="F57" s="36">
         <f t="shared" si="15"/>
-        <v>-6.6990733333333274E-2</v>
+        <v>-9.9549925925925806E-2</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="40">
         <f t="shared" si="16"/>
-        <v>-9.0437489999999912</v>
+        <v>-13.439239999999984</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
@@ -19945,12 +20194,12 @@
       </c>
       <c r="F58" s="36">
         <f t="shared" si="15"/>
-        <v>-7.52885999999999E-2</v>
+        <v>-0.1075582222222221</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="40">
         <f t="shared" si="16"/>
-        <v>-10.163960999999986</v>
+        <v>-14.520359999999982</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -20028,12 +20277,12 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="15"/>
-        <v>-6.2841800000000114E-2</v>
+        <v>-9.5545777777777771E-2</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="40">
         <f t="shared" si="16"/>
-        <v>-8.4836430000000149</v>
+        <v>-12.898679999999999</v>
       </c>
       <c r="I59" t="s">
         <v>7</v>
@@ -20111,12 +20360,12 @@
       </c>
       <c r="F60" s="36">
         <f t="shared" si="15"/>
-        <v>-9.1383600000000023E-2</v>
+        <v>-0.12309155555555548</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="40">
         <f t="shared" si="16"/>
-        <v>-12.336786000000004</v>
+        <v>-16.617359999999991</v>
       </c>
       <c r="I60" t="s">
         <v>7</v>
@@ -20194,12 +20443,12 @@
       </c>
       <c r="F61" s="36">
         <f t="shared" si="15"/>
-        <v>-0.12285826666666663</v>
+        <v>-0.15346785185185172</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="40">
         <f t="shared" si="16"/>
-        <v>-16.585865999999996</v>
+        <v>-20.718159999999983</v>
       </c>
       <c r="I61" t="s">
         <v>7</v>
@@ -20281,12 +20530,12 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="15"/>
-        <v>-0.12550499999999998</v>
+        <v>-0.15602222222222215</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="40">
         <f t="shared" si="16"/>
-        <v>-16.943174999999997</v>
+        <v>-21.062999999999988</v>
       </c>
       <c r="I62" t="s">
         <v>7</v>
@@ -20364,12 +20613,12 @@
       </c>
       <c r="F63" s="36">
         <f t="shared" si="15"/>
-        <v>-0.13408900000000004</v>
+        <v>-0.16430666666666671</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="40">
         <f t="shared" si="16"/>
-        <v>-16.090680000000006</v>
+        <v>-19.716800000000006</v>
       </c>
       <c r="I63" t="s">
         <v>7</v>
@@ -20451,12 +20700,12 @@
       </c>
       <c r="F64" s="36">
         <f t="shared" si="15"/>
-        <v>-0.13907844999999999</v>
+        <v>-0.16912199999999988</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="40">
         <f t="shared" si="16"/>
-        <v>-16.689413999999999</v>
+        <v>-20.294639999999987</v>
       </c>
       <c r="I64" t="s">
         <v>7</v>
@@ -20538,12 +20787,12 @@
       </c>
       <c r="F65" s="36">
         <f t="shared" si="15"/>
-        <v>-0.135618025</v>
+        <v>-0.16578233333333331</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="40">
         <f t="shared" si="16"/>
-        <v>-16.274163000000001</v>
+        <v>-19.893879999999996</v>
       </c>
       <c r="I65" t="s">
         <v>7</v>
@@ -20621,12 +20870,12 @@
       </c>
       <c r="F66" s="36">
         <f t="shared" ref="F66:F97" si="27">IF(G66="",($F$1*C66-B66)/B66,H66/B66)</f>
-        <v>-0.13706657499999994</v>
+        <v>-0.16718033333333332</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="40">
         <f t="shared" ref="H66:H97" si="28">IF(G66="",$F$1*C66-B66,G66-B66)</f>
-        <v>-16.447988999999993</v>
+        <v>-20.061639999999997</v>
       </c>
       <c r="I66" t="s">
         <v>7</v>
@@ -20704,12 +20953,12 @@
       </c>
       <c r="F67" s="36">
         <f t="shared" si="27"/>
-        <v>-0.13610087499999998</v>
+        <v>-0.1662483333333333</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="40">
         <f t="shared" si="28"/>
-        <v>-16.332104999999999</v>
+        <v>-19.949799999999996</v>
       </c>
       <c r="I67" t="s">
         <v>7</v>
@@ -20787,12 +21036,12 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="27"/>
-        <v>-0.11839637500000003</v>
+        <v>-0.14916166666666666</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="40">
         <f t="shared" si="28"/>
-        <v>-14.207565000000002</v>
+        <v>-17.8994</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
@@ -20870,12 +21119,12 @@
       </c>
       <c r="F69" s="36">
         <f t="shared" si="27"/>
-        <v>-0.11642026666666665</v>
+        <v>-0.14725451851851845</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="40">
         <f t="shared" si="28"/>
-        <v>-15.716735999999997</v>
+        <v>-19.879359999999991</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
@@ -20953,12 +21202,12 @@
       </c>
       <c r="F70" s="36">
         <f t="shared" si="27"/>
-        <v>-0.10740706666666669</v>
+        <v>-0.13855585185185182</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="40">
         <f t="shared" si="28"/>
-        <v>-14.499954000000002</v>
+        <v>-18.705039999999997</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
@@ -21036,12 +21285,12 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="27"/>
-        <v>-0.12507579999999999</v>
+        <v>-0.15560799999999991</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="40">
         <f t="shared" si="28"/>
-        <v>-16.885232999999999</v>
+        <v>-21.007079999999988</v>
       </c>
       <c r="I71" t="s">
         <v>7</v>
@@ -21119,12 +21368,12 @@
       </c>
       <c r="F72" s="36">
         <f t="shared" si="27"/>
-        <v>-0.12934097499999997</v>
+        <v>-0.15972433333333325</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="40">
         <f t="shared" si="28"/>
-        <v>-15.520916999999997</v>
+        <v>-19.16691999999999</v>
       </c>
       <c r="I72" t="s">
         <v>7</v>
@@ -21202,12 +21451,12 @@
       </c>
       <c r="F73" s="36">
         <f t="shared" si="27"/>
-        <v>-0.12467342500000006</v>
+        <v>-0.15521966666666659</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="40">
         <f t="shared" si="28"/>
-        <v>-14.960811000000007</v>
+        <v>-18.626359999999991</v>
       </c>
       <c r="I73" t="s">
         <v>7</v>
@@ -21285,12 +21534,12 @@
       </c>
       <c r="F74" s="36">
         <f t="shared" si="27"/>
-        <v>-0.12974335000000004</v>
+        <v>-0.16011266666666657</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="40">
         <f t="shared" si="28"/>
-        <v>-15.569202000000004</v>
+        <v>-19.213519999999988</v>
       </c>
       <c r="I74" t="s">
         <v>7</v>
@@ -21368,12 +21617,12 @@
       </c>
       <c r="F75" s="36">
         <f t="shared" si="27"/>
-        <v>-0.11710877500000004</v>
+        <v>-0.14791900000000002</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="40">
         <f t="shared" si="28"/>
-        <v>-14.053053000000006</v>
+        <v>-17.750280000000004</v>
       </c>
       <c r="I75" t="s">
         <v>7</v>
@@ -21451,12 +21700,12 @@
       </c>
       <c r="F76" s="36">
         <f t="shared" si="27"/>
-        <v>-0.10332966666666668</v>
+        <v>-0.13462074074074074</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="40">
         <f t="shared" si="28"/>
-        <v>-13.949505000000002</v>
+        <v>-18.1738</v>
       </c>
       <c r="I76" t="s">
         <v>7</v>
@@ -21534,12 +21783,12 @@
       </c>
       <c r="F77" s="36">
         <f t="shared" si="27"/>
-        <v>-0.11112679999999997</v>
+        <v>-0.14214577777777773</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="40">
         <f t="shared" si="28"/>
-        <v>-15.002117999999996</v>
+        <v>-19.189679999999996</v>
       </c>
       <c r="I77" t="s">
         <v>7</v>
@@ -21617,12 +21866,12 @@
       </c>
       <c r="F78" s="36">
         <f t="shared" si="27"/>
-        <v>-7.6647733333333204E-2</v>
+        <v>-0.10886992592592583</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="40">
         <f t="shared" si="28"/>
-        <v>-10.347443999999982</v>
+        <v>-14.697439999999986</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -21700,12 +21949,12 @@
       </c>
       <c r="F79" s="36">
         <f t="shared" si="27"/>
-        <v>-6.8779066666666652E-2</v>
+        <v>-0.10127585185185176</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="40">
         <f t="shared" si="28"/>
-        <v>-9.2851739999999978</v>
+        <v>-13.672239999999988</v>
       </c>
       <c r="I79" t="s">
         <v>7</v>
@@ -21783,12 +22032,12 @@
       </c>
       <c r="F80" s="36">
         <f t="shared" si="27"/>
-        <v>-4.4886933333333233E-2</v>
+        <v>-7.821748148148136E-2</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="40">
         <f t="shared" si="28"/>
-        <v>-6.0597359999999867</v>
+        <v>-10.559359999999984</v>
       </c>
       <c r="I80" t="s">
         <v>7</v>
@@ -21866,12 +22115,12 @@
       </c>
       <c r="F81" s="36">
         <f t="shared" si="27"/>
-        <v>-5.1754133333333306E-2</v>
+        <v>-8.4845037037036969E-2</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="40">
         <f t="shared" si="28"/>
-        <v>-6.9868079999999964</v>
+        <v>-11.45407999999999</v>
       </c>
       <c r="I81" t="s">
         <v>7</v>
@@ -21949,12 +22198,12 @@
       </c>
       <c r="F82" s="36">
         <f t="shared" si="27"/>
-        <v>2.0923733333333312E-2</v>
+        <v>-1.4703407407407415E-2</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="40">
         <f t="shared" si="28"/>
-        <v>2.824703999999997</v>
+        <v>-1.9849600000000009</v>
       </c>
       <c r="I82" t="s">
         <v>7</v>
@@ -22032,12 +22281,12 @@
       </c>
       <c r="F83" s="36">
         <f t="shared" si="27"/>
-        <v>8.190800000000012E-3</v>
+        <v>-2.6992000000000065E-2</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="40">
         <f t="shared" si="28"/>
-        <v>0.73717200000000105</v>
+        <v>-2.4292800000000057</v>
       </c>
       <c r="I83" t="s">
         <v>7</v>
@@ -22115,12 +22364,12 @@
       </c>
       <c r="F84" s="36">
         <f t="shared" si="27"/>
-        <v>1.2375499999999956E-2</v>
+        <v>-2.2953333333333287E-2</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="40">
         <f t="shared" si="28"/>
-        <v>1.1137949999999961</v>
+        <v>-2.0657999999999959</v>
       </c>
       <c r="I84" t="s">
         <v>7</v>
@@ -22198,12 +22447,12 @@
       </c>
       <c r="F85" s="36">
         <f t="shared" si="27"/>
-        <v>2.385659999999995E-2</v>
+        <v>-1.1872888888888787E-2</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="40">
         <f t="shared" si="28"/>
-        <v>2.1470939999999956</v>
+        <v>-1.0685599999999909</v>
       </c>
       <c r="I85" t="s">
         <v>7</v>
@@ -22281,12 +22530,12 @@
       </c>
       <c r="F86" s="36">
         <f t="shared" si="27"/>
-        <v>-9.728299999999971E-3</v>
+        <v>-4.4285777777777625E-2</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="40">
         <f t="shared" si="28"/>
-        <v>-0.87554699999999741</v>
+        <v>-3.9857199999999864</v>
       </c>
       <c r="I86" t="s">
         <v>7</v>
@@ -22362,12 +22611,12 @@
       </c>
       <c r="F87" s="36">
         <f t="shared" si="27"/>
-        <v>1.3235999999999927E-3</v>
+        <v>-3.3619555555555666E-2</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="40">
         <f t="shared" si="28"/>
-        <v>0.17868599999999901</v>
+        <v>-4.5386400000000151</v>
       </c>
       <c r="I87" t="s">
         <v>7</v>
@@ -22445,12 +22694,12 @@
       </c>
       <c r="F88" s="36">
         <f t="shared" si="27"/>
-        <v>8.4053999999999483E-3</v>
+        <v>-2.6784888888888896E-2</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="40">
         <f t="shared" si="28"/>
-        <v>1.134728999999993</v>
+        <v>-3.6159600000000012</v>
       </c>
       <c r="I88" t="s">
         <v>7</v>
@@ -22528,12 +22777,12 @@
       </c>
       <c r="F89" s="36">
         <f t="shared" si="27"/>
-        <v>-1.2625400000000035E-2</v>
+        <v>-4.7081777777777618E-2</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="40">
         <f t="shared" si="28"/>
-        <v>-1.7044290000000046</v>
+        <v>-6.3560399999999788</v>
       </c>
       <c r="I89" t="s">
         <v>7</v>
@@ -22611,12 +22860,12 @@
       </c>
       <c r="F90" s="36">
         <f t="shared" si="27"/>
-        <v>-1.8562666666666786E-2</v>
+        <v>-5.2811851851851929E-2</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="40">
         <f t="shared" si="28"/>
-        <v>-2.505960000000016</v>
+        <v>-7.1296000000000106</v>
       </c>
       <c r="I90" t="s">
         <v>7</v>
@@ -22694,12 +22943,12 @@
       </c>
       <c r="F91" s="36">
         <f t="shared" si="27"/>
-        <v>1.2554333333333421E-2</v>
+        <v>-2.2780740740740546E-2</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="40">
         <f t="shared" si="28"/>
-        <v>1.6948350000000119</v>
+        <v>-3.0753999999999735</v>
       </c>
       <c r="I91" t="s">
         <v>7</v>
@@ -22777,12 +23026,12 @@
       </c>
       <c r="F92" s="36">
         <f t="shared" si="27"/>
-        <v>1.5916399999999935E-2</v>
+        <v>-1.9535999999999967E-2</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="40">
         <f t="shared" si="28"/>
-        <v>3.8199359999999842</v>
+        <v>-4.6886399999999924</v>
       </c>
       <c r="I92" t="s">
         <v>7</v>
@@ -22860,12 +23109,12 @@
       </c>
       <c r="F93" s="36">
         <f t="shared" si="27"/>
-        <v>-9.4311250000001694E-4</v>
+        <v>-3.5807166666666626E-2</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="40">
         <f t="shared" si="28"/>
-        <v>-0.22634700000000407</v>
+        <v>-8.5937199999999905</v>
       </c>
       <c r="I93" t="s">
         <v>7</v>
@@ -22943,12 +23192,12 @@
       </c>
       <c r="F94" s="36">
         <f t="shared" si="27"/>
-        <v>5.0433333333332773E-3</v>
+        <v>-3.0029629629629646E-2</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="40">
         <f t="shared" si="28"/>
-        <v>0.68084999999999241</v>
+        <v>-4.054000000000002</v>
       </c>
       <c r="I94" t="s">
         <v>7</v>
@@ -23026,12 +23275,12 @@
       </c>
       <c r="F95" s="36">
         <f t="shared" si="27"/>
-        <v>2.4643466666666804E-2</v>
+        <v>-1.1113481481481391E-2</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="40">
         <f t="shared" si="28"/>
-        <v>3.3268680000000188</v>
+        <v>-1.5003199999999879</v>
       </c>
       <c r="I95" t="s">
         <v>7</v>
@@ -23109,12 +23358,12 @@
       </c>
       <c r="F96" s="36">
         <f t="shared" si="27"/>
-        <v>3.0482375000000062E-2</v>
+        <v>-5.4783333333331781E-3</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="40">
         <f t="shared" si="28"/>
-        <v>7.3157700000000148</v>
+        <v>-1.3147999999999627</v>
       </c>
       <c r="I96" t="s">
         <v>7</v>
@@ -23192,12 +23441,12 @@
       </c>
       <c r="F97" s="36">
         <f t="shared" si="27"/>
-        <v>6.4740000000000466E-3</v>
+        <v>-2.8648888888888911E-2</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="40">
         <f t="shared" si="28"/>
-        <v>0.58266000000000417</v>
+        <v>-2.578400000000002</v>
       </c>
       <c r="I97" t="s">
         <v>7</v>
@@ -23275,12 +23524,12 @@
       </c>
       <c r="F98" s="36">
         <f t="shared" ref="F98:F129" si="37">IF(G98="",($F$1*C98-B98)/B98,H98/B98)</f>
-        <v>7.8331333333332403E-3</v>
+        <v>-2.7337185185185128E-2</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="40">
         <f t="shared" ref="H98:H129" si="38">IF(G98="",$F$1*C98-B98,G98-B98)</f>
-        <v>1.0574729999999875</v>
+        <v>-3.6905199999999923</v>
       </c>
       <c r="I98" t="s">
         <v>7</v>
@@ -23358,12 +23607,12 @@
       </c>
       <c r="F99" s="36">
         <f t="shared" si="37"/>
-        <v>7.4754666666666273E-3</v>
+        <v>-2.7682370370370194E-2</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="40">
         <f t="shared" si="38"/>
-        <v>1.0091879999999946</v>
+        <v>-3.737119999999976</v>
       </c>
       <c r="I99" t="s">
         <v>7</v>
@@ -23441,12 +23690,12 @@
       </c>
       <c r="F100" s="36">
         <f t="shared" si="37"/>
-        <v>1.3412733333333166E-2</v>
+        <v>-2.1952296296296303E-2</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="40">
         <f t="shared" si="38"/>
-        <v>1.8107189999999775</v>
+        <v>-2.9635600000000011</v>
       </c>
       <c r="I100" t="s">
         <v>7</v>
@@ -23524,12 +23773,12 @@
       </c>
       <c r="F101" s="36">
         <f t="shared" si="37"/>
-        <v>1.6059466666666612E-2</v>
+        <v>-1.9397925925925898E-2</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="40">
         <f t="shared" si="38"/>
-        <v>2.1680279999999925</v>
+        <v>-2.6187199999999962</v>
       </c>
       <c r="I101" t="s">
         <v>7</v>
@@ -23607,12 +23856,12 @@
       </c>
       <c r="F102" s="36">
         <f t="shared" si="37"/>
-        <v>2.7147133333333309E-2</v>
+        <v>-8.6971851851850943E-3</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="40">
         <f t="shared" si="38"/>
-        <v>3.6648629999999969</v>
+        <v>-1.1741199999999878</v>
       </c>
       <c r="I102" t="s">
         <v>7</v>
@@ -23690,12 +23939,12 @@
       </c>
       <c r="F103" s="36">
         <f t="shared" si="37"/>
-        <v>3.8690824999999998E-2</v>
+        <v>2.4436666666666439E-3</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="40">
         <f t="shared" si="38"/>
-        <v>9.2857979999999998</v>
+        <v>0.58647999999999456</v>
       </c>
       <c r="I103" t="s">
         <v>7</v>
@@ -23773,12 +24022,12 @@
       </c>
       <c r="F104" s="36">
         <f t="shared" si="37"/>
-        <v>4.05819875E-2</v>
+        <v>4.2688333333334326E-3</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="40">
         <f t="shared" si="38"/>
-        <v>9.7396770000000004</v>
+        <v>1.0245200000000239</v>
       </c>
       <c r="I104" t="s">
         <v>7</v>
@@ -23856,12 +24105,12 @@
       </c>
       <c r="F105" s="36">
         <f t="shared" si="37"/>
-        <v>6.1867624999999885E-2</v>
+        <v>2.481166666666669E-2</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="40">
         <f t="shared" si="38"/>
-        <v>14.848229999999973</v>
+        <v>5.9548000000000059</v>
       </c>
       <c r="I105" t="s">
         <v>7</v>
@@ -23939,12 +24188,12 @@
       </c>
       <c r="F106" s="36">
         <f t="shared" si="37"/>
-        <v>5.2170387500000005E-2</v>
+        <v>1.5452833333333396E-2</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="40">
         <f t="shared" si="38"/>
-        <v>12.520893000000001</v>
+        <v>3.7086800000000153</v>
       </c>
       <c r="I106" t="s">
         <v>7</v>
@@ -24022,12 +24271,12 @@
       </c>
       <c r="F107" s="36">
         <f t="shared" si="37"/>
-        <v>1.6023699999999981E-2</v>
+        <v>-1.9432444444444426E-2</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="40">
         <f t="shared" si="38"/>
-        <v>1.4421329999999983</v>
+        <v>-1.7489199999999983</v>
       </c>
       <c r="I107" t="s">
         <v>7</v>
@@ -24105,12 +24354,12 @@
       </c>
       <c r="F108" s="36">
         <f t="shared" si="37"/>
-        <v>2.3570466666666755E-2</v>
+        <v>-1.2149037037037007E-2</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="40">
         <f t="shared" si="38"/>
-        <v>3.182013000000012</v>
+        <v>-1.640119999999996</v>
       </c>
       <c r="I108" t="s">
         <v>7</v>
@@ -24188,12 +24437,12 @@
       </c>
       <c r="F109" s="36">
         <f t="shared" si="37"/>
-        <v>2.085220000000005E-2</v>
+        <v>-1.4772444444444312E-2</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="40">
         <f t="shared" si="38"/>
-        <v>1.8766980000000046</v>
+        <v>-1.329519999999988</v>
       </c>
       <c r="I109" t="s">
         <v>7</v>
@@ -24271,12 +24520,12 @@
       </c>
       <c r="F110" s="36">
         <f t="shared" si="37"/>
-        <v>3.9576050000000036E-2</v>
+        <v>3.2980000000000825E-3</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="40">
         <f t="shared" si="38"/>
-        <v>9.4982520000000079</v>
+        <v>0.79152000000001976</v>
       </c>
       <c r="I110" t="s">
         <v>7</v>
@@ -24354,12 +24603,12 @@
       </c>
       <c r="F111" s="36">
         <f t="shared" si="37"/>
-        <v>3.8851775000000068E-2</v>
+        <v>2.5990000000001364E-3</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="40">
         <f t="shared" si="38"/>
-        <v>9.3244260000000168</v>
+        <v>0.62376000000003273</v>
       </c>
       <c r="I111" t="s">
         <v>7</v>
@@ -24437,12 +24686,12 @@
       </c>
       <c r="F112" s="36">
         <f t="shared" si="37"/>
-        <v>3.997842499999997E-2</v>
+        <v>3.6863333333332802E-3</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="40">
         <f t="shared" si="38"/>
-        <v>9.5948219999999935</v>
+        <v>0.88471999999998729</v>
       </c>
       <c r="I112" t="s">
         <v>7</v>
@@ -24520,12 +24769,12 @@
       </c>
       <c r="F113" s="36">
         <f t="shared" si="37"/>
-        <v>2.7182900000000031E-2</v>
+        <v>-8.6626666666666328E-3</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="40">
         <f t="shared" si="38"/>
-        <v>6.5238960000000077</v>
+        <v>-2.079039999999992</v>
       </c>
       <c r="I113" t="s">
         <v>7</v>
@@ -24603,12 +24852,12 @@
       </c>
       <c r="F114" s="36">
         <f t="shared" si="37"/>
-        <v>7.9761999999999698E-3</v>
+        <v>-2.7199111111111018E-2</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="40">
         <f t="shared" si="38"/>
-        <v>1.0767869999999959</v>
+        <v>-3.6718799999999874</v>
       </c>
       <c r="I114" t="s">
         <v>7</v>
@@ -24686,12 +24935,12 @@
       </c>
       <c r="F115" s="36">
         <f t="shared" si="37"/>
-        <v>-4.7567333333332767E-3</v>
+        <v>-3.9487703703703664E-2</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="40">
         <f t="shared" si="38"/>
-        <v>-0.64215899999999237</v>
+        <v>-5.3308399999999949</v>
       </c>
       <c r="I115" t="s">
         <v>7</v>
@@ -24769,12 +25018,12 @@
       </c>
       <c r="F116" s="36">
         <f t="shared" si="37"/>
-        <v>-5.25746666666662E-3</v>
+        <v>-3.997096296296284E-2</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="40">
         <f t="shared" si="38"/>
-        <v>-0.70975799999999367</v>
+        <v>-5.3960799999999836</v>
       </c>
       <c r="I116" t="s">
         <v>7</v>
@@ -24852,12 +25101,12 @@
       </c>
       <c r="F117" s="36">
         <f t="shared" si="37"/>
-        <v>4.0418666666668015E-3</v>
+        <v>-3.0996148148147995E-2</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="40">
         <f t="shared" si="38"/>
-        <v>0.54565200000001823</v>
+        <v>-4.1844799999999793</v>
       </c>
       <c r="I117" t="s">
         <v>7</v>
@@ -24935,12 +25184,12 @@
       </c>
       <c r="F118" s="36">
         <f t="shared" si="37"/>
-        <v>5.758666666666714E-3</v>
+        <v>-2.9339259259259304E-2</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="40">
         <f t="shared" si="38"/>
-        <v>0.77742000000000644</v>
+        <v>-3.9608000000000061</v>
       </c>
       <c r="I118" t="s">
         <v>7</v>
@@ -25018,12 +25267,12 @@
       </c>
       <c r="F119" s="36">
         <f t="shared" si="37"/>
-        <v>-3.0399333333333643E-3</v>
+        <v>-3.7830814814814762E-2</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="40">
         <f t="shared" si="38"/>
-        <v>-0.41039100000000417</v>
+        <v>-5.1071599999999933</v>
       </c>
       <c r="I119" t="s">
         <v>7</v>
@@ -25101,12 +25350,12 @@
       </c>
       <c r="F120" s="36">
         <f t="shared" si="37"/>
-        <v>7.3323999999998979E-3</v>
+        <v>-2.7820444444444512E-2</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="40">
         <f t="shared" si="38"/>
-        <v>0.98987399999998615</v>
+        <v>-3.7557600000000093</v>
       </c>
       <c r="I120" t="s">
         <v>7</v>
@@ -25184,12 +25433,12 @@
       </c>
       <c r="F121" s="36">
         <f t="shared" si="37"/>
-        <v>-2.0422533333333426E-2</v>
+        <v>-5.4606814814814733E-2</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="40">
         <f t="shared" si="38"/>
-        <v>-2.7570420000000126</v>
+        <v>-7.3719199999999887</v>
       </c>
       <c r="I121" t="s">
         <v>7</v>
@@ -25267,12 +25516,12 @@
       </c>
       <c r="F122" s="36">
         <f t="shared" si="37"/>
-        <v>-1.7561199999999888E-2</v>
+        <v>-5.184533333333316E-2</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="40">
         <f t="shared" si="38"/>
-        <v>-2.3707619999999849</v>
+        <v>-6.9991199999999765</v>
       </c>
       <c r="I122" t="s">
         <v>7</v>
@@ -25350,12 +25599,12 @@
       </c>
       <c r="F123" s="36">
         <f t="shared" si="37"/>
-        <v>-9.6209999999999768E-3</v>
+        <v>-4.4182222222222151E-2</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="40">
         <f t="shared" si="38"/>
-        <v>-1.2988349999999969</v>
+        <v>-5.9645999999999901</v>
       </c>
       <c r="I123" t="s">
         <v>7</v>
@@ -25433,12 +25682,12 @@
       </c>
       <c r="F124" s="36">
         <f t="shared" si="37"/>
-        <v>-6.7596666666666482E-3</v>
+        <v>-4.1420740740740786E-2</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="40">
         <f t="shared" si="38"/>
-        <v>-0.91255499999999756</v>
+        <v>-5.5918000000000063</v>
       </c>
       <c r="I124" t="s">
         <v>7</v>
@@ -25516,12 +25765,12 @@
       </c>
       <c r="F125" s="36">
         <f t="shared" si="37"/>
-        <v>-1.0479399999999932E-2</v>
+        <v>-4.5010666666666602E-2</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="40">
         <f t="shared" si="38"/>
-        <v>-1.414718999999991</v>
+        <v>-6.076439999999991</v>
       </c>
       <c r="I125" t="s">
         <v>7</v>
@@ -25599,12 +25848,12 @@
       </c>
       <c r="F126" s="36">
         <f t="shared" si="37"/>
-        <v>2.213979999999988E-2</v>
+        <v>-1.3529777777777899E-2</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="40">
         <f t="shared" si="38"/>
-        <v>2.9888729999999839</v>
+        <v>-1.8265200000000164</v>
       </c>
       <c r="I126" t="s">
         <v>7</v>
@@ -25682,12 +25931,12 @@
       </c>
       <c r="F127" s="36">
         <f t="shared" si="37"/>
-        <v>1.9993799999999989E-2</v>
+        <v>-1.5600888888888709E-2</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="40">
         <f t="shared" si="38"/>
-        <v>2.6991629999999986</v>
+        <v>-2.1061199999999758</v>
       </c>
       <c r="I127" t="s">
         <v>7</v>
@@ -25765,12 +26014,12 @@
       </c>
       <c r="F128" s="36">
         <f t="shared" si="37"/>
-        <v>2.7147133333333309E-2</v>
+        <v>-8.6971851851850943E-3</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="40">
         <f t="shared" si="38"/>
-        <v>3.6648629999999969</v>
+        <v>-1.1741199999999878</v>
       </c>
       <c r="I128" t="s">
         <v>7</v>
@@ -25848,12 +26097,12 @@
       </c>
       <c r="F129" s="36">
         <f t="shared" si="37"/>
-        <v>2.7075600000000154E-2</v>
+        <v>-8.766222222222151E-3</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="40">
         <f t="shared" si="38"/>
-        <v>3.655206000000021</v>
+        <v>-1.1834399999999903</v>
       </c>
       <c r="I129" t="s">
         <v>7</v>
@@ -25931,12 +26180,12 @@
       </c>
       <c r="F130" s="36">
         <f t="shared" ref="F130:F138" si="48">IF(G130="",($F$1*C130-B130)/B130,H130/B130)</f>
-        <v>2.3212799999999933E-2</v>
+        <v>-1.2494222222222283E-2</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="40">
         <f t="shared" ref="H130:H138" si="49">IF(G130="",$F$1*C130-B130,G130-B130)</f>
-        <v>3.1337279999999907</v>
+        <v>-1.6867200000000082</v>
       </c>
       <c r="I130" t="s">
         <v>7</v>
@@ -26014,12 +26263,12 @@
       </c>
       <c r="F131" s="36">
         <f t="shared" si="48"/>
-        <v>1.0622933333333414E-2</v>
+        <v>-2.464474074074061E-2</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="40">
         <f t="shared" si="49"/>
-        <v>1.4340960000000109</v>
+        <v>-3.3270399999999825</v>
       </c>
       <c r="I131" t="s">
         <v>7</v>
@@ -26097,12 +26346,12 @@
       </c>
       <c r="F132" s="36">
         <f t="shared" si="48"/>
-        <v>9.2638000000001153E-3</v>
+        <v>-2.5956444444444449E-2</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="40">
         <f t="shared" si="49"/>
-        <v>1.2506130000000155</v>
+        <v>-3.5041200000000003</v>
       </c>
       <c r="I132" t="s">
         <v>7</v>
@@ -26180,12 +26429,12 @@
       </c>
       <c r="F133" s="36">
         <f t="shared" si="48"/>
-        <v>9.6930000000000939E-3</v>
+        <v>-2.5542222222222116E-2</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="40">
         <f t="shared" si="49"/>
-        <v>1.3085550000000126</v>
+        <v>-3.4481999999999857</v>
       </c>
       <c r="I133" t="s">
         <v>7</v>
@@ -26263,12 +26512,12 @@
       </c>
       <c r="F134" s="36">
         <f t="shared" si="48"/>
-        <v>2.6002600000000105E-2</v>
+        <v>-9.8017777777777669E-3</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="40">
         <f t="shared" si="49"/>
-        <v>3.5103510000000142</v>
+        <v>-1.3232399999999984</v>
       </c>
       <c r="I134" t="s">
         <v>7</v>
@@ -26346,12 +26595,12 @@
       </c>
       <c r="F135" s="36">
         <f t="shared" si="48"/>
-        <v>1.9206933333333186E-2</v>
+        <v>-1.6360296296296317E-2</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="40">
         <f t="shared" si="49"/>
-        <v>2.5929359999999804</v>
+        <v>-2.2086400000000026</v>
       </c>
       <c r="I135" t="s">
         <v>7</v>
@@ -26429,11 +26678,11 @@
       </c>
       <c r="F136" s="36">
         <f t="shared" si="48"/>
-        <v>3.0703681249999924E-2</v>
+        <v>-5.2647500000000255E-3</v>
       </c>
       <c r="H136" s="40">
         <f t="shared" si="49"/>
-        <v>29.475533999999925</v>
+        <v>-5.0541600000000244</v>
       </c>
       <c r="I136" t="s">
         <v>7</v>
@@ -26510,11 +26759,11 @@
       </c>
       <c r="F137" s="36">
         <f t="shared" si="48"/>
-        <v>2.1630125000000076E-2</v>
+        <v>-1.4021666666666615E-2</v>
       </c>
       <c r="H137" s="40">
         <f t="shared" si="49"/>
-        <v>5.1912300000000187</v>
+        <v>-3.3651999999999873</v>
       </c>
       <c r="I137" t="s">
         <v>7</v>
@@ -26592,11 +26841,11 @@
       </c>
       <c r="F138" s="36">
         <f t="shared" si="48"/>
-        <v>1.2174312500000065E-2</v>
+        <v>-2.3147499999999845E-2</v>
       </c>
       <c r="H138" s="40">
         <f t="shared" si="49"/>
-        <v>2.9218350000000157</v>
+        <v>-5.5553999999999633</v>
       </c>
       <c r="I138" t="s">
         <v>7</v>
@@ -26674,11 +26923,11 @@
       </c>
       <c r="F139" s="36">
         <f t="shared" ref="F139:F141" si="72">IF(G139="",($F$1*C139-B139)/B139,H139/B139)</f>
-        <v>8.5484666666666778E-3</v>
+        <v>-2.6646814814814786E-2</v>
       </c>
       <c r="H139" s="40">
         <f t="shared" ref="H139:H141" si="73">IF(G139="",$F$1*C139-B139,G139-B139)</f>
-        <v>1.1540430000000015</v>
+        <v>-3.5973199999999963</v>
       </c>
       <c r="I139" t="s">
         <v>7</v>
@@ -26695,7 +26944,7 @@
         <v>-7.2569999999984702E-2</v>
       </c>
       <c r="M139" s="1">
-        <f t="shared" ref="M139:M141" si="75">K139/150</f>
+        <f t="shared" ref="M139:M140" si="75">K139/150</f>
         <v>0.8995162000000001</v>
       </c>
       <c r="N139" s="6">
@@ -26703,7 +26952,7 @@
         <v>15774.350000000009</v>
       </c>
       <c r="O139" s="2">
-        <f t="shared" ref="O139:O141" si="77">N139*D139</f>
+        <f t="shared" ref="O139:O140" si="77">N139*D139</f>
         <v>15096.052950000008</v>
       </c>
       <c r="P139" s="2"/>
@@ -26713,7 +26962,7 @@
         <v>7247.8200000000006</v>
       </c>
       <c r="S139" s="6">
-        <f t="shared" ref="S139:S141" si="79">O139+R139</f>
+        <f t="shared" ref="S139:S140" si="79">O139+R139</f>
         <v>22343.872950000008</v>
       </c>
       <c r="T139">
@@ -26721,19 +26970,19 @@
         <v>21395</v>
       </c>
       <c r="U139" s="6">
-        <f t="shared" ref="U139:U141" si="81">S139-T139</f>
+        <f t="shared" ref="U139:U140" si="81">S139-T139</f>
         <v>948.87295000000813</v>
       </c>
       <c r="V139" s="4">
-        <f t="shared" ref="V139:V141" si="82">S139/T139-1</f>
+        <f t="shared" ref="V139:V140" si="82">S139/T139-1</f>
         <v>4.4350219677495195E-2</v>
       </c>
       <c r="W139" s="4">
-        <f t="shared" ref="W139:W141" si="83">O139/(T139-R139)-1</f>
+        <f t="shared" ref="W139:W140" si="83">O139/(T139-R139)-1</f>
         <v>6.7071525915412655E-2</v>
       </c>
       <c r="X139" s="1">
-        <f t="shared" ref="X139:X141" si="84">R139/S139</f>
+        <f t="shared" ref="X139:X140" si="84">R139/S139</f>
         <v>0.32437617311102718</v>
       </c>
     </row>
@@ -26756,11 +27005,11 @@
       </c>
       <c r="F140" s="36">
         <f t="shared" si="72"/>
-        <v>6.9747333333334948E-3</v>
+        <v>-2.8165629629629579E-2</v>
       </c>
       <c r="H140" s="40">
         <f t="shared" si="73"/>
-        <v>0.94158900000002177</v>
+        <v>-3.8023599999999931</v>
       </c>
       <c r="I140" t="s">
         <v>7</v>
@@ -26838,11 +27087,11 @@
       </c>
       <c r="F141" s="36">
         <f t="shared" si="72"/>
-        <v>7.1893333333333783E-3</v>
+        <v>-2.7958518518518414E-2</v>
       </c>
       <c r="H141" s="40">
         <f t="shared" si="73"/>
-        <v>0.97056000000000608</v>
+        <v>-3.7743999999999858</v>
       </c>
       <c r="I141" t="s">
         <v>7</v>
@@ -26901,11 +27150,340 @@
         <v>0.32021531111010004</v>
       </c>
     </row>
+    <row r="142" spans="1:24">
+      <c r="A142" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="B142">
+        <v>135</v>
+      </c>
+      <c r="C142" s="2">
+        <v>140.06</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="E142" s="1">
+        <f t="shared" ref="E142:E145" si="95">10%*M142+13%</f>
+        <v>0.21995586933333333</v>
+      </c>
+      <c r="F142" s="36">
+        <f t="shared" ref="F142:F145" si="96">IF(G142="",($F$1*C142-B142)/B142,H142/B142)</f>
+        <v>-3.3067259259259227E-2</v>
+      </c>
+      <c r="H142" s="40">
+        <f t="shared" ref="H142:H145" si="97">IF(G142="",$F$1*C142-B142,G142-B142)</f>
+        <v>-4.4640799999999956</v>
+      </c>
+      <c r="I142" t="s">
+        <v>7</v>
+      </c>
+      <c r="J142" t="s">
+        <v>527</v>
+      </c>
+      <c r="K142" s="2">
+        <f t="shared" ref="K142:K145" si="98">D142*C142</f>
+        <v>134.93380400000001</v>
+      </c>
+      <c r="L142" s="2">
+        <f t="shared" ref="L142:L145" si="99">K142-B142</f>
+        <v>-6.6195999999990818E-2</v>
+      </c>
+      <c r="M142" s="1">
+        <f t="shared" ref="M142:M145" si="100">K142/150</f>
+        <v>0.89955869333333338</v>
+      </c>
+      <c r="N142" s="6">
+        <f t="shared" ref="N142:N145" si="101">N141+C142-P142</f>
+        <v>16195.980000000009</v>
+      </c>
+      <c r="O142" s="2">
+        <f t="shared" ref="O142:O145" si="102">N142*D142</f>
+        <v>15603.207132000009</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="15"/>
+      <c r="R142" s="6">
+        <f t="shared" ref="R142:R145" si="103">Q142+R141</f>
+        <v>7247.8200000000006</v>
+      </c>
+      <c r="S142" s="6">
+        <f t="shared" ref="S142:S145" si="104">O142+R142</f>
+        <v>22851.02713200001</v>
+      </c>
+      <c r="T142">
+        <f t="shared" ref="T142:T145" si="105">T141+B142</f>
+        <v>21800</v>
+      </c>
+      <c r="U142" s="6">
+        <f t="shared" ref="U142:U145" si="106">S142-T142</f>
+        <v>1051.0271320000102</v>
+      </c>
+      <c r="V142" s="4">
+        <f t="shared" ref="V142:V145" si="107">S142/T142-1</f>
+        <v>4.8212253761468427E-2</v>
+      </c>
+      <c r="W142" s="4">
+        <f t="shared" ref="W142:W145" si="108">O142/(T142-R142)-1</f>
+        <v>7.2224720419896471E-2</v>
+      </c>
+      <c r="X142" s="1">
+        <f t="shared" ref="X142:X145" si="109">R142/S142</f>
+        <v>0.31717698981899739</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
+      <c r="A143" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="B143">
+        <v>135</v>
+      </c>
+      <c r="C143" s="2">
+        <v>140.57</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0.95989999999999998</v>
+      </c>
+      <c r="E143" s="1">
+        <f t="shared" si="95"/>
+        <v>0.21995542866666667</v>
+      </c>
+      <c r="F143" s="36">
+        <f t="shared" si="96"/>
+        <v>-2.9546370370370469E-2</v>
+      </c>
+      <c r="H143" s="40">
+        <f t="shared" si="97"/>
+        <v>-3.9887600000000134</v>
+      </c>
+      <c r="I143" t="s">
+        <v>7</v>
+      </c>
+      <c r="J143" t="s">
+        <v>529</v>
+      </c>
+      <c r="K143" s="2">
+        <f t="shared" si="98"/>
+        <v>134.933143</v>
+      </c>
+      <c r="L143" s="2">
+        <f t="shared" si="99"/>
+        <v>-6.6856999999998834E-2</v>
+      </c>
+      <c r="M143" s="1">
+        <f t="shared" si="100"/>
+        <v>0.8995542866666667</v>
+      </c>
+      <c r="N143" s="6">
+        <f t="shared" si="101"/>
+        <v>16336.550000000008</v>
+      </c>
+      <c r="O143" s="2">
+        <f t="shared" si="102"/>
+        <v>15681.454345000007</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="15"/>
+      <c r="R143" s="6">
+        <f t="shared" si="103"/>
+        <v>7247.8200000000006</v>
+      </c>
+      <c r="S143" s="6">
+        <f t="shared" si="104"/>
+        <v>22929.274345000009</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="105"/>
+        <v>21935</v>
+      </c>
+      <c r="U143" s="6">
+        <f t="shared" si="106"/>
+        <v>994.27434500000891</v>
+      </c>
+      <c r="V143" s="4">
+        <f t="shared" si="107"/>
+        <v>4.5328212673809487E-2</v>
+      </c>
+      <c r="W143" s="4">
+        <f t="shared" si="108"/>
+        <v>6.769674947811688E-2</v>
+      </c>
+      <c r="X143" s="1">
+        <f t="shared" si="109"/>
+        <v>0.31609460861898014</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
+      <c r="A144" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="B144">
+        <v>135</v>
+      </c>
+      <c r="C144" s="2">
+        <v>141.47999999999999</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="E144" s="1">
+        <f t="shared" si="95"/>
+        <v>0.21995298400000002</v>
+      </c>
+      <c r="F144" s="36">
+        <f t="shared" si="96"/>
+        <v>-2.3263999999999931E-2</v>
+      </c>
+      <c r="H144" s="40">
+        <f t="shared" si="97"/>
+        <v>-3.1406399999999906</v>
+      </c>
+      <c r="I144" t="s">
+        <v>7</v>
+      </c>
+      <c r="J144" t="s">
+        <v>530</v>
+      </c>
+      <c r="K144" s="2">
+        <f t="shared" si="98"/>
+        <v>134.92947599999999</v>
+      </c>
+      <c r="L144" s="2">
+        <f t="shared" si="99"/>
+        <v>-7.0524000000006026E-2</v>
+      </c>
+      <c r="M144" s="1">
+        <f t="shared" si="100"/>
+        <v>0.89952983999999991</v>
+      </c>
+      <c r="N144" s="6">
+        <f t="shared" si="101"/>
+        <v>16478.03000000001</v>
+      </c>
+      <c r="O144" s="2">
+        <f t="shared" si="102"/>
+        <v>15715.097211000009</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="15"/>
+      <c r="R144" s="6">
+        <f t="shared" si="103"/>
+        <v>7247.8200000000006</v>
+      </c>
+      <c r="S144" s="6">
+        <f t="shared" si="104"/>
+        <v>22962.917211000011</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="105"/>
+        <v>22070</v>
+      </c>
+      <c r="U144" s="6">
+        <f t="shared" si="106"/>
+        <v>892.91721100001087</v>
+      </c>
+      <c r="V144" s="4">
+        <f t="shared" si="107"/>
+        <v>4.0458414635252016E-2</v>
+      </c>
+      <c r="W144" s="4">
+        <f t="shared" si="108"/>
+        <v>6.0241962450868103E-2</v>
+      </c>
+      <c r="X144" s="1">
+        <f t="shared" si="109"/>
+        <v>0.31563149983957833</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
+      <c r="A145" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="B145">
+        <v>240</v>
+      </c>
+      <c r="C145" s="2">
+        <f>111.33+143.13</f>
+        <v>254.45999999999998</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="E145" s="1">
+        <f t="shared" si="95"/>
+        <v>0.28991962800000004</v>
+      </c>
+      <c r="F145" s="36">
+        <f t="shared" si="96"/>
+        <v>-1.184699999999997E-2</v>
+      </c>
+      <c r="H145" s="40">
+        <f t="shared" si="97"/>
+        <v>-2.8432799999999929</v>
+      </c>
+      <c r="I145" t="s">
+        <v>7</v>
+      </c>
+      <c r="J145" t="s">
+        <v>531</v>
+      </c>
+      <c r="K145" s="2">
+        <f t="shared" si="98"/>
+        <v>239.87944199999998</v>
+      </c>
+      <c r="L145" s="2">
+        <f t="shared" si="99"/>
+        <v>-0.12055800000001682</v>
+      </c>
+      <c r="M145" s="1">
+        <f t="shared" si="100"/>
+        <v>1.5991962799999999</v>
+      </c>
+      <c r="N145" s="6">
+        <f t="shared" si="101"/>
+        <v>16732.490000000009</v>
+      </c>
+      <c r="O145" s="2">
+        <f t="shared" si="102"/>
+        <v>15773.718323000008</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="6">
+        <f t="shared" si="103"/>
+        <v>7247.8200000000006</v>
+      </c>
+      <c r="S145" s="6">
+        <f t="shared" si="104"/>
+        <v>23021.538323000008</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="105"/>
+        <v>22310</v>
+      </c>
+      <c r="U145" s="6">
+        <f t="shared" si="106"/>
+        <v>711.53832300000795</v>
+      </c>
+      <c r="V145" s="4">
+        <f t="shared" si="107"/>
+        <v>3.1893246212461035E-2</v>
+      </c>
+      <c r="W145" s="4">
+        <f t="shared" si="108"/>
+        <v>4.7240062394687143E-2</v>
+      </c>
+      <c r="X145" s="1">
+        <f t="shared" si="109"/>
+        <v>0.31482778858261434</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:X1" xr:uid="{EBD5E519-1AC8-D646-A624-501481F39CB6}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="L1:L35 L142:L1048576">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="between">
+  <conditionalFormatting sqref="L1:L35 L146:L1048576">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
       <formula>-0.01</formula>
       <formula>0.01</formula>
     </cfRule>
@@ -26964,16 +27542,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F141">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="F2:F145">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36:L141">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+  <conditionalFormatting sqref="L36:L145">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="between">
       <formula>-0.3</formula>
       <formula>-0.03</formula>
     </cfRule>
@@ -27035,7 +27613,7 @@
   <dimension ref="A1:Y134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
@@ -38019,7 +38597,7 @@
   <autoFilter ref="A1:X1" xr:uid="{97C2E941-0B08-D04E-A558-71A6284C31B0}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
       <formula>-0.45</formula>
       <formula>0.45</formula>
     </cfRule>
@@ -38065,10 +38643,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F134">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49506,7 +50084,7 @@
   <autoFilter ref="A1:X1" xr:uid="{EBD5E519-1AC8-D646-A624-501481F39CB6}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="between">
       <formula>-0.01</formula>
       <formula>0.01</formula>
     </cfRule>
@@ -49566,10 +50144,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F136">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49631,7 +50209,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -49709,11 +50287,11 @@
       </c>
       <c r="J2" s="56">
         <f t="shared" si="0"/>
-        <v>2202.7600000000002</v>
+        <v>2201.7600000000002</v>
       </c>
       <c r="K2" s="57">
         <f t="shared" si="0"/>
-        <v>202.76</v>
+        <v>201.76</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -49822,11 +50400,11 @@
         <v>1000</v>
       </c>
       <c r="J5">
-        <v>1001</v>
-      </c>
-      <c r="K5" s="29">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="62">
         <f>J5-I5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">

--- a/invest/配置.xlsx
+++ b/invest/配置.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DEEB4E-47A4-1E4C-9FD0-52881BA8BFB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E247EA7-10FE-1446-80BB-89D63E04282B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hs300" sheetId="14" r:id="rId1"/>
     <sheet name="zz500" sheetId="11" r:id="rId2"/>
-    <sheet name="hs300（原始）" sheetId="13" r:id="rId3"/>
-    <sheet name="zz500(原始)" sheetId="2" r:id="rId4"/>
-    <sheet name="可转债收益" sheetId="4" r:id="rId5"/>
-    <sheet name="可转债申购参数" sheetId="3" r:id="rId6"/>
+    <sheet name="创业板回测" sheetId="15" r:id="rId3"/>
+    <sheet name="hs300（原始）" sheetId="13" r:id="rId4"/>
+    <sheet name="zz500(原始)" sheetId="2" r:id="rId5"/>
+    <sheet name="可转债收益" sheetId="4" r:id="rId6"/>
+    <sheet name="可转债申购参数" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hs300'!$A$1:$X$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'hs300（原始）'!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'hs300（原始）'!$A$1:$X$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'zz500'!$A$1:$X$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'zz500(原始)'!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'zz500(原始)'!$A$1:$X$1</definedName>
     <definedName name="F" localSheetId="1">'zz500'!$H$36:$H$51</definedName>
     <definedName name="F">'zz500(原始)'!$H$36:$H$51</definedName>
   </definedNames>
@@ -929,7 +930,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="563">
   <si>
     <t>份数</t>
     <rPh sb="0" eb="1">
@@ -2397,10 +2398,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>出售日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>环境转债</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2690,6 +2687,95 @@
   <si>
     <t>DT_ZZ500_20190802</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>份数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好客转债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金占用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC出售日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZSQ出售日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190805</t>
+  </si>
+  <si>
+    <t>20190805购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190806</t>
+  </si>
+  <si>
+    <t>20190806购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190807</t>
+  </si>
+  <si>
+    <t>20190807购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190808</t>
+  </si>
+  <si>
+    <t>20190808购入</t>
+  </si>
+  <si>
+    <t>DT_ZZ500_20190809</t>
+  </si>
+  <si>
+    <t>20190809购入</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190805</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190806</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190807</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190808</t>
+  </si>
+  <si>
+    <t>DT_HS300_20190809</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2791,7 @@
     <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="182" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2813,10 +2899,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF008000"/>
       <name val="DengXian"/>
-      <family val="2"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2844,7 +2938,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2946,8 +3040,17 @@
     <xf numFmtId="182" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -3338,14 +3441,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1BFEAF-3110-834A-B656-D9CF9C34C8E1}">
-  <dimension ref="A1:Y144"/>
+  <dimension ref="A1:Y149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D23" sqref="D23"/>
       <selection pane="topRight" activeCell="D23" sqref="D23"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23:H144"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3390,14 +3493,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="38">
-        <v>1.2824</v>
+        <v>1.2810999999999999</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="45" t="str">
-        <f>"盈利"&amp;ROUND(SUM(H2:H19964),2)</f>
-        <v>盈利1292.59</v>
+        <f>"盈利"&amp;ROUND(SUM(H2:H19962),2)</f>
+        <v>盈利1277.98</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -5231,11 +5334,11 @@
       </c>
       <c r="F23" s="44">
         <f t="shared" si="0"/>
-        <v>0.20616844444444446</v>
+        <v>0.20494572222222207</v>
       </c>
       <c r="H23" s="41">
         <f t="shared" si="1"/>
-        <v>55.665480000000002</v>
+        <v>55.335344999999961</v>
       </c>
       <c r="I23" t="s">
         <v>7</v>
@@ -53